--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -2129,6 +2129,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="J21">
+        <v>143574</v>
+      </c>
       <c r="K21">
         <v>87</v>
       </c>
@@ -23876,6 +23879,9 @@
           <t>Trøndelag</t>
         </is>
       </c>
+      <c r="J306">
+        <v>205163</v>
+      </c>
       <c r="K306">
         <v>113</v>
       </c>
@@ -29725,6 +29731,9 @@
           <t>Svalbard</t>
         </is>
       </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
       <c r="K383">
         <v>0</v>
       </c>
@@ -29797,6 +29806,9 @@
         <is>
           <t>Ukjent Fylke</t>
         </is>
+      </c>
+      <c r="J384">
+        <v>0</v>
       </c>
       <c r="K384">
         <v>109</v>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V384"/>
+  <dimension ref="A1:W384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,6 +468,11 @@
           <t>2020-04-06</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,6 +559,9 @@
       <c r="V2">
         <v>163</v>
       </c>
+      <c r="W2">
+        <v>169</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +648,9 @@
       <c r="V3">
         <v>125</v>
       </c>
+      <c r="W3">
+        <v>125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -726,6 +737,9 @@
       <c r="V4">
         <v>98</v>
       </c>
+      <c r="W4">
+        <v>102</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -812,6 +826,9 @@
       <c r="V5">
         <v>65</v>
       </c>
+      <c r="W5">
+        <v>67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -898,6 +915,9 @@
       <c r="V6">
         <v>129</v>
       </c>
+      <c r="W6">
+        <v>136</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -984,6 +1004,9 @@
       <c r="V7">
         <v>84</v>
       </c>
+      <c r="W7">
+        <v>84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1070,6 +1093,9 @@
       <c r="V8">
         <v>119</v>
       </c>
+      <c r="W8">
+        <v>122</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1156,6 +1182,9 @@
       <c r="V9">
         <v>97</v>
       </c>
+      <c r="W9">
+        <v>102</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1242,6 +1271,9 @@
       <c r="V10">
         <v>64</v>
       </c>
+      <c r="W10">
+        <v>66</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1328,6 +1360,9 @@
       <c r="V11">
         <v>70</v>
       </c>
+      <c r="W11">
+        <v>73</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1414,6 +1449,9 @@
       <c r="V12">
         <v>108</v>
       </c>
+      <c r="W12">
+        <v>109</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1500,6 +1538,9 @@
       <c r="V13">
         <v>137</v>
       </c>
+      <c r="W13">
+        <v>140</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1586,6 +1627,9 @@
       <c r="V14">
         <v>129</v>
       </c>
+      <c r="W14">
+        <v>130</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1672,6 +1716,9 @@
       <c r="V15">
         <v>120</v>
       </c>
+      <c r="W15">
+        <v>121</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1758,6 +1805,9 @@
       <c r="V16">
         <v>86</v>
       </c>
+      <c r="W16">
+        <v>93</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1844,6 +1894,9 @@
       <c r="V17">
         <v>4</v>
       </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1930,6 +1983,9 @@
       <c r="V18">
         <v>2</v>
       </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2016,6 +2072,9 @@
       <c r="V19">
         <v>26</v>
       </c>
+      <c r="W19">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2092,6 +2151,9 @@
       <c r="V20">
         <v>14</v>
       </c>
+      <c r="W20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2168,6 +2230,9 @@
       <c r="V21">
         <v>125</v>
       </c>
+      <c r="W21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2244,6 +2309,9 @@
       <c r="V22">
         <v>49</v>
       </c>
+      <c r="W22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2320,6 +2388,9 @@
       <c r="V23">
         <v>45</v>
       </c>
+      <c r="W23">
+        <v>45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2396,6 +2467,9 @@
       <c r="V24">
         <v>3</v>
       </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2472,6 +2546,9 @@
       <c r="V25">
         <v>0</v>
       </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2548,6 +2625,9 @@
       <c r="V26">
         <v>0</v>
       </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2624,6 +2704,9 @@
       <c r="V27">
         <v>6</v>
       </c>
+      <c r="W27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2700,6 +2783,9 @@
       <c r="V28">
         <v>6</v>
       </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2776,6 +2862,9 @@
       <c r="V29">
         <v>12</v>
       </c>
+      <c r="W29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2852,6 +2941,9 @@
       <c r="V30">
         <v>12</v>
       </c>
+      <c r="W30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2928,6 +3020,9 @@
       <c r="V31">
         <v>13</v>
       </c>
+      <c r="W31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3004,6 +3099,9 @@
       <c r="V32">
         <v>11</v>
       </c>
+      <c r="W32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3080,6 +3178,9 @@
       <c r="V33">
         <v>13</v>
       </c>
+      <c r="W33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3156,6 +3257,9 @@
       <c r="V34">
         <v>0</v>
       </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3232,6 +3336,9 @@
       <c r="V35">
         <v>0</v>
       </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3308,6 +3415,9 @@
       <c r="V36">
         <v>3</v>
       </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3384,6 +3494,9 @@
       <c r="V37">
         <v>0</v>
       </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3460,6 +3573,9 @@
       <c r="V38">
         <v>1</v>
       </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3536,6 +3652,9 @@
       <c r="V39">
         <v>19</v>
       </c>
+      <c r="W39">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3612,6 +3731,9 @@
       <c r="V40">
         <v>34</v>
       </c>
+      <c r="W40">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3688,6 +3810,9 @@
       <c r="V41">
         <v>0</v>
       </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3764,6 +3889,9 @@
       <c r="V42">
         <v>11</v>
       </c>
+      <c r="W42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3840,6 +3968,9 @@
       <c r="V43">
         <v>19</v>
       </c>
+      <c r="W43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3916,6 +4047,9 @@
       <c r="V44">
         <v>14</v>
       </c>
+      <c r="W44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3992,6 +4126,9 @@
       <c r="V45">
         <v>25</v>
       </c>
+      <c r="W45">
+        <v>24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4068,6 +4205,9 @@
       <c r="V46">
         <v>1</v>
       </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4144,6 +4284,9 @@
       <c r="V47">
         <v>4</v>
       </c>
+      <c r="W47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4220,6 +4363,9 @@
       <c r="V48">
         <v>3</v>
       </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4296,6 +4442,9 @@
       <c r="V49">
         <v>7</v>
       </c>
+      <c r="W49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4372,6 +4521,9 @@
       <c r="V50">
         <v>2</v>
       </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4448,6 +4600,9 @@
       <c r="V51">
         <v>6</v>
       </c>
+      <c r="W51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4524,6 +4679,9 @@
       <c r="V52">
         <v>0</v>
       </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4600,6 +4758,9 @@
       <c r="V53">
         <v>0</v>
       </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4676,6 +4837,9 @@
       <c r="V54">
         <v>6</v>
       </c>
+      <c r="W54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4752,6 +4916,9 @@
       <c r="V55">
         <v>5</v>
       </c>
+      <c r="W55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4828,6 +4995,9 @@
       <c r="V56">
         <v>0</v>
       </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4904,6 +5074,9 @@
       <c r="V57">
         <v>10</v>
       </c>
+      <c r="W57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4980,6 +5153,9 @@
       <c r="V58">
         <v>0</v>
       </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5056,6 +5232,9 @@
       <c r="V59">
         <v>0</v>
       </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5132,6 +5311,9 @@
       <c r="V60">
         <v>0</v>
       </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5208,6 +5390,9 @@
       <c r="V61">
         <v>1</v>
       </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5284,6 +5469,9 @@
       <c r="V62">
         <v>2</v>
       </c>
+      <c r="W62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5360,6 +5548,9 @@
       <c r="V63">
         <v>2</v>
       </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5436,6 +5627,9 @@
       <c r="V64">
         <v>0</v>
       </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5512,6 +5706,9 @@
       <c r="V65">
         <v>3</v>
       </c>
+      <c r="W65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5588,6 +5785,9 @@
       <c r="V66">
         <v>4</v>
       </c>
+      <c r="W66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5664,6 +5864,9 @@
       <c r="V67">
         <v>1</v>
       </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5740,6 +5943,9 @@
       <c r="V68">
         <v>2</v>
       </c>
+      <c r="W68">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5816,6 +6022,9 @@
       <c r="V69">
         <v>27</v>
       </c>
+      <c r="W69">
+        <v>28</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5892,6 +6101,9 @@
       <c r="V70">
         <v>2</v>
       </c>
+      <c r="W70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5968,6 +6180,9 @@
       <c r="V71">
         <v>0</v>
       </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6044,6 +6259,9 @@
       <c r="V72">
         <v>2</v>
       </c>
+      <c r="W72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6120,6 +6338,9 @@
       <c r="V73">
         <v>4</v>
       </c>
+      <c r="W73">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6196,6 +6417,9 @@
       <c r="V74">
         <v>3</v>
       </c>
+      <c r="W74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6272,6 +6496,9 @@
       <c r="V75">
         <v>0</v>
       </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6348,6 +6575,9 @@
       <c r="V76">
         <v>0</v>
       </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6424,6 +6654,9 @@
       <c r="V77">
         <v>2</v>
       </c>
+      <c r="W77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6500,6 +6733,9 @@
       <c r="V78">
         <v>3</v>
       </c>
+      <c r="W78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6576,6 +6812,9 @@
       <c r="V79">
         <v>1</v>
       </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6652,6 +6891,9 @@
       <c r="V80">
         <v>1</v>
       </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6728,6 +6970,9 @@
       <c r="V81">
         <v>0</v>
       </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6804,6 +7049,9 @@
       <c r="V82">
         <v>5</v>
       </c>
+      <c r="W82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6880,6 +7128,9 @@
       <c r="V83">
         <v>0</v>
       </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6956,6 +7207,9 @@
       <c r="V84">
         <v>0</v>
       </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7032,6 +7286,9 @@
       <c r="V85">
         <v>5</v>
       </c>
+      <c r="W85">
+        <v>5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7108,6 +7365,9 @@
       <c r="V86">
         <v>0</v>
       </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7184,6 +7444,9 @@
       <c r="V87">
         <v>0</v>
       </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7260,6 +7523,9 @@
       <c r="V88">
         <v>0</v>
       </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7336,6 +7602,9 @@
       <c r="V89">
         <v>4</v>
       </c>
+      <c r="W89">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7412,6 +7681,9 @@
       <c r="V90">
         <v>0</v>
       </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7488,6 +7760,9 @@
       <c r="V91">
         <v>0</v>
       </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7564,6 +7839,9 @@
       <c r="V92">
         <v>0</v>
       </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7640,6 +7918,9 @@
       <c r="V93">
         <v>1</v>
       </c>
+      <c r="W93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7716,6 +7997,9 @@
       <c r="V94">
         <v>0</v>
       </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7792,6 +8076,9 @@
       <c r="V95">
         <v>1</v>
       </c>
+      <c r="W95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7868,6 +8155,9 @@
       <c r="V96">
         <v>0</v>
       </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7944,6 +8234,9 @@
       <c r="V97">
         <v>0</v>
       </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8020,6 +8313,9 @@
       <c r="V98">
         <v>0</v>
       </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8096,6 +8392,9 @@
       <c r="V99">
         <v>0</v>
       </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8172,6 +8471,9 @@
       <c r="V100">
         <v>1</v>
       </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8248,6 +8550,9 @@
       <c r="V101">
         <v>3</v>
       </c>
+      <c r="W101">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8324,6 +8629,9 @@
       <c r="V102">
         <v>3</v>
       </c>
+      <c r="W102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8400,6 +8708,9 @@
       <c r="V103">
         <v>5</v>
       </c>
+      <c r="W103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8476,6 +8787,9 @@
       <c r="V104">
         <v>0</v>
       </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8552,6 +8866,9 @@
       <c r="V105">
         <v>0</v>
       </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8628,6 +8945,9 @@
       <c r="V106">
         <v>3</v>
       </c>
+      <c r="W106">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8704,6 +9024,9 @@
       <c r="V107">
         <v>0</v>
       </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8780,6 +9103,9 @@
       <c r="V108">
         <v>0</v>
       </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8856,6 +9182,9 @@
       <c r="V109">
         <v>0</v>
       </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8932,6 +9261,9 @@
       <c r="V110">
         <v>22</v>
       </c>
+      <c r="W110">
+        <v>24</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9008,6 +9340,9 @@
       <c r="V111">
         <v>78</v>
       </c>
+      <c r="W111">
+        <v>78</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9084,6 +9419,9 @@
       <c r="V112">
         <v>40</v>
       </c>
+      <c r="W112">
+        <v>40</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9160,6 +9498,9 @@
       <c r="V113">
         <v>62</v>
       </c>
+      <c r="W113">
+        <v>69</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9236,6 +9577,9 @@
       <c r="V114">
         <v>138</v>
       </c>
+      <c r="W114">
+        <v>140</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9312,6 +9656,9 @@
       <c r="V115">
         <v>19</v>
       </c>
+      <c r="W115">
+        <v>19</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9388,6 +9735,9 @@
       <c r="V116">
         <v>6</v>
       </c>
+      <c r="W116">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9464,6 +9814,9 @@
       <c r="V117">
         <v>2</v>
       </c>
+      <c r="W117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9540,6 +9893,9 @@
       <c r="V118">
         <v>1</v>
       </c>
+      <c r="W118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9616,6 +9972,9 @@
       <c r="V119">
         <v>1</v>
       </c>
+      <c r="W119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9692,6 +10051,9 @@
       <c r="V120">
         <v>43</v>
       </c>
+      <c r="W120">
+        <v>44</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -9768,6 +10130,9 @@
       <c r="V121">
         <v>1</v>
       </c>
+      <c r="W121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9844,6 +10209,9 @@
       <c r="V122">
         <v>1</v>
       </c>
+      <c r="W122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9920,6 +10288,9 @@
       <c r="V123">
         <v>2</v>
       </c>
+      <c r="W123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9996,6 +10367,9 @@
       <c r="V124">
         <v>6</v>
       </c>
+      <c r="W124">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10072,6 +10446,9 @@
       <c r="V125">
         <v>21</v>
       </c>
+      <c r="W125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10148,6 +10525,9 @@
       <c r="V126">
         <v>87</v>
       </c>
+      <c r="W126">
+        <v>88</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10224,6 +10604,9 @@
       <c r="V127">
         <v>16</v>
       </c>
+      <c r="W127">
+        <v>16</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10300,6 +10683,9 @@
       <c r="V128">
         <v>16</v>
       </c>
+      <c r="W128">
+        <v>16</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10376,6 +10762,9 @@
       <c r="V129">
         <v>43</v>
       </c>
+      <c r="W129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10452,6 +10841,9 @@
       <c r="V130">
         <v>322</v>
       </c>
+      <c r="W130">
+        <v>327</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10528,6 +10920,9 @@
       <c r="V131">
         <v>136</v>
       </c>
+      <c r="W131">
+        <v>138</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10604,6 +10999,9 @@
       <c r="V132">
         <v>5</v>
       </c>
+      <c r="W132">
+        <v>5</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10680,6 +11078,9 @@
       <c r="V133">
         <v>18</v>
       </c>
+      <c r="W133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10756,6 +11157,9 @@
       <c r="V134">
         <v>30</v>
       </c>
+      <c r="W134">
+        <v>31</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10832,6 +11236,9 @@
       <c r="V135">
         <v>68</v>
       </c>
+      <c r="W135">
+        <v>71</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -10908,6 +11315,9 @@
       <c r="V136">
         <v>120</v>
       </c>
+      <c r="W136">
+        <v>120</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10984,6 +11394,9 @@
       <c r="V137">
         <v>44</v>
       </c>
+      <c r="W137">
+        <v>44</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11060,6 +11473,9 @@
       <c r="V138">
         <v>7</v>
       </c>
+      <c r="W138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11136,6 +11552,9 @@
       <c r="V139">
         <v>48</v>
       </c>
+      <c r="W139">
+        <v>48</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11212,6 +11631,9 @@
       <c r="V140">
         <v>12</v>
       </c>
+      <c r="W140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11288,6 +11710,9 @@
       <c r="V141">
         <v>28</v>
       </c>
+      <c r="W141">
+        <v>28</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11364,6 +11789,9 @@
       <c r="V142">
         <v>15</v>
       </c>
+      <c r="W142">
+        <v>16</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11440,6 +11868,9 @@
       <c r="V143">
         <v>2</v>
       </c>
+      <c r="W143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11516,6 +11947,9 @@
       <c r="V144">
         <v>10</v>
       </c>
+      <c r="W144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11592,6 +12026,9 @@
       <c r="V145">
         <v>1</v>
       </c>
+      <c r="W145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11668,6 +12105,9 @@
       <c r="V146">
         <v>7</v>
       </c>
+      <c r="W146">
+        <v>15</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11744,6 +12184,9 @@
       <c r="V147">
         <v>9</v>
       </c>
+      <c r="W147">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11820,6 +12263,9 @@
       <c r="V148">
         <v>8</v>
       </c>
+      <c r="W148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11896,6 +12342,9 @@
       <c r="V149">
         <v>13</v>
       </c>
+      <c r="W149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11972,6 +12421,9 @@
       <c r="V150">
         <v>43</v>
       </c>
+      <c r="W150">
+        <v>43</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12048,6 +12500,9 @@
       <c r="V151">
         <v>0</v>
       </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12124,6 +12579,9 @@
       <c r="V152">
         <v>0</v>
       </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12200,6 +12658,9 @@
       <c r="V153">
         <v>10</v>
       </c>
+      <c r="W153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12276,6 +12737,9 @@
       <c r="V154">
         <v>4</v>
       </c>
+      <c r="W154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12352,6 +12816,9 @@
       <c r="V155">
         <v>24</v>
       </c>
+      <c r="W155">
+        <v>25</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12428,6 +12895,9 @@
       <c r="V156">
         <v>1</v>
       </c>
+      <c r="W156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12504,6 +12974,9 @@
       <c r="V157">
         <v>1</v>
       </c>
+      <c r="W157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -12580,6 +13053,9 @@
       <c r="V158">
         <v>2</v>
       </c>
+      <c r="W158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -12656,6 +13132,9 @@
       <c r="V159">
         <v>5</v>
       </c>
+      <c r="W159">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -12732,6 +13211,9 @@
       <c r="V160">
         <v>9</v>
       </c>
+      <c r="W160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12808,6 +13290,9 @@
       <c r="V161">
         <v>1</v>
       </c>
+      <c r="W161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12884,6 +13369,9 @@
       <c r="V162">
         <v>70</v>
       </c>
+      <c r="W162">
+        <v>71</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12960,6 +13448,9 @@
       <c r="V163">
         <v>30</v>
       </c>
+      <c r="W163">
+        <v>30</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13036,6 +13527,9 @@
       <c r="V164">
         <v>14</v>
       </c>
+      <c r="W164">
+        <v>14</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13112,6 +13606,9 @@
       <c r="V165">
         <v>56</v>
       </c>
+      <c r="W165">
+        <v>56</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13188,6 +13685,9 @@
       <c r="V166">
         <v>11</v>
       </c>
+      <c r="W166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13264,6 +13764,9 @@
       <c r="V167">
         <v>31</v>
       </c>
+      <c r="W167">
+        <v>31</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13340,6 +13843,9 @@
       <c r="V168">
         <v>0</v>
       </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13416,6 +13922,9 @@
       <c r="V169">
         <v>11</v>
       </c>
+      <c r="W169">
+        <v>13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -13492,6 +14001,9 @@
       <c r="V170">
         <v>3</v>
       </c>
+      <c r="W170">
+        <v>3</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -13568,6 +14080,9 @@
       <c r="V171">
         <v>5</v>
       </c>
+      <c r="W171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -13644,6 +14159,9 @@
       <c r="V172">
         <v>3</v>
       </c>
+      <c r="W172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -13720,6 +14238,9 @@
       <c r="V173">
         <v>2</v>
       </c>
+      <c r="W173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -13796,6 +14317,9 @@
       <c r="V174">
         <v>11</v>
       </c>
+      <c r="W174">
+        <v>11</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13872,6 +14396,9 @@
       <c r="V175">
         <v>2</v>
       </c>
+      <c r="W175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13948,6 +14475,9 @@
       <c r="V176">
         <v>4</v>
       </c>
+      <c r="W176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14024,6 +14554,9 @@
       <c r="V177">
         <v>0</v>
       </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14100,6 +14633,9 @@
       <c r="V178">
         <v>0</v>
       </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14176,6 +14712,9 @@
       <c r="V179">
         <v>2</v>
       </c>
+      <c r="W179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14252,6 +14791,9 @@
       <c r="V180">
         <v>0</v>
       </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14328,6 +14870,9 @@
       <c r="V181">
         <v>0</v>
       </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14404,6 +14949,9 @@
       <c r="V182">
         <v>1</v>
       </c>
+      <c r="W182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -14480,6 +15028,9 @@
       <c r="V183">
         <v>0</v>
       </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -14556,6 +15107,9 @@
       <c r="V184">
         <v>0</v>
       </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -14632,6 +15186,9 @@
       <c r="V185">
         <v>5</v>
       </c>
+      <c r="W185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -14708,6 +15265,9 @@
       <c r="V186">
         <v>2</v>
       </c>
+      <c r="W186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -14784,6 +15344,9 @@
       <c r="V187">
         <v>1</v>
       </c>
+      <c r="W187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -14860,6 +15423,9 @@
       <c r="V188">
         <v>3</v>
       </c>
+      <c r="W188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14936,6 +15502,9 @@
       <c r="V189">
         <v>1</v>
       </c>
+      <c r="W189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15012,6 +15581,9 @@
       <c r="V190">
         <v>13</v>
       </c>
+      <c r="W190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15088,6 +15660,9 @@
       <c r="V191">
         <v>36</v>
       </c>
+      <c r="W191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15164,6 +15739,9 @@
       <c r="V192">
         <v>1</v>
       </c>
+      <c r="W192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15240,6 +15818,9 @@
       <c r="V193">
         <v>8</v>
       </c>
+      <c r="W193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15316,6 +15897,9 @@
       <c r="V194">
         <v>2</v>
       </c>
+      <c r="W194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15392,6 +15976,9 @@
       <c r="V195">
         <v>5</v>
       </c>
+      <c r="W195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -15468,6 +16055,9 @@
       <c r="V196">
         <v>4</v>
       </c>
+      <c r="W196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -15544,6 +16134,9 @@
       <c r="V197">
         <v>10</v>
       </c>
+      <c r="W197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -15620,6 +16213,9 @@
       <c r="V198">
         <v>9</v>
       </c>
+      <c r="W198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -15696,6 +16292,9 @@
       <c r="V199">
         <v>1</v>
       </c>
+      <c r="W199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -15772,6 +16371,9 @@
       <c r="V200">
         <v>1</v>
       </c>
+      <c r="W200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -15848,6 +16450,9 @@
       <c r="V201">
         <v>0</v>
       </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15924,6 +16529,9 @@
       <c r="V202">
         <v>1</v>
       </c>
+      <c r="W202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16000,6 +16608,9 @@
       <c r="V203">
         <v>9</v>
       </c>
+      <c r="W203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16076,6 +16687,9 @@
       <c r="V204">
         <v>0</v>
       </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16152,6 +16766,9 @@
       <c r="V205">
         <v>0</v>
       </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16228,6 +16845,9 @@
       <c r="V206">
         <v>0</v>
       </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -16304,6 +16924,9 @@
       <c r="V207">
         <v>21</v>
       </c>
+      <c r="W207">
+        <v>21</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -16380,6 +17003,9 @@
       <c r="V208">
         <v>17</v>
       </c>
+      <c r="W208">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -16456,6 +17082,9 @@
       <c r="V209">
         <v>48</v>
       </c>
+      <c r="W209">
+        <v>49</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -16532,6 +17161,9 @@
       <c r="V210">
         <v>34</v>
       </c>
+      <c r="W210">
+        <v>35</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -16608,6 +17240,9 @@
       <c r="V211">
         <v>20</v>
       </c>
+      <c r="W211">
+        <v>20</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -16684,6 +17319,9 @@
       <c r="V212">
         <v>8</v>
       </c>
+      <c r="W212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -16760,6 +17398,9 @@
       <c r="V213">
         <v>37</v>
       </c>
+      <c r="W213">
+        <v>37</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -16836,6 +17477,9 @@
       <c r="V214">
         <v>4</v>
       </c>
+      <c r="W214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -16912,6 +17556,9 @@
       <c r="V215">
         <v>21</v>
       </c>
+      <c r="W215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -16988,6 +17635,9 @@
       <c r="V216">
         <v>2</v>
       </c>
+      <c r="W216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17064,6 +17714,9 @@
       <c r="V217">
         <v>5</v>
       </c>
+      <c r="W217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17140,6 +17793,9 @@
       <c r="V218">
         <v>1</v>
       </c>
+      <c r="W218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17216,6 +17872,9 @@
       <c r="V219">
         <v>1</v>
       </c>
+      <c r="W219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -17292,6 +17951,9 @@
       <c r="V220">
         <v>2</v>
       </c>
+      <c r="W220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -17368,6 +18030,9 @@
       <c r="V221">
         <v>0</v>
       </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -17444,6 +18109,9 @@
       <c r="V222">
         <v>1</v>
       </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -17520,6 +18188,9 @@
       <c r="V223">
         <v>0</v>
       </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -17596,6 +18267,9 @@
       <c r="V224">
         <v>0</v>
       </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -17672,6 +18346,9 @@
       <c r="V225">
         <v>0</v>
       </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -17748,6 +18425,9 @@
       <c r="V226">
         <v>0</v>
       </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -17824,6 +18504,9 @@
       <c r="V227">
         <v>0</v>
       </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -17900,6 +18583,9 @@
       <c r="V228">
         <v>0</v>
       </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -17976,6 +18662,9 @@
       <c r="V229">
         <v>2</v>
       </c>
+      <c r="W229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -18052,6 +18741,9 @@
       <c r="V230">
         <v>0</v>
       </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -18128,6 +18820,9 @@
       <c r="V231">
         <v>1</v>
       </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -18204,6 +18899,9 @@
       <c r="V232">
         <v>23</v>
       </c>
+      <c r="W232">
+        <v>23</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -18280,6 +18978,9 @@
       <c r="V233">
         <v>151</v>
       </c>
+      <c r="W233">
+        <v>156</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -18356,6 +19057,9 @@
       <c r="V234">
         <v>9</v>
       </c>
+      <c r="W234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -18432,6 +19136,9 @@
       <c r="V235">
         <v>11</v>
       </c>
+      <c r="W235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -18508,6 +19215,9 @@
       <c r="V236">
         <v>0</v>
       </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -18584,6 +19294,9 @@
       <c r="V237">
         <v>2</v>
       </c>
+      <c r="W237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -18660,6 +19373,9 @@
       <c r="V238">
         <v>0</v>
       </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -18736,6 +19452,9 @@
       <c r="V239">
         <v>0</v>
       </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -18812,6 +19531,9 @@
       <c r="V240">
         <v>2</v>
       </c>
+      <c r="W240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -18888,6 +19610,9 @@
       <c r="V241">
         <v>7</v>
       </c>
+      <c r="W241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -18964,6 +19689,9 @@
       <c r="V242">
         <v>3</v>
       </c>
+      <c r="W242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19040,6 +19768,9 @@
       <c r="V243">
         <v>1</v>
       </c>
+      <c r="W243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19116,6 +19847,9 @@
       <c r="V244">
         <v>1</v>
       </c>
+      <c r="W244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19192,6 +19926,9 @@
       <c r="V245">
         <v>2</v>
       </c>
+      <c r="W245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -19268,6 +20005,9 @@
       <c r="V246">
         <v>2</v>
       </c>
+      <c r="W246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -19344,6 +20084,9 @@
       <c r="V247">
         <v>0</v>
       </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -19420,6 +20163,9 @@
       <c r="V248">
         <v>3</v>
       </c>
+      <c r="W248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -19496,6 +20242,9 @@
       <c r="V249">
         <v>6</v>
       </c>
+      <c r="W249">
+        <v>6</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -19572,6 +20321,9 @@
       <c r="V250">
         <v>0</v>
       </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -19648,6 +20400,9 @@
       <c r="V251">
         <v>4</v>
       </c>
+      <c r="W251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -19724,6 +20479,9 @@
       <c r="V252">
         <v>1</v>
       </c>
+      <c r="W252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -19800,6 +20558,9 @@
       <c r="V253">
         <v>1</v>
       </c>
+      <c r="W253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -19876,6 +20637,9 @@
       <c r="V254">
         <v>1</v>
       </c>
+      <c r="W254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -19962,6 +20726,9 @@
       <c r="V255">
         <v>9</v>
       </c>
+      <c r="W255">
+        <v>9</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -20048,6 +20815,9 @@
       <c r="V256">
         <v>57</v>
       </c>
+      <c r="W256">
+        <v>57</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20134,6 +20904,9 @@
       <c r="V257">
         <v>43</v>
       </c>
+      <c r="W257">
+        <v>43</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -20220,6 +20993,9 @@
       <c r="V258">
         <v>43</v>
       </c>
+      <c r="W258">
+        <v>44</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -20306,6 +21082,9 @@
       <c r="V259">
         <v>43</v>
       </c>
+      <c r="W259">
+        <v>43</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -20392,6 +21171,9 @@
       <c r="V260">
         <v>31</v>
       </c>
+      <c r="W260">
+        <v>32</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -20478,6 +21260,9 @@
       <c r="V261">
         <v>55</v>
       </c>
+      <c r="W261">
+        <v>55</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -20564,6 +21349,9 @@
       <c r="V262">
         <v>33</v>
       </c>
+      <c r="W262">
+        <v>36</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -20650,6 +21438,9 @@
       <c r="V263">
         <v>37</v>
       </c>
+      <c r="W263">
+        <v>37</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -20726,6 +21517,9 @@
       <c r="V264">
         <v>8</v>
       </c>
+      <c r="W264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -20802,6 +21596,9 @@
       <c r="V265">
         <v>4</v>
       </c>
+      <c r="W265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -20878,6 +21675,9 @@
       <c r="V266">
         <v>3</v>
       </c>
+      <c r="W266">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -20954,6 +21754,9 @@
       <c r="V267">
         <v>4</v>
       </c>
+      <c r="W267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -21030,6 +21833,9 @@
       <c r="V268">
         <v>6</v>
       </c>
+      <c r="W268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -21106,6 +21912,9 @@
       <c r="V269">
         <v>7</v>
       </c>
+      <c r="W269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -21182,6 +21991,9 @@
       <c r="V270">
         <v>0</v>
       </c>
+      <c r="W270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -21258,6 +22070,9 @@
       <c r="V271">
         <v>4</v>
       </c>
+      <c r="W271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -21334,6 +22149,9 @@
       <c r="V272">
         <v>0</v>
       </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -21410,6 +22228,9 @@
       <c r="V273">
         <v>0</v>
       </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -21486,6 +22307,9 @@
       <c r="V274">
         <v>2</v>
       </c>
+      <c r="W274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -21562,6 +22386,9 @@
       <c r="V275">
         <v>24</v>
       </c>
+      <c r="W275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -21638,6 +22465,9 @@
       <c r="V276">
         <v>9</v>
       </c>
+      <c r="W276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -21714,6 +22544,9 @@
       <c r="V277">
         <v>0</v>
       </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -21790,6 +22623,9 @@
       <c r="V278">
         <v>15</v>
       </c>
+      <c r="W278">
+        <v>14</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -21866,6 +22702,9 @@
       <c r="V279">
         <v>4</v>
       </c>
+      <c r="W279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -21942,6 +22781,9 @@
       <c r="V280">
         <v>40</v>
       </c>
+      <c r="W280">
+        <v>40</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -22018,6 +22860,9 @@
       <c r="V281">
         <v>27</v>
       </c>
+      <c r="W281">
+        <v>27</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -22094,6 +22939,9 @@
       <c r="V282">
         <v>1</v>
       </c>
+      <c r="W282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -22170,6 +23018,9 @@
       <c r="V283">
         <v>0</v>
       </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -22246,6 +23097,9 @@
       <c r="V284">
         <v>0</v>
       </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -22322,6 +23176,9 @@
       <c r="V285">
         <v>17</v>
       </c>
+      <c r="W285">
+        <v>17</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -22398,6 +23255,9 @@
       <c r="V286">
         <v>0</v>
       </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -22474,6 +23334,9 @@
       <c r="V287">
         <v>0</v>
       </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -22550,6 +23413,9 @@
       <c r="V288">
         <v>0</v>
       </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -22626,6 +23492,9 @@
       <c r="V289">
         <v>0</v>
       </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -22702,6 +23571,9 @@
       <c r="V290">
         <v>3</v>
       </c>
+      <c r="W290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -22778,6 +23650,9 @@
       <c r="V291">
         <v>0</v>
       </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -22854,6 +23729,9 @@
       <c r="V292">
         <v>2</v>
       </c>
+      <c r="W292">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -22930,6 +23808,9 @@
       <c r="V293">
         <v>0</v>
       </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -23006,6 +23887,9 @@
       <c r="V294">
         <v>7</v>
       </c>
+      <c r="W294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -23082,6 +23966,9 @@
       <c r="V295">
         <v>0</v>
       </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -23158,6 +24045,9 @@
       <c r="V296">
         <v>0</v>
       </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -23234,6 +24124,9 @@
       <c r="V297">
         <v>1</v>
       </c>
+      <c r="W297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -23310,6 +24203,9 @@
       <c r="V298">
         <v>4</v>
       </c>
+      <c r="W298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -23386,6 +24282,9 @@
       <c r="V299">
         <v>0</v>
       </c>
+      <c r="W299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -23462,6 +24361,9 @@
       <c r="V300">
         <v>0</v>
       </c>
+      <c r="W300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -23538,6 +24440,9 @@
       <c r="V301">
         <v>17</v>
       </c>
+      <c r="W301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -23614,6 +24519,9 @@
       <c r="V302">
         <v>0</v>
       </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -23690,6 +24598,9 @@
       <c r="V303">
         <v>0</v>
       </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -23766,6 +24677,9 @@
       <c r="V304">
         <v>4</v>
       </c>
+      <c r="W304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -23842,6 +24756,9 @@
       <c r="V305">
         <v>11</v>
       </c>
+      <c r="W305">
+        <v>11</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -23918,6 +24835,9 @@
       <c r="V306">
         <v>198</v>
       </c>
+      <c r="W306">
+        <v>200</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -23994,6 +24914,9 @@
       <c r="V307">
         <v>15</v>
       </c>
+      <c r="W307">
+        <v>15</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -24070,6 +24993,9 @@
       <c r="V308">
         <v>5</v>
       </c>
+      <c r="W308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -24146,6 +25072,9 @@
       <c r="V309">
         <v>0</v>
       </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -24222,6 +25151,9 @@
       <c r="V310">
         <v>0</v>
       </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -24298,6 +25230,9 @@
       <c r="V311">
         <v>8</v>
       </c>
+      <c r="W311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -24374,6 +25309,9 @@
       <c r="V312">
         <v>5</v>
       </c>
+      <c r="W312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -24450,6 +25388,9 @@
       <c r="V313">
         <v>0</v>
       </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -24526,6 +25467,9 @@
       <c r="V314">
         <v>1</v>
       </c>
+      <c r="W314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -24602,6 +25546,9 @@
       <c r="V315">
         <v>7</v>
       </c>
+      <c r="W315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -24678,6 +25625,9 @@
       <c r="V316">
         <v>3</v>
       </c>
+      <c r="W316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -24754,6 +25704,9 @@
       <c r="V317">
         <v>5</v>
       </c>
+      <c r="W317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -24830,6 +25783,9 @@
       <c r="V318">
         <v>9</v>
       </c>
+      <c r="W318">
+        <v>9</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -24906,6 +25862,9 @@
       <c r="V319">
         <v>6</v>
       </c>
+      <c r="W319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -24982,6 +25941,9 @@
       <c r="V320">
         <v>0</v>
       </c>
+      <c r="W320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -25058,6 +26020,9 @@
       <c r="V321">
         <v>1</v>
       </c>
+      <c r="W321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -25134,6 +26099,9 @@
       <c r="V322">
         <v>7</v>
       </c>
+      <c r="W322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -25210,6 +26178,9 @@
       <c r="V323">
         <v>28</v>
       </c>
+      <c r="W323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -25286,6 +26257,9 @@
       <c r="V324">
         <v>18</v>
       </c>
+      <c r="W324">
+        <v>18</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -25362,6 +26336,9 @@
       <c r="V325">
         <v>13</v>
       </c>
+      <c r="W325">
+        <v>13</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -25438,6 +26415,9 @@
       <c r="V326">
         <v>0</v>
       </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -25514,6 +26494,9 @@
       <c r="V327">
         <v>0</v>
       </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -25590,6 +26573,9 @@
       <c r="V328">
         <v>0</v>
       </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -25666,6 +26652,9 @@
       <c r="V329">
         <v>0</v>
       </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -25742,6 +26731,9 @@
       <c r="V330">
         <v>3</v>
       </c>
+      <c r="W330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -25818,6 +26810,9 @@
       <c r="V331">
         <v>1</v>
       </c>
+      <c r="W331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -25894,6 +26889,9 @@
       <c r="V332">
         <v>4</v>
       </c>
+      <c r="W332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -25970,6 +26968,9 @@
       <c r="V333">
         <v>0</v>
       </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -26046,6 +27047,9 @@
       <c r="V334">
         <v>0</v>
       </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -26122,6 +27126,9 @@
       <c r="V335">
         <v>7</v>
       </c>
+      <c r="W335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -26198,6 +27205,9 @@
       <c r="V336">
         <v>2</v>
       </c>
+      <c r="W336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -26274,6 +27284,9 @@
       <c r="V337">
         <v>1</v>
       </c>
+      <c r="W337">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -26350,6 +27363,9 @@
       <c r="V338">
         <v>2</v>
       </c>
+      <c r="W338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -26426,6 +27442,9 @@
       <c r="V339">
         <v>10</v>
       </c>
+      <c r="W339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -26502,6 +27521,9 @@
       <c r="V340">
         <v>1</v>
       </c>
+      <c r="W340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -26578,6 +27600,9 @@
       <c r="V341">
         <v>11</v>
       </c>
+      <c r="W341">
+        <v>12</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -26654,6 +27679,9 @@
       <c r="V342">
         <v>0</v>
       </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -26730,6 +27758,9 @@
       <c r="V343">
         <v>0</v>
       </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -26806,6 +27837,9 @@
       <c r="V344">
         <v>107</v>
       </c>
+      <c r="W344">
+        <v>110</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -26882,6 +27916,9 @@
       <c r="V345">
         <v>4</v>
       </c>
+      <c r="W345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -26958,6 +27995,9 @@
       <c r="V346">
         <v>5</v>
       </c>
+      <c r="W346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -27034,6 +28074,9 @@
       <c r="V347">
         <v>1</v>
       </c>
+      <c r="W347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -27110,6 +28153,9 @@
       <c r="V348">
         <v>3</v>
       </c>
+      <c r="W348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -27186,6 +28232,9 @@
       <c r="V349">
         <v>14</v>
       </c>
+      <c r="W349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -27262,6 +28311,9 @@
       <c r="V350">
         <v>1</v>
       </c>
+      <c r="W350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -27338,6 +28390,9 @@
       <c r="V351">
         <v>1</v>
       </c>
+      <c r="W351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -27414,6 +28469,9 @@
       <c r="V352">
         <v>0</v>
       </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -27490,6 +28548,9 @@
       <c r="V353">
         <v>0</v>
       </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -27566,6 +28627,9 @@
       <c r="V354">
         <v>3</v>
       </c>
+      <c r="W354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -27642,6 +28706,9 @@
       <c r="V355">
         <v>1</v>
       </c>
+      <c r="W355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -27718,6 +28785,9 @@
       <c r="V356">
         <v>2</v>
       </c>
+      <c r="W356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -27794,6 +28864,9 @@
       <c r="V357">
         <v>0</v>
       </c>
+      <c r="W357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -27870,6 +28943,9 @@
       <c r="V358">
         <v>0</v>
       </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -27946,6 +29022,9 @@
       <c r="V359">
         <v>0</v>
       </c>
+      <c r="W359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -28022,6 +29101,9 @@
       <c r="V360">
         <v>16</v>
       </c>
+      <c r="W360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -28098,6 +29180,9 @@
       <c r="V361">
         <v>1</v>
       </c>
+      <c r="W361">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -28174,6 +29259,9 @@
       <c r="V362">
         <v>1</v>
       </c>
+      <c r="W362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -28250,6 +29338,9 @@
       <c r="V363">
         <v>2</v>
       </c>
+      <c r="W363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -28326,6 +29417,9 @@
       <c r="V364">
         <v>0</v>
       </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -28402,6 +29496,9 @@
       <c r="V365">
         <v>0</v>
       </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -28478,6 +29575,9 @@
       <c r="V366">
         <v>1</v>
       </c>
+      <c r="W366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -28554,6 +29654,9 @@
       <c r="V367">
         <v>2</v>
       </c>
+      <c r="W367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -28630,6 +29733,9 @@
       <c r="V368">
         <v>0</v>
       </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -28706,6 +29812,9 @@
       <c r="V369">
         <v>1</v>
       </c>
+      <c r="W369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -28782,6 +29891,9 @@
       <c r="V370">
         <v>0</v>
       </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -28858,6 +29970,9 @@
       <c r="V371">
         <v>0</v>
       </c>
+      <c r="W371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -28934,6 +30049,9 @@
       <c r="V372">
         <v>2</v>
       </c>
+      <c r="W372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -29010,6 +30128,9 @@
       <c r="V373">
         <v>2</v>
       </c>
+      <c r="W373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -29086,6 +30207,9 @@
       <c r="V374">
         <v>4</v>
       </c>
+      <c r="W374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -29162,6 +30286,9 @@
       <c r="V375">
         <v>1</v>
       </c>
+      <c r="W375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -29238,6 +30365,9 @@
       <c r="V376">
         <v>0</v>
       </c>
+      <c r="W376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -29314,6 +30444,9 @@
       <c r="V377">
         <v>0</v>
       </c>
+      <c r="W377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -29390,6 +30523,9 @@
       <c r="V378">
         <v>0</v>
       </c>
+      <c r="W378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -29466,6 +30602,9 @@
       <c r="V379">
         <v>1</v>
       </c>
+      <c r="W379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -29542,6 +30681,9 @@
       <c r="V380">
         <v>1</v>
       </c>
+      <c r="W380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -29618,6 +30760,9 @@
       <c r="V381">
         <v>0</v>
       </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -29694,6 +30839,9 @@
       <c r="V382">
         <v>4</v>
       </c>
+      <c r="W382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -29770,6 +30918,9 @@
       <c r="V383">
         <v>0</v>
       </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -29845,6 +30996,9 @@
       </c>
       <c r="V384">
         <v>2</v>
+      </c>
+      <c r="W384">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W384"/>
+  <dimension ref="A1:X384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +473,11 @@
           <t>2020-04-07</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -562,6 +567,9 @@
       <c r="W2">
         <v>169</v>
       </c>
+      <c r="X2">
+        <v>175</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -651,6 +659,9 @@
       <c r="W3">
         <v>125</v>
       </c>
+      <c r="X3">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -740,6 +751,9 @@
       <c r="W4">
         <v>102</v>
       </c>
+      <c r="X4">
+        <v>104</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -829,6 +843,9 @@
       <c r="W5">
         <v>67</v>
       </c>
+      <c r="X5">
+        <v>70</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -918,6 +935,9 @@
       <c r="W6">
         <v>136</v>
       </c>
+      <c r="X6">
+        <v>138</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1007,6 +1027,9 @@
       <c r="W7">
         <v>84</v>
       </c>
+      <c r="X7">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1096,6 +1119,9 @@
       <c r="W8">
         <v>122</v>
       </c>
+      <c r="X8">
+        <v>126</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1185,6 +1211,9 @@
       <c r="W9">
         <v>102</v>
       </c>
+      <c r="X9">
+        <v>108</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1274,6 +1303,9 @@
       <c r="W10">
         <v>66</v>
       </c>
+      <c r="X10">
+        <v>69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1363,6 +1395,9 @@
       <c r="W11">
         <v>73</v>
       </c>
+      <c r="X11">
+        <v>75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1452,6 +1487,9 @@
       <c r="W12">
         <v>109</v>
       </c>
+      <c r="X12">
+        <v>116</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1541,6 +1579,9 @@
       <c r="W13">
         <v>140</v>
       </c>
+      <c r="X13">
+        <v>143</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1630,6 +1671,9 @@
       <c r="W14">
         <v>130</v>
       </c>
+      <c r="X14">
+        <v>131</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1719,6 +1763,9 @@
       <c r="W15">
         <v>121</v>
       </c>
+      <c r="X15">
+        <v>129</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1808,6 +1855,9 @@
       <c r="W16">
         <v>93</v>
       </c>
+      <c r="X16">
+        <v>97</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1897,6 +1947,9 @@
       <c r="W17">
         <v>4</v>
       </c>
+      <c r="X17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1986,6 +2039,9 @@
       <c r="W18">
         <v>2</v>
       </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2075,6 +2131,9 @@
       <c r="W19">
         <v>28</v>
       </c>
+      <c r="X19">
+        <v>30</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2154,6 +2213,9 @@
       <c r="W20">
         <v>14</v>
       </c>
+      <c r="X20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2233,6 +2295,9 @@
       <c r="W21">
         <v>125</v>
       </c>
+      <c r="X21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2312,6 +2377,9 @@
       <c r="W22">
         <v>49</v>
       </c>
+      <c r="X22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2391,6 +2459,9 @@
       <c r="W23">
         <v>45</v>
       </c>
+      <c r="X23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2470,6 +2541,9 @@
       <c r="W24">
         <v>3</v>
       </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2549,6 +2623,9 @@
       <c r="W25">
         <v>0</v>
       </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2628,6 +2705,9 @@
       <c r="W26">
         <v>0</v>
       </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2707,6 +2787,9 @@
       <c r="W27">
         <v>6</v>
       </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2786,6 +2869,9 @@
       <c r="W28">
         <v>6</v>
       </c>
+      <c r="X28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2865,6 +2951,9 @@
       <c r="W29">
         <v>12</v>
       </c>
+      <c r="X29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2944,6 +3033,9 @@
       <c r="W30">
         <v>12</v>
       </c>
+      <c r="X30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3023,6 +3115,9 @@
       <c r="W31">
         <v>13</v>
       </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3102,6 +3197,9 @@
       <c r="W32">
         <v>11</v>
       </c>
+      <c r="X32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3181,6 +3279,9 @@
       <c r="W33">
         <v>13</v>
       </c>
+      <c r="X33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3260,6 +3361,9 @@
       <c r="W34">
         <v>0</v>
       </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3339,6 +3443,9 @@
       <c r="W35">
         <v>0</v>
       </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3418,6 +3525,9 @@
       <c r="W36">
         <v>3</v>
       </c>
+      <c r="X36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3497,6 +3607,9 @@
       <c r="W37">
         <v>0</v>
       </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3576,6 +3689,9 @@
       <c r="W38">
         <v>1</v>
       </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3655,6 +3771,9 @@
       <c r="W39">
         <v>19</v>
       </c>
+      <c r="X39">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3734,6 +3853,9 @@
       <c r="W40">
         <v>35</v>
       </c>
+      <c r="X40">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3813,6 +3935,9 @@
       <c r="W41">
         <v>0</v>
       </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3892,6 +4017,9 @@
       <c r="W42">
         <v>11</v>
       </c>
+      <c r="X42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3971,6 +4099,9 @@
       <c r="W43">
         <v>18</v>
       </c>
+      <c r="X43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4050,6 +4181,9 @@
       <c r="W44">
         <v>14</v>
       </c>
+      <c r="X44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4129,6 +4263,9 @@
       <c r="W45">
         <v>24</v>
       </c>
+      <c r="X45">
+        <v>24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4208,6 +4345,9 @@
       <c r="W46">
         <v>1</v>
       </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4287,6 +4427,9 @@
       <c r="W47">
         <v>4</v>
       </c>
+      <c r="X47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4366,6 +4509,9 @@
       <c r="W48">
         <v>3</v>
       </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4445,6 +4591,9 @@
       <c r="W49">
         <v>7</v>
       </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4524,6 +4673,9 @@
       <c r="W50">
         <v>2</v>
       </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4603,6 +4755,9 @@
       <c r="W51">
         <v>6</v>
       </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4682,6 +4837,9 @@
       <c r="W52">
         <v>0</v>
       </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4761,6 +4919,9 @@
       <c r="W53">
         <v>0</v>
       </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4840,6 +5001,9 @@
       <c r="W54">
         <v>6</v>
       </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4919,6 +5083,9 @@
       <c r="W55">
         <v>5</v>
       </c>
+      <c r="X55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4998,6 +5165,9 @@
       <c r="W56">
         <v>0</v>
       </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5077,6 +5247,9 @@
       <c r="W57">
         <v>10</v>
       </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5156,6 +5329,9 @@
       <c r="W58">
         <v>0</v>
       </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5235,6 +5411,9 @@
       <c r="W59">
         <v>0</v>
       </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5314,6 +5493,9 @@
       <c r="W60">
         <v>0</v>
       </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5393,6 +5575,9 @@
       <c r="W61">
         <v>1</v>
       </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5472,6 +5657,9 @@
       <c r="W62">
         <v>2</v>
       </c>
+      <c r="X62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5551,6 +5739,9 @@
       <c r="W63">
         <v>2</v>
       </c>
+      <c r="X63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5630,6 +5821,9 @@
       <c r="W64">
         <v>0</v>
       </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5709,6 +5903,9 @@
       <c r="W65">
         <v>3</v>
       </c>
+      <c r="X65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5788,6 +5985,9 @@
       <c r="W66">
         <v>4</v>
       </c>
+      <c r="X66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5867,6 +6067,9 @@
       <c r="W67">
         <v>1</v>
       </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5946,6 +6149,9 @@
       <c r="W68">
         <v>2</v>
       </c>
+      <c r="X68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6025,6 +6231,9 @@
       <c r="W69">
         <v>28</v>
       </c>
+      <c r="X69">
+        <v>31</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6104,6 +6313,9 @@
       <c r="W70">
         <v>2</v>
       </c>
+      <c r="X70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6183,6 +6395,9 @@
       <c r="W71">
         <v>0</v>
       </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6262,6 +6477,9 @@
       <c r="W72">
         <v>2</v>
       </c>
+      <c r="X72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6341,6 +6559,9 @@
       <c r="W73">
         <v>4</v>
       </c>
+      <c r="X73">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6420,6 +6641,9 @@
       <c r="W74">
         <v>3</v>
       </c>
+      <c r="X74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6499,6 +6723,9 @@
       <c r="W75">
         <v>0</v>
       </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6578,6 +6805,9 @@
       <c r="W76">
         <v>0</v>
       </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6657,6 +6887,9 @@
       <c r="W77">
         <v>2</v>
       </c>
+      <c r="X77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6736,6 +6969,9 @@
       <c r="W78">
         <v>3</v>
       </c>
+      <c r="X78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6815,6 +7051,9 @@
       <c r="W79">
         <v>1</v>
       </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6894,6 +7133,9 @@
       <c r="W80">
         <v>1</v>
       </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6973,6 +7215,9 @@
       <c r="W81">
         <v>0</v>
       </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7052,6 +7297,9 @@
       <c r="W82">
         <v>5</v>
       </c>
+      <c r="X82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7131,6 +7379,9 @@
       <c r="W83">
         <v>0</v>
       </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7210,6 +7461,9 @@
       <c r="W84">
         <v>0</v>
       </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7289,6 +7543,9 @@
       <c r="W85">
         <v>5</v>
       </c>
+      <c r="X85">
+        <v>5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7368,6 +7625,9 @@
       <c r="W86">
         <v>0</v>
       </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7447,6 +7707,9 @@
       <c r="W87">
         <v>0</v>
       </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7526,6 +7789,9 @@
       <c r="W88">
         <v>0</v>
       </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7605,6 +7871,9 @@
       <c r="W89">
         <v>4</v>
       </c>
+      <c r="X89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7684,6 +7953,9 @@
       <c r="W90">
         <v>0</v>
       </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7763,6 +8035,9 @@
       <c r="W91">
         <v>0</v>
       </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7842,6 +8117,9 @@
       <c r="W92">
         <v>0</v>
       </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7921,6 +8199,9 @@
       <c r="W93">
         <v>1</v>
       </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8000,6 +8281,9 @@
       <c r="W94">
         <v>0</v>
       </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8079,6 +8363,9 @@
       <c r="W95">
         <v>1</v>
       </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8158,6 +8445,9 @@
       <c r="W96">
         <v>0</v>
       </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8237,6 +8527,9 @@
       <c r="W97">
         <v>0</v>
       </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8316,6 +8609,9 @@
       <c r="W98">
         <v>0</v>
       </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8395,6 +8691,9 @@
       <c r="W99">
         <v>0</v>
       </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8474,6 +8773,9 @@
       <c r="W100">
         <v>1</v>
       </c>
+      <c r="X100">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8553,6 +8855,9 @@
       <c r="W101">
         <v>3</v>
       </c>
+      <c r="X101">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8632,6 +8937,9 @@
       <c r="W102">
         <v>3</v>
       </c>
+      <c r="X102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8711,6 +9019,9 @@
       <c r="W103">
         <v>5</v>
       </c>
+      <c r="X103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8790,6 +9101,9 @@
       <c r="W104">
         <v>0</v>
       </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8869,6 +9183,9 @@
       <c r="W105">
         <v>0</v>
       </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8948,6 +9265,9 @@
       <c r="W106">
         <v>3</v>
       </c>
+      <c r="X106">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9027,6 +9347,9 @@
       <c r="W107">
         <v>0</v>
       </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9106,6 +9429,9 @@
       <c r="W108">
         <v>0</v>
       </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9185,6 +9511,9 @@
       <c r="W109">
         <v>0</v>
       </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9264,6 +9593,9 @@
       <c r="W110">
         <v>24</v>
       </c>
+      <c r="X110">
+        <v>25</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9343,6 +9675,9 @@
       <c r="W111">
         <v>78</v>
       </c>
+      <c r="X111">
+        <v>80</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9422,6 +9757,9 @@
       <c r="W112">
         <v>40</v>
       </c>
+      <c r="X112">
+        <v>43</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9501,6 +9839,9 @@
       <c r="W113">
         <v>69</v>
       </c>
+      <c r="X113">
+        <v>71</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9580,6 +9921,9 @@
       <c r="W114">
         <v>140</v>
       </c>
+      <c r="X114">
+        <v>140</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9659,6 +10003,9 @@
       <c r="W115">
         <v>19</v>
       </c>
+      <c r="X115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9738,6 +10085,9 @@
       <c r="W116">
         <v>6</v>
       </c>
+      <c r="X116">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9817,6 +10167,9 @@
       <c r="W117">
         <v>2</v>
       </c>
+      <c r="X117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9896,6 +10249,9 @@
       <c r="W118">
         <v>2</v>
       </c>
+      <c r="X118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9975,6 +10331,9 @@
       <c r="W119">
         <v>1</v>
       </c>
+      <c r="X119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10054,6 +10413,9 @@
       <c r="W120">
         <v>44</v>
       </c>
+      <c r="X120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10133,6 +10495,9 @@
       <c r="W121">
         <v>1</v>
       </c>
+      <c r="X121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10212,6 +10577,9 @@
       <c r="W122">
         <v>1</v>
       </c>
+      <c r="X122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10291,6 +10659,9 @@
       <c r="W123">
         <v>2</v>
       </c>
+      <c r="X123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10370,6 +10741,9 @@
       <c r="W124">
         <v>5</v>
       </c>
+      <c r="X124">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10449,6 +10823,9 @@
       <c r="W125">
         <v>22</v>
       </c>
+      <c r="X125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10528,6 +10905,9 @@
       <c r="W126">
         <v>88</v>
       </c>
+      <c r="X126">
+        <v>88</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10607,6 +10987,9 @@
       <c r="W127">
         <v>16</v>
       </c>
+      <c r="X127">
+        <v>16</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10686,6 +11069,9 @@
       <c r="W128">
         <v>16</v>
       </c>
+      <c r="X128">
+        <v>17</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10765,6 +11151,9 @@
       <c r="W129">
         <v>44</v>
       </c>
+      <c r="X129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10844,6 +11233,9 @@
       <c r="W130">
         <v>327</v>
       </c>
+      <c r="X130">
+        <v>335</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10923,6 +11315,9 @@
       <c r="W131">
         <v>138</v>
       </c>
+      <c r="X131">
+        <v>142</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11002,6 +11397,9 @@
       <c r="W132">
         <v>5</v>
       </c>
+      <c r="X132">
+        <v>6</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11081,6 +11479,9 @@
       <c r="W133">
         <v>19</v>
       </c>
+      <c r="X133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11160,6 +11561,9 @@
       <c r="W134">
         <v>31</v>
       </c>
+      <c r="X134">
+        <v>32</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11239,6 +11643,9 @@
       <c r="W135">
         <v>71</v>
       </c>
+      <c r="X135">
+        <v>71</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11318,6 +11725,9 @@
       <c r="W136">
         <v>120</v>
       </c>
+      <c r="X136">
+        <v>122</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11397,6 +11807,9 @@
       <c r="W137">
         <v>44</v>
       </c>
+      <c r="X137">
+        <v>44</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11476,6 +11889,9 @@
       <c r="W138">
         <v>8</v>
       </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11555,6 +11971,9 @@
       <c r="W139">
         <v>48</v>
       </c>
+      <c r="X139">
+        <v>48</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11634,6 +12053,9 @@
       <c r="W140">
         <v>13</v>
       </c>
+      <c r="X140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11713,6 +12135,9 @@
       <c r="W141">
         <v>28</v>
       </c>
+      <c r="X141">
+        <v>28</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11792,6 +12217,9 @@
       <c r="W142">
         <v>16</v>
       </c>
+      <c r="X142">
+        <v>16</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11871,6 +12299,9 @@
       <c r="W143">
         <v>2</v>
       </c>
+      <c r="X143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11950,6 +12381,9 @@
       <c r="W144">
         <v>10</v>
       </c>
+      <c r="X144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12029,6 +12463,9 @@
       <c r="W145">
         <v>1</v>
       </c>
+      <c r="X145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12108,6 +12545,9 @@
       <c r="W146">
         <v>15</v>
       </c>
+      <c r="X146">
+        <v>15</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12187,6 +12627,9 @@
       <c r="W147">
         <v>9</v>
       </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12266,6 +12709,9 @@
       <c r="W148">
         <v>8</v>
       </c>
+      <c r="X148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12345,6 +12791,9 @@
       <c r="W149">
         <v>13</v>
       </c>
+      <c r="X149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12424,6 +12873,9 @@
       <c r="W150">
         <v>43</v>
       </c>
+      <c r="X150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12503,6 +12955,9 @@
       <c r="W151">
         <v>0</v>
       </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12582,6 +13037,9 @@
       <c r="W152">
         <v>0</v>
       </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12661,6 +13119,9 @@
       <c r="W153">
         <v>10</v>
       </c>
+      <c r="X153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12740,6 +13201,9 @@
       <c r="W154">
         <v>4</v>
       </c>
+      <c r="X154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12819,6 +13283,9 @@
       <c r="W155">
         <v>25</v>
       </c>
+      <c r="X155">
+        <v>27</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -12898,6 +13365,9 @@
       <c r="W156">
         <v>1</v>
       </c>
+      <c r="X156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -12977,6 +13447,9 @@
       <c r="W157">
         <v>1</v>
       </c>
+      <c r="X157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13056,6 +13529,9 @@
       <c r="W158">
         <v>2</v>
       </c>
+      <c r="X158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13135,6 +13611,9 @@
       <c r="W159">
         <v>5</v>
       </c>
+      <c r="X159">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13214,6 +13693,9 @@
       <c r="W160">
         <v>9</v>
       </c>
+      <c r="X160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13293,6 +13775,9 @@
       <c r="W161">
         <v>1</v>
       </c>
+      <c r="X161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13372,6 +13857,9 @@
       <c r="W162">
         <v>71</v>
       </c>
+      <c r="X162">
+        <v>74</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13451,6 +13939,9 @@
       <c r="W163">
         <v>30</v>
       </c>
+      <c r="X163">
+        <v>31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13530,6 +14021,9 @@
       <c r="W164">
         <v>14</v>
       </c>
+      <c r="X164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13609,6 +14103,9 @@
       <c r="W165">
         <v>56</v>
       </c>
+      <c r="X165">
+        <v>56</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13688,6 +14185,9 @@
       <c r="W166">
         <v>11</v>
       </c>
+      <c r="X166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13767,6 +14267,9 @@
       <c r="W167">
         <v>31</v>
       </c>
+      <c r="X167">
+        <v>31</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -13846,6 +14349,9 @@
       <c r="W168">
         <v>0</v>
       </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -13925,6 +14431,9 @@
       <c r="W169">
         <v>13</v>
       </c>
+      <c r="X169">
+        <v>13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14004,6 +14513,9 @@
       <c r="W170">
         <v>3</v>
       </c>
+      <c r="X170">
+        <v>3</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14083,6 +14595,9 @@
       <c r="W171">
         <v>5</v>
       </c>
+      <c r="X171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14162,6 +14677,9 @@
       <c r="W172">
         <v>3</v>
       </c>
+      <c r="X172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14241,6 +14759,9 @@
       <c r="W173">
         <v>2</v>
       </c>
+      <c r="X173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14320,6 +14841,9 @@
       <c r="W174">
         <v>11</v>
       </c>
+      <c r="X174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14399,6 +14923,9 @@
       <c r="W175">
         <v>2</v>
       </c>
+      <c r="X175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14478,6 +15005,9 @@
       <c r="W176">
         <v>4</v>
       </c>
+      <c r="X176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14557,6 +15087,9 @@
       <c r="W177">
         <v>0</v>
       </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14636,6 +15169,9 @@
       <c r="W178">
         <v>0</v>
       </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14715,6 +15251,9 @@
       <c r="W179">
         <v>2</v>
       </c>
+      <c r="X179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14794,6 +15333,9 @@
       <c r="W180">
         <v>0</v>
       </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -14873,6 +15415,9 @@
       <c r="W181">
         <v>0</v>
       </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -14952,6 +15497,9 @@
       <c r="W182">
         <v>1</v>
       </c>
+      <c r="X182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15031,6 +15579,9 @@
       <c r="W183">
         <v>0</v>
       </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15110,6 +15661,9 @@
       <c r="W184">
         <v>0</v>
       </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15189,6 +15743,9 @@
       <c r="W185">
         <v>5</v>
       </c>
+      <c r="X185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15268,6 +15825,9 @@
       <c r="W186">
         <v>2</v>
       </c>
+      <c r="X186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15347,6 +15907,9 @@
       <c r="W187">
         <v>1</v>
       </c>
+      <c r="X187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15426,6 +15989,9 @@
       <c r="W188">
         <v>3</v>
       </c>
+      <c r="X188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15505,6 +16071,9 @@
       <c r="W189">
         <v>1</v>
       </c>
+      <c r="X189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15584,6 +16153,9 @@
       <c r="W190">
         <v>13</v>
       </c>
+      <c r="X190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15663,6 +16235,9 @@
       <c r="W191">
         <v>36</v>
       </c>
+      <c r="X191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15742,6 +16317,9 @@
       <c r="W192">
         <v>1</v>
       </c>
+      <c r="X192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -15821,6 +16399,9 @@
       <c r="W193">
         <v>8</v>
       </c>
+      <c r="X193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -15900,6 +16481,9 @@
       <c r="W194">
         <v>2</v>
       </c>
+      <c r="X194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -15979,6 +16563,9 @@
       <c r="W195">
         <v>5</v>
       </c>
+      <c r="X195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16058,6 +16645,9 @@
       <c r="W196">
         <v>4</v>
       </c>
+      <c r="X196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16137,6 +16727,9 @@
       <c r="W197">
         <v>10</v>
       </c>
+      <c r="X197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16216,6 +16809,9 @@
       <c r="W198">
         <v>9</v>
       </c>
+      <c r="X198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16295,6 +16891,9 @@
       <c r="W199">
         <v>2</v>
       </c>
+      <c r="X199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16374,6 +16973,9 @@
       <c r="W200">
         <v>1</v>
       </c>
+      <c r="X200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16453,6 +17055,9 @@
       <c r="W201">
         <v>0</v>
       </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16532,6 +17137,9 @@
       <c r="W202">
         <v>1</v>
       </c>
+      <c r="X202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16611,6 +17219,9 @@
       <c r="W203">
         <v>9</v>
       </c>
+      <c r="X203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16690,6 +17301,9 @@
       <c r="W204">
         <v>0</v>
       </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16769,6 +17383,9 @@
       <c r="W205">
         <v>0</v>
       </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -16848,6 +17465,9 @@
       <c r="W206">
         <v>0</v>
       </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -16927,6 +17547,9 @@
       <c r="W207">
         <v>21</v>
       </c>
+      <c r="X207">
+        <v>21</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17006,6 +17629,9 @@
       <c r="W208">
         <v>17</v>
       </c>
+      <c r="X208">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17085,6 +17711,9 @@
       <c r="W209">
         <v>49</v>
       </c>
+      <c r="X209">
+        <v>51</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -17164,6 +17793,9 @@
       <c r="W210">
         <v>35</v>
       </c>
+      <c r="X210">
+        <v>35</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -17243,6 +17875,9 @@
       <c r="W211">
         <v>20</v>
       </c>
+      <c r="X211">
+        <v>26</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17322,6 +17957,9 @@
       <c r="W212">
         <v>8</v>
       </c>
+      <c r="X212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17401,6 +18039,9 @@
       <c r="W213">
         <v>37</v>
       </c>
+      <c r="X213">
+        <v>37</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -17480,6 +18121,9 @@
       <c r="W214">
         <v>4</v>
       </c>
+      <c r="X214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17559,6 +18203,9 @@
       <c r="W215">
         <v>21</v>
       </c>
+      <c r="X215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17638,6 +18285,9 @@
       <c r="W216">
         <v>2</v>
       </c>
+      <c r="X216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17717,6 +18367,9 @@
       <c r="W217">
         <v>5</v>
       </c>
+      <c r="X217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -17796,6 +18449,9 @@
       <c r="W218">
         <v>1</v>
       </c>
+      <c r="X218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -17875,6 +18531,9 @@
       <c r="W219">
         <v>1</v>
       </c>
+      <c r="X219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -17954,6 +18613,9 @@
       <c r="W220">
         <v>2</v>
       </c>
+      <c r="X220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18033,6 +18695,9 @@
       <c r="W221">
         <v>0</v>
       </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -18112,6 +18777,9 @@
       <c r="W222">
         <v>1</v>
       </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -18191,6 +18859,9 @@
       <c r="W223">
         <v>0</v>
       </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -18270,6 +18941,9 @@
       <c r="W224">
         <v>0</v>
       </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -18349,6 +19023,9 @@
       <c r="W225">
         <v>0</v>
       </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -18428,6 +19105,9 @@
       <c r="W226">
         <v>0</v>
       </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -18507,6 +19187,9 @@
       <c r="W227">
         <v>0</v>
       </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -18586,6 +19269,9 @@
       <c r="W228">
         <v>0</v>
       </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -18665,6 +19351,9 @@
       <c r="W229">
         <v>2</v>
       </c>
+      <c r="X229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -18744,6 +19433,9 @@
       <c r="W230">
         <v>0</v>
       </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -18823,6 +19515,9 @@
       <c r="W231">
         <v>1</v>
       </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -18902,6 +19597,9 @@
       <c r="W232">
         <v>23</v>
       </c>
+      <c r="X232">
+        <v>24</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -18981,6 +19679,9 @@
       <c r="W233">
         <v>156</v>
       </c>
+      <c r="X233">
+        <v>162</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19060,6 +19761,9 @@
       <c r="W234">
         <v>9</v>
       </c>
+      <c r="X234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19139,6 +19843,9 @@
       <c r="W235">
         <v>11</v>
       </c>
+      <c r="X235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19218,6 +19925,9 @@
       <c r="W236">
         <v>0</v>
       </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -19297,6 +20007,9 @@
       <c r="W237">
         <v>2</v>
       </c>
+      <c r="X237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19376,6 +20089,9 @@
       <c r="W238">
         <v>0</v>
       </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19455,6 +20171,9 @@
       <c r="W239">
         <v>0</v>
       </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19534,6 +20253,9 @@
       <c r="W240">
         <v>2</v>
       </c>
+      <c r="X240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19613,6 +20335,9 @@
       <c r="W241">
         <v>7</v>
       </c>
+      <c r="X241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19692,6 +20417,9 @@
       <c r="W242">
         <v>3</v>
       </c>
+      <c r="X242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -19771,6 +20499,9 @@
       <c r="W243">
         <v>1</v>
       </c>
+      <c r="X243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -19850,6 +20581,9 @@
       <c r="W244">
         <v>1</v>
       </c>
+      <c r="X244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -19929,6 +20663,9 @@
       <c r="W245">
         <v>2</v>
       </c>
+      <c r="X245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -20008,6 +20745,9 @@
       <c r="W246">
         <v>2</v>
       </c>
+      <c r="X246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -20087,6 +20827,9 @@
       <c r="W247">
         <v>0</v>
       </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -20166,6 +20909,9 @@
       <c r="W248">
         <v>3</v>
       </c>
+      <c r="X248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20245,6 +20991,9 @@
       <c r="W249">
         <v>6</v>
       </c>
+      <c r="X249">
+        <v>6</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -20324,6 +21073,9 @@
       <c r="W250">
         <v>0</v>
       </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -20403,6 +21155,9 @@
       <c r="W251">
         <v>4</v>
       </c>
+      <c r="X251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -20482,6 +21237,9 @@
       <c r="W252">
         <v>1</v>
       </c>
+      <c r="X252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -20561,6 +21319,9 @@
       <c r="W253">
         <v>1</v>
       </c>
+      <c r="X253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -20640,6 +21401,9 @@
       <c r="W254">
         <v>1</v>
       </c>
+      <c r="X254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -20729,6 +21493,9 @@
       <c r="W255">
         <v>9</v>
       </c>
+      <c r="X255">
+        <v>11</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -20818,6 +21585,9 @@
       <c r="W256">
         <v>57</v>
       </c>
+      <c r="X256">
+        <v>59</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -20907,6 +21677,9 @@
       <c r="W257">
         <v>43</v>
       </c>
+      <c r="X257">
+        <v>45</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -20996,6 +21769,9 @@
       <c r="W258">
         <v>44</v>
       </c>
+      <c r="X258">
+        <v>45</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -21085,6 +21861,9 @@
       <c r="W259">
         <v>43</v>
       </c>
+      <c r="X259">
+        <v>44</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -21174,6 +21953,9 @@
       <c r="W260">
         <v>32</v>
       </c>
+      <c r="X260">
+        <v>32</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -21263,6 +22045,9 @@
       <c r="W261">
         <v>55</v>
       </c>
+      <c r="X261">
+        <v>63</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -21352,6 +22137,9 @@
       <c r="W262">
         <v>36</v>
       </c>
+      <c r="X262">
+        <v>37</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -21441,6 +22229,9 @@
       <c r="W263">
         <v>37</v>
       </c>
+      <c r="X263">
+        <v>43</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -21520,6 +22311,9 @@
       <c r="W264">
         <v>8</v>
       </c>
+      <c r="X264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -21599,6 +22393,9 @@
       <c r="W265">
         <v>4</v>
       </c>
+      <c r="X265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -21678,6 +22475,9 @@
       <c r="W266">
         <v>3</v>
       </c>
+      <c r="X266">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -21757,6 +22557,9 @@
       <c r="W267">
         <v>4</v>
       </c>
+      <c r="X267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -21836,6 +22639,9 @@
       <c r="W268">
         <v>6</v>
       </c>
+      <c r="X268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -21915,6 +22721,9 @@
       <c r="W269">
         <v>7</v>
       </c>
+      <c r="X269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -21994,6 +22803,9 @@
       <c r="W270">
         <v>0</v>
       </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -22073,6 +22885,9 @@
       <c r="W271">
         <v>4</v>
       </c>
+      <c r="X271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -22152,6 +22967,9 @@
       <c r="W272">
         <v>0</v>
       </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -22231,6 +23049,9 @@
       <c r="W273">
         <v>0</v>
       </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -22310,6 +23131,9 @@
       <c r="W274">
         <v>2</v>
       </c>
+      <c r="X274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -22389,6 +23213,9 @@
       <c r="W275">
         <v>24</v>
       </c>
+      <c r="X275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -22468,6 +23295,9 @@
       <c r="W276">
         <v>9</v>
       </c>
+      <c r="X276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -22547,6 +23377,9 @@
       <c r="W277">
         <v>0</v>
       </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -22626,6 +23459,9 @@
       <c r="W278">
         <v>14</v>
       </c>
+      <c r="X278">
+        <v>16</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -22705,6 +23541,9 @@
       <c r="W279">
         <v>4</v>
       </c>
+      <c r="X279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -22784,6 +23623,9 @@
       <c r="W280">
         <v>40</v>
       </c>
+      <c r="X280">
+        <v>40</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -22863,6 +23705,9 @@
       <c r="W281">
         <v>27</v>
       </c>
+      <c r="X281">
+        <v>27</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -22942,6 +23787,9 @@
       <c r="W282">
         <v>1</v>
       </c>
+      <c r="X282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -23021,6 +23869,9 @@
       <c r="W283">
         <v>0</v>
       </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -23100,6 +23951,9 @@
       <c r="W284">
         <v>0</v>
       </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -23179,6 +24033,9 @@
       <c r="W285">
         <v>17</v>
       </c>
+      <c r="X285">
+        <v>17</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -23258,6 +24115,9 @@
       <c r="W286">
         <v>0</v>
       </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -23337,6 +24197,9 @@
       <c r="W287">
         <v>0</v>
       </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -23416,6 +24279,9 @@
       <c r="W288">
         <v>0</v>
       </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -23495,6 +24361,9 @@
       <c r="W289">
         <v>0</v>
       </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -23574,6 +24443,9 @@
       <c r="W290">
         <v>3</v>
       </c>
+      <c r="X290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -23653,6 +24525,9 @@
       <c r="W291">
         <v>0</v>
       </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -23732,6 +24607,9 @@
       <c r="W292">
         <v>1</v>
       </c>
+      <c r="X292">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -23811,6 +24689,9 @@
       <c r="W293">
         <v>0</v>
       </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -23890,6 +24771,9 @@
       <c r="W294">
         <v>7</v>
       </c>
+      <c r="X294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -23969,6 +24853,9 @@
       <c r="W295">
         <v>0</v>
       </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -24048,6 +24935,9 @@
       <c r="W296">
         <v>0</v>
       </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -24127,6 +25017,9 @@
       <c r="W297">
         <v>1</v>
       </c>
+      <c r="X297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -24206,6 +25099,9 @@
       <c r="W298">
         <v>4</v>
       </c>
+      <c r="X298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -24285,6 +25181,9 @@
       <c r="W299">
         <v>0</v>
       </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -24364,6 +25263,9 @@
       <c r="W300">
         <v>0</v>
       </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -24443,6 +25345,9 @@
       <c r="W301">
         <v>17</v>
       </c>
+      <c r="X301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -24522,6 +25427,9 @@
       <c r="W302">
         <v>0</v>
       </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -24601,6 +25509,9 @@
       <c r="W303">
         <v>0</v>
       </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -24680,6 +25591,9 @@
       <c r="W304">
         <v>4</v>
       </c>
+      <c r="X304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -24759,6 +25673,9 @@
       <c r="W305">
         <v>11</v>
       </c>
+      <c r="X305">
+        <v>11</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -24838,6 +25755,9 @@
       <c r="W306">
         <v>200</v>
       </c>
+      <c r="X306">
+        <v>201</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -24917,6 +25837,9 @@
       <c r="W307">
         <v>15</v>
       </c>
+      <c r="X307">
+        <v>15</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -24996,6 +25919,9 @@
       <c r="W308">
         <v>5</v>
       </c>
+      <c r="X308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -25075,6 +26001,9 @@
       <c r="W309">
         <v>0</v>
       </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -25154,6 +26083,9 @@
       <c r="W310">
         <v>0</v>
       </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -25233,6 +26165,9 @@
       <c r="W311">
         <v>8</v>
       </c>
+      <c r="X311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -25312,6 +26247,9 @@
       <c r="W312">
         <v>5</v>
       </c>
+      <c r="X312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -25391,6 +26329,9 @@
       <c r="W313">
         <v>0</v>
       </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -25470,6 +26411,9 @@
       <c r="W314">
         <v>1</v>
       </c>
+      <c r="X314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -25549,6 +26493,9 @@
       <c r="W315">
         <v>7</v>
       </c>
+      <c r="X315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -25628,6 +26575,9 @@
       <c r="W316">
         <v>3</v>
       </c>
+      <c r="X316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -25707,6 +26657,9 @@
       <c r="W317">
         <v>5</v>
       </c>
+      <c r="X317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -25786,6 +26739,9 @@
       <c r="W318">
         <v>9</v>
       </c>
+      <c r="X318">
+        <v>9</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -25865,6 +26821,9 @@
       <c r="W319">
         <v>6</v>
       </c>
+      <c r="X319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -25944,6 +26903,9 @@
       <c r="W320">
         <v>0</v>
       </c>
+      <c r="X320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -26023,6 +26985,9 @@
       <c r="W321">
         <v>1</v>
       </c>
+      <c r="X321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -26102,6 +27067,9 @@
       <c r="W322">
         <v>7</v>
       </c>
+      <c r="X322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -26181,6 +27149,9 @@
       <c r="W323">
         <v>28</v>
       </c>
+      <c r="X323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -26260,6 +27231,9 @@
       <c r="W324">
         <v>18</v>
       </c>
+      <c r="X324">
+        <v>18</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -26339,6 +27313,9 @@
       <c r="W325">
         <v>13</v>
       </c>
+      <c r="X325">
+        <v>13</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -26418,6 +27395,9 @@
       <c r="W326">
         <v>0</v>
       </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -26497,6 +27477,9 @@
       <c r="W327">
         <v>0</v>
       </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -26576,6 +27559,9 @@
       <c r="W328">
         <v>0</v>
       </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -26655,6 +27641,9 @@
       <c r="W329">
         <v>0</v>
       </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -26734,6 +27723,9 @@
       <c r="W330">
         <v>3</v>
       </c>
+      <c r="X330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -26813,6 +27805,9 @@
       <c r="W331">
         <v>1</v>
       </c>
+      <c r="X331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -26892,6 +27887,9 @@
       <c r="W332">
         <v>4</v>
       </c>
+      <c r="X332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -26971,6 +27969,9 @@
       <c r="W333">
         <v>0</v>
       </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -27050,6 +28051,9 @@
       <c r="W334">
         <v>0</v>
       </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -27129,6 +28133,9 @@
       <c r="W335">
         <v>7</v>
       </c>
+      <c r="X335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -27208,6 +28215,9 @@
       <c r="W336">
         <v>2</v>
       </c>
+      <c r="X336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -27287,6 +28297,9 @@
       <c r="W337">
         <v>1</v>
       </c>
+      <c r="X337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -27366,6 +28379,9 @@
       <c r="W338">
         <v>2</v>
       </c>
+      <c r="X338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -27445,6 +28461,9 @@
       <c r="W339">
         <v>10</v>
       </c>
+      <c r="X339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -27524,6 +28543,9 @@
       <c r="W340">
         <v>1</v>
       </c>
+      <c r="X340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -27603,6 +28625,9 @@
       <c r="W341">
         <v>12</v>
       </c>
+      <c r="X341">
+        <v>12</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -27682,6 +28707,9 @@
       <c r="W342">
         <v>0</v>
       </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -27761,6 +28789,9 @@
       <c r="W343">
         <v>0</v>
       </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -27840,6 +28871,9 @@
       <c r="W344">
         <v>110</v>
       </c>
+      <c r="X344">
+        <v>111</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -27919,6 +28953,9 @@
       <c r="W345">
         <v>4</v>
       </c>
+      <c r="X345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -27998,6 +29035,9 @@
       <c r="W346">
         <v>5</v>
       </c>
+      <c r="X346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -28077,6 +29117,9 @@
       <c r="W347">
         <v>1</v>
       </c>
+      <c r="X347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -28156,6 +29199,9 @@
       <c r="W348">
         <v>3</v>
       </c>
+      <c r="X348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -28235,6 +29281,9 @@
       <c r="W349">
         <v>14</v>
       </c>
+      <c r="X349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -28314,6 +29363,9 @@
       <c r="W350">
         <v>1</v>
       </c>
+      <c r="X350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -28393,6 +29445,9 @@
       <c r="W351">
         <v>1</v>
       </c>
+      <c r="X351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -28472,6 +29527,9 @@
       <c r="W352">
         <v>0</v>
       </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -28551,6 +29609,9 @@
       <c r="W353">
         <v>0</v>
       </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -28630,6 +29691,9 @@
       <c r="W354">
         <v>3</v>
       </c>
+      <c r="X354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -28709,6 +29773,9 @@
       <c r="W355">
         <v>1</v>
       </c>
+      <c r="X355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -28788,6 +29855,9 @@
       <c r="W356">
         <v>2</v>
       </c>
+      <c r="X356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -28867,6 +29937,9 @@
       <c r="W357">
         <v>0</v>
       </c>
+      <c r="X357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -28946,6 +30019,9 @@
       <c r="W358">
         <v>0</v>
       </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -29025,6 +30101,9 @@
       <c r="W359">
         <v>0</v>
       </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -29104,6 +30183,9 @@
       <c r="W360">
         <v>16</v>
       </c>
+      <c r="X360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -29183,6 +30265,9 @@
       <c r="W361">
         <v>1</v>
       </c>
+      <c r="X361">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -29262,6 +30347,9 @@
       <c r="W362">
         <v>1</v>
       </c>
+      <c r="X362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -29341,6 +30429,9 @@
       <c r="W363">
         <v>2</v>
       </c>
+      <c r="X363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -29420,6 +30511,9 @@
       <c r="W364">
         <v>0</v>
       </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -29499,6 +30593,9 @@
       <c r="W365">
         <v>0</v>
       </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -29578,6 +30675,9 @@
       <c r="W366">
         <v>1</v>
       </c>
+      <c r="X366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -29657,6 +30757,9 @@
       <c r="W367">
         <v>2</v>
       </c>
+      <c r="X367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -29736,6 +30839,9 @@
       <c r="W368">
         <v>0</v>
       </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -29815,6 +30921,9 @@
       <c r="W369">
         <v>1</v>
       </c>
+      <c r="X369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -29894,6 +31003,9 @@
       <c r="W370">
         <v>0</v>
       </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -29973,6 +31085,9 @@
       <c r="W371">
         <v>0</v>
       </c>
+      <c r="X371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -30052,6 +31167,9 @@
       <c r="W372">
         <v>2</v>
       </c>
+      <c r="X372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -30131,6 +31249,9 @@
       <c r="W373">
         <v>2</v>
       </c>
+      <c r="X373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -30210,6 +31331,9 @@
       <c r="W374">
         <v>4</v>
       </c>
+      <c r="X374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -30289,6 +31413,9 @@
       <c r="W375">
         <v>1</v>
       </c>
+      <c r="X375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -30368,6 +31495,9 @@
       <c r="W376">
         <v>0</v>
       </c>
+      <c r="X376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -30447,6 +31577,9 @@
       <c r="W377">
         <v>0</v>
       </c>
+      <c r="X377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -30526,6 +31659,9 @@
       <c r="W378">
         <v>0</v>
       </c>
+      <c r="X378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -30605,6 +31741,9 @@
       <c r="W379">
         <v>1</v>
       </c>
+      <c r="X379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -30684,6 +31823,9 @@
       <c r="W380">
         <v>1</v>
       </c>
+      <c r="X380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -30763,6 +31905,9 @@
       <c r="W381">
         <v>0</v>
       </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -30842,6 +31987,9 @@
       <c r="W382">
         <v>4</v>
       </c>
+      <c r="X382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -30921,6 +32069,9 @@
       <c r="W383">
         <v>0</v>
       </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -30998,6 +32149,9 @@
         <v>2</v>
       </c>
       <c r="W384">
+        <v>1</v>
+      </c>
+      <c r="X384">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X384"/>
+  <dimension ref="A1:Y384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,11 @@
           <t>2020-04-08</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -570,6 +575,9 @@
       <c r="X2">
         <v>175</v>
       </c>
+      <c r="Y2">
+        <v>183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -662,6 +670,9 @@
       <c r="X3">
         <v>126</v>
       </c>
+      <c r="Y3">
+        <v>130</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -754,6 +765,9 @@
       <c r="X4">
         <v>104</v>
       </c>
+      <c r="Y4">
+        <v>109</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -846,6 +860,9 @@
       <c r="X5">
         <v>70</v>
       </c>
+      <c r="Y5">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -938,6 +955,9 @@
       <c r="X6">
         <v>138</v>
       </c>
+      <c r="Y6">
+        <v>138</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1030,6 +1050,9 @@
       <c r="X7">
         <v>87</v>
       </c>
+      <c r="Y7">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1122,6 +1145,9 @@
       <c r="X8">
         <v>126</v>
       </c>
+      <c r="Y8">
+        <v>127</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1214,6 +1240,9 @@
       <c r="X9">
         <v>108</v>
       </c>
+      <c r="Y9">
+        <v>108</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1306,6 +1335,9 @@
       <c r="X10">
         <v>69</v>
       </c>
+      <c r="Y10">
+        <v>74</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1398,6 +1430,9 @@
       <c r="X11">
         <v>75</v>
       </c>
+      <c r="Y11">
+        <v>77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1490,6 +1525,9 @@
       <c r="X12">
         <v>116</v>
       </c>
+      <c r="Y12">
+        <v>119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1582,6 +1620,9 @@
       <c r="X13">
         <v>143</v>
       </c>
+      <c r="Y13">
+        <v>150</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1674,6 +1715,9 @@
       <c r="X14">
         <v>131</v>
       </c>
+      <c r="Y14">
+        <v>135</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1766,6 +1810,9 @@
       <c r="X15">
         <v>129</v>
       </c>
+      <c r="Y15">
+        <v>131</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1858,6 +1905,9 @@
       <c r="X16">
         <v>97</v>
       </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1950,6 +2000,9 @@
       <c r="X17">
         <v>4</v>
       </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2042,6 +2095,9 @@
       <c r="X18">
         <v>2</v>
       </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2134,6 +2190,9 @@
       <c r="X19">
         <v>30</v>
       </c>
+      <c r="Y19">
+        <v>32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2216,6 +2275,9 @@
       <c r="X20">
         <v>14</v>
       </c>
+      <c r="Y20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2298,6 +2360,9 @@
       <c r="X21">
         <v>125</v>
       </c>
+      <c r="Y21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2380,6 +2445,9 @@
       <c r="X22">
         <v>49</v>
       </c>
+      <c r="Y22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2462,6 +2530,9 @@
       <c r="X23">
         <v>46</v>
       </c>
+      <c r="Y23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,6 +2615,9 @@
       <c r="X24">
         <v>3</v>
       </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2626,6 +2700,9 @@
       <c r="X25">
         <v>0</v>
       </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2708,6 +2785,9 @@
       <c r="X26">
         <v>0</v>
       </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2790,6 +2870,9 @@
       <c r="X27">
         <v>6</v>
       </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2872,6 +2955,9 @@
       <c r="X28">
         <v>6</v>
       </c>
+      <c r="Y28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2954,6 +3040,9 @@
       <c r="X29">
         <v>12</v>
       </c>
+      <c r="Y29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3036,6 +3125,9 @@
       <c r="X30">
         <v>12</v>
       </c>
+      <c r="Y30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3118,6 +3210,9 @@
       <c r="X31">
         <v>13</v>
       </c>
+      <c r="Y31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3200,6 +3295,9 @@
       <c r="X32">
         <v>11</v>
       </c>
+      <c r="Y32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3282,6 +3380,9 @@
       <c r="X33">
         <v>13</v>
       </c>
+      <c r="Y33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3364,6 +3465,9 @@
       <c r="X34">
         <v>0</v>
       </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3446,6 +3550,9 @@
       <c r="X35">
         <v>0</v>
       </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3528,6 +3635,9 @@
       <c r="X36">
         <v>3</v>
       </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3610,6 +3720,9 @@
       <c r="X37">
         <v>0</v>
       </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3692,6 +3805,9 @@
       <c r="X38">
         <v>1</v>
       </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3774,6 +3890,9 @@
       <c r="X39">
         <v>19</v>
       </c>
+      <c r="Y39">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3856,6 +3975,9 @@
       <c r="X40">
         <v>35</v>
       </c>
+      <c r="Y40">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3938,6 +4060,9 @@
       <c r="X41">
         <v>0</v>
       </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4020,6 +4145,9 @@
       <c r="X42">
         <v>11</v>
       </c>
+      <c r="Y42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4102,6 +4230,9 @@
       <c r="X43">
         <v>18</v>
       </c>
+      <c r="Y43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4184,6 +4315,9 @@
       <c r="X44">
         <v>14</v>
       </c>
+      <c r="Y44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4266,6 +4400,9 @@
       <c r="X45">
         <v>24</v>
       </c>
+      <c r="Y45">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4348,6 +4485,9 @@
       <c r="X46">
         <v>1</v>
       </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4430,6 +4570,9 @@
       <c r="X47">
         <v>4</v>
       </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4512,6 +4655,9 @@
       <c r="X48">
         <v>3</v>
       </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4594,6 +4740,9 @@
       <c r="X49">
         <v>7</v>
       </c>
+      <c r="Y49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4676,6 +4825,9 @@
       <c r="X50">
         <v>2</v>
       </c>
+      <c r="Y50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4758,6 +4910,9 @@
       <c r="X51">
         <v>6</v>
       </c>
+      <c r="Y51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4840,6 +4995,9 @@
       <c r="X52">
         <v>0</v>
       </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4922,6 +5080,9 @@
       <c r="X53">
         <v>0</v>
       </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5004,6 +5165,9 @@
       <c r="X54">
         <v>6</v>
       </c>
+      <c r="Y54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5086,6 +5250,9 @@
       <c r="X55">
         <v>5</v>
       </c>
+      <c r="Y55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5168,6 +5335,9 @@
       <c r="X56">
         <v>0</v>
       </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5250,6 +5420,9 @@
       <c r="X57">
         <v>10</v>
       </c>
+      <c r="Y57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5332,6 +5505,9 @@
       <c r="X58">
         <v>0</v>
       </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5414,6 +5590,9 @@
       <c r="X59">
         <v>0</v>
       </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5496,6 +5675,9 @@
       <c r="X60">
         <v>0</v>
       </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5578,6 +5760,9 @@
       <c r="X61">
         <v>1</v>
       </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5660,6 +5845,9 @@
       <c r="X62">
         <v>2</v>
       </c>
+      <c r="Y62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5742,6 +5930,9 @@
       <c r="X63">
         <v>2</v>
       </c>
+      <c r="Y63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5824,6 +6015,9 @@
       <c r="X64">
         <v>0</v>
       </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5906,6 +6100,9 @@
       <c r="X65">
         <v>3</v>
       </c>
+      <c r="Y65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5988,6 +6185,9 @@
       <c r="X66">
         <v>4</v>
       </c>
+      <c r="Y66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6070,6 +6270,9 @@
       <c r="X67">
         <v>1</v>
       </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6152,6 +6355,9 @@
       <c r="X68">
         <v>3</v>
       </c>
+      <c r="Y68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6234,6 +6440,9 @@
       <c r="X69">
         <v>31</v>
       </c>
+      <c r="Y69">
+        <v>32</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6316,6 +6525,9 @@
       <c r="X70">
         <v>2</v>
       </c>
+      <c r="Y70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6398,6 +6610,9 @@
       <c r="X71">
         <v>0</v>
       </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6480,6 +6695,9 @@
       <c r="X72">
         <v>2</v>
       </c>
+      <c r="Y72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6562,6 +6780,9 @@
       <c r="X73">
         <v>4</v>
       </c>
+      <c r="Y73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6644,6 +6865,9 @@
       <c r="X74">
         <v>3</v>
       </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6726,6 +6950,9 @@
       <c r="X75">
         <v>0</v>
       </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6808,6 +7035,9 @@
       <c r="X76">
         <v>0</v>
       </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6890,6 +7120,9 @@
       <c r="X77">
         <v>2</v>
       </c>
+      <c r="Y77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6972,6 +7205,9 @@
       <c r="X78">
         <v>3</v>
       </c>
+      <c r="Y78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7054,6 +7290,9 @@
       <c r="X79">
         <v>1</v>
       </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7136,6 +7375,9 @@
       <c r="X80">
         <v>1</v>
       </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7218,6 +7460,9 @@
       <c r="X81">
         <v>0</v>
       </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7300,6 +7545,9 @@
       <c r="X82">
         <v>5</v>
       </c>
+      <c r="Y82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7382,6 +7630,9 @@
       <c r="X83">
         <v>0</v>
       </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7464,6 +7715,9 @@
       <c r="X84">
         <v>0</v>
       </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7546,6 +7800,9 @@
       <c r="X85">
         <v>5</v>
       </c>
+      <c r="Y85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7628,6 +7885,9 @@
       <c r="X86">
         <v>0</v>
       </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7710,6 +7970,9 @@
       <c r="X87">
         <v>0</v>
       </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7792,6 +8055,9 @@
       <c r="X88">
         <v>0</v>
       </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7874,6 +8140,9 @@
       <c r="X89">
         <v>5</v>
       </c>
+      <c r="Y89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7956,6 +8225,9 @@
       <c r="X90">
         <v>0</v>
       </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8038,6 +8310,9 @@
       <c r="X91">
         <v>0</v>
       </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8120,6 +8395,9 @@
       <c r="X92">
         <v>0</v>
       </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8202,6 +8480,9 @@
       <c r="X93">
         <v>1</v>
       </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8284,6 +8565,9 @@
       <c r="X94">
         <v>0</v>
       </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8366,6 +8650,9 @@
       <c r="X95">
         <v>1</v>
       </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8448,6 +8735,9 @@
       <c r="X96">
         <v>0</v>
       </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8530,6 +8820,9 @@
       <c r="X97">
         <v>0</v>
       </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8612,6 +8905,9 @@
       <c r="X98">
         <v>0</v>
       </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8694,6 +8990,9 @@
       <c r="X99">
         <v>0</v>
       </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8776,6 +9075,9 @@
       <c r="X100">
         <v>3</v>
       </c>
+      <c r="Y100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8858,6 +9160,9 @@
       <c r="X101">
         <v>3</v>
       </c>
+      <c r="Y101">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8940,6 +9245,9 @@
       <c r="X102">
         <v>3</v>
       </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9022,6 +9330,9 @@
       <c r="X103">
         <v>5</v>
       </c>
+      <c r="Y103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9104,6 +9415,9 @@
       <c r="X104">
         <v>0</v>
       </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9186,6 +9500,9 @@
       <c r="X105">
         <v>0</v>
       </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9268,6 +9585,9 @@
       <c r="X106">
         <v>4</v>
       </c>
+      <c r="Y106">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9350,6 +9670,9 @@
       <c r="X107">
         <v>0</v>
       </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9432,6 +9755,9 @@
       <c r="X108">
         <v>0</v>
       </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9514,6 +9840,9 @@
       <c r="X109">
         <v>0</v>
       </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9596,6 +9925,9 @@
       <c r="X110">
         <v>25</v>
       </c>
+      <c r="Y110">
+        <v>26</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9678,6 +10010,9 @@
       <c r="X111">
         <v>80</v>
       </c>
+      <c r="Y111">
+        <v>83</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9760,6 +10095,9 @@
       <c r="X112">
         <v>43</v>
       </c>
+      <c r="Y112">
+        <v>43</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9842,6 +10180,9 @@
       <c r="X113">
         <v>71</v>
       </c>
+      <c r="Y113">
+        <v>71</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9924,6 +10265,9 @@
       <c r="X114">
         <v>140</v>
       </c>
+      <c r="Y114">
+        <v>143</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10006,6 +10350,9 @@
       <c r="X115">
         <v>20</v>
       </c>
+      <c r="Y115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10088,6 +10435,9 @@
       <c r="X116">
         <v>6</v>
       </c>
+      <c r="Y116">
+        <v>7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10170,6 +10520,9 @@
       <c r="X117">
         <v>2</v>
       </c>
+      <c r="Y117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10252,6 +10605,9 @@
       <c r="X118">
         <v>2</v>
       </c>
+      <c r="Y118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10334,6 +10690,9 @@
       <c r="X119">
         <v>1</v>
       </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10416,6 +10775,9 @@
       <c r="X120">
         <v>45</v>
       </c>
+      <c r="Y120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10498,6 +10860,9 @@
       <c r="X121">
         <v>1</v>
       </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10580,6 +10945,9 @@
       <c r="X122">
         <v>1</v>
       </c>
+      <c r="Y122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10662,6 +11030,9 @@
       <c r="X123">
         <v>2</v>
       </c>
+      <c r="Y123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10744,6 +11115,9 @@
       <c r="X124">
         <v>5</v>
       </c>
+      <c r="Y124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10826,6 +11200,9 @@
       <c r="X125">
         <v>22</v>
       </c>
+      <c r="Y125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10908,6 +11285,9 @@
       <c r="X126">
         <v>88</v>
       </c>
+      <c r="Y126">
+        <v>88</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10990,6 +11370,9 @@
       <c r="X127">
         <v>16</v>
       </c>
+      <c r="Y127">
+        <v>16</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11072,6 +11455,9 @@
       <c r="X128">
         <v>17</v>
       </c>
+      <c r="Y128">
+        <v>17</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11154,6 +11540,9 @@
       <c r="X129">
         <v>44</v>
       </c>
+      <c r="Y129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11236,6 +11625,9 @@
       <c r="X130">
         <v>335</v>
       </c>
+      <c r="Y130">
+        <v>341</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11318,6 +11710,9 @@
       <c r="X131">
         <v>142</v>
       </c>
+      <c r="Y131">
+        <v>146</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11400,6 +11795,9 @@
       <c r="X132">
         <v>6</v>
       </c>
+      <c r="Y132">
+        <v>7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11482,6 +11880,9 @@
       <c r="X133">
         <v>19</v>
       </c>
+      <c r="Y133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11564,6 +11965,9 @@
       <c r="X134">
         <v>32</v>
       </c>
+      <c r="Y134">
+        <v>41</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11646,6 +12050,9 @@
       <c r="X135">
         <v>71</v>
       </c>
+      <c r="Y135">
+        <v>74</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11728,6 +12135,9 @@
       <c r="X136">
         <v>122</v>
       </c>
+      <c r="Y136">
+        <v>129</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11810,6 +12220,9 @@
       <c r="X137">
         <v>44</v>
       </c>
+      <c r="Y137">
+        <v>44</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11892,6 +12305,9 @@
       <c r="X138">
         <v>8</v>
       </c>
+      <c r="Y138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11974,6 +12390,9 @@
       <c r="X139">
         <v>48</v>
       </c>
+      <c r="Y139">
+        <v>49</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12056,6 +12475,9 @@
       <c r="X140">
         <v>13</v>
       </c>
+      <c r="Y140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12138,6 +12560,9 @@
       <c r="X141">
         <v>28</v>
       </c>
+      <c r="Y141">
+        <v>28</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12220,6 +12645,9 @@
       <c r="X142">
         <v>16</v>
       </c>
+      <c r="Y142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12302,6 +12730,9 @@
       <c r="X143">
         <v>2</v>
       </c>
+      <c r="Y143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12384,6 +12815,9 @@
       <c r="X144">
         <v>10</v>
       </c>
+      <c r="Y144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12466,6 +12900,9 @@
       <c r="X145">
         <v>1</v>
       </c>
+      <c r="Y145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12548,6 +12985,9 @@
       <c r="X146">
         <v>15</v>
       </c>
+      <c r="Y146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12630,6 +13070,9 @@
       <c r="X147">
         <v>9</v>
       </c>
+      <c r="Y147">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12712,6 +13155,9 @@
       <c r="X148">
         <v>8</v>
       </c>
+      <c r="Y148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12794,6 +13240,9 @@
       <c r="X149">
         <v>13</v>
       </c>
+      <c r="Y149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12876,6 +13325,9 @@
       <c r="X150">
         <v>44</v>
       </c>
+      <c r="Y150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12958,6 +13410,9 @@
       <c r="X151">
         <v>0</v>
       </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13040,6 +13495,9 @@
       <c r="X152">
         <v>0</v>
       </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13122,6 +13580,9 @@
       <c r="X153">
         <v>10</v>
       </c>
+      <c r="Y153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -13204,6 +13665,9 @@
       <c r="X154">
         <v>4</v>
       </c>
+      <c r="Y154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13286,6 +13750,9 @@
       <c r="X155">
         <v>27</v>
       </c>
+      <c r="Y155">
+        <v>29</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13368,6 +13835,9 @@
       <c r="X156">
         <v>1</v>
       </c>
+      <c r="Y156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13450,6 +13920,9 @@
       <c r="X157">
         <v>1</v>
       </c>
+      <c r="Y157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13532,6 +14005,9 @@
       <c r="X158">
         <v>2</v>
       </c>
+      <c r="Y158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13614,6 +14090,9 @@
       <c r="X159">
         <v>5</v>
       </c>
+      <c r="Y159">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13696,6 +14175,9 @@
       <c r="X160">
         <v>9</v>
       </c>
+      <c r="Y160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13778,6 +14260,9 @@
       <c r="X161">
         <v>1</v>
       </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13860,6 +14345,9 @@
       <c r="X162">
         <v>74</v>
       </c>
+      <c r="Y162">
+        <v>74</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13942,6 +14430,9 @@
       <c r="X163">
         <v>31</v>
       </c>
+      <c r="Y163">
+        <v>31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -14024,6 +14515,9 @@
       <c r="X164">
         <v>15</v>
       </c>
+      <c r="Y164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14106,6 +14600,9 @@
       <c r="X165">
         <v>56</v>
       </c>
+      <c r="Y165">
+        <v>56</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14188,6 +14685,9 @@
       <c r="X166">
         <v>11</v>
       </c>
+      <c r="Y166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -14270,6 +14770,9 @@
       <c r="X167">
         <v>31</v>
       </c>
+      <c r="Y167">
+        <v>32</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14352,6 +14855,9 @@
       <c r="X168">
         <v>0</v>
       </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14434,6 +14940,9 @@
       <c r="X169">
         <v>13</v>
       </c>
+      <c r="Y169">
+        <v>16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14516,6 +15025,9 @@
       <c r="X170">
         <v>3</v>
       </c>
+      <c r="Y170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14598,6 +15110,9 @@
       <c r="X171">
         <v>5</v>
       </c>
+      <c r="Y171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14680,6 +15195,9 @@
       <c r="X172">
         <v>3</v>
       </c>
+      <c r="Y172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14762,6 +15280,9 @@
       <c r="X173">
         <v>2</v>
       </c>
+      <c r="Y173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14844,6 +15365,9 @@
       <c r="X174">
         <v>14</v>
       </c>
+      <c r="Y174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14926,6 +15450,9 @@
       <c r="X175">
         <v>2</v>
       </c>
+      <c r="Y175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -15008,6 +15535,9 @@
       <c r="X176">
         <v>4</v>
       </c>
+      <c r="Y176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15090,6 +15620,9 @@
       <c r="X177">
         <v>0</v>
       </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -15172,6 +15705,9 @@
       <c r="X178">
         <v>0</v>
       </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -15254,6 +15790,9 @@
       <c r="X179">
         <v>2</v>
       </c>
+      <c r="Y179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -15336,6 +15875,9 @@
       <c r="X180">
         <v>0</v>
       </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15418,6 +15960,9 @@
       <c r="X181">
         <v>0</v>
       </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -15500,6 +16045,9 @@
       <c r="X182">
         <v>1</v>
       </c>
+      <c r="Y182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15582,6 +16130,9 @@
       <c r="X183">
         <v>0</v>
       </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15664,6 +16215,9 @@
       <c r="X184">
         <v>0</v>
       </c>
+      <c r="Y184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15746,6 +16300,9 @@
       <c r="X185">
         <v>5</v>
       </c>
+      <c r="Y185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15828,6 +16385,9 @@
       <c r="X186">
         <v>2</v>
       </c>
+      <c r="Y186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15910,6 +16470,9 @@
       <c r="X187">
         <v>1</v>
       </c>
+      <c r="Y187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15992,6 +16555,9 @@
       <c r="X188">
         <v>3</v>
       </c>
+      <c r="Y188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -16074,6 +16640,9 @@
       <c r="X189">
         <v>1</v>
       </c>
+      <c r="Y189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16156,6 +16725,9 @@
       <c r="X190">
         <v>13</v>
       </c>
+      <c r="Y190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -16238,6 +16810,9 @@
       <c r="X191">
         <v>36</v>
       </c>
+      <c r="Y191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16320,6 +16895,9 @@
       <c r="X192">
         <v>1</v>
       </c>
+      <c r="Y192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -16402,6 +16980,9 @@
       <c r="X193">
         <v>8</v>
       </c>
+      <c r="Y193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -16484,6 +17065,9 @@
       <c r="X194">
         <v>2</v>
       </c>
+      <c r="Y194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -16566,6 +17150,9 @@
       <c r="X195">
         <v>5</v>
       </c>
+      <c r="Y195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16648,6 +17235,9 @@
       <c r="X196">
         <v>4</v>
       </c>
+      <c r="Y196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16730,6 +17320,9 @@
       <c r="X197">
         <v>10</v>
       </c>
+      <c r="Y197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16812,6 +17405,9 @@
       <c r="X198">
         <v>9</v>
       </c>
+      <c r="Y198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16894,6 +17490,9 @@
       <c r="X199">
         <v>2</v>
       </c>
+      <c r="Y199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16976,6 +17575,9 @@
       <c r="X200">
         <v>1</v>
       </c>
+      <c r="Y200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -17058,6 +17660,9 @@
       <c r="X201">
         <v>0</v>
       </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17140,6 +17745,9 @@
       <c r="X202">
         <v>1</v>
       </c>
+      <c r="Y202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -17222,6 +17830,9 @@
       <c r="X203">
         <v>9</v>
       </c>
+      <c r="Y203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -17304,6 +17915,9 @@
       <c r="X204">
         <v>0</v>
       </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -17386,6 +18000,9 @@
       <c r="X205">
         <v>0</v>
       </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -17468,6 +18085,9 @@
       <c r="X206">
         <v>0</v>
       </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -17550,6 +18170,9 @@
       <c r="X207">
         <v>21</v>
       </c>
+      <c r="Y207">
+        <v>21</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17632,6 +18255,9 @@
       <c r="X208">
         <v>17</v>
       </c>
+      <c r="Y208">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17714,6 +18340,9 @@
       <c r="X209">
         <v>51</v>
       </c>
+      <c r="Y209">
+        <v>51</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -17796,6 +18425,9 @@
       <c r="X210">
         <v>35</v>
       </c>
+      <c r="Y210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -17878,6 +18510,9 @@
       <c r="X211">
         <v>26</v>
       </c>
+      <c r="Y211">
+        <v>26</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17960,6 +18595,9 @@
       <c r="X212">
         <v>8</v>
       </c>
+      <c r="Y212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18042,6 +18680,9 @@
       <c r="X213">
         <v>37</v>
       </c>
+      <c r="Y213">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18124,6 +18765,9 @@
       <c r="X214">
         <v>4</v>
       </c>
+      <c r="Y214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -18206,6 +18850,9 @@
       <c r="X215">
         <v>21</v>
       </c>
+      <c r="Y215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -18288,6 +18935,9 @@
       <c r="X216">
         <v>2</v>
       </c>
+      <c r="Y216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -18370,6 +19020,9 @@
       <c r="X217">
         <v>5</v>
       </c>
+      <c r="Y217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -18452,6 +19105,9 @@
       <c r="X218">
         <v>1</v>
       </c>
+      <c r="Y218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -18534,6 +19190,9 @@
       <c r="X219">
         <v>1</v>
       </c>
+      <c r="Y219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -18616,6 +19275,9 @@
       <c r="X220">
         <v>2</v>
       </c>
+      <c r="Y220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18698,6 +19360,9 @@
       <c r="X221">
         <v>0</v>
       </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -18780,6 +19445,9 @@
       <c r="X222">
         <v>1</v>
       </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -18862,6 +19530,9 @@
       <c r="X223">
         <v>0</v>
       </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -18944,6 +19615,9 @@
       <c r="X224">
         <v>0</v>
       </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19026,6 +19700,9 @@
       <c r="X225">
         <v>0</v>
       </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19108,6 +19785,9 @@
       <c r="X226">
         <v>0</v>
       </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -19190,6 +19870,9 @@
       <c r="X227">
         <v>0</v>
       </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -19272,6 +19955,9 @@
       <c r="X228">
         <v>0</v>
       </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -19354,6 +20040,9 @@
       <c r="X229">
         <v>2</v>
       </c>
+      <c r="Y229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -19436,6 +20125,9 @@
       <c r="X230">
         <v>0</v>
       </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -19518,6 +20210,9 @@
       <c r="X231">
         <v>1</v>
       </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -19600,6 +20295,9 @@
       <c r="X232">
         <v>24</v>
       </c>
+      <c r="Y232">
+        <v>24</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19682,6 +20380,9 @@
       <c r="X233">
         <v>162</v>
       </c>
+      <c r="Y233">
+        <v>167</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19764,6 +20465,9 @@
       <c r="X234">
         <v>9</v>
       </c>
+      <c r="Y234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19846,6 +20550,9 @@
       <c r="X235">
         <v>11</v>
       </c>
+      <c r="Y235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19928,6 +20635,9 @@
       <c r="X236">
         <v>0</v>
       </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -20010,6 +20720,9 @@
       <c r="X237">
         <v>2</v>
       </c>
+      <c r="Y237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -20092,6 +20805,9 @@
       <c r="X238">
         <v>0</v>
       </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -20174,6 +20890,9 @@
       <c r="X239">
         <v>0</v>
       </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -20256,6 +20975,9 @@
       <c r="X240">
         <v>2</v>
       </c>
+      <c r="Y240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -20338,6 +21060,9 @@
       <c r="X241">
         <v>7</v>
       </c>
+      <c r="Y241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -20420,6 +21145,9 @@
       <c r="X242">
         <v>3</v>
       </c>
+      <c r="Y242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -20502,6 +21230,9 @@
       <c r="X243">
         <v>1</v>
       </c>
+      <c r="Y243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -20584,6 +21315,9 @@
       <c r="X244">
         <v>1</v>
       </c>
+      <c r="Y244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -20666,6 +21400,9 @@
       <c r="X245">
         <v>2</v>
       </c>
+      <c r="Y245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -20748,6 +21485,9 @@
       <c r="X246">
         <v>2</v>
       </c>
+      <c r="Y246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -20830,6 +21570,9 @@
       <c r="X247">
         <v>0</v>
       </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -20912,6 +21655,9 @@
       <c r="X248">
         <v>3</v>
       </c>
+      <c r="Y248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20994,6 +21740,9 @@
       <c r="X249">
         <v>6</v>
       </c>
+      <c r="Y249">
+        <v>7</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -21076,6 +21825,9 @@
       <c r="X250">
         <v>0</v>
       </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -21158,6 +21910,9 @@
       <c r="X251">
         <v>4</v>
       </c>
+      <c r="Y251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -21240,6 +21995,9 @@
       <c r="X252">
         <v>1</v>
       </c>
+      <c r="Y252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -21322,6 +22080,9 @@
       <c r="X253">
         <v>1</v>
       </c>
+      <c r="Y253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -21404,6 +22165,9 @@
       <c r="X254">
         <v>1</v>
       </c>
+      <c r="Y254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -21496,6 +22260,9 @@
       <c r="X255">
         <v>11</v>
       </c>
+      <c r="Y255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -21588,6 +22355,9 @@
       <c r="X256">
         <v>59</v>
       </c>
+      <c r="Y256">
+        <v>60</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -21680,6 +22450,9 @@
       <c r="X257">
         <v>45</v>
       </c>
+      <c r="Y257">
+        <v>46</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -21772,6 +22545,9 @@
       <c r="X258">
         <v>45</v>
       </c>
+      <c r="Y258">
+        <v>48</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -21864,6 +22640,9 @@
       <c r="X259">
         <v>44</v>
       </c>
+      <c r="Y259">
+        <v>49</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -21956,6 +22735,9 @@
       <c r="X260">
         <v>32</v>
       </c>
+      <c r="Y260">
+        <v>32</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -22048,6 +22830,9 @@
       <c r="X261">
         <v>63</v>
       </c>
+      <c r="Y261">
+        <v>69</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -22140,6 +22925,9 @@
       <c r="X262">
         <v>37</v>
       </c>
+      <c r="Y262">
+        <v>40</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -22232,6 +23020,9 @@
       <c r="X263">
         <v>43</v>
       </c>
+      <c r="Y263">
+        <v>46</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -22314,6 +23105,9 @@
       <c r="X264">
         <v>8</v>
       </c>
+      <c r="Y264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -22396,6 +23190,9 @@
       <c r="X265">
         <v>4</v>
       </c>
+      <c r="Y265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -22478,6 +23275,9 @@
       <c r="X266">
         <v>3</v>
       </c>
+      <c r="Y266">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -22560,6 +23360,9 @@
       <c r="X267">
         <v>4</v>
       </c>
+      <c r="Y267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -22642,6 +23445,9 @@
       <c r="X268">
         <v>6</v>
       </c>
+      <c r="Y268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -22724,6 +23530,9 @@
       <c r="X269">
         <v>7</v>
       </c>
+      <c r="Y269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -22806,6 +23615,9 @@
       <c r="X270">
         <v>0</v>
       </c>
+      <c r="Y270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -22888,6 +23700,9 @@
       <c r="X271">
         <v>4</v>
       </c>
+      <c r="Y271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -22970,6 +23785,9 @@
       <c r="X272">
         <v>0</v>
       </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -23052,6 +23870,9 @@
       <c r="X273">
         <v>0</v>
       </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -23134,6 +23955,9 @@
       <c r="X274">
         <v>2</v>
       </c>
+      <c r="Y274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -23216,6 +24040,9 @@
       <c r="X275">
         <v>24</v>
       </c>
+      <c r="Y275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -23298,6 +24125,9 @@
       <c r="X276">
         <v>9</v>
       </c>
+      <c r="Y276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -23380,6 +24210,9 @@
       <c r="X277">
         <v>0</v>
       </c>
+      <c r="Y277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -23462,6 +24295,9 @@
       <c r="X278">
         <v>16</v>
       </c>
+      <c r="Y278">
+        <v>16</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -23544,6 +24380,9 @@
       <c r="X279">
         <v>4</v>
       </c>
+      <c r="Y279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -23626,6 +24465,9 @@
       <c r="X280">
         <v>40</v>
       </c>
+      <c r="Y280">
+        <v>40</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -23708,6 +24550,9 @@
       <c r="X281">
         <v>27</v>
       </c>
+      <c r="Y281">
+        <v>28</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -23790,6 +24635,9 @@
       <c r="X282">
         <v>1</v>
       </c>
+      <c r="Y282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -23872,6 +24720,9 @@
       <c r="X283">
         <v>0</v>
       </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -23954,6 +24805,9 @@
       <c r="X284">
         <v>0</v>
       </c>
+      <c r="Y284">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -24036,6 +24890,9 @@
       <c r="X285">
         <v>17</v>
       </c>
+      <c r="Y285">
+        <v>18</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -24118,6 +24975,9 @@
       <c r="X286">
         <v>0</v>
       </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -24200,6 +25060,9 @@
       <c r="X287">
         <v>0</v>
       </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -24282,6 +25145,9 @@
       <c r="X288">
         <v>0</v>
       </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -24364,6 +25230,9 @@
       <c r="X289">
         <v>0</v>
       </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -24446,6 +25315,9 @@
       <c r="X290">
         <v>3</v>
       </c>
+      <c r="Y290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -24528,6 +25400,9 @@
       <c r="X291">
         <v>0</v>
       </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -24610,6 +25485,9 @@
       <c r="X292">
         <v>1</v>
       </c>
+      <c r="Y292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -24692,6 +25570,9 @@
       <c r="X293">
         <v>0</v>
       </c>
+      <c r="Y293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -24774,6 +25655,9 @@
       <c r="X294">
         <v>7</v>
       </c>
+      <c r="Y294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -24856,6 +25740,9 @@
       <c r="X295">
         <v>0</v>
       </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -24938,6 +25825,9 @@
       <c r="X296">
         <v>0</v>
       </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -25020,6 +25910,9 @@
       <c r="X297">
         <v>1</v>
       </c>
+      <c r="Y297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -25102,6 +25995,9 @@
       <c r="X298">
         <v>4</v>
       </c>
+      <c r="Y298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -25184,6 +26080,9 @@
       <c r="X299">
         <v>0</v>
       </c>
+      <c r="Y299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -25266,6 +26165,9 @@
       <c r="X300">
         <v>0</v>
       </c>
+      <c r="Y300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -25348,6 +26250,9 @@
       <c r="X301">
         <v>17</v>
       </c>
+      <c r="Y301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -25430,6 +26335,9 @@
       <c r="X302">
         <v>0</v>
       </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -25512,6 +26420,9 @@
       <c r="X303">
         <v>0</v>
       </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -25594,6 +26505,9 @@
       <c r="X304">
         <v>4</v>
       </c>
+      <c r="Y304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -25676,6 +26590,9 @@
       <c r="X305">
         <v>11</v>
       </c>
+      <c r="Y305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -25758,6 +26675,9 @@
       <c r="X306">
         <v>201</v>
       </c>
+      <c r="Y306">
+        <v>206</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -25840,6 +26760,9 @@
       <c r="X307">
         <v>15</v>
       </c>
+      <c r="Y307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -25922,6 +26845,9 @@
       <c r="X308">
         <v>5</v>
       </c>
+      <c r="Y308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -26004,6 +26930,9 @@
       <c r="X309">
         <v>0</v>
       </c>
+      <c r="Y309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -26086,6 +27015,9 @@
       <c r="X310">
         <v>0</v>
       </c>
+      <c r="Y310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -26168,6 +27100,9 @@
       <c r="X311">
         <v>8</v>
       </c>
+      <c r="Y311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -26250,6 +27185,9 @@
       <c r="X312">
         <v>5</v>
       </c>
+      <c r="Y312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -26332,6 +27270,9 @@
       <c r="X313">
         <v>0</v>
       </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -26414,6 +27355,9 @@
       <c r="X314">
         <v>1</v>
       </c>
+      <c r="Y314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -26496,6 +27440,9 @@
       <c r="X315">
         <v>7</v>
       </c>
+      <c r="Y315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -26578,6 +27525,9 @@
       <c r="X316">
         <v>3</v>
       </c>
+      <c r="Y316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -26660,6 +27610,9 @@
       <c r="X317">
         <v>5</v>
       </c>
+      <c r="Y317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -26742,6 +27695,9 @@
       <c r="X318">
         <v>9</v>
       </c>
+      <c r="Y318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -26824,6 +27780,9 @@
       <c r="X319">
         <v>6</v>
       </c>
+      <c r="Y319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -26906,6 +27865,9 @@
       <c r="X320">
         <v>0</v>
       </c>
+      <c r="Y320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -26988,6 +27950,9 @@
       <c r="X321">
         <v>1</v>
       </c>
+      <c r="Y321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -27070,6 +28035,9 @@
       <c r="X322">
         <v>7</v>
       </c>
+      <c r="Y322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -27152,6 +28120,9 @@
       <c r="X323">
         <v>28</v>
       </c>
+      <c r="Y323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -27234,6 +28205,9 @@
       <c r="X324">
         <v>18</v>
       </c>
+      <c r="Y324">
+        <v>19</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -27316,6 +28290,9 @@
       <c r="X325">
         <v>13</v>
       </c>
+      <c r="Y325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -27398,6 +28375,9 @@
       <c r="X326">
         <v>0</v>
       </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -27480,6 +28460,9 @@
       <c r="X327">
         <v>0</v>
       </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -27562,6 +28545,9 @@
       <c r="X328">
         <v>0</v>
       </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -27644,6 +28630,9 @@
       <c r="X329">
         <v>0</v>
       </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -27726,6 +28715,9 @@
       <c r="X330">
         <v>3</v>
       </c>
+      <c r="Y330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -27808,6 +28800,9 @@
       <c r="X331">
         <v>1</v>
       </c>
+      <c r="Y331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -27890,6 +28885,9 @@
       <c r="X332">
         <v>4</v>
       </c>
+      <c r="Y332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -27972,6 +28970,9 @@
       <c r="X333">
         <v>0</v>
       </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -28054,6 +29055,9 @@
       <c r="X334">
         <v>0</v>
       </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -28136,6 +29140,9 @@
       <c r="X335">
         <v>7</v>
       </c>
+      <c r="Y335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -28218,6 +29225,9 @@
       <c r="X336">
         <v>2</v>
       </c>
+      <c r="Y336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -28300,6 +29310,9 @@
       <c r="X337">
         <v>2</v>
       </c>
+      <c r="Y337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -28382,6 +29395,9 @@
       <c r="X338">
         <v>2</v>
       </c>
+      <c r="Y338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -28464,6 +29480,9 @@
       <c r="X339">
         <v>10</v>
       </c>
+      <c r="Y339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -28546,6 +29565,9 @@
       <c r="X340">
         <v>1</v>
       </c>
+      <c r="Y340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -28628,6 +29650,9 @@
       <c r="X341">
         <v>12</v>
       </c>
+      <c r="Y341">
+        <v>12</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -28710,6 +29735,9 @@
       <c r="X342">
         <v>0</v>
       </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -28792,6 +29820,9 @@
       <c r="X343">
         <v>0</v>
       </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -28874,6 +29905,9 @@
       <c r="X344">
         <v>111</v>
       </c>
+      <c r="Y344">
+        <v>112</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -28956,6 +29990,9 @@
       <c r="X345">
         <v>4</v>
       </c>
+      <c r="Y345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -29038,6 +30075,9 @@
       <c r="X346">
         <v>5</v>
       </c>
+      <c r="Y346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -29120,6 +30160,9 @@
       <c r="X347">
         <v>1</v>
       </c>
+      <c r="Y347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -29202,6 +30245,9 @@
       <c r="X348">
         <v>3</v>
       </c>
+      <c r="Y348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -29284,6 +30330,9 @@
       <c r="X349">
         <v>14</v>
       </c>
+      <c r="Y349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -29366,6 +30415,9 @@
       <c r="X350">
         <v>1</v>
       </c>
+      <c r="Y350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -29448,6 +30500,9 @@
       <c r="X351">
         <v>1</v>
       </c>
+      <c r="Y351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -29530,6 +30585,9 @@
       <c r="X352">
         <v>0</v>
       </c>
+      <c r="Y352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -29612,6 +30670,9 @@
       <c r="X353">
         <v>0</v>
       </c>
+      <c r="Y353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -29694,6 +30755,9 @@
       <c r="X354">
         <v>3</v>
       </c>
+      <c r="Y354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -29776,6 +30840,9 @@
       <c r="X355">
         <v>1</v>
       </c>
+      <c r="Y355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -29858,6 +30925,9 @@
       <c r="X356">
         <v>2</v>
       </c>
+      <c r="Y356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -29940,6 +31010,9 @@
       <c r="X357">
         <v>0</v>
       </c>
+      <c r="Y357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -30022,6 +31095,9 @@
       <c r="X358">
         <v>0</v>
       </c>
+      <c r="Y358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -30104,6 +31180,9 @@
       <c r="X359">
         <v>0</v>
       </c>
+      <c r="Y359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -30186,6 +31265,9 @@
       <c r="X360">
         <v>16</v>
       </c>
+      <c r="Y360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -30268,6 +31350,9 @@
       <c r="X361">
         <v>1</v>
       </c>
+      <c r="Y361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -30350,6 +31435,9 @@
       <c r="X362">
         <v>1</v>
       </c>
+      <c r="Y362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -30432,6 +31520,9 @@
       <c r="X363">
         <v>2</v>
       </c>
+      <c r="Y363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -30514,6 +31605,9 @@
       <c r="X364">
         <v>0</v>
       </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -30596,6 +31690,9 @@
       <c r="X365">
         <v>0</v>
       </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -30678,6 +31775,9 @@
       <c r="X366">
         <v>1</v>
       </c>
+      <c r="Y366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -30760,6 +31860,9 @@
       <c r="X367">
         <v>2</v>
       </c>
+      <c r="Y367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -30842,6 +31945,9 @@
       <c r="X368">
         <v>0</v>
       </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -30924,6 +32030,9 @@
       <c r="X369">
         <v>1</v>
       </c>
+      <c r="Y369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -31006,6 +32115,9 @@
       <c r="X370">
         <v>0</v>
       </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -31088,6 +32200,9 @@
       <c r="X371">
         <v>0</v>
       </c>
+      <c r="Y371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -31170,6 +32285,9 @@
       <c r="X372">
         <v>2</v>
       </c>
+      <c r="Y372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -31252,6 +32370,9 @@
       <c r="X373">
         <v>2</v>
       </c>
+      <c r="Y373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -31334,6 +32455,9 @@
       <c r="X374">
         <v>4</v>
       </c>
+      <c r="Y374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -31416,6 +32540,9 @@
       <c r="X375">
         <v>1</v>
       </c>
+      <c r="Y375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -31498,6 +32625,9 @@
       <c r="X376">
         <v>0</v>
       </c>
+      <c r="Y376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -31580,6 +32710,9 @@
       <c r="X377">
         <v>0</v>
       </c>
+      <c r="Y377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -31662,6 +32795,9 @@
       <c r="X378">
         <v>0</v>
       </c>
+      <c r="Y378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -31744,6 +32880,9 @@
       <c r="X379">
         <v>1</v>
       </c>
+      <c r="Y379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -31826,6 +32965,9 @@
       <c r="X380">
         <v>1</v>
       </c>
+      <c r="Y380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -31908,6 +33050,9 @@
       <c r="X381">
         <v>0</v>
       </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -31990,6 +33135,9 @@
       <c r="X382">
         <v>4</v>
       </c>
+      <c r="Y382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -32072,6 +33220,9 @@
       <c r="X383">
         <v>0</v>
       </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -32153,6 +33304,9 @@
       </c>
       <c r="X384">
         <v>1</v>
+      </c>
+      <c r="Y384">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y384"/>
+  <dimension ref="A1:Z384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +483,11 @@
           <t>2020-04-09</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -578,6 +583,9 @@
       <c r="Y2">
         <v>183</v>
       </c>
+      <c r="Z2">
+        <v>186</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +681,9 @@
       <c r="Y3">
         <v>130</v>
       </c>
+      <c r="Z3">
+        <v>133</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -768,6 +779,9 @@
       <c r="Y4">
         <v>109</v>
       </c>
+      <c r="Z4">
+        <v>113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -863,6 +877,9 @@
       <c r="Y5">
         <v>71</v>
       </c>
+      <c r="Z5">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -958,6 +975,9 @@
       <c r="Y6">
         <v>138</v>
       </c>
+      <c r="Z6">
+        <v>140</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1053,6 +1073,9 @@
       <c r="Y7">
         <v>90</v>
       </c>
+      <c r="Z7">
+        <v>96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1148,6 +1171,9 @@
       <c r="Y8">
         <v>127</v>
       </c>
+      <c r="Z8">
+        <v>132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1243,6 +1269,9 @@
       <c r="Y9">
         <v>108</v>
       </c>
+      <c r="Z9">
+        <v>110</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1338,6 +1367,9 @@
       <c r="Y10">
         <v>74</v>
       </c>
+      <c r="Z10">
+        <v>75</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1433,6 +1465,9 @@
       <c r="Y11">
         <v>77</v>
       </c>
+      <c r="Z11">
+        <v>77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1528,6 +1563,9 @@
       <c r="Y12">
         <v>119</v>
       </c>
+      <c r="Z12">
+        <v>122</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1623,6 +1661,9 @@
       <c r="Y13">
         <v>150</v>
       </c>
+      <c r="Z13">
+        <v>155</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1718,6 +1759,9 @@
       <c r="Y14">
         <v>135</v>
       </c>
+      <c r="Z14">
+        <v>141</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1813,6 +1857,9 @@
       <c r="Y15">
         <v>131</v>
       </c>
+      <c r="Z15">
+        <v>133</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1908,6 +1955,9 @@
       <c r="Y16">
         <v>100</v>
       </c>
+      <c r="Z16">
+        <v>103</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2003,6 +2053,9 @@
       <c r="Y17">
         <v>4</v>
       </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2098,6 +2151,9 @@
       <c r="Y18">
         <v>2</v>
       </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2193,6 +2249,9 @@
       <c r="Y19">
         <v>32</v>
       </c>
+      <c r="Z19">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2278,6 +2337,9 @@
       <c r="Y20">
         <v>14</v>
       </c>
+      <c r="Z20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2363,6 +2425,9 @@
       <c r="Y21">
         <v>125</v>
       </c>
+      <c r="Z21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2448,6 +2513,9 @@
       <c r="Y22">
         <v>49</v>
       </c>
+      <c r="Z22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2533,6 +2601,9 @@
       <c r="Y23">
         <v>46</v>
       </c>
+      <c r="Z23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2618,6 +2689,9 @@
       <c r="Y24">
         <v>3</v>
       </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2703,6 +2777,9 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2788,6 +2865,9 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2873,6 +2953,9 @@
       <c r="Y27">
         <v>6</v>
       </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2958,6 +3041,9 @@
       <c r="Y28">
         <v>6</v>
       </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3043,6 +3129,9 @@
       <c r="Y29">
         <v>12</v>
       </c>
+      <c r="Z29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3128,6 +3217,9 @@
       <c r="Y30">
         <v>12</v>
       </c>
+      <c r="Z30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3213,6 +3305,9 @@
       <c r="Y31">
         <v>13</v>
       </c>
+      <c r="Z31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3298,6 +3393,9 @@
       <c r="Y32">
         <v>11</v>
       </c>
+      <c r="Z32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3383,6 +3481,9 @@
       <c r="Y33">
         <v>13</v>
       </c>
+      <c r="Z33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3468,6 +3569,9 @@
       <c r="Y34">
         <v>0</v>
       </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3553,6 +3657,9 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3638,6 +3745,9 @@
       <c r="Y36">
         <v>3</v>
       </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,6 +3833,9 @@
       <c r="Y37">
         <v>0</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3808,6 +3921,9 @@
       <c r="Y38">
         <v>1</v>
       </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3893,6 +4009,9 @@
       <c r="Y39">
         <v>19</v>
       </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3978,6 +4097,9 @@
       <c r="Y40">
         <v>35</v>
       </c>
+      <c r="Z40">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4063,6 +4185,9 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4148,6 +4273,9 @@
       <c r="Y42">
         <v>11</v>
       </c>
+      <c r="Z42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4233,6 +4361,9 @@
       <c r="Y43">
         <v>18</v>
       </c>
+      <c r="Z43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4318,6 +4449,9 @@
       <c r="Y44">
         <v>14</v>
       </c>
+      <c r="Z44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4403,6 +4537,9 @@
       <c r="Y45">
         <v>25</v>
       </c>
+      <c r="Z45">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4488,6 +4625,9 @@
       <c r="Y46">
         <v>1</v>
       </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4573,6 +4713,9 @@
       <c r="Y47">
         <v>3</v>
       </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4658,6 +4801,9 @@
       <c r="Y48">
         <v>3</v>
       </c>
+      <c r="Z48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4743,6 +4889,9 @@
       <c r="Y49">
         <v>7</v>
       </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4828,6 +4977,9 @@
       <c r="Y50">
         <v>2</v>
       </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4913,6 +5065,9 @@
       <c r="Y51">
         <v>6</v>
       </c>
+      <c r="Z51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4998,6 +5153,9 @@
       <c r="Y52">
         <v>0</v>
       </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5083,6 +5241,9 @@
       <c r="Y53">
         <v>0</v>
       </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5168,6 +5329,9 @@
       <c r="Y54">
         <v>6</v>
       </c>
+      <c r="Z54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5253,6 +5417,9 @@
       <c r="Y55">
         <v>5</v>
       </c>
+      <c r="Z55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5338,6 +5505,9 @@
       <c r="Y56">
         <v>0</v>
       </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5423,6 +5593,9 @@
       <c r="Y57">
         <v>10</v>
       </c>
+      <c r="Z57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5508,6 +5681,9 @@
       <c r="Y58">
         <v>0</v>
       </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5593,6 +5769,9 @@
       <c r="Y59">
         <v>0</v>
       </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5678,6 +5857,9 @@
       <c r="Y60">
         <v>0</v>
       </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5763,6 +5945,9 @@
       <c r="Y61">
         <v>1</v>
       </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5848,6 +6033,9 @@
       <c r="Y62">
         <v>2</v>
       </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5933,6 +6121,9 @@
       <c r="Y63">
         <v>2</v>
       </c>
+      <c r="Z63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6018,6 +6209,9 @@
       <c r="Y64">
         <v>0</v>
       </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6103,6 +6297,9 @@
       <c r="Y65">
         <v>3</v>
       </c>
+      <c r="Z65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6188,6 +6385,9 @@
       <c r="Y66">
         <v>4</v>
       </c>
+      <c r="Z66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6273,6 +6473,9 @@
       <c r="Y67">
         <v>1</v>
       </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6358,6 +6561,9 @@
       <c r="Y68">
         <v>3</v>
       </c>
+      <c r="Z68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6443,6 +6649,9 @@
       <c r="Y69">
         <v>32</v>
       </c>
+      <c r="Z69">
+        <v>33</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6528,6 +6737,9 @@
       <c r="Y70">
         <v>2</v>
       </c>
+      <c r="Z70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6613,6 +6825,9 @@
       <c r="Y71">
         <v>0</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6698,6 +6913,9 @@
       <c r="Y72">
         <v>2</v>
       </c>
+      <c r="Z72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6783,6 +7001,9 @@
       <c r="Y73">
         <v>5</v>
       </c>
+      <c r="Z73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6868,6 +7089,9 @@
       <c r="Y74">
         <v>3</v>
       </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6953,6 +7177,9 @@
       <c r="Y75">
         <v>0</v>
       </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7038,6 +7265,9 @@
       <c r="Y76">
         <v>0</v>
       </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7123,6 +7353,9 @@
       <c r="Y77">
         <v>2</v>
       </c>
+      <c r="Z77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7208,6 +7441,9 @@
       <c r="Y78">
         <v>3</v>
       </c>
+      <c r="Z78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7293,6 +7529,9 @@
       <c r="Y79">
         <v>1</v>
       </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7378,6 +7617,9 @@
       <c r="Y80">
         <v>1</v>
       </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7463,6 +7705,9 @@
       <c r="Y81">
         <v>0</v>
       </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7548,6 +7793,9 @@
       <c r="Y82">
         <v>5</v>
       </c>
+      <c r="Z82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7633,6 +7881,9 @@
       <c r="Y83">
         <v>0</v>
       </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7718,6 +7969,9 @@
       <c r="Y84">
         <v>0</v>
       </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7803,6 +8057,9 @@
       <c r="Y85">
         <v>4</v>
       </c>
+      <c r="Z85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7888,6 +8145,9 @@
       <c r="Y86">
         <v>0</v>
       </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7973,6 +8233,9 @@
       <c r="Y87">
         <v>0</v>
       </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8058,6 +8321,9 @@
       <c r="Y88">
         <v>0</v>
       </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8143,6 +8409,9 @@
       <c r="Y89">
         <v>5</v>
       </c>
+      <c r="Z89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8228,6 +8497,9 @@
       <c r="Y90">
         <v>0</v>
       </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8313,6 +8585,9 @@
       <c r="Y91">
         <v>0</v>
       </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8398,6 +8673,9 @@
       <c r="Y92">
         <v>0</v>
       </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8483,6 +8761,9 @@
       <c r="Y93">
         <v>1</v>
       </c>
+      <c r="Z93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8568,6 +8849,9 @@
       <c r="Y94">
         <v>0</v>
       </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8653,6 +8937,9 @@
       <c r="Y95">
         <v>1</v>
       </c>
+      <c r="Z95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8738,6 +9025,9 @@
       <c r="Y96">
         <v>0</v>
       </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8823,6 +9113,9 @@
       <c r="Y97">
         <v>0</v>
       </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8908,6 +9201,9 @@
       <c r="Y98">
         <v>0</v>
       </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8993,6 +9289,9 @@
       <c r="Y99">
         <v>0</v>
       </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9078,6 +9377,9 @@
       <c r="Y100">
         <v>4</v>
       </c>
+      <c r="Z100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9163,6 +9465,9 @@
       <c r="Y101">
         <v>3</v>
       </c>
+      <c r="Z101">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9248,6 +9553,9 @@
       <c r="Y102">
         <v>3</v>
       </c>
+      <c r="Z102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9333,6 +9641,9 @@
       <c r="Y103">
         <v>5</v>
       </c>
+      <c r="Z103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9418,6 +9729,9 @@
       <c r="Y104">
         <v>0</v>
       </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9503,6 +9817,9 @@
       <c r="Y105">
         <v>0</v>
       </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9588,6 +9905,9 @@
       <c r="Y106">
         <v>4</v>
       </c>
+      <c r="Z106">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9673,6 +9993,9 @@
       <c r="Y107">
         <v>0</v>
       </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9758,6 +10081,9 @@
       <c r="Y108">
         <v>0</v>
       </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9843,6 +10169,9 @@
       <c r="Y109">
         <v>0</v>
       </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9928,6 +10257,9 @@
       <c r="Y110">
         <v>26</v>
       </c>
+      <c r="Z110">
+        <v>26</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10013,6 +10345,9 @@
       <c r="Y111">
         <v>83</v>
       </c>
+      <c r="Z111">
+        <v>83</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10098,6 +10433,9 @@
       <c r="Y112">
         <v>43</v>
       </c>
+      <c r="Z112">
+        <v>45</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10183,6 +10521,9 @@
       <c r="Y113">
         <v>71</v>
       </c>
+      <c r="Z113">
+        <v>71</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10268,6 +10609,9 @@
       <c r="Y114">
         <v>143</v>
       </c>
+      <c r="Z114">
+        <v>144</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10353,6 +10697,9 @@
       <c r="Y115">
         <v>20</v>
       </c>
+      <c r="Z115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10438,6 +10785,9 @@
       <c r="Y116">
         <v>7</v>
       </c>
+      <c r="Z116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10523,6 +10873,9 @@
       <c r="Y117">
         <v>2</v>
       </c>
+      <c r="Z117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10608,6 +10961,9 @@
       <c r="Y118">
         <v>2</v>
       </c>
+      <c r="Z118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10693,6 +11049,9 @@
       <c r="Y119">
         <v>1</v>
       </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10778,6 +11137,9 @@
       <c r="Y120">
         <v>45</v>
       </c>
+      <c r="Z120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10863,6 +11225,9 @@
       <c r="Y121">
         <v>1</v>
       </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10948,6 +11313,9 @@
       <c r="Y122">
         <v>1</v>
       </c>
+      <c r="Z122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11033,6 +11401,9 @@
       <c r="Y123">
         <v>2</v>
       </c>
+      <c r="Z123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11118,6 +11489,9 @@
       <c r="Y124">
         <v>6</v>
       </c>
+      <c r="Z124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11203,6 +11577,9 @@
       <c r="Y125">
         <v>22</v>
       </c>
+      <c r="Z125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11288,6 +11665,9 @@
       <c r="Y126">
         <v>88</v>
       </c>
+      <c r="Z126">
+        <v>88</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11373,6 +11753,9 @@
       <c r="Y127">
         <v>16</v>
       </c>
+      <c r="Z127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11458,6 +11841,9 @@
       <c r="Y128">
         <v>17</v>
       </c>
+      <c r="Z128">
+        <v>17</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11543,6 +11929,9 @@
       <c r="Y129">
         <v>44</v>
       </c>
+      <c r="Z129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11628,6 +12017,9 @@
       <c r="Y130">
         <v>341</v>
       </c>
+      <c r="Z130">
+        <v>350</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11713,6 +12105,9 @@
       <c r="Y131">
         <v>146</v>
       </c>
+      <c r="Z131">
+        <v>146</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11798,6 +12193,9 @@
       <c r="Y132">
         <v>7</v>
       </c>
+      <c r="Z132">
+        <v>7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11883,6 +12281,9 @@
       <c r="Y133">
         <v>19</v>
       </c>
+      <c r="Z133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11968,6 +12369,9 @@
       <c r="Y134">
         <v>41</v>
       </c>
+      <c r="Z134">
+        <v>41</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12053,6 +12457,9 @@
       <c r="Y135">
         <v>74</v>
       </c>
+      <c r="Z135">
+        <v>74</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12138,6 +12545,9 @@
       <c r="Y136">
         <v>129</v>
       </c>
+      <c r="Z136">
+        <v>129</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12223,6 +12633,9 @@
       <c r="Y137">
         <v>44</v>
       </c>
+      <c r="Z137">
+        <v>44</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12308,6 +12721,9 @@
       <c r="Y138">
         <v>8</v>
       </c>
+      <c r="Z138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12393,6 +12809,9 @@
       <c r="Y139">
         <v>49</v>
       </c>
+      <c r="Z139">
+        <v>49</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12478,6 +12897,9 @@
       <c r="Y140">
         <v>13</v>
       </c>
+      <c r="Z140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12563,6 +12985,9 @@
       <c r="Y141">
         <v>28</v>
       </c>
+      <c r="Z141">
+        <v>28</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12648,6 +13073,9 @@
       <c r="Y142">
         <v>17</v>
       </c>
+      <c r="Z142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12733,6 +13161,9 @@
       <c r="Y143">
         <v>2</v>
       </c>
+      <c r="Z143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12818,6 +13249,9 @@
       <c r="Y144">
         <v>10</v>
       </c>
+      <c r="Z144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12903,6 +13337,9 @@
       <c r="Y145">
         <v>1</v>
       </c>
+      <c r="Z145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12988,6 +13425,9 @@
       <c r="Y146">
         <v>7</v>
       </c>
+      <c r="Z146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13073,6 +13513,9 @@
       <c r="Y147">
         <v>9</v>
       </c>
+      <c r="Z147">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13158,6 +13601,9 @@
       <c r="Y148">
         <v>8</v>
       </c>
+      <c r="Z148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13243,6 +13689,9 @@
       <c r="Y149">
         <v>13</v>
       </c>
+      <c r="Z149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -13328,6 +13777,9 @@
       <c r="Y150">
         <v>44</v>
       </c>
+      <c r="Z150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13413,6 +13865,9 @@
       <c r="Y151">
         <v>0</v>
       </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13498,6 +13953,9 @@
       <c r="Y152">
         <v>0</v>
       </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13583,6 +14041,9 @@
       <c r="Y153">
         <v>10</v>
       </c>
+      <c r="Z153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -13668,6 +14129,9 @@
       <c r="Y154">
         <v>4</v>
       </c>
+      <c r="Z154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13753,6 +14217,9 @@
       <c r="Y155">
         <v>29</v>
       </c>
+      <c r="Z155">
+        <v>29</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13838,6 +14305,9 @@
       <c r="Y156">
         <v>1</v>
       </c>
+      <c r="Z156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13923,6 +14393,9 @@
       <c r="Y157">
         <v>1</v>
       </c>
+      <c r="Z157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14008,6 +14481,9 @@
       <c r="Y158">
         <v>2</v>
       </c>
+      <c r="Z158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -14093,6 +14569,9 @@
       <c r="Y159">
         <v>5</v>
       </c>
+      <c r="Z159">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14178,6 +14657,9 @@
       <c r="Y160">
         <v>9</v>
       </c>
+      <c r="Z160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14263,6 +14745,9 @@
       <c r="Y161">
         <v>1</v>
       </c>
+      <c r="Z161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14348,6 +14833,9 @@
       <c r="Y162">
         <v>74</v>
       </c>
+      <c r="Z162">
+        <v>76</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14433,6 +14921,9 @@
       <c r="Y163">
         <v>31</v>
       </c>
+      <c r="Z163">
+        <v>31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -14518,6 +15009,9 @@
       <c r="Y164">
         <v>15</v>
       </c>
+      <c r="Z164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14603,6 +15097,9 @@
       <c r="Y165">
         <v>56</v>
       </c>
+      <c r="Z165">
+        <v>56</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14688,6 +15185,9 @@
       <c r="Y166">
         <v>11</v>
       </c>
+      <c r="Z166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -14773,6 +15273,9 @@
       <c r="Y167">
         <v>32</v>
       </c>
+      <c r="Z167">
+        <v>32</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14858,6 +15361,9 @@
       <c r="Y168">
         <v>0</v>
       </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14943,6 +15449,9 @@
       <c r="Y169">
         <v>16</v>
       </c>
+      <c r="Z169">
+        <v>16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -15028,6 +15537,9 @@
       <c r="Y170">
         <v>4</v>
       </c>
+      <c r="Z170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15113,6 +15625,9 @@
       <c r="Y171">
         <v>5</v>
       </c>
+      <c r="Z171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15198,6 +15713,9 @@
       <c r="Y172">
         <v>3</v>
       </c>
+      <c r="Z172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -15283,6 +15801,9 @@
       <c r="Y173">
         <v>2</v>
       </c>
+      <c r="Z173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15368,6 +15889,9 @@
       <c r="Y174">
         <v>14</v>
       </c>
+      <c r="Z174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -15453,6 +15977,9 @@
       <c r="Y175">
         <v>2</v>
       </c>
+      <c r="Z175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -15538,6 +16065,9 @@
       <c r="Y176">
         <v>4</v>
       </c>
+      <c r="Z176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -15623,6 +16153,9 @@
       <c r="Y177">
         <v>0</v>
       </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -15708,6 +16241,9 @@
       <c r="Y178">
         <v>0</v>
       </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -15793,6 +16329,9 @@
       <c r="Y179">
         <v>2</v>
       </c>
+      <c r="Z179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -15878,6 +16417,9 @@
       <c r="Y180">
         <v>0</v>
       </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15963,6 +16505,9 @@
       <c r="Y181">
         <v>0</v>
       </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -16048,6 +16593,9 @@
       <c r="Y182">
         <v>1</v>
       </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16133,6 +16681,9 @@
       <c r="Y183">
         <v>0</v>
       </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16218,6 +16769,9 @@
       <c r="Y184">
         <v>1</v>
       </c>
+      <c r="Z184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -16303,6 +16857,9 @@
       <c r="Y185">
         <v>5</v>
       </c>
+      <c r="Z185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16388,6 +16945,9 @@
       <c r="Y186">
         <v>2</v>
       </c>
+      <c r="Z186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -16473,6 +17033,9 @@
       <c r="Y187">
         <v>1</v>
       </c>
+      <c r="Z187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -16558,6 +17121,9 @@
       <c r="Y188">
         <v>3</v>
       </c>
+      <c r="Z188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -16643,6 +17209,9 @@
       <c r="Y189">
         <v>1</v>
       </c>
+      <c r="Z189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16728,6 +17297,9 @@
       <c r="Y190">
         <v>13</v>
       </c>
+      <c r="Z190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -16813,6 +17385,9 @@
       <c r="Y191">
         <v>36</v>
       </c>
+      <c r="Z191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16898,6 +17473,9 @@
       <c r="Y192">
         <v>1</v>
       </c>
+      <c r="Z192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -16983,6 +17561,9 @@
       <c r="Y193">
         <v>8</v>
       </c>
+      <c r="Z193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17068,6 +17649,9 @@
       <c r="Y194">
         <v>2</v>
       </c>
+      <c r="Z194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -17153,6 +17737,9 @@
       <c r="Y195">
         <v>5</v>
       </c>
+      <c r="Z195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -17238,6 +17825,9 @@
       <c r="Y196">
         <v>4</v>
       </c>
+      <c r="Z196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -17323,6 +17913,9 @@
       <c r="Y197">
         <v>10</v>
       </c>
+      <c r="Z197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -17408,6 +18001,9 @@
       <c r="Y198">
         <v>9</v>
       </c>
+      <c r="Z198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -17493,6 +18089,9 @@
       <c r="Y199">
         <v>2</v>
       </c>
+      <c r="Z199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -17578,6 +18177,9 @@
       <c r="Y200">
         <v>1</v>
       </c>
+      <c r="Z200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -17663,6 +18265,9 @@
       <c r="Y201">
         <v>0</v>
       </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17748,6 +18353,9 @@
       <c r="Y202">
         <v>1</v>
       </c>
+      <c r="Z202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -17833,6 +18441,9 @@
       <c r="Y203">
         <v>9</v>
       </c>
+      <c r="Z203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -17918,6 +18529,9 @@
       <c r="Y204">
         <v>0</v>
       </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18003,6 +18617,9 @@
       <c r="Y205">
         <v>0</v>
       </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18088,6 +18705,9 @@
       <c r="Y206">
         <v>0</v>
       </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18173,6 +18793,9 @@
       <c r="Y207">
         <v>21</v>
       </c>
+      <c r="Z207">
+        <v>21</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18258,6 +18881,9 @@
       <c r="Y208">
         <v>17</v>
       </c>
+      <c r="Z208">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18343,6 +18969,9 @@
       <c r="Y209">
         <v>51</v>
       </c>
+      <c r="Z209">
+        <v>51</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -18428,6 +19057,9 @@
       <c r="Y210">
         <v>37</v>
       </c>
+      <c r="Z210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -18513,6 +19145,9 @@
       <c r="Y211">
         <v>26</v>
       </c>
+      <c r="Z211">
+        <v>26</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -18598,6 +19233,9 @@
       <c r="Y212">
         <v>8</v>
       </c>
+      <c r="Z212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -18683,6 +19321,9 @@
       <c r="Y213">
         <v>38</v>
       </c>
+      <c r="Z213">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18768,6 +19409,9 @@
       <c r="Y214">
         <v>4</v>
       </c>
+      <c r="Z214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -18853,6 +19497,9 @@
       <c r="Y215">
         <v>21</v>
       </c>
+      <c r="Z215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -18938,6 +19585,9 @@
       <c r="Y216">
         <v>2</v>
       </c>
+      <c r="Z216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19023,6 +19673,9 @@
       <c r="Y217">
         <v>5</v>
       </c>
+      <c r="Z217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -19108,6 +19761,9 @@
       <c r="Y218">
         <v>1</v>
       </c>
+      <c r="Z218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19193,6 +19849,9 @@
       <c r="Y219">
         <v>1</v>
       </c>
+      <c r="Z219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19278,6 +19937,9 @@
       <c r="Y220">
         <v>2</v>
       </c>
+      <c r="Z220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -19363,6 +20025,9 @@
       <c r="Y221">
         <v>0</v>
       </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -19448,6 +20113,9 @@
       <c r="Y222">
         <v>1</v>
       </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -19533,6 +20201,9 @@
       <c r="Y223">
         <v>0</v>
       </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -19618,6 +20289,9 @@
       <c r="Y224">
         <v>0</v>
       </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -19703,6 +20377,9 @@
       <c r="Y225">
         <v>0</v>
       </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19788,6 +20465,9 @@
       <c r="Y226">
         <v>0</v>
       </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -19873,6 +20553,9 @@
       <c r="Y227">
         <v>0</v>
       </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -19958,6 +20641,9 @@
       <c r="Y228">
         <v>0</v>
       </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -20043,6 +20729,9 @@
       <c r="Y229">
         <v>2</v>
       </c>
+      <c r="Z229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -20128,6 +20817,9 @@
       <c r="Y230">
         <v>0</v>
       </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -20213,6 +20905,9 @@
       <c r="Y231">
         <v>1</v>
       </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -20298,6 +20993,9 @@
       <c r="Y232">
         <v>24</v>
       </c>
+      <c r="Z232">
+        <v>25</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -20383,6 +21081,9 @@
       <c r="Y233">
         <v>167</v>
       </c>
+      <c r="Z233">
+        <v>170</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -20468,6 +21169,9 @@
       <c r="Y234">
         <v>9</v>
       </c>
+      <c r="Z234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -20553,6 +21257,9 @@
       <c r="Y235">
         <v>11</v>
       </c>
+      <c r="Z235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -20638,6 +21345,9 @@
       <c r="Y236">
         <v>0</v>
       </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -20723,6 +21433,9 @@
       <c r="Y237">
         <v>2</v>
       </c>
+      <c r="Z237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -20808,6 +21521,9 @@
       <c r="Y238">
         <v>0</v>
       </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -20893,6 +21609,9 @@
       <c r="Y239">
         <v>0</v>
       </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -20978,6 +21697,9 @@
       <c r="Y240">
         <v>2</v>
       </c>
+      <c r="Z240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -21063,6 +21785,9 @@
       <c r="Y241">
         <v>7</v>
       </c>
+      <c r="Z241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -21148,6 +21873,9 @@
       <c r="Y242">
         <v>3</v>
       </c>
+      <c r="Z242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -21233,6 +21961,9 @@
       <c r="Y243">
         <v>1</v>
       </c>
+      <c r="Z243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -21318,6 +22049,9 @@
       <c r="Y244">
         <v>1</v>
       </c>
+      <c r="Z244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -21403,6 +22137,9 @@
       <c r="Y245">
         <v>2</v>
       </c>
+      <c r="Z245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -21488,6 +22225,9 @@
       <c r="Y246">
         <v>2</v>
       </c>
+      <c r="Z246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -21573,6 +22313,9 @@
       <c r="Y247">
         <v>0</v>
       </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -21658,6 +22401,9 @@
       <c r="Y248">
         <v>3</v>
       </c>
+      <c r="Z248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -21743,6 +22489,9 @@
       <c r="Y249">
         <v>7</v>
       </c>
+      <c r="Z249">
+        <v>7</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -21828,6 +22577,9 @@
       <c r="Y250">
         <v>0</v>
       </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -21913,6 +22665,9 @@
       <c r="Y251">
         <v>4</v>
       </c>
+      <c r="Z251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -21998,6 +22753,9 @@
       <c r="Y252">
         <v>1</v>
       </c>
+      <c r="Z252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -22083,6 +22841,9 @@
       <c r="Y253">
         <v>1</v>
       </c>
+      <c r="Z253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -22168,6 +22929,9 @@
       <c r="Y254">
         <v>1</v>
       </c>
+      <c r="Z254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -22263,6 +23027,9 @@
       <c r="Y255">
         <v>12</v>
       </c>
+      <c r="Z255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -22358,6 +23125,9 @@
       <c r="Y256">
         <v>60</v>
       </c>
+      <c r="Z256">
+        <v>61</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -22453,6 +23223,9 @@
       <c r="Y257">
         <v>46</v>
       </c>
+      <c r="Z257">
+        <v>48</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -22548,6 +23321,9 @@
       <c r="Y258">
         <v>48</v>
       </c>
+      <c r="Z258">
+        <v>49</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -22643,6 +23419,9 @@
       <c r="Y259">
         <v>49</v>
       </c>
+      <c r="Z259">
+        <v>49</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -22738,6 +23517,9 @@
       <c r="Y260">
         <v>32</v>
       </c>
+      <c r="Z260">
+        <v>33</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -22833,6 +23615,9 @@
       <c r="Y261">
         <v>69</v>
       </c>
+      <c r="Z261">
+        <v>75</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -22928,6 +23713,9 @@
       <c r="Y262">
         <v>40</v>
       </c>
+      <c r="Z262">
+        <v>41</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -23023,6 +23811,9 @@
       <c r="Y263">
         <v>46</v>
       </c>
+      <c r="Z263">
+        <v>46</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -23108,6 +23899,9 @@
       <c r="Y264">
         <v>8</v>
       </c>
+      <c r="Z264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -23193,6 +23987,9 @@
       <c r="Y265">
         <v>4</v>
       </c>
+      <c r="Z265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -23278,6 +24075,9 @@
       <c r="Y266">
         <v>3</v>
       </c>
+      <c r="Z266">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -23363,6 +24163,9 @@
       <c r="Y267">
         <v>4</v>
       </c>
+      <c r="Z267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -23448,6 +24251,9 @@
       <c r="Y268">
         <v>6</v>
       </c>
+      <c r="Z268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -23533,6 +24339,9 @@
       <c r="Y269">
         <v>7</v>
       </c>
+      <c r="Z269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -23618,6 +24427,9 @@
       <c r="Y270">
         <v>0</v>
       </c>
+      <c r="Z270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -23703,6 +24515,9 @@
       <c r="Y271">
         <v>4</v>
       </c>
+      <c r="Z271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -23788,6 +24603,9 @@
       <c r="Y272">
         <v>0</v>
       </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -23873,6 +24691,9 @@
       <c r="Y273">
         <v>0</v>
       </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -23958,6 +24779,9 @@
       <c r="Y274">
         <v>2</v>
       </c>
+      <c r="Z274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -24043,6 +24867,9 @@
       <c r="Y275">
         <v>24</v>
       </c>
+      <c r="Z275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -24128,6 +24955,9 @@
       <c r="Y276">
         <v>9</v>
       </c>
+      <c r="Z276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -24213,6 +25043,9 @@
       <c r="Y277">
         <v>0</v>
       </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -24298,6 +25131,9 @@
       <c r="Y278">
         <v>16</v>
       </c>
+      <c r="Z278">
+        <v>16</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -24383,6 +25219,9 @@
       <c r="Y279">
         <v>4</v>
       </c>
+      <c r="Z279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -24468,6 +25307,9 @@
       <c r="Y280">
         <v>40</v>
       </c>
+      <c r="Z280">
+        <v>40</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -24553,6 +25395,9 @@
       <c r="Y281">
         <v>28</v>
       </c>
+      <c r="Z281">
+        <v>29</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -24638,6 +25483,9 @@
       <c r="Y282">
         <v>1</v>
       </c>
+      <c r="Z282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -24723,6 +25571,9 @@
       <c r="Y283">
         <v>0</v>
       </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -24808,6 +25659,9 @@
       <c r="Y284">
         <v>2</v>
       </c>
+      <c r="Z284">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -24893,6 +25747,9 @@
       <c r="Y285">
         <v>18</v>
       </c>
+      <c r="Z285">
+        <v>18</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -24978,6 +25835,9 @@
       <c r="Y286">
         <v>0</v>
       </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -25063,6 +25923,9 @@
       <c r="Y287">
         <v>0</v>
       </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -25148,6 +26011,9 @@
       <c r="Y288">
         <v>0</v>
       </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -25233,6 +26099,9 @@
       <c r="Y289">
         <v>0</v>
       </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -25318,6 +26187,9 @@
       <c r="Y290">
         <v>3</v>
       </c>
+      <c r="Z290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -25403,6 +26275,9 @@
       <c r="Y291">
         <v>0</v>
       </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -25488,6 +26363,9 @@
       <c r="Y292">
         <v>3</v>
       </c>
+      <c r="Z292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -25573,6 +26451,9 @@
       <c r="Y293">
         <v>0</v>
       </c>
+      <c r="Z293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -25658,6 +26539,9 @@
       <c r="Y294">
         <v>7</v>
       </c>
+      <c r="Z294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -25743,6 +26627,9 @@
       <c r="Y295">
         <v>0</v>
       </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -25828,6 +26715,9 @@
       <c r="Y296">
         <v>0</v>
       </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -25913,6 +26803,9 @@
       <c r="Y297">
         <v>1</v>
       </c>
+      <c r="Z297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -25998,6 +26891,9 @@
       <c r="Y298">
         <v>4</v>
       </c>
+      <c r="Z298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -26083,6 +26979,9 @@
       <c r="Y299">
         <v>0</v>
       </c>
+      <c r="Z299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -26168,6 +27067,9 @@
       <c r="Y300">
         <v>0</v>
       </c>
+      <c r="Z300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -26253,6 +27155,9 @@
       <c r="Y301">
         <v>17</v>
       </c>
+      <c r="Z301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -26338,6 +27243,9 @@
       <c r="Y302">
         <v>0</v>
       </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -26423,6 +27331,9 @@
       <c r="Y303">
         <v>0</v>
       </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -26508,6 +27419,9 @@
       <c r="Y304">
         <v>4</v>
       </c>
+      <c r="Z304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -26593,6 +27507,9 @@
       <c r="Y305">
         <v>12</v>
       </c>
+      <c r="Z305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -26678,6 +27595,9 @@
       <c r="Y306">
         <v>206</v>
       </c>
+      <c r="Z306">
+        <v>209</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -26763,6 +27683,9 @@
       <c r="Y307">
         <v>16</v>
       </c>
+      <c r="Z307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -26848,6 +27771,9 @@
       <c r="Y308">
         <v>5</v>
       </c>
+      <c r="Z308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -26933,6 +27859,9 @@
       <c r="Y309">
         <v>0</v>
       </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -27018,6 +27947,9 @@
       <c r="Y310">
         <v>0</v>
       </c>
+      <c r="Z310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -27103,6 +28035,9 @@
       <c r="Y311">
         <v>8</v>
       </c>
+      <c r="Z311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -27188,6 +28123,9 @@
       <c r="Y312">
         <v>5</v>
       </c>
+      <c r="Z312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -27273,6 +28211,9 @@
       <c r="Y313">
         <v>0</v>
       </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -27358,6 +28299,9 @@
       <c r="Y314">
         <v>1</v>
       </c>
+      <c r="Z314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -27443,6 +28387,9 @@
       <c r="Y315">
         <v>7</v>
       </c>
+      <c r="Z315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -27528,6 +28475,9 @@
       <c r="Y316">
         <v>3</v>
       </c>
+      <c r="Z316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -27613,6 +28563,9 @@
       <c r="Y317">
         <v>5</v>
       </c>
+      <c r="Z317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -27698,6 +28651,9 @@
       <c r="Y318">
         <v>11</v>
       </c>
+      <c r="Z318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -27783,6 +28739,9 @@
       <c r="Y319">
         <v>6</v>
       </c>
+      <c r="Z319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -27868,6 +28827,9 @@
       <c r="Y320">
         <v>0</v>
       </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -27953,6 +28915,9 @@
       <c r="Y321">
         <v>1</v>
       </c>
+      <c r="Z321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -28038,6 +29003,9 @@
       <c r="Y322">
         <v>7</v>
       </c>
+      <c r="Z322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -28123,6 +29091,9 @@
       <c r="Y323">
         <v>28</v>
       </c>
+      <c r="Z323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -28208,6 +29179,9 @@
       <c r="Y324">
         <v>19</v>
       </c>
+      <c r="Z324">
+        <v>19</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -28293,6 +29267,9 @@
       <c r="Y325">
         <v>15</v>
       </c>
+      <c r="Z325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -28378,6 +29355,9 @@
       <c r="Y326">
         <v>0</v>
       </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -28463,6 +29443,9 @@
       <c r="Y327">
         <v>0</v>
       </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -28548,6 +29531,9 @@
       <c r="Y328">
         <v>0</v>
       </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -28633,6 +29619,9 @@
       <c r="Y329">
         <v>0</v>
       </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -28718,6 +29707,9 @@
       <c r="Y330">
         <v>3</v>
       </c>
+      <c r="Z330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -28803,6 +29795,9 @@
       <c r="Y331">
         <v>1</v>
       </c>
+      <c r="Z331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -28888,6 +29883,9 @@
       <c r="Y332">
         <v>4</v>
       </c>
+      <c r="Z332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -28973,6 +29971,9 @@
       <c r="Y333">
         <v>0</v>
       </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -29058,6 +30059,9 @@
       <c r="Y334">
         <v>0</v>
       </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -29143,6 +30147,9 @@
       <c r="Y335">
         <v>7</v>
       </c>
+      <c r="Z335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -29228,6 +30235,9 @@
       <c r="Y336">
         <v>2</v>
       </c>
+      <c r="Z336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -29313,6 +30323,9 @@
       <c r="Y337">
         <v>2</v>
       </c>
+      <c r="Z337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -29398,6 +30411,9 @@
       <c r="Y338">
         <v>2</v>
       </c>
+      <c r="Z338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -29483,6 +30499,9 @@
       <c r="Y339">
         <v>10</v>
       </c>
+      <c r="Z339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -29568,6 +30587,9 @@
       <c r="Y340">
         <v>1</v>
       </c>
+      <c r="Z340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -29653,6 +30675,9 @@
       <c r="Y341">
         <v>12</v>
       </c>
+      <c r="Z341">
+        <v>12</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -29738,6 +30763,9 @@
       <c r="Y342">
         <v>0</v>
       </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -29823,6 +30851,9 @@
       <c r="Y343">
         <v>0</v>
       </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -29908,6 +30939,9 @@
       <c r="Y344">
         <v>112</v>
       </c>
+      <c r="Z344">
+        <v>113</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -29993,6 +31027,9 @@
       <c r="Y345">
         <v>4</v>
       </c>
+      <c r="Z345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -30078,6 +31115,9 @@
       <c r="Y346">
         <v>5</v>
       </c>
+      <c r="Z346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -30163,6 +31203,9 @@
       <c r="Y347">
         <v>1</v>
       </c>
+      <c r="Z347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -30248,6 +31291,9 @@
       <c r="Y348">
         <v>3</v>
       </c>
+      <c r="Z348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -30333,6 +31379,9 @@
       <c r="Y349">
         <v>14</v>
       </c>
+      <c r="Z349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -30418,6 +31467,9 @@
       <c r="Y350">
         <v>1</v>
       </c>
+      <c r="Z350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -30503,6 +31555,9 @@
       <c r="Y351">
         <v>1</v>
       </c>
+      <c r="Z351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -30588,6 +31643,9 @@
       <c r="Y352">
         <v>0</v>
       </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -30673,6 +31731,9 @@
       <c r="Y353">
         <v>0</v>
       </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -30758,6 +31819,9 @@
       <c r="Y354">
         <v>3</v>
       </c>
+      <c r="Z354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -30843,6 +31907,9 @@
       <c r="Y355">
         <v>1</v>
       </c>
+      <c r="Z355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -30928,6 +31995,9 @@
       <c r="Y356">
         <v>2</v>
       </c>
+      <c r="Z356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -31013,6 +32083,9 @@
       <c r="Y357">
         <v>0</v>
       </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -31098,6 +32171,9 @@
       <c r="Y358">
         <v>0</v>
       </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -31183,6 +32259,9 @@
       <c r="Y359">
         <v>0</v>
       </c>
+      <c r="Z359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -31268,6 +32347,9 @@
       <c r="Y360">
         <v>16</v>
       </c>
+      <c r="Z360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -31353,6 +32435,9 @@
       <c r="Y361">
         <v>2</v>
       </c>
+      <c r="Z361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -31438,6 +32523,9 @@
       <c r="Y362">
         <v>1</v>
       </c>
+      <c r="Z362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -31523,6 +32611,9 @@
       <c r="Y363">
         <v>2</v>
       </c>
+      <c r="Z363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -31608,6 +32699,9 @@
       <c r="Y364">
         <v>0</v>
       </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -31693,6 +32787,9 @@
       <c r="Y365">
         <v>0</v>
       </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -31778,6 +32875,9 @@
       <c r="Y366">
         <v>1</v>
       </c>
+      <c r="Z366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -31863,6 +32963,9 @@
       <c r="Y367">
         <v>2</v>
       </c>
+      <c r="Z367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -31948,6 +33051,9 @@
       <c r="Y368">
         <v>0</v>
       </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -32033,6 +33139,9 @@
       <c r="Y369">
         <v>1</v>
       </c>
+      <c r="Z369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -32118,6 +33227,9 @@
       <c r="Y370">
         <v>0</v>
       </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -32203,6 +33315,9 @@
       <c r="Y371">
         <v>0</v>
       </c>
+      <c r="Z371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -32288,6 +33403,9 @@
       <c r="Y372">
         <v>2</v>
       </c>
+      <c r="Z372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -32373,6 +33491,9 @@
       <c r="Y373">
         <v>2</v>
       </c>
+      <c r="Z373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -32458,6 +33579,9 @@
       <c r="Y374">
         <v>4</v>
       </c>
+      <c r="Z374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -32543,6 +33667,9 @@
       <c r="Y375">
         <v>1</v>
       </c>
+      <c r="Z375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -32628,6 +33755,9 @@
       <c r="Y376">
         <v>0</v>
       </c>
+      <c r="Z376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -32713,6 +33843,9 @@
       <c r="Y377">
         <v>0</v>
       </c>
+      <c r="Z377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -32798,6 +33931,9 @@
       <c r="Y378">
         <v>0</v>
       </c>
+      <c r="Z378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -32883,6 +34019,9 @@
       <c r="Y379">
         <v>1</v>
       </c>
+      <c r="Z379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -32968,6 +34107,9 @@
       <c r="Y380">
         <v>1</v>
       </c>
+      <c r="Z380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -33053,6 +34195,9 @@
       <c r="Y381">
         <v>0</v>
       </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -33138,6 +34283,9 @@
       <c r="Y382">
         <v>4</v>
       </c>
+      <c r="Z382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -33223,6 +34371,9 @@
       <c r="Y383">
         <v>0</v>
       </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -33307,6 +34458,9 @@
       </c>
       <c r="Y384">
         <v>4</v>
+      </c>
+      <c r="Z384">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z384"/>
+  <dimension ref="A1:AA384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,6 +488,11 @@
           <t>2020-04-10</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -586,6 +591,9 @@
       <c r="Z2">
         <v>186</v>
       </c>
+      <c r="AA2">
+        <v>187</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +692,9 @@
       <c r="Z3">
         <v>133</v>
       </c>
+      <c r="AA3">
+        <v>137</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -782,6 +793,9 @@
       <c r="Z4">
         <v>113</v>
       </c>
+      <c r="AA4">
+        <v>115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -880,6 +894,9 @@
       <c r="Z5">
         <v>71</v>
       </c>
+      <c r="AA5">
+        <v>72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -978,6 +995,9 @@
       <c r="Z6">
         <v>140</v>
       </c>
+      <c r="AA6">
+        <v>143</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1076,6 +1096,9 @@
       <c r="Z7">
         <v>96</v>
       </c>
+      <c r="AA7">
+        <v>101</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1174,6 +1197,9 @@
       <c r="Z8">
         <v>132</v>
       </c>
+      <c r="AA8">
+        <v>132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1272,6 +1298,9 @@
       <c r="Z9">
         <v>110</v>
       </c>
+      <c r="AA9">
+        <v>111</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1370,6 +1399,9 @@
       <c r="Z10">
         <v>75</v>
       </c>
+      <c r="AA10">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1468,6 +1500,9 @@
       <c r="Z11">
         <v>77</v>
       </c>
+      <c r="AA11">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1566,6 +1601,9 @@
       <c r="Z12">
         <v>122</v>
       </c>
+      <c r="AA12">
+        <v>124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1664,6 +1702,9 @@
       <c r="Z13">
         <v>155</v>
       </c>
+      <c r="AA13">
+        <v>161</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1762,6 +1803,9 @@
       <c r="Z14">
         <v>141</v>
       </c>
+      <c r="AA14">
+        <v>144</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1860,6 +1904,9 @@
       <c r="Z15">
         <v>133</v>
       </c>
+      <c r="AA15">
+        <v>137</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1958,6 +2005,9 @@
       <c r="Z16">
         <v>103</v>
       </c>
+      <c r="AA16">
+        <v>108</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2056,6 +2106,9 @@
       <c r="Z17">
         <v>4</v>
       </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2154,6 +2207,9 @@
       <c r="Z18">
         <v>2</v>
       </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2252,6 +2308,9 @@
       <c r="Z19">
         <v>34</v>
       </c>
+      <c r="AA19">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2340,6 +2399,9 @@
       <c r="Z20">
         <v>14</v>
       </c>
+      <c r="AA20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2428,6 +2490,9 @@
       <c r="Z21">
         <v>125</v>
       </c>
+      <c r="AA21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2516,6 +2581,9 @@
       <c r="Z22">
         <v>49</v>
       </c>
+      <c r="AA22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2604,6 +2672,9 @@
       <c r="Z23">
         <v>46</v>
       </c>
+      <c r="AA23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2692,6 +2763,9 @@
       <c r="Z24">
         <v>3</v>
       </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2780,6 +2854,9 @@
       <c r="Z25">
         <v>0</v>
       </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2868,6 +2945,9 @@
       <c r="Z26">
         <v>0</v>
       </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2956,6 +3036,9 @@
       <c r="Z27">
         <v>6</v>
       </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3044,6 +3127,9 @@
       <c r="Z28">
         <v>6</v>
       </c>
+      <c r="AA28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3132,6 +3218,9 @@
       <c r="Z29">
         <v>12</v>
       </c>
+      <c r="AA29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3220,6 +3309,9 @@
       <c r="Z30">
         <v>12</v>
       </c>
+      <c r="AA30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3308,6 +3400,9 @@
       <c r="Z31">
         <v>13</v>
       </c>
+      <c r="AA31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3396,6 +3491,9 @@
       <c r="Z32">
         <v>11</v>
       </c>
+      <c r="AA32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3484,6 +3582,9 @@
       <c r="Z33">
         <v>13</v>
       </c>
+      <c r="AA33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3572,6 +3673,9 @@
       <c r="Z34">
         <v>0</v>
       </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3660,6 +3764,9 @@
       <c r="Z35">
         <v>0</v>
       </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3748,6 +3855,9 @@
       <c r="Z36">
         <v>3</v>
       </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3836,6 +3946,9 @@
       <c r="Z37">
         <v>0</v>
       </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3924,6 +4037,9 @@
       <c r="Z38">
         <v>1</v>
       </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4012,6 +4128,9 @@
       <c r="Z39">
         <v>19</v>
       </c>
+      <c r="AA39">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4100,6 +4219,9 @@
       <c r="Z40">
         <v>35</v>
       </c>
+      <c r="AA40">
+        <v>35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4188,6 +4310,9 @@
       <c r="Z41">
         <v>0</v>
       </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4276,6 +4401,9 @@
       <c r="Z42">
         <v>11</v>
       </c>
+      <c r="AA42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4364,6 +4492,9 @@
       <c r="Z43">
         <v>18</v>
       </c>
+      <c r="AA43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4452,6 +4583,9 @@
       <c r="Z44">
         <v>14</v>
       </c>
+      <c r="AA44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4540,6 +4674,9 @@
       <c r="Z45">
         <v>25</v>
       </c>
+      <c r="AA45">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4628,6 +4765,9 @@
       <c r="Z46">
         <v>1</v>
       </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4716,6 +4856,9 @@
       <c r="Z47">
         <v>3</v>
       </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4804,6 +4947,9 @@
       <c r="Z48">
         <v>3</v>
       </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4892,6 +5038,9 @@
       <c r="Z49">
         <v>7</v>
       </c>
+      <c r="AA49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4980,6 +5129,9 @@
       <c r="Z50">
         <v>2</v>
       </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5068,6 +5220,9 @@
       <c r="Z51">
         <v>6</v>
       </c>
+      <c r="AA51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5156,6 +5311,9 @@
       <c r="Z52">
         <v>0</v>
       </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5244,6 +5402,9 @@
       <c r="Z53">
         <v>0</v>
       </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5332,6 +5493,9 @@
       <c r="Z54">
         <v>6</v>
       </c>
+      <c r="AA54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5420,6 +5584,9 @@
       <c r="Z55">
         <v>5</v>
       </c>
+      <c r="AA55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5508,6 +5675,9 @@
       <c r="Z56">
         <v>0</v>
       </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5596,6 +5766,9 @@
       <c r="Z57">
         <v>10</v>
       </c>
+      <c r="AA57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5684,6 +5857,9 @@
       <c r="Z58">
         <v>0</v>
       </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5772,6 +5948,9 @@
       <c r="Z59">
         <v>0</v>
       </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5860,6 +6039,9 @@
       <c r="Z60">
         <v>0</v>
       </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5948,6 +6130,9 @@
       <c r="Z61">
         <v>1</v>
       </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6036,6 +6221,9 @@
       <c r="Z62">
         <v>2</v>
       </c>
+      <c r="AA62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6124,6 +6312,9 @@
       <c r="Z63">
         <v>2</v>
       </c>
+      <c r="AA63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6212,6 +6403,9 @@
       <c r="Z64">
         <v>0</v>
       </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6300,6 +6494,9 @@
       <c r="Z65">
         <v>3</v>
       </c>
+      <c r="AA65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6388,6 +6585,9 @@
       <c r="Z66">
         <v>4</v>
       </c>
+      <c r="AA66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6476,6 +6676,9 @@
       <c r="Z67">
         <v>1</v>
       </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6564,6 +6767,9 @@
       <c r="Z68">
         <v>3</v>
       </c>
+      <c r="AA68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6652,6 +6858,9 @@
       <c r="Z69">
         <v>33</v>
       </c>
+      <c r="AA69">
+        <v>33</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6740,6 +6949,9 @@
       <c r="Z70">
         <v>2</v>
       </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6828,6 +7040,9 @@
       <c r="Z71">
         <v>0</v>
       </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6916,6 +7131,9 @@
       <c r="Z72">
         <v>2</v>
       </c>
+      <c r="AA72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7004,6 +7222,9 @@
       <c r="Z73">
         <v>5</v>
       </c>
+      <c r="AA73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7092,6 +7313,9 @@
       <c r="Z74">
         <v>3</v>
       </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7180,6 +7404,9 @@
       <c r="Z75">
         <v>0</v>
       </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7268,6 +7495,9 @@
       <c r="Z76">
         <v>0</v>
       </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7356,6 +7586,9 @@
       <c r="Z77">
         <v>2</v>
       </c>
+      <c r="AA77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7444,6 +7677,9 @@
       <c r="Z78">
         <v>3</v>
       </c>
+      <c r="AA78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7532,6 +7768,9 @@
       <c r="Z79">
         <v>1</v>
       </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7620,6 +7859,9 @@
       <c r="Z80">
         <v>1</v>
       </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7708,6 +7950,9 @@
       <c r="Z81">
         <v>0</v>
       </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7796,6 +8041,9 @@
       <c r="Z82">
         <v>5</v>
       </c>
+      <c r="AA82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7884,6 +8132,9 @@
       <c r="Z83">
         <v>0</v>
       </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7972,6 +8223,9 @@
       <c r="Z84">
         <v>0</v>
       </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8060,6 +8314,9 @@
       <c r="Z85">
         <v>4</v>
       </c>
+      <c r="AA85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8148,6 +8405,9 @@
       <c r="Z86">
         <v>0</v>
       </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8236,6 +8496,9 @@
       <c r="Z87">
         <v>0</v>
       </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8324,6 +8587,9 @@
       <c r="Z88">
         <v>0</v>
       </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8412,6 +8678,9 @@
       <c r="Z89">
         <v>5</v>
       </c>
+      <c r="AA89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8500,6 +8769,9 @@
       <c r="Z90">
         <v>0</v>
       </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8588,6 +8860,9 @@
       <c r="Z91">
         <v>0</v>
       </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8676,6 +8951,9 @@
       <c r="Z92">
         <v>0</v>
       </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8764,6 +9042,9 @@
       <c r="Z93">
         <v>1</v>
       </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8852,6 +9133,9 @@
       <c r="Z94">
         <v>0</v>
       </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8940,6 +9224,9 @@
       <c r="Z95">
         <v>1</v>
       </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9028,6 +9315,9 @@
       <c r="Z96">
         <v>0</v>
       </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9116,6 +9406,9 @@
       <c r="Z97">
         <v>0</v>
       </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9204,6 +9497,9 @@
       <c r="Z98">
         <v>0</v>
       </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9292,6 +9588,9 @@
       <c r="Z99">
         <v>0</v>
       </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9380,6 +9679,9 @@
       <c r="Z100">
         <v>4</v>
       </c>
+      <c r="AA100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9468,6 +9770,9 @@
       <c r="Z101">
         <v>3</v>
       </c>
+      <c r="AA101">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9556,6 +9861,9 @@
       <c r="Z102">
         <v>3</v>
       </c>
+      <c r="AA102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9644,6 +9952,9 @@
       <c r="Z103">
         <v>5</v>
       </c>
+      <c r="AA103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9732,6 +10043,9 @@
       <c r="Z104">
         <v>0</v>
       </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9820,6 +10134,9 @@
       <c r="Z105">
         <v>0</v>
       </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9908,6 +10225,9 @@
       <c r="Z106">
         <v>4</v>
       </c>
+      <c r="AA106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9996,6 +10316,9 @@
       <c r="Z107">
         <v>0</v>
       </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10084,6 +10407,9 @@
       <c r="Z108">
         <v>0</v>
       </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10172,6 +10498,9 @@
       <c r="Z109">
         <v>0</v>
       </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10260,6 +10589,9 @@
       <c r="Z110">
         <v>26</v>
       </c>
+      <c r="AA110">
+        <v>26</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10348,6 +10680,9 @@
       <c r="Z111">
         <v>83</v>
       </c>
+      <c r="AA111">
+        <v>83</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10436,6 +10771,9 @@
       <c r="Z112">
         <v>45</v>
       </c>
+      <c r="AA112">
+        <v>46</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10524,6 +10862,9 @@
       <c r="Z113">
         <v>71</v>
       </c>
+      <c r="AA113">
+        <v>72</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10612,6 +10953,9 @@
       <c r="Z114">
         <v>144</v>
       </c>
+      <c r="AA114">
+        <v>146</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10700,6 +11044,9 @@
       <c r="Z115">
         <v>20</v>
       </c>
+      <c r="AA115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10788,6 +11135,9 @@
       <c r="Z116">
         <v>9</v>
       </c>
+      <c r="AA116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10876,6 +11226,9 @@
       <c r="Z117">
         <v>2</v>
       </c>
+      <c r="AA117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10964,6 +11317,9 @@
       <c r="Z118">
         <v>2</v>
       </c>
+      <c r="AA118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11052,6 +11408,9 @@
       <c r="Z119">
         <v>1</v>
       </c>
+      <c r="AA119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11140,6 +11499,9 @@
       <c r="Z120">
         <v>45</v>
       </c>
+      <c r="AA120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11228,6 +11590,9 @@
       <c r="Z121">
         <v>1</v>
       </c>
+      <c r="AA121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11316,6 +11681,9 @@
       <c r="Z122">
         <v>1</v>
       </c>
+      <c r="AA122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11404,6 +11772,9 @@
       <c r="Z123">
         <v>2</v>
       </c>
+      <c r="AA123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11492,6 +11863,9 @@
       <c r="Z124">
         <v>6</v>
       </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11580,6 +11954,9 @@
       <c r="Z125">
         <v>22</v>
       </c>
+      <c r="AA125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11668,6 +12045,9 @@
       <c r="Z126">
         <v>88</v>
       </c>
+      <c r="AA126">
+        <v>89</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11756,6 +12136,9 @@
       <c r="Z127">
         <v>17</v>
       </c>
+      <c r="AA127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -11844,6 +12227,9 @@
       <c r="Z128">
         <v>17</v>
       </c>
+      <c r="AA128">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11932,6 +12318,9 @@
       <c r="Z129">
         <v>44</v>
       </c>
+      <c r="AA129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12020,6 +12409,9 @@
       <c r="Z130">
         <v>350</v>
       </c>
+      <c r="AA130">
+        <v>355</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12108,6 +12500,9 @@
       <c r="Z131">
         <v>146</v>
       </c>
+      <c r="AA131">
+        <v>146</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12196,6 +12591,9 @@
       <c r="Z132">
         <v>7</v>
       </c>
+      <c r="AA132">
+        <v>7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12284,6 +12682,9 @@
       <c r="Z133">
         <v>19</v>
       </c>
+      <c r="AA133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12372,6 +12773,9 @@
       <c r="Z134">
         <v>41</v>
       </c>
+      <c r="AA134">
+        <v>41</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12460,6 +12864,9 @@
       <c r="Z135">
         <v>74</v>
       </c>
+      <c r="AA135">
+        <v>75</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12548,6 +12955,9 @@
       <c r="Z136">
         <v>129</v>
       </c>
+      <c r="AA136">
+        <v>131</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12636,6 +13046,9 @@
       <c r="Z137">
         <v>44</v>
       </c>
+      <c r="AA137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12724,6 +13137,9 @@
       <c r="Z138">
         <v>8</v>
       </c>
+      <c r="AA138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -12812,6 +13228,9 @@
       <c r="Z139">
         <v>49</v>
       </c>
+      <c r="AA139">
+        <v>49</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -12900,6 +13319,9 @@
       <c r="Z140">
         <v>13</v>
       </c>
+      <c r="AA140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12988,6 +13410,9 @@
       <c r="Z141">
         <v>28</v>
       </c>
+      <c r="AA141">
+        <v>29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13076,6 +13501,9 @@
       <c r="Z142">
         <v>17</v>
       </c>
+      <c r="AA142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13164,6 +13592,9 @@
       <c r="Z143">
         <v>2</v>
       </c>
+      <c r="AA143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13252,6 +13683,9 @@
       <c r="Z144">
         <v>10</v>
       </c>
+      <c r="AA144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13340,6 +13774,9 @@
       <c r="Z145">
         <v>1</v>
       </c>
+      <c r="AA145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13428,6 +13865,9 @@
       <c r="Z146">
         <v>7</v>
       </c>
+      <c r="AA146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13516,6 +13956,9 @@
       <c r="Z147">
         <v>9</v>
       </c>
+      <c r="AA147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13604,6 +14047,9 @@
       <c r="Z148">
         <v>8</v>
       </c>
+      <c r="AA148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -13692,6 +14138,9 @@
       <c r="Z149">
         <v>13</v>
       </c>
+      <c r="AA149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -13780,6 +14229,9 @@
       <c r="Z150">
         <v>44</v>
       </c>
+      <c r="AA150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -13868,6 +14320,9 @@
       <c r="Z151">
         <v>0</v>
       </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -13956,6 +14411,9 @@
       <c r="Z152">
         <v>0</v>
       </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14044,6 +14502,9 @@
       <c r="Z153">
         <v>10</v>
       </c>
+      <c r="AA153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14132,6 +14593,9 @@
       <c r="Z154">
         <v>4</v>
       </c>
+      <c r="AA154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14220,6 +14684,9 @@
       <c r="Z155">
         <v>29</v>
       </c>
+      <c r="AA155">
+        <v>31</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14308,6 +14775,9 @@
       <c r="Z156">
         <v>2</v>
       </c>
+      <c r="AA156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -14396,6 +14866,9 @@
       <c r="Z157">
         <v>1</v>
       </c>
+      <c r="AA157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14484,6 +14957,9 @@
       <c r="Z158">
         <v>2</v>
       </c>
+      <c r="AA158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -14572,6 +15048,9 @@
       <c r="Z159">
         <v>5</v>
       </c>
+      <c r="AA159">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -14660,6 +15139,9 @@
       <c r="Z160">
         <v>9</v>
       </c>
+      <c r="AA160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -14748,6 +15230,9 @@
       <c r="Z161">
         <v>1</v>
       </c>
+      <c r="AA161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -14836,6 +15321,9 @@
       <c r="Z162">
         <v>76</v>
       </c>
+      <c r="AA162">
+        <v>77</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -14924,6 +15412,9 @@
       <c r="Z163">
         <v>31</v>
       </c>
+      <c r="AA163">
+        <v>31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15012,6 +15503,9 @@
       <c r="Z164">
         <v>15</v>
       </c>
+      <c r="AA164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15100,6 +15594,9 @@
       <c r="Z165">
         <v>56</v>
       </c>
+      <c r="AA165">
+        <v>56</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15188,6 +15685,9 @@
       <c r="Z166">
         <v>11</v>
       </c>
+      <c r="AA166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15276,6 +15776,9 @@
       <c r="Z167">
         <v>32</v>
       </c>
+      <c r="AA167">
+        <v>32</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -15364,6 +15867,9 @@
       <c r="Z168">
         <v>0</v>
       </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15452,6 +15958,9 @@
       <c r="Z169">
         <v>16</v>
       </c>
+      <c r="AA169">
+        <v>17</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -15540,6 +16049,9 @@
       <c r="Z170">
         <v>4</v>
       </c>
+      <c r="AA170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -15628,6 +16140,9 @@
       <c r="Z171">
         <v>5</v>
       </c>
+      <c r="AA171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -15716,6 +16231,9 @@
       <c r="Z172">
         <v>3</v>
       </c>
+      <c r="AA172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -15804,6 +16322,9 @@
       <c r="Z173">
         <v>2</v>
       </c>
+      <c r="AA173">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -15892,6 +16413,9 @@
       <c r="Z174">
         <v>14</v>
       </c>
+      <c r="AA174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -15980,6 +16504,9 @@
       <c r="Z175">
         <v>2</v>
       </c>
+      <c r="AA175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16068,6 +16595,9 @@
       <c r="Z176">
         <v>4</v>
       </c>
+      <c r="AA176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -16156,6 +16686,9 @@
       <c r="Z177">
         <v>0</v>
       </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16244,6 +16777,9 @@
       <c r="Z178">
         <v>0</v>
       </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -16332,6 +16868,9 @@
       <c r="Z179">
         <v>2</v>
       </c>
+      <c r="AA179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -16420,6 +16959,9 @@
       <c r="Z180">
         <v>0</v>
       </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -16508,6 +17050,9 @@
       <c r="Z181">
         <v>0</v>
       </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -16596,6 +17141,9 @@
       <c r="Z182">
         <v>1</v>
       </c>
+      <c r="AA182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -16684,6 +17232,9 @@
       <c r="Z183">
         <v>0</v>
       </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -16772,6 +17323,9 @@
       <c r="Z184">
         <v>1</v>
       </c>
+      <c r="AA184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -16860,6 +17414,9 @@
       <c r="Z185">
         <v>5</v>
       </c>
+      <c r="AA185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -16948,6 +17505,9 @@
       <c r="Z186">
         <v>2</v>
       </c>
+      <c r="AA186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17036,6 +17596,9 @@
       <c r="Z187">
         <v>1</v>
       </c>
+      <c r="AA187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17124,6 +17687,9 @@
       <c r="Z188">
         <v>3</v>
       </c>
+      <c r="AA188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -17212,6 +17778,9 @@
       <c r="Z189">
         <v>1</v>
       </c>
+      <c r="AA189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -17300,6 +17869,9 @@
       <c r="Z190">
         <v>13</v>
       </c>
+      <c r="AA190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -17388,6 +17960,9 @@
       <c r="Z191">
         <v>36</v>
       </c>
+      <c r="AA191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -17476,6 +18051,9 @@
       <c r="Z192">
         <v>1</v>
       </c>
+      <c r="AA192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -17564,6 +18142,9 @@
       <c r="Z193">
         <v>8</v>
       </c>
+      <c r="AA193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -17652,6 +18233,9 @@
       <c r="Z194">
         <v>2</v>
       </c>
+      <c r="AA194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -17740,6 +18324,9 @@
       <c r="Z195">
         <v>5</v>
       </c>
+      <c r="AA195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -17828,6 +18415,9 @@
       <c r="Z196">
         <v>4</v>
       </c>
+      <c r="AA196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -17916,6 +18506,9 @@
       <c r="Z197">
         <v>10</v>
       </c>
+      <c r="AA197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18004,6 +18597,9 @@
       <c r="Z198">
         <v>9</v>
       </c>
+      <c r="AA198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18092,6 +18688,9 @@
       <c r="Z199">
         <v>2</v>
       </c>
+      <c r="AA199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -18180,6 +18779,9 @@
       <c r="Z200">
         <v>1</v>
       </c>
+      <c r="AA200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -18268,6 +18870,9 @@
       <c r="Z201">
         <v>0</v>
       </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -18356,6 +18961,9 @@
       <c r="Z202">
         <v>1</v>
       </c>
+      <c r="AA202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -18444,6 +19052,9 @@
       <c r="Z203">
         <v>9</v>
       </c>
+      <c r="AA203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -18532,6 +19143,9 @@
       <c r="Z204">
         <v>0</v>
       </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -18620,6 +19234,9 @@
       <c r="Z205">
         <v>0</v>
       </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -18708,6 +19325,9 @@
       <c r="Z206">
         <v>0</v>
       </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -18796,6 +19416,9 @@
       <c r="Z207">
         <v>21</v>
       </c>
+      <c r="AA207">
+        <v>21</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -18884,6 +19507,9 @@
       <c r="Z208">
         <v>17</v>
       </c>
+      <c r="AA208">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -18972,6 +19598,9 @@
       <c r="Z209">
         <v>51</v>
       </c>
+      <c r="AA209">
+        <v>51</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19060,6 +19689,9 @@
       <c r="Z210">
         <v>37</v>
       </c>
+      <c r="AA210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -19148,6 +19780,9 @@
       <c r="Z211">
         <v>26</v>
       </c>
+      <c r="AA211">
+        <v>27</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -19236,6 +19871,9 @@
       <c r="Z212">
         <v>8</v>
       </c>
+      <c r="AA212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -19324,6 +19962,9 @@
       <c r="Z213">
         <v>38</v>
       </c>
+      <c r="AA213">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -19412,6 +20053,9 @@
       <c r="Z214">
         <v>4</v>
       </c>
+      <c r="AA214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -19500,6 +20144,9 @@
       <c r="Z215">
         <v>21</v>
       </c>
+      <c r="AA215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -19588,6 +20235,9 @@
       <c r="Z216">
         <v>2</v>
       </c>
+      <c r="AA216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -19676,6 +20326,9 @@
       <c r="Z217">
         <v>5</v>
       </c>
+      <c r="AA217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -19764,6 +20417,9 @@
       <c r="Z218">
         <v>1</v>
       </c>
+      <c r="AA218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -19852,6 +20508,9 @@
       <c r="Z219">
         <v>1</v>
       </c>
+      <c r="AA219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -19940,6 +20599,9 @@
       <c r="Z220">
         <v>2</v>
       </c>
+      <c r="AA220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -20028,6 +20690,9 @@
       <c r="Z221">
         <v>0</v>
       </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -20116,6 +20781,9 @@
       <c r="Z222">
         <v>1</v>
       </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -20204,6 +20872,9 @@
       <c r="Z223">
         <v>0</v>
       </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -20292,6 +20963,9 @@
       <c r="Z224">
         <v>0</v>
       </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -20380,6 +21054,9 @@
       <c r="Z225">
         <v>0</v>
       </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -20468,6 +21145,9 @@
       <c r="Z226">
         <v>0</v>
       </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -20556,6 +21236,9 @@
       <c r="Z227">
         <v>0</v>
       </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -20644,6 +21327,9 @@
       <c r="Z228">
         <v>0</v>
       </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -20732,6 +21418,9 @@
       <c r="Z229">
         <v>2</v>
       </c>
+      <c r="AA229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -20820,6 +21509,9 @@
       <c r="Z230">
         <v>0</v>
       </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -20908,6 +21600,9 @@
       <c r="Z231">
         <v>1</v>
       </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -20996,6 +21691,9 @@
       <c r="Z232">
         <v>25</v>
       </c>
+      <c r="AA232">
+        <v>25</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -21084,6 +21782,9 @@
       <c r="Z233">
         <v>170</v>
       </c>
+      <c r="AA233">
+        <v>174</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -21172,6 +21873,9 @@
       <c r="Z234">
         <v>9</v>
       </c>
+      <c r="AA234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -21260,6 +21964,9 @@
       <c r="Z235">
         <v>11</v>
       </c>
+      <c r="AA235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -21348,6 +22055,9 @@
       <c r="Z236">
         <v>0</v>
       </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -21436,6 +22146,9 @@
       <c r="Z237">
         <v>2</v>
       </c>
+      <c r="AA237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -21524,6 +22237,9 @@
       <c r="Z238">
         <v>0</v>
       </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -21612,6 +22328,9 @@
       <c r="Z239">
         <v>0</v>
       </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -21700,6 +22419,9 @@
       <c r="Z240">
         <v>2</v>
       </c>
+      <c r="AA240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -21788,6 +22510,9 @@
       <c r="Z241">
         <v>7</v>
       </c>
+      <c r="AA241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -21876,6 +22601,9 @@
       <c r="Z242">
         <v>3</v>
       </c>
+      <c r="AA242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -21964,6 +22692,9 @@
       <c r="Z243">
         <v>1</v>
       </c>
+      <c r="AA243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -22052,6 +22783,9 @@
       <c r="Z244">
         <v>1</v>
       </c>
+      <c r="AA244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -22140,6 +22874,9 @@
       <c r="Z245">
         <v>2</v>
       </c>
+      <c r="AA245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -22228,6 +22965,9 @@
       <c r="Z246">
         <v>2</v>
       </c>
+      <c r="AA246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -22316,6 +23056,9 @@
       <c r="Z247">
         <v>0</v>
       </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -22404,6 +23147,9 @@
       <c r="Z248">
         <v>3</v>
       </c>
+      <c r="AA248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -22492,6 +23238,9 @@
       <c r="Z249">
         <v>7</v>
       </c>
+      <c r="AA249">
+        <v>8</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -22580,6 +23329,9 @@
       <c r="Z250">
         <v>0</v>
       </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -22668,6 +23420,9 @@
       <c r="Z251">
         <v>4</v>
       </c>
+      <c r="AA251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -22756,6 +23511,9 @@
       <c r="Z252">
         <v>1</v>
       </c>
+      <c r="AA252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -22844,6 +23602,9 @@
       <c r="Z253">
         <v>1</v>
       </c>
+      <c r="AA253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -22932,6 +23693,9 @@
       <c r="Z254">
         <v>1</v>
       </c>
+      <c r="AA254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -23030,6 +23794,9 @@
       <c r="Z255">
         <v>12</v>
       </c>
+      <c r="AA255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -23128,6 +23895,9 @@
       <c r="Z256">
         <v>61</v>
       </c>
+      <c r="AA256">
+        <v>62</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -23226,6 +23996,9 @@
       <c r="Z257">
         <v>48</v>
       </c>
+      <c r="AA257">
+        <v>48</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -23324,6 +24097,9 @@
       <c r="Z258">
         <v>49</v>
       </c>
+      <c r="AA258">
+        <v>49</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -23422,6 +24198,9 @@
       <c r="Z259">
         <v>49</v>
       </c>
+      <c r="AA259">
+        <v>49</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -23520,6 +24299,9 @@
       <c r="Z260">
         <v>33</v>
       </c>
+      <c r="AA260">
+        <v>33</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -23618,6 +24400,9 @@
       <c r="Z261">
         <v>75</v>
       </c>
+      <c r="AA261">
+        <v>75</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -23716,6 +24501,9 @@
       <c r="Z262">
         <v>41</v>
       </c>
+      <c r="AA262">
+        <v>41</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -23814,6 +24602,9 @@
       <c r="Z263">
         <v>46</v>
       </c>
+      <c r="AA263">
+        <v>46</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -23902,6 +24693,9 @@
       <c r="Z264">
         <v>8</v>
       </c>
+      <c r="AA264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -23990,6 +24784,9 @@
       <c r="Z265">
         <v>4</v>
       </c>
+      <c r="AA265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -24078,6 +24875,9 @@
       <c r="Z266">
         <v>3</v>
       </c>
+      <c r="AA266">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -24166,6 +24966,9 @@
       <c r="Z267">
         <v>4</v>
       </c>
+      <c r="AA267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -24254,6 +25057,9 @@
       <c r="Z268">
         <v>6</v>
       </c>
+      <c r="AA268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -24342,6 +25148,9 @@
       <c r="Z269">
         <v>7</v>
       </c>
+      <c r="AA269">
+        <v>7</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -24430,6 +25239,9 @@
       <c r="Z270">
         <v>0</v>
       </c>
+      <c r="AA270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -24518,6 +25330,9 @@
       <c r="Z271">
         <v>4</v>
       </c>
+      <c r="AA271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -24606,6 +25421,9 @@
       <c r="Z272">
         <v>0</v>
       </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -24694,6 +25512,9 @@
       <c r="Z273">
         <v>0</v>
       </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -24782,6 +25603,9 @@
       <c r="Z274">
         <v>2</v>
       </c>
+      <c r="AA274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -24870,6 +25694,9 @@
       <c r="Z275">
         <v>24</v>
       </c>
+      <c r="AA275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -24958,6 +25785,9 @@
       <c r="Z276">
         <v>9</v>
       </c>
+      <c r="AA276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -25046,6 +25876,9 @@
       <c r="Z277">
         <v>0</v>
       </c>
+      <c r="AA277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -25134,6 +25967,9 @@
       <c r="Z278">
         <v>16</v>
       </c>
+      <c r="AA278">
+        <v>16</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -25222,6 +26058,9 @@
       <c r="Z279">
         <v>4</v>
       </c>
+      <c r="AA279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -25310,6 +26149,9 @@
       <c r="Z280">
         <v>40</v>
       </c>
+      <c r="AA280">
+        <v>41</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -25398,6 +26240,9 @@
       <c r="Z281">
         <v>29</v>
       </c>
+      <c r="AA281">
+        <v>29</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -25486,6 +26331,9 @@
       <c r="Z282">
         <v>1</v>
       </c>
+      <c r="AA282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -25574,6 +26422,9 @@
       <c r="Z283">
         <v>0</v>
       </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -25662,6 +26513,9 @@
       <c r="Z284">
         <v>2</v>
       </c>
+      <c r="AA284">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -25750,6 +26604,9 @@
       <c r="Z285">
         <v>18</v>
       </c>
+      <c r="AA285">
+        <v>18</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -25838,6 +26695,9 @@
       <c r="Z286">
         <v>0</v>
       </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -25926,6 +26786,9 @@
       <c r="Z287">
         <v>0</v>
       </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -26014,6 +26877,9 @@
       <c r="Z288">
         <v>0</v>
       </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -26102,6 +26968,9 @@
       <c r="Z289">
         <v>0</v>
       </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -26190,6 +27059,9 @@
       <c r="Z290">
         <v>3</v>
       </c>
+      <c r="AA290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -26278,6 +27150,9 @@
       <c r="Z291">
         <v>0</v>
       </c>
+      <c r="AA291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -26366,6 +27241,9 @@
       <c r="Z292">
         <v>3</v>
       </c>
+      <c r="AA292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -26454,6 +27332,9 @@
       <c r="Z293">
         <v>0</v>
       </c>
+      <c r="AA293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -26542,6 +27423,9 @@
       <c r="Z294">
         <v>7</v>
       </c>
+      <c r="AA294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -26630,6 +27514,9 @@
       <c r="Z295">
         <v>0</v>
       </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -26718,6 +27605,9 @@
       <c r="Z296">
         <v>0</v>
       </c>
+      <c r="AA296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -26806,6 +27696,9 @@
       <c r="Z297">
         <v>1</v>
       </c>
+      <c r="AA297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -26894,6 +27787,9 @@
       <c r="Z298">
         <v>4</v>
       </c>
+      <c r="AA298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -26982,6 +27878,9 @@
       <c r="Z299">
         <v>0</v>
       </c>
+      <c r="AA299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -27070,6 +27969,9 @@
       <c r="Z300">
         <v>0</v>
       </c>
+      <c r="AA300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -27158,6 +28060,9 @@
       <c r="Z301">
         <v>17</v>
       </c>
+      <c r="AA301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -27246,6 +28151,9 @@
       <c r="Z302">
         <v>0</v>
       </c>
+      <c r="AA302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -27334,6 +28242,9 @@
       <c r="Z303">
         <v>0</v>
       </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -27422,6 +28333,9 @@
       <c r="Z304">
         <v>4</v>
       </c>
+      <c r="AA304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -27510,6 +28424,9 @@
       <c r="Z305">
         <v>12</v>
       </c>
+      <c r="AA305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -27598,6 +28515,9 @@
       <c r="Z306">
         <v>209</v>
       </c>
+      <c r="AA306">
+        <v>209</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -27686,6 +28606,9 @@
       <c r="Z307">
         <v>16</v>
       </c>
+      <c r="AA307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -27774,6 +28697,9 @@
       <c r="Z308">
         <v>5</v>
       </c>
+      <c r="AA308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -27862,6 +28788,9 @@
       <c r="Z309">
         <v>0</v>
       </c>
+      <c r="AA309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -27950,6 +28879,9 @@
       <c r="Z310">
         <v>0</v>
       </c>
+      <c r="AA310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -28038,6 +28970,9 @@
       <c r="Z311">
         <v>8</v>
       </c>
+      <c r="AA311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -28126,6 +29061,9 @@
       <c r="Z312">
         <v>5</v>
       </c>
+      <c r="AA312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -28214,6 +29152,9 @@
       <c r="Z313">
         <v>0</v>
       </c>
+      <c r="AA313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -28302,6 +29243,9 @@
       <c r="Z314">
         <v>1</v>
       </c>
+      <c r="AA314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -28390,6 +29334,9 @@
       <c r="Z315">
         <v>7</v>
       </c>
+      <c r="AA315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -28478,6 +29425,9 @@
       <c r="Z316">
         <v>3</v>
       </c>
+      <c r="AA316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -28566,6 +29516,9 @@
       <c r="Z317">
         <v>5</v>
       </c>
+      <c r="AA317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -28654,6 +29607,9 @@
       <c r="Z318">
         <v>11</v>
       </c>
+      <c r="AA318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -28742,6 +29698,9 @@
       <c r="Z319">
         <v>6</v>
       </c>
+      <c r="AA319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -28830,6 +29789,9 @@
       <c r="Z320">
         <v>0</v>
       </c>
+      <c r="AA320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -28918,6 +29880,9 @@
       <c r="Z321">
         <v>1</v>
       </c>
+      <c r="AA321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -29006,6 +29971,9 @@
       <c r="Z322">
         <v>7</v>
       </c>
+      <c r="AA322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -29094,6 +30062,9 @@
       <c r="Z323">
         <v>28</v>
       </c>
+      <c r="AA323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -29182,6 +30153,9 @@
       <c r="Z324">
         <v>19</v>
       </c>
+      <c r="AA324">
+        <v>20</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -29270,6 +30244,9 @@
       <c r="Z325">
         <v>15</v>
       </c>
+      <c r="AA325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -29358,6 +30335,9 @@
       <c r="Z326">
         <v>0</v>
       </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -29446,6 +30426,9 @@
       <c r="Z327">
         <v>0</v>
       </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -29534,6 +30517,9 @@
       <c r="Z328">
         <v>0</v>
       </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -29622,6 +30608,9 @@
       <c r="Z329">
         <v>0</v>
       </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -29710,6 +30699,9 @@
       <c r="Z330">
         <v>3</v>
       </c>
+      <c r="AA330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -29798,6 +30790,9 @@
       <c r="Z331">
         <v>1</v>
       </c>
+      <c r="AA331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -29886,6 +30881,9 @@
       <c r="Z332">
         <v>4</v>
       </c>
+      <c r="AA332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -29974,6 +30972,9 @@
       <c r="Z333">
         <v>0</v>
       </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -30062,6 +31063,9 @@
       <c r="Z334">
         <v>0</v>
       </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -30150,6 +31154,9 @@
       <c r="Z335">
         <v>7</v>
       </c>
+      <c r="AA335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -30238,6 +31245,9 @@
       <c r="Z336">
         <v>2</v>
       </c>
+      <c r="AA336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -30326,6 +31336,9 @@
       <c r="Z337">
         <v>2</v>
       </c>
+      <c r="AA337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -30414,6 +31427,9 @@
       <c r="Z338">
         <v>2</v>
       </c>
+      <c r="AA338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -30502,6 +31518,9 @@
       <c r="Z339">
         <v>10</v>
       </c>
+      <c r="AA339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -30590,6 +31609,9 @@
       <c r="Z340">
         <v>1</v>
       </c>
+      <c r="AA340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -30678,6 +31700,9 @@
       <c r="Z341">
         <v>12</v>
       </c>
+      <c r="AA341">
+        <v>13</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -30766,6 +31791,9 @@
       <c r="Z342">
         <v>0</v>
       </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -30854,6 +31882,9 @@
       <c r="Z343">
         <v>0</v>
       </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -30942,6 +31973,9 @@
       <c r="Z344">
         <v>113</v>
       </c>
+      <c r="AA344">
+        <v>115</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -31030,6 +32064,9 @@
       <c r="Z345">
         <v>4</v>
       </c>
+      <c r="AA345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -31118,6 +32155,9 @@
       <c r="Z346">
         <v>5</v>
       </c>
+      <c r="AA346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -31206,6 +32246,9 @@
       <c r="Z347">
         <v>1</v>
       </c>
+      <c r="AA347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -31294,6 +32337,9 @@
       <c r="Z348">
         <v>3</v>
       </c>
+      <c r="AA348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -31382,6 +32428,9 @@
       <c r="Z349">
         <v>14</v>
       </c>
+      <c r="AA349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -31470,6 +32519,9 @@
       <c r="Z350">
         <v>1</v>
       </c>
+      <c r="AA350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -31558,6 +32610,9 @@
       <c r="Z351">
         <v>1</v>
       </c>
+      <c r="AA351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -31646,6 +32701,9 @@
       <c r="Z352">
         <v>0</v>
       </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -31734,6 +32792,9 @@
       <c r="Z353">
         <v>0</v>
       </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -31822,6 +32883,9 @@
       <c r="Z354">
         <v>3</v>
       </c>
+      <c r="AA354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -31910,6 +32974,9 @@
       <c r="Z355">
         <v>1</v>
       </c>
+      <c r="AA355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -31998,6 +33065,9 @@
       <c r="Z356">
         <v>2</v>
       </c>
+      <c r="AA356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -32086,6 +33156,9 @@
       <c r="Z357">
         <v>0</v>
       </c>
+      <c r="AA357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -32174,6 +33247,9 @@
       <c r="Z358">
         <v>0</v>
       </c>
+      <c r="AA358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -32262,6 +33338,9 @@
       <c r="Z359">
         <v>0</v>
       </c>
+      <c r="AA359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -32350,6 +33429,9 @@
       <c r="Z360">
         <v>16</v>
       </c>
+      <c r="AA360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -32438,6 +33520,9 @@
       <c r="Z361">
         <v>2</v>
       </c>
+      <c r="AA361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -32526,6 +33611,9 @@
       <c r="Z362">
         <v>1</v>
       </c>
+      <c r="AA362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -32614,6 +33702,9 @@
       <c r="Z363">
         <v>2</v>
       </c>
+      <c r="AA363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -32702,6 +33793,9 @@
       <c r="Z364">
         <v>0</v>
       </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -32790,6 +33884,9 @@
       <c r="Z365">
         <v>0</v>
       </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -32878,6 +33975,9 @@
       <c r="Z366">
         <v>1</v>
       </c>
+      <c r="AA366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -32966,6 +34066,9 @@
       <c r="Z367">
         <v>2</v>
       </c>
+      <c r="AA367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -33054,6 +34157,9 @@
       <c r="Z368">
         <v>0</v>
       </c>
+      <c r="AA368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -33142,6 +34248,9 @@
       <c r="Z369">
         <v>1</v>
       </c>
+      <c r="AA369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -33230,6 +34339,9 @@
       <c r="Z370">
         <v>0</v>
       </c>
+      <c r="AA370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -33318,6 +34430,9 @@
       <c r="Z371">
         <v>0</v>
       </c>
+      <c r="AA371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -33406,6 +34521,9 @@
       <c r="Z372">
         <v>2</v>
       </c>
+      <c r="AA372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -33494,6 +34612,9 @@
       <c r="Z373">
         <v>2</v>
       </c>
+      <c r="AA373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -33582,6 +34703,9 @@
       <c r="Z374">
         <v>4</v>
       </c>
+      <c r="AA374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -33670,6 +34794,9 @@
       <c r="Z375">
         <v>1</v>
       </c>
+      <c r="AA375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -33758,6 +34885,9 @@
       <c r="Z376">
         <v>0</v>
       </c>
+      <c r="AA376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -33846,6 +34976,9 @@
       <c r="Z377">
         <v>0</v>
       </c>
+      <c r="AA377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -33934,6 +35067,9 @@
       <c r="Z378">
         <v>0</v>
       </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -34022,6 +35158,9 @@
       <c r="Z379">
         <v>1</v>
       </c>
+      <c r="AA379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -34110,6 +35249,9 @@
       <c r="Z380">
         <v>1</v>
       </c>
+      <c r="AA380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -34198,6 +35340,9 @@
       <c r="Z381">
         <v>0</v>
       </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -34286,6 +35431,9 @@
       <c r="Z382">
         <v>4</v>
       </c>
+      <c r="AA382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -34374,6 +35522,9 @@
       <c r="Z383">
         <v>0</v>
       </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -34461,6 +35612,9 @@
       </c>
       <c r="Z384">
         <v>2</v>
+      </c>
+      <c r="AA384">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA384"/>
+  <dimension ref="A1:AB384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +493,11 @@
           <t>2020-04-11</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -594,6 +599,9 @@
       <c r="AA2">
         <v>187</v>
       </c>
+      <c r="AB2">
+        <v>190</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -695,6 +703,9 @@
       <c r="AA3">
         <v>137</v>
       </c>
+      <c r="AB3">
+        <v>138</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -796,6 +807,9 @@
       <c r="AA4">
         <v>115</v>
       </c>
+      <c r="AB4">
+        <v>116</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -897,6 +911,9 @@
       <c r="AA5">
         <v>72</v>
       </c>
+      <c r="AB5">
+        <v>75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -998,6 +1015,9 @@
       <c r="AA6">
         <v>143</v>
       </c>
+      <c r="AB6">
+        <v>145</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1099,6 +1119,9 @@
       <c r="AA7">
         <v>101</v>
       </c>
+      <c r="AB7">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1200,6 +1223,9 @@
       <c r="AA8">
         <v>132</v>
       </c>
+      <c r="AB8">
+        <v>132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1301,6 +1327,9 @@
       <c r="AA9">
         <v>111</v>
       </c>
+      <c r="AB9">
+        <v>114</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1402,6 +1431,9 @@
       <c r="AA10">
         <v>76</v>
       </c>
+      <c r="AB10">
+        <v>77</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1503,6 +1535,9 @@
       <c r="AA11">
         <v>78</v>
       </c>
+      <c r="AB11">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1604,6 +1639,9 @@
       <c r="AA12">
         <v>124</v>
       </c>
+      <c r="AB12">
+        <v>127</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1705,6 +1743,9 @@
       <c r="AA13">
         <v>161</v>
       </c>
+      <c r="AB13">
+        <v>166</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1806,6 +1847,9 @@
       <c r="AA14">
         <v>144</v>
       </c>
+      <c r="AB14">
+        <v>145</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1907,6 +1951,9 @@
       <c r="AA15">
         <v>137</v>
       </c>
+      <c r="AB15">
+        <v>139</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2008,6 +2055,9 @@
       <c r="AA16">
         <v>108</v>
       </c>
+      <c r="AB16">
+        <v>109</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2109,6 +2159,9 @@
       <c r="AA17">
         <v>4</v>
       </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2210,6 +2263,9 @@
       <c r="AA18">
         <v>2</v>
       </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2311,6 +2367,9 @@
       <c r="AA19">
         <v>34</v>
       </c>
+      <c r="AB19">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2402,6 +2461,9 @@
       <c r="AA20">
         <v>14</v>
       </c>
+      <c r="AB20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2493,6 +2555,9 @@
       <c r="AA21">
         <v>125</v>
       </c>
+      <c r="AB21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2584,6 +2649,9 @@
       <c r="AA22">
         <v>49</v>
       </c>
+      <c r="AB22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2675,6 +2743,9 @@
       <c r="AA23">
         <v>46</v>
       </c>
+      <c r="AB23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2766,6 +2837,9 @@
       <c r="AA24">
         <v>3</v>
       </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2857,6 +2931,9 @@
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2948,6 +3025,9 @@
       <c r="AA26">
         <v>0</v>
       </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3039,6 +3119,9 @@
       <c r="AA27">
         <v>6</v>
       </c>
+      <c r="AB27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3130,6 +3213,9 @@
       <c r="AA28">
         <v>6</v>
       </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3221,6 +3307,9 @@
       <c r="AA29">
         <v>12</v>
       </c>
+      <c r="AB29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3312,6 +3401,9 @@
       <c r="AA30">
         <v>12</v>
       </c>
+      <c r="AB30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3403,6 +3495,9 @@
       <c r="AA31">
         <v>13</v>
       </c>
+      <c r="AB31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3494,6 +3589,9 @@
       <c r="AA32">
         <v>11</v>
       </c>
+      <c r="AB32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3585,6 +3683,9 @@
       <c r="AA33">
         <v>13</v>
       </c>
+      <c r="AB33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3676,6 +3777,9 @@
       <c r="AA34">
         <v>0</v>
       </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3767,6 +3871,9 @@
       <c r="AA35">
         <v>0</v>
       </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3858,6 +3965,9 @@
       <c r="AA36">
         <v>3</v>
       </c>
+      <c r="AB36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3949,6 +4059,9 @@
       <c r="AA37">
         <v>0</v>
       </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4040,6 +4153,9 @@
       <c r="AA38">
         <v>1</v>
       </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4131,6 +4247,9 @@
       <c r="AA39">
         <v>19</v>
       </c>
+      <c r="AB39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4222,6 +4341,9 @@
       <c r="AA40">
         <v>35</v>
       </c>
+      <c r="AB40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4313,6 +4435,9 @@
       <c r="AA41">
         <v>0</v>
       </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4404,6 +4529,9 @@
       <c r="AA42">
         <v>11</v>
       </c>
+      <c r="AB42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4495,6 +4623,9 @@
       <c r="AA43">
         <v>18</v>
       </c>
+      <c r="AB43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4586,6 +4717,9 @@
       <c r="AA44">
         <v>14</v>
       </c>
+      <c r="AB44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4677,6 +4811,9 @@
       <c r="AA45">
         <v>25</v>
       </c>
+      <c r="AB45">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4768,6 +4905,9 @@
       <c r="AA46">
         <v>1</v>
       </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4859,6 +4999,9 @@
       <c r="AA47">
         <v>3</v>
       </c>
+      <c r="AB47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4950,6 +5093,9 @@
       <c r="AA48">
         <v>3</v>
       </c>
+      <c r="AB48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5041,6 +5187,9 @@
       <c r="AA49">
         <v>7</v>
       </c>
+      <c r="AB49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5132,6 +5281,9 @@
       <c r="AA50">
         <v>2</v>
       </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5223,6 +5375,9 @@
       <c r="AA51">
         <v>6</v>
       </c>
+      <c r="AB51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5314,6 +5469,9 @@
       <c r="AA52">
         <v>0</v>
       </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5405,6 +5563,9 @@
       <c r="AA53">
         <v>0</v>
       </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5496,6 +5657,9 @@
       <c r="AA54">
         <v>6</v>
       </c>
+      <c r="AB54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5587,6 +5751,9 @@
       <c r="AA55">
         <v>5</v>
       </c>
+      <c r="AB55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5678,6 +5845,9 @@
       <c r="AA56">
         <v>0</v>
       </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5769,6 +5939,9 @@
       <c r="AA57">
         <v>10</v>
       </c>
+      <c r="AB57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5860,6 +6033,9 @@
       <c r="AA58">
         <v>0</v>
       </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5951,6 +6127,9 @@
       <c r="AA59">
         <v>0</v>
       </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6042,6 +6221,9 @@
       <c r="AA60">
         <v>0</v>
       </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6133,6 +6315,9 @@
       <c r="AA61">
         <v>1</v>
       </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6224,6 +6409,9 @@
       <c r="AA62">
         <v>2</v>
       </c>
+      <c r="AB62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6315,6 +6503,9 @@
       <c r="AA63">
         <v>2</v>
       </c>
+      <c r="AB63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6406,6 +6597,9 @@
       <c r="AA64">
         <v>0</v>
       </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6497,6 +6691,9 @@
       <c r="AA65">
         <v>3</v>
       </c>
+      <c r="AB65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6588,6 +6785,9 @@
       <c r="AA66">
         <v>4</v>
       </c>
+      <c r="AB66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6679,6 +6879,9 @@
       <c r="AA67">
         <v>1</v>
       </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6770,6 +6973,9 @@
       <c r="AA68">
         <v>3</v>
       </c>
+      <c r="AB68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6861,6 +7067,9 @@
       <c r="AA69">
         <v>33</v>
       </c>
+      <c r="AB69">
+        <v>33</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6952,6 +7161,9 @@
       <c r="AA70">
         <v>2</v>
       </c>
+      <c r="AB70">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7043,6 +7255,9 @@
       <c r="AA71">
         <v>0</v>
       </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7134,6 +7349,9 @@
       <c r="AA72">
         <v>2</v>
       </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7225,6 +7443,9 @@
       <c r="AA73">
         <v>5</v>
       </c>
+      <c r="AB73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7316,6 +7537,9 @@
       <c r="AA74">
         <v>3</v>
       </c>
+      <c r="AB74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7407,6 +7631,9 @@
       <c r="AA75">
         <v>0</v>
       </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7498,6 +7725,9 @@
       <c r="AA76">
         <v>0</v>
       </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7589,6 +7819,9 @@
       <c r="AA77">
         <v>2</v>
       </c>
+      <c r="AB77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7680,6 +7913,9 @@
       <c r="AA78">
         <v>3</v>
       </c>
+      <c r="AB78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7771,6 +8007,9 @@
       <c r="AA79">
         <v>1</v>
       </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7862,6 +8101,9 @@
       <c r="AA80">
         <v>1</v>
       </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7953,6 +8195,9 @@
       <c r="AA81">
         <v>0</v>
       </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8044,6 +8289,9 @@
       <c r="AA82">
         <v>5</v>
       </c>
+      <c r="AB82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8135,6 +8383,9 @@
       <c r="AA83">
         <v>0</v>
       </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8226,6 +8477,9 @@
       <c r="AA84">
         <v>0</v>
       </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8317,6 +8571,9 @@
       <c r="AA85">
         <v>4</v>
       </c>
+      <c r="AB85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8408,6 +8665,9 @@
       <c r="AA86">
         <v>0</v>
       </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8499,6 +8759,9 @@
       <c r="AA87">
         <v>0</v>
       </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8590,6 +8853,9 @@
       <c r="AA88">
         <v>0</v>
       </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8681,6 +8947,9 @@
       <c r="AA89">
         <v>5</v>
       </c>
+      <c r="AB89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8772,6 +9041,9 @@
       <c r="AA90">
         <v>0</v>
       </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8863,6 +9135,9 @@
       <c r="AA91">
         <v>0</v>
       </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8954,6 +9229,9 @@
       <c r="AA92">
         <v>0</v>
       </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9045,6 +9323,9 @@
       <c r="AA93">
         <v>1</v>
       </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9136,6 +9417,9 @@
       <c r="AA94">
         <v>0</v>
       </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9227,6 +9511,9 @@
       <c r="AA95">
         <v>1</v>
       </c>
+      <c r="AB95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9318,6 +9605,9 @@
       <c r="AA96">
         <v>0</v>
       </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9409,6 +9699,9 @@
       <c r="AA97">
         <v>0</v>
       </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9500,6 +9793,9 @@
       <c r="AA98">
         <v>0</v>
       </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9591,6 +9887,9 @@
       <c r="AA99">
         <v>0</v>
       </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9682,6 +9981,9 @@
       <c r="AA100">
         <v>4</v>
       </c>
+      <c r="AB100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9773,6 +10075,9 @@
       <c r="AA101">
         <v>4</v>
       </c>
+      <c r="AB101">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9864,6 +10169,9 @@
       <c r="AA102">
         <v>3</v>
       </c>
+      <c r="AB102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9955,6 +10263,9 @@
       <c r="AA103">
         <v>5</v>
       </c>
+      <c r="AB103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10046,6 +10357,9 @@
       <c r="AA104">
         <v>0</v>
       </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10137,6 +10451,9 @@
       <c r="AA105">
         <v>0</v>
       </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10228,6 +10545,9 @@
       <c r="AA106">
         <v>6</v>
       </c>
+      <c r="AB106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10319,6 +10639,9 @@
       <c r="AA107">
         <v>0</v>
       </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10410,6 +10733,9 @@
       <c r="AA108">
         <v>0</v>
       </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10501,6 +10827,9 @@
       <c r="AA109">
         <v>0</v>
       </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10592,6 +10921,9 @@
       <c r="AA110">
         <v>26</v>
       </c>
+      <c r="AB110">
+        <v>27</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10683,6 +11015,9 @@
       <c r="AA111">
         <v>83</v>
       </c>
+      <c r="AB111">
+        <v>84</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10774,6 +11109,9 @@
       <c r="AA112">
         <v>46</v>
       </c>
+      <c r="AB112">
+        <v>51</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10865,6 +11203,9 @@
       <c r="AA113">
         <v>72</v>
       </c>
+      <c r="AB113">
+        <v>72</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10956,6 +11297,9 @@
       <c r="AA114">
         <v>146</v>
       </c>
+      <c r="AB114">
+        <v>148</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11047,6 +11391,9 @@
       <c r="AA115">
         <v>20</v>
       </c>
+      <c r="AB115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11138,6 +11485,9 @@
       <c r="AA116">
         <v>9</v>
       </c>
+      <c r="AB116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11229,6 +11579,9 @@
       <c r="AA117">
         <v>2</v>
       </c>
+      <c r="AB117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11320,6 +11673,9 @@
       <c r="AA118">
         <v>2</v>
       </c>
+      <c r="AB118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11411,6 +11767,9 @@
       <c r="AA119">
         <v>1</v>
       </c>
+      <c r="AB119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11502,6 +11861,9 @@
       <c r="AA120">
         <v>45</v>
       </c>
+      <c r="AB120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11593,6 +11955,9 @@
       <c r="AA121">
         <v>1</v>
       </c>
+      <c r="AB121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11684,6 +12049,9 @@
       <c r="AA122">
         <v>1</v>
       </c>
+      <c r="AB122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11775,6 +12143,9 @@
       <c r="AA123">
         <v>2</v>
       </c>
+      <c r="AB123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11866,6 +12237,9 @@
       <c r="AA124">
         <v>6</v>
       </c>
+      <c r="AB124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11957,6 +12331,9 @@
       <c r="AA125">
         <v>22</v>
       </c>
+      <c r="AB125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12048,6 +12425,9 @@
       <c r="AA126">
         <v>89</v>
       </c>
+      <c r="AB126">
+        <v>89</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12139,6 +12519,9 @@
       <c r="AA127">
         <v>17</v>
       </c>
+      <c r="AB127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12230,6 +12613,9 @@
       <c r="AA128">
         <v>18</v>
       </c>
+      <c r="AB128">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12321,6 +12707,9 @@
       <c r="AA129">
         <v>44</v>
       </c>
+      <c r="AB129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12412,6 +12801,9 @@
       <c r="AA130">
         <v>355</v>
       </c>
+      <c r="AB130">
+        <v>357</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12503,6 +12895,9 @@
       <c r="AA131">
         <v>146</v>
       </c>
+      <c r="AB131">
+        <v>150</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12594,6 +12989,9 @@
       <c r="AA132">
         <v>7</v>
       </c>
+      <c r="AB132">
+        <v>7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12685,6 +13083,9 @@
       <c r="AA133">
         <v>19</v>
       </c>
+      <c r="AB133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12776,6 +13177,9 @@
       <c r="AA134">
         <v>41</v>
       </c>
+      <c r="AB134">
+        <v>43</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12867,6 +13271,9 @@
       <c r="AA135">
         <v>75</v>
       </c>
+      <c r="AB135">
+        <v>75</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12958,6 +13365,9 @@
       <c r="AA136">
         <v>131</v>
       </c>
+      <c r="AB136">
+        <v>134</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13049,6 +13459,9 @@
       <c r="AA137">
         <v>45</v>
       </c>
+      <c r="AB137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13140,6 +13553,9 @@
       <c r="AA138">
         <v>8</v>
       </c>
+      <c r="AB138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13231,6 +13647,9 @@
       <c r="AA139">
         <v>49</v>
       </c>
+      <c r="AB139">
+        <v>51</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13322,6 +13741,9 @@
       <c r="AA140">
         <v>13</v>
       </c>
+      <c r="AB140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13413,6 +13835,9 @@
       <c r="AA141">
         <v>29</v>
       </c>
+      <c r="AB141">
+        <v>29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13504,6 +13929,9 @@
       <c r="AA142">
         <v>17</v>
       </c>
+      <c r="AB142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13595,6 +14023,9 @@
       <c r="AA143">
         <v>2</v>
       </c>
+      <c r="AB143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13686,6 +14117,9 @@
       <c r="AA144">
         <v>10</v>
       </c>
+      <c r="AB144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13777,6 +14211,9 @@
       <c r="AA145">
         <v>1</v>
       </c>
+      <c r="AB145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13868,6 +14305,9 @@
       <c r="AA146">
         <v>7</v>
       </c>
+      <c r="AB146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13959,6 +14399,9 @@
       <c r="AA147">
         <v>10</v>
       </c>
+      <c r="AB147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14050,6 +14493,9 @@
       <c r="AA148">
         <v>8</v>
       </c>
+      <c r="AB148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14141,6 +14587,9 @@
       <c r="AA149">
         <v>13</v>
       </c>
+      <c r="AB149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14232,6 +14681,9 @@
       <c r="AA150">
         <v>44</v>
       </c>
+      <c r="AB150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14323,6 +14775,9 @@
       <c r="AA151">
         <v>0</v>
       </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14414,6 +14869,9 @@
       <c r="AA152">
         <v>0</v>
       </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14505,6 +14963,9 @@
       <c r="AA153">
         <v>10</v>
       </c>
+      <c r="AB153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -14596,6 +15057,9 @@
       <c r="AA154">
         <v>4</v>
       </c>
+      <c r="AB154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -14687,6 +15151,9 @@
       <c r="AA155">
         <v>31</v>
       </c>
+      <c r="AB155">
+        <v>31</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -14778,6 +15245,9 @@
       <c r="AA156">
         <v>2</v>
       </c>
+      <c r="AB156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -14869,6 +15339,9 @@
       <c r="AA157">
         <v>1</v>
       </c>
+      <c r="AB157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -14960,6 +15433,9 @@
       <c r="AA158">
         <v>2</v>
       </c>
+      <c r="AB158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15051,6 +15527,9 @@
       <c r="AA159">
         <v>5</v>
       </c>
+      <c r="AB159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15142,6 +15621,9 @@
       <c r="AA160">
         <v>9</v>
       </c>
+      <c r="AB160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15233,6 +15715,9 @@
       <c r="AA161">
         <v>1</v>
       </c>
+      <c r="AB161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15324,6 +15809,9 @@
       <c r="AA162">
         <v>77</v>
       </c>
+      <c r="AB162">
+        <v>78</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -15415,6 +15903,9 @@
       <c r="AA163">
         <v>31</v>
       </c>
+      <c r="AB163">
+        <v>31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -15506,6 +15997,9 @@
       <c r="AA164">
         <v>15</v>
       </c>
+      <c r="AB164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -15597,6 +16091,9 @@
       <c r="AA165">
         <v>56</v>
       </c>
+      <c r="AB165">
+        <v>57</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -15688,6 +16185,9 @@
       <c r="AA166">
         <v>11</v>
       </c>
+      <c r="AB166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -15779,6 +16279,9 @@
       <c r="AA167">
         <v>32</v>
       </c>
+      <c r="AB167">
+        <v>32</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -15870,6 +16373,9 @@
       <c r="AA168">
         <v>0</v>
       </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -15961,6 +16467,9 @@
       <c r="AA169">
         <v>17</v>
       </c>
+      <c r="AB169">
+        <v>17</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16052,6 +16561,9 @@
       <c r="AA170">
         <v>4</v>
       </c>
+      <c r="AB170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16143,6 +16655,9 @@
       <c r="AA171">
         <v>5</v>
       </c>
+      <c r="AB171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16234,6 +16749,9 @@
       <c r="AA172">
         <v>3</v>
       </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16325,6 +16843,9 @@
       <c r="AA173">
         <v>2</v>
       </c>
+      <c r="AB173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16416,6 +16937,9 @@
       <c r="AA174">
         <v>14</v>
       </c>
+      <c r="AB174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -16507,6 +17031,9 @@
       <c r="AA175">
         <v>2</v>
       </c>
+      <c r="AB175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -16598,6 +17125,9 @@
       <c r="AA176">
         <v>4</v>
       </c>
+      <c r="AB176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -16689,6 +17219,9 @@
       <c r="AA177">
         <v>0</v>
       </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -16780,6 +17313,9 @@
       <c r="AA178">
         <v>0</v>
       </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -16871,6 +17407,9 @@
       <c r="AA179">
         <v>2</v>
       </c>
+      <c r="AB179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -16962,6 +17501,9 @@
       <c r="AA180">
         <v>0</v>
       </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17053,6 +17595,9 @@
       <c r="AA181">
         <v>0</v>
       </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17144,6 +17689,9 @@
       <c r="AA182">
         <v>1</v>
       </c>
+      <c r="AB182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17235,6 +17783,9 @@
       <c r="AA183">
         <v>0</v>
       </c>
+      <c r="AB183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17326,6 +17877,9 @@
       <c r="AA184">
         <v>1</v>
       </c>
+      <c r="AB184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17417,6 +17971,9 @@
       <c r="AA185">
         <v>5</v>
       </c>
+      <c r="AB185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -17508,6 +18065,9 @@
       <c r="AA186">
         <v>2</v>
       </c>
+      <c r="AB186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17599,6 +18159,9 @@
       <c r="AA187">
         <v>1</v>
       </c>
+      <c r="AB187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -17690,6 +18253,9 @@
       <c r="AA188">
         <v>3</v>
       </c>
+      <c r="AB188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -17781,6 +18347,9 @@
       <c r="AA189">
         <v>2</v>
       </c>
+      <c r="AB189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -17872,6 +18441,9 @@
       <c r="AA190">
         <v>13</v>
       </c>
+      <c r="AB190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -17963,6 +18535,9 @@
       <c r="AA191">
         <v>36</v>
       </c>
+      <c r="AB191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18054,6 +18629,9 @@
       <c r="AA192">
         <v>1</v>
       </c>
+      <c r="AB192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18145,6 +18723,9 @@
       <c r="AA193">
         <v>8</v>
       </c>
+      <c r="AB193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18236,6 +18817,9 @@
       <c r="AA194">
         <v>2</v>
       </c>
+      <c r="AB194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18327,6 +18911,9 @@
       <c r="AA195">
         <v>5</v>
       </c>
+      <c r="AB195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -18418,6 +19005,9 @@
       <c r="AA196">
         <v>4</v>
       </c>
+      <c r="AB196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -18509,6 +19099,9 @@
       <c r="AA197">
         <v>10</v>
       </c>
+      <c r="AB197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18600,6 +19193,9 @@
       <c r="AA198">
         <v>9</v>
       </c>
+      <c r="AB198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -18691,6 +19287,9 @@
       <c r="AA199">
         <v>2</v>
       </c>
+      <c r="AB199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -18782,6 +19381,9 @@
       <c r="AA200">
         <v>1</v>
       </c>
+      <c r="AB200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -18873,6 +19475,9 @@
       <c r="AA201">
         <v>0</v>
       </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -18964,6 +19569,9 @@
       <c r="AA202">
         <v>1</v>
       </c>
+      <c r="AB202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19055,6 +19663,9 @@
       <c r="AA203">
         <v>9</v>
       </c>
+      <c r="AB203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19146,6 +19757,9 @@
       <c r="AA204">
         <v>0</v>
       </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -19237,6 +19851,9 @@
       <c r="AA205">
         <v>0</v>
       </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -19328,6 +19945,9 @@
       <c r="AA206">
         <v>0</v>
       </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -19419,6 +20039,9 @@
       <c r="AA207">
         <v>21</v>
       </c>
+      <c r="AB207">
+        <v>23</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -19510,6 +20133,9 @@
       <c r="AA208">
         <v>17</v>
       </c>
+      <c r="AB208">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -19601,6 +20227,9 @@
       <c r="AA209">
         <v>51</v>
       </c>
+      <c r="AB209">
+        <v>51</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -19692,6 +20321,9 @@
       <c r="AA210">
         <v>37</v>
       </c>
+      <c r="AB210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -19783,6 +20415,9 @@
       <c r="AA211">
         <v>27</v>
       </c>
+      <c r="AB211">
+        <v>28</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -19874,6 +20509,9 @@
       <c r="AA212">
         <v>8</v>
       </c>
+      <c r="AB212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -19965,6 +20603,9 @@
       <c r="AA213">
         <v>38</v>
       </c>
+      <c r="AB213">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20056,6 +20697,9 @@
       <c r="AA214">
         <v>4</v>
       </c>
+      <c r="AB214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -20147,6 +20791,9 @@
       <c r="AA215">
         <v>21</v>
       </c>
+      <c r="AB215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -20238,6 +20885,9 @@
       <c r="AA216">
         <v>2</v>
       </c>
+      <c r="AB216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -20329,6 +20979,9 @@
       <c r="AA217">
         <v>5</v>
       </c>
+      <c r="AB217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -20420,6 +21073,9 @@
       <c r="AA218">
         <v>1</v>
       </c>
+      <c r="AB218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -20511,6 +21167,9 @@
       <c r="AA219">
         <v>1</v>
       </c>
+      <c r="AB219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -20602,6 +21261,9 @@
       <c r="AA220">
         <v>2</v>
       </c>
+      <c r="AB220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -20693,6 +21355,9 @@
       <c r="AA221">
         <v>0</v>
       </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -20784,6 +21449,9 @@
       <c r="AA222">
         <v>1</v>
       </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -20875,6 +21543,9 @@
       <c r="AA223">
         <v>0</v>
       </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -20966,6 +21637,9 @@
       <c r="AA224">
         <v>0</v>
       </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -21057,6 +21731,9 @@
       <c r="AA225">
         <v>0</v>
       </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -21148,6 +21825,9 @@
       <c r="AA226">
         <v>0</v>
       </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -21239,6 +21919,9 @@
       <c r="AA227">
         <v>0</v>
       </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -21330,6 +22013,9 @@
       <c r="AA228">
         <v>0</v>
       </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -21421,6 +22107,9 @@
       <c r="AA229">
         <v>2</v>
       </c>
+      <c r="AB229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -21512,6 +22201,9 @@
       <c r="AA230">
         <v>0</v>
       </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -21603,6 +22295,9 @@
       <c r="AA231">
         <v>1</v>
       </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -21694,6 +22389,9 @@
       <c r="AA232">
         <v>25</v>
       </c>
+      <c r="AB232">
+        <v>25</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -21785,6 +22483,9 @@
       <c r="AA233">
         <v>174</v>
       </c>
+      <c r="AB233">
+        <v>177</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -21876,6 +22577,9 @@
       <c r="AA234">
         <v>9</v>
       </c>
+      <c r="AB234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -21967,6 +22671,9 @@
       <c r="AA235">
         <v>11</v>
       </c>
+      <c r="AB235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -22058,6 +22765,9 @@
       <c r="AA236">
         <v>0</v>
       </c>
+      <c r="AB236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -22149,6 +22859,9 @@
       <c r="AA237">
         <v>2</v>
       </c>
+      <c r="AB237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -22240,6 +22953,9 @@
       <c r="AA238">
         <v>0</v>
       </c>
+      <c r="AB238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -22331,6 +23047,9 @@
       <c r="AA239">
         <v>0</v>
       </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -22422,6 +23141,9 @@
       <c r="AA240">
         <v>2</v>
       </c>
+      <c r="AB240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -22513,6 +23235,9 @@
       <c r="AA241">
         <v>7</v>
       </c>
+      <c r="AB241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -22604,6 +23329,9 @@
       <c r="AA242">
         <v>3</v>
       </c>
+      <c r="AB242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -22695,6 +23423,9 @@
       <c r="AA243">
         <v>1</v>
       </c>
+      <c r="AB243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -22786,6 +23517,9 @@
       <c r="AA244">
         <v>1</v>
       </c>
+      <c r="AB244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -22877,6 +23611,9 @@
       <c r="AA245">
         <v>2</v>
       </c>
+      <c r="AB245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -22968,6 +23705,9 @@
       <c r="AA246">
         <v>2</v>
       </c>
+      <c r="AB246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -23059,6 +23799,9 @@
       <c r="AA247">
         <v>0</v>
       </c>
+      <c r="AB247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -23150,6 +23893,9 @@
       <c r="AA248">
         <v>3</v>
       </c>
+      <c r="AB248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -23241,6 +23987,9 @@
       <c r="AA249">
         <v>8</v>
       </c>
+      <c r="AB249">
+        <v>8</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -23332,6 +24081,9 @@
       <c r="AA250">
         <v>0</v>
       </c>
+      <c r="AB250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -23423,6 +24175,9 @@
       <c r="AA251">
         <v>4</v>
       </c>
+      <c r="AB251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -23514,6 +24269,9 @@
       <c r="AA252">
         <v>1</v>
       </c>
+      <c r="AB252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -23605,6 +24363,9 @@
       <c r="AA253">
         <v>1</v>
       </c>
+      <c r="AB253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -23696,6 +24457,9 @@
       <c r="AA254">
         <v>1</v>
       </c>
+      <c r="AB254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -23797,6 +24561,9 @@
       <c r="AA255">
         <v>12</v>
       </c>
+      <c r="AB255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -23898,6 +24665,9 @@
       <c r="AA256">
         <v>62</v>
       </c>
+      <c r="AB256">
+        <v>64</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -23999,6 +24769,9 @@
       <c r="AA257">
         <v>48</v>
       </c>
+      <c r="AB257">
+        <v>48</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -24100,6 +24873,9 @@
       <c r="AA258">
         <v>49</v>
       </c>
+      <c r="AB258">
+        <v>50</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -24201,6 +24977,9 @@
       <c r="AA259">
         <v>49</v>
       </c>
+      <c r="AB259">
+        <v>50</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -24302,6 +25081,9 @@
       <c r="AA260">
         <v>33</v>
       </c>
+      <c r="AB260">
+        <v>34</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -24403,6 +25185,9 @@
       <c r="AA261">
         <v>75</v>
       </c>
+      <c r="AB261">
+        <v>76</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -24504,6 +25289,9 @@
       <c r="AA262">
         <v>41</v>
       </c>
+      <c r="AB262">
+        <v>43</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -24605,6 +25393,9 @@
       <c r="AA263">
         <v>46</v>
       </c>
+      <c r="AB263">
+        <v>46</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -24696,6 +25487,9 @@
       <c r="AA264">
         <v>8</v>
       </c>
+      <c r="AB264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -24787,6 +25581,9 @@
       <c r="AA265">
         <v>4</v>
       </c>
+      <c r="AB265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -24878,6 +25675,9 @@
       <c r="AA266">
         <v>3</v>
       </c>
+      <c r="AB266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -24969,6 +25769,9 @@
       <c r="AA267">
         <v>4</v>
       </c>
+      <c r="AB267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -25060,6 +25863,9 @@
       <c r="AA268">
         <v>6</v>
       </c>
+      <c r="AB268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -25151,6 +25957,9 @@
       <c r="AA269">
         <v>7</v>
       </c>
+      <c r="AB269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -25242,6 +26051,9 @@
       <c r="AA270">
         <v>0</v>
       </c>
+      <c r="AB270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -25333,6 +26145,9 @@
       <c r="AA271">
         <v>4</v>
       </c>
+      <c r="AB271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -25424,6 +26239,9 @@
       <c r="AA272">
         <v>0</v>
       </c>
+      <c r="AB272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -25515,6 +26333,9 @@
       <c r="AA273">
         <v>0</v>
       </c>
+      <c r="AB273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -25606,6 +26427,9 @@
       <c r="AA274">
         <v>2</v>
       </c>
+      <c r="AB274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -25697,6 +26521,9 @@
       <c r="AA275">
         <v>24</v>
       </c>
+      <c r="AB275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -25788,6 +26615,9 @@
       <c r="AA276">
         <v>9</v>
       </c>
+      <c r="AB276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -25879,6 +26709,9 @@
       <c r="AA277">
         <v>0</v>
       </c>
+      <c r="AB277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -25970,6 +26803,9 @@
       <c r="AA278">
         <v>16</v>
       </c>
+      <c r="AB278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -26061,6 +26897,9 @@
       <c r="AA279">
         <v>4</v>
       </c>
+      <c r="AB279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -26152,6 +26991,9 @@
       <c r="AA280">
         <v>41</v>
       </c>
+      <c r="AB280">
+        <v>43</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -26243,6 +27085,9 @@
       <c r="AA281">
         <v>29</v>
       </c>
+      <c r="AB281">
+        <v>30</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -26334,6 +27179,9 @@
       <c r="AA282">
         <v>1</v>
       </c>
+      <c r="AB282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -26425,6 +27273,9 @@
       <c r="AA283">
         <v>0</v>
       </c>
+      <c r="AB283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -26516,6 +27367,9 @@
       <c r="AA284">
         <v>2</v>
       </c>
+      <c r="AB284">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -26607,6 +27461,9 @@
       <c r="AA285">
         <v>18</v>
       </c>
+      <c r="AB285">
+        <v>19</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -26698,6 +27555,9 @@
       <c r="AA286">
         <v>0</v>
       </c>
+      <c r="AB286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -26789,6 +27649,9 @@
       <c r="AA287">
         <v>0</v>
       </c>
+      <c r="AB287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -26880,6 +27743,9 @@
       <c r="AA288">
         <v>0</v>
       </c>
+      <c r="AB288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -26971,6 +27837,9 @@
       <c r="AA289">
         <v>0</v>
       </c>
+      <c r="AB289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -27062,6 +27931,9 @@
       <c r="AA290">
         <v>3</v>
       </c>
+      <c r="AB290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -27153,6 +28025,9 @@
       <c r="AA291">
         <v>0</v>
       </c>
+      <c r="AB291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -27244,6 +28119,9 @@
       <c r="AA292">
         <v>3</v>
       </c>
+      <c r="AB292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -27335,6 +28213,9 @@
       <c r="AA293">
         <v>0</v>
       </c>
+      <c r="AB293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -27426,6 +28307,9 @@
       <c r="AA294">
         <v>7</v>
       </c>
+      <c r="AB294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -27517,6 +28401,9 @@
       <c r="AA295">
         <v>0</v>
       </c>
+      <c r="AB295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -27608,6 +28495,9 @@
       <c r="AA296">
         <v>0</v>
       </c>
+      <c r="AB296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -27699,6 +28589,9 @@
       <c r="AA297">
         <v>1</v>
       </c>
+      <c r="AB297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -27790,6 +28683,9 @@
       <c r="AA298">
         <v>4</v>
       </c>
+      <c r="AB298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -27881,6 +28777,9 @@
       <c r="AA299">
         <v>0</v>
       </c>
+      <c r="AB299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -27972,6 +28871,9 @@
       <c r="AA300">
         <v>0</v>
       </c>
+      <c r="AB300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -28063,6 +28965,9 @@
       <c r="AA301">
         <v>17</v>
       </c>
+      <c r="AB301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -28154,6 +29059,9 @@
       <c r="AA302">
         <v>0</v>
       </c>
+      <c r="AB302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -28245,6 +29153,9 @@
       <c r="AA303">
         <v>0</v>
       </c>
+      <c r="AB303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -28336,6 +29247,9 @@
       <c r="AA304">
         <v>4</v>
       </c>
+      <c r="AB304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -28427,6 +29341,9 @@
       <c r="AA305">
         <v>12</v>
       </c>
+      <c r="AB305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -28518,6 +29435,9 @@
       <c r="AA306">
         <v>209</v>
       </c>
+      <c r="AB306">
+        <v>212</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -28609,6 +29529,9 @@
       <c r="AA307">
         <v>16</v>
       </c>
+      <c r="AB307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -28700,6 +29623,9 @@
       <c r="AA308">
         <v>5</v>
       </c>
+      <c r="AB308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -28791,6 +29717,9 @@
       <c r="AA309">
         <v>0</v>
       </c>
+      <c r="AB309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -28882,6 +29811,9 @@
       <c r="AA310">
         <v>0</v>
       </c>
+      <c r="AB310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -28973,6 +29905,9 @@
       <c r="AA311">
         <v>8</v>
       </c>
+      <c r="AB311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -29064,6 +29999,9 @@
       <c r="AA312">
         <v>5</v>
       </c>
+      <c r="AB312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -29155,6 +30093,9 @@
       <c r="AA313">
         <v>0</v>
       </c>
+      <c r="AB313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -29246,6 +30187,9 @@
       <c r="AA314">
         <v>1</v>
       </c>
+      <c r="AB314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -29337,6 +30281,9 @@
       <c r="AA315">
         <v>7</v>
       </c>
+      <c r="AB315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -29428,6 +30375,9 @@
       <c r="AA316">
         <v>3</v>
       </c>
+      <c r="AB316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -29519,6 +30469,9 @@
       <c r="AA317">
         <v>5</v>
       </c>
+      <c r="AB317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -29610,6 +30563,9 @@
       <c r="AA318">
         <v>11</v>
       </c>
+      <c r="AB318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -29701,6 +30657,9 @@
       <c r="AA319">
         <v>6</v>
       </c>
+      <c r="AB319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -29792,6 +30751,9 @@
       <c r="AA320">
         <v>0</v>
       </c>
+      <c r="AB320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -29883,6 +30845,9 @@
       <c r="AA321">
         <v>1</v>
       </c>
+      <c r="AB321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -29974,6 +30939,9 @@
       <c r="AA322">
         <v>7</v>
       </c>
+      <c r="AB322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -30065,6 +31033,9 @@
       <c r="AA323">
         <v>28</v>
       </c>
+      <c r="AB323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -30156,6 +31127,9 @@
       <c r="AA324">
         <v>20</v>
       </c>
+      <c r="AB324">
+        <v>20</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -30247,6 +31221,9 @@
       <c r="AA325">
         <v>15</v>
       </c>
+      <c r="AB325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -30338,6 +31315,9 @@
       <c r="AA326">
         <v>0</v>
       </c>
+      <c r="AB326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -30429,6 +31409,9 @@
       <c r="AA327">
         <v>0</v>
       </c>
+      <c r="AB327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -30520,6 +31503,9 @@
       <c r="AA328">
         <v>0</v>
       </c>
+      <c r="AB328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -30611,6 +31597,9 @@
       <c r="AA329">
         <v>0</v>
       </c>
+      <c r="AB329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -30702,6 +31691,9 @@
       <c r="AA330">
         <v>3</v>
       </c>
+      <c r="AB330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -30793,6 +31785,9 @@
       <c r="AA331">
         <v>1</v>
       </c>
+      <c r="AB331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -30884,6 +31879,9 @@
       <c r="AA332">
         <v>4</v>
       </c>
+      <c r="AB332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -30975,6 +31973,9 @@
       <c r="AA333">
         <v>0</v>
       </c>
+      <c r="AB333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -31066,6 +32067,9 @@
       <c r="AA334">
         <v>0</v>
       </c>
+      <c r="AB334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -31157,6 +32161,9 @@
       <c r="AA335">
         <v>7</v>
       </c>
+      <c r="AB335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -31248,6 +32255,9 @@
       <c r="AA336">
         <v>2</v>
       </c>
+      <c r="AB336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -31339,6 +32349,9 @@
       <c r="AA337">
         <v>2</v>
       </c>
+      <c r="AB337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -31430,6 +32443,9 @@
       <c r="AA338">
         <v>2</v>
       </c>
+      <c r="AB338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -31521,6 +32537,9 @@
       <c r="AA339">
         <v>10</v>
       </c>
+      <c r="AB339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -31612,6 +32631,9 @@
       <c r="AA340">
         <v>1</v>
       </c>
+      <c r="AB340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -31703,6 +32725,9 @@
       <c r="AA341">
         <v>13</v>
       </c>
+      <c r="AB341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -31794,6 +32819,9 @@
       <c r="AA342">
         <v>0</v>
       </c>
+      <c r="AB342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -31885,6 +32913,9 @@
       <c r="AA343">
         <v>0</v>
       </c>
+      <c r="AB343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -31976,6 +33007,9 @@
       <c r="AA344">
         <v>115</v>
       </c>
+      <c r="AB344">
+        <v>115</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -32067,6 +33101,9 @@
       <c r="AA345">
         <v>4</v>
       </c>
+      <c r="AB345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -32158,6 +33195,9 @@
       <c r="AA346">
         <v>5</v>
       </c>
+      <c r="AB346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -32249,6 +33289,9 @@
       <c r="AA347">
         <v>1</v>
       </c>
+      <c r="AB347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -32340,6 +33383,9 @@
       <c r="AA348">
         <v>3</v>
       </c>
+      <c r="AB348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -32431,6 +33477,9 @@
       <c r="AA349">
         <v>14</v>
       </c>
+      <c r="AB349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -32522,6 +33571,9 @@
       <c r="AA350">
         <v>1</v>
       </c>
+      <c r="AB350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -32613,6 +33665,9 @@
       <c r="AA351">
         <v>1</v>
       </c>
+      <c r="AB351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -32704,6 +33759,9 @@
       <c r="AA352">
         <v>0</v>
       </c>
+      <c r="AB352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -32795,6 +33853,9 @@
       <c r="AA353">
         <v>0</v>
       </c>
+      <c r="AB353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -32886,6 +33947,9 @@
       <c r="AA354">
         <v>3</v>
       </c>
+      <c r="AB354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -32977,6 +34041,9 @@
       <c r="AA355">
         <v>1</v>
       </c>
+      <c r="AB355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -33068,6 +34135,9 @@
       <c r="AA356">
         <v>2</v>
       </c>
+      <c r="AB356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -33159,6 +34229,9 @@
       <c r="AA357">
         <v>0</v>
       </c>
+      <c r="AB357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -33250,6 +34323,9 @@
       <c r="AA358">
         <v>0</v>
       </c>
+      <c r="AB358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -33341,6 +34417,9 @@
       <c r="AA359">
         <v>0</v>
       </c>
+      <c r="AB359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -33432,6 +34511,9 @@
       <c r="AA360">
         <v>16</v>
       </c>
+      <c r="AB360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -33523,6 +34605,9 @@
       <c r="AA361">
         <v>2</v>
       </c>
+      <c r="AB361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -33614,6 +34699,9 @@
       <c r="AA362">
         <v>1</v>
       </c>
+      <c r="AB362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -33705,6 +34793,9 @@
       <c r="AA363">
         <v>2</v>
       </c>
+      <c r="AB363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -33796,6 +34887,9 @@
       <c r="AA364">
         <v>0</v>
       </c>
+      <c r="AB364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -33887,6 +34981,9 @@
       <c r="AA365">
         <v>0</v>
       </c>
+      <c r="AB365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -33978,6 +35075,9 @@
       <c r="AA366">
         <v>1</v>
       </c>
+      <c r="AB366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -34069,6 +35169,9 @@
       <c r="AA367">
         <v>2</v>
       </c>
+      <c r="AB367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -34160,6 +35263,9 @@
       <c r="AA368">
         <v>0</v>
       </c>
+      <c r="AB368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -34251,6 +35357,9 @@
       <c r="AA369">
         <v>1</v>
       </c>
+      <c r="AB369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -34342,6 +35451,9 @@
       <c r="AA370">
         <v>0</v>
       </c>
+      <c r="AB370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -34433,6 +35545,9 @@
       <c r="AA371">
         <v>0</v>
       </c>
+      <c r="AB371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -34524,6 +35639,9 @@
       <c r="AA372">
         <v>2</v>
       </c>
+      <c r="AB372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -34615,6 +35733,9 @@
       <c r="AA373">
         <v>2</v>
       </c>
+      <c r="AB373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -34706,6 +35827,9 @@
       <c r="AA374">
         <v>4</v>
       </c>
+      <c r="AB374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -34797,6 +35921,9 @@
       <c r="AA375">
         <v>1</v>
       </c>
+      <c r="AB375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -34888,6 +36015,9 @@
       <c r="AA376">
         <v>0</v>
       </c>
+      <c r="AB376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -34979,6 +36109,9 @@
       <c r="AA377">
         <v>0</v>
       </c>
+      <c r="AB377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -35070,6 +36203,9 @@
       <c r="AA378">
         <v>0</v>
       </c>
+      <c r="AB378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -35161,6 +36297,9 @@
       <c r="AA379">
         <v>1</v>
       </c>
+      <c r="AB379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -35252,6 +36391,9 @@
       <c r="AA380">
         <v>1</v>
       </c>
+      <c r="AB380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -35343,6 +36485,9 @@
       <c r="AA381">
         <v>0</v>
       </c>
+      <c r="AB381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -35434,6 +36579,9 @@
       <c r="AA382">
         <v>4</v>
       </c>
+      <c r="AB382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -35525,6 +36673,9 @@
       <c r="AA383">
         <v>0</v>
       </c>
+      <c r="AB383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -35615,6 +36766,9 @@
       </c>
       <c r="AA384">
         <v>3</v>
+      </c>
+      <c r="AB384">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB384"/>
+  <dimension ref="A1:AC384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,6 +498,11 @@
           <t>2020-04-12</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -602,6 +607,9 @@
       <c r="AB2">
         <v>190</v>
       </c>
+      <c r="AC2">
+        <v>194</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -706,6 +714,9 @@
       <c r="AB3">
         <v>138</v>
       </c>
+      <c r="AC3">
+        <v>140</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -810,6 +821,9 @@
       <c r="AB4">
         <v>116</v>
       </c>
+      <c r="AC4">
+        <v>117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -914,6 +928,9 @@
       <c r="AB5">
         <v>75</v>
       </c>
+      <c r="AC5">
+        <v>75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1018,6 +1035,9 @@
       <c r="AB6">
         <v>145</v>
       </c>
+      <c r="AC6">
+        <v>146</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1122,6 +1142,9 @@
       <c r="AB7">
         <v>102</v>
       </c>
+      <c r="AC7">
+        <v>103</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1226,6 +1249,9 @@
       <c r="AB8">
         <v>132</v>
       </c>
+      <c r="AC8">
+        <v>132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1330,6 +1356,9 @@
       <c r="AB9">
         <v>114</v>
       </c>
+      <c r="AC9">
+        <v>115</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1434,6 +1463,9 @@
       <c r="AB10">
         <v>77</v>
       </c>
+      <c r="AC10">
+        <v>78</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1538,6 +1570,9 @@
       <c r="AB11">
         <v>78</v>
       </c>
+      <c r="AC11">
+        <v>79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1642,6 +1677,9 @@
       <c r="AB12">
         <v>127</v>
       </c>
+      <c r="AC12">
+        <v>132</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1746,6 +1784,9 @@
       <c r="AB13">
         <v>166</v>
       </c>
+      <c r="AC13">
+        <v>176</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1850,6 +1891,9 @@
       <c r="AB14">
         <v>145</v>
       </c>
+      <c r="AC14">
+        <v>148</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1954,6 +1998,9 @@
       <c r="AB15">
         <v>139</v>
       </c>
+      <c r="AC15">
+        <v>139</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2058,6 +2105,9 @@
       <c r="AB16">
         <v>109</v>
       </c>
+      <c r="AC16">
+        <v>112</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2162,6 +2212,9 @@
       <c r="AB17">
         <v>4</v>
       </c>
+      <c r="AC17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2266,6 +2319,9 @@
       <c r="AB18">
         <v>2</v>
       </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2370,6 +2426,9 @@
       <c r="AB19">
         <v>34</v>
       </c>
+      <c r="AC19">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2464,6 +2523,9 @@
       <c r="AB20">
         <v>14</v>
       </c>
+      <c r="AC20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2558,6 +2620,9 @@
       <c r="AB21">
         <v>125</v>
       </c>
+      <c r="AC21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2652,6 +2717,9 @@
       <c r="AB22">
         <v>49</v>
       </c>
+      <c r="AC22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2746,6 +2814,9 @@
       <c r="AB23">
         <v>46</v>
       </c>
+      <c r="AC23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2840,6 +2911,9 @@
       <c r="AB24">
         <v>3</v>
       </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2934,6 +3008,9 @@
       <c r="AB25">
         <v>0</v>
       </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3028,6 +3105,9 @@
       <c r="AB26">
         <v>0</v>
       </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3122,6 +3202,9 @@
       <c r="AB27">
         <v>6</v>
       </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3216,6 +3299,9 @@
       <c r="AB28">
         <v>6</v>
       </c>
+      <c r="AC28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3310,6 +3396,9 @@
       <c r="AB29">
         <v>12</v>
       </c>
+      <c r="AC29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3404,6 +3493,9 @@
       <c r="AB30">
         <v>12</v>
       </c>
+      <c r="AC30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3498,6 +3590,9 @@
       <c r="AB31">
         <v>13</v>
       </c>
+      <c r="AC31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3592,6 +3687,9 @@
       <c r="AB32">
         <v>11</v>
       </c>
+      <c r="AC32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3686,6 +3784,9 @@
       <c r="AB33">
         <v>13</v>
       </c>
+      <c r="AC33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3780,6 +3881,9 @@
       <c r="AB34">
         <v>0</v>
       </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3874,6 +3978,9 @@
       <c r="AB35">
         <v>0</v>
       </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3968,6 +4075,9 @@
       <c r="AB36">
         <v>3</v>
       </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4062,6 +4172,9 @@
       <c r="AB37">
         <v>0</v>
       </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4156,6 +4269,9 @@
       <c r="AB38">
         <v>1</v>
       </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4250,6 +4366,9 @@
       <c r="AB39">
         <v>20</v>
       </c>
+      <c r="AC39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4344,6 +4463,9 @@
       <c r="AB40">
         <v>36</v>
       </c>
+      <c r="AC40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4438,6 +4560,9 @@
       <c r="AB41">
         <v>0</v>
       </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4532,6 +4657,9 @@
       <c r="AB42">
         <v>11</v>
       </c>
+      <c r="AC42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4626,6 +4754,9 @@
       <c r="AB43">
         <v>18</v>
       </c>
+      <c r="AC43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4720,6 +4851,9 @@
       <c r="AB44">
         <v>14</v>
       </c>
+      <c r="AC44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4814,6 +4948,9 @@
       <c r="AB45">
         <v>25</v>
       </c>
+      <c r="AC45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4908,6 +5045,9 @@
       <c r="AB46">
         <v>1</v>
       </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5002,6 +5142,9 @@
       <c r="AB47">
         <v>3</v>
       </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5096,6 +5239,9 @@
       <c r="AB48">
         <v>3</v>
       </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5190,6 +5336,9 @@
       <c r="AB49">
         <v>7</v>
       </c>
+      <c r="AC49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5284,6 +5433,9 @@
       <c r="AB50">
         <v>2</v>
       </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5378,6 +5530,9 @@
       <c r="AB51">
         <v>6</v>
       </c>
+      <c r="AC51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5472,6 +5627,9 @@
       <c r="AB52">
         <v>0</v>
       </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5566,6 +5724,9 @@
       <c r="AB53">
         <v>0</v>
       </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5660,6 +5821,9 @@
       <c r="AB54">
         <v>6</v>
       </c>
+      <c r="AC54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5754,6 +5918,9 @@
       <c r="AB55">
         <v>5</v>
       </c>
+      <c r="AC55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5848,6 +6015,9 @@
       <c r="AB56">
         <v>0</v>
       </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5942,6 +6112,9 @@
       <c r="AB57">
         <v>10</v>
       </c>
+      <c r="AC57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6036,6 +6209,9 @@
       <c r="AB58">
         <v>0</v>
       </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6130,6 +6306,9 @@
       <c r="AB59">
         <v>0</v>
       </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6224,6 +6403,9 @@
       <c r="AB60">
         <v>0</v>
       </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6318,6 +6500,9 @@
       <c r="AB61">
         <v>1</v>
       </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6412,6 +6597,9 @@
       <c r="AB62">
         <v>2</v>
       </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6506,6 +6694,9 @@
       <c r="AB63">
         <v>2</v>
       </c>
+      <c r="AC63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6600,6 +6791,9 @@
       <c r="AB64">
         <v>0</v>
       </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6694,6 +6888,9 @@
       <c r="AB65">
         <v>3</v>
       </c>
+      <c r="AC65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6788,6 +6985,9 @@
       <c r="AB66">
         <v>4</v>
       </c>
+      <c r="AC66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6882,6 +7082,9 @@
       <c r="AB67">
         <v>1</v>
       </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6976,6 +7179,9 @@
       <c r="AB68">
         <v>3</v>
       </c>
+      <c r="AC68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7070,6 +7276,9 @@
       <c r="AB69">
         <v>33</v>
       </c>
+      <c r="AC69">
+        <v>34</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7164,6 +7373,9 @@
       <c r="AB70">
         <v>3</v>
       </c>
+      <c r="AC70">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7258,6 +7470,9 @@
       <c r="AB71">
         <v>0</v>
       </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7352,6 +7567,9 @@
       <c r="AB72">
         <v>2</v>
       </c>
+      <c r="AC72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7446,6 +7664,9 @@
       <c r="AB73">
         <v>5</v>
       </c>
+      <c r="AC73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7540,6 +7761,9 @@
       <c r="AB74">
         <v>3</v>
       </c>
+      <c r="AC74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7634,6 +7858,9 @@
       <c r="AB75">
         <v>0</v>
       </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7728,6 +7955,9 @@
       <c r="AB76">
         <v>0</v>
       </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7822,6 +8052,9 @@
       <c r="AB77">
         <v>2</v>
       </c>
+      <c r="AC77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7916,6 +8149,9 @@
       <c r="AB78">
         <v>3</v>
       </c>
+      <c r="AC78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8010,6 +8246,9 @@
       <c r="AB79">
         <v>1</v>
       </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8104,6 +8343,9 @@
       <c r="AB80">
         <v>1</v>
       </c>
+      <c r="AC80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8198,6 +8440,9 @@
       <c r="AB81">
         <v>0</v>
       </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8292,6 +8537,9 @@
       <c r="AB82">
         <v>5</v>
       </c>
+      <c r="AC82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8386,6 +8634,9 @@
       <c r="AB83">
         <v>0</v>
       </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8480,6 +8731,9 @@
       <c r="AB84">
         <v>0</v>
       </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8574,6 +8828,9 @@
       <c r="AB85">
         <v>4</v>
       </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8668,6 +8925,9 @@
       <c r="AB86">
         <v>0</v>
       </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8762,6 +9022,9 @@
       <c r="AB87">
         <v>0</v>
       </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8856,6 +9119,9 @@
       <c r="AB88">
         <v>0</v>
       </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8950,6 +9216,9 @@
       <c r="AB89">
         <v>5</v>
       </c>
+      <c r="AC89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9044,6 +9313,9 @@
       <c r="AB90">
         <v>0</v>
       </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9138,6 +9410,9 @@
       <c r="AB91">
         <v>0</v>
       </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9232,6 +9507,9 @@
       <c r="AB92">
         <v>0</v>
       </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9326,6 +9604,9 @@
       <c r="AB93">
         <v>1</v>
       </c>
+      <c r="AC93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9420,6 +9701,9 @@
       <c r="AB94">
         <v>0</v>
       </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9514,6 +9798,9 @@
       <c r="AB95">
         <v>1</v>
       </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9608,6 +9895,9 @@
       <c r="AB96">
         <v>0</v>
       </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9702,6 +9992,9 @@
       <c r="AB97">
         <v>0</v>
       </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9796,6 +10089,9 @@
       <c r="AB98">
         <v>0</v>
       </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9890,6 +10186,9 @@
       <c r="AB99">
         <v>0</v>
       </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9984,6 +10283,9 @@
       <c r="AB100">
         <v>4</v>
       </c>
+      <c r="AC100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10078,6 +10380,9 @@
       <c r="AB101">
         <v>4</v>
       </c>
+      <c r="AC101">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10172,6 +10477,9 @@
       <c r="AB102">
         <v>3</v>
       </c>
+      <c r="AC102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10266,6 +10574,9 @@
       <c r="AB103">
         <v>5</v>
       </c>
+      <c r="AC103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10360,6 +10671,9 @@
       <c r="AB104">
         <v>0</v>
       </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10454,6 +10768,9 @@
       <c r="AB105">
         <v>0</v>
       </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10548,6 +10865,9 @@
       <c r="AB106">
         <v>6</v>
       </c>
+      <c r="AC106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10642,6 +10962,9 @@
       <c r="AB107">
         <v>0</v>
       </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10736,6 +11059,9 @@
       <c r="AB108">
         <v>0</v>
       </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10830,6 +11156,9 @@
       <c r="AB109">
         <v>0</v>
       </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10924,6 +11253,9 @@
       <c r="AB110">
         <v>27</v>
       </c>
+      <c r="AC110">
+        <v>27</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11018,6 +11350,9 @@
       <c r="AB111">
         <v>84</v>
       </c>
+      <c r="AC111">
+        <v>85</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11112,6 +11447,9 @@
       <c r="AB112">
         <v>51</v>
       </c>
+      <c r="AC112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11206,6 +11544,9 @@
       <c r="AB113">
         <v>72</v>
       </c>
+      <c r="AC113">
+        <v>73</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11300,6 +11641,9 @@
       <c r="AB114">
         <v>148</v>
       </c>
+      <c r="AC114">
+        <v>153</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11394,6 +11738,9 @@
       <c r="AB115">
         <v>20</v>
       </c>
+      <c r="AC115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11488,6 +11835,9 @@
       <c r="AB116">
         <v>9</v>
       </c>
+      <c r="AC116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11582,6 +11932,9 @@
       <c r="AB117">
         <v>2</v>
       </c>
+      <c r="AC117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11676,6 +12029,9 @@
       <c r="AB118">
         <v>2</v>
       </c>
+      <c r="AC118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11770,6 +12126,9 @@
       <c r="AB119">
         <v>1</v>
       </c>
+      <c r="AC119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11864,6 +12223,9 @@
       <c r="AB120">
         <v>45</v>
       </c>
+      <c r="AC120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11958,6 +12320,9 @@
       <c r="AB121">
         <v>1</v>
       </c>
+      <c r="AC121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12052,6 +12417,9 @@
       <c r="AB122">
         <v>1</v>
       </c>
+      <c r="AC122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12146,6 +12514,9 @@
       <c r="AB123">
         <v>2</v>
       </c>
+      <c r="AC123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12240,6 +12611,9 @@
       <c r="AB124">
         <v>6</v>
       </c>
+      <c r="AC124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12334,6 +12708,9 @@
       <c r="AB125">
         <v>22</v>
       </c>
+      <c r="AC125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12428,6 +12805,9 @@
       <c r="AB126">
         <v>89</v>
       </c>
+      <c r="AC126">
+        <v>89</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12522,6 +12902,9 @@
       <c r="AB127">
         <v>17</v>
       </c>
+      <c r="AC127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12616,6 +12999,9 @@
       <c r="AB128">
         <v>18</v>
       </c>
+      <c r="AC128">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12710,6 +13096,9 @@
       <c r="AB129">
         <v>44</v>
       </c>
+      <c r="AC129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12804,6 +13193,9 @@
       <c r="AB130">
         <v>357</v>
       </c>
+      <c r="AC130">
+        <v>365</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12898,6 +13290,9 @@
       <c r="AB131">
         <v>150</v>
       </c>
+      <c r="AC131">
+        <v>152</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12992,6 +13387,9 @@
       <c r="AB132">
         <v>7</v>
       </c>
+      <c r="AC132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13086,6 +13484,9 @@
       <c r="AB133">
         <v>19</v>
       </c>
+      <c r="AC133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13180,6 +13581,9 @@
       <c r="AB134">
         <v>43</v>
       </c>
+      <c r="AC134">
+        <v>43</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13274,6 +13678,9 @@
       <c r="AB135">
         <v>75</v>
       </c>
+      <c r="AC135">
+        <v>75</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13368,6 +13775,9 @@
       <c r="AB136">
         <v>134</v>
       </c>
+      <c r="AC136">
+        <v>134</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13462,6 +13872,9 @@
       <c r="AB137">
         <v>45</v>
       </c>
+      <c r="AC137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13556,6 +13969,9 @@
       <c r="AB138">
         <v>8</v>
       </c>
+      <c r="AC138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13650,6 +14066,9 @@
       <c r="AB139">
         <v>51</v>
       </c>
+      <c r="AC139">
+        <v>51</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13744,6 +14163,9 @@
       <c r="AB140">
         <v>13</v>
       </c>
+      <c r="AC140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13838,6 +14260,9 @@
       <c r="AB141">
         <v>29</v>
       </c>
+      <c r="AC141">
+        <v>29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13932,6 +14357,9 @@
       <c r="AB142">
         <v>17</v>
       </c>
+      <c r="AC142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14026,6 +14454,9 @@
       <c r="AB143">
         <v>2</v>
       </c>
+      <c r="AC143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14120,6 +14551,9 @@
       <c r="AB144">
         <v>10</v>
       </c>
+      <c r="AC144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14214,6 +14648,9 @@
       <c r="AB145">
         <v>1</v>
       </c>
+      <c r="AC145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -14308,6 +14745,9 @@
       <c r="AB146">
         <v>7</v>
       </c>
+      <c r="AC146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14402,6 +14842,9 @@
       <c r="AB147">
         <v>10</v>
       </c>
+      <c r="AC147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14496,6 +14939,9 @@
       <c r="AB148">
         <v>8</v>
       </c>
+      <c r="AC148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14590,6 +15036,9 @@
       <c r="AB149">
         <v>13</v>
       </c>
+      <c r="AC149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14684,6 +15133,9 @@
       <c r="AB150">
         <v>44</v>
       </c>
+      <c r="AC150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14778,6 +15230,9 @@
       <c r="AB151">
         <v>0</v>
       </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14872,6 +15327,9 @@
       <c r="AB152">
         <v>0</v>
       </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -14966,6 +15424,9 @@
       <c r="AB153">
         <v>10</v>
       </c>
+      <c r="AC153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15060,6 +15521,9 @@
       <c r="AB154">
         <v>5</v>
       </c>
+      <c r="AC154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15154,6 +15618,9 @@
       <c r="AB155">
         <v>31</v>
       </c>
+      <c r="AC155">
+        <v>31</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15248,6 +15715,9 @@
       <c r="AB156">
         <v>2</v>
       </c>
+      <c r="AC156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15342,6 +15812,9 @@
       <c r="AB157">
         <v>1</v>
       </c>
+      <c r="AC157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15436,6 +15909,9 @@
       <c r="AB158">
         <v>2</v>
       </c>
+      <c r="AC158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -15530,6 +16006,9 @@
       <c r="AB159">
         <v>6</v>
       </c>
+      <c r="AC159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -15624,6 +16103,9 @@
       <c r="AB160">
         <v>9</v>
       </c>
+      <c r="AC160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -15718,6 +16200,9 @@
       <c r="AB161">
         <v>1</v>
       </c>
+      <c r="AC161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -15812,6 +16297,9 @@
       <c r="AB162">
         <v>78</v>
       </c>
+      <c r="AC162">
+        <v>78</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -15906,6 +16394,9 @@
       <c r="AB163">
         <v>31</v>
       </c>
+      <c r="AC163">
+        <v>31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16000,6 +16491,9 @@
       <c r="AB164">
         <v>15</v>
       </c>
+      <c r="AC164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16094,6 +16588,9 @@
       <c r="AB165">
         <v>57</v>
       </c>
+      <c r="AC165">
+        <v>57</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16188,6 +16685,9 @@
       <c r="AB166">
         <v>11</v>
       </c>
+      <c r="AC166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16282,6 +16782,9 @@
       <c r="AB167">
         <v>32</v>
       </c>
+      <c r="AC167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16376,6 +16879,9 @@
       <c r="AB168">
         <v>0</v>
       </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16470,6 +16976,9 @@
       <c r="AB169">
         <v>17</v>
       </c>
+      <c r="AC169">
+        <v>17</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -16564,6 +17073,9 @@
       <c r="AB170">
         <v>4</v>
       </c>
+      <c r="AC170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -16658,6 +17170,9 @@
       <c r="AB171">
         <v>5</v>
       </c>
+      <c r="AC171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -16752,6 +17267,9 @@
       <c r="AB172">
         <v>3</v>
       </c>
+      <c r="AC172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -16846,6 +17364,9 @@
       <c r="AB173">
         <v>3</v>
       </c>
+      <c r="AC173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -16940,6 +17461,9 @@
       <c r="AB174">
         <v>14</v>
       </c>
+      <c r="AC174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17034,6 +17558,9 @@
       <c r="AB175">
         <v>2</v>
       </c>
+      <c r="AC175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17128,6 +17655,9 @@
       <c r="AB176">
         <v>4</v>
       </c>
+      <c r="AC176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17222,6 +17752,9 @@
       <c r="AB177">
         <v>0</v>
       </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17316,6 +17849,9 @@
       <c r="AB178">
         <v>0</v>
       </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17410,6 +17946,9 @@
       <c r="AB179">
         <v>2</v>
       </c>
+      <c r="AC179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17504,6 +18043,9 @@
       <c r="AB180">
         <v>0</v>
       </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17598,6 +18140,9 @@
       <c r="AB181">
         <v>0</v>
       </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17692,6 +18237,9 @@
       <c r="AB182">
         <v>1</v>
       </c>
+      <c r="AC182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17786,6 +18334,9 @@
       <c r="AB183">
         <v>0</v>
       </c>
+      <c r="AC183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17880,6 +18431,9 @@
       <c r="AB184">
         <v>1</v>
       </c>
+      <c r="AC184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17974,6 +18528,9 @@
       <c r="AB185">
         <v>5</v>
       </c>
+      <c r="AC185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18068,6 +18625,9 @@
       <c r="AB186">
         <v>2</v>
       </c>
+      <c r="AC186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18162,6 +18722,9 @@
       <c r="AB187">
         <v>1</v>
       </c>
+      <c r="AC187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18256,6 +18819,9 @@
       <c r="AB188">
         <v>3</v>
       </c>
+      <c r="AC188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18350,6 +18916,9 @@
       <c r="AB189">
         <v>2</v>
       </c>
+      <c r="AC189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18444,6 +19013,9 @@
       <c r="AB190">
         <v>13</v>
       </c>
+      <c r="AC190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18538,6 +19110,9 @@
       <c r="AB191">
         <v>36</v>
       </c>
+      <c r="AC191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18632,6 +19207,9 @@
       <c r="AB192">
         <v>1</v>
       </c>
+      <c r="AC192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18726,6 +19304,9 @@
       <c r="AB193">
         <v>8</v>
       </c>
+      <c r="AC193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18820,6 +19401,9 @@
       <c r="AB194">
         <v>2</v>
       </c>
+      <c r="AC194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18914,6 +19498,9 @@
       <c r="AB195">
         <v>5</v>
       </c>
+      <c r="AC195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19008,6 +19595,9 @@
       <c r="AB196">
         <v>4</v>
       </c>
+      <c r="AC196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19102,6 +19692,9 @@
       <c r="AB197">
         <v>10</v>
       </c>
+      <c r="AC197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19196,6 +19789,9 @@
       <c r="AB198">
         <v>9</v>
       </c>
+      <c r="AC198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -19290,6 +19886,9 @@
       <c r="AB199">
         <v>2</v>
       </c>
+      <c r="AC199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19384,6 +19983,9 @@
       <c r="AB200">
         <v>1</v>
       </c>
+      <c r="AC200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -19478,6 +20080,9 @@
       <c r="AB201">
         <v>0</v>
       </c>
+      <c r="AC201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -19572,6 +20177,9 @@
       <c r="AB202">
         <v>1</v>
       </c>
+      <c r="AC202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -19666,6 +20274,9 @@
       <c r="AB203">
         <v>9</v>
       </c>
+      <c r="AC203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -19760,6 +20371,9 @@
       <c r="AB204">
         <v>0</v>
       </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -19854,6 +20468,9 @@
       <c r="AB205">
         <v>0</v>
       </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -19948,6 +20565,9 @@
       <c r="AB206">
         <v>0</v>
       </c>
+      <c r="AC206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20042,6 +20662,9 @@
       <c r="AB207">
         <v>23</v>
       </c>
+      <c r="AC207">
+        <v>24</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20136,6 +20759,9 @@
       <c r="AB208">
         <v>17</v>
       </c>
+      <c r="AC208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -20230,6 +20856,9 @@
       <c r="AB209">
         <v>51</v>
       </c>
+      <c r="AC209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -20324,6 +20953,9 @@
       <c r="AB210">
         <v>37</v>
       </c>
+      <c r="AC210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -20418,6 +21050,9 @@
       <c r="AB211">
         <v>28</v>
       </c>
+      <c r="AC211">
+        <v>28</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20512,6 +21147,9 @@
       <c r="AB212">
         <v>8</v>
       </c>
+      <c r="AC212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -20606,6 +21244,9 @@
       <c r="AB213">
         <v>38</v>
       </c>
+      <c r="AC213">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20700,6 +21341,9 @@
       <c r="AB214">
         <v>4</v>
       </c>
+      <c r="AC214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -20794,6 +21438,9 @@
       <c r="AB215">
         <v>21</v>
       </c>
+      <c r="AC215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -20888,6 +21535,9 @@
       <c r="AB216">
         <v>2</v>
       </c>
+      <c r="AC216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -20982,6 +21632,9 @@
       <c r="AB217">
         <v>5</v>
       </c>
+      <c r="AC217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21076,6 +21729,9 @@
       <c r="AB218">
         <v>1</v>
       </c>
+      <c r="AC218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -21170,6 +21826,9 @@
       <c r="AB219">
         <v>1</v>
       </c>
+      <c r="AC219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -21264,6 +21923,9 @@
       <c r="AB220">
         <v>2</v>
       </c>
+      <c r="AC220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -21358,6 +22020,9 @@
       <c r="AB221">
         <v>0</v>
       </c>
+      <c r="AC221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -21452,6 +22117,9 @@
       <c r="AB222">
         <v>1</v>
       </c>
+      <c r="AC222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -21546,6 +22214,9 @@
       <c r="AB223">
         <v>0</v>
       </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -21640,6 +22311,9 @@
       <c r="AB224">
         <v>0</v>
       </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -21734,6 +22408,9 @@
       <c r="AB225">
         <v>0</v>
       </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -21828,6 +22505,9 @@
       <c r="AB226">
         <v>0</v>
       </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -21922,6 +22602,9 @@
       <c r="AB227">
         <v>0</v>
       </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -22016,6 +22699,9 @@
       <c r="AB228">
         <v>0</v>
       </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -22110,6 +22796,9 @@
       <c r="AB229">
         <v>2</v>
       </c>
+      <c r="AC229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -22204,6 +22893,9 @@
       <c r="AB230">
         <v>0</v>
       </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -22298,6 +22990,9 @@
       <c r="AB231">
         <v>1</v>
       </c>
+      <c r="AC231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -22392,6 +23087,9 @@
       <c r="AB232">
         <v>25</v>
       </c>
+      <c r="AC232">
+        <v>25</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -22486,6 +23184,9 @@
       <c r="AB233">
         <v>177</v>
       </c>
+      <c r="AC233">
+        <v>178</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -22580,6 +23281,9 @@
       <c r="AB234">
         <v>9</v>
       </c>
+      <c r="AC234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -22674,6 +23378,9 @@
       <c r="AB235">
         <v>11</v>
       </c>
+      <c r="AC235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -22768,6 +23475,9 @@
       <c r="AB236">
         <v>0</v>
       </c>
+      <c r="AC236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -22862,6 +23572,9 @@
       <c r="AB237">
         <v>2</v>
       </c>
+      <c r="AC237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -22956,6 +23669,9 @@
       <c r="AB238">
         <v>0</v>
       </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -23050,6 +23766,9 @@
       <c r="AB239">
         <v>0</v>
       </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -23144,6 +23863,9 @@
       <c r="AB240">
         <v>2</v>
       </c>
+      <c r="AC240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -23238,6 +23960,9 @@
       <c r="AB241">
         <v>7</v>
       </c>
+      <c r="AC241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -23332,6 +24057,9 @@
       <c r="AB242">
         <v>3</v>
       </c>
+      <c r="AC242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -23426,6 +24154,9 @@
       <c r="AB243">
         <v>1</v>
       </c>
+      <c r="AC243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -23520,6 +24251,9 @@
       <c r="AB244">
         <v>1</v>
       </c>
+      <c r="AC244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -23614,6 +24348,9 @@
       <c r="AB245">
         <v>2</v>
       </c>
+      <c r="AC245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -23708,6 +24445,9 @@
       <c r="AB246">
         <v>2</v>
       </c>
+      <c r="AC246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -23802,6 +24542,9 @@
       <c r="AB247">
         <v>0</v>
       </c>
+      <c r="AC247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -23896,6 +24639,9 @@
       <c r="AB248">
         <v>3</v>
       </c>
+      <c r="AC248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -23990,6 +24736,9 @@
       <c r="AB249">
         <v>8</v>
       </c>
+      <c r="AC249">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -24084,6 +24833,9 @@
       <c r="AB250">
         <v>0</v>
       </c>
+      <c r="AC250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -24178,6 +24930,9 @@
       <c r="AB251">
         <v>4</v>
       </c>
+      <c r="AC251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -24272,6 +25027,9 @@
       <c r="AB252">
         <v>1</v>
       </c>
+      <c r="AC252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -24366,6 +25124,9 @@
       <c r="AB253">
         <v>1</v>
       </c>
+      <c r="AC253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -24460,6 +25221,9 @@
       <c r="AB254">
         <v>1</v>
       </c>
+      <c r="AC254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -24564,6 +25328,9 @@
       <c r="AB255">
         <v>12</v>
       </c>
+      <c r="AC255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -24668,6 +25435,9 @@
       <c r="AB256">
         <v>64</v>
       </c>
+      <c r="AC256">
+        <v>64</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -24772,6 +25542,9 @@
       <c r="AB257">
         <v>48</v>
       </c>
+      <c r="AC257">
+        <v>48</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -24876,6 +25649,9 @@
       <c r="AB258">
         <v>50</v>
       </c>
+      <c r="AC258">
+        <v>50</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -24980,6 +25756,9 @@
       <c r="AB259">
         <v>50</v>
       </c>
+      <c r="AC259">
+        <v>50</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -25084,6 +25863,9 @@
       <c r="AB260">
         <v>34</v>
       </c>
+      <c r="AC260">
+        <v>34</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -25188,6 +25970,9 @@
       <c r="AB261">
         <v>76</v>
       </c>
+      <c r="AC261">
+        <v>76</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -25292,6 +26077,9 @@
       <c r="AB262">
         <v>43</v>
       </c>
+      <c r="AC262">
+        <v>43</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -25396,6 +26184,9 @@
       <c r="AB263">
         <v>46</v>
       </c>
+      <c r="AC263">
+        <v>46</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -25490,6 +26281,9 @@
       <c r="AB264">
         <v>8</v>
       </c>
+      <c r="AC264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -25584,6 +26378,9 @@
       <c r="AB265">
         <v>4</v>
       </c>
+      <c r="AC265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -25678,6 +26475,9 @@
       <c r="AB266">
         <v>4</v>
       </c>
+      <c r="AC266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -25772,6 +26572,9 @@
       <c r="AB267">
         <v>4</v>
       </c>
+      <c r="AC267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -25866,6 +26669,9 @@
       <c r="AB268">
         <v>6</v>
       </c>
+      <c r="AC268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -25960,6 +26766,9 @@
       <c r="AB269">
         <v>8</v>
       </c>
+      <c r="AC269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -26054,6 +26863,9 @@
       <c r="AB270">
         <v>0</v>
       </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -26148,6 +26960,9 @@
       <c r="AB271">
         <v>4</v>
       </c>
+      <c r="AC271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -26242,6 +27057,9 @@
       <c r="AB272">
         <v>0</v>
       </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -26336,6 +27154,9 @@
       <c r="AB273">
         <v>0</v>
       </c>
+      <c r="AC273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -26430,6 +27251,9 @@
       <c r="AB274">
         <v>2</v>
       </c>
+      <c r="AC274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -26524,6 +27348,9 @@
       <c r="AB275">
         <v>24</v>
       </c>
+      <c r="AC275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -26618,6 +27445,9 @@
       <c r="AB276">
         <v>9</v>
       </c>
+      <c r="AC276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -26712,6 +27542,9 @@
       <c r="AB277">
         <v>0</v>
       </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -26806,6 +27639,9 @@
       <c r="AB278">
         <v>17</v>
       </c>
+      <c r="AC278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -26900,6 +27736,9 @@
       <c r="AB279">
         <v>4</v>
       </c>
+      <c r="AC279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -26994,6 +27833,9 @@
       <c r="AB280">
         <v>43</v>
       </c>
+      <c r="AC280">
+        <v>43</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -27088,6 +27930,9 @@
       <c r="AB281">
         <v>30</v>
       </c>
+      <c r="AC281">
+        <v>30</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -27182,6 +28027,9 @@
       <c r="AB282">
         <v>1</v>
       </c>
+      <c r="AC282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -27276,6 +28124,9 @@
       <c r="AB283">
         <v>0</v>
       </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -27370,6 +28221,9 @@
       <c r="AB284">
         <v>9</v>
       </c>
+      <c r="AC284">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -27464,6 +28318,9 @@
       <c r="AB285">
         <v>19</v>
       </c>
+      <c r="AC285">
+        <v>19</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -27558,6 +28415,9 @@
       <c r="AB286">
         <v>0</v>
       </c>
+      <c r="AC286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -27652,6 +28512,9 @@
       <c r="AB287">
         <v>0</v>
       </c>
+      <c r="AC287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -27746,6 +28609,9 @@
       <c r="AB288">
         <v>0</v>
       </c>
+      <c r="AC288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -27840,6 +28706,9 @@
       <c r="AB289">
         <v>0</v>
       </c>
+      <c r="AC289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -27934,6 +28803,9 @@
       <c r="AB290">
         <v>3</v>
       </c>
+      <c r="AC290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -28028,6 +28900,9 @@
       <c r="AB291">
         <v>0</v>
       </c>
+      <c r="AC291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -28122,6 +28997,9 @@
       <c r="AB292">
         <v>3</v>
       </c>
+      <c r="AC292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -28216,6 +29094,9 @@
       <c r="AB293">
         <v>0</v>
       </c>
+      <c r="AC293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -28310,6 +29191,9 @@
       <c r="AB294">
         <v>7</v>
       </c>
+      <c r="AC294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -28404,6 +29288,9 @@
       <c r="AB295">
         <v>0</v>
       </c>
+      <c r="AC295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -28498,6 +29385,9 @@
       <c r="AB296">
         <v>0</v>
       </c>
+      <c r="AC296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -28592,6 +29482,9 @@
       <c r="AB297">
         <v>1</v>
       </c>
+      <c r="AC297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -28686,6 +29579,9 @@
       <c r="AB298">
         <v>4</v>
       </c>
+      <c r="AC298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -28780,6 +29676,9 @@
       <c r="AB299">
         <v>0</v>
       </c>
+      <c r="AC299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -28874,6 +29773,9 @@
       <c r="AB300">
         <v>0</v>
       </c>
+      <c r="AC300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -28968,6 +29870,9 @@
       <c r="AB301">
         <v>17</v>
       </c>
+      <c r="AC301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -29062,6 +29967,9 @@
       <c r="AB302">
         <v>0</v>
       </c>
+      <c r="AC302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -29156,6 +30064,9 @@
       <c r="AB303">
         <v>0</v>
       </c>
+      <c r="AC303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -29250,6 +30161,9 @@
       <c r="AB304">
         <v>4</v>
       </c>
+      <c r="AC304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -29344,6 +30258,9 @@
       <c r="AB305">
         <v>12</v>
       </c>
+      <c r="AC305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -29438,6 +30355,9 @@
       <c r="AB306">
         <v>212</v>
       </c>
+      <c r="AC306">
+        <v>212</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -29532,6 +30452,9 @@
       <c r="AB307">
         <v>16</v>
       </c>
+      <c r="AC307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -29626,6 +30549,9 @@
       <c r="AB308">
         <v>5</v>
       </c>
+      <c r="AC308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -29720,6 +30646,9 @@
       <c r="AB309">
         <v>0</v>
       </c>
+      <c r="AC309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -29814,6 +30743,9 @@
       <c r="AB310">
         <v>0</v>
       </c>
+      <c r="AC310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -29908,6 +30840,9 @@
       <c r="AB311">
         <v>8</v>
       </c>
+      <c r="AC311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -30002,6 +30937,9 @@
       <c r="AB312">
         <v>5</v>
       </c>
+      <c r="AC312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -30096,6 +31034,9 @@
       <c r="AB313">
         <v>0</v>
       </c>
+      <c r="AC313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -30190,6 +31131,9 @@
       <c r="AB314">
         <v>1</v>
       </c>
+      <c r="AC314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -30284,6 +31228,9 @@
       <c r="AB315">
         <v>7</v>
       </c>
+      <c r="AC315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -30378,6 +31325,9 @@
       <c r="AB316">
         <v>3</v>
       </c>
+      <c r="AC316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -30472,6 +31422,9 @@
       <c r="AB317">
         <v>5</v>
       </c>
+      <c r="AC317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -30566,6 +31519,9 @@
       <c r="AB318">
         <v>11</v>
       </c>
+      <c r="AC318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -30660,6 +31616,9 @@
       <c r="AB319">
         <v>6</v>
       </c>
+      <c r="AC319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -30754,6 +31713,9 @@
       <c r="AB320">
         <v>0</v>
       </c>
+      <c r="AC320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -30848,6 +31810,9 @@
       <c r="AB321">
         <v>1</v>
       </c>
+      <c r="AC321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -30942,6 +31907,9 @@
       <c r="AB322">
         <v>7</v>
       </c>
+      <c r="AC322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -31036,6 +32004,9 @@
       <c r="AB323">
         <v>28</v>
       </c>
+      <c r="AC323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -31130,6 +32101,9 @@
       <c r="AB324">
         <v>20</v>
       </c>
+      <c r="AC324">
+        <v>20</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -31224,6 +32198,9 @@
       <c r="AB325">
         <v>15</v>
       </c>
+      <c r="AC325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -31318,6 +32295,9 @@
       <c r="AB326">
         <v>0</v>
       </c>
+      <c r="AC326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -31412,6 +32392,9 @@
       <c r="AB327">
         <v>0</v>
       </c>
+      <c r="AC327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -31506,6 +32489,9 @@
       <c r="AB328">
         <v>0</v>
       </c>
+      <c r="AC328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -31600,6 +32586,9 @@
       <c r="AB329">
         <v>0</v>
       </c>
+      <c r="AC329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -31694,6 +32683,9 @@
       <c r="AB330">
         <v>3</v>
       </c>
+      <c r="AC330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -31788,6 +32780,9 @@
       <c r="AB331">
         <v>1</v>
       </c>
+      <c r="AC331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -31882,6 +32877,9 @@
       <c r="AB332">
         <v>4</v>
       </c>
+      <c r="AC332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -31976,6 +32974,9 @@
       <c r="AB333">
         <v>0</v>
       </c>
+      <c r="AC333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -32070,6 +33071,9 @@
       <c r="AB334">
         <v>0</v>
       </c>
+      <c r="AC334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -32164,6 +33168,9 @@
       <c r="AB335">
         <v>7</v>
       </c>
+      <c r="AC335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -32258,6 +33265,9 @@
       <c r="AB336">
         <v>2</v>
       </c>
+      <c r="AC336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -32352,6 +33362,9 @@
       <c r="AB337">
         <v>2</v>
       </c>
+      <c r="AC337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -32446,6 +33459,9 @@
       <c r="AB338">
         <v>2</v>
       </c>
+      <c r="AC338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -32540,6 +33556,9 @@
       <c r="AB339">
         <v>10</v>
       </c>
+      <c r="AC339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -32634,6 +33653,9 @@
       <c r="AB340">
         <v>1</v>
       </c>
+      <c r="AC340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -32728,6 +33750,9 @@
       <c r="AB341">
         <v>17</v>
       </c>
+      <c r="AC341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -32822,6 +33847,9 @@
       <c r="AB342">
         <v>0</v>
       </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -32916,6 +33944,9 @@
       <c r="AB343">
         <v>0</v>
       </c>
+      <c r="AC343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -33010,6 +34041,9 @@
       <c r="AB344">
         <v>115</v>
       </c>
+      <c r="AC344">
+        <v>118</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -33104,6 +34138,9 @@
       <c r="AB345">
         <v>4</v>
       </c>
+      <c r="AC345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -33198,6 +34235,9 @@
       <c r="AB346">
         <v>5</v>
       </c>
+      <c r="AC346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -33292,6 +34332,9 @@
       <c r="AB347">
         <v>1</v>
       </c>
+      <c r="AC347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -33386,6 +34429,9 @@
       <c r="AB348">
         <v>3</v>
       </c>
+      <c r="AC348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -33480,6 +34526,9 @@
       <c r="AB349">
         <v>14</v>
       </c>
+      <c r="AC349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -33574,6 +34623,9 @@
       <c r="AB350">
         <v>1</v>
       </c>
+      <c r="AC350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -33668,6 +34720,9 @@
       <c r="AB351">
         <v>1</v>
       </c>
+      <c r="AC351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -33762,6 +34817,9 @@
       <c r="AB352">
         <v>0</v>
       </c>
+      <c r="AC352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -33856,6 +34914,9 @@
       <c r="AB353">
         <v>0</v>
       </c>
+      <c r="AC353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -33950,6 +35011,9 @@
       <c r="AB354">
         <v>3</v>
       </c>
+      <c r="AC354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -34044,6 +35108,9 @@
       <c r="AB355">
         <v>1</v>
       </c>
+      <c r="AC355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -34138,6 +35205,9 @@
       <c r="AB356">
         <v>2</v>
       </c>
+      <c r="AC356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -34232,6 +35302,9 @@
       <c r="AB357">
         <v>0</v>
       </c>
+      <c r="AC357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -34326,6 +35399,9 @@
       <c r="AB358">
         <v>0</v>
       </c>
+      <c r="AC358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -34420,6 +35496,9 @@
       <c r="AB359">
         <v>0</v>
       </c>
+      <c r="AC359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -34514,6 +35593,9 @@
       <c r="AB360">
         <v>16</v>
       </c>
+      <c r="AC360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -34608,6 +35690,9 @@
       <c r="AB361">
         <v>2</v>
       </c>
+      <c r="AC361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -34702,6 +35787,9 @@
       <c r="AB362">
         <v>1</v>
       </c>
+      <c r="AC362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -34796,6 +35884,9 @@
       <c r="AB363">
         <v>2</v>
       </c>
+      <c r="AC363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -34890,6 +35981,9 @@
       <c r="AB364">
         <v>0</v>
       </c>
+      <c r="AC364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -34984,6 +36078,9 @@
       <c r="AB365">
         <v>0</v>
       </c>
+      <c r="AC365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -35078,6 +36175,9 @@
       <c r="AB366">
         <v>1</v>
       </c>
+      <c r="AC366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -35172,6 +36272,9 @@
       <c r="AB367">
         <v>2</v>
       </c>
+      <c r="AC367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -35266,6 +36369,9 @@
       <c r="AB368">
         <v>0</v>
       </c>
+      <c r="AC368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -35360,6 +36466,9 @@
       <c r="AB369">
         <v>1</v>
       </c>
+      <c r="AC369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -35454,6 +36563,9 @@
       <c r="AB370">
         <v>0</v>
       </c>
+      <c r="AC370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -35548,6 +36660,9 @@
       <c r="AB371">
         <v>0</v>
       </c>
+      <c r="AC371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -35642,6 +36757,9 @@
       <c r="AB372">
         <v>2</v>
       </c>
+      <c r="AC372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -35736,6 +36854,9 @@
       <c r="AB373">
         <v>2</v>
       </c>
+      <c r="AC373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -35830,6 +36951,9 @@
       <c r="AB374">
         <v>4</v>
       </c>
+      <c r="AC374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -35924,6 +37048,9 @@
       <c r="AB375">
         <v>1</v>
       </c>
+      <c r="AC375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -36018,6 +37145,9 @@
       <c r="AB376">
         <v>0</v>
       </c>
+      <c r="AC376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -36112,6 +37242,9 @@
       <c r="AB377">
         <v>0</v>
       </c>
+      <c r="AC377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -36206,6 +37339,9 @@
       <c r="AB378">
         <v>0</v>
       </c>
+      <c r="AC378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -36300,6 +37436,9 @@
       <c r="AB379">
         <v>1</v>
       </c>
+      <c r="AC379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -36394,6 +37533,9 @@
       <c r="AB380">
         <v>1</v>
       </c>
+      <c r="AC380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -36488,6 +37630,9 @@
       <c r="AB381">
         <v>0</v>
       </c>
+      <c r="AC381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -36582,6 +37727,9 @@
       <c r="AB382">
         <v>4</v>
       </c>
+      <c r="AC382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -36676,6 +37824,9 @@
       <c r="AB383">
         <v>0</v>
       </c>
+      <c r="AC383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -36768,6 +37919,9 @@
         <v>3</v>
       </c>
       <c r="AB384">
+        <v>6</v>
+      </c>
+      <c r="AC384">
         <v>6</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC384"/>
+  <dimension ref="A1:AD384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>2020-04-13</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -610,6 +615,9 @@
       <c r="AC2">
         <v>194</v>
       </c>
+      <c r="AD2">
+        <v>199</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -717,6 +725,9 @@
       <c r="AC3">
         <v>140</v>
       </c>
+      <c r="AD3">
+        <v>141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -824,6 +835,9 @@
       <c r="AC4">
         <v>117</v>
       </c>
+      <c r="AD4">
+        <v>117</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -931,6 +945,9 @@
       <c r="AC5">
         <v>75</v>
       </c>
+      <c r="AD5">
+        <v>78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1038,6 +1055,9 @@
       <c r="AC6">
         <v>146</v>
       </c>
+      <c r="AD6">
+        <v>146</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1145,6 +1165,9 @@
       <c r="AC7">
         <v>103</v>
       </c>
+      <c r="AD7">
+        <v>104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1252,6 +1275,9 @@
       <c r="AC8">
         <v>132</v>
       </c>
+      <c r="AD8">
+        <v>132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1359,6 +1385,9 @@
       <c r="AC9">
         <v>115</v>
       </c>
+      <c r="AD9">
+        <v>117</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1466,6 +1495,9 @@
       <c r="AC10">
         <v>78</v>
       </c>
+      <c r="AD10">
+        <v>78</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1573,6 +1605,9 @@
       <c r="AC11">
         <v>79</v>
       </c>
+      <c r="AD11">
+        <v>80</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1680,6 +1715,9 @@
       <c r="AC12">
         <v>132</v>
       </c>
+      <c r="AD12">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1787,6 +1825,9 @@
       <c r="AC13">
         <v>176</v>
       </c>
+      <c r="AD13">
+        <v>179</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1894,6 +1935,9 @@
       <c r="AC14">
         <v>148</v>
       </c>
+      <c r="AD14">
+        <v>152</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2001,6 +2045,9 @@
       <c r="AC15">
         <v>139</v>
       </c>
+      <c r="AD15">
+        <v>139</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2108,6 +2155,9 @@
       <c r="AC16">
         <v>112</v>
       </c>
+      <c r="AD16">
+        <v>114</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2215,6 +2265,9 @@
       <c r="AC17">
         <v>4</v>
       </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2322,6 +2375,9 @@
       <c r="AC18">
         <v>2</v>
       </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2429,6 +2485,9 @@
       <c r="AC19">
         <v>34</v>
       </c>
+      <c r="AD19">
+        <v>35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2526,6 +2585,9 @@
       <c r="AC20">
         <v>14</v>
       </c>
+      <c r="AD20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2623,6 +2685,9 @@
       <c r="AC21">
         <v>125</v>
       </c>
+      <c r="AD21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2720,6 +2785,9 @@
       <c r="AC22">
         <v>49</v>
       </c>
+      <c r="AD22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2817,6 +2885,9 @@
       <c r="AC23">
         <v>46</v>
       </c>
+      <c r="AD23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2914,6 +2985,9 @@
       <c r="AC24">
         <v>3</v>
       </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3011,6 +3085,9 @@
       <c r="AC25">
         <v>0</v>
       </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3108,6 +3185,9 @@
       <c r="AC26">
         <v>0</v>
       </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3205,6 +3285,9 @@
       <c r="AC27">
         <v>6</v>
       </c>
+      <c r="AD27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3302,6 +3385,9 @@
       <c r="AC28">
         <v>6</v>
       </c>
+      <c r="AD28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3399,6 +3485,9 @@
       <c r="AC29">
         <v>12</v>
       </c>
+      <c r="AD29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3496,6 +3585,9 @@
       <c r="AC30">
         <v>12</v>
       </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3593,6 +3685,9 @@
       <c r="AC31">
         <v>13</v>
       </c>
+      <c r="AD31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3690,6 +3785,9 @@
       <c r="AC32">
         <v>11</v>
       </c>
+      <c r="AD32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3787,6 +3885,9 @@
       <c r="AC33">
         <v>13</v>
       </c>
+      <c r="AD33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3884,6 +3985,9 @@
       <c r="AC34">
         <v>0</v>
       </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3981,6 +4085,9 @@
       <c r="AC35">
         <v>0</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4078,6 +4185,9 @@
       <c r="AC36">
         <v>3</v>
       </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4175,6 +4285,9 @@
       <c r="AC37">
         <v>0</v>
       </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4272,6 +4385,9 @@
       <c r="AC38">
         <v>1</v>
       </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4369,6 +4485,9 @@
       <c r="AC39">
         <v>20</v>
       </c>
+      <c r="AD39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4466,6 +4585,9 @@
       <c r="AC40">
         <v>36</v>
       </c>
+      <c r="AD40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4563,6 +4685,9 @@
       <c r="AC41">
         <v>0</v>
       </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4660,6 +4785,9 @@
       <c r="AC42">
         <v>11</v>
       </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4757,6 +4885,9 @@
       <c r="AC43">
         <v>18</v>
       </c>
+      <c r="AD43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4854,6 +4985,9 @@
       <c r="AC44">
         <v>14</v>
       </c>
+      <c r="AD44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4951,6 +5085,9 @@
       <c r="AC45">
         <v>26</v>
       </c>
+      <c r="AD45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5048,6 +5185,9 @@
       <c r="AC46">
         <v>1</v>
       </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5145,6 +5285,9 @@
       <c r="AC47">
         <v>3</v>
       </c>
+      <c r="AD47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5242,6 +5385,9 @@
       <c r="AC48">
         <v>3</v>
       </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5339,6 +5485,9 @@
       <c r="AC49">
         <v>7</v>
       </c>
+      <c r="AD49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5436,6 +5585,9 @@
       <c r="AC50">
         <v>2</v>
       </c>
+      <c r="AD50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5533,6 +5685,9 @@
       <c r="AC51">
         <v>6</v>
       </c>
+      <c r="AD51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5630,6 +5785,9 @@
       <c r="AC52">
         <v>0</v>
       </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5727,6 +5885,9 @@
       <c r="AC53">
         <v>0</v>
       </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5824,6 +5985,9 @@
       <c r="AC54">
         <v>6</v>
       </c>
+      <c r="AD54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5921,6 +6085,9 @@
       <c r="AC55">
         <v>5</v>
       </c>
+      <c r="AD55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6018,6 +6185,9 @@
       <c r="AC56">
         <v>0</v>
       </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6115,6 +6285,9 @@
       <c r="AC57">
         <v>10</v>
       </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6212,6 +6385,9 @@
       <c r="AC58">
         <v>0</v>
       </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6309,6 +6485,9 @@
       <c r="AC59">
         <v>0</v>
       </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6406,6 +6585,9 @@
       <c r="AC60">
         <v>0</v>
       </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6503,6 +6685,9 @@
       <c r="AC61">
         <v>1</v>
       </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6600,6 +6785,9 @@
       <c r="AC62">
         <v>2</v>
       </c>
+      <c r="AD62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6697,6 +6885,9 @@
       <c r="AC63">
         <v>2</v>
       </c>
+      <c r="AD63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6794,6 +6985,9 @@
       <c r="AC64">
         <v>0</v>
       </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6891,6 +7085,9 @@
       <c r="AC65">
         <v>3</v>
       </c>
+      <c r="AD65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6988,6 +7185,9 @@
       <c r="AC66">
         <v>4</v>
       </c>
+      <c r="AD66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7085,6 +7285,9 @@
       <c r="AC67">
         <v>1</v>
       </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7182,6 +7385,9 @@
       <c r="AC68">
         <v>3</v>
       </c>
+      <c r="AD68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7279,6 +7485,9 @@
       <c r="AC69">
         <v>34</v>
       </c>
+      <c r="AD69">
+        <v>34</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7376,6 +7585,9 @@
       <c r="AC70">
         <v>3</v>
       </c>
+      <c r="AD70">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7473,6 +7685,9 @@
       <c r="AC71">
         <v>0</v>
       </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7570,6 +7785,9 @@
       <c r="AC72">
         <v>2</v>
       </c>
+      <c r="AD72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7667,6 +7885,9 @@
       <c r="AC73">
         <v>5</v>
       </c>
+      <c r="AD73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7764,6 +7985,9 @@
       <c r="AC74">
         <v>3</v>
       </c>
+      <c r="AD74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7861,6 +8085,9 @@
       <c r="AC75">
         <v>0</v>
       </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7958,6 +8185,9 @@
       <c r="AC76">
         <v>0</v>
       </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8055,6 +8285,9 @@
       <c r="AC77">
         <v>2</v>
       </c>
+      <c r="AD77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8152,6 +8385,9 @@
       <c r="AC78">
         <v>3</v>
       </c>
+      <c r="AD78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8249,6 +8485,9 @@
       <c r="AC79">
         <v>1</v>
       </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8346,6 +8585,9 @@
       <c r="AC80">
         <v>1</v>
       </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8443,6 +8685,9 @@
       <c r="AC81">
         <v>0</v>
       </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8540,6 +8785,9 @@
       <c r="AC82">
         <v>5</v>
       </c>
+      <c r="AD82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8637,6 +8885,9 @@
       <c r="AC83">
         <v>0</v>
       </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8734,6 +8985,9 @@
       <c r="AC84">
         <v>0</v>
       </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8831,6 +9085,9 @@
       <c r="AC85">
         <v>4</v>
       </c>
+      <c r="AD85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8928,6 +9185,9 @@
       <c r="AC86">
         <v>0</v>
       </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9025,6 +9285,9 @@
       <c r="AC87">
         <v>0</v>
       </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9122,6 +9385,9 @@
       <c r="AC88">
         <v>0</v>
       </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9219,6 +9485,9 @@
       <c r="AC89">
         <v>5</v>
       </c>
+      <c r="AD89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9316,6 +9585,9 @@
       <c r="AC90">
         <v>0</v>
       </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9413,6 +9685,9 @@
       <c r="AC91">
         <v>0</v>
       </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9510,6 +9785,9 @@
       <c r="AC92">
         <v>0</v>
       </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9607,6 +9885,9 @@
       <c r="AC93">
         <v>1</v>
       </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9704,6 +9985,9 @@
       <c r="AC94">
         <v>0</v>
       </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9801,6 +10085,9 @@
       <c r="AC95">
         <v>1</v>
       </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9898,6 +10185,9 @@
       <c r="AC96">
         <v>0</v>
       </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9995,6 +10285,9 @@
       <c r="AC97">
         <v>0</v>
       </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10092,6 +10385,9 @@
       <c r="AC98">
         <v>0</v>
       </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10189,6 +10485,9 @@
       <c r="AC99">
         <v>0</v>
       </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10286,6 +10585,9 @@
       <c r="AC100">
         <v>4</v>
       </c>
+      <c r="AD100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10383,6 +10685,9 @@
       <c r="AC101">
         <v>7</v>
       </c>
+      <c r="AD101">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10480,6 +10785,9 @@
       <c r="AC102">
         <v>3</v>
       </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10577,6 +10885,9 @@
       <c r="AC103">
         <v>5</v>
       </c>
+      <c r="AD103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10674,6 +10985,9 @@
       <c r="AC104">
         <v>0</v>
       </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10771,6 +11085,9 @@
       <c r="AC105">
         <v>0</v>
       </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10868,6 +11185,9 @@
       <c r="AC106">
         <v>6</v>
       </c>
+      <c r="AD106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10965,6 +11285,9 @@
       <c r="AC107">
         <v>0</v>
       </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11062,6 +11385,9 @@
       <c r="AC108">
         <v>0</v>
       </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11159,6 +11485,9 @@
       <c r="AC109">
         <v>0</v>
       </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11256,6 +11585,9 @@
       <c r="AC110">
         <v>27</v>
       </c>
+      <c r="AD110">
+        <v>28</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11353,6 +11685,9 @@
       <c r="AC111">
         <v>85</v>
       </c>
+      <c r="AD111">
+        <v>85</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11450,6 +11785,9 @@
       <c r="AC112">
         <v>54</v>
       </c>
+      <c r="AD112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11547,6 +11885,9 @@
       <c r="AC113">
         <v>73</v>
       </c>
+      <c r="AD113">
+        <v>74</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11644,6 +11985,9 @@
       <c r="AC114">
         <v>153</v>
       </c>
+      <c r="AD114">
+        <v>155</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11741,6 +12085,9 @@
       <c r="AC115">
         <v>20</v>
       </c>
+      <c r="AD115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11838,6 +12185,9 @@
       <c r="AC116">
         <v>9</v>
       </c>
+      <c r="AD116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11935,6 +12285,9 @@
       <c r="AC117">
         <v>2</v>
       </c>
+      <c r="AD117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12032,6 +12385,9 @@
       <c r="AC118">
         <v>2</v>
       </c>
+      <c r="AD118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12129,6 +12485,9 @@
       <c r="AC119">
         <v>3</v>
       </c>
+      <c r="AD119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12226,6 +12585,9 @@
       <c r="AC120">
         <v>45</v>
       </c>
+      <c r="AD120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12323,6 +12685,9 @@
       <c r="AC121">
         <v>1</v>
       </c>
+      <c r="AD121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12420,6 +12785,9 @@
       <c r="AC122">
         <v>1</v>
       </c>
+      <c r="AD122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12517,6 +12885,9 @@
       <c r="AC123">
         <v>2</v>
       </c>
+      <c r="AD123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12614,6 +12985,9 @@
       <c r="AC124">
         <v>6</v>
       </c>
+      <c r="AD124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12711,6 +13085,9 @@
       <c r="AC125">
         <v>22</v>
       </c>
+      <c r="AD125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12808,6 +13185,9 @@
       <c r="AC126">
         <v>89</v>
       </c>
+      <c r="AD126">
+        <v>89</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12905,6 +13285,9 @@
       <c r="AC127">
         <v>17</v>
       </c>
+      <c r="AD127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13002,6 +13385,9 @@
       <c r="AC128">
         <v>18</v>
       </c>
+      <c r="AD128">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13099,6 +13485,9 @@
       <c r="AC129">
         <v>44</v>
       </c>
+      <c r="AD129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13196,6 +13585,9 @@
       <c r="AC130">
         <v>365</v>
       </c>
+      <c r="AD130">
+        <v>373</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13293,6 +13685,9 @@
       <c r="AC131">
         <v>152</v>
       </c>
+      <c r="AD131">
+        <v>152</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13390,6 +13785,9 @@
       <c r="AC132">
         <v>8</v>
       </c>
+      <c r="AD132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13487,6 +13885,9 @@
       <c r="AC133">
         <v>19</v>
       </c>
+      <c r="AD133">
+        <v>19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13584,6 +13985,9 @@
       <c r="AC134">
         <v>43</v>
       </c>
+      <c r="AD134">
+        <v>43</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13681,6 +14085,9 @@
       <c r="AC135">
         <v>75</v>
       </c>
+      <c r="AD135">
+        <v>76</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13778,6 +14185,9 @@
       <c r="AC136">
         <v>134</v>
       </c>
+      <c r="AD136">
+        <v>134</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13875,6 +14285,9 @@
       <c r="AC137">
         <v>45</v>
       </c>
+      <c r="AD137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13972,6 +14385,9 @@
       <c r="AC138">
         <v>8</v>
       </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14069,6 +14485,9 @@
       <c r="AC139">
         <v>51</v>
       </c>
+      <c r="AD139">
+        <v>52</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14166,6 +14585,9 @@
       <c r="AC140">
         <v>13</v>
       </c>
+      <c r="AD140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14263,6 +14685,9 @@
       <c r="AC141">
         <v>29</v>
       </c>
+      <c r="AD141">
+        <v>29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14360,6 +14785,9 @@
       <c r="AC142">
         <v>17</v>
       </c>
+      <c r="AD142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14457,6 +14885,9 @@
       <c r="AC143">
         <v>2</v>
       </c>
+      <c r="AD143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14554,6 +14985,9 @@
       <c r="AC144">
         <v>10</v>
       </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14651,6 +15085,9 @@
       <c r="AC145">
         <v>1</v>
       </c>
+      <c r="AD145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -14748,6 +15185,9 @@
       <c r="AC146">
         <v>7</v>
       </c>
+      <c r="AD146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14845,6 +15285,9 @@
       <c r="AC147">
         <v>10</v>
       </c>
+      <c r="AD147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -14942,6 +15385,9 @@
       <c r="AC148">
         <v>8</v>
       </c>
+      <c r="AD148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15039,6 +15485,9 @@
       <c r="AC149">
         <v>13</v>
       </c>
+      <c r="AD149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15136,6 +15585,9 @@
       <c r="AC150">
         <v>44</v>
       </c>
+      <c r="AD150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15233,6 +15685,9 @@
       <c r="AC151">
         <v>0</v>
       </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15330,6 +15785,9 @@
       <c r="AC152">
         <v>0</v>
       </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15427,6 +15885,9 @@
       <c r="AC153">
         <v>10</v>
       </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15524,6 +15985,9 @@
       <c r="AC154">
         <v>5</v>
       </c>
+      <c r="AD154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15621,6 +16085,9 @@
       <c r="AC155">
         <v>31</v>
       </c>
+      <c r="AD155">
+        <v>32</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15718,6 +16185,9 @@
       <c r="AC156">
         <v>2</v>
       </c>
+      <c r="AD156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15815,6 +16285,9 @@
       <c r="AC157">
         <v>1</v>
       </c>
+      <c r="AD157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -15912,6 +16385,9 @@
       <c r="AC158">
         <v>2</v>
       </c>
+      <c r="AD158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16009,6 +16485,9 @@
       <c r="AC159">
         <v>6</v>
       </c>
+      <c r="AD159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16106,6 +16585,9 @@
       <c r="AC160">
         <v>9</v>
       </c>
+      <c r="AD160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16203,6 +16685,9 @@
       <c r="AC161">
         <v>1</v>
       </c>
+      <c r="AD161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16300,6 +16785,9 @@
       <c r="AC162">
         <v>78</v>
       </c>
+      <c r="AD162">
+        <v>78</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -16397,6 +16885,9 @@
       <c r="AC163">
         <v>31</v>
       </c>
+      <c r="AD163">
+        <v>32</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16494,6 +16985,9 @@
       <c r="AC164">
         <v>15</v>
       </c>
+      <c r="AD164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16591,6 +17085,9 @@
       <c r="AC165">
         <v>57</v>
       </c>
+      <c r="AD165">
+        <v>57</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16688,6 +17185,9 @@
       <c r="AC166">
         <v>11</v>
       </c>
+      <c r="AD166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16785,6 +17285,9 @@
       <c r="AC167">
         <v>33</v>
       </c>
+      <c r="AD167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -16882,6 +17385,9 @@
       <c r="AC168">
         <v>0</v>
       </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -16979,6 +17485,9 @@
       <c r="AC169">
         <v>17</v>
       </c>
+      <c r="AD169">
+        <v>17</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17076,6 +17585,9 @@
       <c r="AC170">
         <v>4</v>
       </c>
+      <c r="AD170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17173,6 +17685,9 @@
       <c r="AC171">
         <v>5</v>
       </c>
+      <c r="AD171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17270,6 +17785,9 @@
       <c r="AC172">
         <v>3</v>
       </c>
+      <c r="AD172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17367,6 +17885,9 @@
       <c r="AC173">
         <v>3</v>
       </c>
+      <c r="AD173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17464,6 +17985,9 @@
       <c r="AC174">
         <v>14</v>
       </c>
+      <c r="AD174">
+        <v>15</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17561,6 +18085,9 @@
       <c r="AC175">
         <v>2</v>
       </c>
+      <c r="AD175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17658,6 +18185,9 @@
       <c r="AC176">
         <v>4</v>
       </c>
+      <c r="AD176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17755,6 +18285,9 @@
       <c r="AC177">
         <v>0</v>
       </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17852,6 +18385,9 @@
       <c r="AC178">
         <v>0</v>
       </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17949,6 +18485,9 @@
       <c r="AC179">
         <v>2</v>
       </c>
+      <c r="AD179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18046,6 +18585,9 @@
       <c r="AC180">
         <v>0</v>
       </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18143,6 +18685,9 @@
       <c r="AC181">
         <v>0</v>
       </c>
+      <c r="AD181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18240,6 +18785,9 @@
       <c r="AC182">
         <v>1</v>
       </c>
+      <c r="AD182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -18337,6 +18885,9 @@
       <c r="AC183">
         <v>0</v>
       </c>
+      <c r="AD183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -18434,6 +18985,9 @@
       <c r="AC184">
         <v>1</v>
       </c>
+      <c r="AD184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -18531,6 +19085,9 @@
       <c r="AC185">
         <v>5</v>
       </c>
+      <c r="AD185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18628,6 +19185,9 @@
       <c r="AC186">
         <v>2</v>
       </c>
+      <c r="AD186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18725,6 +19285,9 @@
       <c r="AC187">
         <v>1</v>
       </c>
+      <c r="AD187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18822,6 +19385,9 @@
       <c r="AC188">
         <v>3</v>
       </c>
+      <c r="AD188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18919,6 +19485,9 @@
       <c r="AC189">
         <v>2</v>
       </c>
+      <c r="AD189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19016,6 +19585,9 @@
       <c r="AC190">
         <v>13</v>
       </c>
+      <c r="AD190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19113,6 +19685,9 @@
       <c r="AC191">
         <v>36</v>
       </c>
+      <c r="AD191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19210,6 +19785,9 @@
       <c r="AC192">
         <v>1</v>
       </c>
+      <c r="AD192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -19307,6 +19885,9 @@
       <c r="AC193">
         <v>8</v>
       </c>
+      <c r="AD193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -19404,6 +19985,9 @@
       <c r="AC194">
         <v>2</v>
       </c>
+      <c r="AD194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -19501,6 +20085,9 @@
       <c r="AC195">
         <v>5</v>
       </c>
+      <c r="AD195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19598,6 +20185,9 @@
       <c r="AC196">
         <v>4</v>
       </c>
+      <c r="AD196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19695,6 +20285,9 @@
       <c r="AC197">
         <v>10</v>
       </c>
+      <c r="AD197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19792,6 +20385,9 @@
       <c r="AC198">
         <v>9</v>
       </c>
+      <c r="AD198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -19889,6 +20485,9 @@
       <c r="AC199">
         <v>2</v>
       </c>
+      <c r="AD199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -19986,6 +20585,9 @@
       <c r="AC200">
         <v>1</v>
       </c>
+      <c r="AD200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20083,6 +20685,9 @@
       <c r="AC201">
         <v>0</v>
       </c>
+      <c r="AD201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -20180,6 +20785,9 @@
       <c r="AC202">
         <v>1</v>
       </c>
+      <c r="AD202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -20277,6 +20885,9 @@
       <c r="AC203">
         <v>9</v>
       </c>
+      <c r="AD203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -20374,6 +20985,9 @@
       <c r="AC204">
         <v>0</v>
       </c>
+      <c r="AD204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -20471,6 +21085,9 @@
       <c r="AC205">
         <v>0</v>
       </c>
+      <c r="AD205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -20568,6 +21185,9 @@
       <c r="AC206">
         <v>0</v>
       </c>
+      <c r="AD206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20665,6 +21285,9 @@
       <c r="AC207">
         <v>24</v>
       </c>
+      <c r="AD207">
+        <v>24</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20762,6 +21385,9 @@
       <c r="AC208">
         <v>18</v>
       </c>
+      <c r="AD208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -20859,6 +21485,9 @@
       <c r="AC209">
         <v>55</v>
       </c>
+      <c r="AD209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -20956,6 +21585,9 @@
       <c r="AC210">
         <v>37</v>
       </c>
+      <c r="AD210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21053,6 +21685,9 @@
       <c r="AC211">
         <v>28</v>
       </c>
+      <c r="AD211">
+        <v>28</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -21150,6 +21785,9 @@
       <c r="AC212">
         <v>8</v>
       </c>
+      <c r="AD212">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -21247,6 +21885,9 @@
       <c r="AC213">
         <v>38</v>
       </c>
+      <c r="AD213">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -21344,6 +21985,9 @@
       <c r="AC214">
         <v>4</v>
       </c>
+      <c r="AD214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -21441,6 +22085,9 @@
       <c r="AC215">
         <v>21</v>
       </c>
+      <c r="AD215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -21538,6 +22185,9 @@
       <c r="AC216">
         <v>2</v>
       </c>
+      <c r="AD216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -21635,6 +22285,9 @@
       <c r="AC217">
         <v>5</v>
       </c>
+      <c r="AD217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21732,6 +22385,9 @@
       <c r="AC218">
         <v>1</v>
       </c>
+      <c r="AD218">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -21829,6 +22485,9 @@
       <c r="AC219">
         <v>1</v>
       </c>
+      <c r="AD219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -21926,6 +22585,9 @@
       <c r="AC220">
         <v>2</v>
       </c>
+      <c r="AD220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22023,6 +22685,9 @@
       <c r="AC221">
         <v>0</v>
       </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22120,6 +22785,9 @@
       <c r="AC222">
         <v>1</v>
       </c>
+      <c r="AD222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -22217,6 +22885,9 @@
       <c r="AC223">
         <v>0</v>
       </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -22314,6 +22985,9 @@
       <c r="AC224">
         <v>0</v>
       </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -22411,6 +23085,9 @@
       <c r="AC225">
         <v>0</v>
       </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -22508,6 +23185,9 @@
       <c r="AC226">
         <v>0</v>
       </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -22605,6 +23285,9 @@
       <c r="AC227">
         <v>0</v>
       </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -22702,6 +23385,9 @@
       <c r="AC228">
         <v>0</v>
       </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -22799,6 +23485,9 @@
       <c r="AC229">
         <v>2</v>
       </c>
+      <c r="AD229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -22896,6 +23585,9 @@
       <c r="AC230">
         <v>0</v>
       </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -22993,6 +23685,9 @@
       <c r="AC231">
         <v>1</v>
       </c>
+      <c r="AD231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23090,6 +23785,9 @@
       <c r="AC232">
         <v>25</v>
       </c>
+      <c r="AD232">
+        <v>26</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -23187,6 +23885,9 @@
       <c r="AC233">
         <v>178</v>
       </c>
+      <c r="AD233">
+        <v>180</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -23284,6 +23985,9 @@
       <c r="AC234">
         <v>9</v>
       </c>
+      <c r="AD234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -23381,6 +24085,9 @@
       <c r="AC235">
         <v>11</v>
       </c>
+      <c r="AD235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -23478,6 +24185,9 @@
       <c r="AC236">
         <v>0</v>
       </c>
+      <c r="AD236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -23575,6 +24285,9 @@
       <c r="AC237">
         <v>2</v>
       </c>
+      <c r="AD237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -23672,6 +24385,9 @@
       <c r="AC238">
         <v>0</v>
       </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -23769,6 +24485,9 @@
       <c r="AC239">
         <v>0</v>
       </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -23866,6 +24585,9 @@
       <c r="AC240">
         <v>2</v>
       </c>
+      <c r="AD240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -23963,6 +24685,9 @@
       <c r="AC241">
         <v>7</v>
       </c>
+      <c r="AD241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -24060,6 +24785,9 @@
       <c r="AC242">
         <v>3</v>
       </c>
+      <c r="AD242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -24157,6 +24885,9 @@
       <c r="AC243">
         <v>1</v>
       </c>
+      <c r="AD243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -24254,6 +24985,9 @@
       <c r="AC244">
         <v>1</v>
       </c>
+      <c r="AD244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -24351,6 +25085,9 @@
       <c r="AC245">
         <v>2</v>
       </c>
+      <c r="AD245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -24448,6 +25185,9 @@
       <c r="AC246">
         <v>2</v>
       </c>
+      <c r="AD246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -24545,6 +25285,9 @@
       <c r="AC247">
         <v>0</v>
       </c>
+      <c r="AD247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -24642,6 +25385,9 @@
       <c r="AC248">
         <v>3</v>
       </c>
+      <c r="AD248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -24739,6 +25485,9 @@
       <c r="AC249">
         <v>9</v>
       </c>
+      <c r="AD249">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -24836,6 +25585,9 @@
       <c r="AC250">
         <v>0</v>
       </c>
+      <c r="AD250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -24933,6 +25685,9 @@
       <c r="AC251">
         <v>4</v>
       </c>
+      <c r="AD251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -25030,6 +25785,9 @@
       <c r="AC252">
         <v>1</v>
       </c>
+      <c r="AD252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -25127,6 +25885,9 @@
       <c r="AC253">
         <v>1</v>
       </c>
+      <c r="AD253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -25224,6 +25985,9 @@
       <c r="AC254">
         <v>1</v>
       </c>
+      <c r="AD254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -25331,6 +26095,9 @@
       <c r="AC255">
         <v>12</v>
       </c>
+      <c r="AD255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -25438,6 +26205,9 @@
       <c r="AC256">
         <v>64</v>
       </c>
+      <c r="AD256">
+        <v>64</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -25545,6 +26315,9 @@
       <c r="AC257">
         <v>48</v>
       </c>
+      <c r="AD257">
+        <v>50</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -25652,6 +26425,9 @@
       <c r="AC258">
         <v>50</v>
       </c>
+      <c r="AD258">
+        <v>53</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -25759,6 +26535,9 @@
       <c r="AC259">
         <v>50</v>
       </c>
+      <c r="AD259">
+        <v>53</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -25866,6 +26645,9 @@
       <c r="AC260">
         <v>34</v>
       </c>
+      <c r="AD260">
+        <v>36</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -25973,6 +26755,9 @@
       <c r="AC261">
         <v>76</v>
       </c>
+      <c r="AD261">
+        <v>79</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -26080,6 +26865,9 @@
       <c r="AC262">
         <v>43</v>
       </c>
+      <c r="AD262">
+        <v>43</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -26187,6 +26975,9 @@
       <c r="AC263">
         <v>46</v>
       </c>
+      <c r="AD263">
+        <v>47</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -26284,6 +27075,9 @@
       <c r="AC264">
         <v>8</v>
       </c>
+      <c r="AD264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -26381,6 +27175,9 @@
       <c r="AC265">
         <v>4</v>
       </c>
+      <c r="AD265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -26478,6 +27275,9 @@
       <c r="AC266">
         <v>4</v>
       </c>
+      <c r="AD266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -26575,6 +27375,9 @@
       <c r="AC267">
         <v>4</v>
       </c>
+      <c r="AD267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -26672,6 +27475,9 @@
       <c r="AC268">
         <v>6</v>
       </c>
+      <c r="AD268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -26769,6 +27575,9 @@
       <c r="AC269">
         <v>8</v>
       </c>
+      <c r="AD269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -26866,6 +27675,9 @@
       <c r="AC270">
         <v>0</v>
       </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -26963,6 +27775,9 @@
       <c r="AC271">
         <v>4</v>
       </c>
+      <c r="AD271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -27060,6 +27875,9 @@
       <c r="AC272">
         <v>0</v>
       </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -27157,6 +27975,9 @@
       <c r="AC273">
         <v>0</v>
       </c>
+      <c r="AD273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -27254,6 +28075,9 @@
       <c r="AC274">
         <v>2</v>
       </c>
+      <c r="AD274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -27351,6 +28175,9 @@
       <c r="AC275">
         <v>24</v>
       </c>
+      <c r="AD275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -27448,6 +28275,9 @@
       <c r="AC276">
         <v>9</v>
       </c>
+      <c r="AD276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -27545,6 +28375,9 @@
       <c r="AC277">
         <v>0</v>
       </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -27642,6 +28475,9 @@
       <c r="AC278">
         <v>17</v>
       </c>
+      <c r="AD278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -27739,6 +28575,9 @@
       <c r="AC279">
         <v>4</v>
       </c>
+      <c r="AD279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -27836,6 +28675,9 @@
       <c r="AC280">
         <v>43</v>
       </c>
+      <c r="AD280">
+        <v>43</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -27933,6 +28775,9 @@
       <c r="AC281">
         <v>30</v>
       </c>
+      <c r="AD281">
+        <v>30</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -28030,6 +28875,9 @@
       <c r="AC282">
         <v>1</v>
       </c>
+      <c r="AD282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -28127,6 +28975,9 @@
       <c r="AC283">
         <v>0</v>
       </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -28224,6 +29075,9 @@
       <c r="AC284">
         <v>9</v>
       </c>
+      <c r="AD284">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -28321,6 +29175,9 @@
       <c r="AC285">
         <v>19</v>
       </c>
+      <c r="AD285">
+        <v>19</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -28418,6 +29275,9 @@
       <c r="AC286">
         <v>0</v>
       </c>
+      <c r="AD286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -28515,6 +29375,9 @@
       <c r="AC287">
         <v>0</v>
       </c>
+      <c r="AD287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -28612,6 +29475,9 @@
       <c r="AC288">
         <v>0</v>
       </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -28709,6 +29575,9 @@
       <c r="AC289">
         <v>0</v>
       </c>
+      <c r="AD289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -28806,6 +29675,9 @@
       <c r="AC290">
         <v>3</v>
       </c>
+      <c r="AD290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -28903,6 +29775,9 @@
       <c r="AC291">
         <v>0</v>
       </c>
+      <c r="AD291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -29000,6 +29875,9 @@
       <c r="AC292">
         <v>3</v>
       </c>
+      <c r="AD292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -29097,6 +29975,9 @@
       <c r="AC293">
         <v>0</v>
       </c>
+      <c r="AD293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -29194,6 +30075,9 @@
       <c r="AC294">
         <v>7</v>
       </c>
+      <c r="AD294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -29291,6 +30175,9 @@
       <c r="AC295">
         <v>0</v>
       </c>
+      <c r="AD295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -29388,6 +30275,9 @@
       <c r="AC296">
         <v>0</v>
       </c>
+      <c r="AD296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -29485,6 +30375,9 @@
       <c r="AC297">
         <v>1</v>
       </c>
+      <c r="AD297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -29582,6 +30475,9 @@
       <c r="AC298">
         <v>4</v>
       </c>
+      <c r="AD298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -29679,6 +30575,9 @@
       <c r="AC299">
         <v>0</v>
       </c>
+      <c r="AD299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -29776,6 +30675,9 @@
       <c r="AC300">
         <v>0</v>
       </c>
+      <c r="AD300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -29873,6 +30775,9 @@
       <c r="AC301">
         <v>17</v>
       </c>
+      <c r="AD301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -29970,6 +30875,9 @@
       <c r="AC302">
         <v>0</v>
       </c>
+      <c r="AD302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -30067,6 +30975,9 @@
       <c r="AC303">
         <v>0</v>
       </c>
+      <c r="AD303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -30164,6 +31075,9 @@
       <c r="AC304">
         <v>4</v>
       </c>
+      <c r="AD304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -30261,6 +31175,9 @@
       <c r="AC305">
         <v>12</v>
       </c>
+      <c r="AD305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -30358,6 +31275,9 @@
       <c r="AC306">
         <v>212</v>
       </c>
+      <c r="AD306">
+        <v>214</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -30455,6 +31375,9 @@
       <c r="AC307">
         <v>16</v>
       </c>
+      <c r="AD307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -30552,6 +31475,9 @@
       <c r="AC308">
         <v>5</v>
       </c>
+      <c r="AD308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -30649,6 +31575,9 @@
       <c r="AC309">
         <v>0</v>
       </c>
+      <c r="AD309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -30746,6 +31675,9 @@
       <c r="AC310">
         <v>0</v>
       </c>
+      <c r="AD310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -30843,6 +31775,9 @@
       <c r="AC311">
         <v>8</v>
       </c>
+      <c r="AD311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -30940,6 +31875,9 @@
       <c r="AC312">
         <v>5</v>
       </c>
+      <c r="AD312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -31037,6 +31975,9 @@
       <c r="AC313">
         <v>0</v>
       </c>
+      <c r="AD313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -31134,6 +32075,9 @@
       <c r="AC314">
         <v>1</v>
       </c>
+      <c r="AD314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -31231,6 +32175,9 @@
       <c r="AC315">
         <v>7</v>
       </c>
+      <c r="AD315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -31328,6 +32275,9 @@
       <c r="AC316">
         <v>3</v>
       </c>
+      <c r="AD316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -31425,6 +32375,9 @@
       <c r="AC317">
         <v>5</v>
       </c>
+      <c r="AD317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -31522,6 +32475,9 @@
       <c r="AC318">
         <v>11</v>
       </c>
+      <c r="AD318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -31619,6 +32575,9 @@
       <c r="AC319">
         <v>6</v>
       </c>
+      <c r="AD319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -31716,6 +32675,9 @@
       <c r="AC320">
         <v>0</v>
       </c>
+      <c r="AD320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -31813,6 +32775,9 @@
       <c r="AC321">
         <v>1</v>
       </c>
+      <c r="AD321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -31910,6 +32875,9 @@
       <c r="AC322">
         <v>7</v>
       </c>
+      <c r="AD322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -32007,6 +32975,9 @@
       <c r="AC323">
         <v>28</v>
       </c>
+      <c r="AD323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -32104,6 +33075,9 @@
       <c r="AC324">
         <v>20</v>
       </c>
+      <c r="AD324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -32201,6 +33175,9 @@
       <c r="AC325">
         <v>15</v>
       </c>
+      <c r="AD325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -32298,6 +33275,9 @@
       <c r="AC326">
         <v>0</v>
       </c>
+      <c r="AD326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -32395,6 +33375,9 @@
       <c r="AC327">
         <v>0</v>
       </c>
+      <c r="AD327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -32492,6 +33475,9 @@
       <c r="AC328">
         <v>0</v>
       </c>
+      <c r="AD328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -32589,6 +33575,9 @@
       <c r="AC329">
         <v>0</v>
       </c>
+      <c r="AD329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -32686,6 +33675,9 @@
       <c r="AC330">
         <v>3</v>
       </c>
+      <c r="AD330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -32783,6 +33775,9 @@
       <c r="AC331">
         <v>1</v>
       </c>
+      <c r="AD331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -32880,6 +33875,9 @@
       <c r="AC332">
         <v>4</v>
       </c>
+      <c r="AD332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -32977,6 +33975,9 @@
       <c r="AC333">
         <v>0</v>
       </c>
+      <c r="AD333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -33074,6 +34075,9 @@
       <c r="AC334">
         <v>0</v>
       </c>
+      <c r="AD334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -33171,6 +34175,9 @@
       <c r="AC335">
         <v>7</v>
       </c>
+      <c r="AD335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -33268,6 +34275,9 @@
       <c r="AC336">
         <v>2</v>
       </c>
+      <c r="AD336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -33365,6 +34375,9 @@
       <c r="AC337">
         <v>2</v>
       </c>
+      <c r="AD337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -33462,6 +34475,9 @@
       <c r="AC338">
         <v>2</v>
       </c>
+      <c r="AD338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -33559,6 +34575,9 @@
       <c r="AC339">
         <v>10</v>
       </c>
+      <c r="AD339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -33656,6 +34675,9 @@
       <c r="AC340">
         <v>1</v>
       </c>
+      <c r="AD340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -33753,6 +34775,9 @@
       <c r="AC341">
         <v>17</v>
       </c>
+      <c r="AD341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -33850,6 +34875,9 @@
       <c r="AC342">
         <v>0</v>
       </c>
+      <c r="AD342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -33947,6 +34975,9 @@
       <c r="AC343">
         <v>0</v>
       </c>
+      <c r="AD343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -34044,6 +35075,9 @@
       <c r="AC344">
         <v>118</v>
       </c>
+      <c r="AD344">
+        <v>122</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -34141,6 +35175,9 @@
       <c r="AC345">
         <v>4</v>
       </c>
+      <c r="AD345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -34238,6 +35275,9 @@
       <c r="AC346">
         <v>5</v>
       </c>
+      <c r="AD346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -34335,6 +35375,9 @@
       <c r="AC347">
         <v>1</v>
       </c>
+      <c r="AD347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -34432,6 +35475,9 @@
       <c r="AC348">
         <v>3</v>
       </c>
+      <c r="AD348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -34529,6 +35575,9 @@
       <c r="AC349">
         <v>14</v>
       </c>
+      <c r="AD349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -34626,6 +35675,9 @@
       <c r="AC350">
         <v>1</v>
       </c>
+      <c r="AD350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -34723,6 +35775,9 @@
       <c r="AC351">
         <v>1</v>
       </c>
+      <c r="AD351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -34820,6 +35875,9 @@
       <c r="AC352">
         <v>0</v>
       </c>
+      <c r="AD352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -34917,6 +35975,9 @@
       <c r="AC353">
         <v>0</v>
       </c>
+      <c r="AD353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -35014,6 +36075,9 @@
       <c r="AC354">
         <v>3</v>
       </c>
+      <c r="AD354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -35111,6 +36175,9 @@
       <c r="AC355">
         <v>1</v>
       </c>
+      <c r="AD355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -35208,6 +36275,9 @@
       <c r="AC356">
         <v>2</v>
       </c>
+      <c r="AD356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -35305,6 +36375,9 @@
       <c r="AC357">
         <v>0</v>
       </c>
+      <c r="AD357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -35402,6 +36475,9 @@
       <c r="AC358">
         <v>0</v>
       </c>
+      <c r="AD358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -35499,6 +36575,9 @@
       <c r="AC359">
         <v>0</v>
       </c>
+      <c r="AD359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -35596,6 +36675,9 @@
       <c r="AC360">
         <v>16</v>
       </c>
+      <c r="AD360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -35693,6 +36775,9 @@
       <c r="AC361">
         <v>2</v>
       </c>
+      <c r="AD361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -35790,6 +36875,9 @@
       <c r="AC362">
         <v>1</v>
       </c>
+      <c r="AD362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -35887,6 +36975,9 @@
       <c r="AC363">
         <v>2</v>
       </c>
+      <c r="AD363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -35984,6 +37075,9 @@
       <c r="AC364">
         <v>0</v>
       </c>
+      <c r="AD364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -36081,6 +37175,9 @@
       <c r="AC365">
         <v>0</v>
       </c>
+      <c r="AD365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -36178,6 +37275,9 @@
       <c r="AC366">
         <v>1</v>
       </c>
+      <c r="AD366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -36275,6 +37375,9 @@
       <c r="AC367">
         <v>2</v>
       </c>
+      <c r="AD367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -36372,6 +37475,9 @@
       <c r="AC368">
         <v>0</v>
       </c>
+      <c r="AD368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -36469,6 +37575,9 @@
       <c r="AC369">
         <v>1</v>
       </c>
+      <c r="AD369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -36566,6 +37675,9 @@
       <c r="AC370">
         <v>0</v>
       </c>
+      <c r="AD370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -36663,6 +37775,9 @@
       <c r="AC371">
         <v>0</v>
       </c>
+      <c r="AD371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -36760,6 +37875,9 @@
       <c r="AC372">
         <v>2</v>
       </c>
+      <c r="AD372">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -36857,6 +37975,9 @@
       <c r="AC373">
         <v>2</v>
       </c>
+      <c r="AD373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -36954,6 +38075,9 @@
       <c r="AC374">
         <v>4</v>
       </c>
+      <c r="AD374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -37051,6 +38175,9 @@
       <c r="AC375">
         <v>1</v>
       </c>
+      <c r="AD375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -37148,6 +38275,9 @@
       <c r="AC376">
         <v>0</v>
       </c>
+      <c r="AD376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -37245,6 +38375,9 @@
       <c r="AC377">
         <v>0</v>
       </c>
+      <c r="AD377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -37342,6 +38475,9 @@
       <c r="AC378">
         <v>0</v>
       </c>
+      <c r="AD378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -37439,6 +38575,9 @@
       <c r="AC379">
         <v>1</v>
       </c>
+      <c r="AD379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -37536,6 +38675,9 @@
       <c r="AC380">
         <v>1</v>
       </c>
+      <c r="AD380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -37633,6 +38775,9 @@
       <c r="AC381">
         <v>0</v>
       </c>
+      <c r="AD381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -37730,6 +38875,9 @@
       <c r="AC382">
         <v>4</v>
       </c>
+      <c r="AD382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -37827,6 +38975,9 @@
       <c r="AC383">
         <v>0</v>
       </c>
+      <c r="AD383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -37923,6 +39074,9 @@
       </c>
       <c r="AC384">
         <v>6</v>
+      </c>
+      <c r="AD384">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD384"/>
+  <dimension ref="A1:AE384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,6 +508,11 @@
           <t>2020-04-14</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,6 +623,9 @@
       <c r="AD2">
         <v>199</v>
       </c>
+      <c r="AE2">
+        <v>202</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -728,6 +736,9 @@
       <c r="AD3">
         <v>141</v>
       </c>
+      <c r="AE3">
+        <v>143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -838,6 +849,9 @@
       <c r="AD4">
         <v>117</v>
       </c>
+      <c r="AE4">
+        <v>119</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -948,6 +962,9 @@
       <c r="AD5">
         <v>78</v>
       </c>
+      <c r="AE5">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1058,6 +1075,9 @@
       <c r="AD6">
         <v>146</v>
       </c>
+      <c r="AE6">
+        <v>148</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1168,6 +1188,9 @@
       <c r="AD7">
         <v>104</v>
       </c>
+      <c r="AE7">
+        <v>104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1278,6 +1301,9 @@
       <c r="AD8">
         <v>132</v>
       </c>
+      <c r="AE8">
+        <v>135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1388,6 +1414,9 @@
       <c r="AD9">
         <v>117</v>
       </c>
+      <c r="AE9">
+        <v>117</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1498,6 +1527,9 @@
       <c r="AD10">
         <v>78</v>
       </c>
+      <c r="AE10">
+        <v>81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1608,6 +1640,9 @@
       <c r="AD11">
         <v>80</v>
       </c>
+      <c r="AE11">
+        <v>80</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1718,6 +1753,9 @@
       <c r="AD12">
         <v>143</v>
       </c>
+      <c r="AE12">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1828,6 +1866,9 @@
       <c r="AD13">
         <v>179</v>
       </c>
+      <c r="AE13">
+        <v>180</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1938,6 +1979,9 @@
       <c r="AD14">
         <v>152</v>
       </c>
+      <c r="AE14">
+        <v>153</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2048,6 +2092,9 @@
       <c r="AD15">
         <v>139</v>
       </c>
+      <c r="AE15">
+        <v>139</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2158,6 +2205,9 @@
       <c r="AD16">
         <v>114</v>
       </c>
+      <c r="AE16">
+        <v>116</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2268,6 +2318,9 @@
       <c r="AD17">
         <v>4</v>
       </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2378,6 +2431,9 @@
       <c r="AD18">
         <v>2</v>
       </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2488,6 +2544,9 @@
       <c r="AD19">
         <v>35</v>
       </c>
+      <c r="AE19">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2588,6 +2647,9 @@
       <c r="AD20">
         <v>14</v>
       </c>
+      <c r="AE20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2688,6 +2750,9 @@
       <c r="AD21">
         <v>125</v>
       </c>
+      <c r="AE21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2788,6 +2853,9 @@
       <c r="AD22">
         <v>49</v>
       </c>
+      <c r="AE22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2888,6 +2956,9 @@
       <c r="AD23">
         <v>46</v>
       </c>
+      <c r="AE23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2988,6 +3059,9 @@
       <c r="AD24">
         <v>3</v>
       </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3088,6 +3162,9 @@
       <c r="AD25">
         <v>0</v>
       </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3188,6 +3265,9 @@
       <c r="AD26">
         <v>0</v>
       </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3288,6 +3368,9 @@
       <c r="AD27">
         <v>6</v>
       </c>
+      <c r="AE27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3388,6 +3471,9 @@
       <c r="AD28">
         <v>6</v>
       </c>
+      <c r="AE28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3488,6 +3574,9 @@
       <c r="AD29">
         <v>12</v>
       </c>
+      <c r="AE29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3588,6 +3677,9 @@
       <c r="AD30">
         <v>12</v>
       </c>
+      <c r="AE30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3688,6 +3780,9 @@
       <c r="AD31">
         <v>13</v>
       </c>
+      <c r="AE31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3788,6 +3883,9 @@
       <c r="AD32">
         <v>11</v>
       </c>
+      <c r="AE32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3888,6 +3986,9 @@
       <c r="AD33">
         <v>13</v>
       </c>
+      <c r="AE33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4089,9 @@
       <c r="AD34">
         <v>0</v>
       </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4088,6 +4192,9 @@
       <c r="AD35">
         <v>0</v>
       </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4188,6 +4295,9 @@
       <c r="AD36">
         <v>3</v>
       </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4288,6 +4398,9 @@
       <c r="AD37">
         <v>0</v>
       </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4388,6 +4501,9 @@
       <c r="AD38">
         <v>1</v>
       </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4488,6 +4604,9 @@
       <c r="AD39">
         <v>20</v>
       </c>
+      <c r="AE39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4588,6 +4707,9 @@
       <c r="AD40">
         <v>36</v>
       </c>
+      <c r="AE40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4688,6 +4810,9 @@
       <c r="AD41">
         <v>0</v>
       </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4788,6 +4913,9 @@
       <c r="AD42">
         <v>11</v>
       </c>
+      <c r="AE42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4888,6 +5016,9 @@
       <c r="AD43">
         <v>18</v>
       </c>
+      <c r="AE43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4988,6 +5119,9 @@
       <c r="AD44">
         <v>14</v>
       </c>
+      <c r="AE44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5088,6 +5222,9 @@
       <c r="AD45">
         <v>26</v>
       </c>
+      <c r="AE45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5188,6 +5325,9 @@
       <c r="AD46">
         <v>1</v>
       </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5288,6 +5428,9 @@
       <c r="AD47">
         <v>3</v>
       </c>
+      <c r="AE47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5388,6 +5531,9 @@
       <c r="AD48">
         <v>3</v>
       </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5488,6 +5634,9 @@
       <c r="AD49">
         <v>7</v>
       </c>
+      <c r="AE49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5588,6 +5737,9 @@
       <c r="AD50">
         <v>2</v>
       </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5688,6 +5840,9 @@
       <c r="AD51">
         <v>6</v>
       </c>
+      <c r="AE51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5788,6 +5943,9 @@
       <c r="AD52">
         <v>0</v>
       </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5888,6 +6046,9 @@
       <c r="AD53">
         <v>0</v>
       </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5988,6 +6149,9 @@
       <c r="AD54">
         <v>6</v>
       </c>
+      <c r="AE54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6088,6 +6252,9 @@
       <c r="AD55">
         <v>5</v>
       </c>
+      <c r="AE55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6188,6 +6355,9 @@
       <c r="AD56">
         <v>0</v>
       </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6288,6 +6458,9 @@
       <c r="AD57">
         <v>10</v>
       </c>
+      <c r="AE57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6388,6 +6561,9 @@
       <c r="AD58">
         <v>0</v>
       </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6488,6 +6664,9 @@
       <c r="AD59">
         <v>0</v>
       </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6588,6 +6767,9 @@
       <c r="AD60">
         <v>0</v>
       </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6688,6 +6870,9 @@
       <c r="AD61">
         <v>1</v>
       </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6788,6 +6973,9 @@
       <c r="AD62">
         <v>2</v>
       </c>
+      <c r="AE62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6888,6 +7076,9 @@
       <c r="AD63">
         <v>2</v>
       </c>
+      <c r="AE63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6988,6 +7179,9 @@
       <c r="AD64">
         <v>0</v>
       </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7088,6 +7282,9 @@
       <c r="AD65">
         <v>3</v>
       </c>
+      <c r="AE65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7188,6 +7385,9 @@
       <c r="AD66">
         <v>4</v>
       </c>
+      <c r="AE66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7288,6 +7488,9 @@
       <c r="AD67">
         <v>1</v>
       </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7388,6 +7591,9 @@
       <c r="AD68">
         <v>3</v>
       </c>
+      <c r="AE68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7488,6 +7694,9 @@
       <c r="AD69">
         <v>34</v>
       </c>
+      <c r="AE69">
+        <v>34</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7588,6 +7797,9 @@
       <c r="AD70">
         <v>3</v>
       </c>
+      <c r="AE70">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7688,6 +7900,9 @@
       <c r="AD71">
         <v>0</v>
       </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7788,6 +8003,9 @@
       <c r="AD72">
         <v>2</v>
       </c>
+      <c r="AE72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7888,6 +8106,9 @@
       <c r="AD73">
         <v>5</v>
       </c>
+      <c r="AE73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7988,6 +8209,9 @@
       <c r="AD74">
         <v>3</v>
       </c>
+      <c r="AE74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8088,6 +8312,9 @@
       <c r="AD75">
         <v>0</v>
       </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8188,6 +8415,9 @@
       <c r="AD76">
         <v>0</v>
       </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8288,6 +8518,9 @@
       <c r="AD77">
         <v>2</v>
       </c>
+      <c r="AE77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8388,6 +8621,9 @@
       <c r="AD78">
         <v>3</v>
       </c>
+      <c r="AE78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8488,6 +8724,9 @@
       <c r="AD79">
         <v>1</v>
       </c>
+      <c r="AE79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8588,6 +8827,9 @@
       <c r="AD80">
         <v>1</v>
       </c>
+      <c r="AE80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8688,6 +8930,9 @@
       <c r="AD81">
         <v>0</v>
       </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8788,6 +9033,9 @@
       <c r="AD82">
         <v>5</v>
       </c>
+      <c r="AE82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8888,6 +9136,9 @@
       <c r="AD83">
         <v>0</v>
       </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8988,6 +9239,9 @@
       <c r="AD84">
         <v>0</v>
       </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9088,6 +9342,9 @@
       <c r="AD85">
         <v>4</v>
       </c>
+      <c r="AE85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9188,6 +9445,9 @@
       <c r="AD86">
         <v>0</v>
       </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9288,6 +9548,9 @@
       <c r="AD87">
         <v>0</v>
       </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9388,6 +9651,9 @@
       <c r="AD88">
         <v>0</v>
       </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9488,6 +9754,9 @@
       <c r="AD89">
         <v>5</v>
       </c>
+      <c r="AE89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9588,6 +9857,9 @@
       <c r="AD90">
         <v>0</v>
       </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9688,6 +9960,9 @@
       <c r="AD91">
         <v>0</v>
       </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9788,6 +10063,9 @@
       <c r="AD92">
         <v>0</v>
       </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9888,6 +10166,9 @@
       <c r="AD93">
         <v>1</v>
       </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9988,6 +10269,9 @@
       <c r="AD94">
         <v>0</v>
       </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10088,6 +10372,9 @@
       <c r="AD95">
         <v>1</v>
       </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10188,6 +10475,9 @@
       <c r="AD96">
         <v>0</v>
       </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10288,6 +10578,9 @@
       <c r="AD97">
         <v>0</v>
       </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10388,6 +10681,9 @@
       <c r="AD98">
         <v>0</v>
       </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10488,6 +10784,9 @@
       <c r="AD99">
         <v>0</v>
       </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10588,6 +10887,9 @@
       <c r="AD100">
         <v>4</v>
       </c>
+      <c r="AE100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10688,6 +10990,9 @@
       <c r="AD101">
         <v>7</v>
       </c>
+      <c r="AE101">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10788,6 +11093,9 @@
       <c r="AD102">
         <v>3</v>
       </c>
+      <c r="AE102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10888,6 +11196,9 @@
       <c r="AD103">
         <v>5</v>
       </c>
+      <c r="AE103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10988,6 +11299,9 @@
       <c r="AD104">
         <v>0</v>
       </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11088,6 +11402,9 @@
       <c r="AD105">
         <v>0</v>
       </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11188,6 +11505,9 @@
       <c r="AD106">
         <v>6</v>
       </c>
+      <c r="AE106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11288,6 +11608,9 @@
       <c r="AD107">
         <v>0</v>
       </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11388,6 +11711,9 @@
       <c r="AD108">
         <v>0</v>
       </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11488,6 +11814,9 @@
       <c r="AD109">
         <v>0</v>
       </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11588,6 +11917,9 @@
       <c r="AD110">
         <v>28</v>
       </c>
+      <c r="AE110">
+        <v>28</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11688,6 +12020,9 @@
       <c r="AD111">
         <v>85</v>
       </c>
+      <c r="AE111">
+        <v>89</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11788,6 +12123,9 @@
       <c r="AD112">
         <v>54</v>
       </c>
+      <c r="AE112">
+        <v>53</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11888,6 +12226,9 @@
       <c r="AD113">
         <v>74</v>
       </c>
+      <c r="AE113">
+        <v>79</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11988,6 +12329,9 @@
       <c r="AD114">
         <v>155</v>
       </c>
+      <c r="AE114">
+        <v>156</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12088,6 +12432,9 @@
       <c r="AD115">
         <v>20</v>
       </c>
+      <c r="AE115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12188,6 +12535,9 @@
       <c r="AD116">
         <v>9</v>
       </c>
+      <c r="AE116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12288,6 +12638,9 @@
       <c r="AD117">
         <v>2</v>
       </c>
+      <c r="AE117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12388,6 +12741,9 @@
       <c r="AD118">
         <v>2</v>
       </c>
+      <c r="AE118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12488,6 +12844,9 @@
       <c r="AD119">
         <v>3</v>
       </c>
+      <c r="AE119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12588,6 +12947,9 @@
       <c r="AD120">
         <v>45</v>
       </c>
+      <c r="AE120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12688,6 +13050,9 @@
       <c r="AD121">
         <v>2</v>
       </c>
+      <c r="AE121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12788,6 +13153,9 @@
       <c r="AD122">
         <v>1</v>
       </c>
+      <c r="AE122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12888,6 +13256,9 @@
       <c r="AD123">
         <v>2</v>
       </c>
+      <c r="AE123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12988,6 +13359,9 @@
       <c r="AD124">
         <v>6</v>
       </c>
+      <c r="AE124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13088,6 +13462,9 @@
       <c r="AD125">
         <v>22</v>
       </c>
+      <c r="AE125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13188,6 +13565,9 @@
       <c r="AD126">
         <v>89</v>
       </c>
+      <c r="AE126">
+        <v>89</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13288,6 +13668,9 @@
       <c r="AD127">
         <v>17</v>
       </c>
+      <c r="AE127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13388,6 +13771,9 @@
       <c r="AD128">
         <v>18</v>
       </c>
+      <c r="AE128">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13488,6 +13874,9 @@
       <c r="AD129">
         <v>44</v>
       </c>
+      <c r="AE129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13588,6 +13977,9 @@
       <c r="AD130">
         <v>373</v>
       </c>
+      <c r="AE130">
+        <v>383</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13688,6 +14080,9 @@
       <c r="AD131">
         <v>152</v>
       </c>
+      <c r="AE131">
+        <v>153</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13788,6 +14183,9 @@
       <c r="AD132">
         <v>8</v>
       </c>
+      <c r="AE132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13888,6 +14286,9 @@
       <c r="AD133">
         <v>19</v>
       </c>
+      <c r="AE133">
+        <v>21</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13988,6 +14389,9 @@
       <c r="AD134">
         <v>43</v>
       </c>
+      <c r="AE134">
+        <v>43</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14088,6 +14492,9 @@
       <c r="AD135">
         <v>76</v>
       </c>
+      <c r="AE135">
+        <v>76</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14188,6 +14595,9 @@
       <c r="AD136">
         <v>134</v>
       </c>
+      <c r="AE136">
+        <v>135</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14288,6 +14698,9 @@
       <c r="AD137">
         <v>45</v>
       </c>
+      <c r="AE137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14388,6 +14801,9 @@
       <c r="AD138">
         <v>8</v>
       </c>
+      <c r="AE138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14488,6 +14904,9 @@
       <c r="AD139">
         <v>52</v>
       </c>
+      <c r="AE139">
+        <v>52</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14588,6 +15007,9 @@
       <c r="AD140">
         <v>13</v>
       </c>
+      <c r="AE140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14688,6 +15110,9 @@
       <c r="AD141">
         <v>29</v>
       </c>
+      <c r="AE141">
+        <v>30</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14788,6 +15213,9 @@
       <c r="AD142">
         <v>17</v>
       </c>
+      <c r="AE142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14888,6 +15316,9 @@
       <c r="AD143">
         <v>2</v>
       </c>
+      <c r="AE143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14988,6 +15419,9 @@
       <c r="AD144">
         <v>10</v>
       </c>
+      <c r="AE144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15088,6 +15522,9 @@
       <c r="AD145">
         <v>1</v>
       </c>
+      <c r="AE145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15188,6 +15625,9 @@
       <c r="AD146">
         <v>7</v>
       </c>
+      <c r="AE146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15288,6 +15728,9 @@
       <c r="AD147">
         <v>10</v>
       </c>
+      <c r="AE147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15388,6 +15831,9 @@
       <c r="AD148">
         <v>8</v>
       </c>
+      <c r="AE148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15488,6 +15934,9 @@
       <c r="AD149">
         <v>13</v>
       </c>
+      <c r="AE149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15588,6 +16037,9 @@
       <c r="AD150">
         <v>44</v>
       </c>
+      <c r="AE150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15688,6 +16140,9 @@
       <c r="AD151">
         <v>0</v>
       </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15788,6 +16243,9 @@
       <c r="AD152">
         <v>0</v>
       </c>
+      <c r="AE152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15888,6 +16346,9 @@
       <c r="AD153">
         <v>10</v>
       </c>
+      <c r="AE153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15988,6 +16449,9 @@
       <c r="AD154">
         <v>5</v>
       </c>
+      <c r="AE154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16088,6 +16552,9 @@
       <c r="AD155">
         <v>32</v>
       </c>
+      <c r="AE155">
+        <v>32</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16188,6 +16655,9 @@
       <c r="AD156">
         <v>3</v>
       </c>
+      <c r="AE156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16288,6 +16758,9 @@
       <c r="AD157">
         <v>1</v>
       </c>
+      <c r="AE157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16388,6 +16861,9 @@
       <c r="AD158">
         <v>2</v>
       </c>
+      <c r="AE158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16488,6 +16964,9 @@
       <c r="AD159">
         <v>6</v>
       </c>
+      <c r="AE159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16588,6 +17067,9 @@
       <c r="AD160">
         <v>9</v>
       </c>
+      <c r="AE160">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16688,6 +17170,9 @@
       <c r="AD161">
         <v>1</v>
       </c>
+      <c r="AE161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16788,6 +17273,9 @@
       <c r="AD162">
         <v>78</v>
       </c>
+      <c r="AE162">
+        <v>79</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -16888,6 +17376,9 @@
       <c r="AD163">
         <v>32</v>
       </c>
+      <c r="AE163">
+        <v>32</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16988,6 +17479,9 @@
       <c r="AD164">
         <v>15</v>
       </c>
+      <c r="AE164">
+        <v>15</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17088,6 +17582,9 @@
       <c r="AD165">
         <v>57</v>
       </c>
+      <c r="AE165">
+        <v>57</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17188,6 +17685,9 @@
       <c r="AD166">
         <v>11</v>
       </c>
+      <c r="AE166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17288,6 +17788,9 @@
       <c r="AD167">
         <v>33</v>
       </c>
+      <c r="AE167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17388,6 +17891,9 @@
       <c r="AD168">
         <v>0</v>
       </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17488,6 +17994,9 @@
       <c r="AD169">
         <v>17</v>
       </c>
+      <c r="AE169">
+        <v>17</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17588,6 +18097,9 @@
       <c r="AD170">
         <v>4</v>
       </c>
+      <c r="AE170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17688,6 +18200,9 @@
       <c r="AD171">
         <v>5</v>
       </c>
+      <c r="AE171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17788,6 +18303,9 @@
       <c r="AD172">
         <v>3</v>
       </c>
+      <c r="AE172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17888,6 +18406,9 @@
       <c r="AD173">
         <v>3</v>
       </c>
+      <c r="AE173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17988,6 +18509,9 @@
       <c r="AD174">
         <v>15</v>
       </c>
+      <c r="AE174">
+        <v>15</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18088,6 +18612,9 @@
       <c r="AD175">
         <v>2</v>
       </c>
+      <c r="AE175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18188,6 +18715,9 @@
       <c r="AD176">
         <v>4</v>
       </c>
+      <c r="AE176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18288,6 +18818,9 @@
       <c r="AD177">
         <v>0</v>
       </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18388,6 +18921,9 @@
       <c r="AD178">
         <v>0</v>
       </c>
+      <c r="AE178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18488,6 +19024,9 @@
       <c r="AD179">
         <v>2</v>
       </c>
+      <c r="AE179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18588,6 +19127,9 @@
       <c r="AD180">
         <v>0</v>
       </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18688,6 +19230,9 @@
       <c r="AD181">
         <v>0</v>
       </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18788,6 +19333,9 @@
       <c r="AD182">
         <v>1</v>
       </c>
+      <c r="AE182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -18888,6 +19436,9 @@
       <c r="AD183">
         <v>0</v>
       </c>
+      <c r="AE183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -18988,6 +19539,9 @@
       <c r="AD184">
         <v>1</v>
       </c>
+      <c r="AE184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19088,6 +19642,9 @@
       <c r="AD185">
         <v>5</v>
       </c>
+      <c r="AE185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19188,6 +19745,9 @@
       <c r="AD186">
         <v>2</v>
       </c>
+      <c r="AE186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19288,6 +19848,9 @@
       <c r="AD187">
         <v>1</v>
       </c>
+      <c r="AE187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19388,6 +19951,9 @@
       <c r="AD188">
         <v>3</v>
       </c>
+      <c r="AE188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19488,6 +20054,9 @@
       <c r="AD189">
         <v>2</v>
       </c>
+      <c r="AE189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19588,6 +20157,9 @@
       <c r="AD190">
         <v>13</v>
       </c>
+      <c r="AE190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19688,6 +20260,9 @@
       <c r="AD191">
         <v>36</v>
       </c>
+      <c r="AE191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19788,6 +20363,9 @@
       <c r="AD192">
         <v>1</v>
       </c>
+      <c r="AE192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -19888,6 +20466,9 @@
       <c r="AD193">
         <v>8</v>
       </c>
+      <c r="AE193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -19988,6 +20569,9 @@
       <c r="AD194">
         <v>2</v>
       </c>
+      <c r="AE194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20088,6 +20672,9 @@
       <c r="AD195">
         <v>5</v>
       </c>
+      <c r="AE195">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20188,6 +20775,9 @@
       <c r="AD196">
         <v>4</v>
       </c>
+      <c r="AE196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20288,6 +20878,9 @@
       <c r="AD197">
         <v>10</v>
       </c>
+      <c r="AE197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20388,6 +20981,9 @@
       <c r="AD198">
         <v>9</v>
       </c>
+      <c r="AE198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20488,6 +21084,9 @@
       <c r="AD199">
         <v>2</v>
       </c>
+      <c r="AE199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20588,6 +21187,9 @@
       <c r="AD200">
         <v>1</v>
       </c>
+      <c r="AE200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20688,6 +21290,9 @@
       <c r="AD201">
         <v>0</v>
       </c>
+      <c r="AE201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -20788,6 +21393,9 @@
       <c r="AD202">
         <v>1</v>
       </c>
+      <c r="AE202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -20888,6 +21496,9 @@
       <c r="AD203">
         <v>9</v>
       </c>
+      <c r="AE203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -20988,6 +21599,9 @@
       <c r="AD204">
         <v>0</v>
       </c>
+      <c r="AE204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21088,6 +21702,9 @@
       <c r="AD205">
         <v>0</v>
       </c>
+      <c r="AE205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21188,6 +21805,9 @@
       <c r="AD206">
         <v>0</v>
       </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21288,6 +21908,9 @@
       <c r="AD207">
         <v>24</v>
       </c>
+      <c r="AE207">
+        <v>24</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21388,6 +22011,9 @@
       <c r="AD208">
         <v>18</v>
       </c>
+      <c r="AE208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -21488,6 +22114,9 @@
       <c r="AD209">
         <v>55</v>
       </c>
+      <c r="AE209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -21588,6 +22217,9 @@
       <c r="AD210">
         <v>37</v>
       </c>
+      <c r="AE210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21688,6 +22320,9 @@
       <c r="AD211">
         <v>28</v>
       </c>
+      <c r="AE211">
+        <v>28</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -21788,6 +22423,9 @@
       <c r="AD212">
         <v>8</v>
       </c>
+      <c r="AE212">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -21888,6 +22526,9 @@
       <c r="AD213">
         <v>38</v>
       </c>
+      <c r="AE213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -21988,6 +22629,9 @@
       <c r="AD214">
         <v>4</v>
       </c>
+      <c r="AE214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22088,6 +22732,9 @@
       <c r="AD215">
         <v>21</v>
       </c>
+      <c r="AE215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22188,6 +22835,9 @@
       <c r="AD216">
         <v>2</v>
       </c>
+      <c r="AE216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22288,6 +22938,9 @@
       <c r="AD217">
         <v>5</v>
       </c>
+      <c r="AE217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22388,6 +23041,9 @@
       <c r="AD218">
         <v>1</v>
       </c>
+      <c r="AE218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22488,6 +23144,9 @@
       <c r="AD219">
         <v>1</v>
       </c>
+      <c r="AE219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -22588,6 +23247,9 @@
       <c r="AD220">
         <v>2</v>
       </c>
+      <c r="AE220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22688,6 +23350,9 @@
       <c r="AD221">
         <v>0</v>
       </c>
+      <c r="AE221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22788,6 +23453,9 @@
       <c r="AD222">
         <v>1</v>
       </c>
+      <c r="AE222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -22888,6 +23556,9 @@
       <c r="AD223">
         <v>0</v>
       </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -22988,6 +23659,9 @@
       <c r="AD224">
         <v>0</v>
       </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23088,6 +23762,9 @@
       <c r="AD225">
         <v>0</v>
       </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23188,6 +23865,9 @@
       <c r="AD226">
         <v>0</v>
       </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23288,6 +23968,9 @@
       <c r="AD227">
         <v>0</v>
       </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23388,6 +24071,9 @@
       <c r="AD228">
         <v>0</v>
       </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -23488,6 +24174,9 @@
       <c r="AD229">
         <v>2</v>
       </c>
+      <c r="AE229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -23588,6 +24277,9 @@
       <c r="AD230">
         <v>0</v>
       </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -23688,6 +24380,9 @@
       <c r="AD231">
         <v>1</v>
       </c>
+      <c r="AE231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23788,6 +24483,9 @@
       <c r="AD232">
         <v>26</v>
       </c>
+      <c r="AE232">
+        <v>26</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -23888,6 +24586,9 @@
       <c r="AD233">
         <v>180</v>
       </c>
+      <c r="AE233">
+        <v>182</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -23988,6 +24689,9 @@
       <c r="AD234">
         <v>9</v>
       </c>
+      <c r="AE234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24088,6 +24792,9 @@
       <c r="AD235">
         <v>11</v>
       </c>
+      <c r="AE235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24188,6 +24895,9 @@
       <c r="AD236">
         <v>0</v>
       </c>
+      <c r="AE236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24288,6 +24998,9 @@
       <c r="AD237">
         <v>2</v>
       </c>
+      <c r="AE237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -24388,6 +25101,9 @@
       <c r="AD238">
         <v>0</v>
       </c>
+      <c r="AE238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -24488,6 +25204,9 @@
       <c r="AD239">
         <v>0</v>
       </c>
+      <c r="AE239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -24588,6 +25307,9 @@
       <c r="AD240">
         <v>2</v>
       </c>
+      <c r="AE240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -24688,6 +25410,9 @@
       <c r="AD241">
         <v>7</v>
       </c>
+      <c r="AE241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -24788,6 +25513,9 @@
       <c r="AD242">
         <v>3</v>
       </c>
+      <c r="AE242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -24888,6 +25616,9 @@
       <c r="AD243">
         <v>1</v>
       </c>
+      <c r="AE243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -24988,6 +25719,9 @@
       <c r="AD244">
         <v>1</v>
       </c>
+      <c r="AE244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25088,6 +25822,9 @@
       <c r="AD245">
         <v>2</v>
       </c>
+      <c r="AE245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25188,6 +25925,9 @@
       <c r="AD246">
         <v>2</v>
       </c>
+      <c r="AE246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25288,6 +26028,9 @@
       <c r="AD247">
         <v>0</v>
       </c>
+      <c r="AE247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -25388,6 +26131,9 @@
       <c r="AD248">
         <v>3</v>
       </c>
+      <c r="AE248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -25488,6 +26234,9 @@
       <c r="AD249">
         <v>9</v>
       </c>
+      <c r="AE249">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -25588,6 +26337,9 @@
       <c r="AD250">
         <v>0</v>
       </c>
+      <c r="AE250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -25688,6 +26440,9 @@
       <c r="AD251">
         <v>4</v>
       </c>
+      <c r="AE251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -25788,6 +26543,9 @@
       <c r="AD252">
         <v>1</v>
       </c>
+      <c r="AE252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -25888,6 +26646,9 @@
       <c r="AD253">
         <v>1</v>
       </c>
+      <c r="AE253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -25988,6 +26749,9 @@
       <c r="AD254">
         <v>1</v>
       </c>
+      <c r="AE254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26098,6 +26862,9 @@
       <c r="AD255">
         <v>12</v>
       </c>
+      <c r="AE255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26208,6 +26975,9 @@
       <c r="AD256">
         <v>64</v>
       </c>
+      <c r="AE256">
+        <v>72</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26318,6 +27088,9 @@
       <c r="AD257">
         <v>50</v>
       </c>
+      <c r="AE257">
+        <v>50</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -26428,6 +27201,9 @@
       <c r="AD258">
         <v>53</v>
       </c>
+      <c r="AE258">
+        <v>56</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -26538,6 +27314,9 @@
       <c r="AD259">
         <v>53</v>
       </c>
+      <c r="AE259">
+        <v>55</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -26648,6 +27427,9 @@
       <c r="AD260">
         <v>36</v>
       </c>
+      <c r="AE260">
+        <v>38</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -26758,6 +27540,9 @@
       <c r="AD261">
         <v>79</v>
       </c>
+      <c r="AE261">
+        <v>83</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -26868,6 +27653,9 @@
       <c r="AD262">
         <v>43</v>
       </c>
+      <c r="AE262">
+        <v>46</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -26978,6 +27766,9 @@
       <c r="AD263">
         <v>47</v>
       </c>
+      <c r="AE263">
+        <v>51</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -27078,6 +27869,9 @@
       <c r="AD264">
         <v>8</v>
       </c>
+      <c r="AE264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27178,6 +27972,9 @@
       <c r="AD265">
         <v>4</v>
       </c>
+      <c r="AE265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -27278,6 +28075,9 @@
       <c r="AD266">
         <v>4</v>
       </c>
+      <c r="AE266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -27378,6 +28178,9 @@
       <c r="AD267">
         <v>4</v>
       </c>
+      <c r="AE267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -27478,6 +28281,9 @@
       <c r="AD268">
         <v>6</v>
       </c>
+      <c r="AE268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -27578,6 +28384,9 @@
       <c r="AD269">
         <v>8</v>
       </c>
+      <c r="AE269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -27678,6 +28487,9 @@
       <c r="AD270">
         <v>0</v>
       </c>
+      <c r="AE270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -27778,6 +28590,9 @@
       <c r="AD271">
         <v>4</v>
       </c>
+      <c r="AE271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -27878,6 +28693,9 @@
       <c r="AD272">
         <v>0</v>
       </c>
+      <c r="AE272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -27978,6 +28796,9 @@
       <c r="AD273">
         <v>0</v>
       </c>
+      <c r="AE273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28078,6 +28899,9 @@
       <c r="AD274">
         <v>2</v>
       </c>
+      <c r="AE274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -28178,6 +29002,9 @@
       <c r="AD275">
         <v>24</v>
       </c>
+      <c r="AE275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28278,6 +29105,9 @@
       <c r="AD276">
         <v>9</v>
       </c>
+      <c r="AE276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -28378,6 +29208,9 @@
       <c r="AD277">
         <v>0</v>
       </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -28478,6 +29311,9 @@
       <c r="AD278">
         <v>17</v>
       </c>
+      <c r="AE278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -28578,6 +29414,9 @@
       <c r="AD279">
         <v>4</v>
       </c>
+      <c r="AE279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -28678,6 +29517,9 @@
       <c r="AD280">
         <v>43</v>
       </c>
+      <c r="AE280">
+        <v>48</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -28778,6 +29620,9 @@
       <c r="AD281">
         <v>30</v>
       </c>
+      <c r="AE281">
+        <v>31</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -28878,6 +29723,9 @@
       <c r="AD282">
         <v>1</v>
       </c>
+      <c r="AE282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -28978,6 +29826,9 @@
       <c r="AD283">
         <v>0</v>
       </c>
+      <c r="AE283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29078,6 +29929,9 @@
       <c r="AD284">
         <v>9</v>
       </c>
+      <c r="AE284">
+        <v>20</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -29178,6 +30032,9 @@
       <c r="AD285">
         <v>19</v>
       </c>
+      <c r="AE285">
+        <v>21</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -29278,6 +30135,9 @@
       <c r="AD286">
         <v>0</v>
       </c>
+      <c r="AE286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -29378,6 +30238,9 @@
       <c r="AD287">
         <v>0</v>
       </c>
+      <c r="AE287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -29478,6 +30341,9 @@
       <c r="AD288">
         <v>0</v>
       </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -29578,6 +30444,9 @@
       <c r="AD289">
         <v>0</v>
       </c>
+      <c r="AE289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -29678,6 +30547,9 @@
       <c r="AD290">
         <v>3</v>
       </c>
+      <c r="AE290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -29778,6 +30650,9 @@
       <c r="AD291">
         <v>0</v>
       </c>
+      <c r="AE291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -29878,6 +30753,9 @@
       <c r="AD292">
         <v>3</v>
       </c>
+      <c r="AE292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -29978,6 +30856,9 @@
       <c r="AD293">
         <v>0</v>
       </c>
+      <c r="AE293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -30078,6 +30959,9 @@
       <c r="AD294">
         <v>7</v>
       </c>
+      <c r="AE294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -30178,6 +31062,9 @@
       <c r="AD295">
         <v>0</v>
       </c>
+      <c r="AE295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -30278,6 +31165,9 @@
       <c r="AD296">
         <v>0</v>
       </c>
+      <c r="AE296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -30378,6 +31268,9 @@
       <c r="AD297">
         <v>1</v>
       </c>
+      <c r="AE297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -30478,6 +31371,9 @@
       <c r="AD298">
         <v>4</v>
       </c>
+      <c r="AE298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -30578,6 +31474,9 @@
       <c r="AD299">
         <v>0</v>
       </c>
+      <c r="AE299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -30678,6 +31577,9 @@
       <c r="AD300">
         <v>0</v>
       </c>
+      <c r="AE300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -30778,6 +31680,9 @@
       <c r="AD301">
         <v>17</v>
       </c>
+      <c r="AE301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -30878,6 +31783,9 @@
       <c r="AD302">
         <v>0</v>
       </c>
+      <c r="AE302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -30978,6 +31886,9 @@
       <c r="AD303">
         <v>0</v>
       </c>
+      <c r="AE303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -31078,6 +31989,9 @@
       <c r="AD304">
         <v>4</v>
       </c>
+      <c r="AE304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -31178,6 +32092,9 @@
       <c r="AD305">
         <v>12</v>
       </c>
+      <c r="AE305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -31278,6 +32195,9 @@
       <c r="AD306">
         <v>214</v>
       </c>
+      <c r="AE306">
+        <v>216</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -31378,6 +32298,9 @@
       <c r="AD307">
         <v>16</v>
       </c>
+      <c r="AE307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -31478,6 +32401,9 @@
       <c r="AD308">
         <v>5</v>
       </c>
+      <c r="AE308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -31578,6 +32504,9 @@
       <c r="AD309">
         <v>0</v>
       </c>
+      <c r="AE309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -31678,6 +32607,9 @@
       <c r="AD310">
         <v>0</v>
       </c>
+      <c r="AE310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -31778,6 +32710,9 @@
       <c r="AD311">
         <v>8</v>
       </c>
+      <c r="AE311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -31878,6 +32813,9 @@
       <c r="AD312">
         <v>5</v>
       </c>
+      <c r="AE312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -31978,6 +32916,9 @@
       <c r="AD313">
         <v>0</v>
       </c>
+      <c r="AE313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -32078,6 +33019,9 @@
       <c r="AD314">
         <v>1</v>
       </c>
+      <c r="AE314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -32178,6 +33122,9 @@
       <c r="AD315">
         <v>7</v>
       </c>
+      <c r="AE315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -32278,6 +33225,9 @@
       <c r="AD316">
         <v>3</v>
       </c>
+      <c r="AE316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -32378,6 +33328,9 @@
       <c r="AD317">
         <v>5</v>
       </c>
+      <c r="AE317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -32478,6 +33431,9 @@
       <c r="AD318">
         <v>11</v>
       </c>
+      <c r="AE318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -32578,6 +33534,9 @@
       <c r="AD319">
         <v>6</v>
       </c>
+      <c r="AE319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -32678,6 +33637,9 @@
       <c r="AD320">
         <v>0</v>
       </c>
+      <c r="AE320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -32778,6 +33740,9 @@
       <c r="AD321">
         <v>1</v>
       </c>
+      <c r="AE321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -32878,6 +33843,9 @@
       <c r="AD322">
         <v>7</v>
       </c>
+      <c r="AE322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -32978,6 +33946,9 @@
       <c r="AD323">
         <v>28</v>
       </c>
+      <c r="AE323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -33078,6 +34049,9 @@
       <c r="AD324">
         <v>21</v>
       </c>
+      <c r="AE324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -33178,6 +34152,9 @@
       <c r="AD325">
         <v>15</v>
       </c>
+      <c r="AE325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -33278,6 +34255,9 @@
       <c r="AD326">
         <v>0</v>
       </c>
+      <c r="AE326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -33378,6 +34358,9 @@
       <c r="AD327">
         <v>0</v>
       </c>
+      <c r="AE327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -33478,6 +34461,9 @@
       <c r="AD328">
         <v>0</v>
       </c>
+      <c r="AE328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -33578,6 +34564,9 @@
       <c r="AD329">
         <v>0</v>
       </c>
+      <c r="AE329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -33678,6 +34667,9 @@
       <c r="AD330">
         <v>3</v>
       </c>
+      <c r="AE330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -33778,6 +34770,9 @@
       <c r="AD331">
         <v>1</v>
       </c>
+      <c r="AE331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -33878,6 +34873,9 @@
       <c r="AD332">
         <v>4</v>
       </c>
+      <c r="AE332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -33978,6 +34976,9 @@
       <c r="AD333">
         <v>0</v>
       </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -34078,6 +35079,9 @@
       <c r="AD334">
         <v>0</v>
       </c>
+      <c r="AE334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -34178,6 +35182,9 @@
       <c r="AD335">
         <v>7</v>
       </c>
+      <c r="AE335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -34278,6 +35285,9 @@
       <c r="AD336">
         <v>2</v>
       </c>
+      <c r="AE336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -34378,6 +35388,9 @@
       <c r="AD337">
         <v>2</v>
       </c>
+      <c r="AE337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -34478,6 +35491,9 @@
       <c r="AD338">
         <v>2</v>
       </c>
+      <c r="AE338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -34578,6 +35594,9 @@
       <c r="AD339">
         <v>10</v>
       </c>
+      <c r="AE339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -34678,6 +35697,9 @@
       <c r="AD340">
         <v>1</v>
       </c>
+      <c r="AE340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -34778,6 +35800,9 @@
       <c r="AD341">
         <v>17</v>
       </c>
+      <c r="AE341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -34878,6 +35903,9 @@
       <c r="AD342">
         <v>0</v>
       </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -34978,6 +36006,9 @@
       <c r="AD343">
         <v>0</v>
       </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -35078,6 +36109,9 @@
       <c r="AD344">
         <v>122</v>
       </c>
+      <c r="AE344">
+        <v>124</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -35178,6 +36212,9 @@
       <c r="AD345">
         <v>4</v>
       </c>
+      <c r="AE345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -35278,6 +36315,9 @@
       <c r="AD346">
         <v>5</v>
       </c>
+      <c r="AE346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -35378,6 +36418,9 @@
       <c r="AD347">
         <v>1</v>
       </c>
+      <c r="AE347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -35478,6 +36521,9 @@
       <c r="AD348">
         <v>3</v>
       </c>
+      <c r="AE348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -35578,6 +36624,9 @@
       <c r="AD349">
         <v>14</v>
       </c>
+      <c r="AE349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -35678,6 +36727,9 @@
       <c r="AD350">
         <v>1</v>
       </c>
+      <c r="AE350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -35778,6 +36830,9 @@
       <c r="AD351">
         <v>1</v>
       </c>
+      <c r="AE351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -35878,6 +36933,9 @@
       <c r="AD352">
         <v>0</v>
       </c>
+      <c r="AE352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -35978,6 +37036,9 @@
       <c r="AD353">
         <v>0</v>
       </c>
+      <c r="AE353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -36078,6 +37139,9 @@
       <c r="AD354">
         <v>3</v>
       </c>
+      <c r="AE354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -36178,6 +37242,9 @@
       <c r="AD355">
         <v>1</v>
       </c>
+      <c r="AE355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -36278,6 +37345,9 @@
       <c r="AD356">
         <v>2</v>
       </c>
+      <c r="AE356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -36378,6 +37448,9 @@
       <c r="AD357">
         <v>0</v>
       </c>
+      <c r="AE357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -36478,6 +37551,9 @@
       <c r="AD358">
         <v>0</v>
       </c>
+      <c r="AE358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -36578,6 +37654,9 @@
       <c r="AD359">
         <v>0</v>
       </c>
+      <c r="AE359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -36678,6 +37757,9 @@
       <c r="AD360">
         <v>16</v>
       </c>
+      <c r="AE360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -36778,6 +37860,9 @@
       <c r="AD361">
         <v>2</v>
       </c>
+      <c r="AE361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -36878,6 +37963,9 @@
       <c r="AD362">
         <v>1</v>
       </c>
+      <c r="AE362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -36978,6 +38066,9 @@
       <c r="AD363">
         <v>2</v>
       </c>
+      <c r="AE363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -37078,6 +38169,9 @@
       <c r="AD364">
         <v>0</v>
       </c>
+      <c r="AE364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -37178,6 +38272,9 @@
       <c r="AD365">
         <v>0</v>
       </c>
+      <c r="AE365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -37278,6 +38375,9 @@
       <c r="AD366">
         <v>1</v>
       </c>
+      <c r="AE366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -37378,6 +38478,9 @@
       <c r="AD367">
         <v>2</v>
       </c>
+      <c r="AE367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -37478,6 +38581,9 @@
       <c r="AD368">
         <v>0</v>
       </c>
+      <c r="AE368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -37578,6 +38684,9 @@
       <c r="AD369">
         <v>1</v>
       </c>
+      <c r="AE369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -37678,6 +38787,9 @@
       <c r="AD370">
         <v>0</v>
       </c>
+      <c r="AE370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -37778,6 +38890,9 @@
       <c r="AD371">
         <v>0</v>
       </c>
+      <c r="AE371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -37878,6 +38993,9 @@
       <c r="AD372">
         <v>2</v>
       </c>
+      <c r="AE372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -37978,6 +39096,9 @@
       <c r="AD373">
         <v>2</v>
       </c>
+      <c r="AE373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -38078,6 +39199,9 @@
       <c r="AD374">
         <v>4</v>
       </c>
+      <c r="AE374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -38178,6 +39302,9 @@
       <c r="AD375">
         <v>1</v>
       </c>
+      <c r="AE375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -38278,6 +39405,9 @@
       <c r="AD376">
         <v>0</v>
       </c>
+      <c r="AE376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -38378,6 +39508,9 @@
       <c r="AD377">
         <v>0</v>
       </c>
+      <c r="AE377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -38478,6 +39611,9 @@
       <c r="AD378">
         <v>0</v>
       </c>
+      <c r="AE378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -38578,6 +39714,9 @@
       <c r="AD379">
         <v>1</v>
       </c>
+      <c r="AE379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -38678,6 +39817,9 @@
       <c r="AD380">
         <v>1</v>
       </c>
+      <c r="AE380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -38778,6 +39920,9 @@
       <c r="AD381">
         <v>0</v>
       </c>
+      <c r="AE381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -38878,6 +40023,9 @@
       <c r="AD382">
         <v>4</v>
       </c>
+      <c r="AE382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -38978,6 +40126,9 @@
       <c r="AD383">
         <v>0</v>
       </c>
+      <c r="AE383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -39076,6 +40227,9 @@
         <v>6</v>
       </c>
       <c r="AD384">
+        <v>7</v>
+      </c>
+      <c r="AE384">
         <v>7</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE384"/>
+  <dimension ref="A1:AF384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>2020-04-15</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -626,6 +631,9 @@
       <c r="AE2">
         <v>202</v>
       </c>
+      <c r="AF2">
+        <v>210</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -739,6 +747,9 @@
       <c r="AE3">
         <v>143</v>
       </c>
+      <c r="AF3">
+        <v>148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -852,6 +863,9 @@
       <c r="AE4">
         <v>119</v>
       </c>
+      <c r="AF4">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -965,6 +979,9 @@
       <c r="AE5">
         <v>80</v>
       </c>
+      <c r="AF5">
+        <v>82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1078,6 +1095,9 @@
       <c r="AE6">
         <v>148</v>
       </c>
+      <c r="AF6">
+        <v>149</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1191,6 +1211,9 @@
       <c r="AE7">
         <v>104</v>
       </c>
+      <c r="AF7">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1304,6 +1327,9 @@
       <c r="AE8">
         <v>135</v>
       </c>
+      <c r="AF8">
+        <v>137</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1417,6 +1443,9 @@
       <c r="AE9">
         <v>117</v>
       </c>
+      <c r="AF9">
+        <v>118</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1530,6 +1559,9 @@
       <c r="AE10">
         <v>81</v>
       </c>
+      <c r="AF10">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1643,6 +1675,9 @@
       <c r="AE11">
         <v>80</v>
       </c>
+      <c r="AF11">
+        <v>83</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1756,6 +1791,9 @@
       <c r="AE12">
         <v>146</v>
       </c>
+      <c r="AF12">
+        <v>153</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1869,6 +1907,9 @@
       <c r="AE13">
         <v>180</v>
       </c>
+      <c r="AF13">
+        <v>184</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1982,6 +2023,9 @@
       <c r="AE14">
         <v>153</v>
       </c>
+      <c r="AF14">
+        <v>156</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2095,6 +2139,9 @@
       <c r="AE15">
         <v>139</v>
       </c>
+      <c r="AF15">
+        <v>140</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2208,6 +2255,9 @@
       <c r="AE16">
         <v>116</v>
       </c>
+      <c r="AF16">
+        <v>119</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2321,6 +2371,9 @@
       <c r="AE17">
         <v>4</v>
       </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2434,6 +2487,9 @@
       <c r="AE18">
         <v>2</v>
       </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2547,6 +2603,9 @@
       <c r="AE19">
         <v>36</v>
       </c>
+      <c r="AF19">
+        <v>36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2650,6 +2709,9 @@
       <c r="AE20">
         <v>14</v>
       </c>
+      <c r="AF20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2753,6 +2815,9 @@
       <c r="AE21">
         <v>125</v>
       </c>
+      <c r="AF21">
+        <v>125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2856,6 +2921,9 @@
       <c r="AE22">
         <v>49</v>
       </c>
+      <c r="AF22">
+        <v>49</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2959,6 +3027,9 @@
       <c r="AE23">
         <v>46</v>
       </c>
+      <c r="AF23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3062,6 +3133,9 @@
       <c r="AE24">
         <v>3</v>
       </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3165,6 +3239,9 @@
       <c r="AE25">
         <v>1</v>
       </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3268,6 +3345,9 @@
       <c r="AE26">
         <v>0</v>
       </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3371,6 +3451,9 @@
       <c r="AE27">
         <v>6</v>
       </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3474,6 +3557,9 @@
       <c r="AE28">
         <v>6</v>
       </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3577,6 +3663,9 @@
       <c r="AE29">
         <v>12</v>
       </c>
+      <c r="AF29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3680,6 +3769,9 @@
       <c r="AE30">
         <v>13</v>
       </c>
+      <c r="AF30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3783,6 +3875,9 @@
       <c r="AE31">
         <v>13</v>
       </c>
+      <c r="AF31">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3886,6 +3981,9 @@
       <c r="AE32">
         <v>11</v>
       </c>
+      <c r="AF32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3989,6 +4087,9 @@
       <c r="AE33">
         <v>13</v>
       </c>
+      <c r="AF33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4092,6 +4193,9 @@
       <c r="AE34">
         <v>0</v>
       </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4195,6 +4299,9 @@
       <c r="AE35">
         <v>0</v>
       </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4298,6 +4405,9 @@
       <c r="AE36">
         <v>3</v>
       </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4401,6 +4511,9 @@
       <c r="AE37">
         <v>0</v>
       </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4504,6 +4617,9 @@
       <c r="AE38">
         <v>1</v>
       </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4607,6 +4723,9 @@
       <c r="AE39">
         <v>20</v>
       </c>
+      <c r="AF39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4710,6 +4829,9 @@
       <c r="AE40">
         <v>36</v>
       </c>
+      <c r="AF40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4813,6 +4935,9 @@
       <c r="AE41">
         <v>0</v>
       </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4916,6 +5041,9 @@
       <c r="AE42">
         <v>11</v>
       </c>
+      <c r="AF42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5019,6 +5147,9 @@
       <c r="AE43">
         <v>18</v>
       </c>
+      <c r="AF43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5122,6 +5253,9 @@
       <c r="AE44">
         <v>14</v>
       </c>
+      <c r="AF44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5225,6 +5359,9 @@
       <c r="AE45">
         <v>26</v>
       </c>
+      <c r="AF45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5328,6 +5465,9 @@
       <c r="AE46">
         <v>1</v>
       </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5431,6 +5571,9 @@
       <c r="AE47">
         <v>3</v>
       </c>
+      <c r="AF47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5534,6 +5677,9 @@
       <c r="AE48">
         <v>3</v>
       </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5637,6 +5783,9 @@
       <c r="AE49">
         <v>7</v>
       </c>
+      <c r="AF49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5740,6 +5889,9 @@
       <c r="AE50">
         <v>2</v>
       </c>
+      <c r="AF50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5843,6 +5995,9 @@
       <c r="AE51">
         <v>6</v>
       </c>
+      <c r="AF51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5946,6 +6101,9 @@
       <c r="AE52">
         <v>0</v>
       </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6049,6 +6207,9 @@
       <c r="AE53">
         <v>0</v>
       </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6152,6 +6313,9 @@
       <c r="AE54">
         <v>6</v>
       </c>
+      <c r="AF54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6255,6 +6419,9 @@
       <c r="AE55">
         <v>5</v>
       </c>
+      <c r="AF55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6358,6 +6525,9 @@
       <c r="AE56">
         <v>0</v>
       </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6461,6 +6631,9 @@
       <c r="AE57">
         <v>10</v>
       </c>
+      <c r="AF57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6564,6 +6737,9 @@
       <c r="AE58">
         <v>0</v>
       </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6667,6 +6843,9 @@
       <c r="AE59">
         <v>0</v>
       </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6770,6 +6949,9 @@
       <c r="AE60">
         <v>0</v>
       </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6873,6 +7055,9 @@
       <c r="AE61">
         <v>1</v>
       </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6976,6 +7161,9 @@
       <c r="AE62">
         <v>2</v>
       </c>
+      <c r="AF62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7079,6 +7267,9 @@
       <c r="AE63">
         <v>2</v>
       </c>
+      <c r="AF63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7182,6 +7373,9 @@
       <c r="AE64">
         <v>0</v>
       </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7285,6 +7479,9 @@
       <c r="AE65">
         <v>3</v>
       </c>
+      <c r="AF65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7388,6 +7585,9 @@
       <c r="AE66">
         <v>4</v>
       </c>
+      <c r="AF66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7491,6 +7691,9 @@
       <c r="AE67">
         <v>1</v>
       </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7594,6 +7797,9 @@
       <c r="AE68">
         <v>3</v>
       </c>
+      <c r="AF68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7697,6 +7903,9 @@
       <c r="AE69">
         <v>34</v>
       </c>
+      <c r="AF69">
+        <v>34</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7800,6 +8009,9 @@
       <c r="AE70">
         <v>3</v>
       </c>
+      <c r="AF70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7903,6 +8115,9 @@
       <c r="AE71">
         <v>0</v>
       </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8006,6 +8221,9 @@
       <c r="AE72">
         <v>2</v>
       </c>
+      <c r="AF72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8109,6 +8327,9 @@
       <c r="AE73">
         <v>5</v>
       </c>
+      <c r="AF73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8212,6 +8433,9 @@
       <c r="AE74">
         <v>3</v>
       </c>
+      <c r="AF74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8315,6 +8539,9 @@
       <c r="AE75">
         <v>0</v>
       </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8418,6 +8645,9 @@
       <c r="AE76">
         <v>0</v>
       </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8521,6 +8751,9 @@
       <c r="AE77">
         <v>2</v>
       </c>
+      <c r="AF77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8624,6 +8857,9 @@
       <c r="AE78">
         <v>3</v>
       </c>
+      <c r="AF78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8727,6 +8963,9 @@
       <c r="AE79">
         <v>1</v>
       </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8830,6 +9069,9 @@
       <c r="AE80">
         <v>1</v>
       </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8933,6 +9175,9 @@
       <c r="AE81">
         <v>0</v>
       </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9036,6 +9281,9 @@
       <c r="AE82">
         <v>5</v>
       </c>
+      <c r="AF82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9139,6 +9387,9 @@
       <c r="AE83">
         <v>0</v>
       </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9242,6 +9493,9 @@
       <c r="AE84">
         <v>0</v>
       </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9345,6 +9599,9 @@
       <c r="AE85">
         <v>4</v>
       </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9448,6 +9705,9 @@
       <c r="AE86">
         <v>0</v>
       </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9551,6 +9811,9 @@
       <c r="AE87">
         <v>0</v>
       </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9654,6 +9917,9 @@
       <c r="AE88">
         <v>0</v>
       </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9757,6 +10023,9 @@
       <c r="AE89">
         <v>5</v>
       </c>
+      <c r="AF89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9860,6 +10129,9 @@
       <c r="AE90">
         <v>0</v>
       </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9963,6 +10235,9 @@
       <c r="AE91">
         <v>0</v>
       </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10066,6 +10341,9 @@
       <c r="AE92">
         <v>0</v>
       </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10169,6 +10447,9 @@
       <c r="AE93">
         <v>1</v>
       </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10272,6 +10553,9 @@
       <c r="AE94">
         <v>0</v>
       </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10375,6 +10659,9 @@
       <c r="AE95">
         <v>1</v>
       </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10478,6 +10765,9 @@
       <c r="AE96">
         <v>0</v>
       </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10581,6 +10871,9 @@
       <c r="AE97">
         <v>0</v>
       </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10684,6 +10977,9 @@
       <c r="AE98">
         <v>0</v>
       </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10787,6 +11083,9 @@
       <c r="AE99">
         <v>0</v>
       </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10890,6 +11189,9 @@
       <c r="AE100">
         <v>4</v>
       </c>
+      <c r="AF100">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10993,6 +11295,9 @@
       <c r="AE101">
         <v>9</v>
       </c>
+      <c r="AF101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11096,6 +11401,9 @@
       <c r="AE102">
         <v>3</v>
       </c>
+      <c r="AF102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11199,6 +11507,9 @@
       <c r="AE103">
         <v>5</v>
       </c>
+      <c r="AF103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11302,6 +11613,9 @@
       <c r="AE104">
         <v>0</v>
       </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11405,6 +11719,9 @@
       <c r="AE105">
         <v>0</v>
       </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11508,6 +11825,9 @@
       <c r="AE106">
         <v>6</v>
       </c>
+      <c r="AF106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11611,6 +11931,9 @@
       <c r="AE107">
         <v>0</v>
       </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11714,6 +12037,9 @@
       <c r="AE108">
         <v>0</v>
       </c>
+      <c r="AF108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11817,6 +12143,9 @@
       <c r="AE109">
         <v>0</v>
       </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11920,6 +12249,9 @@
       <c r="AE110">
         <v>28</v>
       </c>
+      <c r="AF110">
+        <v>31</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12023,6 +12355,9 @@
       <c r="AE111">
         <v>89</v>
       </c>
+      <c r="AF111">
+        <v>90</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12126,6 +12461,9 @@
       <c r="AE112">
         <v>53</v>
       </c>
+      <c r="AF112">
+        <v>53</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12229,6 +12567,9 @@
       <c r="AE113">
         <v>79</v>
       </c>
+      <c r="AF113">
+        <v>80</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12332,6 +12673,9 @@
       <c r="AE114">
         <v>156</v>
       </c>
+      <c r="AF114">
+        <v>157</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12435,6 +12779,9 @@
       <c r="AE115">
         <v>20</v>
       </c>
+      <c r="AF115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12538,6 +12885,9 @@
       <c r="AE116">
         <v>9</v>
       </c>
+      <c r="AF116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12641,6 +12991,9 @@
       <c r="AE117">
         <v>2</v>
       </c>
+      <c r="AF117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12744,6 +13097,9 @@
       <c r="AE118">
         <v>2</v>
       </c>
+      <c r="AF118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12847,6 +13203,9 @@
       <c r="AE119">
         <v>3</v>
       </c>
+      <c r="AF119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12950,6 +13309,9 @@
       <c r="AE120">
         <v>45</v>
       </c>
+      <c r="AF120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13053,6 +13415,9 @@
       <c r="AE121">
         <v>2</v>
       </c>
+      <c r="AF121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13156,6 +13521,9 @@
       <c r="AE122">
         <v>1</v>
       </c>
+      <c r="AF122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13259,6 +13627,9 @@
       <c r="AE123">
         <v>2</v>
       </c>
+      <c r="AF123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13362,6 +13733,9 @@
       <c r="AE124">
         <v>6</v>
       </c>
+      <c r="AF124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13465,6 +13839,9 @@
       <c r="AE125">
         <v>22</v>
       </c>
+      <c r="AF125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13568,6 +13945,9 @@
       <c r="AE126">
         <v>89</v>
       </c>
+      <c r="AF126">
+        <v>91</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13671,6 +14051,9 @@
       <c r="AE127">
         <v>17</v>
       </c>
+      <c r="AF127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13774,6 +14157,9 @@
       <c r="AE128">
         <v>18</v>
       </c>
+      <c r="AF128">
+        <v>19</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13877,6 +14263,9 @@
       <c r="AE129">
         <v>44</v>
       </c>
+      <c r="AF129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13980,6 +14369,9 @@
       <c r="AE130">
         <v>383</v>
       </c>
+      <c r="AF130">
+        <v>387</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14083,6 +14475,9 @@
       <c r="AE131">
         <v>153</v>
       </c>
+      <c r="AF131">
+        <v>156</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14186,6 +14581,9 @@
       <c r="AE132">
         <v>8</v>
       </c>
+      <c r="AF132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14289,6 +14687,9 @@
       <c r="AE133">
         <v>21</v>
       </c>
+      <c r="AF133">
+        <v>21</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14392,6 +14793,9 @@
       <c r="AE134">
         <v>43</v>
       </c>
+      <c r="AF134">
+        <v>44</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14495,6 +14899,9 @@
       <c r="AE135">
         <v>76</v>
       </c>
+      <c r="AF135">
+        <v>78</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14598,6 +15005,9 @@
       <c r="AE136">
         <v>135</v>
       </c>
+      <c r="AF136">
+        <v>139</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14701,6 +15111,9 @@
       <c r="AE137">
         <v>45</v>
       </c>
+      <c r="AF137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14804,6 +15217,9 @@
       <c r="AE138">
         <v>8</v>
       </c>
+      <c r="AF138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14907,6 +15323,9 @@
       <c r="AE139">
         <v>52</v>
       </c>
+      <c r="AF139">
+        <v>54</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15010,6 +15429,9 @@
       <c r="AE140">
         <v>13</v>
       </c>
+      <c r="AF140">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15113,6 +15535,9 @@
       <c r="AE141">
         <v>30</v>
       </c>
+      <c r="AF141">
+        <v>30</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15216,6 +15641,9 @@
       <c r="AE142">
         <v>17</v>
       </c>
+      <c r="AF142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15319,6 +15747,9 @@
       <c r="AE143">
         <v>2</v>
       </c>
+      <c r="AF143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15422,6 +15853,9 @@
       <c r="AE144">
         <v>10</v>
       </c>
+      <c r="AF144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15525,6 +15959,9 @@
       <c r="AE145">
         <v>1</v>
       </c>
+      <c r="AF145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15628,6 +16065,9 @@
       <c r="AE146">
         <v>7</v>
       </c>
+      <c r="AF146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15731,6 +16171,9 @@
       <c r="AE147">
         <v>10</v>
       </c>
+      <c r="AF147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15834,6 +16277,9 @@
       <c r="AE148">
         <v>8</v>
       </c>
+      <c r="AF148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15937,6 +16383,9 @@
       <c r="AE149">
         <v>13</v>
       </c>
+      <c r="AF149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16040,6 +16489,9 @@
       <c r="AE150">
         <v>44</v>
       </c>
+      <c r="AF150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16143,6 +16595,9 @@
       <c r="AE151">
         <v>0</v>
       </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16246,6 +16701,9 @@
       <c r="AE152">
         <v>0</v>
       </c>
+      <c r="AF152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16349,6 +16807,9 @@
       <c r="AE153">
         <v>10</v>
       </c>
+      <c r="AF153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16452,6 +16913,9 @@
       <c r="AE154">
         <v>5</v>
       </c>
+      <c r="AF154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16555,6 +17019,9 @@
       <c r="AE155">
         <v>32</v>
       </c>
+      <c r="AF155">
+        <v>33</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16658,6 +17125,9 @@
       <c r="AE156">
         <v>4</v>
       </c>
+      <c r="AF156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16761,6 +17231,9 @@
       <c r="AE157">
         <v>1</v>
       </c>
+      <c r="AF157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16864,6 +17337,9 @@
       <c r="AE158">
         <v>2</v>
       </c>
+      <c r="AF158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16967,6 +17443,9 @@
       <c r="AE159">
         <v>6</v>
       </c>
+      <c r="AF159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17070,6 +17549,9 @@
       <c r="AE160">
         <v>9</v>
       </c>
+      <c r="AF160">
+        <v>10</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17173,6 +17655,9 @@
       <c r="AE161">
         <v>1</v>
       </c>
+      <c r="AF161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17276,6 +17761,9 @@
       <c r="AE162">
         <v>79</v>
       </c>
+      <c r="AF162">
+        <v>80</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17379,6 +17867,9 @@
       <c r="AE163">
         <v>32</v>
       </c>
+      <c r="AF163">
+        <v>34</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17482,6 +17973,9 @@
       <c r="AE164">
         <v>15</v>
       </c>
+      <c r="AF164">
+        <v>16</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17585,6 +18079,9 @@
       <c r="AE165">
         <v>57</v>
       </c>
+      <c r="AF165">
+        <v>57</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17688,6 +18185,9 @@
       <c r="AE166">
         <v>11</v>
       </c>
+      <c r="AF166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17791,6 +18291,9 @@
       <c r="AE167">
         <v>33</v>
       </c>
+      <c r="AF167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17894,6 +18397,9 @@
       <c r="AE168">
         <v>0</v>
       </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17997,6 +18503,9 @@
       <c r="AE169">
         <v>17</v>
       </c>
+      <c r="AF169">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18100,6 +18609,9 @@
       <c r="AE170">
         <v>4</v>
       </c>
+      <c r="AF170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18203,6 +18715,9 @@
       <c r="AE171">
         <v>5</v>
       </c>
+      <c r="AF171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18306,6 +18821,9 @@
       <c r="AE172">
         <v>3</v>
       </c>
+      <c r="AF172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18409,6 +18927,9 @@
       <c r="AE173">
         <v>3</v>
       </c>
+      <c r="AF173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18512,6 +19033,9 @@
       <c r="AE174">
         <v>15</v>
       </c>
+      <c r="AF174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18615,6 +19139,9 @@
       <c r="AE175">
         <v>2</v>
       </c>
+      <c r="AF175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18718,6 +19245,9 @@
       <c r="AE176">
         <v>4</v>
       </c>
+      <c r="AF176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18821,6 +19351,9 @@
       <c r="AE177">
         <v>0</v>
       </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18924,6 +19457,9 @@
       <c r="AE178">
         <v>0</v>
       </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19027,6 +19563,9 @@
       <c r="AE179">
         <v>2</v>
       </c>
+      <c r="AF179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19130,6 +19669,9 @@
       <c r="AE180">
         <v>0</v>
       </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19233,6 +19775,9 @@
       <c r="AE181">
         <v>0</v>
       </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19336,6 +19881,9 @@
       <c r="AE182">
         <v>1</v>
       </c>
+      <c r="AF182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19439,6 +19987,9 @@
       <c r="AE183">
         <v>0</v>
       </c>
+      <c r="AF183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19542,6 +20093,9 @@
       <c r="AE184">
         <v>1</v>
       </c>
+      <c r="AF184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19645,6 +20199,9 @@
       <c r="AE185">
         <v>5</v>
       </c>
+      <c r="AF185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19748,6 +20305,9 @@
       <c r="AE186">
         <v>2</v>
       </c>
+      <c r="AF186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19851,6 +20411,9 @@
       <c r="AE187">
         <v>1</v>
       </c>
+      <c r="AF187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19954,6 +20517,9 @@
       <c r="AE188">
         <v>3</v>
       </c>
+      <c r="AF188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20057,6 +20623,9 @@
       <c r="AE189">
         <v>2</v>
       </c>
+      <c r="AF189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20160,6 +20729,9 @@
       <c r="AE190">
         <v>13</v>
       </c>
+      <c r="AF190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20263,6 +20835,9 @@
       <c r="AE191">
         <v>36</v>
       </c>
+      <c r="AF191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20366,6 +20941,9 @@
       <c r="AE192">
         <v>1</v>
       </c>
+      <c r="AF192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20469,6 +21047,9 @@
       <c r="AE193">
         <v>8</v>
       </c>
+      <c r="AF193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20572,6 +21153,9 @@
       <c r="AE194">
         <v>2</v>
       </c>
+      <c r="AF194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20675,6 +21259,9 @@
       <c r="AE195">
         <v>5</v>
       </c>
+      <c r="AF195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20778,6 +21365,9 @@
       <c r="AE196">
         <v>4</v>
       </c>
+      <c r="AF196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20881,6 +21471,9 @@
       <c r="AE197">
         <v>10</v>
       </c>
+      <c r="AF197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20984,6 +21577,9 @@
       <c r="AE198">
         <v>9</v>
       </c>
+      <c r="AF198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -21087,6 +21683,9 @@
       <c r="AE199">
         <v>2</v>
       </c>
+      <c r="AF199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21190,6 +21789,9 @@
       <c r="AE200">
         <v>1</v>
       </c>
+      <c r="AF200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21293,6 +21895,9 @@
       <c r="AE201">
         <v>0</v>
       </c>
+      <c r="AF201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21396,6 +22001,9 @@
       <c r="AE202">
         <v>1</v>
       </c>
+      <c r="AF202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21499,6 +22107,9 @@
       <c r="AE203">
         <v>9</v>
       </c>
+      <c r="AF203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21602,6 +22213,9 @@
       <c r="AE204">
         <v>0</v>
       </c>
+      <c r="AF204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21705,6 +22319,9 @@
       <c r="AE205">
         <v>0</v>
       </c>
+      <c r="AF205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21808,6 +22425,9 @@
       <c r="AE206">
         <v>0</v>
       </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21911,6 +22531,9 @@
       <c r="AE207">
         <v>24</v>
       </c>
+      <c r="AF207">
+        <v>24</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -22014,6 +22637,9 @@
       <c r="AE208">
         <v>18</v>
       </c>
+      <c r="AF208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22117,6 +22743,9 @@
       <c r="AE209">
         <v>55</v>
       </c>
+      <c r="AF209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22220,6 +22849,9 @@
       <c r="AE210">
         <v>37</v>
       </c>
+      <c r="AF210">
+        <v>37</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22323,6 +22955,9 @@
       <c r="AE211">
         <v>28</v>
       </c>
+      <c r="AF211">
+        <v>29</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22426,6 +23061,9 @@
       <c r="AE212">
         <v>9</v>
       </c>
+      <c r="AF212">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22529,6 +23167,9 @@
       <c r="AE213">
         <v>39</v>
       </c>
+      <c r="AF213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22632,6 +23273,9 @@
       <c r="AE214">
         <v>4</v>
       </c>
+      <c r="AF214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22735,6 +23379,9 @@
       <c r="AE215">
         <v>21</v>
       </c>
+      <c r="AF215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22838,6 +23485,9 @@
       <c r="AE216">
         <v>2</v>
       </c>
+      <c r="AF216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22941,6 +23591,9 @@
       <c r="AE217">
         <v>5</v>
       </c>
+      <c r="AF217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -23044,6 +23697,9 @@
       <c r="AE218">
         <v>2</v>
       </c>
+      <c r="AF218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23147,6 +23803,9 @@
       <c r="AE219">
         <v>1</v>
       </c>
+      <c r="AF219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23250,6 +23909,9 @@
       <c r="AE220">
         <v>2</v>
       </c>
+      <c r="AF220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -23353,6 +24015,9 @@
       <c r="AE221">
         <v>0</v>
       </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23456,6 +24121,9 @@
       <c r="AE222">
         <v>1</v>
       </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23559,6 +24227,9 @@
       <c r="AE223">
         <v>0</v>
       </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23662,6 +24333,9 @@
       <c r="AE224">
         <v>0</v>
       </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23765,6 +24439,9 @@
       <c r="AE225">
         <v>0</v>
       </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23868,6 +24545,9 @@
       <c r="AE226">
         <v>0</v>
       </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23971,6 +24651,9 @@
       <c r="AE227">
         <v>0</v>
       </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -24074,6 +24757,9 @@
       <c r="AE228">
         <v>0</v>
       </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24177,6 +24863,9 @@
       <c r="AE229">
         <v>2</v>
       </c>
+      <c r="AF229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24280,6 +24969,9 @@
       <c r="AE230">
         <v>0</v>
       </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -24383,6 +25075,9 @@
       <c r="AE231">
         <v>1</v>
       </c>
+      <c r="AF231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24486,6 +25181,9 @@
       <c r="AE232">
         <v>26</v>
       </c>
+      <c r="AF232">
+        <v>27</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24589,6 +25287,9 @@
       <c r="AE233">
         <v>182</v>
       </c>
+      <c r="AF233">
+        <v>186</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24692,6 +25393,9 @@
       <c r="AE234">
         <v>9</v>
       </c>
+      <c r="AF234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24795,6 +25499,9 @@
       <c r="AE235">
         <v>11</v>
       </c>
+      <c r="AF235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24898,6 +25605,9 @@
       <c r="AE236">
         <v>0</v>
       </c>
+      <c r="AF236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -25001,6 +25711,9 @@
       <c r="AE237">
         <v>2</v>
       </c>
+      <c r="AF237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -25104,6 +25817,9 @@
       <c r="AE238">
         <v>0</v>
       </c>
+      <c r="AF238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25207,6 +25923,9 @@
       <c r="AE239">
         <v>0</v>
       </c>
+      <c r="AF239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -25310,6 +26029,9 @@
       <c r="AE240">
         <v>2</v>
       </c>
+      <c r="AF240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -25413,6 +26135,9 @@
       <c r="AE241">
         <v>7</v>
       </c>
+      <c r="AF241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25516,6 +26241,9 @@
       <c r="AE242">
         <v>3</v>
       </c>
+      <c r="AF242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25619,6 +26347,9 @@
       <c r="AE243">
         <v>1</v>
       </c>
+      <c r="AF243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25722,6 +26453,9 @@
       <c r="AE244">
         <v>1</v>
       </c>
+      <c r="AF244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25825,6 +26559,9 @@
       <c r="AE245">
         <v>2</v>
       </c>
+      <c r="AF245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25928,6 +26665,9 @@
       <c r="AE246">
         <v>2</v>
       </c>
+      <c r="AF246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -26031,6 +26771,9 @@
       <c r="AE247">
         <v>0</v>
       </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26134,6 +26877,9 @@
       <c r="AE248">
         <v>3</v>
       </c>
+      <c r="AF248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26237,6 +26983,9 @@
       <c r="AE249">
         <v>9</v>
       </c>
+      <c r="AF249">
+        <v>10</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -26340,6 +27089,9 @@
       <c r="AE250">
         <v>0</v>
       </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26443,6 +27195,9 @@
       <c r="AE251">
         <v>4</v>
       </c>
+      <c r="AF251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26546,6 +27301,9 @@
       <c r="AE252">
         <v>1</v>
       </c>
+      <c r="AF252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26649,6 +27407,9 @@
       <c r="AE253">
         <v>1</v>
       </c>
+      <c r="AF253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26752,6 +27513,9 @@
       <c r="AE254">
         <v>1</v>
       </c>
+      <c r="AF254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26865,6 +27629,9 @@
       <c r="AE255">
         <v>12</v>
       </c>
+      <c r="AF255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26978,6 +27745,9 @@
       <c r="AE256">
         <v>72</v>
       </c>
+      <c r="AF256">
+        <v>73</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -27091,6 +27861,9 @@
       <c r="AE257">
         <v>50</v>
       </c>
+      <c r="AF257">
+        <v>50</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27204,6 +27977,9 @@
       <c r="AE258">
         <v>56</v>
       </c>
+      <c r="AF258">
+        <v>59</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -27317,6 +28093,9 @@
       <c r="AE259">
         <v>55</v>
       </c>
+      <c r="AF259">
+        <v>56</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -27430,6 +28209,9 @@
       <c r="AE260">
         <v>38</v>
       </c>
+      <c r="AF260">
+        <v>38</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -27543,6 +28325,9 @@
       <c r="AE261">
         <v>83</v>
       </c>
+      <c r="AF261">
+        <v>83</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -27656,6 +28441,9 @@
       <c r="AE262">
         <v>46</v>
       </c>
+      <c r="AF262">
+        <v>49</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -27769,6 +28557,9 @@
       <c r="AE263">
         <v>51</v>
       </c>
+      <c r="AF263">
+        <v>51</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -27872,6 +28663,9 @@
       <c r="AE264">
         <v>8</v>
       </c>
+      <c r="AF264">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27975,6 +28769,9 @@
       <c r="AE265">
         <v>4</v>
       </c>
+      <c r="AF265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -28078,6 +28875,9 @@
       <c r="AE266">
         <v>4</v>
       </c>
+      <c r="AF266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -28181,6 +28981,9 @@
       <c r="AE267">
         <v>4</v>
       </c>
+      <c r="AF267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -28284,6 +29087,9 @@
       <c r="AE268">
         <v>6</v>
       </c>
+      <c r="AF268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -28387,6 +29193,9 @@
       <c r="AE269">
         <v>8</v>
       </c>
+      <c r="AF269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -28490,6 +29299,9 @@
       <c r="AE270">
         <v>0</v>
       </c>
+      <c r="AF270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -28593,6 +29405,9 @@
       <c r="AE271">
         <v>4</v>
       </c>
+      <c r="AF271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -28696,6 +29511,9 @@
       <c r="AE272">
         <v>0</v>
       </c>
+      <c r="AF272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -28799,6 +29617,9 @@
       <c r="AE273">
         <v>0</v>
       </c>
+      <c r="AF273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28902,6 +29723,9 @@
       <c r="AE274">
         <v>2</v>
       </c>
+      <c r="AF274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -29005,6 +29829,9 @@
       <c r="AE275">
         <v>24</v>
       </c>
+      <c r="AF275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -29108,6 +29935,9 @@
       <c r="AE276">
         <v>9</v>
       </c>
+      <c r="AF276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -29211,6 +30041,9 @@
       <c r="AE277">
         <v>0</v>
       </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -29314,6 +30147,9 @@
       <c r="AE278">
         <v>17</v>
       </c>
+      <c r="AF278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -29417,6 +30253,9 @@
       <c r="AE279">
         <v>4</v>
       </c>
+      <c r="AF279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -29520,6 +30359,9 @@
       <c r="AE280">
         <v>48</v>
       </c>
+      <c r="AF280">
+        <v>48</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -29623,6 +30465,9 @@
       <c r="AE281">
         <v>31</v>
       </c>
+      <c r="AF281">
+        <v>32</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -29726,6 +30571,9 @@
       <c r="AE282">
         <v>1</v>
       </c>
+      <c r="AF282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -29829,6 +30677,9 @@
       <c r="AE283">
         <v>0</v>
       </c>
+      <c r="AF283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29932,6 +30783,9 @@
       <c r="AE284">
         <v>20</v>
       </c>
+      <c r="AF284">
+        <v>24</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -30035,6 +30889,9 @@
       <c r="AE285">
         <v>21</v>
       </c>
+      <c r="AF285">
+        <v>22</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -30138,6 +30995,9 @@
       <c r="AE286">
         <v>0</v>
       </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -30241,6 +31101,9 @@
       <c r="AE287">
         <v>0</v>
       </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -30344,6 +31207,9 @@
       <c r="AE288">
         <v>0</v>
       </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -30447,6 +31313,9 @@
       <c r="AE289">
         <v>0</v>
       </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -30550,6 +31419,9 @@
       <c r="AE290">
         <v>3</v>
       </c>
+      <c r="AF290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -30653,6 +31525,9 @@
       <c r="AE291">
         <v>0</v>
       </c>
+      <c r="AF291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -30756,6 +31631,9 @@
       <c r="AE292">
         <v>3</v>
       </c>
+      <c r="AF292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -30859,6 +31737,9 @@
       <c r="AE293">
         <v>0</v>
       </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -30962,6 +31843,9 @@
       <c r="AE294">
         <v>7</v>
       </c>
+      <c r="AF294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -31065,6 +31949,9 @@
       <c r="AE295">
         <v>0</v>
       </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -31168,6 +32055,9 @@
       <c r="AE296">
         <v>0</v>
       </c>
+      <c r="AF296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -31271,6 +32161,9 @@
       <c r="AE297">
         <v>1</v>
       </c>
+      <c r="AF297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -31374,6 +32267,9 @@
       <c r="AE298">
         <v>4</v>
       </c>
+      <c r="AF298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -31477,6 +32373,9 @@
       <c r="AE299">
         <v>0</v>
       </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -31580,6 +32479,9 @@
       <c r="AE300">
         <v>0</v>
       </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -31683,6 +32585,9 @@
       <c r="AE301">
         <v>17</v>
       </c>
+      <c r="AF301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -31786,6 +32691,9 @@
       <c r="AE302">
         <v>0</v>
       </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -31889,6 +32797,9 @@
       <c r="AE303">
         <v>0</v>
       </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -31992,6 +32903,9 @@
       <c r="AE304">
         <v>4</v>
       </c>
+      <c r="AF304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -32095,6 +33009,9 @@
       <c r="AE305">
         <v>12</v>
       </c>
+      <c r="AF305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -32198,6 +33115,9 @@
       <c r="AE306">
         <v>216</v>
       </c>
+      <c r="AF306">
+        <v>217</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -32301,6 +33221,9 @@
       <c r="AE307">
         <v>16</v>
       </c>
+      <c r="AF307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -32404,6 +33327,9 @@
       <c r="AE308">
         <v>5</v>
       </c>
+      <c r="AF308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -32507,6 +33433,9 @@
       <c r="AE309">
         <v>0</v>
       </c>
+      <c r="AF309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -32610,6 +33539,9 @@
       <c r="AE310">
         <v>0</v>
       </c>
+      <c r="AF310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -32713,6 +33645,9 @@
       <c r="AE311">
         <v>8</v>
       </c>
+      <c r="AF311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -32816,6 +33751,9 @@
       <c r="AE312">
         <v>5</v>
       </c>
+      <c r="AF312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -32919,6 +33857,9 @@
       <c r="AE313">
         <v>0</v>
       </c>
+      <c r="AF313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -33022,6 +33963,9 @@
       <c r="AE314">
         <v>1</v>
       </c>
+      <c r="AF314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -33125,6 +34069,9 @@
       <c r="AE315">
         <v>7</v>
       </c>
+      <c r="AF315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -33228,6 +34175,9 @@
       <c r="AE316">
         <v>3</v>
       </c>
+      <c r="AF316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -33331,6 +34281,9 @@
       <c r="AE317">
         <v>5</v>
       </c>
+      <c r="AF317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -33434,6 +34387,9 @@
       <c r="AE318">
         <v>11</v>
       </c>
+      <c r="AF318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -33537,6 +34493,9 @@
       <c r="AE319">
         <v>6</v>
       </c>
+      <c r="AF319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -33640,6 +34599,9 @@
       <c r="AE320">
         <v>0</v>
       </c>
+      <c r="AF320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -33743,6 +34705,9 @@
       <c r="AE321">
         <v>1</v>
       </c>
+      <c r="AF321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -33846,6 +34811,9 @@
       <c r="AE322">
         <v>7</v>
       </c>
+      <c r="AF322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -33949,6 +34917,9 @@
       <c r="AE323">
         <v>28</v>
       </c>
+      <c r="AF323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -34052,6 +35023,9 @@
       <c r="AE324">
         <v>21</v>
       </c>
+      <c r="AF324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -34155,6 +35129,9 @@
       <c r="AE325">
         <v>15</v>
       </c>
+      <c r="AF325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -34258,6 +35235,9 @@
       <c r="AE326">
         <v>0</v>
       </c>
+      <c r="AF326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -34361,6 +35341,9 @@
       <c r="AE327">
         <v>0</v>
       </c>
+      <c r="AF327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -34464,6 +35447,9 @@
       <c r="AE328">
         <v>0</v>
       </c>
+      <c r="AF328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -34567,6 +35553,9 @@
       <c r="AE329">
         <v>0</v>
       </c>
+      <c r="AF329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -34670,6 +35659,9 @@
       <c r="AE330">
         <v>3</v>
       </c>
+      <c r="AF330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -34773,6 +35765,9 @@
       <c r="AE331">
         <v>1</v>
       </c>
+      <c r="AF331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -34876,6 +35871,9 @@
       <c r="AE332">
         <v>4</v>
       </c>
+      <c r="AF332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -34979,6 +35977,9 @@
       <c r="AE333">
         <v>0</v>
       </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -35082,6 +36083,9 @@
       <c r="AE334">
         <v>0</v>
       </c>
+      <c r="AF334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -35185,6 +36189,9 @@
       <c r="AE335">
         <v>7</v>
       </c>
+      <c r="AF335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -35288,6 +36295,9 @@
       <c r="AE336">
         <v>2</v>
       </c>
+      <c r="AF336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -35391,6 +36401,9 @@
       <c r="AE337">
         <v>2</v>
       </c>
+      <c r="AF337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -35494,6 +36507,9 @@
       <c r="AE338">
         <v>2</v>
       </c>
+      <c r="AF338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -35597,6 +36613,9 @@
       <c r="AE339">
         <v>10</v>
       </c>
+      <c r="AF339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -35700,6 +36719,9 @@
       <c r="AE340">
         <v>1</v>
       </c>
+      <c r="AF340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -35803,6 +36825,9 @@
       <c r="AE341">
         <v>17</v>
       </c>
+      <c r="AF341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -35906,6 +36931,9 @@
       <c r="AE342">
         <v>0</v>
       </c>
+      <c r="AF342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -36009,6 +37037,9 @@
       <c r="AE343">
         <v>0</v>
       </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -36112,6 +37143,9 @@
       <c r="AE344">
         <v>124</v>
       </c>
+      <c r="AF344">
+        <v>127</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -36215,6 +37249,9 @@
       <c r="AE345">
         <v>4</v>
       </c>
+      <c r="AF345">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -36318,6 +37355,9 @@
       <c r="AE346">
         <v>5</v>
       </c>
+      <c r="AF346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -36421,6 +37461,9 @@
       <c r="AE347">
         <v>1</v>
       </c>
+      <c r="AF347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -36524,6 +37567,9 @@
       <c r="AE348">
         <v>3</v>
       </c>
+      <c r="AF348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -36627,6 +37673,9 @@
       <c r="AE349">
         <v>14</v>
       </c>
+      <c r="AF349">
+        <v>14</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -36730,6 +37779,9 @@
       <c r="AE350">
         <v>1</v>
       </c>
+      <c r="AF350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -36833,6 +37885,9 @@
       <c r="AE351">
         <v>1</v>
       </c>
+      <c r="AF351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -36936,6 +37991,9 @@
       <c r="AE352">
         <v>0</v>
       </c>
+      <c r="AF352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -37039,6 +38097,9 @@
       <c r="AE353">
         <v>0</v>
       </c>
+      <c r="AF353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -37142,6 +38203,9 @@
       <c r="AE354">
         <v>3</v>
       </c>
+      <c r="AF354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -37245,6 +38309,9 @@
       <c r="AE355">
         <v>1</v>
       </c>
+      <c r="AF355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -37348,6 +38415,9 @@
       <c r="AE356">
         <v>2</v>
       </c>
+      <c r="AF356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -37451,6 +38521,9 @@
       <c r="AE357">
         <v>0</v>
       </c>
+      <c r="AF357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -37554,6 +38627,9 @@
       <c r="AE358">
         <v>0</v>
       </c>
+      <c r="AF358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -37657,6 +38733,9 @@
       <c r="AE359">
         <v>0</v>
       </c>
+      <c r="AF359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -37760,6 +38839,9 @@
       <c r="AE360">
         <v>16</v>
       </c>
+      <c r="AF360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -37863,6 +38945,9 @@
       <c r="AE361">
         <v>2</v>
       </c>
+      <c r="AF361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -37966,6 +39051,9 @@
       <c r="AE362">
         <v>1</v>
       </c>
+      <c r="AF362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -38069,6 +39157,9 @@
       <c r="AE363">
         <v>2</v>
       </c>
+      <c r="AF363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -38172,6 +39263,9 @@
       <c r="AE364">
         <v>0</v>
       </c>
+      <c r="AF364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -38275,6 +39369,9 @@
       <c r="AE365">
         <v>0</v>
       </c>
+      <c r="AF365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -38378,6 +39475,9 @@
       <c r="AE366">
         <v>1</v>
       </c>
+      <c r="AF366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -38481,6 +39581,9 @@
       <c r="AE367">
         <v>2</v>
       </c>
+      <c r="AF367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -38584,6 +39687,9 @@
       <c r="AE368">
         <v>0</v>
       </c>
+      <c r="AF368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -38687,6 +39793,9 @@
       <c r="AE369">
         <v>1</v>
       </c>
+      <c r="AF369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -38790,6 +39899,9 @@
       <c r="AE370">
         <v>0</v>
       </c>
+      <c r="AF370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -38893,6 +40005,9 @@
       <c r="AE371">
         <v>0</v>
       </c>
+      <c r="AF371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -38996,6 +40111,9 @@
       <c r="AE372">
         <v>3</v>
       </c>
+      <c r="AF372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -39099,6 +40217,9 @@
       <c r="AE373">
         <v>2</v>
       </c>
+      <c r="AF373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -39202,6 +40323,9 @@
       <c r="AE374">
         <v>4</v>
       </c>
+      <c r="AF374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -39305,6 +40429,9 @@
       <c r="AE375">
         <v>1</v>
       </c>
+      <c r="AF375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -39408,6 +40535,9 @@
       <c r="AE376">
         <v>0</v>
       </c>
+      <c r="AF376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -39511,6 +40641,9 @@
       <c r="AE377">
         <v>0</v>
       </c>
+      <c r="AF377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -39614,6 +40747,9 @@
       <c r="AE378">
         <v>0</v>
       </c>
+      <c r="AF378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -39717,6 +40853,9 @@
       <c r="AE379">
         <v>1</v>
       </c>
+      <c r="AF379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -39820,6 +40959,9 @@
       <c r="AE380">
         <v>1</v>
       </c>
+      <c r="AF380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -39923,6 +41065,9 @@
       <c r="AE381">
         <v>0</v>
       </c>
+      <c r="AF381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -40026,6 +41171,9 @@
       <c r="AE382">
         <v>4</v>
       </c>
+      <c r="AF382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -40129,6 +41277,9 @@
       <c r="AE383">
         <v>0</v>
       </c>
+      <c r="AF383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -40231,6 +41382,9 @@
       </c>
       <c r="AE384">
         <v>7</v>
+      </c>
+      <c r="AF384">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF384"/>
+  <dimension ref="A1:AG384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +518,11 @@
           <t>2020-04-16</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -634,6 +639,9 @@
       <c r="AF2">
         <v>210</v>
       </c>
+      <c r="AG2">
+        <v>213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -750,6 +758,9 @@
       <c r="AF3">
         <v>148</v>
       </c>
+      <c r="AG3">
+        <v>148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -866,6 +877,9 @@
       <c r="AF4">
         <v>120</v>
       </c>
+      <c r="AG4">
+        <v>123</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -982,6 +996,9 @@
       <c r="AF5">
         <v>82</v>
       </c>
+      <c r="AG5">
+        <v>84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1098,6 +1115,9 @@
       <c r="AF6">
         <v>149</v>
       </c>
+      <c r="AG6">
+        <v>152</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1214,6 +1234,9 @@
       <c r="AF7">
         <v>105</v>
       </c>
+      <c r="AG7">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1330,6 +1353,9 @@
       <c r="AF8">
         <v>137</v>
       </c>
+      <c r="AG8">
+        <v>139</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1446,6 +1472,9 @@
       <c r="AF9">
         <v>118</v>
       </c>
+      <c r="AG9">
+        <v>119</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1562,6 +1591,9 @@
       <c r="AF10">
         <v>85</v>
       </c>
+      <c r="AG10">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1678,6 +1710,9 @@
       <c r="AF11">
         <v>83</v>
       </c>
+      <c r="AG11">
+        <v>84</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1794,6 +1829,9 @@
       <c r="AF12">
         <v>153</v>
       </c>
+      <c r="AG12">
+        <v>158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1910,6 +1948,9 @@
       <c r="AF13">
         <v>184</v>
       </c>
+      <c r="AG13">
+        <v>188</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2026,6 +2067,9 @@
       <c r="AF14">
         <v>156</v>
       </c>
+      <c r="AG14">
+        <v>157</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2142,6 +2186,9 @@
       <c r="AF15">
         <v>140</v>
       </c>
+      <c r="AG15">
+        <v>144</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2258,6 +2305,9 @@
       <c r="AF16">
         <v>119</v>
       </c>
+      <c r="AG16">
+        <v>121</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2374,6 +2424,9 @@
       <c r="AF17">
         <v>4</v>
       </c>
+      <c r="AG17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2490,6 +2543,9 @@
       <c r="AF18">
         <v>2</v>
       </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2606,6 +2662,9 @@
       <c r="AF19">
         <v>36</v>
       </c>
+      <c r="AG19">
+        <v>40</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2712,6 +2771,9 @@
       <c r="AF20">
         <v>14</v>
       </c>
+      <c r="AG20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2818,6 +2880,9 @@
       <c r="AF21">
         <v>125</v>
       </c>
+      <c r="AG21">
+        <v>126</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2924,6 +2989,9 @@
       <c r="AF22">
         <v>49</v>
       </c>
+      <c r="AG22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3030,6 +3098,9 @@
       <c r="AF23">
         <v>46</v>
       </c>
+      <c r="AG23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3136,6 +3207,9 @@
       <c r="AF24">
         <v>3</v>
       </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3242,6 +3316,9 @@
       <c r="AF25">
         <v>1</v>
       </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3348,6 +3425,9 @@
       <c r="AF26">
         <v>0</v>
       </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3454,6 +3534,9 @@
       <c r="AF27">
         <v>6</v>
       </c>
+      <c r="AG27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3560,6 +3643,9 @@
       <c r="AF28">
         <v>6</v>
       </c>
+      <c r="AG28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3666,6 +3752,9 @@
       <c r="AF29">
         <v>12</v>
       </c>
+      <c r="AG29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3772,6 +3861,9 @@
       <c r="AF30">
         <v>13</v>
       </c>
+      <c r="AG30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3878,6 +3970,9 @@
       <c r="AF31">
         <v>13</v>
       </c>
+      <c r="AG31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3984,6 +4079,9 @@
       <c r="AF32">
         <v>11</v>
       </c>
+      <c r="AG32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4090,6 +4188,9 @@
       <c r="AF33">
         <v>13</v>
       </c>
+      <c r="AG33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4196,6 +4297,9 @@
       <c r="AF34">
         <v>0</v>
       </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4302,6 +4406,9 @@
       <c r="AF35">
         <v>0</v>
       </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4408,6 +4515,9 @@
       <c r="AF36">
         <v>3</v>
       </c>
+      <c r="AG36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4514,6 +4624,9 @@
       <c r="AF37">
         <v>0</v>
       </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4620,6 +4733,9 @@
       <c r="AF38">
         <v>1</v>
       </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4726,6 +4842,9 @@
       <c r="AF39">
         <v>20</v>
       </c>
+      <c r="AG39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4832,6 +4951,9 @@
       <c r="AF40">
         <v>36</v>
       </c>
+      <c r="AG40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4938,6 +5060,9 @@
       <c r="AF41">
         <v>0</v>
       </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5044,6 +5169,9 @@
       <c r="AF42">
         <v>11</v>
       </c>
+      <c r="AG42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5150,6 +5278,9 @@
       <c r="AF43">
         <v>18</v>
       </c>
+      <c r="AG43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5256,6 +5387,9 @@
       <c r="AF44">
         <v>14</v>
       </c>
+      <c r="AG44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5362,6 +5496,9 @@
       <c r="AF45">
         <v>26</v>
       </c>
+      <c r="AG45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5468,6 +5605,9 @@
       <c r="AF46">
         <v>1</v>
       </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5574,6 +5714,9 @@
       <c r="AF47">
         <v>3</v>
       </c>
+      <c r="AG47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5680,6 +5823,9 @@
       <c r="AF48">
         <v>3</v>
       </c>
+      <c r="AG48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5786,6 +5932,9 @@
       <c r="AF49">
         <v>7</v>
       </c>
+      <c r="AG49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5892,6 +6041,9 @@
       <c r="AF50">
         <v>2</v>
       </c>
+      <c r="AG50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5998,6 +6150,9 @@
       <c r="AF51">
         <v>6</v>
       </c>
+      <c r="AG51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6104,6 +6259,9 @@
       <c r="AF52">
         <v>0</v>
       </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6210,6 +6368,9 @@
       <c r="AF53">
         <v>1</v>
       </c>
+      <c r="AG53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6316,6 +6477,9 @@
       <c r="AF54">
         <v>6</v>
       </c>
+      <c r="AG54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6422,6 +6586,9 @@
       <c r="AF55">
         <v>5</v>
       </c>
+      <c r="AG55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6528,6 +6695,9 @@
       <c r="AF56">
         <v>0</v>
       </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6634,6 +6804,9 @@
       <c r="AF57">
         <v>10</v>
       </c>
+      <c r="AG57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6740,6 +6913,9 @@
       <c r="AF58">
         <v>0</v>
       </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6846,6 +7022,9 @@
       <c r="AF59">
         <v>0</v>
       </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6952,6 +7131,9 @@
       <c r="AF60">
         <v>0</v>
       </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7058,6 +7240,9 @@
       <c r="AF61">
         <v>1</v>
       </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7164,6 +7349,9 @@
       <c r="AF62">
         <v>2</v>
       </c>
+      <c r="AG62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7270,6 +7458,9 @@
       <c r="AF63">
         <v>2</v>
       </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7376,6 +7567,9 @@
       <c r="AF64">
         <v>0</v>
       </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7482,6 +7676,9 @@
       <c r="AF65">
         <v>3</v>
       </c>
+      <c r="AG65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7588,6 +7785,9 @@
       <c r="AF66">
         <v>4</v>
       </c>
+      <c r="AG66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7694,6 +7894,9 @@
       <c r="AF67">
         <v>1</v>
       </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7800,6 +8003,9 @@
       <c r="AF68">
         <v>3</v>
       </c>
+      <c r="AG68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7906,6 +8112,9 @@
       <c r="AF69">
         <v>34</v>
       </c>
+      <c r="AG69">
+        <v>36</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8012,6 +8221,9 @@
       <c r="AF70">
         <v>5</v>
       </c>
+      <c r="AG70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8118,6 +8330,9 @@
       <c r="AF71">
         <v>0</v>
       </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8224,6 +8439,9 @@
       <c r="AF72">
         <v>2</v>
       </c>
+      <c r="AG72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8330,6 +8548,9 @@
       <c r="AF73">
         <v>5</v>
       </c>
+      <c r="AG73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8436,6 +8657,9 @@
       <c r="AF74">
         <v>3</v>
       </c>
+      <c r="AG74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8542,6 +8766,9 @@
       <c r="AF75">
         <v>0</v>
       </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8648,6 +8875,9 @@
       <c r="AF76">
         <v>0</v>
       </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8754,6 +8984,9 @@
       <c r="AF77">
         <v>2</v>
       </c>
+      <c r="AG77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8860,6 +9093,9 @@
       <c r="AF78">
         <v>3</v>
       </c>
+      <c r="AG78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8966,6 +9202,9 @@
       <c r="AF79">
         <v>1</v>
       </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9072,6 +9311,9 @@
       <c r="AF80">
         <v>1</v>
       </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9178,6 +9420,9 @@
       <c r="AF81">
         <v>0</v>
       </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9284,6 +9529,9 @@
       <c r="AF82">
         <v>5</v>
       </c>
+      <c r="AG82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9390,6 +9638,9 @@
       <c r="AF83">
         <v>0</v>
       </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9496,6 +9747,9 @@
       <c r="AF84">
         <v>0</v>
       </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9602,6 +9856,9 @@
       <c r="AF85">
         <v>4</v>
       </c>
+      <c r="AG85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9708,6 +9965,9 @@
       <c r="AF86">
         <v>0</v>
       </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9814,6 +10074,9 @@
       <c r="AF87">
         <v>0</v>
       </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9920,6 +10183,9 @@
       <c r="AF88">
         <v>0</v>
       </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10026,6 +10292,9 @@
       <c r="AF89">
         <v>5</v>
       </c>
+      <c r="AG89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10132,6 +10401,9 @@
       <c r="AF90">
         <v>0</v>
       </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10238,6 +10510,9 @@
       <c r="AF91">
         <v>0</v>
       </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10344,6 +10619,9 @@
       <c r="AF92">
         <v>0</v>
       </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10450,6 +10728,9 @@
       <c r="AF93">
         <v>1</v>
       </c>
+      <c r="AG93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10556,6 +10837,9 @@
       <c r="AF94">
         <v>0</v>
       </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10662,6 +10946,9 @@
       <c r="AF95">
         <v>1</v>
       </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10768,6 +11055,9 @@
       <c r="AF96">
         <v>0</v>
       </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10874,6 +11164,9 @@
       <c r="AF97">
         <v>0</v>
       </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10980,6 +11273,9 @@
       <c r="AF98">
         <v>0</v>
       </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11086,6 +11382,9 @@
       <c r="AF99">
         <v>0</v>
       </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11192,6 +11491,9 @@
       <c r="AF100">
         <v>4</v>
       </c>
+      <c r="AG100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11298,6 +11600,9 @@
       <c r="AF101">
         <v>13</v>
       </c>
+      <c r="AG101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11404,6 +11709,9 @@
       <c r="AF102">
         <v>3</v>
       </c>
+      <c r="AG102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11510,6 +11818,9 @@
       <c r="AF103">
         <v>5</v>
       </c>
+      <c r="AG103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11616,6 +11927,9 @@
       <c r="AF104">
         <v>0</v>
       </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11722,6 +12036,9 @@
       <c r="AF105">
         <v>0</v>
       </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11828,6 +12145,9 @@
       <c r="AF106">
         <v>6</v>
       </c>
+      <c r="AG106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11934,6 +12254,9 @@
       <c r="AF107">
         <v>0</v>
       </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12040,6 +12363,9 @@
       <c r="AF108">
         <v>1</v>
       </c>
+      <c r="AG108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12146,6 +12472,9 @@
       <c r="AF109">
         <v>0</v>
       </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12252,6 +12581,9 @@
       <c r="AF110">
         <v>31</v>
       </c>
+      <c r="AG110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12358,6 +12690,9 @@
       <c r="AF111">
         <v>90</v>
       </c>
+      <c r="AG111">
+        <v>92</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12464,6 +12799,9 @@
       <c r="AF112">
         <v>53</v>
       </c>
+      <c r="AG112">
+        <v>53</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12570,6 +12908,9 @@
       <c r="AF113">
         <v>80</v>
       </c>
+      <c r="AG113">
+        <v>83</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12676,6 +13017,9 @@
       <c r="AF114">
         <v>157</v>
       </c>
+      <c r="AG114">
+        <v>160</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12782,6 +13126,9 @@
       <c r="AF115">
         <v>20</v>
       </c>
+      <c r="AG115">
+        <v>20</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12888,6 +13235,9 @@
       <c r="AF116">
         <v>9</v>
       </c>
+      <c r="AG116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12994,6 +13344,9 @@
       <c r="AF117">
         <v>2</v>
       </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13100,6 +13453,9 @@
       <c r="AF118">
         <v>2</v>
       </c>
+      <c r="AG118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13206,6 +13562,9 @@
       <c r="AF119">
         <v>3</v>
       </c>
+      <c r="AG119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13312,6 +13671,9 @@
       <c r="AF120">
         <v>45</v>
       </c>
+      <c r="AG120">
+        <v>45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13418,6 +13780,9 @@
       <c r="AF121">
         <v>2</v>
       </c>
+      <c r="AG121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13524,6 +13889,9 @@
       <c r="AF122">
         <v>1</v>
       </c>
+      <c r="AG122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13630,6 +13998,9 @@
       <c r="AF123">
         <v>2</v>
       </c>
+      <c r="AG123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13736,6 +14107,9 @@
       <c r="AF124">
         <v>6</v>
       </c>
+      <c r="AG124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13842,6 +14216,9 @@
       <c r="AF125">
         <v>22</v>
       </c>
+      <c r="AG125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13948,6 +14325,9 @@
       <c r="AF126">
         <v>91</v>
       </c>
+      <c r="AG126">
+        <v>91</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14054,6 +14434,9 @@
       <c r="AF127">
         <v>17</v>
       </c>
+      <c r="AG127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14160,6 +14543,9 @@
       <c r="AF128">
         <v>19</v>
       </c>
+      <c r="AG128">
+        <v>19</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14266,6 +14652,9 @@
       <c r="AF129">
         <v>44</v>
       </c>
+      <c r="AG129">
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14372,6 +14761,9 @@
       <c r="AF130">
         <v>387</v>
       </c>
+      <c r="AG130">
+        <v>391</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14478,6 +14870,9 @@
       <c r="AF131">
         <v>156</v>
       </c>
+      <c r="AG131">
+        <v>158</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14584,6 +14979,9 @@
       <c r="AF132">
         <v>8</v>
       </c>
+      <c r="AG132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14690,6 +15088,9 @@
       <c r="AF133">
         <v>21</v>
       </c>
+      <c r="AG133">
+        <v>21</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14796,6 +15197,9 @@
       <c r="AF134">
         <v>44</v>
       </c>
+      <c r="AG134">
+        <v>46</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14902,6 +15306,9 @@
       <c r="AF135">
         <v>78</v>
       </c>
+      <c r="AG135">
+        <v>78</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15008,6 +15415,9 @@
       <c r="AF136">
         <v>139</v>
       </c>
+      <c r="AG136">
+        <v>140</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15114,6 +15524,9 @@
       <c r="AF137">
         <v>45</v>
       </c>
+      <c r="AG137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15220,6 +15633,9 @@
       <c r="AF138">
         <v>8</v>
       </c>
+      <c r="AG138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15326,6 +15742,9 @@
       <c r="AF139">
         <v>54</v>
       </c>
+      <c r="AG139">
+        <v>54</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15432,6 +15851,9 @@
       <c r="AF140">
         <v>13</v>
       </c>
+      <c r="AG140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15538,6 +15960,9 @@
       <c r="AF141">
         <v>30</v>
       </c>
+      <c r="AG141">
+        <v>32</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15644,6 +16069,9 @@
       <c r="AF142">
         <v>17</v>
       </c>
+      <c r="AG142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15750,6 +16178,9 @@
       <c r="AF143">
         <v>2</v>
       </c>
+      <c r="AG143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15856,6 +16287,9 @@
       <c r="AF144">
         <v>10</v>
       </c>
+      <c r="AG144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15962,6 +16396,9 @@
       <c r="AF145">
         <v>1</v>
       </c>
+      <c r="AG145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16068,6 +16505,9 @@
       <c r="AF146">
         <v>7</v>
       </c>
+      <c r="AG146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16174,6 +16614,9 @@
       <c r="AF147">
         <v>10</v>
       </c>
+      <c r="AG147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16280,6 +16723,9 @@
       <c r="AF148">
         <v>8</v>
       </c>
+      <c r="AG148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16386,6 +16832,9 @@
       <c r="AF149">
         <v>13</v>
       </c>
+      <c r="AG149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16492,6 +16941,9 @@
       <c r="AF150">
         <v>44</v>
       </c>
+      <c r="AG150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16598,6 +17050,9 @@
       <c r="AF151">
         <v>0</v>
       </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16704,6 +17159,9 @@
       <c r="AF152">
         <v>0</v>
       </c>
+      <c r="AG152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16810,6 +17268,9 @@
       <c r="AF153">
         <v>10</v>
       </c>
+      <c r="AG153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16916,6 +17377,9 @@
       <c r="AF154">
         <v>5</v>
       </c>
+      <c r="AG154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17022,6 +17486,9 @@
       <c r="AF155">
         <v>33</v>
       </c>
+      <c r="AG155">
+        <v>33</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17128,6 +17595,9 @@
       <c r="AF156">
         <v>4</v>
       </c>
+      <c r="AG156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17234,6 +17704,9 @@
       <c r="AF157">
         <v>1</v>
       </c>
+      <c r="AG157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17340,6 +17813,9 @@
       <c r="AF158">
         <v>2</v>
       </c>
+      <c r="AG158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17446,6 +17922,9 @@
       <c r="AF159">
         <v>6</v>
       </c>
+      <c r="AG159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17552,6 +18031,9 @@
       <c r="AF160">
         <v>10</v>
       </c>
+      <c r="AG160">
+        <v>10</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17658,6 +18140,9 @@
       <c r="AF161">
         <v>1</v>
       </c>
+      <c r="AG161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17764,6 +18249,9 @@
       <c r="AF162">
         <v>80</v>
       </c>
+      <c r="AG162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17870,6 +18358,9 @@
       <c r="AF163">
         <v>34</v>
       </c>
+      <c r="AG163">
+        <v>34</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17976,6 +18467,9 @@
       <c r="AF164">
         <v>16</v>
       </c>
+      <c r="AG164">
+        <v>16</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18082,6 +18576,9 @@
       <c r="AF165">
         <v>57</v>
       </c>
+      <c r="AG165">
+        <v>58</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18188,6 +18685,9 @@
       <c r="AF166">
         <v>11</v>
       </c>
+      <c r="AG166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18294,6 +18794,9 @@
       <c r="AF167">
         <v>33</v>
       </c>
+      <c r="AG167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18400,6 +18903,9 @@
       <c r="AF168">
         <v>0</v>
       </c>
+      <c r="AG168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -18506,6 +19012,9 @@
       <c r="AF169">
         <v>18</v>
       </c>
+      <c r="AG169">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18612,6 +19121,9 @@
       <c r="AF170">
         <v>4</v>
       </c>
+      <c r="AG170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18718,6 +19230,9 @@
       <c r="AF171">
         <v>5</v>
       </c>
+      <c r="AG171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18824,6 +19339,9 @@
       <c r="AF172">
         <v>3</v>
       </c>
+      <c r="AG172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18930,6 +19448,9 @@
       <c r="AF173">
         <v>3</v>
       </c>
+      <c r="AG173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19036,6 +19557,9 @@
       <c r="AF174">
         <v>13</v>
       </c>
+      <c r="AG174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19142,6 +19666,9 @@
       <c r="AF175">
         <v>2</v>
       </c>
+      <c r="AG175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19248,6 +19775,9 @@
       <c r="AF176">
         <v>4</v>
       </c>
+      <c r="AG176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -19354,6 +19884,9 @@
       <c r="AF177">
         <v>0</v>
       </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19460,6 +19993,9 @@
       <c r="AF178">
         <v>0</v>
       </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19566,6 +20102,9 @@
       <c r="AF179">
         <v>2</v>
       </c>
+      <c r="AG179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19672,6 +20211,9 @@
       <c r="AF180">
         <v>0</v>
       </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19778,6 +20320,9 @@
       <c r="AF181">
         <v>0</v>
       </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19884,6 +20429,9 @@
       <c r="AF182">
         <v>1</v>
       </c>
+      <c r="AG182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19990,6 +20538,9 @@
       <c r="AF183">
         <v>0</v>
       </c>
+      <c r="AG183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20096,6 +20647,9 @@
       <c r="AF184">
         <v>1</v>
       </c>
+      <c r="AG184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -20202,6 +20756,9 @@
       <c r="AF185">
         <v>5</v>
       </c>
+      <c r="AG185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -20308,6 +20865,9 @@
       <c r="AF186">
         <v>2</v>
       </c>
+      <c r="AG186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20414,6 +20974,9 @@
       <c r="AF187">
         <v>1</v>
       </c>
+      <c r="AG187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -20520,6 +21083,9 @@
       <c r="AF188">
         <v>3</v>
       </c>
+      <c r="AG188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20626,6 +21192,9 @@
       <c r="AF189">
         <v>2</v>
       </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20732,6 +21301,9 @@
       <c r="AF190">
         <v>13</v>
       </c>
+      <c r="AG190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20838,6 +21410,9 @@
       <c r="AF191">
         <v>36</v>
       </c>
+      <c r="AG191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20944,6 +21519,9 @@
       <c r="AF192">
         <v>1</v>
       </c>
+      <c r="AG192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21050,6 +21628,9 @@
       <c r="AF193">
         <v>8</v>
       </c>
+      <c r="AG193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -21156,6 +21737,9 @@
       <c r="AF194">
         <v>2</v>
       </c>
+      <c r="AG194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -21262,6 +21846,9 @@
       <c r="AF195">
         <v>6</v>
       </c>
+      <c r="AG195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -21368,6 +21955,9 @@
       <c r="AF196">
         <v>4</v>
       </c>
+      <c r="AG196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -21474,6 +22064,9 @@
       <c r="AF197">
         <v>10</v>
       </c>
+      <c r="AG197">
+        <v>10</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -21580,6 +22173,9 @@
       <c r="AF198">
         <v>9</v>
       </c>
+      <c r="AG198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -21686,6 +22282,9 @@
       <c r="AF199">
         <v>2</v>
       </c>
+      <c r="AG199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21792,6 +22391,9 @@
       <c r="AF200">
         <v>1</v>
       </c>
+      <c r="AG200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21898,6 +22500,9 @@
       <c r="AF201">
         <v>0</v>
       </c>
+      <c r="AG201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22004,6 +22609,9 @@
       <c r="AF202">
         <v>1</v>
       </c>
+      <c r="AG202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -22110,6 +22718,9 @@
       <c r="AF203">
         <v>9</v>
       </c>
+      <c r="AG203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -22216,6 +22827,9 @@
       <c r="AF204">
         <v>0</v>
       </c>
+      <c r="AG204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -22322,6 +22936,9 @@
       <c r="AF205">
         <v>0</v>
       </c>
+      <c r="AG205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -22428,6 +23045,9 @@
       <c r="AF206">
         <v>0</v>
       </c>
+      <c r="AG206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -22534,6 +23154,9 @@
       <c r="AF207">
         <v>24</v>
       </c>
+      <c r="AG207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -22640,6 +23263,9 @@
       <c r="AF208">
         <v>18</v>
       </c>
+      <c r="AG208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22746,6 +23372,9 @@
       <c r="AF209">
         <v>55</v>
       </c>
+      <c r="AG209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22852,6 +23481,9 @@
       <c r="AF210">
         <v>37</v>
       </c>
+      <c r="AG210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22958,6 +23590,9 @@
       <c r="AF211">
         <v>29</v>
       </c>
+      <c r="AG211">
+        <v>34</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -23064,6 +23699,9 @@
       <c r="AF212">
         <v>9</v>
       </c>
+      <c r="AG212">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -23170,6 +23808,9 @@
       <c r="AF213">
         <v>39</v>
       </c>
+      <c r="AG213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -23276,6 +23917,9 @@
       <c r="AF214">
         <v>4</v>
       </c>
+      <c r="AG214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -23382,6 +24026,9 @@
       <c r="AF215">
         <v>21</v>
       </c>
+      <c r="AG215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -23488,6 +24135,9 @@
       <c r="AF216">
         <v>2</v>
       </c>
+      <c r="AG216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -23594,6 +24244,9 @@
       <c r="AF217">
         <v>5</v>
       </c>
+      <c r="AG217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -23700,6 +24353,9 @@
       <c r="AF218">
         <v>2</v>
       </c>
+      <c r="AG218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23806,6 +24462,9 @@
       <c r="AF219">
         <v>1</v>
       </c>
+      <c r="AG219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23912,6 +24571,9 @@
       <c r="AF220">
         <v>2</v>
       </c>
+      <c r="AG220">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -24018,6 +24680,9 @@
       <c r="AF221">
         <v>0</v>
       </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -24124,6 +24789,9 @@
       <c r="AF222">
         <v>1</v>
       </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24230,6 +24898,9 @@
       <c r="AF223">
         <v>0</v>
       </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -24336,6 +25007,9 @@
       <c r="AF224">
         <v>0</v>
       </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -24442,6 +25116,9 @@
       <c r="AF225">
         <v>0</v>
       </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -24548,6 +25225,9 @@
       <c r="AF226">
         <v>0</v>
       </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -24654,6 +25334,9 @@
       <c r="AF227">
         <v>0</v>
       </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -24760,6 +25443,9 @@
       <c r="AF228">
         <v>0</v>
       </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24866,6 +25552,9 @@
       <c r="AF229">
         <v>2</v>
       </c>
+      <c r="AG229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24972,6 +25661,9 @@
       <c r="AF230">
         <v>0</v>
       </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -25078,6 +25770,9 @@
       <c r="AF231">
         <v>1</v>
       </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -25184,6 +25879,9 @@
       <c r="AF232">
         <v>27</v>
       </c>
+      <c r="AG232">
+        <v>28</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -25290,6 +25988,9 @@
       <c r="AF233">
         <v>186</v>
       </c>
+      <c r="AG233">
+        <v>186</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -25396,6 +26097,9 @@
       <c r="AF234">
         <v>9</v>
       </c>
+      <c r="AG234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -25502,6 +26206,9 @@
       <c r="AF235">
         <v>11</v>
       </c>
+      <c r="AG235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -25608,6 +26315,9 @@
       <c r="AF236">
         <v>0</v>
       </c>
+      <c r="AG236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -25714,6 +26424,9 @@
       <c r="AF237">
         <v>2</v>
       </c>
+      <c r="AG237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -25820,6 +26533,9 @@
       <c r="AF238">
         <v>0</v>
       </c>
+      <c r="AG238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25926,6 +26642,9 @@
       <c r="AF239">
         <v>1</v>
       </c>
+      <c r="AG239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -26032,6 +26751,9 @@
       <c r="AF240">
         <v>2</v>
       </c>
+      <c r="AG240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -26138,6 +26860,9 @@
       <c r="AF241">
         <v>7</v>
       </c>
+      <c r="AG241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -26244,6 +26969,9 @@
       <c r="AF242">
         <v>3</v>
       </c>
+      <c r="AG242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -26350,6 +27078,9 @@
       <c r="AF243">
         <v>1</v>
       </c>
+      <c r="AG243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -26456,6 +27187,9 @@
       <c r="AF244">
         <v>1</v>
       </c>
+      <c r="AG244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -26562,6 +27296,9 @@
       <c r="AF245">
         <v>2</v>
       </c>
+      <c r="AG245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -26668,6 +27405,9 @@
       <c r="AF246">
         <v>2</v>
       </c>
+      <c r="AG246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -26774,6 +27514,9 @@
       <c r="AF247">
         <v>0</v>
       </c>
+      <c r="AG247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26880,6 +27623,9 @@
       <c r="AF248">
         <v>3</v>
       </c>
+      <c r="AG248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26986,6 +27732,9 @@
       <c r="AF249">
         <v>10</v>
       </c>
+      <c r="AG249">
+        <v>11</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -27092,6 +27841,9 @@
       <c r="AF250">
         <v>0</v>
       </c>
+      <c r="AG250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -27198,6 +27950,9 @@
       <c r="AF251">
         <v>4</v>
       </c>
+      <c r="AG251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -27304,6 +28059,9 @@
       <c r="AF252">
         <v>1</v>
       </c>
+      <c r="AG252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -27410,6 +28168,9 @@
       <c r="AF253">
         <v>1</v>
       </c>
+      <c r="AG253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -27516,6 +28277,9 @@
       <c r="AF254">
         <v>1</v>
       </c>
+      <c r="AG254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -27632,6 +28396,9 @@
       <c r="AF255">
         <v>12</v>
       </c>
+      <c r="AG255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -27748,6 +28515,9 @@
       <c r="AF256">
         <v>73</v>
       </c>
+      <c r="AG256">
+        <v>74</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -27864,6 +28634,9 @@
       <c r="AF257">
         <v>50</v>
       </c>
+      <c r="AG257">
+        <v>51</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27980,6 +28753,9 @@
       <c r="AF258">
         <v>59</v>
       </c>
+      <c r="AG258">
+        <v>60</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -28096,6 +28872,9 @@
       <c r="AF259">
         <v>56</v>
       </c>
+      <c r="AG259">
+        <v>57</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -28212,6 +28991,9 @@
       <c r="AF260">
         <v>38</v>
       </c>
+      <c r="AG260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -28328,6 +29110,9 @@
       <c r="AF261">
         <v>83</v>
       </c>
+      <c r="AG261">
+        <v>85</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -28444,6 +29229,9 @@
       <c r="AF262">
         <v>49</v>
       </c>
+      <c r="AG262">
+        <v>50</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -28560,6 +29348,9 @@
       <c r="AF263">
         <v>51</v>
       </c>
+      <c r="AG263">
+        <v>56</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -28666,6 +29457,9 @@
       <c r="AF264">
         <v>8</v>
       </c>
+      <c r="AG264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -28772,6 +29566,9 @@
       <c r="AF265">
         <v>4</v>
       </c>
+      <c r="AG265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -28878,6 +29675,9 @@
       <c r="AF266">
         <v>4</v>
       </c>
+      <c r="AG266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -28984,6 +29784,9 @@
       <c r="AF267">
         <v>4</v>
       </c>
+      <c r="AG267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -29090,6 +29893,9 @@
       <c r="AF268">
         <v>6</v>
       </c>
+      <c r="AG268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -29196,6 +30002,9 @@
       <c r="AF269">
         <v>8</v>
       </c>
+      <c r="AG269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -29302,6 +30111,9 @@
       <c r="AF270">
         <v>0</v>
       </c>
+      <c r="AG270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -29408,6 +30220,9 @@
       <c r="AF271">
         <v>4</v>
       </c>
+      <c r="AG271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -29514,6 +30329,9 @@
       <c r="AF272">
         <v>0</v>
       </c>
+      <c r="AG272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -29620,6 +30438,9 @@
       <c r="AF273">
         <v>0</v>
       </c>
+      <c r="AG273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -29726,6 +30547,9 @@
       <c r="AF274">
         <v>2</v>
       </c>
+      <c r="AG274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -29832,6 +30656,9 @@
       <c r="AF275">
         <v>24</v>
       </c>
+      <c r="AG275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -29938,6 +30765,9 @@
       <c r="AF276">
         <v>9</v>
       </c>
+      <c r="AG276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -30044,6 +30874,9 @@
       <c r="AF277">
         <v>0</v>
       </c>
+      <c r="AG277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -30150,6 +30983,9 @@
       <c r="AF278">
         <v>17</v>
       </c>
+      <c r="AG278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -30256,6 +31092,9 @@
       <c r="AF279">
         <v>4</v>
       </c>
+      <c r="AG279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -30362,6 +31201,9 @@
       <c r="AF280">
         <v>48</v>
       </c>
+      <c r="AG280">
+        <v>50</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -30468,6 +31310,9 @@
       <c r="AF281">
         <v>32</v>
       </c>
+      <c r="AG281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -30574,6 +31419,9 @@
       <c r="AF282">
         <v>1</v>
       </c>
+      <c r="AG282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -30680,6 +31528,9 @@
       <c r="AF283">
         <v>0</v>
       </c>
+      <c r="AG283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -30786,6 +31637,9 @@
       <c r="AF284">
         <v>24</v>
       </c>
+      <c r="AG284">
+        <v>28</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -30892,6 +31746,9 @@
       <c r="AF285">
         <v>22</v>
       </c>
+      <c r="AG285">
+        <v>22</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -30998,6 +31855,9 @@
       <c r="AF286">
         <v>0</v>
       </c>
+      <c r="AG286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -31104,6 +31964,9 @@
       <c r="AF287">
         <v>0</v>
       </c>
+      <c r="AG287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -31210,6 +32073,9 @@
       <c r="AF288">
         <v>0</v>
       </c>
+      <c r="AG288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -31316,6 +32182,9 @@
       <c r="AF289">
         <v>0</v>
       </c>
+      <c r="AG289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -31422,6 +32291,9 @@
       <c r="AF290">
         <v>3</v>
       </c>
+      <c r="AG290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -31528,6 +32400,9 @@
       <c r="AF291">
         <v>0</v>
       </c>
+      <c r="AG291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -31634,6 +32509,9 @@
       <c r="AF292">
         <v>3</v>
       </c>
+      <c r="AG292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -31740,6 +32618,9 @@
       <c r="AF293">
         <v>0</v>
       </c>
+      <c r="AG293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -31846,6 +32727,9 @@
       <c r="AF294">
         <v>7</v>
       </c>
+      <c r="AG294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -31952,6 +32836,9 @@
       <c r="AF295">
         <v>0</v>
       </c>
+      <c r="AG295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -32058,6 +32945,9 @@
       <c r="AF296">
         <v>0</v>
       </c>
+      <c r="AG296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -32164,6 +33054,9 @@
       <c r="AF297">
         <v>1</v>
       </c>
+      <c r="AG297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -32270,6 +33163,9 @@
       <c r="AF298">
         <v>4</v>
       </c>
+      <c r="AG298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -32376,6 +33272,9 @@
       <c r="AF299">
         <v>0</v>
       </c>
+      <c r="AG299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -32482,6 +33381,9 @@
       <c r="AF300">
         <v>0</v>
       </c>
+      <c r="AG300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -32588,6 +33490,9 @@
       <c r="AF301">
         <v>17</v>
       </c>
+      <c r="AG301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -32694,6 +33599,9 @@
       <c r="AF302">
         <v>0</v>
       </c>
+      <c r="AG302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -32800,6 +33708,9 @@
       <c r="AF303">
         <v>0</v>
       </c>
+      <c r="AG303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -32906,6 +33817,9 @@
       <c r="AF304">
         <v>4</v>
       </c>
+      <c r="AG304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -33012,6 +33926,9 @@
       <c r="AF305">
         <v>12</v>
       </c>
+      <c r="AG305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -33118,6 +34035,9 @@
       <c r="AF306">
         <v>217</v>
       </c>
+      <c r="AG306">
+        <v>220</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -33224,6 +34144,9 @@
       <c r="AF307">
         <v>16</v>
       </c>
+      <c r="AG307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -33330,6 +34253,9 @@
       <c r="AF308">
         <v>5</v>
       </c>
+      <c r="AG308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -33436,6 +34362,9 @@
       <c r="AF309">
         <v>0</v>
       </c>
+      <c r="AG309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -33542,6 +34471,9 @@
       <c r="AF310">
         <v>0</v>
       </c>
+      <c r="AG310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -33648,6 +34580,9 @@
       <c r="AF311">
         <v>8</v>
       </c>
+      <c r="AG311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -33754,6 +34689,9 @@
       <c r="AF312">
         <v>5</v>
       </c>
+      <c r="AG312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -33860,6 +34798,9 @@
       <c r="AF313">
         <v>0</v>
       </c>
+      <c r="AG313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -33966,6 +34907,9 @@
       <c r="AF314">
         <v>1</v>
       </c>
+      <c r="AG314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -34072,6 +35016,9 @@
       <c r="AF315">
         <v>7</v>
       </c>
+      <c r="AG315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -34178,6 +35125,9 @@
       <c r="AF316">
         <v>3</v>
       </c>
+      <c r="AG316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -34284,6 +35234,9 @@
       <c r="AF317">
         <v>5</v>
       </c>
+      <c r="AG317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -34390,6 +35343,9 @@
       <c r="AF318">
         <v>11</v>
       </c>
+      <c r="AG318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -34496,6 +35452,9 @@
       <c r="AF319">
         <v>6</v>
       </c>
+      <c r="AG319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -34602,6 +35561,9 @@
       <c r="AF320">
         <v>0</v>
       </c>
+      <c r="AG320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -34708,6 +35670,9 @@
       <c r="AF321">
         <v>1</v>
       </c>
+      <c r="AG321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -34814,6 +35779,9 @@
       <c r="AF322">
         <v>7</v>
       </c>
+      <c r="AG322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -34920,6 +35888,9 @@
       <c r="AF323">
         <v>28</v>
       </c>
+      <c r="AG323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -35026,6 +35997,9 @@
       <c r="AF324">
         <v>21</v>
       </c>
+      <c r="AG324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -35132,6 +36106,9 @@
       <c r="AF325">
         <v>15</v>
       </c>
+      <c r="AG325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -35238,6 +36215,9 @@
       <c r="AF326">
         <v>0</v>
       </c>
+      <c r="AG326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -35344,6 +36324,9 @@
       <c r="AF327">
         <v>0</v>
       </c>
+      <c r="AG327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -35450,6 +36433,9 @@
       <c r="AF328">
         <v>0</v>
       </c>
+      <c r="AG328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -35556,6 +36542,9 @@
       <c r="AF329">
         <v>0</v>
       </c>
+      <c r="AG329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -35662,6 +36651,9 @@
       <c r="AF330">
         <v>3</v>
       </c>
+      <c r="AG330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -35768,6 +36760,9 @@
       <c r="AF331">
         <v>1</v>
       </c>
+      <c r="AG331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -35874,6 +36869,9 @@
       <c r="AF332">
         <v>4</v>
       </c>
+      <c r="AG332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -35980,6 +36978,9 @@
       <c r="AF333">
         <v>0</v>
       </c>
+      <c r="AG333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -36086,6 +37087,9 @@
       <c r="AF334">
         <v>0</v>
       </c>
+      <c r="AG334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -36192,6 +37196,9 @@
       <c r="AF335">
         <v>7</v>
       </c>
+      <c r="AG335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -36298,6 +37305,9 @@
       <c r="AF336">
         <v>2</v>
       </c>
+      <c r="AG336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -36404,6 +37414,9 @@
       <c r="AF337">
         <v>2</v>
       </c>
+      <c r="AG337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -36510,6 +37523,9 @@
       <c r="AF338">
         <v>2</v>
       </c>
+      <c r="AG338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -36616,6 +37632,9 @@
       <c r="AF339">
         <v>10</v>
       </c>
+      <c r="AG339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -36722,6 +37741,9 @@
       <c r="AF340">
         <v>1</v>
       </c>
+      <c r="AG340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -36828,6 +37850,9 @@
       <c r="AF341">
         <v>17</v>
       </c>
+      <c r="AG341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -36934,6 +37959,9 @@
       <c r="AF342">
         <v>0</v>
       </c>
+      <c r="AG342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -37040,6 +38068,9 @@
       <c r="AF343">
         <v>0</v>
       </c>
+      <c r="AG343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -37146,6 +38177,9 @@
       <c r="AF344">
         <v>127</v>
       </c>
+      <c r="AG344">
+        <v>129</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -37252,6 +38286,9 @@
       <c r="AF345">
         <v>4</v>
       </c>
+      <c r="AG345">
+        <v>5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -37358,6 +38395,9 @@
       <c r="AF346">
         <v>5</v>
       </c>
+      <c r="AG346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -37464,6 +38504,9 @@
       <c r="AF347">
         <v>1</v>
       </c>
+      <c r="AG347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -37570,6 +38613,9 @@
       <c r="AF348">
         <v>3</v>
       </c>
+      <c r="AG348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -37676,6 +38722,9 @@
       <c r="AF349">
         <v>14</v>
       </c>
+      <c r="AG349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -37782,6 +38831,9 @@
       <c r="AF350">
         <v>1</v>
       </c>
+      <c r="AG350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -37888,6 +38940,9 @@
       <c r="AF351">
         <v>1</v>
       </c>
+      <c r="AG351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -37994,6 +39049,9 @@
       <c r="AF352">
         <v>0</v>
       </c>
+      <c r="AG352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -38100,6 +39158,9 @@
       <c r="AF353">
         <v>0</v>
       </c>
+      <c r="AG353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -38206,6 +39267,9 @@
       <c r="AF354">
         <v>3</v>
       </c>
+      <c r="AG354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -38312,6 +39376,9 @@
       <c r="AF355">
         <v>1</v>
       </c>
+      <c r="AG355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -38418,6 +39485,9 @@
       <c r="AF356">
         <v>2</v>
       </c>
+      <c r="AG356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -38524,6 +39594,9 @@
       <c r="AF357">
         <v>0</v>
       </c>
+      <c r="AG357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -38630,6 +39703,9 @@
       <c r="AF358">
         <v>0</v>
       </c>
+      <c r="AG358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -38736,6 +39812,9 @@
       <c r="AF359">
         <v>0</v>
       </c>
+      <c r="AG359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -38842,6 +39921,9 @@
       <c r="AF360">
         <v>16</v>
       </c>
+      <c r="AG360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -38948,6 +40030,9 @@
       <c r="AF361">
         <v>2</v>
       </c>
+      <c r="AG361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -39054,6 +40139,9 @@
       <c r="AF362">
         <v>1</v>
       </c>
+      <c r="AG362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -39160,6 +40248,9 @@
       <c r="AF363">
         <v>2</v>
       </c>
+      <c r="AG363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -39266,6 +40357,9 @@
       <c r="AF364">
         <v>0</v>
       </c>
+      <c r="AG364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -39372,6 +40466,9 @@
       <c r="AF365">
         <v>0</v>
       </c>
+      <c r="AG365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -39478,6 +40575,9 @@
       <c r="AF366">
         <v>1</v>
       </c>
+      <c r="AG366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -39584,6 +40684,9 @@
       <c r="AF367">
         <v>2</v>
       </c>
+      <c r="AG367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -39690,6 +40793,9 @@
       <c r="AF368">
         <v>0</v>
       </c>
+      <c r="AG368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -39796,6 +40902,9 @@
       <c r="AF369">
         <v>1</v>
       </c>
+      <c r="AG369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -39902,6 +41011,9 @@
       <c r="AF370">
         <v>0</v>
       </c>
+      <c r="AG370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -40008,6 +41120,9 @@
       <c r="AF371">
         <v>0</v>
       </c>
+      <c r="AG371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -40114,6 +41229,9 @@
       <c r="AF372">
         <v>3</v>
       </c>
+      <c r="AG372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -40220,6 +41338,9 @@
       <c r="AF373">
         <v>2</v>
       </c>
+      <c r="AG373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -40326,6 +41447,9 @@
       <c r="AF374">
         <v>4</v>
       </c>
+      <c r="AG374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -40432,6 +41556,9 @@
       <c r="AF375">
         <v>1</v>
       </c>
+      <c r="AG375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -40538,6 +41665,9 @@
       <c r="AF376">
         <v>0</v>
       </c>
+      <c r="AG376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -40644,6 +41774,9 @@
       <c r="AF377">
         <v>0</v>
       </c>
+      <c r="AG377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -40750,6 +41883,9 @@
       <c r="AF378">
         <v>0</v>
       </c>
+      <c r="AG378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -40856,6 +41992,9 @@
       <c r="AF379">
         <v>1</v>
       </c>
+      <c r="AG379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -40962,6 +42101,9 @@
       <c r="AF380">
         <v>1</v>
       </c>
+      <c r="AG380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -41068,6 +42210,9 @@
       <c r="AF381">
         <v>0</v>
       </c>
+      <c r="AG381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -41174,6 +42319,9 @@
       <c r="AF382">
         <v>4</v>
       </c>
+      <c r="AG382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -41280,6 +42428,9 @@
       <c r="AF383">
         <v>0</v>
       </c>
+      <c r="AG383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -41385,6 +42536,9 @@
       </c>
       <c r="AF384">
         <v>8</v>
+      </c>
+      <c r="AG384">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG384"/>
+  <dimension ref="A1:AH384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,6 +523,11 @@
           <t>2020-04-17</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -642,6 +647,9 @@
       <c r="AG2">
         <v>213</v>
       </c>
+      <c r="AH2">
+        <v>214</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -761,6 +769,9 @@
       <c r="AG3">
         <v>148</v>
       </c>
+      <c r="AH3">
+        <v>149</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -880,6 +891,9 @@
       <c r="AG4">
         <v>123</v>
       </c>
+      <c r="AH4">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -999,6 +1013,9 @@
       <c r="AG5">
         <v>84</v>
       </c>
+      <c r="AH5">
+        <v>85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1118,6 +1135,9 @@
       <c r="AG6">
         <v>152</v>
       </c>
+      <c r="AH6">
+        <v>153</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1237,6 +1257,9 @@
       <c r="AG7">
         <v>105</v>
       </c>
+      <c r="AH7">
+        <v>105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1356,6 +1379,9 @@
       <c r="AG8">
         <v>139</v>
       </c>
+      <c r="AH8">
+        <v>139</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1475,6 +1501,9 @@
       <c r="AG9">
         <v>119</v>
       </c>
+      <c r="AH9">
+        <v>122</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1594,6 +1623,9 @@
       <c r="AG10">
         <v>85</v>
       </c>
+      <c r="AH10">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1713,6 +1745,9 @@
       <c r="AG11">
         <v>84</v>
       </c>
+      <c r="AH11">
+        <v>84</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1832,6 +1867,9 @@
       <c r="AG12">
         <v>158</v>
       </c>
+      <c r="AH12">
+        <v>161</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1951,6 +1989,9 @@
       <c r="AG13">
         <v>188</v>
       </c>
+      <c r="AH13">
+        <v>190</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2070,6 +2111,9 @@
       <c r="AG14">
         <v>157</v>
       </c>
+      <c r="AH14">
+        <v>159</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2189,6 +2233,9 @@
       <c r="AG15">
         <v>144</v>
       </c>
+      <c r="AH15">
+        <v>150</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2308,6 +2355,9 @@
       <c r="AG16">
         <v>121</v>
       </c>
+      <c r="AH16">
+        <v>124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2427,6 +2477,9 @@
       <c r="AG17">
         <v>4</v>
       </c>
+      <c r="AH17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2546,6 +2599,9 @@
       <c r="AG18">
         <v>2</v>
       </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2665,6 +2721,9 @@
       <c r="AG19">
         <v>40</v>
       </c>
+      <c r="AH19">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2774,6 +2833,9 @@
       <c r="AG20">
         <v>14</v>
       </c>
+      <c r="AH20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2883,6 +2945,9 @@
       <c r="AG21">
         <v>126</v>
       </c>
+      <c r="AH21">
+        <v>129</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2992,6 +3057,9 @@
       <c r="AG22">
         <v>50</v>
       </c>
+      <c r="AH22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3101,6 +3169,9 @@
       <c r="AG23">
         <v>46</v>
       </c>
+      <c r="AH23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3210,6 +3281,9 @@
       <c r="AG24">
         <v>4</v>
       </c>
+      <c r="AH24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3319,6 +3393,9 @@
       <c r="AG25">
         <v>1</v>
       </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3428,6 +3505,9 @@
       <c r="AG26">
         <v>0</v>
       </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3537,6 +3617,9 @@
       <c r="AG27">
         <v>6</v>
       </c>
+      <c r="AH27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3646,6 +3729,9 @@
       <c r="AG28">
         <v>6</v>
       </c>
+      <c r="AH28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3755,6 +3841,9 @@
       <c r="AG29">
         <v>12</v>
       </c>
+      <c r="AH29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3864,6 +3953,9 @@
       <c r="AG30">
         <v>13</v>
       </c>
+      <c r="AH30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3973,6 +4065,9 @@
       <c r="AG31">
         <v>14</v>
       </c>
+      <c r="AH31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4082,6 +4177,9 @@
       <c r="AG32">
         <v>11</v>
       </c>
+      <c r="AH32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4191,6 +4289,9 @@
       <c r="AG33">
         <v>13</v>
       </c>
+      <c r="AH33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4300,6 +4401,9 @@
       <c r="AG34">
         <v>0</v>
       </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4409,6 +4513,9 @@
       <c r="AG35">
         <v>0</v>
       </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4518,6 +4625,9 @@
       <c r="AG36">
         <v>3</v>
       </c>
+      <c r="AH36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4627,6 +4737,9 @@
       <c r="AG37">
         <v>0</v>
       </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4736,6 +4849,9 @@
       <c r="AG38">
         <v>1</v>
       </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4845,6 +4961,9 @@
       <c r="AG39">
         <v>20</v>
       </c>
+      <c r="AH39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4954,6 +5073,9 @@
       <c r="AG40">
         <v>36</v>
       </c>
+      <c r="AH40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5063,6 +5185,9 @@
       <c r="AG41">
         <v>0</v>
       </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5172,6 +5297,9 @@
       <c r="AG42">
         <v>11</v>
       </c>
+      <c r="AH42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5281,6 +5409,9 @@
       <c r="AG43">
         <v>18</v>
       </c>
+      <c r="AH43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5390,6 +5521,9 @@
       <c r="AG44">
         <v>14</v>
       </c>
+      <c r="AH44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5499,6 +5633,9 @@
       <c r="AG45">
         <v>26</v>
       </c>
+      <c r="AH45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5608,6 +5745,9 @@
       <c r="AG46">
         <v>1</v>
       </c>
+      <c r="AH46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5717,6 +5857,9 @@
       <c r="AG47">
         <v>3</v>
       </c>
+      <c r="AH47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5826,6 +5969,9 @@
       <c r="AG48">
         <v>3</v>
       </c>
+      <c r="AH48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5935,6 +6081,9 @@
       <c r="AG49">
         <v>7</v>
       </c>
+      <c r="AH49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6044,6 +6193,9 @@
       <c r="AG50">
         <v>2</v>
       </c>
+      <c r="AH50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6153,6 +6305,9 @@
       <c r="AG51">
         <v>6</v>
       </c>
+      <c r="AH51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6262,6 +6417,9 @@
       <c r="AG52">
         <v>0</v>
       </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6371,6 +6529,9 @@
       <c r="AG53">
         <v>1</v>
       </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6480,6 +6641,9 @@
       <c r="AG54">
         <v>6</v>
       </c>
+      <c r="AH54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6589,6 +6753,9 @@
       <c r="AG55">
         <v>5</v>
       </c>
+      <c r="AH55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6698,6 +6865,9 @@
       <c r="AG56">
         <v>0</v>
       </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6807,6 +6977,9 @@
       <c r="AG57">
         <v>10</v>
       </c>
+      <c r="AH57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6916,6 +7089,9 @@
       <c r="AG58">
         <v>0</v>
       </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7025,6 +7201,9 @@
       <c r="AG59">
         <v>0</v>
       </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7134,6 +7313,9 @@
       <c r="AG60">
         <v>0</v>
       </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7243,6 +7425,9 @@
       <c r="AG61">
         <v>1</v>
       </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7352,6 +7537,9 @@
       <c r="AG62">
         <v>2</v>
       </c>
+      <c r="AH62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7461,6 +7649,9 @@
       <c r="AG63">
         <v>2</v>
       </c>
+      <c r="AH63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7570,6 +7761,9 @@
       <c r="AG64">
         <v>0</v>
       </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7679,6 +7873,9 @@
       <c r="AG65">
         <v>3</v>
       </c>
+      <c r="AH65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7788,6 +7985,9 @@
       <c r="AG66">
         <v>4</v>
       </c>
+      <c r="AH66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7897,6 +8097,9 @@
       <c r="AG67">
         <v>1</v>
       </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8006,6 +8209,9 @@
       <c r="AG68">
         <v>3</v>
       </c>
+      <c r="AH68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8115,6 +8321,9 @@
       <c r="AG69">
         <v>36</v>
       </c>
+      <c r="AH69">
+        <v>37</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8224,6 +8433,9 @@
       <c r="AG70">
         <v>5</v>
       </c>
+      <c r="AH70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8333,6 +8545,9 @@
       <c r="AG71">
         <v>0</v>
       </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8442,6 +8657,9 @@
       <c r="AG72">
         <v>2</v>
       </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8551,6 +8769,9 @@
       <c r="AG73">
         <v>5</v>
       </c>
+      <c r="AH73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8660,6 +8881,9 @@
       <c r="AG74">
         <v>3</v>
       </c>
+      <c r="AH74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8769,6 +8993,9 @@
       <c r="AG75">
         <v>0</v>
       </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8878,6 +9105,9 @@
       <c r="AG76">
         <v>0</v>
       </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8987,6 +9217,9 @@
       <c r="AG77">
         <v>2</v>
       </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9096,6 +9329,9 @@
       <c r="AG78">
         <v>3</v>
       </c>
+      <c r="AH78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9205,6 +9441,9 @@
       <c r="AG79">
         <v>1</v>
       </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9314,6 +9553,9 @@
       <c r="AG80">
         <v>1</v>
       </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9423,6 +9665,9 @@
       <c r="AG81">
         <v>0</v>
       </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9532,6 +9777,9 @@
       <c r="AG82">
         <v>5</v>
       </c>
+      <c r="AH82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9641,6 +9889,9 @@
       <c r="AG83">
         <v>0</v>
       </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9750,6 +10001,9 @@
       <c r="AG84">
         <v>0</v>
       </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9859,6 +10113,9 @@
       <c r="AG85">
         <v>4</v>
       </c>
+      <c r="AH85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9968,6 +10225,9 @@
       <c r="AG86">
         <v>0</v>
       </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10077,6 +10337,9 @@
       <c r="AG87">
         <v>0</v>
       </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10186,6 +10449,9 @@
       <c r="AG88">
         <v>0</v>
       </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10295,6 +10561,9 @@
       <c r="AG89">
         <v>5</v>
       </c>
+      <c r="AH89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10404,6 +10673,9 @@
       <c r="AG90">
         <v>0</v>
       </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10513,6 +10785,9 @@
       <c r="AG91">
         <v>0</v>
       </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10622,6 +10897,9 @@
       <c r="AG92">
         <v>0</v>
       </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10731,6 +11009,9 @@
       <c r="AG93">
         <v>1</v>
       </c>
+      <c r="AH93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10840,6 +11121,9 @@
       <c r="AG94">
         <v>0</v>
       </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10949,6 +11233,9 @@
       <c r="AG95">
         <v>1</v>
       </c>
+      <c r="AH95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11058,6 +11345,9 @@
       <c r="AG96">
         <v>0</v>
       </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11167,6 +11457,9 @@
       <c r="AG97">
         <v>0</v>
       </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11276,6 +11569,9 @@
       <c r="AG98">
         <v>0</v>
       </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11385,6 +11681,9 @@
       <c r="AG99">
         <v>0</v>
       </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11494,6 +11793,9 @@
       <c r="AG100">
         <v>5</v>
       </c>
+      <c r="AH100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11603,6 +11905,9 @@
       <c r="AG101">
         <v>13</v>
       </c>
+      <c r="AH101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11712,6 +12017,9 @@
       <c r="AG102">
         <v>3</v>
       </c>
+      <c r="AH102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11821,6 +12129,9 @@
       <c r="AG103">
         <v>5</v>
       </c>
+      <c r="AH103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11930,6 +12241,9 @@
       <c r="AG104">
         <v>0</v>
       </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12039,6 +12353,9 @@
       <c r="AG105">
         <v>0</v>
       </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12148,6 +12465,9 @@
       <c r="AG106">
         <v>6</v>
       </c>
+      <c r="AH106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12257,6 +12577,9 @@
       <c r="AG107">
         <v>0</v>
       </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12366,6 +12689,9 @@
       <c r="AG108">
         <v>1</v>
       </c>
+      <c r="AH108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12475,6 +12801,9 @@
       <c r="AG109">
         <v>0</v>
       </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12584,6 +12913,9 @@
       <c r="AG110">
         <v>32</v>
       </c>
+      <c r="AH110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12693,6 +13025,9 @@
       <c r="AG111">
         <v>92</v>
       </c>
+      <c r="AH111">
+        <v>92</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12802,6 +13137,9 @@
       <c r="AG112">
         <v>53</v>
       </c>
+      <c r="AH112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12911,6 +13249,9 @@
       <c r="AG113">
         <v>83</v>
       </c>
+      <c r="AH113">
+        <v>83</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13020,6 +13361,9 @@
       <c r="AG114">
         <v>160</v>
       </c>
+      <c r="AH114">
+        <v>161</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13129,6 +13473,9 @@
       <c r="AG115">
         <v>20</v>
       </c>
+      <c r="AH115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13238,6 +13585,9 @@
       <c r="AG116">
         <v>9</v>
       </c>
+      <c r="AH116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13347,6 +13697,9 @@
       <c r="AG117">
         <v>2</v>
       </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13456,6 +13809,9 @@
       <c r="AG118">
         <v>2</v>
       </c>
+      <c r="AH118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13565,6 +13921,9 @@
       <c r="AG119">
         <v>3</v>
       </c>
+      <c r="AH119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13674,6 +14033,9 @@
       <c r="AG120">
         <v>45</v>
       </c>
+      <c r="AH120">
+        <v>46</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13783,6 +14145,9 @@
       <c r="AG121">
         <v>2</v>
       </c>
+      <c r="AH121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13892,6 +14257,9 @@
       <c r="AG122">
         <v>1</v>
       </c>
+      <c r="AH122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14001,6 +14369,9 @@
       <c r="AG123">
         <v>2</v>
       </c>
+      <c r="AH123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14110,6 +14481,9 @@
       <c r="AG124">
         <v>6</v>
       </c>
+      <c r="AH124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14219,6 +14593,9 @@
       <c r="AG125">
         <v>22</v>
       </c>
+      <c r="AH125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14328,6 +14705,9 @@
       <c r="AG126">
         <v>91</v>
       </c>
+      <c r="AH126">
+        <v>92</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14437,6 +14817,9 @@
       <c r="AG127">
         <v>17</v>
       </c>
+      <c r="AH127">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14546,6 +14929,9 @@
       <c r="AG128">
         <v>19</v>
       </c>
+      <c r="AH128">
+        <v>19</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14655,6 +15041,9 @@
       <c r="AG129">
         <v>44</v>
       </c>
+      <c r="AH129">
+        <v>45</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14764,6 +15153,9 @@
       <c r="AG130">
         <v>391</v>
       </c>
+      <c r="AH130">
+        <v>395</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14873,6 +15265,9 @@
       <c r="AG131">
         <v>158</v>
       </c>
+      <c r="AH131">
+        <v>161</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14982,6 +15377,9 @@
       <c r="AG132">
         <v>8</v>
       </c>
+      <c r="AH132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15091,6 +15489,9 @@
       <c r="AG133">
         <v>21</v>
       </c>
+      <c r="AH133">
+        <v>21</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15200,6 +15601,9 @@
       <c r="AG134">
         <v>46</v>
       </c>
+      <c r="AH134">
+        <v>46</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15309,6 +15713,9 @@
       <c r="AG135">
         <v>78</v>
       </c>
+      <c r="AH135">
+        <v>78</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15418,6 +15825,9 @@
       <c r="AG136">
         <v>140</v>
       </c>
+      <c r="AH136">
+        <v>140</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15527,6 +15937,9 @@
       <c r="AG137">
         <v>45</v>
       </c>
+      <c r="AH137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15636,6 +16049,9 @@
       <c r="AG138">
         <v>8</v>
       </c>
+      <c r="AH138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15745,6 +16161,9 @@
       <c r="AG139">
         <v>54</v>
       </c>
+      <c r="AH139">
+        <v>54</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15854,6 +16273,9 @@
       <c r="AG140">
         <v>14</v>
       </c>
+      <c r="AH140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15963,6 +16385,9 @@
       <c r="AG141">
         <v>32</v>
       </c>
+      <c r="AH141">
+        <v>32</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16072,6 +16497,9 @@
       <c r="AG142">
         <v>17</v>
       </c>
+      <c r="AH142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16181,6 +16609,9 @@
       <c r="AG143">
         <v>2</v>
       </c>
+      <c r="AH143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16290,6 +16721,9 @@
       <c r="AG144">
         <v>10</v>
       </c>
+      <c r="AH144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16399,6 +16833,9 @@
       <c r="AG145">
         <v>1</v>
       </c>
+      <c r="AH145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16508,6 +16945,9 @@
       <c r="AG146">
         <v>7</v>
       </c>
+      <c r="AH146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16617,6 +17057,9 @@
       <c r="AG147">
         <v>10</v>
       </c>
+      <c r="AH147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16726,6 +17169,9 @@
       <c r="AG148">
         <v>8</v>
       </c>
+      <c r="AH148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16835,6 +17281,9 @@
       <c r="AG149">
         <v>13</v>
       </c>
+      <c r="AH149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16944,6 +17393,9 @@
       <c r="AG150">
         <v>44</v>
       </c>
+      <c r="AH150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17053,6 +17505,9 @@
       <c r="AG151">
         <v>0</v>
       </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17162,6 +17617,9 @@
       <c r="AG152">
         <v>0</v>
       </c>
+      <c r="AH152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17271,6 +17729,9 @@
       <c r="AG153">
         <v>10</v>
       </c>
+      <c r="AH153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17380,6 +17841,9 @@
       <c r="AG154">
         <v>5</v>
       </c>
+      <c r="AH154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17489,6 +17953,9 @@
       <c r="AG155">
         <v>33</v>
       </c>
+      <c r="AH155">
+        <v>35</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17598,6 +18065,9 @@
       <c r="AG156">
         <v>4</v>
       </c>
+      <c r="AH156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17707,6 +18177,9 @@
       <c r="AG157">
         <v>1</v>
       </c>
+      <c r="AH157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17816,6 +18289,9 @@
       <c r="AG158">
         <v>2</v>
       </c>
+      <c r="AH158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17925,6 +18401,9 @@
       <c r="AG159">
         <v>6</v>
       </c>
+      <c r="AH159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18034,6 +18513,9 @@
       <c r="AG160">
         <v>10</v>
       </c>
+      <c r="AH160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18143,6 +18625,9 @@
       <c r="AG161">
         <v>1</v>
       </c>
+      <c r="AH161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18252,6 +18737,9 @@
       <c r="AG162">
         <v>81</v>
       </c>
+      <c r="AH162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18361,6 +18849,9 @@
       <c r="AG163">
         <v>34</v>
       </c>
+      <c r="AH163">
+        <v>34</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18470,6 +18961,9 @@
       <c r="AG164">
         <v>16</v>
       </c>
+      <c r="AH164">
+        <v>18</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18579,6 +19073,9 @@
       <c r="AG165">
         <v>58</v>
       </c>
+      <c r="AH165">
+        <v>58</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18688,6 +19185,9 @@
       <c r="AG166">
         <v>11</v>
       </c>
+      <c r="AH166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18797,6 +19297,9 @@
       <c r="AG167">
         <v>33</v>
       </c>
+      <c r="AH167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18906,6 +19409,9 @@
       <c r="AG168">
         <v>0</v>
       </c>
+      <c r="AH168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19015,6 +19521,9 @@
       <c r="AG169">
         <v>18</v>
       </c>
+      <c r="AH169">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19124,6 +19633,9 @@
       <c r="AG170">
         <v>4</v>
       </c>
+      <c r="AH170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19233,6 +19745,9 @@
       <c r="AG171">
         <v>5</v>
       </c>
+      <c r="AH171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19342,6 +19857,9 @@
       <c r="AG172">
         <v>3</v>
       </c>
+      <c r="AH172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19451,6 +19969,9 @@
       <c r="AG173">
         <v>3</v>
       </c>
+      <c r="AH173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19560,6 +20081,9 @@
       <c r="AG174">
         <v>13</v>
       </c>
+      <c r="AH174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19669,6 +20193,9 @@
       <c r="AG175">
         <v>2</v>
       </c>
+      <c r="AH175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19778,6 +20305,9 @@
       <c r="AG176">
         <v>4</v>
       </c>
+      <c r="AH176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -19887,6 +20417,9 @@
       <c r="AG177">
         <v>0</v>
       </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19996,6 +20529,9 @@
       <c r="AG178">
         <v>0</v>
       </c>
+      <c r="AH178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20105,6 +20641,9 @@
       <c r="AG179">
         <v>2</v>
       </c>
+      <c r="AH179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20214,6 +20753,9 @@
       <c r="AG180">
         <v>0</v>
       </c>
+      <c r="AH180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20323,6 +20865,9 @@
       <c r="AG181">
         <v>0</v>
       </c>
+      <c r="AH181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20432,6 +20977,9 @@
       <c r="AG182">
         <v>1</v>
       </c>
+      <c r="AH182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20541,6 +21089,9 @@
       <c r="AG183">
         <v>0</v>
       </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20650,6 +21201,9 @@
       <c r="AG184">
         <v>1</v>
       </c>
+      <c r="AH184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -20759,6 +21313,9 @@
       <c r="AG185">
         <v>5</v>
       </c>
+      <c r="AH185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -20868,6 +21425,9 @@
       <c r="AG186">
         <v>2</v>
       </c>
+      <c r="AH186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20977,6 +21537,9 @@
       <c r="AG187">
         <v>1</v>
       </c>
+      <c r="AH187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -21086,6 +21649,9 @@
       <c r="AG188">
         <v>3</v>
       </c>
+      <c r="AH188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -21195,6 +21761,9 @@
       <c r="AG189">
         <v>2</v>
       </c>
+      <c r="AH189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -21304,6 +21873,9 @@
       <c r="AG190">
         <v>13</v>
       </c>
+      <c r="AH190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21413,6 +21985,9 @@
       <c r="AG191">
         <v>36</v>
       </c>
+      <c r="AH191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -21522,6 +22097,9 @@
       <c r="AG192">
         <v>1</v>
       </c>
+      <c r="AH192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21631,6 +22209,9 @@
       <c r="AG193">
         <v>8</v>
       </c>
+      <c r="AH193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -21740,6 +22321,9 @@
       <c r="AG194">
         <v>2</v>
       </c>
+      <c r="AH194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -21849,6 +22433,9 @@
       <c r="AG195">
         <v>6</v>
       </c>
+      <c r="AH195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -21958,6 +22545,9 @@
       <c r="AG196">
         <v>4</v>
       </c>
+      <c r="AH196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -22067,6 +22657,9 @@
       <c r="AG197">
         <v>10</v>
       </c>
+      <c r="AH197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -22176,6 +22769,9 @@
       <c r="AG198">
         <v>9</v>
       </c>
+      <c r="AH198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -22285,6 +22881,9 @@
       <c r="AG199">
         <v>2</v>
       </c>
+      <c r="AH199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22394,6 +22993,9 @@
       <c r="AG200">
         <v>1</v>
       </c>
+      <c r="AH200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -22503,6 +23105,9 @@
       <c r="AG201">
         <v>0</v>
       </c>
+      <c r="AH201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22612,6 +23217,9 @@
       <c r="AG202">
         <v>1</v>
       </c>
+      <c r="AH202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -22721,6 +23329,9 @@
       <c r="AG203">
         <v>9</v>
       </c>
+      <c r="AH203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -22830,6 +23441,9 @@
       <c r="AG204">
         <v>0</v>
       </c>
+      <c r="AH204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -22939,6 +23553,9 @@
       <c r="AG205">
         <v>0</v>
       </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -23048,6 +23665,9 @@
       <c r="AG206">
         <v>0</v>
       </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -23157,6 +23777,9 @@
       <c r="AG207">
         <v>25</v>
       </c>
+      <c r="AH207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -23266,6 +23889,9 @@
       <c r="AG208">
         <v>18</v>
       </c>
+      <c r="AH208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -23375,6 +24001,9 @@
       <c r="AG209">
         <v>55</v>
       </c>
+      <c r="AH209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -23484,6 +24113,9 @@
       <c r="AG210">
         <v>38</v>
       </c>
+      <c r="AH210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -23593,6 +24225,9 @@
       <c r="AG211">
         <v>34</v>
       </c>
+      <c r="AH211">
+        <v>35</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -23702,6 +24337,9 @@
       <c r="AG212">
         <v>9</v>
       </c>
+      <c r="AH212">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -23811,6 +24449,9 @@
       <c r="AG213">
         <v>39</v>
       </c>
+      <c r="AH213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -23920,6 +24561,9 @@
       <c r="AG214">
         <v>4</v>
       </c>
+      <c r="AH214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -24029,6 +24673,9 @@
       <c r="AG215">
         <v>21</v>
       </c>
+      <c r="AH215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -24138,6 +24785,9 @@
       <c r="AG216">
         <v>2</v>
       </c>
+      <c r="AH216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -24247,6 +24897,9 @@
       <c r="AG217">
         <v>5</v>
       </c>
+      <c r="AH217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -24356,6 +25009,9 @@
       <c r="AG218">
         <v>2</v>
       </c>
+      <c r="AH218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -24465,6 +25121,9 @@
       <c r="AG219">
         <v>1</v>
       </c>
+      <c r="AH219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -24574,6 +25233,9 @@
       <c r="AG220">
         <v>2</v>
       </c>
+      <c r="AH220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -24683,6 +25345,9 @@
       <c r="AG221">
         <v>0</v>
       </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -24792,6 +25457,9 @@
       <c r="AG222">
         <v>1</v>
       </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24901,6 +25569,9 @@
       <c r="AG223">
         <v>0</v>
       </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25010,6 +25681,9 @@
       <c r="AG224">
         <v>0</v>
       </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -25119,6 +25793,9 @@
       <c r="AG225">
         <v>0</v>
       </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -25228,6 +25905,9 @@
       <c r="AG226">
         <v>0</v>
       </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -25337,6 +26017,9 @@
       <c r="AG227">
         <v>0</v>
       </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -25446,6 +26129,9 @@
       <c r="AG228">
         <v>0</v>
       </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -25555,6 +26241,9 @@
       <c r="AG229">
         <v>2</v>
       </c>
+      <c r="AH229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -25664,6 +26353,9 @@
       <c r="AG230">
         <v>0</v>
       </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -25773,6 +26465,9 @@
       <c r="AG231">
         <v>1</v>
       </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -25882,6 +26577,9 @@
       <c r="AG232">
         <v>28</v>
       </c>
+      <c r="AH232">
+        <v>29</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -25991,6 +26689,9 @@
       <c r="AG233">
         <v>186</v>
       </c>
+      <c r="AH233">
+        <v>192</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -26100,6 +26801,9 @@
       <c r="AG234">
         <v>9</v>
       </c>
+      <c r="AH234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -26209,6 +26913,9 @@
       <c r="AG235">
         <v>11</v>
       </c>
+      <c r="AH235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -26318,6 +27025,9 @@
       <c r="AG236">
         <v>0</v>
       </c>
+      <c r="AH236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -26427,6 +27137,9 @@
       <c r="AG237">
         <v>2</v>
       </c>
+      <c r="AH237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -26536,6 +27249,9 @@
       <c r="AG238">
         <v>0</v>
       </c>
+      <c r="AH238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -26645,6 +27361,9 @@
       <c r="AG239">
         <v>1</v>
       </c>
+      <c r="AH239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -26754,6 +27473,9 @@
       <c r="AG240">
         <v>2</v>
       </c>
+      <c r="AH240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -26863,6 +27585,9 @@
       <c r="AG241">
         <v>7</v>
       </c>
+      <c r="AH241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -26972,6 +27697,9 @@
       <c r="AG242">
         <v>3</v>
       </c>
+      <c r="AH242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -27081,6 +27809,9 @@
       <c r="AG243">
         <v>1</v>
       </c>
+      <c r="AH243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -27190,6 +27921,9 @@
       <c r="AG244">
         <v>1</v>
       </c>
+      <c r="AH244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -27299,6 +28033,9 @@
       <c r="AG245">
         <v>2</v>
       </c>
+      <c r="AH245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -27408,6 +28145,9 @@
       <c r="AG246">
         <v>2</v>
       </c>
+      <c r="AH246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -27517,6 +28257,9 @@
       <c r="AG247">
         <v>0</v>
       </c>
+      <c r="AH247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -27626,6 +28369,9 @@
       <c r="AG248">
         <v>3</v>
       </c>
+      <c r="AH248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -27735,6 +28481,9 @@
       <c r="AG249">
         <v>11</v>
       </c>
+      <c r="AH249">
+        <v>12</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -27844,6 +28593,9 @@
       <c r="AG250">
         <v>0</v>
       </c>
+      <c r="AH250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -27953,6 +28705,9 @@
       <c r="AG251">
         <v>4</v>
       </c>
+      <c r="AH251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -28062,6 +28817,9 @@
       <c r="AG252">
         <v>1</v>
       </c>
+      <c r="AH252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -28171,6 +28929,9 @@
       <c r="AG253">
         <v>1</v>
       </c>
+      <c r="AH253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -28280,6 +29041,9 @@
       <c r="AG254">
         <v>1</v>
       </c>
+      <c r="AH254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -28399,6 +29163,9 @@
       <c r="AG255">
         <v>12</v>
       </c>
+      <c r="AH255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -28518,6 +29285,9 @@
       <c r="AG256">
         <v>74</v>
       </c>
+      <c r="AH256">
+        <v>77</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -28637,6 +29407,9 @@
       <c r="AG257">
         <v>51</v>
       </c>
+      <c r="AH257">
+        <v>52</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -28756,6 +29529,9 @@
       <c r="AG258">
         <v>60</v>
       </c>
+      <c r="AH258">
+        <v>62</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -28875,6 +29651,9 @@
       <c r="AG259">
         <v>57</v>
       </c>
+      <c r="AH259">
+        <v>58</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -28994,6 +29773,9 @@
       <c r="AG260">
         <v>39</v>
       </c>
+      <c r="AH260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -29113,6 +29895,9 @@
       <c r="AG261">
         <v>85</v>
       </c>
+      <c r="AH261">
+        <v>89</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -29232,6 +30017,9 @@
       <c r="AG262">
         <v>50</v>
       </c>
+      <c r="AH262">
+        <v>50</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -29351,6 +30139,9 @@
       <c r="AG263">
         <v>56</v>
       </c>
+      <c r="AH263">
+        <v>57</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -29460,6 +30251,9 @@
       <c r="AG264">
         <v>9</v>
       </c>
+      <c r="AH264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -29569,6 +30363,9 @@
       <c r="AG265">
         <v>4</v>
       </c>
+      <c r="AH265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -29678,6 +30475,9 @@
       <c r="AG266">
         <v>4</v>
       </c>
+      <c r="AH266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -29787,6 +30587,9 @@
       <c r="AG267">
         <v>4</v>
       </c>
+      <c r="AH267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -29896,6 +30699,9 @@
       <c r="AG268">
         <v>6</v>
       </c>
+      <c r="AH268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -30005,6 +30811,9 @@
       <c r="AG269">
         <v>8</v>
       </c>
+      <c r="AH269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -30114,6 +30923,9 @@
       <c r="AG270">
         <v>0</v>
       </c>
+      <c r="AH270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -30223,6 +31035,9 @@
       <c r="AG271">
         <v>4</v>
       </c>
+      <c r="AH271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -30332,6 +31147,9 @@
       <c r="AG272">
         <v>0</v>
       </c>
+      <c r="AH272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -30441,6 +31259,9 @@
       <c r="AG273">
         <v>0</v>
       </c>
+      <c r="AH273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -30550,6 +31371,9 @@
       <c r="AG274">
         <v>2</v>
       </c>
+      <c r="AH274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -30659,6 +31483,9 @@
       <c r="AG275">
         <v>24</v>
       </c>
+      <c r="AH275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -30768,6 +31595,9 @@
       <c r="AG276">
         <v>9</v>
       </c>
+      <c r="AH276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -30877,6 +31707,9 @@
       <c r="AG277">
         <v>0</v>
       </c>
+      <c r="AH277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -30986,6 +31819,9 @@
       <c r="AG278">
         <v>17</v>
       </c>
+      <c r="AH278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -31095,6 +31931,9 @@
       <c r="AG279">
         <v>5</v>
       </c>
+      <c r="AH279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -31204,6 +32043,9 @@
       <c r="AG280">
         <v>50</v>
       </c>
+      <c r="AH280">
+        <v>50</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -31313,6 +32155,9 @@
       <c r="AG281">
         <v>34</v>
       </c>
+      <c r="AH281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -31422,6 +32267,9 @@
       <c r="AG282">
         <v>1</v>
       </c>
+      <c r="AH282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -31531,6 +32379,9 @@
       <c r="AG283">
         <v>0</v>
       </c>
+      <c r="AH283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -31640,6 +32491,9 @@
       <c r="AG284">
         <v>28</v>
       </c>
+      <c r="AH284">
+        <v>35</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -31749,6 +32603,9 @@
       <c r="AG285">
         <v>22</v>
       </c>
+      <c r="AH285">
+        <v>23</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -31858,6 +32715,9 @@
       <c r="AG286">
         <v>0</v>
       </c>
+      <c r="AH286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -31967,6 +32827,9 @@
       <c r="AG287">
         <v>0</v>
       </c>
+      <c r="AH287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -32076,6 +32939,9 @@
       <c r="AG288">
         <v>0</v>
       </c>
+      <c r="AH288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -32185,6 +33051,9 @@
       <c r="AG289">
         <v>1</v>
       </c>
+      <c r="AH289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -32294,6 +33163,9 @@
       <c r="AG290">
         <v>3</v>
       </c>
+      <c r="AH290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -32403,6 +33275,9 @@
       <c r="AG291">
         <v>0</v>
       </c>
+      <c r="AH291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -32512,6 +33387,9 @@
       <c r="AG292">
         <v>3</v>
       </c>
+      <c r="AH292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -32621,6 +33499,9 @@
       <c r="AG293">
         <v>0</v>
       </c>
+      <c r="AH293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -32730,6 +33611,9 @@
       <c r="AG294">
         <v>7</v>
       </c>
+      <c r="AH294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -32839,6 +33723,9 @@
       <c r="AG295">
         <v>0</v>
       </c>
+      <c r="AH295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -32948,6 +33835,9 @@
       <c r="AG296">
         <v>0</v>
       </c>
+      <c r="AH296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -33057,6 +33947,9 @@
       <c r="AG297">
         <v>1</v>
       </c>
+      <c r="AH297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -33166,6 +34059,9 @@
       <c r="AG298">
         <v>4</v>
       </c>
+      <c r="AH298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -33275,6 +34171,9 @@
       <c r="AG299">
         <v>0</v>
       </c>
+      <c r="AH299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -33384,6 +34283,9 @@
       <c r="AG300">
         <v>0</v>
       </c>
+      <c r="AH300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -33493,6 +34395,9 @@
       <c r="AG301">
         <v>17</v>
       </c>
+      <c r="AH301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -33602,6 +34507,9 @@
       <c r="AG302">
         <v>0</v>
       </c>
+      <c r="AH302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -33711,6 +34619,9 @@
       <c r="AG303">
         <v>0</v>
       </c>
+      <c r="AH303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -33820,6 +34731,9 @@
       <c r="AG304">
         <v>4</v>
       </c>
+      <c r="AH304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -33929,6 +34843,9 @@
       <c r="AG305">
         <v>12</v>
       </c>
+      <c r="AH305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -34038,6 +34955,9 @@
       <c r="AG306">
         <v>220</v>
       </c>
+      <c r="AH306">
+        <v>224</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -34147,6 +35067,9 @@
       <c r="AG307">
         <v>16</v>
       </c>
+      <c r="AH307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -34256,6 +35179,9 @@
       <c r="AG308">
         <v>5</v>
       </c>
+      <c r="AH308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -34365,6 +35291,9 @@
       <c r="AG309">
         <v>0</v>
       </c>
+      <c r="AH309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -34474,6 +35403,9 @@
       <c r="AG310">
         <v>0</v>
       </c>
+      <c r="AH310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -34583,6 +35515,9 @@
       <c r="AG311">
         <v>8</v>
       </c>
+      <c r="AH311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -34692,6 +35627,9 @@
       <c r="AG312">
         <v>5</v>
       </c>
+      <c r="AH312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -34801,6 +35739,9 @@
       <c r="AG313">
         <v>0</v>
       </c>
+      <c r="AH313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -34910,6 +35851,9 @@
       <c r="AG314">
         <v>1</v>
       </c>
+      <c r="AH314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -35019,6 +35963,9 @@
       <c r="AG315">
         <v>7</v>
       </c>
+      <c r="AH315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -35128,6 +36075,9 @@
       <c r="AG316">
         <v>3</v>
       </c>
+      <c r="AH316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -35237,6 +36187,9 @@
       <c r="AG317">
         <v>5</v>
       </c>
+      <c r="AH317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -35346,6 +36299,9 @@
       <c r="AG318">
         <v>11</v>
       </c>
+      <c r="AH318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -35455,6 +36411,9 @@
       <c r="AG319">
         <v>6</v>
       </c>
+      <c r="AH319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -35564,6 +36523,9 @@
       <c r="AG320">
         <v>0</v>
       </c>
+      <c r="AH320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -35673,6 +36635,9 @@
       <c r="AG321">
         <v>1</v>
       </c>
+      <c r="AH321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -35782,6 +36747,9 @@
       <c r="AG322">
         <v>8</v>
       </c>
+      <c r="AH322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -35891,6 +36859,9 @@
       <c r="AG323">
         <v>28</v>
       </c>
+      <c r="AH323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -36000,6 +36971,9 @@
       <c r="AG324">
         <v>21</v>
       </c>
+      <c r="AH324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -36109,6 +37083,9 @@
       <c r="AG325">
         <v>15</v>
       </c>
+      <c r="AH325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -36218,6 +37195,9 @@
       <c r="AG326">
         <v>0</v>
       </c>
+      <c r="AH326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -36327,6 +37307,9 @@
       <c r="AG327">
         <v>0</v>
       </c>
+      <c r="AH327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -36436,6 +37419,9 @@
       <c r="AG328">
         <v>0</v>
       </c>
+      <c r="AH328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -36545,6 +37531,9 @@
       <c r="AG329">
         <v>0</v>
       </c>
+      <c r="AH329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -36654,6 +37643,9 @@
       <c r="AG330">
         <v>3</v>
       </c>
+      <c r="AH330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -36763,6 +37755,9 @@
       <c r="AG331">
         <v>1</v>
       </c>
+      <c r="AH331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -36872,6 +37867,9 @@
       <c r="AG332">
         <v>4</v>
       </c>
+      <c r="AH332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -36981,6 +37979,9 @@
       <c r="AG333">
         <v>0</v>
       </c>
+      <c r="AH333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -37090,6 +38091,9 @@
       <c r="AG334">
         <v>0</v>
       </c>
+      <c r="AH334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -37199,6 +38203,9 @@
       <c r="AG335">
         <v>7</v>
       </c>
+      <c r="AH335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -37308,6 +38315,9 @@
       <c r="AG336">
         <v>2</v>
       </c>
+      <c r="AH336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -37417,6 +38427,9 @@
       <c r="AG337">
         <v>2</v>
       </c>
+      <c r="AH337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -37526,6 +38539,9 @@
       <c r="AG338">
         <v>2</v>
       </c>
+      <c r="AH338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -37635,6 +38651,9 @@
       <c r="AG339">
         <v>10</v>
       </c>
+      <c r="AH339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -37744,6 +38763,9 @@
       <c r="AG340">
         <v>1</v>
       </c>
+      <c r="AH340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -37853,6 +38875,9 @@
       <c r="AG341">
         <v>17</v>
       </c>
+      <c r="AH341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -37962,6 +38987,9 @@
       <c r="AG342">
         <v>0</v>
       </c>
+      <c r="AH342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -38071,6 +39099,9 @@
       <c r="AG343">
         <v>0</v>
       </c>
+      <c r="AH343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -38180,6 +39211,9 @@
       <c r="AG344">
         <v>129</v>
       </c>
+      <c r="AH344">
+        <v>132</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -38289,6 +39323,9 @@
       <c r="AG345">
         <v>5</v>
       </c>
+      <c r="AH345">
+        <v>5</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -38398,6 +39435,9 @@
       <c r="AG346">
         <v>5</v>
       </c>
+      <c r="AH346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -38507,6 +39547,9 @@
       <c r="AG347">
         <v>1</v>
       </c>
+      <c r="AH347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -38616,6 +39659,9 @@
       <c r="AG348">
         <v>3</v>
       </c>
+      <c r="AH348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -38725,6 +39771,9 @@
       <c r="AG349">
         <v>15</v>
       </c>
+      <c r="AH349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -38834,6 +39883,9 @@
       <c r="AG350">
         <v>1</v>
       </c>
+      <c r="AH350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -38943,6 +39995,9 @@
       <c r="AG351">
         <v>1</v>
       </c>
+      <c r="AH351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -39052,6 +40107,9 @@
       <c r="AG352">
         <v>0</v>
       </c>
+      <c r="AH352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -39161,6 +40219,9 @@
       <c r="AG353">
         <v>0</v>
       </c>
+      <c r="AH353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -39270,6 +40331,9 @@
       <c r="AG354">
         <v>3</v>
       </c>
+      <c r="AH354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -39379,6 +40443,9 @@
       <c r="AG355">
         <v>1</v>
       </c>
+      <c r="AH355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -39488,6 +40555,9 @@
       <c r="AG356">
         <v>2</v>
       </c>
+      <c r="AH356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -39597,6 +40667,9 @@
       <c r="AG357">
         <v>0</v>
       </c>
+      <c r="AH357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -39706,6 +40779,9 @@
       <c r="AG358">
         <v>0</v>
       </c>
+      <c r="AH358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -39815,6 +40891,9 @@
       <c r="AG359">
         <v>0</v>
       </c>
+      <c r="AH359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -39924,6 +41003,9 @@
       <c r="AG360">
         <v>16</v>
       </c>
+      <c r="AH360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -40033,6 +41115,9 @@
       <c r="AG361">
         <v>2</v>
       </c>
+      <c r="AH361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -40142,6 +41227,9 @@
       <c r="AG362">
         <v>1</v>
       </c>
+      <c r="AH362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -40251,6 +41339,9 @@
       <c r="AG363">
         <v>2</v>
       </c>
+      <c r="AH363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -40360,6 +41451,9 @@
       <c r="AG364">
         <v>0</v>
       </c>
+      <c r="AH364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -40469,6 +41563,9 @@
       <c r="AG365">
         <v>0</v>
       </c>
+      <c r="AH365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -40578,6 +41675,9 @@
       <c r="AG366">
         <v>1</v>
       </c>
+      <c r="AH366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -40687,6 +41787,9 @@
       <c r="AG367">
         <v>2</v>
       </c>
+      <c r="AH367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -40796,6 +41899,9 @@
       <c r="AG368">
         <v>0</v>
       </c>
+      <c r="AH368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -40905,6 +42011,9 @@
       <c r="AG369">
         <v>1</v>
       </c>
+      <c r="AH369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -41014,6 +42123,9 @@
       <c r="AG370">
         <v>0</v>
       </c>
+      <c r="AH370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -41123,6 +42235,9 @@
       <c r="AG371">
         <v>0</v>
       </c>
+      <c r="AH371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -41232,6 +42347,9 @@
       <c r="AG372">
         <v>3</v>
       </c>
+      <c r="AH372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -41341,6 +42459,9 @@
       <c r="AG373">
         <v>2</v>
       </c>
+      <c r="AH373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -41450,6 +42571,9 @@
       <c r="AG374">
         <v>4</v>
       </c>
+      <c r="AH374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -41559,6 +42683,9 @@
       <c r="AG375">
         <v>1</v>
       </c>
+      <c r="AH375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -41668,6 +42795,9 @@
       <c r="AG376">
         <v>0</v>
       </c>
+      <c r="AH376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -41777,6 +42907,9 @@
       <c r="AG377">
         <v>0</v>
       </c>
+      <c r="AH377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -41886,6 +43019,9 @@
       <c r="AG378">
         <v>0</v>
       </c>
+      <c r="AH378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -41995,6 +43131,9 @@
       <c r="AG379">
         <v>1</v>
       </c>
+      <c r="AH379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -42104,6 +43243,9 @@
       <c r="AG380">
         <v>1</v>
       </c>
+      <c r="AH380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -42213,6 +43355,9 @@
       <c r="AG381">
         <v>0</v>
       </c>
+      <c r="AH381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -42322,6 +43467,9 @@
       <c r="AG382">
         <v>4</v>
       </c>
+      <c r="AH382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -42431,6 +43579,9 @@
       <c r="AG383">
         <v>0</v>
       </c>
+      <c r="AH383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -42539,6 +43690,9 @@
       </c>
       <c r="AG384">
         <v>0</v>
+      </c>
+      <c r="AH384">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH384"/>
+  <dimension ref="A1:AI384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,6 +528,11 @@
           <t>2020-04-18</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -650,6 +655,9 @@
       <c r="AH2">
         <v>214</v>
       </c>
+      <c r="AI2">
+        <v>214</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -772,6 +780,9 @@
       <c r="AH3">
         <v>149</v>
       </c>
+      <c r="AI3">
+        <v>154</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -894,6 +905,9 @@
       <c r="AH4">
         <v>126</v>
       </c>
+      <c r="AI4">
+        <v>127</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1016,6 +1030,9 @@
       <c r="AH5">
         <v>85</v>
       </c>
+      <c r="AI5">
+        <v>86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1138,6 +1155,9 @@
       <c r="AH6">
         <v>153</v>
       </c>
+      <c r="AI6">
+        <v>154</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1260,6 +1280,9 @@
       <c r="AH7">
         <v>105</v>
       </c>
+      <c r="AI7">
+        <v>107</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1382,6 +1405,9 @@
       <c r="AH8">
         <v>139</v>
       </c>
+      <c r="AI8">
+        <v>142</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1504,6 +1530,9 @@
       <c r="AH9">
         <v>122</v>
       </c>
+      <c r="AI9">
+        <v>123</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1626,6 +1655,9 @@
       <c r="AH10">
         <v>87</v>
       </c>
+      <c r="AI10">
+        <v>92</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1748,6 +1780,9 @@
       <c r="AH11">
         <v>84</v>
       </c>
+      <c r="AI11">
+        <v>86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1870,6 +1905,9 @@
       <c r="AH12">
         <v>161</v>
       </c>
+      <c r="AI12">
+        <v>168</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1992,6 +2030,9 @@
       <c r="AH13">
         <v>190</v>
       </c>
+      <c r="AI13">
+        <v>197</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2114,6 +2155,9 @@
       <c r="AH14">
         <v>159</v>
       </c>
+      <c r="AI14">
+        <v>159</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2236,6 +2280,9 @@
       <c r="AH15">
         <v>150</v>
       </c>
+      <c r="AI15">
+        <v>151</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2358,6 +2405,9 @@
       <c r="AH16">
         <v>124</v>
       </c>
+      <c r="AI16">
+        <v>125</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2480,6 +2530,9 @@
       <c r="AH17">
         <v>4</v>
       </c>
+      <c r="AI17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2602,6 +2655,9 @@
       <c r="AH18">
         <v>2</v>
       </c>
+      <c r="AI18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2724,6 +2780,9 @@
       <c r="AH19">
         <v>41</v>
       </c>
+      <c r="AI19">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2836,6 +2895,9 @@
       <c r="AH20">
         <v>14</v>
       </c>
+      <c r="AI20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2948,6 +3010,9 @@
       <c r="AH21">
         <v>129</v>
       </c>
+      <c r="AI21">
+        <v>129</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3060,6 +3125,9 @@
       <c r="AH22">
         <v>50</v>
       </c>
+      <c r="AI22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3172,6 +3240,9 @@
       <c r="AH23">
         <v>46</v>
       </c>
+      <c r="AI23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3284,6 +3355,9 @@
       <c r="AH24">
         <v>5</v>
       </c>
+      <c r="AI24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3396,6 +3470,9 @@
       <c r="AH25">
         <v>1</v>
       </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3508,6 +3585,9 @@
       <c r="AH26">
         <v>0</v>
       </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3620,6 +3700,9 @@
       <c r="AH27">
         <v>6</v>
       </c>
+      <c r="AI27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3732,6 +3815,9 @@
       <c r="AH28">
         <v>6</v>
       </c>
+      <c r="AI28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3844,6 +3930,9 @@
       <c r="AH29">
         <v>12</v>
       </c>
+      <c r="AI29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3956,6 +4045,9 @@
       <c r="AH30">
         <v>13</v>
       </c>
+      <c r="AI30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4068,6 +4160,9 @@
       <c r="AH31">
         <v>14</v>
       </c>
+      <c r="AI31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4180,6 +4275,9 @@
       <c r="AH32">
         <v>11</v>
       </c>
+      <c r="AI32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4292,6 +4390,9 @@
       <c r="AH33">
         <v>13</v>
       </c>
+      <c r="AI33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4404,6 +4505,9 @@
       <c r="AH34">
         <v>0</v>
       </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4516,6 +4620,9 @@
       <c r="AH35">
         <v>0</v>
       </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4628,6 +4735,9 @@
       <c r="AH36">
         <v>3</v>
       </c>
+      <c r="AI36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4740,6 +4850,9 @@
       <c r="AH37">
         <v>0</v>
       </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4852,6 +4965,9 @@
       <c r="AH38">
         <v>1</v>
       </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4964,6 +5080,9 @@
       <c r="AH39">
         <v>20</v>
       </c>
+      <c r="AI39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5076,6 +5195,9 @@
       <c r="AH40">
         <v>36</v>
       </c>
+      <c r="AI40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5188,6 +5310,9 @@
       <c r="AH41">
         <v>0</v>
       </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5300,6 +5425,9 @@
       <c r="AH42">
         <v>11</v>
       </c>
+      <c r="AI42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5412,6 +5540,9 @@
       <c r="AH43">
         <v>18</v>
       </c>
+      <c r="AI43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5524,6 +5655,9 @@
       <c r="AH44">
         <v>14</v>
       </c>
+      <c r="AI44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5636,6 +5770,9 @@
       <c r="AH45">
         <v>26</v>
       </c>
+      <c r="AI45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5748,6 +5885,9 @@
       <c r="AH46">
         <v>1</v>
       </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5860,6 +6000,9 @@
       <c r="AH47">
         <v>3</v>
       </c>
+      <c r="AI47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5972,6 +6115,9 @@
       <c r="AH48">
         <v>3</v>
       </c>
+      <c r="AI48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6084,6 +6230,9 @@
       <c r="AH49">
         <v>7</v>
       </c>
+      <c r="AI49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6196,6 +6345,9 @@
       <c r="AH50">
         <v>2</v>
       </c>
+      <c r="AI50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6308,6 +6460,9 @@
       <c r="AH51">
         <v>6</v>
       </c>
+      <c r="AI51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6420,6 +6575,9 @@
       <c r="AH52">
         <v>0</v>
       </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6532,6 +6690,9 @@
       <c r="AH53">
         <v>1</v>
       </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6644,6 +6805,9 @@
       <c r="AH54">
         <v>6</v>
       </c>
+      <c r="AI54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6756,6 +6920,9 @@
       <c r="AH55">
         <v>5</v>
       </c>
+      <c r="AI55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6868,6 +7035,9 @@
       <c r="AH56">
         <v>0</v>
       </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6980,6 +7150,9 @@
       <c r="AH57">
         <v>10</v>
       </c>
+      <c r="AI57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7092,6 +7265,9 @@
       <c r="AH58">
         <v>0</v>
       </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7204,6 +7380,9 @@
       <c r="AH59">
         <v>0</v>
       </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7316,6 +7495,9 @@
       <c r="AH60">
         <v>0</v>
       </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7428,6 +7610,9 @@
       <c r="AH61">
         <v>1</v>
       </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7540,6 +7725,9 @@
       <c r="AH62">
         <v>2</v>
       </c>
+      <c r="AI62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7652,6 +7840,9 @@
       <c r="AH63">
         <v>2</v>
       </c>
+      <c r="AI63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7764,6 +7955,9 @@
       <c r="AH64">
         <v>0</v>
       </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7876,6 +8070,9 @@
       <c r="AH65">
         <v>3</v>
       </c>
+      <c r="AI65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7988,6 +8185,9 @@
       <c r="AH66">
         <v>4</v>
       </c>
+      <c r="AI66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8100,6 +8300,9 @@
       <c r="AH67">
         <v>1</v>
       </c>
+      <c r="AI67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8212,6 +8415,9 @@
       <c r="AH68">
         <v>3</v>
       </c>
+      <c r="AI68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8324,6 +8530,9 @@
       <c r="AH69">
         <v>37</v>
       </c>
+      <c r="AI69">
+        <v>37</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8436,6 +8645,9 @@
       <c r="AH70">
         <v>5</v>
       </c>
+      <c r="AI70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8548,6 +8760,9 @@
       <c r="AH71">
         <v>0</v>
       </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8660,6 +8875,9 @@
       <c r="AH72">
         <v>2</v>
       </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8772,6 +8990,9 @@
       <c r="AH73">
         <v>5</v>
       </c>
+      <c r="AI73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8884,6 +9105,9 @@
       <c r="AH74">
         <v>3</v>
       </c>
+      <c r="AI74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8996,6 +9220,9 @@
       <c r="AH75">
         <v>0</v>
       </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9108,6 +9335,9 @@
       <c r="AH76">
         <v>0</v>
       </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9220,6 +9450,9 @@
       <c r="AH77">
         <v>2</v>
       </c>
+      <c r="AI77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9332,6 +9565,9 @@
       <c r="AH78">
         <v>3</v>
       </c>
+      <c r="AI78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9444,6 +9680,9 @@
       <c r="AH79">
         <v>1</v>
       </c>
+      <c r="AI79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9556,6 +9795,9 @@
       <c r="AH80">
         <v>1</v>
       </c>
+      <c r="AI80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9668,6 +9910,9 @@
       <c r="AH81">
         <v>0</v>
       </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9780,6 +10025,9 @@
       <c r="AH82">
         <v>5</v>
       </c>
+      <c r="AI82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9892,6 +10140,9 @@
       <c r="AH83">
         <v>0</v>
       </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10004,6 +10255,9 @@
       <c r="AH84">
         <v>0</v>
       </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10116,6 +10370,9 @@
       <c r="AH85">
         <v>4</v>
       </c>
+      <c r="AI85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10228,6 +10485,9 @@
       <c r="AH86">
         <v>0</v>
       </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10340,6 +10600,9 @@
       <c r="AH87">
         <v>0</v>
       </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10452,6 +10715,9 @@
       <c r="AH88">
         <v>0</v>
       </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10564,6 +10830,9 @@
       <c r="AH89">
         <v>5</v>
       </c>
+      <c r="AI89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10676,6 +10945,9 @@
       <c r="AH90">
         <v>0</v>
       </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10788,6 +11060,9 @@
       <c r="AH91">
         <v>0</v>
       </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10900,6 +11175,9 @@
       <c r="AH92">
         <v>0</v>
       </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11012,6 +11290,9 @@
       <c r="AH93">
         <v>1</v>
       </c>
+      <c r="AI93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11124,6 +11405,9 @@
       <c r="AH94">
         <v>0</v>
       </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11236,6 +11520,9 @@
       <c r="AH95">
         <v>1</v>
       </c>
+      <c r="AI95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11348,6 +11635,9 @@
       <c r="AH96">
         <v>0</v>
       </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11460,6 +11750,9 @@
       <c r="AH97">
         <v>0</v>
       </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11572,6 +11865,9 @@
       <c r="AH98">
         <v>0</v>
       </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11684,6 +11980,9 @@
       <c r="AH99">
         <v>0</v>
       </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11796,6 +12095,9 @@
       <c r="AH100">
         <v>5</v>
       </c>
+      <c r="AI100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11908,6 +12210,9 @@
       <c r="AH101">
         <v>13</v>
       </c>
+      <c r="AI101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12020,6 +12325,9 @@
       <c r="AH102">
         <v>3</v>
       </c>
+      <c r="AI102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12132,6 +12440,9 @@
       <c r="AH103">
         <v>5</v>
       </c>
+      <c r="AI103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12244,6 +12555,9 @@
       <c r="AH104">
         <v>0</v>
       </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12356,6 +12670,9 @@
       <c r="AH105">
         <v>0</v>
       </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12468,6 +12785,9 @@
       <c r="AH106">
         <v>6</v>
       </c>
+      <c r="AI106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12580,6 +12900,9 @@
       <c r="AH107">
         <v>0</v>
       </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12692,6 +13015,9 @@
       <c r="AH108">
         <v>1</v>
       </c>
+      <c r="AI108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12804,6 +13130,9 @@
       <c r="AH109">
         <v>0</v>
       </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12916,6 +13245,9 @@
       <c r="AH110">
         <v>32</v>
       </c>
+      <c r="AI110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13028,6 +13360,9 @@
       <c r="AH111">
         <v>92</v>
       </c>
+      <c r="AI111">
+        <v>93</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13140,6 +13475,9 @@
       <c r="AH112">
         <v>54</v>
       </c>
+      <c r="AI112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13252,6 +13590,9 @@
       <c r="AH113">
         <v>83</v>
       </c>
+      <c r="AI113">
+        <v>84</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13364,6 +13705,9 @@
       <c r="AH114">
         <v>161</v>
       </c>
+      <c r="AI114">
+        <v>165</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13476,6 +13820,9 @@
       <c r="AH115">
         <v>21</v>
       </c>
+      <c r="AI115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13588,6 +13935,9 @@
       <c r="AH116">
         <v>9</v>
       </c>
+      <c r="AI116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13700,6 +14050,9 @@
       <c r="AH117">
         <v>2</v>
       </c>
+      <c r="AI117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13812,6 +14165,9 @@
       <c r="AH118">
         <v>2</v>
       </c>
+      <c r="AI118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13924,6 +14280,9 @@
       <c r="AH119">
         <v>3</v>
       </c>
+      <c r="AI119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14036,6 +14395,9 @@
       <c r="AH120">
         <v>46</v>
       </c>
+      <c r="AI120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14148,6 +14510,9 @@
       <c r="AH121">
         <v>2</v>
       </c>
+      <c r="AI121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14260,6 +14625,9 @@
       <c r="AH122">
         <v>1</v>
       </c>
+      <c r="AI122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14372,6 +14740,9 @@
       <c r="AH123">
         <v>2</v>
       </c>
+      <c r="AI123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14484,6 +14855,9 @@
       <c r="AH124">
         <v>6</v>
       </c>
+      <c r="AI124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14596,6 +14970,9 @@
       <c r="AH125">
         <v>22</v>
       </c>
+      <c r="AI125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14708,6 +15085,9 @@
       <c r="AH126">
         <v>92</v>
       </c>
+      <c r="AI126">
+        <v>93</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14820,6 +15200,9 @@
       <c r="AH127">
         <v>17</v>
       </c>
+      <c r="AI127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14932,6 +15315,9 @@
       <c r="AH128">
         <v>19</v>
       </c>
+      <c r="AI128">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15044,6 +15430,9 @@
       <c r="AH129">
         <v>45</v>
       </c>
+      <c r="AI129">
+        <v>45</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15156,6 +15545,9 @@
       <c r="AH130">
         <v>395</v>
       </c>
+      <c r="AI130">
+        <v>401</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15268,6 +15660,9 @@
       <c r="AH131">
         <v>161</v>
       </c>
+      <c r="AI131">
+        <v>161</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15380,6 +15775,9 @@
       <c r="AH132">
         <v>8</v>
       </c>
+      <c r="AI132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15492,6 +15890,9 @@
       <c r="AH133">
         <v>21</v>
       </c>
+      <c r="AI133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15604,6 +16005,9 @@
       <c r="AH134">
         <v>46</v>
       </c>
+      <c r="AI134">
+        <v>46</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15716,6 +16120,9 @@
       <c r="AH135">
         <v>78</v>
       </c>
+      <c r="AI135">
+        <v>79</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15828,6 +16235,9 @@
       <c r="AH136">
         <v>140</v>
       </c>
+      <c r="AI136">
+        <v>140</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15940,6 +16350,9 @@
       <c r="AH137">
         <v>45</v>
       </c>
+      <c r="AI137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16052,6 +16465,9 @@
       <c r="AH138">
         <v>8</v>
       </c>
+      <c r="AI138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16164,6 +16580,9 @@
       <c r="AH139">
         <v>54</v>
       </c>
+      <c r="AI139">
+        <v>56</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16276,6 +16695,9 @@
       <c r="AH140">
         <v>14</v>
       </c>
+      <c r="AI140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16388,6 +16810,9 @@
       <c r="AH141">
         <v>32</v>
       </c>
+      <c r="AI141">
+        <v>35</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16500,6 +16925,9 @@
       <c r="AH142">
         <v>17</v>
       </c>
+      <c r="AI142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16612,6 +17040,9 @@
       <c r="AH143">
         <v>2</v>
       </c>
+      <c r="AI143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16724,6 +17155,9 @@
       <c r="AH144">
         <v>10</v>
       </c>
+      <c r="AI144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16836,6 +17270,9 @@
       <c r="AH145">
         <v>1</v>
       </c>
+      <c r="AI145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16948,6 +17385,9 @@
       <c r="AH146">
         <v>7</v>
       </c>
+      <c r="AI146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17060,6 +17500,9 @@
       <c r="AH147">
         <v>10</v>
       </c>
+      <c r="AI147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17172,6 +17615,9 @@
       <c r="AH148">
         <v>8</v>
       </c>
+      <c r="AI148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17284,6 +17730,9 @@
       <c r="AH149">
         <v>13</v>
       </c>
+      <c r="AI149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17396,6 +17845,9 @@
       <c r="AH150">
         <v>44</v>
       </c>
+      <c r="AI150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17508,6 +17960,9 @@
       <c r="AH151">
         <v>0</v>
       </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17620,6 +18075,9 @@
       <c r="AH152">
         <v>0</v>
       </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17732,6 +18190,9 @@
       <c r="AH153">
         <v>10</v>
       </c>
+      <c r="AI153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17844,6 +18305,9 @@
       <c r="AH154">
         <v>5</v>
       </c>
+      <c r="AI154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17956,6 +18420,9 @@
       <c r="AH155">
         <v>35</v>
       </c>
+      <c r="AI155">
+        <v>35</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18068,6 +18535,9 @@
       <c r="AH156">
         <v>4</v>
       </c>
+      <c r="AI156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18180,6 +18650,9 @@
       <c r="AH157">
         <v>1</v>
       </c>
+      <c r="AI157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18292,6 +18765,9 @@
       <c r="AH158">
         <v>2</v>
       </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18404,6 +18880,9 @@
       <c r="AH159">
         <v>6</v>
       </c>
+      <c r="AI159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18516,6 +18995,9 @@
       <c r="AH160">
         <v>11</v>
       </c>
+      <c r="AI160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18628,6 +19110,9 @@
       <c r="AH161">
         <v>1</v>
       </c>
+      <c r="AI161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18740,6 +19225,9 @@
       <c r="AH162">
         <v>81</v>
       </c>
+      <c r="AI162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18852,6 +19340,9 @@
       <c r="AH163">
         <v>34</v>
       </c>
+      <c r="AI163">
+        <v>35</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18964,6 +19455,9 @@
       <c r="AH164">
         <v>18</v>
       </c>
+      <c r="AI164">
+        <v>19</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19076,6 +19570,9 @@
       <c r="AH165">
         <v>58</v>
       </c>
+      <c r="AI165">
+        <v>59</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19188,6 +19685,9 @@
       <c r="AH166">
         <v>11</v>
       </c>
+      <c r="AI166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19300,6 +19800,9 @@
       <c r="AH167">
         <v>33</v>
       </c>
+      <c r="AI167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19412,6 +19915,9 @@
       <c r="AH168">
         <v>0</v>
       </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19524,6 +20030,9 @@
       <c r="AH169">
         <v>18</v>
       </c>
+      <c r="AI169">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19636,6 +20145,9 @@
       <c r="AH170">
         <v>4</v>
       </c>
+      <c r="AI170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19748,6 +20260,9 @@
       <c r="AH171">
         <v>5</v>
       </c>
+      <c r="AI171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19860,6 +20375,9 @@
       <c r="AH172">
         <v>3</v>
       </c>
+      <c r="AI172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19972,6 +20490,9 @@
       <c r="AH173">
         <v>3</v>
       </c>
+      <c r="AI173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20084,6 +20605,9 @@
       <c r="AH174">
         <v>13</v>
       </c>
+      <c r="AI174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20196,6 +20720,9 @@
       <c r="AH175">
         <v>2</v>
       </c>
+      <c r="AI175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20308,6 +20835,9 @@
       <c r="AH176">
         <v>4</v>
       </c>
+      <c r="AI176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20420,6 +20950,9 @@
       <c r="AH177">
         <v>0</v>
       </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -20532,6 +21065,9 @@
       <c r="AH178">
         <v>0</v>
       </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20644,6 +21180,9 @@
       <c r="AH179">
         <v>2</v>
       </c>
+      <c r="AI179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20756,6 +21295,9 @@
       <c r="AH180">
         <v>0</v>
       </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20868,6 +21410,9 @@
       <c r="AH181">
         <v>0</v>
       </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20980,6 +21525,9 @@
       <c r="AH182">
         <v>1</v>
       </c>
+      <c r="AI182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -21092,6 +21640,9 @@
       <c r="AH183">
         <v>0</v>
       </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -21204,6 +21755,9 @@
       <c r="AH184">
         <v>1</v>
       </c>
+      <c r="AI184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -21316,6 +21870,9 @@
       <c r="AH185">
         <v>5</v>
       </c>
+      <c r="AI185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21428,6 +21985,9 @@
       <c r="AH186">
         <v>2</v>
       </c>
+      <c r="AI186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -21540,6 +22100,9 @@
       <c r="AH187">
         <v>1</v>
       </c>
+      <c r="AI187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -21652,6 +22215,9 @@
       <c r="AH188">
         <v>3</v>
       </c>
+      <c r="AI188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -21764,6 +22330,9 @@
       <c r="AH189">
         <v>2</v>
       </c>
+      <c r="AI189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -21876,6 +22445,9 @@
       <c r="AH190">
         <v>13</v>
       </c>
+      <c r="AI190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21988,6 +22560,9 @@
       <c r="AH191">
         <v>36</v>
       </c>
+      <c r="AI191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -22100,6 +22675,9 @@
       <c r="AH192">
         <v>1</v>
       </c>
+      <c r="AI192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -22212,6 +22790,9 @@
       <c r="AH193">
         <v>8</v>
       </c>
+      <c r="AI193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -22324,6 +22905,9 @@
       <c r="AH194">
         <v>2</v>
       </c>
+      <c r="AI194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -22436,6 +23020,9 @@
       <c r="AH195">
         <v>6</v>
       </c>
+      <c r="AI195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -22548,6 +23135,9 @@
       <c r="AH196">
         <v>4</v>
       </c>
+      <c r="AI196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -22660,6 +23250,9 @@
       <c r="AH197">
         <v>12</v>
       </c>
+      <c r="AI197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -22772,6 +23365,9 @@
       <c r="AH198">
         <v>9</v>
       </c>
+      <c r="AI198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -22884,6 +23480,9 @@
       <c r="AH199">
         <v>2</v>
       </c>
+      <c r="AI199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22996,6 +23595,9 @@
       <c r="AH200">
         <v>1</v>
       </c>
+      <c r="AI200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -23108,6 +23710,9 @@
       <c r="AH201">
         <v>0</v>
       </c>
+      <c r="AI201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -23220,6 +23825,9 @@
       <c r="AH202">
         <v>1</v>
       </c>
+      <c r="AI202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -23332,6 +23940,9 @@
       <c r="AH203">
         <v>9</v>
       </c>
+      <c r="AI203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -23444,6 +24055,9 @@
       <c r="AH204">
         <v>0</v>
       </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -23556,6 +24170,9 @@
       <c r="AH205">
         <v>0</v>
       </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -23668,6 +24285,9 @@
       <c r="AH206">
         <v>0</v>
       </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -23780,6 +24400,9 @@
       <c r="AH207">
         <v>25</v>
       </c>
+      <c r="AI207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -23892,6 +24515,9 @@
       <c r="AH208">
         <v>18</v>
       </c>
+      <c r="AI208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24004,6 +24630,9 @@
       <c r="AH209">
         <v>55</v>
       </c>
+      <c r="AI209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24116,6 +24745,9 @@
       <c r="AH210">
         <v>38</v>
       </c>
+      <c r="AI210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -24228,6 +24860,9 @@
       <c r="AH211">
         <v>35</v>
       </c>
+      <c r="AI211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -24340,6 +24975,9 @@
       <c r="AH212">
         <v>9</v>
       </c>
+      <c r="AI212">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -24452,6 +25090,9 @@
       <c r="AH213">
         <v>39</v>
       </c>
+      <c r="AI213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -24564,6 +25205,9 @@
       <c r="AH214">
         <v>4</v>
       </c>
+      <c r="AI214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -24676,6 +25320,9 @@
       <c r="AH215">
         <v>21</v>
       </c>
+      <c r="AI215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -24788,6 +25435,9 @@
       <c r="AH216">
         <v>2</v>
       </c>
+      <c r="AI216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -24900,6 +25550,9 @@
       <c r="AH217">
         <v>5</v>
       </c>
+      <c r="AI217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25012,6 +25665,9 @@
       <c r="AH218">
         <v>2</v>
       </c>
+      <c r="AI218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -25124,6 +25780,9 @@
       <c r="AH219">
         <v>1</v>
       </c>
+      <c r="AI219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -25236,6 +25895,9 @@
       <c r="AH220">
         <v>3</v>
       </c>
+      <c r="AI220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -25348,6 +26010,9 @@
       <c r="AH221">
         <v>0</v>
       </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -25460,6 +26125,9 @@
       <c r="AH222">
         <v>1</v>
       </c>
+      <c r="AI222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -25572,6 +26240,9 @@
       <c r="AH223">
         <v>0</v>
       </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25684,6 +26355,9 @@
       <c r="AH224">
         <v>0</v>
       </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -25796,6 +26470,9 @@
       <c r="AH225">
         <v>0</v>
       </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -25908,6 +26585,9 @@
       <c r="AH226">
         <v>0</v>
       </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26020,6 +26700,9 @@
       <c r="AH227">
         <v>0</v>
       </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -26132,6 +26815,9 @@
       <c r="AH228">
         <v>0</v>
       </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -26244,6 +26930,9 @@
       <c r="AH229">
         <v>2</v>
       </c>
+      <c r="AI229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -26356,6 +27045,9 @@
       <c r="AH230">
         <v>0</v>
       </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -26468,6 +27160,9 @@
       <c r="AH231">
         <v>1</v>
       </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -26580,6 +27275,9 @@
       <c r="AH232">
         <v>29</v>
       </c>
+      <c r="AI232">
+        <v>29</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -26692,6 +27390,9 @@
       <c r="AH233">
         <v>192</v>
       </c>
+      <c r="AI233">
+        <v>193</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -26804,6 +27505,9 @@
       <c r="AH234">
         <v>9</v>
       </c>
+      <c r="AI234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -26916,6 +27620,9 @@
       <c r="AH235">
         <v>11</v>
       </c>
+      <c r="AI235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -27028,6 +27735,9 @@
       <c r="AH236">
         <v>0</v>
       </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -27140,6 +27850,9 @@
       <c r="AH237">
         <v>2</v>
       </c>
+      <c r="AI237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -27252,6 +27965,9 @@
       <c r="AH238">
         <v>0</v>
       </c>
+      <c r="AI238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -27364,6 +28080,9 @@
       <c r="AH239">
         <v>1</v>
       </c>
+      <c r="AI239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -27476,6 +28195,9 @@
       <c r="AH240">
         <v>2</v>
       </c>
+      <c r="AI240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -27588,6 +28310,9 @@
       <c r="AH241">
         <v>7</v>
       </c>
+      <c r="AI241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -27700,6 +28425,9 @@
       <c r="AH242">
         <v>3</v>
       </c>
+      <c r="AI242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -27812,6 +28540,9 @@
       <c r="AH243">
         <v>1</v>
       </c>
+      <c r="AI243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -27924,6 +28655,9 @@
       <c r="AH244">
         <v>2</v>
       </c>
+      <c r="AI244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -28036,6 +28770,9 @@
       <c r="AH245">
         <v>2</v>
       </c>
+      <c r="AI245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -28148,6 +28885,9 @@
       <c r="AH246">
         <v>2</v>
       </c>
+      <c r="AI246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -28260,6 +29000,9 @@
       <c r="AH247">
         <v>0</v>
       </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -28372,6 +29115,9 @@
       <c r="AH248">
         <v>3</v>
       </c>
+      <c r="AI248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -28484,6 +29230,9 @@
       <c r="AH249">
         <v>12</v>
       </c>
+      <c r="AI249">
+        <v>12</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -28596,6 +29345,9 @@
       <c r="AH250">
         <v>0</v>
       </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -28708,6 +29460,9 @@
       <c r="AH251">
         <v>4</v>
       </c>
+      <c r="AI251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -28820,6 +29575,9 @@
       <c r="AH252">
         <v>1</v>
       </c>
+      <c r="AI252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -28932,6 +29690,9 @@
       <c r="AH253">
         <v>1</v>
       </c>
+      <c r="AI253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -29044,6 +29805,9 @@
       <c r="AH254">
         <v>1</v>
       </c>
+      <c r="AI254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -29166,6 +29930,9 @@
       <c r="AH255">
         <v>12</v>
       </c>
+      <c r="AI255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -29288,6 +30055,9 @@
       <c r="AH256">
         <v>77</v>
       </c>
+      <c r="AI256">
+        <v>77</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -29410,6 +30180,9 @@
       <c r="AH257">
         <v>52</v>
       </c>
+      <c r="AI257">
+        <v>52</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -29532,6 +30305,9 @@
       <c r="AH258">
         <v>62</v>
       </c>
+      <c r="AI258">
+        <v>63</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -29654,6 +30430,9 @@
       <c r="AH259">
         <v>58</v>
       </c>
+      <c r="AI259">
+        <v>58</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -29776,6 +30555,9 @@
       <c r="AH260">
         <v>39</v>
       </c>
+      <c r="AI260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -29898,6 +30680,9 @@
       <c r="AH261">
         <v>89</v>
       </c>
+      <c r="AI261">
+        <v>89</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -30020,6 +30805,9 @@
       <c r="AH262">
         <v>50</v>
       </c>
+      <c r="AI262">
+        <v>50</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -30142,6 +30930,9 @@
       <c r="AH263">
         <v>57</v>
       </c>
+      <c r="AI263">
+        <v>58</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -30254,6 +31045,9 @@
       <c r="AH264">
         <v>9</v>
       </c>
+      <c r="AI264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -30366,6 +31160,9 @@
       <c r="AH265">
         <v>4</v>
       </c>
+      <c r="AI265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -30478,6 +31275,9 @@
       <c r="AH266">
         <v>4</v>
       </c>
+      <c r="AI266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -30590,6 +31390,9 @@
       <c r="AH267">
         <v>4</v>
       </c>
+      <c r="AI267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -30702,6 +31505,9 @@
       <c r="AH268">
         <v>6</v>
       </c>
+      <c r="AI268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -30814,6 +31620,9 @@
       <c r="AH269">
         <v>8</v>
       </c>
+      <c r="AI269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -30926,6 +31735,9 @@
       <c r="AH270">
         <v>0</v>
       </c>
+      <c r="AI270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -31038,6 +31850,9 @@
       <c r="AH271">
         <v>4</v>
       </c>
+      <c r="AI271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -31150,6 +31965,9 @@
       <c r="AH272">
         <v>0</v>
       </c>
+      <c r="AI272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -31262,6 +32080,9 @@
       <c r="AH273">
         <v>0</v>
       </c>
+      <c r="AI273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -31374,6 +32195,9 @@
       <c r="AH274">
         <v>2</v>
       </c>
+      <c r="AI274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -31486,6 +32310,9 @@
       <c r="AH275">
         <v>24</v>
       </c>
+      <c r="AI275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -31598,6 +32425,9 @@
       <c r="AH276">
         <v>9</v>
       </c>
+      <c r="AI276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -31710,6 +32540,9 @@
       <c r="AH277">
         <v>0</v>
       </c>
+      <c r="AI277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -31822,6 +32655,9 @@
       <c r="AH278">
         <v>17</v>
       </c>
+      <c r="AI278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -31934,6 +32770,9 @@
       <c r="AH279">
         <v>5</v>
       </c>
+      <c r="AI279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -32046,6 +32885,9 @@
       <c r="AH280">
         <v>50</v>
       </c>
+      <c r="AI280">
+        <v>50</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -32158,6 +33000,9 @@
       <c r="AH281">
         <v>34</v>
       </c>
+      <c r="AI281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -32270,6 +33115,9 @@
       <c r="AH282">
         <v>1</v>
       </c>
+      <c r="AI282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -32382,6 +33230,9 @@
       <c r="AH283">
         <v>0</v>
       </c>
+      <c r="AI283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -32494,6 +33345,9 @@
       <c r="AH284">
         <v>35</v>
       </c>
+      <c r="AI284">
+        <v>37</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -32606,6 +33460,9 @@
       <c r="AH285">
         <v>23</v>
       </c>
+      <c r="AI285">
+        <v>24</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -32718,6 +33575,9 @@
       <c r="AH286">
         <v>0</v>
       </c>
+      <c r="AI286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -32830,6 +33690,9 @@
       <c r="AH287">
         <v>0</v>
       </c>
+      <c r="AI287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -32942,6 +33805,9 @@
       <c r="AH288">
         <v>0</v>
       </c>
+      <c r="AI288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -33054,6 +33920,9 @@
       <c r="AH289">
         <v>1</v>
       </c>
+      <c r="AI289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -33166,6 +34035,9 @@
       <c r="AH290">
         <v>3</v>
       </c>
+      <c r="AI290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -33278,6 +34150,9 @@
       <c r="AH291">
         <v>0</v>
       </c>
+      <c r="AI291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -33390,6 +34265,9 @@
       <c r="AH292">
         <v>3</v>
       </c>
+      <c r="AI292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -33502,6 +34380,9 @@
       <c r="AH293">
         <v>0</v>
       </c>
+      <c r="AI293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -33614,6 +34495,9 @@
       <c r="AH294">
         <v>7</v>
       </c>
+      <c r="AI294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -33726,6 +34610,9 @@
       <c r="AH295">
         <v>0</v>
       </c>
+      <c r="AI295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -33838,6 +34725,9 @@
       <c r="AH296">
         <v>0</v>
       </c>
+      <c r="AI296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -33950,6 +34840,9 @@
       <c r="AH297">
         <v>1</v>
       </c>
+      <c r="AI297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -34062,6 +34955,9 @@
       <c r="AH298">
         <v>4</v>
       </c>
+      <c r="AI298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -34174,6 +35070,9 @@
       <c r="AH299">
         <v>0</v>
       </c>
+      <c r="AI299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -34286,6 +35185,9 @@
       <c r="AH300">
         <v>0</v>
       </c>
+      <c r="AI300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -34398,6 +35300,9 @@
       <c r="AH301">
         <v>17</v>
       </c>
+      <c r="AI301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -34510,6 +35415,9 @@
       <c r="AH302">
         <v>0</v>
       </c>
+      <c r="AI302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -34622,6 +35530,9 @@
       <c r="AH303">
         <v>0</v>
       </c>
+      <c r="AI303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -34734,6 +35645,9 @@
       <c r="AH304">
         <v>4</v>
       </c>
+      <c r="AI304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -34846,6 +35760,9 @@
       <c r="AH305">
         <v>12</v>
       </c>
+      <c r="AI305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -34958,6 +35875,9 @@
       <c r="AH306">
         <v>224</v>
       </c>
+      <c r="AI306">
+        <v>228</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -35070,6 +35990,9 @@
       <c r="AH307">
         <v>16</v>
       </c>
+      <c r="AI307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -35182,6 +36105,9 @@
       <c r="AH308">
         <v>5</v>
       </c>
+      <c r="AI308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -35294,6 +36220,9 @@
       <c r="AH309">
         <v>0</v>
       </c>
+      <c r="AI309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -35406,6 +36335,9 @@
       <c r="AH310">
         <v>0</v>
       </c>
+      <c r="AI310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -35518,6 +36450,9 @@
       <c r="AH311">
         <v>8</v>
       </c>
+      <c r="AI311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -35630,6 +36565,9 @@
       <c r="AH312">
         <v>5</v>
       </c>
+      <c r="AI312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -35742,6 +36680,9 @@
       <c r="AH313">
         <v>0</v>
       </c>
+      <c r="AI313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -35854,6 +36795,9 @@
       <c r="AH314">
         <v>1</v>
       </c>
+      <c r="AI314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -35966,6 +36910,9 @@
       <c r="AH315">
         <v>7</v>
       </c>
+      <c r="AI315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -36078,6 +37025,9 @@
       <c r="AH316">
         <v>3</v>
       </c>
+      <c r="AI316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -36190,6 +37140,9 @@
       <c r="AH317">
         <v>5</v>
       </c>
+      <c r="AI317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -36302,6 +37255,9 @@
       <c r="AH318">
         <v>11</v>
       </c>
+      <c r="AI318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -36414,6 +37370,9 @@
       <c r="AH319">
         <v>6</v>
       </c>
+      <c r="AI319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -36526,6 +37485,9 @@
       <c r="AH320">
         <v>0</v>
       </c>
+      <c r="AI320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -36638,6 +37600,9 @@
       <c r="AH321">
         <v>1</v>
       </c>
+      <c r="AI321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -36750,6 +37715,9 @@
       <c r="AH322">
         <v>8</v>
       </c>
+      <c r="AI322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -36862,6 +37830,9 @@
       <c r="AH323">
         <v>28</v>
       </c>
+      <c r="AI323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -36974,6 +37945,9 @@
       <c r="AH324">
         <v>21</v>
       </c>
+      <c r="AI324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -37086,6 +38060,9 @@
       <c r="AH325">
         <v>15</v>
       </c>
+      <c r="AI325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -37198,6 +38175,9 @@
       <c r="AH326">
         <v>0</v>
       </c>
+      <c r="AI326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -37310,6 +38290,9 @@
       <c r="AH327">
         <v>0</v>
       </c>
+      <c r="AI327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -37422,6 +38405,9 @@
       <c r="AH328">
         <v>0</v>
       </c>
+      <c r="AI328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -37534,6 +38520,9 @@
       <c r="AH329">
         <v>0</v>
       </c>
+      <c r="AI329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -37646,6 +38635,9 @@
       <c r="AH330">
         <v>3</v>
       </c>
+      <c r="AI330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -37758,6 +38750,9 @@
       <c r="AH331">
         <v>1</v>
       </c>
+      <c r="AI331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -37870,6 +38865,9 @@
       <c r="AH332">
         <v>4</v>
       </c>
+      <c r="AI332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -37982,6 +38980,9 @@
       <c r="AH333">
         <v>0</v>
       </c>
+      <c r="AI333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -38094,6 +39095,9 @@
       <c r="AH334">
         <v>0</v>
       </c>
+      <c r="AI334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -38206,6 +39210,9 @@
       <c r="AH335">
         <v>7</v>
       </c>
+      <c r="AI335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -38318,6 +39325,9 @@
       <c r="AH336">
         <v>2</v>
       </c>
+      <c r="AI336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -38430,6 +39440,9 @@
       <c r="AH337">
         <v>2</v>
       </c>
+      <c r="AI337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -38542,6 +39555,9 @@
       <c r="AH338">
         <v>2</v>
       </c>
+      <c r="AI338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -38654,6 +39670,9 @@
       <c r="AH339">
         <v>10</v>
       </c>
+      <c r="AI339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -38766,6 +39785,9 @@
       <c r="AH340">
         <v>1</v>
       </c>
+      <c r="AI340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -38878,6 +39900,9 @@
       <c r="AH341">
         <v>17</v>
       </c>
+      <c r="AI341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -38990,6 +40015,9 @@
       <c r="AH342">
         <v>0</v>
       </c>
+      <c r="AI342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -39102,6 +40130,9 @@
       <c r="AH343">
         <v>0</v>
       </c>
+      <c r="AI343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -39214,6 +40245,9 @@
       <c r="AH344">
         <v>132</v>
       </c>
+      <c r="AI344">
+        <v>137</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -39326,6 +40360,9 @@
       <c r="AH345">
         <v>5</v>
       </c>
+      <c r="AI345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -39438,6 +40475,9 @@
       <c r="AH346">
         <v>5</v>
       </c>
+      <c r="AI346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -39550,6 +40590,9 @@
       <c r="AH347">
         <v>1</v>
       </c>
+      <c r="AI347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -39662,6 +40705,9 @@
       <c r="AH348">
         <v>3</v>
       </c>
+      <c r="AI348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -39774,6 +40820,9 @@
       <c r="AH349">
         <v>15</v>
       </c>
+      <c r="AI349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -39886,6 +40935,9 @@
       <c r="AH350">
         <v>1</v>
       </c>
+      <c r="AI350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -39998,6 +41050,9 @@
       <c r="AH351">
         <v>1</v>
       </c>
+      <c r="AI351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -40110,6 +41165,9 @@
       <c r="AH352">
         <v>0</v>
       </c>
+      <c r="AI352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -40222,6 +41280,9 @@
       <c r="AH353">
         <v>0</v>
       </c>
+      <c r="AI353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -40334,6 +41395,9 @@
       <c r="AH354">
         <v>3</v>
       </c>
+      <c r="AI354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -40446,6 +41510,9 @@
       <c r="AH355">
         <v>1</v>
       </c>
+      <c r="AI355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -40558,6 +41625,9 @@
       <c r="AH356">
         <v>2</v>
       </c>
+      <c r="AI356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -40670,6 +41740,9 @@
       <c r="AH357">
         <v>0</v>
       </c>
+      <c r="AI357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -40782,6 +41855,9 @@
       <c r="AH358">
         <v>0</v>
       </c>
+      <c r="AI358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -40894,6 +41970,9 @@
       <c r="AH359">
         <v>0</v>
       </c>
+      <c r="AI359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -41006,6 +42085,9 @@
       <c r="AH360">
         <v>16</v>
       </c>
+      <c r="AI360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -41118,6 +42200,9 @@
       <c r="AH361">
         <v>2</v>
       </c>
+      <c r="AI361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -41230,6 +42315,9 @@
       <c r="AH362">
         <v>1</v>
       </c>
+      <c r="AI362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -41342,6 +42430,9 @@
       <c r="AH363">
         <v>2</v>
       </c>
+      <c r="AI363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -41454,6 +42545,9 @@
       <c r="AH364">
         <v>0</v>
       </c>
+      <c r="AI364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -41566,6 +42660,9 @@
       <c r="AH365">
         <v>0</v>
       </c>
+      <c r="AI365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -41678,6 +42775,9 @@
       <c r="AH366">
         <v>1</v>
       </c>
+      <c r="AI366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -41790,6 +42890,9 @@
       <c r="AH367">
         <v>2</v>
       </c>
+      <c r="AI367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -41902,6 +43005,9 @@
       <c r="AH368">
         <v>0</v>
       </c>
+      <c r="AI368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -42014,6 +43120,9 @@
       <c r="AH369">
         <v>1</v>
       </c>
+      <c r="AI369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -42126,6 +43235,9 @@
       <c r="AH370">
         <v>0</v>
       </c>
+      <c r="AI370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -42238,6 +43350,9 @@
       <c r="AH371">
         <v>0</v>
       </c>
+      <c r="AI371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -42350,6 +43465,9 @@
       <c r="AH372">
         <v>3</v>
       </c>
+      <c r="AI372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -42462,6 +43580,9 @@
       <c r="AH373">
         <v>2</v>
       </c>
+      <c r="AI373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -42574,6 +43695,9 @@
       <c r="AH374">
         <v>4</v>
       </c>
+      <c r="AI374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -42686,6 +43810,9 @@
       <c r="AH375">
         <v>1</v>
       </c>
+      <c r="AI375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -42798,6 +43925,9 @@
       <c r="AH376">
         <v>0</v>
       </c>
+      <c r="AI376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -42910,6 +44040,9 @@
       <c r="AH377">
         <v>0</v>
       </c>
+      <c r="AI377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -43022,6 +44155,9 @@
       <c r="AH378">
         <v>0</v>
       </c>
+      <c r="AI378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -43134,6 +44270,9 @@
       <c r="AH379">
         <v>1</v>
       </c>
+      <c r="AI379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -43246,6 +44385,9 @@
       <c r="AH380">
         <v>1</v>
       </c>
+      <c r="AI380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -43358,6 +44500,9 @@
       <c r="AH381">
         <v>0</v>
       </c>
+      <c r="AI381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -43470,6 +44615,9 @@
       <c r="AH382">
         <v>4</v>
       </c>
+      <c r="AI382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -43582,6 +44730,9 @@
       <c r="AH383">
         <v>0</v>
       </c>
+      <c r="AI383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -43692,6 +44843,9 @@
         <v>0</v>
       </c>
       <c r="AH384">
+        <v>1</v>
+      </c>
+      <c r="AI384">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI384"/>
+  <dimension ref="A1:AJ384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +533,11 @@
           <t>2020-04-19</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -658,6 +663,9 @@
       <c r="AI2">
         <v>214</v>
       </c>
+      <c r="AJ2">
+        <v>214</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -783,6 +791,9 @@
       <c r="AI3">
         <v>154</v>
       </c>
+      <c r="AJ3">
+        <v>157</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -908,6 +919,9 @@
       <c r="AI4">
         <v>127</v>
       </c>
+      <c r="AJ4">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1033,6 +1047,9 @@
       <c r="AI5">
         <v>86</v>
       </c>
+      <c r="AJ5">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1158,6 +1175,9 @@
       <c r="AI6">
         <v>154</v>
       </c>
+      <c r="AJ6">
+        <v>156</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1283,6 +1303,9 @@
       <c r="AI7">
         <v>107</v>
       </c>
+      <c r="AJ7">
+        <v>107</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1408,6 +1431,9 @@
       <c r="AI8">
         <v>142</v>
       </c>
+      <c r="AJ8">
+        <v>143</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1533,6 +1559,9 @@
       <c r="AI9">
         <v>123</v>
       </c>
+      <c r="AJ9">
+        <v>125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1658,6 +1687,9 @@
       <c r="AI10">
         <v>92</v>
       </c>
+      <c r="AJ10">
+        <v>92</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1783,6 +1815,9 @@
       <c r="AI11">
         <v>86</v>
       </c>
+      <c r="AJ11">
+        <v>87</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1908,6 +1943,9 @@
       <c r="AI12">
         <v>168</v>
       </c>
+      <c r="AJ12">
+        <v>173</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2033,6 +2071,9 @@
       <c r="AI13">
         <v>197</v>
       </c>
+      <c r="AJ13">
+        <v>201</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2158,6 +2199,9 @@
       <c r="AI14">
         <v>159</v>
       </c>
+      <c r="AJ14">
+        <v>160</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2283,6 +2327,9 @@
       <c r="AI15">
         <v>151</v>
       </c>
+      <c r="AJ15">
+        <v>151</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2408,6 +2455,9 @@
       <c r="AI16">
         <v>125</v>
       </c>
+      <c r="AJ16">
+        <v>126</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2533,6 +2583,9 @@
       <c r="AI17">
         <v>4</v>
       </c>
+      <c r="AJ17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2658,6 +2711,9 @@
       <c r="AI18">
         <v>2</v>
       </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2783,6 +2839,9 @@
       <c r="AI19">
         <v>41</v>
       </c>
+      <c r="AJ19">
+        <v>42</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2898,6 +2957,9 @@
       <c r="AI20">
         <v>14</v>
       </c>
+      <c r="AJ20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3013,6 +3075,9 @@
       <c r="AI21">
         <v>129</v>
       </c>
+      <c r="AJ21">
+        <v>129</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3128,6 +3193,9 @@
       <c r="AI22">
         <v>50</v>
       </c>
+      <c r="AJ22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3243,6 +3311,9 @@
       <c r="AI23">
         <v>46</v>
       </c>
+      <c r="AJ23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3358,6 +3429,9 @@
       <c r="AI24">
         <v>5</v>
       </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3473,6 +3547,9 @@
       <c r="AI25">
         <v>1</v>
       </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3588,6 +3665,9 @@
       <c r="AI26">
         <v>0</v>
       </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3703,6 +3783,9 @@
       <c r="AI27">
         <v>6</v>
       </c>
+      <c r="AJ27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3818,6 +3901,9 @@
       <c r="AI28">
         <v>6</v>
       </c>
+      <c r="AJ28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3933,6 +4019,9 @@
       <c r="AI29">
         <v>12</v>
       </c>
+      <c r="AJ29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4048,6 +4137,9 @@
       <c r="AI30">
         <v>13</v>
       </c>
+      <c r="AJ30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4163,6 +4255,9 @@
       <c r="AI31">
         <v>14</v>
       </c>
+      <c r="AJ31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4278,6 +4373,9 @@
       <c r="AI32">
         <v>11</v>
       </c>
+      <c r="AJ32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4393,6 +4491,9 @@
       <c r="AI33">
         <v>13</v>
       </c>
+      <c r="AJ33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4508,6 +4609,9 @@
       <c r="AI34">
         <v>0</v>
       </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4623,6 +4727,9 @@
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4738,6 +4845,9 @@
       <c r="AI36">
         <v>3</v>
       </c>
+      <c r="AJ36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4853,6 +4963,9 @@
       <c r="AI37">
         <v>0</v>
       </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4968,6 +5081,9 @@
       <c r="AI38">
         <v>1</v>
       </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5083,6 +5199,9 @@
       <c r="AI39">
         <v>20</v>
       </c>
+      <c r="AJ39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5198,6 +5317,9 @@
       <c r="AI40">
         <v>36</v>
       </c>
+      <c r="AJ40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5313,6 +5435,9 @@
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5428,6 +5553,9 @@
       <c r="AI42">
         <v>11</v>
       </c>
+      <c r="AJ42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5543,6 +5671,9 @@
       <c r="AI43">
         <v>18</v>
       </c>
+      <c r="AJ43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5658,6 +5789,9 @@
       <c r="AI44">
         <v>14</v>
       </c>
+      <c r="AJ44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5773,6 +5907,9 @@
       <c r="AI45">
         <v>26</v>
       </c>
+      <c r="AJ45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5888,6 +6025,9 @@
       <c r="AI46">
         <v>1</v>
       </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6003,6 +6143,9 @@
       <c r="AI47">
         <v>3</v>
       </c>
+      <c r="AJ47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6118,6 +6261,9 @@
       <c r="AI48">
         <v>3</v>
       </c>
+      <c r="AJ48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6233,6 +6379,9 @@
       <c r="AI49">
         <v>7</v>
       </c>
+      <c r="AJ49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6348,6 +6497,9 @@
       <c r="AI50">
         <v>2</v>
       </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6463,6 +6615,9 @@
       <c r="AI51">
         <v>6</v>
       </c>
+      <c r="AJ51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6578,6 +6733,9 @@
       <c r="AI52">
         <v>0</v>
       </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6693,6 +6851,9 @@
       <c r="AI53">
         <v>1</v>
       </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6808,6 +6969,9 @@
       <c r="AI54">
         <v>6</v>
       </c>
+      <c r="AJ54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6923,6 +7087,9 @@
       <c r="AI55">
         <v>5</v>
       </c>
+      <c r="AJ55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7038,6 +7205,9 @@
       <c r="AI56">
         <v>0</v>
       </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7153,6 +7323,9 @@
       <c r="AI57">
         <v>10</v>
       </c>
+      <c r="AJ57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7268,6 +7441,9 @@
       <c r="AI58">
         <v>0</v>
       </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7383,6 +7559,9 @@
       <c r="AI59">
         <v>0</v>
       </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7498,6 +7677,9 @@
       <c r="AI60">
         <v>0</v>
       </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7613,6 +7795,9 @@
       <c r="AI61">
         <v>1</v>
       </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7728,6 +7913,9 @@
       <c r="AI62">
         <v>2</v>
       </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7843,6 +8031,9 @@
       <c r="AI63">
         <v>2</v>
       </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7958,6 +8149,9 @@
       <c r="AI64">
         <v>0</v>
       </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8073,6 +8267,9 @@
       <c r="AI65">
         <v>3</v>
       </c>
+      <c r="AJ65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8188,6 +8385,9 @@
       <c r="AI66">
         <v>4</v>
       </c>
+      <c r="AJ66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8303,6 +8503,9 @@
       <c r="AI67">
         <v>1</v>
       </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8418,6 +8621,9 @@
       <c r="AI68">
         <v>3</v>
       </c>
+      <c r="AJ68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8533,6 +8739,9 @@
       <c r="AI69">
         <v>37</v>
       </c>
+      <c r="AJ69">
+        <v>37</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8648,6 +8857,9 @@
       <c r="AI70">
         <v>5</v>
       </c>
+      <c r="AJ70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8763,6 +8975,9 @@
       <c r="AI71">
         <v>0</v>
       </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8878,6 +9093,9 @@
       <c r="AI72">
         <v>2</v>
       </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8993,6 +9211,9 @@
       <c r="AI73">
         <v>5</v>
       </c>
+      <c r="AJ73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9108,6 +9329,9 @@
       <c r="AI74">
         <v>3</v>
       </c>
+      <c r="AJ74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9223,6 +9447,9 @@
       <c r="AI75">
         <v>0</v>
       </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9338,6 +9565,9 @@
       <c r="AI76">
         <v>0</v>
       </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9453,6 +9683,9 @@
       <c r="AI77">
         <v>2</v>
       </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9568,6 +9801,9 @@
       <c r="AI78">
         <v>4</v>
       </c>
+      <c r="AJ78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9683,6 +9919,9 @@
       <c r="AI79">
         <v>1</v>
       </c>
+      <c r="AJ79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9798,6 +10037,9 @@
       <c r="AI80">
         <v>1</v>
       </c>
+      <c r="AJ80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9913,6 +10155,9 @@
       <c r="AI81">
         <v>0</v>
       </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10028,6 +10273,9 @@
       <c r="AI82">
         <v>5</v>
       </c>
+      <c r="AJ82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10143,6 +10391,9 @@
       <c r="AI83">
         <v>0</v>
       </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10258,6 +10509,9 @@
       <c r="AI84">
         <v>0</v>
       </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10373,6 +10627,9 @@
       <c r="AI85">
         <v>4</v>
       </c>
+      <c r="AJ85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10488,6 +10745,9 @@
       <c r="AI86">
         <v>0</v>
       </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10603,6 +10863,9 @@
       <c r="AI87">
         <v>0</v>
       </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10718,6 +10981,9 @@
       <c r="AI88">
         <v>0</v>
       </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10833,6 +11099,9 @@
       <c r="AI89">
         <v>5</v>
       </c>
+      <c r="AJ89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10948,6 +11217,9 @@
       <c r="AI90">
         <v>0</v>
       </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11063,6 +11335,9 @@
       <c r="AI91">
         <v>0</v>
       </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11178,6 +11453,9 @@
       <c r="AI92">
         <v>0</v>
       </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11293,6 +11571,9 @@
       <c r="AI93">
         <v>1</v>
       </c>
+      <c r="AJ93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11408,6 +11689,9 @@
       <c r="AI94">
         <v>0</v>
       </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11523,6 +11807,9 @@
       <c r="AI95">
         <v>1</v>
       </c>
+      <c r="AJ95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11638,6 +11925,9 @@
       <c r="AI96">
         <v>0</v>
       </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11753,6 +12043,9 @@
       <c r="AI97">
         <v>0</v>
       </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11868,6 +12161,9 @@
       <c r="AI98">
         <v>0</v>
       </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11983,6 +12279,9 @@
       <c r="AI99">
         <v>0</v>
       </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12098,6 +12397,9 @@
       <c r="AI100">
         <v>5</v>
       </c>
+      <c r="AJ100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12213,6 +12515,9 @@
       <c r="AI101">
         <v>13</v>
       </c>
+      <c r="AJ101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12328,6 +12633,9 @@
       <c r="AI102">
         <v>3</v>
       </c>
+      <c r="AJ102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12443,6 +12751,9 @@
       <c r="AI103">
         <v>5</v>
       </c>
+      <c r="AJ103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12558,6 +12869,9 @@
       <c r="AI104">
         <v>0</v>
       </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12673,6 +12987,9 @@
       <c r="AI105">
         <v>0</v>
       </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12788,6 +13105,9 @@
       <c r="AI106">
         <v>6</v>
       </c>
+      <c r="AJ106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12903,6 +13223,9 @@
       <c r="AI107">
         <v>0</v>
       </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13018,6 +13341,9 @@
       <c r="AI108">
         <v>1</v>
       </c>
+      <c r="AJ108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13133,6 +13459,9 @@
       <c r="AI109">
         <v>0</v>
       </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13248,6 +13577,9 @@
       <c r="AI110">
         <v>32</v>
       </c>
+      <c r="AJ110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13363,6 +13695,9 @@
       <c r="AI111">
         <v>93</v>
       </c>
+      <c r="AJ111">
+        <v>93</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13478,6 +13813,9 @@
       <c r="AI112">
         <v>54</v>
       </c>
+      <c r="AJ112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13593,6 +13931,9 @@
       <c r="AI113">
         <v>84</v>
       </c>
+      <c r="AJ113">
+        <v>84</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13708,6 +14049,9 @@
       <c r="AI114">
         <v>165</v>
       </c>
+      <c r="AJ114">
+        <v>165</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13823,6 +14167,9 @@
       <c r="AI115">
         <v>21</v>
       </c>
+      <c r="AJ115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13938,6 +14285,9 @@
       <c r="AI116">
         <v>9</v>
       </c>
+      <c r="AJ116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14053,6 +14403,9 @@
       <c r="AI117">
         <v>2</v>
       </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14168,6 +14521,9 @@
       <c r="AI118">
         <v>2</v>
       </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14283,6 +14639,9 @@
       <c r="AI119">
         <v>3</v>
       </c>
+      <c r="AJ119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14398,6 +14757,9 @@
       <c r="AI120">
         <v>47</v>
       </c>
+      <c r="AJ120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14513,6 +14875,9 @@
       <c r="AI121">
         <v>2</v>
       </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14628,6 +14993,9 @@
       <c r="AI122">
         <v>1</v>
       </c>
+      <c r="AJ122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14743,6 +15111,9 @@
       <c r="AI123">
         <v>2</v>
       </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14858,6 +15229,9 @@
       <c r="AI124">
         <v>6</v>
       </c>
+      <c r="AJ124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14973,6 +15347,9 @@
       <c r="AI125">
         <v>22</v>
       </c>
+      <c r="AJ125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15088,6 +15465,9 @@
       <c r="AI126">
         <v>93</v>
       </c>
+      <c r="AJ126">
+        <v>93</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15203,6 +15583,9 @@
       <c r="AI127">
         <v>18</v>
       </c>
+      <c r="AJ127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15318,6 +15701,9 @@
       <c r="AI128">
         <v>20</v>
       </c>
+      <c r="AJ128">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15433,6 +15819,9 @@
       <c r="AI129">
         <v>45</v>
       </c>
+      <c r="AJ129">
+        <v>45</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15548,6 +15937,9 @@
       <c r="AI130">
         <v>401</v>
       </c>
+      <c r="AJ130">
+        <v>403</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15663,6 +16055,9 @@
       <c r="AI131">
         <v>161</v>
       </c>
+      <c r="AJ131">
+        <v>161</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15778,6 +16173,9 @@
       <c r="AI132">
         <v>8</v>
       </c>
+      <c r="AJ132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15893,6 +16291,9 @@
       <c r="AI133">
         <v>25</v>
       </c>
+      <c r="AJ133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16008,6 +16409,9 @@
       <c r="AI134">
         <v>46</v>
       </c>
+      <c r="AJ134">
+        <v>47</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16123,6 +16527,9 @@
       <c r="AI135">
         <v>79</v>
       </c>
+      <c r="AJ135">
+        <v>79</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16238,6 +16645,9 @@
       <c r="AI136">
         <v>140</v>
       </c>
+      <c r="AJ136">
+        <v>140</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16353,6 +16763,9 @@
       <c r="AI137">
         <v>45</v>
       </c>
+      <c r="AJ137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16468,6 +16881,9 @@
       <c r="AI138">
         <v>8</v>
       </c>
+      <c r="AJ138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16583,6 +16999,9 @@
       <c r="AI139">
         <v>56</v>
       </c>
+      <c r="AJ139">
+        <v>56</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16698,6 +17117,9 @@
       <c r="AI140">
         <v>14</v>
       </c>
+      <c r="AJ140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16813,6 +17235,9 @@
       <c r="AI141">
         <v>35</v>
       </c>
+      <c r="AJ141">
+        <v>35</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16928,6 +17353,9 @@
       <c r="AI142">
         <v>17</v>
       </c>
+      <c r="AJ142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17043,6 +17471,9 @@
       <c r="AI143">
         <v>2</v>
       </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17158,6 +17589,9 @@
       <c r="AI144">
         <v>10</v>
       </c>
+      <c r="AJ144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17273,6 +17707,9 @@
       <c r="AI145">
         <v>1</v>
       </c>
+      <c r="AJ145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17388,6 +17825,9 @@
       <c r="AI146">
         <v>7</v>
       </c>
+      <c r="AJ146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17503,6 +17943,9 @@
       <c r="AI147">
         <v>10</v>
       </c>
+      <c r="AJ147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17618,6 +18061,9 @@
       <c r="AI148">
         <v>8</v>
       </c>
+      <c r="AJ148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17733,6 +18179,9 @@
       <c r="AI149">
         <v>13</v>
       </c>
+      <c r="AJ149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17848,6 +18297,9 @@
       <c r="AI150">
         <v>44</v>
       </c>
+      <c r="AJ150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17963,6 +18415,9 @@
       <c r="AI151">
         <v>0</v>
       </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18078,6 +18533,9 @@
       <c r="AI152">
         <v>0</v>
       </c>
+      <c r="AJ152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18193,6 +18651,9 @@
       <c r="AI153">
         <v>10</v>
       </c>
+      <c r="AJ153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18308,6 +18769,9 @@
       <c r="AI154">
         <v>5</v>
       </c>
+      <c r="AJ154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18423,6 +18887,9 @@
       <c r="AI155">
         <v>35</v>
       </c>
+      <c r="AJ155">
+        <v>35</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18538,6 +19005,9 @@
       <c r="AI156">
         <v>4</v>
       </c>
+      <c r="AJ156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18653,6 +19123,9 @@
       <c r="AI157">
         <v>1</v>
       </c>
+      <c r="AJ157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18768,6 +19241,9 @@
       <c r="AI158">
         <v>2</v>
       </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18883,6 +19359,9 @@
       <c r="AI159">
         <v>6</v>
       </c>
+      <c r="AJ159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18998,6 +19477,9 @@
       <c r="AI160">
         <v>11</v>
       </c>
+      <c r="AJ160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19113,6 +19595,9 @@
       <c r="AI161">
         <v>1</v>
       </c>
+      <c r="AJ161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19228,6 +19713,9 @@
       <c r="AI162">
         <v>81</v>
       </c>
+      <c r="AJ162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19343,6 +19831,9 @@
       <c r="AI163">
         <v>35</v>
       </c>
+      <c r="AJ163">
+        <v>35</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19458,6 +19949,9 @@
       <c r="AI164">
         <v>19</v>
       </c>
+      <c r="AJ164">
+        <v>19</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19573,6 +20067,9 @@
       <c r="AI165">
         <v>59</v>
       </c>
+      <c r="AJ165">
+        <v>59</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19688,6 +20185,9 @@
       <c r="AI166">
         <v>11</v>
       </c>
+      <c r="AJ166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19803,6 +20303,9 @@
       <c r="AI167">
         <v>33</v>
       </c>
+      <c r="AJ167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19918,6 +20421,9 @@
       <c r="AI168">
         <v>0</v>
       </c>
+      <c r="AJ168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20033,6 +20539,9 @@
       <c r="AI169">
         <v>18</v>
       </c>
+      <c r="AJ169">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20148,6 +20657,9 @@
       <c r="AI170">
         <v>4</v>
       </c>
+      <c r="AJ170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20263,6 +20775,9 @@
       <c r="AI171">
         <v>5</v>
       </c>
+      <c r="AJ171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20378,6 +20893,9 @@
       <c r="AI172">
         <v>3</v>
       </c>
+      <c r="AJ172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20493,6 +21011,9 @@
       <c r="AI173">
         <v>3</v>
       </c>
+      <c r="AJ173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20608,6 +21129,9 @@
       <c r="AI174">
         <v>13</v>
       </c>
+      <c r="AJ174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20723,6 +21247,9 @@
       <c r="AI175">
         <v>2</v>
       </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20838,6 +21365,9 @@
       <c r="AI176">
         <v>4</v>
       </c>
+      <c r="AJ176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20953,6 +21483,9 @@
       <c r="AI177">
         <v>0</v>
       </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21068,6 +21601,9 @@
       <c r="AI178">
         <v>0</v>
       </c>
+      <c r="AJ178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21183,6 +21719,9 @@
       <c r="AI179">
         <v>2</v>
       </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21298,6 +21837,9 @@
       <c r="AI180">
         <v>0</v>
       </c>
+      <c r="AJ180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21413,6 +21955,9 @@
       <c r="AI181">
         <v>0</v>
       </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21528,6 +22073,9 @@
       <c r="AI182">
         <v>1</v>
       </c>
+      <c r="AJ182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -21643,6 +22191,9 @@
       <c r="AI183">
         <v>0</v>
       </c>
+      <c r="AJ183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -21758,6 +22309,9 @@
       <c r="AI184">
         <v>1</v>
       </c>
+      <c r="AJ184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -21873,6 +22427,9 @@
       <c r="AI185">
         <v>5</v>
       </c>
+      <c r="AJ185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21988,6 +22545,9 @@
       <c r="AI186">
         <v>2</v>
       </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22103,6 +22663,9 @@
       <c r="AI187">
         <v>1</v>
       </c>
+      <c r="AJ187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22218,6 +22781,9 @@
       <c r="AI188">
         <v>3</v>
       </c>
+      <c r="AJ188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22333,6 +22899,9 @@
       <c r="AI189">
         <v>2</v>
       </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22448,6 +23017,9 @@
       <c r="AI190">
         <v>13</v>
       </c>
+      <c r="AJ190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -22563,6 +23135,9 @@
       <c r="AI191">
         <v>36</v>
       </c>
+      <c r="AJ191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -22678,6 +23253,9 @@
       <c r="AI192">
         <v>1</v>
       </c>
+      <c r="AJ192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -22793,6 +23371,9 @@
       <c r="AI193">
         <v>8</v>
       </c>
+      <c r="AJ193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -22908,6 +23489,9 @@
       <c r="AI194">
         <v>2</v>
       </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23023,6 +23607,9 @@
       <c r="AI195">
         <v>6</v>
       </c>
+      <c r="AJ195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23138,6 +23725,9 @@
       <c r="AI196">
         <v>4</v>
       </c>
+      <c r="AJ196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23253,6 +23843,9 @@
       <c r="AI197">
         <v>12</v>
       </c>
+      <c r="AJ197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -23368,6 +23961,9 @@
       <c r="AI198">
         <v>9</v>
       </c>
+      <c r="AJ198">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -23483,6 +24079,9 @@
       <c r="AI199">
         <v>2</v>
       </c>
+      <c r="AJ199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -23598,6 +24197,9 @@
       <c r="AI200">
         <v>1</v>
       </c>
+      <c r="AJ200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -23713,6 +24315,9 @@
       <c r="AI201">
         <v>0</v>
       </c>
+      <c r="AJ201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -23828,6 +24433,9 @@
       <c r="AI202">
         <v>1</v>
       </c>
+      <c r="AJ202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -23943,6 +24551,9 @@
       <c r="AI203">
         <v>9</v>
       </c>
+      <c r="AJ203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24058,6 +24669,9 @@
       <c r="AI204">
         <v>0</v>
       </c>
+      <c r="AJ204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24173,6 +24787,9 @@
       <c r="AI205">
         <v>0</v>
       </c>
+      <c r="AJ205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24288,6 +24905,9 @@
       <c r="AI206">
         <v>0</v>
       </c>
+      <c r="AJ206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24403,6 +25023,9 @@
       <c r="AI207">
         <v>25</v>
       </c>
+      <c r="AJ207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24518,6 +25141,9 @@
       <c r="AI208">
         <v>18</v>
       </c>
+      <c r="AJ208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24633,6 +25259,9 @@
       <c r="AI209">
         <v>55</v>
       </c>
+      <c r="AJ209">
+        <v>55</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24748,6 +25377,9 @@
       <c r="AI210">
         <v>38</v>
       </c>
+      <c r="AJ210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -24863,6 +25495,9 @@
       <c r="AI211">
         <v>36</v>
       </c>
+      <c r="AJ211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -24978,6 +25613,9 @@
       <c r="AI212">
         <v>9</v>
       </c>
+      <c r="AJ212">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25093,6 +25731,9 @@
       <c r="AI213">
         <v>39</v>
       </c>
+      <c r="AJ213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -25208,6 +25849,9 @@
       <c r="AI214">
         <v>4</v>
       </c>
+      <c r="AJ214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25323,6 +25967,9 @@
       <c r="AI215">
         <v>21</v>
       </c>
+      <c r="AJ215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -25438,6 +26085,9 @@
       <c r="AI216">
         <v>2</v>
       </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -25553,6 +26203,9 @@
       <c r="AI217">
         <v>5</v>
       </c>
+      <c r="AJ217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25668,6 +26321,9 @@
       <c r="AI218">
         <v>2</v>
       </c>
+      <c r="AJ218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -25783,6 +26439,9 @@
       <c r="AI219">
         <v>1</v>
       </c>
+      <c r="AJ219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -25898,6 +26557,9 @@
       <c r="AI220">
         <v>3</v>
       </c>
+      <c r="AJ220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26013,6 +26675,9 @@
       <c r="AI221">
         <v>0</v>
       </c>
+      <c r="AJ221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -26128,6 +26793,9 @@
       <c r="AI222">
         <v>1</v>
       </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -26243,6 +26911,9 @@
       <c r="AI223">
         <v>0</v>
       </c>
+      <c r="AJ223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -26358,6 +27029,9 @@
       <c r="AI224">
         <v>0</v>
       </c>
+      <c r="AJ224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -26473,6 +27147,9 @@
       <c r="AI225">
         <v>0</v>
       </c>
+      <c r="AJ225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26588,6 +27265,9 @@
       <c r="AI226">
         <v>0</v>
       </c>
+      <c r="AJ226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26703,6 +27383,9 @@
       <c r="AI227">
         <v>0</v>
       </c>
+      <c r="AJ227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -26818,6 +27501,9 @@
       <c r="AI228">
         <v>0</v>
       </c>
+      <c r="AJ228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -26933,6 +27619,9 @@
       <c r="AI229">
         <v>2</v>
       </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -27048,6 +27737,9 @@
       <c r="AI230">
         <v>0</v>
       </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -27163,6 +27855,9 @@
       <c r="AI231">
         <v>1</v>
       </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -27278,6 +27973,9 @@
       <c r="AI232">
         <v>29</v>
       </c>
+      <c r="AJ232">
+        <v>29</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -27393,6 +28091,9 @@
       <c r="AI233">
         <v>193</v>
       </c>
+      <c r="AJ233">
+        <v>198</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27508,6 +28209,9 @@
       <c r="AI234">
         <v>9</v>
       </c>
+      <c r="AJ234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -27623,6 +28327,9 @@
       <c r="AI235">
         <v>11</v>
       </c>
+      <c r="AJ235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -27738,6 +28445,9 @@
       <c r="AI236">
         <v>0</v>
       </c>
+      <c r="AJ236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -27853,6 +28563,9 @@
       <c r="AI237">
         <v>2</v>
       </c>
+      <c r="AJ237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -27968,6 +28681,9 @@
       <c r="AI238">
         <v>0</v>
       </c>
+      <c r="AJ238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -28083,6 +28799,9 @@
       <c r="AI239">
         <v>1</v>
       </c>
+      <c r="AJ239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -28198,6 +28917,9 @@
       <c r="AI240">
         <v>2</v>
       </c>
+      <c r="AJ240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -28313,6 +29035,9 @@
       <c r="AI241">
         <v>7</v>
       </c>
+      <c r="AJ241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -28428,6 +29153,9 @@
       <c r="AI242">
         <v>3</v>
       </c>
+      <c r="AJ242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -28543,6 +29271,9 @@
       <c r="AI243">
         <v>1</v>
       </c>
+      <c r="AJ243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -28658,6 +29389,9 @@
       <c r="AI244">
         <v>2</v>
       </c>
+      <c r="AJ244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -28773,6 +29507,9 @@
       <c r="AI245">
         <v>2</v>
       </c>
+      <c r="AJ245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -28888,6 +29625,9 @@
       <c r="AI246">
         <v>2</v>
       </c>
+      <c r="AJ246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -29003,6 +29743,9 @@
       <c r="AI247">
         <v>0</v>
       </c>
+      <c r="AJ247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -29118,6 +29861,9 @@
       <c r="AI248">
         <v>3</v>
       </c>
+      <c r="AJ248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -29233,6 +29979,9 @@
       <c r="AI249">
         <v>12</v>
       </c>
+      <c r="AJ249">
+        <v>12</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -29348,6 +30097,9 @@
       <c r="AI250">
         <v>0</v>
       </c>
+      <c r="AJ250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -29463,6 +30215,9 @@
       <c r="AI251">
         <v>4</v>
       </c>
+      <c r="AJ251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -29578,6 +30333,9 @@
       <c r="AI252">
         <v>1</v>
       </c>
+      <c r="AJ252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -29693,6 +30451,9 @@
       <c r="AI253">
         <v>1</v>
       </c>
+      <c r="AJ253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -29808,6 +30569,9 @@
       <c r="AI254">
         <v>1</v>
       </c>
+      <c r="AJ254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -29933,6 +30697,9 @@
       <c r="AI255">
         <v>12</v>
       </c>
+      <c r="AJ255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -30058,6 +30825,9 @@
       <c r="AI256">
         <v>77</v>
       </c>
+      <c r="AJ256">
+        <v>78</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -30183,6 +30953,9 @@
       <c r="AI257">
         <v>52</v>
       </c>
+      <c r="AJ257">
+        <v>52</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -30308,6 +31081,9 @@
       <c r="AI258">
         <v>63</v>
       </c>
+      <c r="AJ258">
+        <v>63</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -30433,6 +31209,9 @@
       <c r="AI259">
         <v>58</v>
       </c>
+      <c r="AJ259">
+        <v>58</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -30558,6 +31337,9 @@
       <c r="AI260">
         <v>39</v>
       </c>
+      <c r="AJ260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -30683,6 +31465,9 @@
       <c r="AI261">
         <v>89</v>
       </c>
+      <c r="AJ261">
+        <v>90</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -30808,6 +31593,9 @@
       <c r="AI262">
         <v>50</v>
       </c>
+      <c r="AJ262">
+        <v>50</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -30933,6 +31721,9 @@
       <c r="AI263">
         <v>58</v>
       </c>
+      <c r="AJ263">
+        <v>58</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -31048,6 +31839,9 @@
       <c r="AI264">
         <v>9</v>
       </c>
+      <c r="AJ264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -31163,6 +31957,9 @@
       <c r="AI265">
         <v>4</v>
       </c>
+      <c r="AJ265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -31278,6 +32075,9 @@
       <c r="AI266">
         <v>4</v>
       </c>
+      <c r="AJ266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -31393,6 +32193,9 @@
       <c r="AI267">
         <v>4</v>
       </c>
+      <c r="AJ267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -31508,6 +32311,9 @@
       <c r="AI268">
         <v>6</v>
       </c>
+      <c r="AJ268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -31623,6 +32429,9 @@
       <c r="AI269">
         <v>8</v>
       </c>
+      <c r="AJ269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -31738,6 +32547,9 @@
       <c r="AI270">
         <v>0</v>
       </c>
+      <c r="AJ270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -31853,6 +32665,9 @@
       <c r="AI271">
         <v>4</v>
       </c>
+      <c r="AJ271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -31968,6 +32783,9 @@
       <c r="AI272">
         <v>0</v>
       </c>
+      <c r="AJ272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -32083,6 +32901,9 @@
       <c r="AI273">
         <v>0</v>
       </c>
+      <c r="AJ273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -32198,6 +33019,9 @@
       <c r="AI274">
         <v>2</v>
       </c>
+      <c r="AJ274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -32313,6 +33137,9 @@
       <c r="AI275">
         <v>24</v>
       </c>
+      <c r="AJ275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -32428,6 +33255,9 @@
       <c r="AI276">
         <v>9</v>
       </c>
+      <c r="AJ276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -32543,6 +33373,9 @@
       <c r="AI277">
         <v>0</v>
       </c>
+      <c r="AJ277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -32658,6 +33491,9 @@
       <c r="AI278">
         <v>17</v>
       </c>
+      <c r="AJ278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -32773,6 +33609,9 @@
       <c r="AI279">
         <v>5</v>
       </c>
+      <c r="AJ279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -32888,6 +33727,9 @@
       <c r="AI280">
         <v>50</v>
       </c>
+      <c r="AJ280">
+        <v>51</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -33003,6 +33845,9 @@
       <c r="AI281">
         <v>34</v>
       </c>
+      <c r="AJ281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -33118,6 +33963,9 @@
       <c r="AI282">
         <v>1</v>
       </c>
+      <c r="AJ282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -33233,6 +34081,9 @@
       <c r="AI283">
         <v>0</v>
       </c>
+      <c r="AJ283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -33348,6 +34199,9 @@
       <c r="AI284">
         <v>37</v>
       </c>
+      <c r="AJ284">
+        <v>37</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -33463,6 +34317,9 @@
       <c r="AI285">
         <v>24</v>
       </c>
+      <c r="AJ285">
+        <v>24</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -33578,6 +34435,9 @@
       <c r="AI286">
         <v>0</v>
       </c>
+      <c r="AJ286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -33693,6 +34553,9 @@
       <c r="AI287">
         <v>0</v>
       </c>
+      <c r="AJ287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -33808,6 +34671,9 @@
       <c r="AI288">
         <v>0</v>
       </c>
+      <c r="AJ288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -33923,6 +34789,9 @@
       <c r="AI289">
         <v>1</v>
       </c>
+      <c r="AJ289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -34038,6 +34907,9 @@
       <c r="AI290">
         <v>3</v>
       </c>
+      <c r="AJ290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -34153,6 +35025,9 @@
       <c r="AI291">
         <v>0</v>
       </c>
+      <c r="AJ291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -34268,6 +35143,9 @@
       <c r="AI292">
         <v>3</v>
       </c>
+      <c r="AJ292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -34383,6 +35261,9 @@
       <c r="AI293">
         <v>0</v>
       </c>
+      <c r="AJ293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -34498,6 +35379,9 @@
       <c r="AI294">
         <v>7</v>
       </c>
+      <c r="AJ294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -34613,6 +35497,9 @@
       <c r="AI295">
         <v>0</v>
       </c>
+      <c r="AJ295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -34728,6 +35615,9 @@
       <c r="AI296">
         <v>0</v>
       </c>
+      <c r="AJ296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -34843,6 +35733,9 @@
       <c r="AI297">
         <v>1</v>
       </c>
+      <c r="AJ297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -34958,6 +35851,9 @@
       <c r="AI298">
         <v>4</v>
       </c>
+      <c r="AJ298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -35073,6 +35969,9 @@
       <c r="AI299">
         <v>0</v>
       </c>
+      <c r="AJ299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -35188,6 +36087,9 @@
       <c r="AI300">
         <v>0</v>
       </c>
+      <c r="AJ300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -35303,6 +36205,9 @@
       <c r="AI301">
         <v>17</v>
       </c>
+      <c r="AJ301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -35418,6 +36323,9 @@
       <c r="AI302">
         <v>0</v>
       </c>
+      <c r="AJ302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -35533,6 +36441,9 @@
       <c r="AI303">
         <v>0</v>
       </c>
+      <c r="AJ303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -35648,6 +36559,9 @@
       <c r="AI304">
         <v>4</v>
       </c>
+      <c r="AJ304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -35763,6 +36677,9 @@
       <c r="AI305">
         <v>12</v>
       </c>
+      <c r="AJ305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -35878,6 +36795,9 @@
       <c r="AI306">
         <v>228</v>
       </c>
+      <c r="AJ306">
+        <v>230</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -35993,6 +36913,9 @@
       <c r="AI307">
         <v>16</v>
       </c>
+      <c r="AJ307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -36108,6 +37031,9 @@
       <c r="AI308">
         <v>5</v>
       </c>
+      <c r="AJ308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -36223,6 +37149,9 @@
       <c r="AI309">
         <v>0</v>
       </c>
+      <c r="AJ309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -36338,6 +37267,9 @@
       <c r="AI310">
         <v>0</v>
       </c>
+      <c r="AJ310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -36453,6 +37385,9 @@
       <c r="AI311">
         <v>8</v>
       </c>
+      <c r="AJ311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -36568,6 +37503,9 @@
       <c r="AI312">
         <v>5</v>
       </c>
+      <c r="AJ312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -36683,6 +37621,9 @@
       <c r="AI313">
         <v>0</v>
       </c>
+      <c r="AJ313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -36798,6 +37739,9 @@
       <c r="AI314">
         <v>1</v>
       </c>
+      <c r="AJ314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -36913,6 +37857,9 @@
       <c r="AI315">
         <v>7</v>
       </c>
+      <c r="AJ315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -37028,6 +37975,9 @@
       <c r="AI316">
         <v>3</v>
       </c>
+      <c r="AJ316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -37143,6 +38093,9 @@
       <c r="AI317">
         <v>5</v>
       </c>
+      <c r="AJ317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -37258,6 +38211,9 @@
       <c r="AI318">
         <v>11</v>
       </c>
+      <c r="AJ318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -37373,6 +38329,9 @@
       <c r="AI319">
         <v>6</v>
       </c>
+      <c r="AJ319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -37488,6 +38447,9 @@
       <c r="AI320">
         <v>0</v>
       </c>
+      <c r="AJ320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -37603,6 +38565,9 @@
       <c r="AI321">
         <v>1</v>
       </c>
+      <c r="AJ321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -37718,6 +38683,9 @@
       <c r="AI322">
         <v>8</v>
       </c>
+      <c r="AJ322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -37833,6 +38801,9 @@
       <c r="AI323">
         <v>28</v>
       </c>
+      <c r="AJ323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -37948,6 +38919,9 @@
       <c r="AI324">
         <v>21</v>
       </c>
+      <c r="AJ324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -38063,6 +39037,9 @@
       <c r="AI325">
         <v>15</v>
       </c>
+      <c r="AJ325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -38178,6 +39155,9 @@
       <c r="AI326">
         <v>0</v>
       </c>
+      <c r="AJ326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -38293,6 +39273,9 @@
       <c r="AI327">
         <v>0</v>
       </c>
+      <c r="AJ327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -38408,6 +39391,9 @@
       <c r="AI328">
         <v>0</v>
       </c>
+      <c r="AJ328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -38523,6 +39509,9 @@
       <c r="AI329">
         <v>0</v>
       </c>
+      <c r="AJ329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -38638,6 +39627,9 @@
       <c r="AI330">
         <v>3</v>
       </c>
+      <c r="AJ330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -38753,6 +39745,9 @@
       <c r="AI331">
         <v>1</v>
       </c>
+      <c r="AJ331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -38868,6 +39863,9 @@
       <c r="AI332">
         <v>4</v>
       </c>
+      <c r="AJ332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -38983,6 +39981,9 @@
       <c r="AI333">
         <v>0</v>
       </c>
+      <c r="AJ333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -39098,6 +40099,9 @@
       <c r="AI334">
         <v>0</v>
       </c>
+      <c r="AJ334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -39213,6 +40217,9 @@
       <c r="AI335">
         <v>7</v>
       </c>
+      <c r="AJ335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -39328,6 +40335,9 @@
       <c r="AI336">
         <v>2</v>
       </c>
+      <c r="AJ336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -39443,6 +40453,9 @@
       <c r="AI337">
         <v>2</v>
       </c>
+      <c r="AJ337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -39558,6 +40571,9 @@
       <c r="AI338">
         <v>2</v>
       </c>
+      <c r="AJ338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -39673,6 +40689,9 @@
       <c r="AI339">
         <v>10</v>
       </c>
+      <c r="AJ339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -39788,6 +40807,9 @@
       <c r="AI340">
         <v>1</v>
       </c>
+      <c r="AJ340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -39903,6 +40925,9 @@
       <c r="AI341">
         <v>17</v>
       </c>
+      <c r="AJ341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -40018,6 +41043,9 @@
       <c r="AI342">
         <v>0</v>
       </c>
+      <c r="AJ342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -40133,6 +41161,9 @@
       <c r="AI343">
         <v>0</v>
       </c>
+      <c r="AJ343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -40248,6 +41279,9 @@
       <c r="AI344">
         <v>137</v>
       </c>
+      <c r="AJ344">
+        <v>142</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -40363,6 +41397,9 @@
       <c r="AI345">
         <v>6</v>
       </c>
+      <c r="AJ345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -40478,6 +41515,9 @@
       <c r="AI346">
         <v>5</v>
       </c>
+      <c r="AJ346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -40593,6 +41633,9 @@
       <c r="AI347">
         <v>1</v>
       </c>
+      <c r="AJ347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -40708,6 +41751,9 @@
       <c r="AI348">
         <v>3</v>
       </c>
+      <c r="AJ348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -40823,6 +41869,9 @@
       <c r="AI349">
         <v>15</v>
       </c>
+      <c r="AJ349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -40938,6 +41987,9 @@
       <c r="AI350">
         <v>1</v>
       </c>
+      <c r="AJ350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -41053,6 +42105,9 @@
       <c r="AI351">
         <v>1</v>
       </c>
+      <c r="AJ351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -41168,6 +42223,9 @@
       <c r="AI352">
         <v>0</v>
       </c>
+      <c r="AJ352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -41283,6 +42341,9 @@
       <c r="AI353">
         <v>0</v>
       </c>
+      <c r="AJ353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -41398,6 +42459,9 @@
       <c r="AI354">
         <v>3</v>
       </c>
+      <c r="AJ354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -41513,6 +42577,9 @@
       <c r="AI355">
         <v>1</v>
       </c>
+      <c r="AJ355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -41628,6 +42695,9 @@
       <c r="AI356">
         <v>2</v>
       </c>
+      <c r="AJ356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -41743,6 +42813,9 @@
       <c r="AI357">
         <v>0</v>
       </c>
+      <c r="AJ357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -41858,6 +42931,9 @@
       <c r="AI358">
         <v>0</v>
       </c>
+      <c r="AJ358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -41973,6 +43049,9 @@
       <c r="AI359">
         <v>0</v>
       </c>
+      <c r="AJ359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -42088,6 +43167,9 @@
       <c r="AI360">
         <v>16</v>
       </c>
+      <c r="AJ360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -42203,6 +43285,9 @@
       <c r="AI361">
         <v>2</v>
       </c>
+      <c r="AJ361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -42318,6 +43403,9 @@
       <c r="AI362">
         <v>1</v>
       </c>
+      <c r="AJ362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -42433,6 +43521,9 @@
       <c r="AI363">
         <v>2</v>
       </c>
+      <c r="AJ363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -42548,6 +43639,9 @@
       <c r="AI364">
         <v>0</v>
       </c>
+      <c r="AJ364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -42663,6 +43757,9 @@
       <c r="AI365">
         <v>0</v>
       </c>
+      <c r="AJ365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -42778,6 +43875,9 @@
       <c r="AI366">
         <v>1</v>
       </c>
+      <c r="AJ366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -42893,6 +43993,9 @@
       <c r="AI367">
         <v>2</v>
       </c>
+      <c r="AJ367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -43008,6 +44111,9 @@
       <c r="AI368">
         <v>0</v>
       </c>
+      <c r="AJ368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -43123,6 +44229,9 @@
       <c r="AI369">
         <v>1</v>
       </c>
+      <c r="AJ369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -43238,6 +44347,9 @@
       <c r="AI370">
         <v>0</v>
       </c>
+      <c r="AJ370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -43353,6 +44465,9 @@
       <c r="AI371">
         <v>0</v>
       </c>
+      <c r="AJ371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -43468,6 +44583,9 @@
       <c r="AI372">
         <v>3</v>
       </c>
+      <c r="AJ372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -43583,6 +44701,9 @@
       <c r="AI373">
         <v>2</v>
       </c>
+      <c r="AJ373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -43698,6 +44819,9 @@
       <c r="AI374">
         <v>4</v>
       </c>
+      <c r="AJ374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -43813,6 +44937,9 @@
       <c r="AI375">
         <v>1</v>
       </c>
+      <c r="AJ375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -43928,6 +45055,9 @@
       <c r="AI376">
         <v>0</v>
       </c>
+      <c r="AJ376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -44043,6 +45173,9 @@
       <c r="AI377">
         <v>0</v>
       </c>
+      <c r="AJ377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -44158,6 +45291,9 @@
       <c r="AI378">
         <v>0</v>
       </c>
+      <c r="AJ378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -44273,6 +45409,9 @@
       <c r="AI379">
         <v>1</v>
       </c>
+      <c r="AJ379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -44388,6 +45527,9 @@
       <c r="AI380">
         <v>1</v>
       </c>
+      <c r="AJ380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -44503,6 +45645,9 @@
       <c r="AI381">
         <v>0</v>
       </c>
+      <c r="AJ381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -44618,6 +45763,9 @@
       <c r="AI382">
         <v>4</v>
       </c>
+      <c r="AJ382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -44733,6 +45881,9 @@
       <c r="AI383">
         <v>0</v>
       </c>
+      <c r="AJ383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -44847,6 +45998,9 @@
       </c>
       <c r="AI384">
         <v>1</v>
+      </c>
+      <c r="AJ384">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ384"/>
+  <dimension ref="A1:AK384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,6 +538,11 @@
           <t>2020-04-20</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,6 +671,9 @@
       <c r="AJ2">
         <v>214</v>
       </c>
+      <c r="AK2">
+        <v>215</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -794,6 +802,9 @@
       <c r="AJ3">
         <v>157</v>
       </c>
+      <c r="AK3">
+        <v>159</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -922,6 +933,9 @@
       <c r="AJ4">
         <v>129</v>
       </c>
+      <c r="AK4">
+        <v>130</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1050,6 +1064,9 @@
       <c r="AJ5">
         <v>87</v>
       </c>
+      <c r="AK5">
+        <v>87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1178,6 +1195,9 @@
       <c r="AJ6">
         <v>156</v>
       </c>
+      <c r="AK6">
+        <v>158</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1306,6 +1326,9 @@
       <c r="AJ7">
         <v>107</v>
       </c>
+      <c r="AK7">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1434,6 +1457,9 @@
       <c r="AJ8">
         <v>143</v>
       </c>
+      <c r="AK8">
+        <v>144</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1562,6 +1588,9 @@
       <c r="AJ9">
         <v>125</v>
       </c>
+      <c r="AK9">
+        <v>125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1690,6 +1719,9 @@
       <c r="AJ10">
         <v>92</v>
       </c>
+      <c r="AK10">
+        <v>93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1818,6 +1850,9 @@
       <c r="AJ11">
         <v>87</v>
       </c>
+      <c r="AK11">
+        <v>91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1946,6 +1981,9 @@
       <c r="AJ12">
         <v>173</v>
       </c>
+      <c r="AK12">
+        <v>174</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2074,6 +2112,9 @@
       <c r="AJ13">
         <v>201</v>
       </c>
+      <c r="AK13">
+        <v>206</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2202,6 +2243,9 @@
       <c r="AJ14">
         <v>160</v>
       </c>
+      <c r="AK14">
+        <v>161</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2330,6 +2374,9 @@
       <c r="AJ15">
         <v>151</v>
       </c>
+      <c r="AK15">
+        <v>151</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2458,6 +2505,9 @@
       <c r="AJ16">
         <v>126</v>
       </c>
+      <c r="AK16">
+        <v>127</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2586,6 +2636,9 @@
       <c r="AJ17">
         <v>4</v>
       </c>
+      <c r="AK17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2714,6 +2767,9 @@
       <c r="AJ18">
         <v>2</v>
       </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2842,6 +2898,9 @@
       <c r="AJ19">
         <v>42</v>
       </c>
+      <c r="AK19">
+        <v>42</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2960,6 +3019,9 @@
       <c r="AJ20">
         <v>14</v>
       </c>
+      <c r="AK20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3078,6 +3140,9 @@
       <c r="AJ21">
         <v>129</v>
       </c>
+      <c r="AK21">
+        <v>130</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3196,6 +3261,9 @@
       <c r="AJ22">
         <v>50</v>
       </c>
+      <c r="AK22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3314,6 +3382,9 @@
       <c r="AJ23">
         <v>46</v>
       </c>
+      <c r="AK23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3432,6 +3503,9 @@
       <c r="AJ24">
         <v>5</v>
       </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3550,6 +3624,9 @@
       <c r="AJ25">
         <v>1</v>
       </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3668,6 +3745,9 @@
       <c r="AJ26">
         <v>0</v>
       </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3786,6 +3866,9 @@
       <c r="AJ27">
         <v>7</v>
       </c>
+      <c r="AK27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3904,6 +3987,9 @@
       <c r="AJ28">
         <v>6</v>
       </c>
+      <c r="AK28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4022,6 +4108,9 @@
       <c r="AJ29">
         <v>12</v>
       </c>
+      <c r="AK29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4140,6 +4229,9 @@
       <c r="AJ30">
         <v>13</v>
       </c>
+      <c r="AK30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4258,6 +4350,9 @@
       <c r="AJ31">
         <v>14</v>
       </c>
+      <c r="AK31">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4376,6 +4471,9 @@
       <c r="AJ32">
         <v>11</v>
       </c>
+      <c r="AK32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4494,6 +4592,9 @@
       <c r="AJ33">
         <v>13</v>
       </c>
+      <c r="AK33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4612,6 +4713,9 @@
       <c r="AJ34">
         <v>0</v>
       </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4730,6 +4834,9 @@
       <c r="AJ35">
         <v>0</v>
       </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4848,6 +4955,9 @@
       <c r="AJ36">
         <v>3</v>
       </c>
+      <c r="AK36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4966,6 +5076,9 @@
       <c r="AJ37">
         <v>0</v>
       </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5084,6 +5197,9 @@
       <c r="AJ38">
         <v>1</v>
       </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5202,6 +5318,9 @@
       <c r="AJ39">
         <v>20</v>
       </c>
+      <c r="AK39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5320,6 +5439,9 @@
       <c r="AJ40">
         <v>36</v>
       </c>
+      <c r="AK40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5438,6 +5560,9 @@
       <c r="AJ41">
         <v>0</v>
       </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5556,6 +5681,9 @@
       <c r="AJ42">
         <v>11</v>
       </c>
+      <c r="AK42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5674,6 +5802,9 @@
       <c r="AJ43">
         <v>18</v>
       </c>
+      <c r="AK43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5792,6 +5923,9 @@
       <c r="AJ44">
         <v>14</v>
       </c>
+      <c r="AK44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5910,6 +6044,9 @@
       <c r="AJ45">
         <v>26</v>
       </c>
+      <c r="AK45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6028,6 +6165,9 @@
       <c r="AJ46">
         <v>1</v>
       </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6146,6 +6286,9 @@
       <c r="AJ47">
         <v>3</v>
       </c>
+      <c r="AK47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6264,6 +6407,9 @@
       <c r="AJ48">
         <v>3</v>
       </c>
+      <c r="AK48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6382,6 +6528,9 @@
       <c r="AJ49">
         <v>7</v>
       </c>
+      <c r="AK49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6500,6 +6649,9 @@
       <c r="AJ50">
         <v>2</v>
       </c>
+      <c r="AK50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6618,6 +6770,9 @@
       <c r="AJ51">
         <v>6</v>
       </c>
+      <c r="AK51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6736,6 +6891,9 @@
       <c r="AJ52">
         <v>0</v>
       </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6854,6 +7012,9 @@
       <c r="AJ53">
         <v>1</v>
       </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6972,6 +7133,9 @@
       <c r="AJ54">
         <v>6</v>
       </c>
+      <c r="AK54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7090,6 +7254,9 @@
       <c r="AJ55">
         <v>5</v>
       </c>
+      <c r="AK55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7208,6 +7375,9 @@
       <c r="AJ56">
         <v>0</v>
       </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7326,6 +7496,9 @@
       <c r="AJ57">
         <v>10</v>
       </c>
+      <c r="AK57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7444,6 +7617,9 @@
       <c r="AJ58">
         <v>0</v>
       </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7562,6 +7738,9 @@
       <c r="AJ59">
         <v>0</v>
       </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7680,6 +7859,9 @@
       <c r="AJ60">
         <v>0</v>
       </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7798,6 +7980,9 @@
       <c r="AJ61">
         <v>1</v>
       </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7916,6 +8101,9 @@
       <c r="AJ62">
         <v>2</v>
       </c>
+      <c r="AK62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8034,6 +8222,9 @@
       <c r="AJ63">
         <v>2</v>
       </c>
+      <c r="AK63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8152,6 +8343,9 @@
       <c r="AJ64">
         <v>0</v>
       </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8270,6 +8464,9 @@
       <c r="AJ65">
         <v>3</v>
       </c>
+      <c r="AK65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8388,6 +8585,9 @@
       <c r="AJ66">
         <v>4</v>
       </c>
+      <c r="AK66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8506,6 +8706,9 @@
       <c r="AJ67">
         <v>1</v>
       </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8624,6 +8827,9 @@
       <c r="AJ68">
         <v>3</v>
       </c>
+      <c r="AK68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8742,6 +8948,9 @@
       <c r="AJ69">
         <v>37</v>
       </c>
+      <c r="AK69">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8860,6 +9069,9 @@
       <c r="AJ70">
         <v>5</v>
       </c>
+      <c r="AK70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8978,6 +9190,9 @@
       <c r="AJ71">
         <v>0</v>
       </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9096,6 +9311,9 @@
       <c r="AJ72">
         <v>2</v>
       </c>
+      <c r="AK72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9214,6 +9432,9 @@
       <c r="AJ73">
         <v>5</v>
       </c>
+      <c r="AK73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9332,6 +9553,9 @@
       <c r="AJ74">
         <v>3</v>
       </c>
+      <c r="AK74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9450,6 +9674,9 @@
       <c r="AJ75">
         <v>0</v>
       </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9568,6 +9795,9 @@
       <c r="AJ76">
         <v>0</v>
       </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9686,6 +9916,9 @@
       <c r="AJ77">
         <v>2</v>
       </c>
+      <c r="AK77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9804,6 +10037,9 @@
       <c r="AJ78">
         <v>4</v>
       </c>
+      <c r="AK78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9922,6 +10158,9 @@
       <c r="AJ79">
         <v>1</v>
       </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10040,6 +10279,9 @@
       <c r="AJ80">
         <v>1</v>
       </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10158,6 +10400,9 @@
       <c r="AJ81">
         <v>0</v>
       </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10276,6 +10521,9 @@
       <c r="AJ82">
         <v>5</v>
       </c>
+      <c r="AK82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10394,6 +10642,9 @@
       <c r="AJ83">
         <v>0</v>
       </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10512,6 +10763,9 @@
       <c r="AJ84">
         <v>0</v>
       </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10630,6 +10884,9 @@
       <c r="AJ85">
         <v>4</v>
       </c>
+      <c r="AK85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10748,6 +11005,9 @@
       <c r="AJ86">
         <v>0</v>
       </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10866,6 +11126,9 @@
       <c r="AJ87">
         <v>0</v>
       </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10984,6 +11247,9 @@
       <c r="AJ88">
         <v>0</v>
       </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11102,6 +11368,9 @@
       <c r="AJ89">
         <v>5</v>
       </c>
+      <c r="AK89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11220,6 +11489,9 @@
       <c r="AJ90">
         <v>0</v>
       </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11338,6 +11610,9 @@
       <c r="AJ91">
         <v>0</v>
       </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11456,6 +11731,9 @@
       <c r="AJ92">
         <v>0</v>
       </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11574,6 +11852,9 @@
       <c r="AJ93">
         <v>1</v>
       </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11692,6 +11973,9 @@
       <c r="AJ94">
         <v>0</v>
       </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11810,6 +12094,9 @@
       <c r="AJ95">
         <v>1</v>
       </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11928,6 +12215,9 @@
       <c r="AJ96">
         <v>0</v>
       </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12046,6 +12336,9 @@
       <c r="AJ97">
         <v>0</v>
       </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12164,6 +12457,9 @@
       <c r="AJ98">
         <v>0</v>
       </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12282,6 +12578,9 @@
       <c r="AJ99">
         <v>0</v>
       </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12400,6 +12699,9 @@
       <c r="AJ100">
         <v>5</v>
       </c>
+      <c r="AK100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12518,6 +12820,9 @@
       <c r="AJ101">
         <v>13</v>
       </c>
+      <c r="AK101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12636,6 +12941,9 @@
       <c r="AJ102">
         <v>3</v>
       </c>
+      <c r="AK102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12754,6 +13062,9 @@
       <c r="AJ103">
         <v>5</v>
       </c>
+      <c r="AK103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12872,6 +13183,9 @@
       <c r="AJ104">
         <v>0</v>
       </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12990,6 +13304,9 @@
       <c r="AJ105">
         <v>0</v>
       </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13108,6 +13425,9 @@
       <c r="AJ106">
         <v>6</v>
       </c>
+      <c r="AK106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13226,6 +13546,9 @@
       <c r="AJ107">
         <v>0</v>
       </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13344,6 +13667,9 @@
       <c r="AJ108">
         <v>1</v>
       </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13462,6 +13788,9 @@
       <c r="AJ109">
         <v>0</v>
       </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13580,6 +13909,9 @@
       <c r="AJ110">
         <v>32</v>
       </c>
+      <c r="AK110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13698,6 +14030,9 @@
       <c r="AJ111">
         <v>93</v>
       </c>
+      <c r="AK111">
+        <v>93</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13816,6 +14151,9 @@
       <c r="AJ112">
         <v>54</v>
       </c>
+      <c r="AK112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13934,6 +14272,9 @@
       <c r="AJ113">
         <v>84</v>
       </c>
+      <c r="AK113">
+        <v>84</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14052,6 +14393,9 @@
       <c r="AJ114">
         <v>165</v>
       </c>
+      <c r="AK114">
+        <v>166</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14170,6 +14514,9 @@
       <c r="AJ115">
         <v>21</v>
       </c>
+      <c r="AK115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14288,6 +14635,9 @@
       <c r="AJ116">
         <v>10</v>
       </c>
+      <c r="AK116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14406,6 +14756,9 @@
       <c r="AJ117">
         <v>2</v>
       </c>
+      <c r="AK117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14524,6 +14877,9 @@
       <c r="AJ118">
         <v>2</v>
       </c>
+      <c r="AK118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14642,6 +14998,9 @@
       <c r="AJ119">
         <v>3</v>
       </c>
+      <c r="AK119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14760,6 +15119,9 @@
       <c r="AJ120">
         <v>47</v>
       </c>
+      <c r="AK120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14878,6 +15240,9 @@
       <c r="AJ121">
         <v>2</v>
       </c>
+      <c r="AK121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14996,6 +15361,9 @@
       <c r="AJ122">
         <v>1</v>
       </c>
+      <c r="AK122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15114,6 +15482,9 @@
       <c r="AJ123">
         <v>2</v>
       </c>
+      <c r="AK123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15232,6 +15603,9 @@
       <c r="AJ124">
         <v>6</v>
       </c>
+      <c r="AK124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15350,6 +15724,9 @@
       <c r="AJ125">
         <v>22</v>
       </c>
+      <c r="AK125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15468,6 +15845,9 @@
       <c r="AJ126">
         <v>93</v>
       </c>
+      <c r="AK126">
+        <v>93</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15586,6 +15966,9 @@
       <c r="AJ127">
         <v>18</v>
       </c>
+      <c r="AK127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15704,6 +16087,9 @@
       <c r="AJ128">
         <v>20</v>
       </c>
+      <c r="AK128">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15822,6 +16208,9 @@
       <c r="AJ129">
         <v>45</v>
       </c>
+      <c r="AK129">
+        <v>46</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15940,6 +16329,9 @@
       <c r="AJ130">
         <v>403</v>
       </c>
+      <c r="AK130">
+        <v>403</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16058,6 +16450,9 @@
       <c r="AJ131">
         <v>161</v>
       </c>
+      <c r="AK131">
+        <v>164</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16176,6 +16571,9 @@
       <c r="AJ132">
         <v>8</v>
       </c>
+      <c r="AK132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16294,6 +16692,9 @@
       <c r="AJ133">
         <v>25</v>
       </c>
+      <c r="AK133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16412,6 +16813,9 @@
       <c r="AJ134">
         <v>47</v>
       </c>
+      <c r="AK134">
+        <v>47</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16530,6 +16934,9 @@
       <c r="AJ135">
         <v>79</v>
       </c>
+      <c r="AK135">
+        <v>79</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16648,6 +17055,9 @@
       <c r="AJ136">
         <v>140</v>
       </c>
+      <c r="AK136">
+        <v>141</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16766,6 +17176,9 @@
       <c r="AJ137">
         <v>45</v>
       </c>
+      <c r="AK137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16884,6 +17297,9 @@
       <c r="AJ138">
         <v>8</v>
       </c>
+      <c r="AK138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17002,6 +17418,9 @@
       <c r="AJ139">
         <v>56</v>
       </c>
+      <c r="AK139">
+        <v>56</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17120,6 +17539,9 @@
       <c r="AJ140">
         <v>14</v>
       </c>
+      <c r="AK140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17238,6 +17660,9 @@
       <c r="AJ141">
         <v>35</v>
       </c>
+      <c r="AK141">
+        <v>35</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17356,6 +17781,9 @@
       <c r="AJ142">
         <v>17</v>
       </c>
+      <c r="AK142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17474,6 +17902,9 @@
       <c r="AJ143">
         <v>2</v>
       </c>
+      <c r="AK143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17592,6 +18023,9 @@
       <c r="AJ144">
         <v>10</v>
       </c>
+      <c r="AK144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17710,6 +18144,9 @@
       <c r="AJ145">
         <v>1</v>
       </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17828,6 +18265,9 @@
       <c r="AJ146">
         <v>7</v>
       </c>
+      <c r="AK146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17946,6 +18386,9 @@
       <c r="AJ147">
         <v>10</v>
       </c>
+      <c r="AK147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18064,6 +18507,9 @@
       <c r="AJ148">
         <v>8</v>
       </c>
+      <c r="AK148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18182,6 +18628,9 @@
       <c r="AJ149">
         <v>13</v>
       </c>
+      <c r="AK149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18300,6 +18749,9 @@
       <c r="AJ150">
         <v>44</v>
       </c>
+      <c r="AK150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18418,6 +18870,9 @@
       <c r="AJ151">
         <v>0</v>
       </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18536,6 +18991,9 @@
       <c r="AJ152">
         <v>0</v>
       </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18654,6 +19112,9 @@
       <c r="AJ153">
         <v>10</v>
       </c>
+      <c r="AK153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18772,6 +19233,9 @@
       <c r="AJ154">
         <v>5</v>
       </c>
+      <c r="AK154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18890,6 +19354,9 @@
       <c r="AJ155">
         <v>35</v>
       </c>
+      <c r="AK155">
+        <v>35</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19008,6 +19475,9 @@
       <c r="AJ156">
         <v>4</v>
       </c>
+      <c r="AK156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19126,6 +19596,9 @@
       <c r="AJ157">
         <v>1</v>
       </c>
+      <c r="AK157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19244,6 +19717,9 @@
       <c r="AJ158">
         <v>2</v>
       </c>
+      <c r="AK158">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19362,6 +19838,9 @@
       <c r="AJ159">
         <v>6</v>
       </c>
+      <c r="AK159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19480,6 +19959,9 @@
       <c r="AJ160">
         <v>11</v>
       </c>
+      <c r="AK160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19598,6 +20080,9 @@
       <c r="AJ161">
         <v>1</v>
       </c>
+      <c r="AK161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19716,6 +20201,9 @@
       <c r="AJ162">
         <v>81</v>
       </c>
+      <c r="AK162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19834,6 +20322,9 @@
       <c r="AJ163">
         <v>35</v>
       </c>
+      <c r="AK163">
+        <v>35</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19952,6 +20443,9 @@
       <c r="AJ164">
         <v>19</v>
       </c>
+      <c r="AK164">
+        <v>19</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -20070,6 +20564,9 @@
       <c r="AJ165">
         <v>59</v>
       </c>
+      <c r="AK165">
+        <v>60</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20188,6 +20685,9 @@
       <c r="AJ166">
         <v>11</v>
       </c>
+      <c r="AK166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20306,6 +20806,9 @@
       <c r="AJ167">
         <v>33</v>
       </c>
+      <c r="AK167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20424,6 +20927,9 @@
       <c r="AJ168">
         <v>0</v>
       </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20542,6 +21048,9 @@
       <c r="AJ169">
         <v>18</v>
       </c>
+      <c r="AK169">
+        <v>18</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20660,6 +21169,9 @@
       <c r="AJ170">
         <v>4</v>
       </c>
+      <c r="AK170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20778,6 +21290,9 @@
       <c r="AJ171">
         <v>5</v>
       </c>
+      <c r="AK171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20896,6 +21411,9 @@
       <c r="AJ172">
         <v>3</v>
       </c>
+      <c r="AK172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -21014,6 +21532,9 @@
       <c r="AJ173">
         <v>3</v>
       </c>
+      <c r="AK173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -21132,6 +21653,9 @@
       <c r="AJ174">
         <v>13</v>
       </c>
+      <c r="AK174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21250,6 +21774,9 @@
       <c r="AJ175">
         <v>2</v>
       </c>
+      <c r="AK175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21368,6 +21895,9 @@
       <c r="AJ176">
         <v>4</v>
       </c>
+      <c r="AK176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21486,6 +22016,9 @@
       <c r="AJ177">
         <v>0</v>
       </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21604,6 +22137,9 @@
       <c r="AJ178">
         <v>0</v>
       </c>
+      <c r="AK178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21722,6 +22258,9 @@
       <c r="AJ179">
         <v>2</v>
       </c>
+      <c r="AK179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21840,6 +22379,9 @@
       <c r="AJ180">
         <v>0</v>
       </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21958,6 +22500,9 @@
       <c r="AJ181">
         <v>0</v>
       </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22076,6 +22621,9 @@
       <c r="AJ182">
         <v>1</v>
       </c>
+      <c r="AK182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22194,6 +22742,9 @@
       <c r="AJ183">
         <v>0</v>
       </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22312,6 +22863,9 @@
       <c r="AJ184">
         <v>1</v>
       </c>
+      <c r="AK184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22430,6 +22984,9 @@
       <c r="AJ185">
         <v>5</v>
       </c>
+      <c r="AK185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22548,6 +23105,9 @@
       <c r="AJ186">
         <v>2</v>
       </c>
+      <c r="AK186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22666,6 +23226,9 @@
       <c r="AJ187">
         <v>1</v>
       </c>
+      <c r="AK187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22784,6 +23347,9 @@
       <c r="AJ188">
         <v>3</v>
       </c>
+      <c r="AK188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22902,6 +23468,9 @@
       <c r="AJ189">
         <v>2</v>
       </c>
+      <c r="AK189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23020,6 +23589,9 @@
       <c r="AJ190">
         <v>13</v>
       </c>
+      <c r="AK190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23138,6 +23710,9 @@
       <c r="AJ191">
         <v>36</v>
       </c>
+      <c r="AK191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23256,6 +23831,9 @@
       <c r="AJ192">
         <v>1</v>
       </c>
+      <c r="AK192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23374,6 +23952,9 @@
       <c r="AJ193">
         <v>8</v>
       </c>
+      <c r="AK193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23492,6 +24073,9 @@
       <c r="AJ194">
         <v>2</v>
       </c>
+      <c r="AK194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23610,6 +24194,9 @@
       <c r="AJ195">
         <v>6</v>
       </c>
+      <c r="AK195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23728,6 +24315,9 @@
       <c r="AJ196">
         <v>4</v>
       </c>
+      <c r="AK196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23846,6 +24436,9 @@
       <c r="AJ197">
         <v>12</v>
       </c>
+      <c r="AK197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -23964,6 +24557,9 @@
       <c r="AJ198">
         <v>9</v>
       </c>
+      <c r="AK198">
+        <v>10</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24082,6 +24678,9 @@
       <c r="AJ199">
         <v>2</v>
       </c>
+      <c r="AK199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -24200,6 +24799,9 @@
       <c r="AJ200">
         <v>1</v>
       </c>
+      <c r="AK200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24318,6 +24920,9 @@
       <c r="AJ201">
         <v>0</v>
       </c>
+      <c r="AK201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24436,6 +25041,9 @@
       <c r="AJ202">
         <v>1</v>
       </c>
+      <c r="AK202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24554,6 +25162,9 @@
       <c r="AJ203">
         <v>9</v>
       </c>
+      <c r="AK203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24672,6 +25283,9 @@
       <c r="AJ204">
         <v>0</v>
       </c>
+      <c r="AK204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24790,6 +25404,9 @@
       <c r="AJ205">
         <v>0</v>
       </c>
+      <c r="AK205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24908,6 +25525,9 @@
       <c r="AJ206">
         <v>0</v>
       </c>
+      <c r="AK206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -25026,6 +25646,9 @@
       <c r="AJ207">
         <v>25</v>
       </c>
+      <c r="AK207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -25144,6 +25767,9 @@
       <c r="AJ208">
         <v>18</v>
       </c>
+      <c r="AK208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -25262,6 +25888,9 @@
       <c r="AJ209">
         <v>55</v>
       </c>
+      <c r="AK209">
+        <v>56</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -25380,6 +26009,9 @@
       <c r="AJ210">
         <v>38</v>
       </c>
+      <c r="AK210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25498,6 +26130,9 @@
       <c r="AJ211">
         <v>36</v>
       </c>
+      <c r="AK211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25616,6 +26251,9 @@
       <c r="AJ212">
         <v>9</v>
       </c>
+      <c r="AK212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25734,6 +26372,9 @@
       <c r="AJ213">
         <v>39</v>
       </c>
+      <c r="AK213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -25852,6 +26493,9 @@
       <c r="AJ214">
         <v>4</v>
       </c>
+      <c r="AK214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25970,6 +26614,9 @@
       <c r="AJ215">
         <v>21</v>
       </c>
+      <c r="AK215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -26088,6 +26735,9 @@
       <c r="AJ216">
         <v>2</v>
       </c>
+      <c r="AK216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -26206,6 +26856,9 @@
       <c r="AJ217">
         <v>5</v>
       </c>
+      <c r="AK217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -26324,6 +26977,9 @@
       <c r="AJ218">
         <v>2</v>
       </c>
+      <c r="AK218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -26442,6 +27098,9 @@
       <c r="AJ219">
         <v>1</v>
       </c>
+      <c r="AK219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26560,6 +27219,9 @@
       <c r="AJ220">
         <v>3</v>
       </c>
+      <c r="AK220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26678,6 +27340,9 @@
       <c r="AJ221">
         <v>0</v>
       </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -26796,6 +27461,9 @@
       <c r="AJ222">
         <v>1</v>
       </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -26914,6 +27582,9 @@
       <c r="AJ223">
         <v>0</v>
       </c>
+      <c r="AK223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -27032,6 +27703,9 @@
       <c r="AJ224">
         <v>0</v>
       </c>
+      <c r="AK224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -27150,6 +27824,9 @@
       <c r="AJ225">
         <v>0</v>
       </c>
+      <c r="AK225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -27268,6 +27945,9 @@
       <c r="AJ226">
         <v>0</v>
       </c>
+      <c r="AK226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -27386,6 +28066,9 @@
       <c r="AJ227">
         <v>0</v>
       </c>
+      <c r="AK227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -27504,6 +28187,9 @@
       <c r="AJ228">
         <v>0</v>
       </c>
+      <c r="AK228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27622,6 +28308,9 @@
       <c r="AJ229">
         <v>2</v>
       </c>
+      <c r="AK229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -27740,6 +28429,9 @@
       <c r="AJ230">
         <v>0</v>
       </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -27858,6 +28550,9 @@
       <c r="AJ231">
         <v>1</v>
       </c>
+      <c r="AK231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -27976,6 +28671,9 @@
       <c r="AJ232">
         <v>29</v>
       </c>
+      <c r="AK232">
+        <v>29</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -28094,6 +28792,9 @@
       <c r="AJ233">
         <v>198</v>
       </c>
+      <c r="AK233">
+        <v>199</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -28212,6 +28913,9 @@
       <c r="AJ234">
         <v>9</v>
       </c>
+      <c r="AK234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -28330,6 +29034,9 @@
       <c r="AJ235">
         <v>11</v>
       </c>
+      <c r="AK235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -28448,6 +29155,9 @@
       <c r="AJ236">
         <v>0</v>
       </c>
+      <c r="AK236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28566,6 +29276,9 @@
       <c r="AJ237">
         <v>2</v>
       </c>
+      <c r="AK237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -28684,6 +29397,9 @@
       <c r="AJ238">
         <v>0</v>
       </c>
+      <c r="AK238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -28802,6 +29518,9 @@
       <c r="AJ239">
         <v>1</v>
       </c>
+      <c r="AK239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -28920,6 +29639,9 @@
       <c r="AJ240">
         <v>2</v>
       </c>
+      <c r="AK240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -29038,6 +29760,9 @@
       <c r="AJ241">
         <v>7</v>
       </c>
+      <c r="AK241">
+        <v>7</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -29156,6 +29881,9 @@
       <c r="AJ242">
         <v>3</v>
       </c>
+      <c r="AK242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -29274,6 +30002,9 @@
       <c r="AJ243">
         <v>1</v>
       </c>
+      <c r="AK243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -29392,6 +30123,9 @@
       <c r="AJ244">
         <v>2</v>
       </c>
+      <c r="AK244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -29510,6 +30244,9 @@
       <c r="AJ245">
         <v>2</v>
       </c>
+      <c r="AK245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -29628,6 +30365,9 @@
       <c r="AJ246">
         <v>2</v>
       </c>
+      <c r="AK246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -29746,6 +30486,9 @@
       <c r="AJ247">
         <v>0</v>
       </c>
+      <c r="AK247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -29864,6 +30607,9 @@
       <c r="AJ248">
         <v>3</v>
       </c>
+      <c r="AK248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -29982,6 +30728,9 @@
       <c r="AJ249">
         <v>12</v>
       </c>
+      <c r="AK249">
+        <v>12</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -30100,6 +30849,9 @@
       <c r="AJ250">
         <v>0</v>
       </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -30218,6 +30970,9 @@
       <c r="AJ251">
         <v>4</v>
       </c>
+      <c r="AK251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -30336,6 +31091,9 @@
       <c r="AJ252">
         <v>1</v>
       </c>
+      <c r="AK252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -30454,6 +31212,9 @@
       <c r="AJ253">
         <v>1</v>
       </c>
+      <c r="AK253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -30572,6 +31333,9 @@
       <c r="AJ254">
         <v>1</v>
       </c>
+      <c r="AK254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -30700,6 +31464,9 @@
       <c r="AJ255">
         <v>12</v>
       </c>
+      <c r="AK255">
+        <v>12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -30828,6 +31595,9 @@
       <c r="AJ256">
         <v>78</v>
       </c>
+      <c r="AK256">
+        <v>79</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -30956,6 +31726,9 @@
       <c r="AJ257">
         <v>52</v>
       </c>
+      <c r="AK257">
+        <v>54</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -31084,6 +31857,9 @@
       <c r="AJ258">
         <v>63</v>
       </c>
+      <c r="AK258">
+        <v>63</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -31212,6 +31988,9 @@
       <c r="AJ259">
         <v>58</v>
       </c>
+      <c r="AK259">
+        <v>59</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -31340,6 +32119,9 @@
       <c r="AJ260">
         <v>39</v>
       </c>
+      <c r="AK260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -31468,6 +32250,9 @@
       <c r="AJ261">
         <v>90</v>
       </c>
+      <c r="AK261">
+        <v>93</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -31596,6 +32381,9 @@
       <c r="AJ262">
         <v>50</v>
       </c>
+      <c r="AK262">
+        <v>50</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -31724,6 +32512,9 @@
       <c r="AJ263">
         <v>58</v>
       </c>
+      <c r="AK263">
+        <v>59</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -31842,6 +32633,9 @@
       <c r="AJ264">
         <v>9</v>
       </c>
+      <c r="AK264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -31960,6 +32754,9 @@
       <c r="AJ265">
         <v>4</v>
       </c>
+      <c r="AK265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -32078,6 +32875,9 @@
       <c r="AJ266">
         <v>4</v>
       </c>
+      <c r="AK266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -32196,6 +32996,9 @@
       <c r="AJ267">
         <v>4</v>
       </c>
+      <c r="AK267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -32314,6 +33117,9 @@
       <c r="AJ268">
         <v>6</v>
       </c>
+      <c r="AK268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -32432,6 +33238,9 @@
       <c r="AJ269">
         <v>8</v>
       </c>
+      <c r="AK269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -32550,6 +33359,9 @@
       <c r="AJ270">
         <v>0</v>
       </c>
+      <c r="AK270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -32668,6 +33480,9 @@
       <c r="AJ271">
         <v>4</v>
       </c>
+      <c r="AK271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -32786,6 +33601,9 @@
       <c r="AJ272">
         <v>0</v>
       </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -32904,6 +33722,9 @@
       <c r="AJ273">
         <v>0</v>
       </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -33022,6 +33843,9 @@
       <c r="AJ274">
         <v>2</v>
       </c>
+      <c r="AK274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -33140,6 +33964,9 @@
       <c r="AJ275">
         <v>24</v>
       </c>
+      <c r="AK275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -33258,6 +34085,9 @@
       <c r="AJ276">
         <v>9</v>
       </c>
+      <c r="AK276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -33376,6 +34206,9 @@
       <c r="AJ277">
         <v>0</v>
       </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -33494,6 +34327,9 @@
       <c r="AJ278">
         <v>17</v>
       </c>
+      <c r="AK278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -33612,6 +34448,9 @@
       <c r="AJ279">
         <v>5</v>
       </c>
+      <c r="AK279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -33730,6 +34569,9 @@
       <c r="AJ280">
         <v>51</v>
       </c>
+      <c r="AK280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -33848,6 +34690,9 @@
       <c r="AJ281">
         <v>34</v>
       </c>
+      <c r="AK281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -33966,6 +34811,9 @@
       <c r="AJ282">
         <v>1</v>
       </c>
+      <c r="AK282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -34084,6 +34932,9 @@
       <c r="AJ283">
         <v>0</v>
       </c>
+      <c r="AK283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -34202,6 +35053,9 @@
       <c r="AJ284">
         <v>37</v>
       </c>
+      <c r="AK284">
+        <v>38</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -34320,6 +35174,9 @@
       <c r="AJ285">
         <v>24</v>
       </c>
+      <c r="AK285">
+        <v>25</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -34438,6 +35295,9 @@
       <c r="AJ286">
         <v>0</v>
       </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -34556,6 +35416,9 @@
       <c r="AJ287">
         <v>0</v>
       </c>
+      <c r="AK287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -34674,6 +35537,9 @@
       <c r="AJ288">
         <v>0</v>
       </c>
+      <c r="AK288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -34792,6 +35658,9 @@
       <c r="AJ289">
         <v>1</v>
       </c>
+      <c r="AK289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -34910,6 +35779,9 @@
       <c r="AJ290">
         <v>3</v>
       </c>
+      <c r="AK290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -35028,6 +35900,9 @@
       <c r="AJ291">
         <v>0</v>
       </c>
+      <c r="AK291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -35146,6 +36021,9 @@
       <c r="AJ292">
         <v>3</v>
       </c>
+      <c r="AK292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -35264,6 +36142,9 @@
       <c r="AJ293">
         <v>0</v>
       </c>
+      <c r="AK293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -35382,6 +36263,9 @@
       <c r="AJ294">
         <v>7</v>
       </c>
+      <c r="AK294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -35500,6 +36384,9 @@
       <c r="AJ295">
         <v>0</v>
       </c>
+      <c r="AK295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -35618,6 +36505,9 @@
       <c r="AJ296">
         <v>0</v>
       </c>
+      <c r="AK296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -35736,6 +36626,9 @@
       <c r="AJ297">
         <v>1</v>
       </c>
+      <c r="AK297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -35854,6 +36747,9 @@
       <c r="AJ298">
         <v>4</v>
       </c>
+      <c r="AK298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -35972,6 +36868,9 @@
       <c r="AJ299">
         <v>0</v>
       </c>
+      <c r="AK299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -36090,6 +36989,9 @@
       <c r="AJ300">
         <v>0</v>
       </c>
+      <c r="AK300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -36208,6 +37110,9 @@
       <c r="AJ301">
         <v>17</v>
       </c>
+      <c r="AK301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -36326,6 +37231,9 @@
       <c r="AJ302">
         <v>0</v>
       </c>
+      <c r="AK302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -36444,6 +37352,9 @@
       <c r="AJ303">
         <v>0</v>
       </c>
+      <c r="AK303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -36562,6 +37473,9 @@
       <c r="AJ304">
         <v>4</v>
       </c>
+      <c r="AK304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -36680,6 +37594,9 @@
       <c r="AJ305">
         <v>12</v>
       </c>
+      <c r="AK305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -36798,6 +37715,9 @@
       <c r="AJ306">
         <v>230</v>
       </c>
+      <c r="AK306">
+        <v>232</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -36916,6 +37836,9 @@
       <c r="AJ307">
         <v>16</v>
       </c>
+      <c r="AK307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -37034,6 +37957,9 @@
       <c r="AJ308">
         <v>5</v>
       </c>
+      <c r="AK308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -37152,6 +38078,9 @@
       <c r="AJ309">
         <v>0</v>
       </c>
+      <c r="AK309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -37270,6 +38199,9 @@
       <c r="AJ310">
         <v>0</v>
       </c>
+      <c r="AK310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -37388,6 +38320,9 @@
       <c r="AJ311">
         <v>8</v>
       </c>
+      <c r="AK311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -37506,6 +38441,9 @@
       <c r="AJ312">
         <v>5</v>
       </c>
+      <c r="AK312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -37624,6 +38562,9 @@
       <c r="AJ313">
         <v>0</v>
       </c>
+      <c r="AK313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -37742,6 +38683,9 @@
       <c r="AJ314">
         <v>1</v>
       </c>
+      <c r="AK314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -37860,6 +38804,9 @@
       <c r="AJ315">
         <v>7</v>
       </c>
+      <c r="AK315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -37978,6 +38925,9 @@
       <c r="AJ316">
         <v>3</v>
       </c>
+      <c r="AK316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -38096,6 +39046,9 @@
       <c r="AJ317">
         <v>5</v>
       </c>
+      <c r="AK317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -38214,6 +39167,9 @@
       <c r="AJ318">
         <v>11</v>
       </c>
+      <c r="AK318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -38332,6 +39288,9 @@
       <c r="AJ319">
         <v>6</v>
       </c>
+      <c r="AK319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -38450,6 +39409,9 @@
       <c r="AJ320">
         <v>0</v>
       </c>
+      <c r="AK320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -38568,6 +39530,9 @@
       <c r="AJ321">
         <v>1</v>
       </c>
+      <c r="AK321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -38686,6 +39651,9 @@
       <c r="AJ322">
         <v>8</v>
       </c>
+      <c r="AK322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -38804,6 +39772,9 @@
       <c r="AJ323">
         <v>28</v>
       </c>
+      <c r="AK323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -38922,6 +39893,9 @@
       <c r="AJ324">
         <v>21</v>
       </c>
+      <c r="AK324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -39040,6 +40014,9 @@
       <c r="AJ325">
         <v>15</v>
       </c>
+      <c r="AK325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -39158,6 +40135,9 @@
       <c r="AJ326">
         <v>0</v>
       </c>
+      <c r="AK326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -39276,6 +40256,9 @@
       <c r="AJ327">
         <v>0</v>
       </c>
+      <c r="AK327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -39394,6 +40377,9 @@
       <c r="AJ328">
         <v>0</v>
       </c>
+      <c r="AK328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -39512,6 +40498,9 @@
       <c r="AJ329">
         <v>0</v>
       </c>
+      <c r="AK329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -39630,6 +40619,9 @@
       <c r="AJ330">
         <v>3</v>
       </c>
+      <c r="AK330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -39748,6 +40740,9 @@
       <c r="AJ331">
         <v>1</v>
       </c>
+      <c r="AK331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -39866,6 +40861,9 @@
       <c r="AJ332">
         <v>4</v>
       </c>
+      <c r="AK332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -39984,6 +40982,9 @@
       <c r="AJ333">
         <v>0</v>
       </c>
+      <c r="AK333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -40102,6 +41103,9 @@
       <c r="AJ334">
         <v>0</v>
       </c>
+      <c r="AK334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -40220,6 +41224,9 @@
       <c r="AJ335">
         <v>7</v>
       </c>
+      <c r="AK335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -40338,6 +41345,9 @@
       <c r="AJ336">
         <v>2</v>
       </c>
+      <c r="AK336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -40456,6 +41466,9 @@
       <c r="AJ337">
         <v>2</v>
       </c>
+      <c r="AK337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -40574,6 +41587,9 @@
       <c r="AJ338">
         <v>2</v>
       </c>
+      <c r="AK338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -40692,6 +41708,9 @@
       <c r="AJ339">
         <v>10</v>
       </c>
+      <c r="AK339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -40810,6 +41829,9 @@
       <c r="AJ340">
         <v>1</v>
       </c>
+      <c r="AK340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -40928,6 +41950,9 @@
       <c r="AJ341">
         <v>17</v>
       </c>
+      <c r="AK341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -41046,6 +42071,9 @@
       <c r="AJ342">
         <v>0</v>
       </c>
+      <c r="AK342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -41164,6 +42192,9 @@
       <c r="AJ343">
         <v>0</v>
       </c>
+      <c r="AK343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -41282,6 +42313,9 @@
       <c r="AJ344">
         <v>142</v>
       </c>
+      <c r="AK344">
+        <v>144</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -41400,6 +42434,9 @@
       <c r="AJ345">
         <v>6</v>
       </c>
+      <c r="AK345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -41518,6 +42555,9 @@
       <c r="AJ346">
         <v>5</v>
       </c>
+      <c r="AK346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -41636,6 +42676,9 @@
       <c r="AJ347">
         <v>1</v>
       </c>
+      <c r="AK347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -41754,6 +42797,9 @@
       <c r="AJ348">
         <v>3</v>
       </c>
+      <c r="AK348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -41872,6 +42918,9 @@
       <c r="AJ349">
         <v>15</v>
       </c>
+      <c r="AK349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -41990,6 +43039,9 @@
       <c r="AJ350">
         <v>1</v>
       </c>
+      <c r="AK350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -42108,6 +43160,9 @@
       <c r="AJ351">
         <v>1</v>
       </c>
+      <c r="AK351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -42226,6 +43281,9 @@
       <c r="AJ352">
         <v>0</v>
       </c>
+      <c r="AK352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -42344,6 +43402,9 @@
       <c r="AJ353">
         <v>0</v>
       </c>
+      <c r="AK353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -42462,6 +43523,9 @@
       <c r="AJ354">
         <v>3</v>
       </c>
+      <c r="AK354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -42580,6 +43644,9 @@
       <c r="AJ355">
         <v>1</v>
       </c>
+      <c r="AK355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -42698,6 +43765,9 @@
       <c r="AJ356">
         <v>2</v>
       </c>
+      <c r="AK356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -42816,6 +43886,9 @@
       <c r="AJ357">
         <v>0</v>
       </c>
+      <c r="AK357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -42934,6 +44007,9 @@
       <c r="AJ358">
         <v>0</v>
       </c>
+      <c r="AK358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -43052,6 +44128,9 @@
       <c r="AJ359">
         <v>0</v>
       </c>
+      <c r="AK359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -43170,6 +44249,9 @@
       <c r="AJ360">
         <v>16</v>
       </c>
+      <c r="AK360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -43288,6 +44370,9 @@
       <c r="AJ361">
         <v>2</v>
       </c>
+      <c r="AK361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -43406,6 +44491,9 @@
       <c r="AJ362">
         <v>1</v>
       </c>
+      <c r="AK362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -43524,6 +44612,9 @@
       <c r="AJ363">
         <v>2</v>
       </c>
+      <c r="AK363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -43642,6 +44733,9 @@
       <c r="AJ364">
         <v>0</v>
       </c>
+      <c r="AK364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -43760,6 +44854,9 @@
       <c r="AJ365">
         <v>0</v>
       </c>
+      <c r="AK365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -43878,6 +44975,9 @@
       <c r="AJ366">
         <v>1</v>
       </c>
+      <c r="AK366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -43996,6 +45096,9 @@
       <c r="AJ367">
         <v>2</v>
       </c>
+      <c r="AK367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -44114,6 +45217,9 @@
       <c r="AJ368">
         <v>0</v>
       </c>
+      <c r="AK368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -44232,6 +45338,9 @@
       <c r="AJ369">
         <v>1</v>
       </c>
+      <c r="AK369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -44350,6 +45459,9 @@
       <c r="AJ370">
         <v>0</v>
       </c>
+      <c r="AK370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -44468,6 +45580,9 @@
       <c r="AJ371">
         <v>0</v>
       </c>
+      <c r="AK371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -44586,6 +45701,9 @@
       <c r="AJ372">
         <v>3</v>
       </c>
+      <c r="AK372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -44704,6 +45822,9 @@
       <c r="AJ373">
         <v>2</v>
       </c>
+      <c r="AK373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -44822,6 +45943,9 @@
       <c r="AJ374">
         <v>4</v>
       </c>
+      <c r="AK374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -44940,6 +46064,9 @@
       <c r="AJ375">
         <v>1</v>
       </c>
+      <c r="AK375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -45058,6 +46185,9 @@
       <c r="AJ376">
         <v>0</v>
       </c>
+      <c r="AK376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -45176,6 +46306,9 @@
       <c r="AJ377">
         <v>0</v>
       </c>
+      <c r="AK377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -45294,6 +46427,9 @@
       <c r="AJ378">
         <v>0</v>
       </c>
+      <c r="AK378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -45412,6 +46548,9 @@
       <c r="AJ379">
         <v>1</v>
       </c>
+      <c r="AK379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -45530,6 +46669,9 @@
       <c r="AJ380">
         <v>1</v>
       </c>
+      <c r="AK380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -45648,6 +46790,9 @@
       <c r="AJ381">
         <v>0</v>
       </c>
+      <c r="AK381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -45766,6 +46911,9 @@
       <c r="AJ382">
         <v>4</v>
       </c>
+      <c r="AK382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -45884,6 +47032,9 @@
       <c r="AJ383">
         <v>0</v>
       </c>
+      <c r="AK383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -46000,6 +47151,9 @@
         <v>1</v>
       </c>
       <c r="AJ384">
+        <v>2</v>
+      </c>
+      <c r="AK384">
         <v>2</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK384"/>
+  <dimension ref="A1:AL384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,6 +543,11 @@
           <t>2020-04-21</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -674,6 +679,9 @@
       <c r="AK2">
         <v>215</v>
       </c>
+      <c r="AL2">
+        <v>222</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -805,6 +813,9 @@
       <c r="AK3">
         <v>159</v>
       </c>
+      <c r="AL3">
+        <v>163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -936,6 +947,9 @@
       <c r="AK4">
         <v>130</v>
       </c>
+      <c r="AL4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1067,6 +1081,9 @@
       <c r="AK5">
         <v>87</v>
       </c>
+      <c r="AL5">
+        <v>89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1198,6 +1215,9 @@
       <c r="AK6">
         <v>158</v>
       </c>
+      <c r="AL6">
+        <v>160</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1329,6 +1349,9 @@
       <c r="AK7">
         <v>108</v>
       </c>
+      <c r="AL7">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1460,6 +1483,9 @@
       <c r="AK8">
         <v>144</v>
       </c>
+      <c r="AL8">
+        <v>145</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1591,6 +1617,9 @@
       <c r="AK9">
         <v>125</v>
       </c>
+      <c r="AL9">
+        <v>127</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1722,6 +1751,9 @@
       <c r="AK10">
         <v>93</v>
       </c>
+      <c r="AL10">
+        <v>98</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1853,6 +1885,9 @@
       <c r="AK11">
         <v>91</v>
       </c>
+      <c r="AL11">
+        <v>92</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1984,6 +2019,9 @@
       <c r="AK12">
         <v>174</v>
       </c>
+      <c r="AL12">
+        <v>177</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2115,6 +2153,9 @@
       <c r="AK13">
         <v>206</v>
       </c>
+      <c r="AL13">
+        <v>209</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2246,6 +2287,9 @@
       <c r="AK14">
         <v>161</v>
       </c>
+      <c r="AL14">
+        <v>162</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2377,6 +2421,9 @@
       <c r="AK15">
         <v>151</v>
       </c>
+      <c r="AL15">
+        <v>151</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2508,6 +2555,9 @@
       <c r="AK16">
         <v>127</v>
       </c>
+      <c r="AL16">
+        <v>128</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2639,6 +2689,9 @@
       <c r="AK17">
         <v>4</v>
       </c>
+      <c r="AL17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2770,6 +2823,9 @@
       <c r="AK18">
         <v>2</v>
       </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2901,6 +2957,9 @@
       <c r="AK19">
         <v>42</v>
       </c>
+      <c r="AL19">
+        <v>42</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3022,6 +3081,9 @@
       <c r="AK20">
         <v>14</v>
       </c>
+      <c r="AL20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3143,6 +3205,9 @@
       <c r="AK21">
         <v>130</v>
       </c>
+      <c r="AL21">
+        <v>131</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3264,6 +3329,9 @@
       <c r="AK22">
         <v>50</v>
       </c>
+      <c r="AL22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3385,6 +3453,9 @@
       <c r="AK23">
         <v>46</v>
       </c>
+      <c r="AL23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3506,6 +3577,9 @@
       <c r="AK24">
         <v>5</v>
       </c>
+      <c r="AL24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3627,6 +3701,9 @@
       <c r="AK25">
         <v>1</v>
       </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3748,6 +3825,9 @@
       <c r="AK26">
         <v>0</v>
       </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3869,6 +3949,9 @@
       <c r="AK27">
         <v>7</v>
       </c>
+      <c r="AL27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3990,6 +4073,9 @@
       <c r="AK28">
         <v>6</v>
       </c>
+      <c r="AL28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4111,6 +4197,9 @@
       <c r="AK29">
         <v>12</v>
       </c>
+      <c r="AL29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4232,6 +4321,9 @@
       <c r="AK30">
         <v>13</v>
       </c>
+      <c r="AL30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4353,6 +4445,9 @@
       <c r="AK31">
         <v>14</v>
       </c>
+      <c r="AL31">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4474,6 +4569,9 @@
       <c r="AK32">
         <v>11</v>
       </c>
+      <c r="AL32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4595,6 +4693,9 @@
       <c r="AK33">
         <v>13</v>
       </c>
+      <c r="AL33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4716,6 +4817,9 @@
       <c r="AK34">
         <v>0</v>
       </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4837,6 +4941,9 @@
       <c r="AK35">
         <v>0</v>
       </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4958,6 +5065,9 @@
       <c r="AK36">
         <v>3</v>
       </c>
+      <c r="AL36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5079,6 +5189,9 @@
       <c r="AK37">
         <v>0</v>
       </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5200,6 +5313,9 @@
       <c r="AK38">
         <v>1</v>
       </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5321,6 +5437,9 @@
       <c r="AK39">
         <v>20</v>
       </c>
+      <c r="AL39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5442,6 +5561,9 @@
       <c r="AK40">
         <v>36</v>
       </c>
+      <c r="AL40">
+        <v>36</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5563,6 +5685,9 @@
       <c r="AK41">
         <v>0</v>
       </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5684,6 +5809,9 @@
       <c r="AK42">
         <v>11</v>
       </c>
+      <c r="AL42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5805,6 +5933,9 @@
       <c r="AK43">
         <v>18</v>
       </c>
+      <c r="AL43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5926,6 +6057,9 @@
       <c r="AK44">
         <v>14</v>
       </c>
+      <c r="AL44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6047,6 +6181,9 @@
       <c r="AK45">
         <v>26</v>
       </c>
+      <c r="AL45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6168,6 +6305,9 @@
       <c r="AK46">
         <v>1</v>
       </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6289,6 +6429,9 @@
       <c r="AK47">
         <v>3</v>
       </c>
+      <c r="AL47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6410,6 +6553,9 @@
       <c r="AK48">
         <v>3</v>
       </c>
+      <c r="AL48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6531,6 +6677,9 @@
       <c r="AK49">
         <v>7</v>
       </c>
+      <c r="AL49">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6652,6 +6801,9 @@
       <c r="AK50">
         <v>2</v>
       </c>
+      <c r="AL50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6773,6 +6925,9 @@
       <c r="AK51">
         <v>6</v>
       </c>
+      <c r="AL51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6894,6 +7049,9 @@
       <c r="AK52">
         <v>0</v>
       </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7015,6 +7173,9 @@
       <c r="AK53">
         <v>1</v>
       </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7136,6 +7297,9 @@
       <c r="AK54">
         <v>6</v>
       </c>
+      <c r="AL54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7257,6 +7421,9 @@
       <c r="AK55">
         <v>5</v>
       </c>
+      <c r="AL55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7378,6 +7545,9 @@
       <c r="AK56">
         <v>0</v>
       </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7499,6 +7669,9 @@
       <c r="AK57">
         <v>10</v>
       </c>
+      <c r="AL57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7620,6 +7793,9 @@
       <c r="AK58">
         <v>0</v>
       </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7741,6 +7917,9 @@
       <c r="AK59">
         <v>0</v>
       </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7862,6 +8041,9 @@
       <c r="AK60">
         <v>0</v>
       </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7983,6 +8165,9 @@
       <c r="AK61">
         <v>1</v>
       </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8104,6 +8289,9 @@
       <c r="AK62">
         <v>2</v>
       </c>
+      <c r="AL62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8225,6 +8413,9 @@
       <c r="AK63">
         <v>2</v>
       </c>
+      <c r="AL63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8346,6 +8537,9 @@
       <c r="AK64">
         <v>0</v>
       </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8467,6 +8661,9 @@
       <c r="AK65">
         <v>3</v>
       </c>
+      <c r="AL65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8588,6 +8785,9 @@
       <c r="AK66">
         <v>4</v>
       </c>
+      <c r="AL66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8709,6 +8909,9 @@
       <c r="AK67">
         <v>1</v>
       </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8830,6 +9033,9 @@
       <c r="AK68">
         <v>3</v>
       </c>
+      <c r="AL68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8951,6 +9157,9 @@
       <c r="AK69">
         <v>38</v>
       </c>
+      <c r="AL69">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9072,6 +9281,9 @@
       <c r="AK70">
         <v>5</v>
       </c>
+      <c r="AL70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9193,6 +9405,9 @@
       <c r="AK71">
         <v>0</v>
       </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9314,6 +9529,9 @@
       <c r="AK72">
         <v>2</v>
       </c>
+      <c r="AL72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9435,6 +9653,9 @@
       <c r="AK73">
         <v>5</v>
       </c>
+      <c r="AL73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9556,6 +9777,9 @@
       <c r="AK74">
         <v>3</v>
       </c>
+      <c r="AL74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9677,6 +9901,9 @@
       <c r="AK75">
         <v>0</v>
       </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9798,6 +10025,9 @@
       <c r="AK76">
         <v>0</v>
       </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9919,6 +10149,9 @@
       <c r="AK77">
         <v>2</v>
       </c>
+      <c r="AL77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10040,6 +10273,9 @@
       <c r="AK78">
         <v>4</v>
       </c>
+      <c r="AL78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10161,6 +10397,9 @@
       <c r="AK79">
         <v>1</v>
       </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10282,6 +10521,9 @@
       <c r="AK80">
         <v>1</v>
       </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10403,6 +10645,9 @@
       <c r="AK81">
         <v>0</v>
       </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10524,6 +10769,9 @@
       <c r="AK82">
         <v>5</v>
       </c>
+      <c r="AL82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10645,6 +10893,9 @@
       <c r="AK83">
         <v>0</v>
       </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10766,6 +11017,9 @@
       <c r="AK84">
         <v>0</v>
       </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10887,6 +11141,9 @@
       <c r="AK85">
         <v>4</v>
       </c>
+      <c r="AL85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11008,6 +11265,9 @@
       <c r="AK86">
         <v>0</v>
       </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11129,6 +11389,9 @@
       <c r="AK87">
         <v>0</v>
       </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11250,6 +11513,9 @@
       <c r="AK88">
         <v>0</v>
       </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11371,6 +11637,9 @@
       <c r="AK89">
         <v>5</v>
       </c>
+      <c r="AL89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11492,6 +11761,9 @@
       <c r="AK90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11613,6 +11885,9 @@
       <c r="AK91">
         <v>0</v>
       </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11734,6 +12009,9 @@
       <c r="AK92">
         <v>0</v>
       </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11855,6 +12133,9 @@
       <c r="AK93">
         <v>1</v>
       </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11976,6 +12257,9 @@
       <c r="AK94">
         <v>0</v>
       </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12097,6 +12381,9 @@
       <c r="AK95">
         <v>1</v>
       </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12218,6 +12505,9 @@
       <c r="AK96">
         <v>0</v>
       </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12339,6 +12629,9 @@
       <c r="AK97">
         <v>0</v>
       </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12460,6 +12753,9 @@
       <c r="AK98">
         <v>0</v>
       </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12581,6 +12877,9 @@
       <c r="AK99">
         <v>0</v>
       </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12702,6 +13001,9 @@
       <c r="AK100">
         <v>5</v>
       </c>
+      <c r="AL100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12823,6 +13125,9 @@
       <c r="AK101">
         <v>13</v>
       </c>
+      <c r="AL101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12944,6 +13249,9 @@
       <c r="AK102">
         <v>3</v>
       </c>
+      <c r="AL102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13065,6 +13373,9 @@
       <c r="AK103">
         <v>5</v>
       </c>
+      <c r="AL103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13186,6 +13497,9 @@
       <c r="AK104">
         <v>0</v>
       </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13307,6 +13621,9 @@
       <c r="AK105">
         <v>0</v>
       </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13428,6 +13745,9 @@
       <c r="AK106">
         <v>6</v>
       </c>
+      <c r="AL106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13549,6 +13869,9 @@
       <c r="AK107">
         <v>0</v>
       </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13670,6 +13993,9 @@
       <c r="AK108">
         <v>1</v>
       </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13791,6 +14117,9 @@
       <c r="AK109">
         <v>0</v>
       </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13912,6 +14241,9 @@
       <c r="AK110">
         <v>32</v>
       </c>
+      <c r="AL110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14033,6 +14365,9 @@
       <c r="AK111">
         <v>93</v>
       </c>
+      <c r="AL111">
+        <v>94</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14154,6 +14489,9 @@
       <c r="AK112">
         <v>54</v>
       </c>
+      <c r="AL112">
+        <v>54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14275,6 +14613,9 @@
       <c r="AK113">
         <v>84</v>
       </c>
+      <c r="AL113">
+        <v>84</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14396,6 +14737,9 @@
       <c r="AK114">
         <v>166</v>
       </c>
+      <c r="AL114">
+        <v>168</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14517,6 +14861,9 @@
       <c r="AK115">
         <v>21</v>
       </c>
+      <c r="AL115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14638,6 +14985,9 @@
       <c r="AK116">
         <v>10</v>
       </c>
+      <c r="AL116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14759,6 +15109,9 @@
       <c r="AK117">
         <v>2</v>
       </c>
+      <c r="AL117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14880,6 +15233,9 @@
       <c r="AK118">
         <v>2</v>
       </c>
+      <c r="AL118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15001,6 +15357,9 @@
       <c r="AK119">
         <v>3</v>
       </c>
+      <c r="AL119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15122,6 +15481,9 @@
       <c r="AK120">
         <v>47</v>
       </c>
+      <c r="AL120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15243,6 +15605,9 @@
       <c r="AK121">
         <v>2</v>
       </c>
+      <c r="AL121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15364,6 +15729,9 @@
       <c r="AK122">
         <v>1</v>
       </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15485,6 +15853,9 @@
       <c r="AK123">
         <v>2</v>
       </c>
+      <c r="AL123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15606,6 +15977,9 @@
       <c r="AK124">
         <v>6</v>
       </c>
+      <c r="AL124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15727,6 +16101,9 @@
       <c r="AK125">
         <v>22</v>
       </c>
+      <c r="AL125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15848,6 +16225,9 @@
       <c r="AK126">
         <v>93</v>
       </c>
+      <c r="AL126">
+        <v>97</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15969,6 +16349,9 @@
       <c r="AK127">
         <v>18</v>
       </c>
+      <c r="AL127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16090,6 +16473,9 @@
       <c r="AK128">
         <v>20</v>
       </c>
+      <c r="AL128">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16211,6 +16597,9 @@
       <c r="AK129">
         <v>46</v>
       </c>
+      <c r="AL129">
+        <v>46</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16332,6 +16721,9 @@
       <c r="AK130">
         <v>403</v>
       </c>
+      <c r="AL130">
+        <v>403</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16453,6 +16845,9 @@
       <c r="AK131">
         <v>164</v>
       </c>
+      <c r="AL131">
+        <v>167</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16574,6 +16969,9 @@
       <c r="AK132">
         <v>8</v>
       </c>
+      <c r="AL132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16695,6 +17093,9 @@
       <c r="AK133">
         <v>25</v>
       </c>
+      <c r="AL133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16816,6 +17217,9 @@
       <c r="AK134">
         <v>47</v>
       </c>
+      <c r="AL134">
+        <v>48</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16937,6 +17341,9 @@
       <c r="AK135">
         <v>79</v>
       </c>
+      <c r="AL135">
+        <v>85</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17058,6 +17465,9 @@
       <c r="AK136">
         <v>141</v>
       </c>
+      <c r="AL136">
+        <v>144</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -17179,6 +17589,9 @@
       <c r="AK137">
         <v>45</v>
       </c>
+      <c r="AL137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -17300,6 +17713,9 @@
       <c r="AK138">
         <v>8</v>
       </c>
+      <c r="AL138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17421,6 +17837,9 @@
       <c r="AK139">
         <v>56</v>
       </c>
+      <c r="AL139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17542,6 +17961,9 @@
       <c r="AK140">
         <v>14</v>
       </c>
+      <c r="AL140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17663,6 +18085,9 @@
       <c r="AK141">
         <v>35</v>
       </c>
+      <c r="AL141">
+        <v>38</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17784,6 +18209,9 @@
       <c r="AK142">
         <v>17</v>
       </c>
+      <c r="AL142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17905,6 +18333,9 @@
       <c r="AK143">
         <v>2</v>
       </c>
+      <c r="AL143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -18026,6 +18457,9 @@
       <c r="AK144">
         <v>10</v>
       </c>
+      <c r="AL144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -18147,6 +18581,9 @@
       <c r="AK145">
         <v>1</v>
       </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -18268,6 +18705,9 @@
       <c r="AK146">
         <v>7</v>
       </c>
+      <c r="AL146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -18389,6 +18829,9 @@
       <c r="AK147">
         <v>10</v>
       </c>
+      <c r="AL147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18510,6 +18953,9 @@
       <c r="AK148">
         <v>8</v>
       </c>
+      <c r="AL148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18631,6 +19077,9 @@
       <c r="AK149">
         <v>13</v>
       </c>
+      <c r="AL149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18752,6 +19201,9 @@
       <c r="AK150">
         <v>44</v>
       </c>
+      <c r="AL150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18873,6 +19325,9 @@
       <c r="AK151">
         <v>0</v>
       </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18994,6 +19449,9 @@
       <c r="AK152">
         <v>0</v>
       </c>
+      <c r="AL152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -19115,6 +19573,9 @@
       <c r="AK153">
         <v>10</v>
       </c>
+      <c r="AL153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -19236,6 +19697,9 @@
       <c r="AK154">
         <v>5</v>
       </c>
+      <c r="AL154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -19357,6 +19821,9 @@
       <c r="AK155">
         <v>35</v>
       </c>
+      <c r="AL155">
+        <v>37</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19478,6 +19945,9 @@
       <c r="AK156">
         <v>4</v>
       </c>
+      <c r="AL156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19599,6 +20069,9 @@
       <c r="AK157">
         <v>1</v>
       </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19720,6 +20193,9 @@
       <c r="AK158">
         <v>2</v>
       </c>
+      <c r="AL158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19841,6 +20317,9 @@
       <c r="AK159">
         <v>6</v>
       </c>
+      <c r="AL159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19962,6 +20441,9 @@
       <c r="AK160">
         <v>11</v>
       </c>
+      <c r="AL160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -20083,6 +20565,9 @@
       <c r="AK161">
         <v>1</v>
       </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -20204,6 +20689,9 @@
       <c r="AK162">
         <v>81</v>
       </c>
+      <c r="AL162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -20325,6 +20813,9 @@
       <c r="AK163">
         <v>35</v>
       </c>
+      <c r="AL163">
+        <v>37</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -20446,6 +20937,9 @@
       <c r="AK164">
         <v>19</v>
       </c>
+      <c r="AL164">
+        <v>19</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -20567,6 +21061,9 @@
       <c r="AK165">
         <v>60</v>
       </c>
+      <c r="AL165">
+        <v>61</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20688,6 +21185,9 @@
       <c r="AK166">
         <v>11</v>
       </c>
+      <c r="AL166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20809,6 +21309,9 @@
       <c r="AK167">
         <v>33</v>
       </c>
+      <c r="AL167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20930,6 +21433,9 @@
       <c r="AK168">
         <v>0</v>
       </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -21051,6 +21557,9 @@
       <c r="AK169">
         <v>18</v>
       </c>
+      <c r="AL169">
+        <v>19</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -21172,6 +21681,9 @@
       <c r="AK170">
         <v>4</v>
       </c>
+      <c r="AL170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21293,6 +21805,9 @@
       <c r="AK171">
         <v>5</v>
       </c>
+      <c r="AL171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21414,6 +21929,9 @@
       <c r="AK172">
         <v>3</v>
       </c>
+      <c r="AL172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -21535,6 +22053,9 @@
       <c r="AK173">
         <v>3</v>
       </c>
+      <c r="AL173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -21656,6 +22177,9 @@
       <c r="AK174">
         <v>13</v>
       </c>
+      <c r="AL174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21777,6 +22301,9 @@
       <c r="AK175">
         <v>2</v>
       </c>
+      <c r="AL175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21898,6 +22425,9 @@
       <c r="AK176">
         <v>4</v>
       </c>
+      <c r="AL176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -22019,6 +22549,9 @@
       <c r="AK177">
         <v>0</v>
       </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -22140,6 +22673,9 @@
       <c r="AK178">
         <v>0</v>
       </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22261,6 +22797,9 @@
       <c r="AK179">
         <v>2</v>
       </c>
+      <c r="AL179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22382,6 +22921,9 @@
       <c r="AK180">
         <v>0</v>
       </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -22503,6 +23045,9 @@
       <c r="AK181">
         <v>0</v>
       </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22624,6 +23169,9 @@
       <c r="AK182">
         <v>1</v>
       </c>
+      <c r="AL182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22745,6 +23293,9 @@
       <c r="AK183">
         <v>0</v>
       </c>
+      <c r="AL183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22866,6 +23417,9 @@
       <c r="AK184">
         <v>1</v>
       </c>
+      <c r="AL184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22987,6 +23541,9 @@
       <c r="AK185">
         <v>5</v>
       </c>
+      <c r="AL185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -23108,6 +23665,9 @@
       <c r="AK186">
         <v>2</v>
       </c>
+      <c r="AL186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -23229,6 +23789,9 @@
       <c r="AK187">
         <v>1</v>
       </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -23350,6 +23913,9 @@
       <c r="AK188">
         <v>3</v>
       </c>
+      <c r="AL188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -23471,6 +24037,9 @@
       <c r="AK189">
         <v>2</v>
       </c>
+      <c r="AL189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23592,6 +24161,9 @@
       <c r="AK190">
         <v>13</v>
       </c>
+      <c r="AL190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23713,6 +24285,9 @@
       <c r="AK191">
         <v>36</v>
       </c>
+      <c r="AL191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23834,6 +24409,9 @@
       <c r="AK192">
         <v>1</v>
       </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23955,6 +24533,9 @@
       <c r="AK193">
         <v>8</v>
       </c>
+      <c r="AL193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -24076,6 +24657,9 @@
       <c r="AK194">
         <v>2</v>
       </c>
+      <c r="AL194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -24197,6 +24781,9 @@
       <c r="AK195">
         <v>6</v>
       </c>
+      <c r="AL195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -24318,6 +24905,9 @@
       <c r="AK196">
         <v>4</v>
       </c>
+      <c r="AL196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -24439,6 +25029,9 @@
       <c r="AK197">
         <v>12</v>
       </c>
+      <c r="AL197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -24560,6 +25153,9 @@
       <c r="AK198">
         <v>10</v>
       </c>
+      <c r="AL198">
+        <v>10</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24681,6 +25277,9 @@
       <c r="AK199">
         <v>2</v>
       </c>
+      <c r="AL199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -24802,6 +25401,9 @@
       <c r="AK200">
         <v>1</v>
       </c>
+      <c r="AL200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24923,6 +25525,9 @@
       <c r="AK201">
         <v>0</v>
       </c>
+      <c r="AL201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -25044,6 +25649,9 @@
       <c r="AK202">
         <v>1</v>
       </c>
+      <c r="AL202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -25165,6 +25773,9 @@
       <c r="AK203">
         <v>9</v>
       </c>
+      <c r="AL203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -25286,6 +25897,9 @@
       <c r="AK204">
         <v>0</v>
       </c>
+      <c r="AL204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -25407,6 +26021,9 @@
       <c r="AK205">
         <v>0</v>
       </c>
+      <c r="AL205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -25528,6 +26145,9 @@
       <c r="AK206">
         <v>0</v>
       </c>
+      <c r="AL206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -25649,6 +26269,9 @@
       <c r="AK207">
         <v>25</v>
       </c>
+      <c r="AL207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -25770,6 +26393,9 @@
       <c r="AK208">
         <v>18</v>
       </c>
+      <c r="AL208">
+        <v>18</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -25891,6 +26517,9 @@
       <c r="AK209">
         <v>56</v>
       </c>
+      <c r="AL209">
+        <v>56</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -26012,6 +26641,9 @@
       <c r="AK210">
         <v>38</v>
       </c>
+      <c r="AL210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -26133,6 +26765,9 @@
       <c r="AK211">
         <v>36</v>
       </c>
+      <c r="AL211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -26254,6 +26889,9 @@
       <c r="AK212">
         <v>10</v>
       </c>
+      <c r="AL212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -26375,6 +27013,9 @@
       <c r="AK213">
         <v>39</v>
       </c>
+      <c r="AL213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -26496,6 +27137,9 @@
       <c r="AK214">
         <v>4</v>
       </c>
+      <c r="AL214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -26617,6 +27261,9 @@
       <c r="AK215">
         <v>21</v>
       </c>
+      <c r="AL215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -26738,6 +27385,9 @@
       <c r="AK216">
         <v>2</v>
       </c>
+      <c r="AL216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -26859,6 +27509,9 @@
       <c r="AK217">
         <v>5</v>
       </c>
+      <c r="AL217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -26980,6 +27633,9 @@
       <c r="AK218">
         <v>2</v>
       </c>
+      <c r="AL218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -27101,6 +27757,9 @@
       <c r="AK219">
         <v>1</v>
       </c>
+      <c r="AL219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -27222,6 +27881,9 @@
       <c r="AK220">
         <v>3</v>
       </c>
+      <c r="AL220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -27343,6 +28005,9 @@
       <c r="AK221">
         <v>0</v>
       </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -27464,6 +28129,9 @@
       <c r="AK222">
         <v>1</v>
       </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -27585,6 +28253,9 @@
       <c r="AK223">
         <v>0</v>
       </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -27706,6 +28377,9 @@
       <c r="AK224">
         <v>0</v>
       </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -27827,6 +28501,9 @@
       <c r="AK225">
         <v>0</v>
       </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -27948,6 +28625,9 @@
       <c r="AK226">
         <v>0</v>
       </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -28069,6 +28749,9 @@
       <c r="AK227">
         <v>0</v>
       </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -28190,6 +28873,9 @@
       <c r="AK228">
         <v>0</v>
       </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -28311,6 +28997,9 @@
       <c r="AK229">
         <v>2</v>
       </c>
+      <c r="AL229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -28432,6 +29121,9 @@
       <c r="AK230">
         <v>0</v>
       </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -28553,6 +29245,9 @@
       <c r="AK231">
         <v>2</v>
       </c>
+      <c r="AL231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -28674,6 +29369,9 @@
       <c r="AK232">
         <v>29</v>
       </c>
+      <c r="AL232">
+        <v>29</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -28795,6 +29493,9 @@
       <c r="AK233">
         <v>199</v>
       </c>
+      <c r="AL233">
+        <v>204</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -28916,6 +29617,9 @@
       <c r="AK234">
         <v>9</v>
       </c>
+      <c r="AL234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -29037,6 +29741,9 @@
       <c r="AK235">
         <v>11</v>
       </c>
+      <c r="AL235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -29158,6 +29865,9 @@
       <c r="AK236">
         <v>0</v>
       </c>
+      <c r="AL236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -29279,6 +29989,9 @@
       <c r="AK237">
         <v>2</v>
       </c>
+      <c r="AL237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -29400,6 +30113,9 @@
       <c r="AK238">
         <v>0</v>
       </c>
+      <c r="AL238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -29521,6 +30237,9 @@
       <c r="AK239">
         <v>1</v>
       </c>
+      <c r="AL239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -29642,6 +30361,9 @@
       <c r="AK240">
         <v>2</v>
       </c>
+      <c r="AL240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -29763,6 +30485,9 @@
       <c r="AK241">
         <v>7</v>
       </c>
+      <c r="AL241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -29884,6 +30609,9 @@
       <c r="AK242">
         <v>3</v>
       </c>
+      <c r="AL242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -30005,6 +30733,9 @@
       <c r="AK243">
         <v>1</v>
       </c>
+      <c r="AL243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -30126,6 +30857,9 @@
       <c r="AK244">
         <v>2</v>
       </c>
+      <c r="AL244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -30247,6 +30981,9 @@
       <c r="AK245">
         <v>2</v>
       </c>
+      <c r="AL245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -30368,6 +31105,9 @@
       <c r="AK246">
         <v>2</v>
       </c>
+      <c r="AL246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -30489,6 +31229,9 @@
       <c r="AK247">
         <v>0</v>
       </c>
+      <c r="AL247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -30610,6 +31353,9 @@
       <c r="AK248">
         <v>3</v>
       </c>
+      <c r="AL248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -30731,6 +31477,9 @@
       <c r="AK249">
         <v>12</v>
       </c>
+      <c r="AL249">
+        <v>15</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -30852,6 +31601,9 @@
       <c r="AK250">
         <v>0</v>
       </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -30973,6 +31725,9 @@
       <c r="AK251">
         <v>4</v>
       </c>
+      <c r="AL251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -31094,6 +31849,9 @@
       <c r="AK252">
         <v>1</v>
       </c>
+      <c r="AL252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -31215,6 +31973,9 @@
       <c r="AK253">
         <v>1</v>
       </c>
+      <c r="AL253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -31336,6 +32097,9 @@
       <c r="AK254">
         <v>1</v>
       </c>
+      <c r="AL254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -31467,6 +32231,9 @@
       <c r="AK255">
         <v>12</v>
       </c>
+      <c r="AL255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -31598,6 +32365,9 @@
       <c r="AK256">
         <v>79</v>
       </c>
+      <c r="AL256">
+        <v>80</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -31729,6 +32499,9 @@
       <c r="AK257">
         <v>54</v>
       </c>
+      <c r="AL257">
+        <v>54</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -31860,6 +32633,9 @@
       <c r="AK258">
         <v>63</v>
       </c>
+      <c r="AL258">
+        <v>63</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -31991,6 +32767,9 @@
       <c r="AK259">
         <v>59</v>
       </c>
+      <c r="AL259">
+        <v>60</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -32122,6 +32901,9 @@
       <c r="AK260">
         <v>39</v>
       </c>
+      <c r="AL260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -32253,6 +33035,9 @@
       <c r="AK261">
         <v>93</v>
       </c>
+      <c r="AL261">
+        <v>93</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -32384,6 +33169,9 @@
       <c r="AK262">
         <v>50</v>
       </c>
+      <c r="AL262">
+        <v>51</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -32515,6 +33303,9 @@
       <c r="AK263">
         <v>59</v>
       </c>
+      <c r="AL263">
+        <v>59</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -32636,6 +33427,9 @@
       <c r="AK264">
         <v>9</v>
       </c>
+      <c r="AL264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -32757,6 +33551,9 @@
       <c r="AK265">
         <v>4</v>
       </c>
+      <c r="AL265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -32878,6 +33675,9 @@
       <c r="AK266">
         <v>4</v>
       </c>
+      <c r="AL266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -32999,6 +33799,9 @@
       <c r="AK267">
         <v>4</v>
       </c>
+      <c r="AL267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -33120,6 +33923,9 @@
       <c r="AK268">
         <v>6</v>
       </c>
+      <c r="AL268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -33241,6 +34047,9 @@
       <c r="AK269">
         <v>8</v>
       </c>
+      <c r="AL269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -33362,6 +34171,9 @@
       <c r="AK270">
         <v>0</v>
       </c>
+      <c r="AL270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -33483,6 +34295,9 @@
       <c r="AK271">
         <v>4</v>
       </c>
+      <c r="AL271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -33604,6 +34419,9 @@
       <c r="AK272">
         <v>0</v>
       </c>
+      <c r="AL272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -33725,6 +34543,9 @@
       <c r="AK273">
         <v>0</v>
       </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -33846,6 +34667,9 @@
       <c r="AK274">
         <v>2</v>
       </c>
+      <c r="AL274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -33967,6 +34791,9 @@
       <c r="AK275">
         <v>24</v>
       </c>
+      <c r="AL275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -34088,6 +34915,9 @@
       <c r="AK276">
         <v>9</v>
       </c>
+      <c r="AL276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -34209,6 +35039,9 @@
       <c r="AK277">
         <v>0</v>
       </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -34330,6 +35163,9 @@
       <c r="AK278">
         <v>17</v>
       </c>
+      <c r="AL278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -34451,6 +35287,9 @@
       <c r="AK279">
         <v>5</v>
       </c>
+      <c r="AL279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -34572,6 +35411,9 @@
       <c r="AK280">
         <v>53</v>
       </c>
+      <c r="AL280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -34693,6 +35535,9 @@
       <c r="AK281">
         <v>34</v>
       </c>
+      <c r="AL281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -34814,6 +35659,9 @@
       <c r="AK282">
         <v>1</v>
       </c>
+      <c r="AL282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -34935,6 +35783,9 @@
       <c r="AK283">
         <v>0</v>
       </c>
+      <c r="AL283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -35056,6 +35907,9 @@
       <c r="AK284">
         <v>38</v>
       </c>
+      <c r="AL284">
+        <v>39</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -35177,6 +36031,9 @@
       <c r="AK285">
         <v>25</v>
       </c>
+      <c r="AL285">
+        <v>25</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -35298,6 +36155,9 @@
       <c r="AK286">
         <v>0</v>
       </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -35419,6 +36279,9 @@
       <c r="AK287">
         <v>0</v>
       </c>
+      <c r="AL287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -35540,6 +36403,9 @@
       <c r="AK288">
         <v>0</v>
       </c>
+      <c r="AL288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -35661,6 +36527,9 @@
       <c r="AK289">
         <v>1</v>
       </c>
+      <c r="AL289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -35782,6 +36651,9 @@
       <c r="AK290">
         <v>3</v>
       </c>
+      <c r="AL290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -35903,6 +36775,9 @@
       <c r="AK291">
         <v>0</v>
       </c>
+      <c r="AL291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -36024,6 +36899,9 @@
       <c r="AK292">
         <v>3</v>
       </c>
+      <c r="AL292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -36145,6 +37023,9 @@
       <c r="AK293">
         <v>0</v>
       </c>
+      <c r="AL293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -36266,6 +37147,9 @@
       <c r="AK294">
         <v>7</v>
       </c>
+      <c r="AL294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -36387,6 +37271,9 @@
       <c r="AK295">
         <v>0</v>
       </c>
+      <c r="AL295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -36508,6 +37395,9 @@
       <c r="AK296">
         <v>0</v>
       </c>
+      <c r="AL296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -36629,6 +37519,9 @@
       <c r="AK297">
         <v>1</v>
       </c>
+      <c r="AL297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -36750,6 +37643,9 @@
       <c r="AK298">
         <v>4</v>
       </c>
+      <c r="AL298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -36871,6 +37767,9 @@
       <c r="AK299">
         <v>0</v>
       </c>
+      <c r="AL299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -36992,6 +37891,9 @@
       <c r="AK300">
         <v>0</v>
       </c>
+      <c r="AL300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -37113,6 +38015,9 @@
       <c r="AK301">
         <v>17</v>
       </c>
+      <c r="AL301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -37234,6 +38139,9 @@
       <c r="AK302">
         <v>0</v>
       </c>
+      <c r="AL302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -37355,6 +38263,9 @@
       <c r="AK303">
         <v>0</v>
       </c>
+      <c r="AL303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -37476,6 +38387,9 @@
       <c r="AK304">
         <v>4</v>
       </c>
+      <c r="AL304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -37597,6 +38511,9 @@
       <c r="AK305">
         <v>12</v>
       </c>
+      <c r="AL305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -37718,6 +38635,9 @@
       <c r="AK306">
         <v>232</v>
       </c>
+      <c r="AL306">
+        <v>233</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -37839,6 +38759,9 @@
       <c r="AK307">
         <v>16</v>
       </c>
+      <c r="AL307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -37960,6 +38883,9 @@
       <c r="AK308">
         <v>5</v>
       </c>
+      <c r="AL308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -38081,6 +39007,9 @@
       <c r="AK309">
         <v>0</v>
       </c>
+      <c r="AL309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -38202,6 +39131,9 @@
       <c r="AK310">
         <v>0</v>
       </c>
+      <c r="AL310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -38323,6 +39255,9 @@
       <c r="AK311">
         <v>8</v>
       </c>
+      <c r="AL311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -38444,6 +39379,9 @@
       <c r="AK312">
         <v>5</v>
       </c>
+      <c r="AL312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -38565,6 +39503,9 @@
       <c r="AK313">
         <v>0</v>
       </c>
+      <c r="AL313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -38686,6 +39627,9 @@
       <c r="AK314">
         <v>1</v>
       </c>
+      <c r="AL314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -38807,6 +39751,9 @@
       <c r="AK315">
         <v>7</v>
       </c>
+      <c r="AL315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -38928,6 +39875,9 @@
       <c r="AK316">
         <v>3</v>
       </c>
+      <c r="AL316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -39049,6 +39999,9 @@
       <c r="AK317">
         <v>5</v>
       </c>
+      <c r="AL317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -39170,6 +40123,9 @@
       <c r="AK318">
         <v>11</v>
       </c>
+      <c r="AL318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -39291,6 +40247,9 @@
       <c r="AK319">
         <v>6</v>
       </c>
+      <c r="AL319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -39412,6 +40371,9 @@
       <c r="AK320">
         <v>0</v>
       </c>
+      <c r="AL320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -39533,6 +40495,9 @@
       <c r="AK321">
         <v>1</v>
       </c>
+      <c r="AL321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -39654,6 +40619,9 @@
       <c r="AK322">
         <v>8</v>
       </c>
+      <c r="AL322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -39775,6 +40743,9 @@
       <c r="AK323">
         <v>28</v>
       </c>
+      <c r="AL323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -39896,6 +40867,9 @@
       <c r="AK324">
         <v>21</v>
       </c>
+      <c r="AL324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -40017,6 +40991,9 @@
       <c r="AK325">
         <v>15</v>
       </c>
+      <c r="AL325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -40138,6 +41115,9 @@
       <c r="AK326">
         <v>0</v>
       </c>
+      <c r="AL326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -40259,6 +41239,9 @@
       <c r="AK327">
         <v>0</v>
       </c>
+      <c r="AL327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -40380,6 +41363,9 @@
       <c r="AK328">
         <v>0</v>
       </c>
+      <c r="AL328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -40501,6 +41487,9 @@
       <c r="AK329">
         <v>0</v>
       </c>
+      <c r="AL329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -40622,6 +41611,9 @@
       <c r="AK330">
         <v>3</v>
       </c>
+      <c r="AL330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -40743,6 +41735,9 @@
       <c r="AK331">
         <v>1</v>
       </c>
+      <c r="AL331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -40864,6 +41859,9 @@
       <c r="AK332">
         <v>4</v>
       </c>
+      <c r="AL332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -40985,6 +41983,9 @@
       <c r="AK333">
         <v>0</v>
       </c>
+      <c r="AL333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -41106,6 +42107,9 @@
       <c r="AK334">
         <v>0</v>
       </c>
+      <c r="AL334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -41227,6 +42231,9 @@
       <c r="AK335">
         <v>7</v>
       </c>
+      <c r="AL335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -41348,6 +42355,9 @@
       <c r="AK336">
         <v>2</v>
       </c>
+      <c r="AL336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -41469,6 +42479,9 @@
       <c r="AK337">
         <v>2</v>
       </c>
+      <c r="AL337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -41590,6 +42603,9 @@
       <c r="AK338">
         <v>2</v>
       </c>
+      <c r="AL338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -41711,6 +42727,9 @@
       <c r="AK339">
         <v>10</v>
       </c>
+      <c r="AL339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -41832,6 +42851,9 @@
       <c r="AK340">
         <v>1</v>
       </c>
+      <c r="AL340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -41953,6 +42975,9 @@
       <c r="AK341">
         <v>17</v>
       </c>
+      <c r="AL341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -42074,6 +43099,9 @@
       <c r="AK342">
         <v>0</v>
       </c>
+      <c r="AL342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -42195,6 +43223,9 @@
       <c r="AK343">
         <v>0</v>
       </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -42316,6 +43347,9 @@
       <c r="AK344">
         <v>144</v>
       </c>
+      <c r="AL344">
+        <v>146</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -42437,6 +43471,9 @@
       <c r="AK345">
         <v>6</v>
       </c>
+      <c r="AL345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -42558,6 +43595,9 @@
       <c r="AK346">
         <v>5</v>
       </c>
+      <c r="AL346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -42679,6 +43719,9 @@
       <c r="AK347">
         <v>1</v>
       </c>
+      <c r="AL347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -42800,6 +43843,9 @@
       <c r="AK348">
         <v>3</v>
       </c>
+      <c r="AL348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -42921,6 +43967,9 @@
       <c r="AK349">
         <v>15</v>
       </c>
+      <c r="AL349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -43042,6 +44091,9 @@
       <c r="AK350">
         <v>1</v>
       </c>
+      <c r="AL350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -43163,6 +44215,9 @@
       <c r="AK351">
         <v>1</v>
       </c>
+      <c r="AL351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -43284,6 +44339,9 @@
       <c r="AK352">
         <v>0</v>
       </c>
+      <c r="AL352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -43405,6 +44463,9 @@
       <c r="AK353">
         <v>0</v>
       </c>
+      <c r="AL353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -43526,6 +44587,9 @@
       <c r="AK354">
         <v>3</v>
       </c>
+      <c r="AL354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -43647,6 +44711,9 @@
       <c r="AK355">
         <v>1</v>
       </c>
+      <c r="AL355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -43768,6 +44835,9 @@
       <c r="AK356">
         <v>2</v>
       </c>
+      <c r="AL356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -43889,6 +44959,9 @@
       <c r="AK357">
         <v>0</v>
       </c>
+      <c r="AL357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -44010,6 +45083,9 @@
       <c r="AK358">
         <v>0</v>
       </c>
+      <c r="AL358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -44131,6 +45207,9 @@
       <c r="AK359">
         <v>0</v>
       </c>
+      <c r="AL359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -44252,6 +45331,9 @@
       <c r="AK360">
         <v>16</v>
       </c>
+      <c r="AL360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -44373,6 +45455,9 @@
       <c r="AK361">
         <v>2</v>
       </c>
+      <c r="AL361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -44494,6 +45579,9 @@
       <c r="AK362">
         <v>1</v>
       </c>
+      <c r="AL362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -44615,6 +45703,9 @@
       <c r="AK363">
         <v>2</v>
       </c>
+      <c r="AL363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -44736,6 +45827,9 @@
       <c r="AK364">
         <v>0</v>
       </c>
+      <c r="AL364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -44857,6 +45951,9 @@
       <c r="AK365">
         <v>0</v>
       </c>
+      <c r="AL365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -44978,6 +46075,9 @@
       <c r="AK366">
         <v>1</v>
       </c>
+      <c r="AL366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -45099,6 +46199,9 @@
       <c r="AK367">
         <v>2</v>
       </c>
+      <c r="AL367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -45220,6 +46323,9 @@
       <c r="AK368">
         <v>0</v>
       </c>
+      <c r="AL368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -45341,6 +46447,9 @@
       <c r="AK369">
         <v>1</v>
       </c>
+      <c r="AL369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -45462,6 +46571,9 @@
       <c r="AK370">
         <v>0</v>
       </c>
+      <c r="AL370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -45583,6 +46695,9 @@
       <c r="AK371">
         <v>0</v>
       </c>
+      <c r="AL371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -45704,6 +46819,9 @@
       <c r="AK372">
         <v>3</v>
       </c>
+      <c r="AL372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -45825,6 +46943,9 @@
       <c r="AK373">
         <v>2</v>
       </c>
+      <c r="AL373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -45946,6 +47067,9 @@
       <c r="AK374">
         <v>4</v>
       </c>
+      <c r="AL374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -46067,6 +47191,9 @@
       <c r="AK375">
         <v>1</v>
       </c>
+      <c r="AL375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -46188,6 +47315,9 @@
       <c r="AK376">
         <v>0</v>
       </c>
+      <c r="AL376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -46309,6 +47439,9 @@
       <c r="AK377">
         <v>0</v>
       </c>
+      <c r="AL377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -46430,6 +47563,9 @@
       <c r="AK378">
         <v>0</v>
       </c>
+      <c r="AL378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -46551,6 +47687,9 @@
       <c r="AK379">
         <v>1</v>
       </c>
+      <c r="AL379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -46672,6 +47811,9 @@
       <c r="AK380">
         <v>1</v>
       </c>
+      <c r="AL380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -46793,6 +47935,9 @@
       <c r="AK381">
         <v>0</v>
       </c>
+      <c r="AL381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -46914,6 +48059,9 @@
       <c r="AK382">
         <v>4</v>
       </c>
+      <c r="AL382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -47035,6 +48183,9 @@
       <c r="AK383">
         <v>0</v>
       </c>
+      <c r="AL383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -47154,6 +48305,9 @@
         <v>2</v>
       </c>
       <c r="AK384">
+        <v>2</v>
+      </c>
+      <c r="AL384">
         <v>2</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL384"/>
+  <dimension ref="A1:AM384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,6 +548,11 @@
           <t>2020-04-22</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -682,6 +687,9 @@
       <c r="AL2">
         <v>222</v>
       </c>
+      <c r="AM2">
+        <v>230</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -816,6 +824,9 @@
       <c r="AL3">
         <v>163</v>
       </c>
+      <c r="AM3">
+        <v>163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -950,6 +961,9 @@
       <c r="AL4">
         <v>132</v>
       </c>
+      <c r="AM4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1084,6 +1098,9 @@
       <c r="AL5">
         <v>89</v>
       </c>
+      <c r="AM5">
+        <v>93</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1218,6 +1235,9 @@
       <c r="AL6">
         <v>160</v>
       </c>
+      <c r="AM6">
+        <v>161</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1352,6 +1372,9 @@
       <c r="AL7">
         <v>108</v>
       </c>
+      <c r="AM7">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1486,6 +1509,9 @@
       <c r="AL8">
         <v>145</v>
       </c>
+      <c r="AM8">
+        <v>146</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1620,6 +1646,9 @@
       <c r="AL9">
         <v>127</v>
       </c>
+      <c r="AM9">
+        <v>129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1754,6 +1783,9 @@
       <c r="AL10">
         <v>98</v>
       </c>
+      <c r="AM10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1888,6 +1920,9 @@
       <c r="AL11">
         <v>92</v>
       </c>
+      <c r="AM11">
+        <v>97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2022,6 +2057,9 @@
       <c r="AL12">
         <v>177</v>
       </c>
+      <c r="AM12">
+        <v>181</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2156,6 +2194,9 @@
       <c r="AL13">
         <v>209</v>
       </c>
+      <c r="AM13">
+        <v>212</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2290,6 +2331,9 @@
       <c r="AL14">
         <v>162</v>
       </c>
+      <c r="AM14">
+        <v>165</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2424,6 +2468,9 @@
       <c r="AL15">
         <v>151</v>
       </c>
+      <c r="AM15">
+        <v>153</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2558,6 +2605,9 @@
       <c r="AL16">
         <v>128</v>
       </c>
+      <c r="AM16">
+        <v>128</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2692,6 +2742,9 @@
       <c r="AL17">
         <v>4</v>
       </c>
+      <c r="AM17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2826,6 +2879,9 @@
       <c r="AL18">
         <v>2</v>
       </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2960,6 +3016,9 @@
       <c r="AL19">
         <v>42</v>
       </c>
+      <c r="AM19">
+        <v>46</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3084,6 +3143,9 @@
       <c r="AL20">
         <v>14</v>
       </c>
+      <c r="AM20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3208,6 +3270,9 @@
       <c r="AL21">
         <v>131</v>
       </c>
+      <c r="AM21">
+        <v>132</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3332,6 +3397,9 @@
       <c r="AL22">
         <v>50</v>
       </c>
+      <c r="AM22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3456,6 +3524,9 @@
       <c r="AL23">
         <v>46</v>
       </c>
+      <c r="AM23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3580,6 +3651,9 @@
       <c r="AL24">
         <v>5</v>
       </c>
+      <c r="AM24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3704,6 +3778,9 @@
       <c r="AL25">
         <v>1</v>
       </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3828,6 +3905,9 @@
       <c r="AL26">
         <v>0</v>
       </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3952,6 +4032,9 @@
       <c r="AL27">
         <v>7</v>
       </c>
+      <c r="AM27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4076,6 +4159,9 @@
       <c r="AL28">
         <v>6</v>
       </c>
+      <c r="AM28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4200,6 +4286,9 @@
       <c r="AL29">
         <v>12</v>
       </c>
+      <c r="AM29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4324,6 +4413,9 @@
       <c r="AL30">
         <v>13</v>
       </c>
+      <c r="AM30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4448,6 +4540,9 @@
       <c r="AL31">
         <v>15</v>
       </c>
+      <c r="AM31">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4572,6 +4667,9 @@
       <c r="AL32">
         <v>11</v>
       </c>
+      <c r="AM32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4696,6 +4794,9 @@
       <c r="AL33">
         <v>13</v>
       </c>
+      <c r="AM33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4820,6 +4921,9 @@
       <c r="AL34">
         <v>0</v>
       </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4944,6 +5048,9 @@
       <c r="AL35">
         <v>0</v>
       </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5068,6 +5175,9 @@
       <c r="AL36">
         <v>3</v>
       </c>
+      <c r="AM36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5192,6 +5302,9 @@
       <c r="AL37">
         <v>0</v>
       </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5316,6 +5429,9 @@
       <c r="AL38">
         <v>1</v>
       </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5440,6 +5556,9 @@
       <c r="AL39">
         <v>20</v>
       </c>
+      <c r="AM39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5564,6 +5683,9 @@
       <c r="AL40">
         <v>36</v>
       </c>
+      <c r="AM40">
+        <v>37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5688,6 +5810,9 @@
       <c r="AL41">
         <v>0</v>
       </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5812,6 +5937,9 @@
       <c r="AL42">
         <v>11</v>
       </c>
+      <c r="AM42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5936,6 +6064,9 @@
       <c r="AL43">
         <v>18</v>
       </c>
+      <c r="AM43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6060,6 +6191,9 @@
       <c r="AL44">
         <v>14</v>
       </c>
+      <c r="AM44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6184,6 +6318,9 @@
       <c r="AL45">
         <v>26</v>
       </c>
+      <c r="AM45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6308,6 +6445,9 @@
       <c r="AL46">
         <v>1</v>
       </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6432,6 +6572,9 @@
       <c r="AL47">
         <v>3</v>
       </c>
+      <c r="AM47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6556,6 +6699,9 @@
       <c r="AL48">
         <v>3</v>
       </c>
+      <c r="AM48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6680,6 +6826,9 @@
       <c r="AL49">
         <v>7</v>
       </c>
+      <c r="AM49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6804,6 +6953,9 @@
       <c r="AL50">
         <v>2</v>
       </c>
+      <c r="AM50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6928,6 +7080,9 @@
       <c r="AL51">
         <v>6</v>
       </c>
+      <c r="AM51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7052,6 +7207,9 @@
       <c r="AL52">
         <v>0</v>
       </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7176,6 +7334,9 @@
       <c r="AL53">
         <v>1</v>
       </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7300,6 +7461,9 @@
       <c r="AL54">
         <v>6</v>
       </c>
+      <c r="AM54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7424,6 +7588,9 @@
       <c r="AL55">
         <v>5</v>
       </c>
+      <c r="AM55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7548,6 +7715,9 @@
       <c r="AL56">
         <v>0</v>
       </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7672,6 +7842,9 @@
       <c r="AL57">
         <v>10</v>
       </c>
+      <c r="AM57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7796,6 +7969,9 @@
       <c r="AL58">
         <v>0</v>
       </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7920,6 +8096,9 @@
       <c r="AL59">
         <v>0</v>
       </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8044,6 +8223,9 @@
       <c r="AL60">
         <v>0</v>
       </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8168,6 +8350,9 @@
       <c r="AL61">
         <v>1</v>
       </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8292,6 +8477,9 @@
       <c r="AL62">
         <v>2</v>
       </c>
+      <c r="AM62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8416,6 +8604,9 @@
       <c r="AL63">
         <v>2</v>
       </c>
+      <c r="AM63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8540,6 +8731,9 @@
       <c r="AL64">
         <v>0</v>
       </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8664,6 +8858,9 @@
       <c r="AL65">
         <v>3</v>
       </c>
+      <c r="AM65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8788,6 +8985,9 @@
       <c r="AL66">
         <v>4</v>
       </c>
+      <c r="AM66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8912,6 +9112,9 @@
       <c r="AL67">
         <v>1</v>
       </c>
+      <c r="AM67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9036,6 +9239,9 @@
       <c r="AL68">
         <v>3</v>
       </c>
+      <c r="AM68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9160,6 +9366,9 @@
       <c r="AL69">
         <v>38</v>
       </c>
+      <c r="AM69">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9284,6 +9493,9 @@
       <c r="AL70">
         <v>5</v>
       </c>
+      <c r="AM70">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9408,6 +9620,9 @@
       <c r="AL71">
         <v>0</v>
       </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9532,6 +9747,9 @@
       <c r="AL72">
         <v>2</v>
       </c>
+      <c r="AM72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9656,6 +9874,9 @@
       <c r="AL73">
         <v>5</v>
       </c>
+      <c r="AM73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9780,6 +10001,9 @@
       <c r="AL74">
         <v>3</v>
       </c>
+      <c r="AM74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9904,6 +10128,9 @@
       <c r="AL75">
         <v>0</v>
       </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10028,6 +10255,9 @@
       <c r="AL76">
         <v>0</v>
       </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10152,6 +10382,9 @@
       <c r="AL77">
         <v>2</v>
       </c>
+      <c r="AM77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10276,6 +10509,9 @@
       <c r="AL78">
         <v>4</v>
       </c>
+      <c r="AM78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10400,6 +10636,9 @@
       <c r="AL79">
         <v>1</v>
       </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10524,6 +10763,9 @@
       <c r="AL80">
         <v>1</v>
       </c>
+      <c r="AM80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10648,6 +10890,9 @@
       <c r="AL81">
         <v>0</v>
       </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10772,6 +11017,9 @@
       <c r="AL82">
         <v>5</v>
       </c>
+      <c r="AM82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10896,6 +11144,9 @@
       <c r="AL83">
         <v>0</v>
       </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11020,6 +11271,9 @@
       <c r="AL84">
         <v>0</v>
       </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11144,6 +11398,9 @@
       <c r="AL85">
         <v>4</v>
       </c>
+      <c r="AM85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11268,6 +11525,9 @@
       <c r="AL86">
         <v>0</v>
       </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11392,6 +11652,9 @@
       <c r="AL87">
         <v>0</v>
       </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11516,6 +11779,9 @@
       <c r="AL88">
         <v>0</v>
       </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11640,6 +11906,9 @@
       <c r="AL89">
         <v>5</v>
       </c>
+      <c r="AM89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11764,6 +12033,9 @@
       <c r="AL90">
         <v>0</v>
       </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11888,6 +12160,9 @@
       <c r="AL91">
         <v>0</v>
       </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12012,6 +12287,9 @@
       <c r="AL92">
         <v>0</v>
       </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12136,6 +12414,9 @@
       <c r="AL93">
         <v>1</v>
       </c>
+      <c r="AM93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12260,6 +12541,9 @@
       <c r="AL94">
         <v>0</v>
       </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12384,6 +12668,9 @@
       <c r="AL95">
         <v>1</v>
       </c>
+      <c r="AM95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12508,6 +12795,9 @@
       <c r="AL96">
         <v>0</v>
       </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12632,6 +12922,9 @@
       <c r="AL97">
         <v>0</v>
       </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12756,6 +13049,9 @@
       <c r="AL98">
         <v>0</v>
       </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12880,6 +13176,9 @@
       <c r="AL99">
         <v>0</v>
       </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13004,6 +13303,9 @@
       <c r="AL100">
         <v>5</v>
       </c>
+      <c r="AM100">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13128,6 +13430,9 @@
       <c r="AL101">
         <v>13</v>
       </c>
+      <c r="AM101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13252,6 +13557,9 @@
       <c r="AL102">
         <v>3</v>
       </c>
+      <c r="AM102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13376,6 +13684,9 @@
       <c r="AL103">
         <v>5</v>
       </c>
+      <c r="AM103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13500,6 +13811,9 @@
       <c r="AL104">
         <v>0</v>
       </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13624,6 +13938,9 @@
       <c r="AL105">
         <v>0</v>
       </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13748,6 +14065,9 @@
       <c r="AL106">
         <v>6</v>
       </c>
+      <c r="AM106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13872,6 +14192,9 @@
       <c r="AL107">
         <v>0</v>
       </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13996,6 +14319,9 @@
       <c r="AL108">
         <v>1</v>
       </c>
+      <c r="AM108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14120,6 +14446,9 @@
       <c r="AL109">
         <v>0</v>
       </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14244,6 +14573,9 @@
       <c r="AL110">
         <v>32</v>
       </c>
+      <c r="AM110">
+        <v>33</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14368,6 +14700,9 @@
       <c r="AL111">
         <v>94</v>
       </c>
+      <c r="AM111">
+        <v>95</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14492,6 +14827,9 @@
       <c r="AL112">
         <v>54</v>
       </c>
+      <c r="AM112">
+        <v>56</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14616,6 +14954,9 @@
       <c r="AL113">
         <v>84</v>
       </c>
+      <c r="AM113">
+        <v>85</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14740,6 +15081,9 @@
       <c r="AL114">
         <v>168</v>
       </c>
+      <c r="AM114">
+        <v>170</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14864,6 +15208,9 @@
       <c r="AL115">
         <v>21</v>
       </c>
+      <c r="AM115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14988,6 +15335,9 @@
       <c r="AL116">
         <v>10</v>
       </c>
+      <c r="AM116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15112,6 +15462,9 @@
       <c r="AL117">
         <v>2</v>
       </c>
+      <c r="AM117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15236,6 +15589,9 @@
       <c r="AL118">
         <v>2</v>
       </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15360,6 +15716,9 @@
       <c r="AL119">
         <v>3</v>
       </c>
+      <c r="AM119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15484,6 +15843,9 @@
       <c r="AL120">
         <v>47</v>
       </c>
+      <c r="AM120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15608,6 +15970,9 @@
       <c r="AL121">
         <v>2</v>
       </c>
+      <c r="AM121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15732,6 +16097,9 @@
       <c r="AL122">
         <v>1</v>
       </c>
+      <c r="AM122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15856,6 +16224,9 @@
       <c r="AL123">
         <v>2</v>
       </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15980,6 +16351,9 @@
       <c r="AL124">
         <v>6</v>
       </c>
+      <c r="AM124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16104,6 +16478,9 @@
       <c r="AL125">
         <v>22</v>
       </c>
+      <c r="AM125">
+        <v>22</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16228,6 +16605,9 @@
       <c r="AL126">
         <v>97</v>
       </c>
+      <c r="AM126">
+        <v>98</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16352,6 +16732,9 @@
       <c r="AL127">
         <v>18</v>
       </c>
+      <c r="AM127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16476,6 +16859,9 @@
       <c r="AL128">
         <v>20</v>
       </c>
+      <c r="AM128">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16600,6 +16986,9 @@
       <c r="AL129">
         <v>46</v>
       </c>
+      <c r="AM129">
+        <v>46</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16724,6 +17113,9 @@
       <c r="AL130">
         <v>403</v>
       </c>
+      <c r="AM130">
+        <v>403</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16848,6 +17240,9 @@
       <c r="AL131">
         <v>167</v>
       </c>
+      <c r="AM131">
+        <v>173</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16972,6 +17367,9 @@
       <c r="AL132">
         <v>8</v>
       </c>
+      <c r="AM132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17096,6 +17494,9 @@
       <c r="AL133">
         <v>25</v>
       </c>
+      <c r="AM133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17220,6 +17621,9 @@
       <c r="AL134">
         <v>48</v>
       </c>
+      <c r="AM134">
+        <v>48</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17344,6 +17748,9 @@
       <c r="AL135">
         <v>85</v>
       </c>
+      <c r="AM135">
+        <v>86</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17468,6 +17875,9 @@
       <c r="AL136">
         <v>144</v>
       </c>
+      <c r="AM136">
+        <v>150</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -17592,6 +18002,9 @@
       <c r="AL137">
         <v>45</v>
       </c>
+      <c r="AM137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -17716,6 +18129,9 @@
       <c r="AL138">
         <v>8</v>
       </c>
+      <c r="AM138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17840,6 +18256,9 @@
       <c r="AL139">
         <v>58</v>
       </c>
+      <c r="AM139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17964,6 +18383,9 @@
       <c r="AL140">
         <v>14</v>
       </c>
+      <c r="AM140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18088,6 +18510,9 @@
       <c r="AL141">
         <v>38</v>
       </c>
+      <c r="AM141">
+        <v>39</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -18212,6 +18637,9 @@
       <c r="AL142">
         <v>17</v>
       </c>
+      <c r="AM142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18336,6 +18764,9 @@
       <c r="AL143">
         <v>2</v>
       </c>
+      <c r="AM143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -18460,6 +18891,9 @@
       <c r="AL144">
         <v>10</v>
       </c>
+      <c r="AM144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -18584,6 +19018,9 @@
       <c r="AL145">
         <v>1</v>
       </c>
+      <c r="AM145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -18708,6 +19145,9 @@
       <c r="AL146">
         <v>7</v>
       </c>
+      <c r="AM146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -18832,6 +19272,9 @@
       <c r="AL147">
         <v>10</v>
       </c>
+      <c r="AM147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18956,6 +19399,9 @@
       <c r="AL148">
         <v>8</v>
       </c>
+      <c r="AM148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19080,6 +19526,9 @@
       <c r="AL149">
         <v>13</v>
       </c>
+      <c r="AM149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -19204,6 +19653,9 @@
       <c r="AL150">
         <v>44</v>
       </c>
+      <c r="AM150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -19328,6 +19780,9 @@
       <c r="AL151">
         <v>0</v>
       </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -19452,6 +19907,9 @@
       <c r="AL152">
         <v>0</v>
       </c>
+      <c r="AM152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -19576,6 +20034,9 @@
       <c r="AL153">
         <v>10</v>
       </c>
+      <c r="AM153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -19700,6 +20161,9 @@
       <c r="AL154">
         <v>5</v>
       </c>
+      <c r="AM154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -19824,6 +20288,9 @@
       <c r="AL155">
         <v>37</v>
       </c>
+      <c r="AM155">
+        <v>39</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19948,6 +20415,9 @@
       <c r="AL156">
         <v>4</v>
       </c>
+      <c r="AM156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -20072,6 +20542,9 @@
       <c r="AL157">
         <v>1</v>
       </c>
+      <c r="AM157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -20196,6 +20669,9 @@
       <c r="AL158">
         <v>3</v>
       </c>
+      <c r="AM158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -20320,6 +20796,9 @@
       <c r="AL159">
         <v>6</v>
       </c>
+      <c r="AM159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -20444,6 +20923,9 @@
       <c r="AL160">
         <v>11</v>
       </c>
+      <c r="AM160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -20568,6 +21050,9 @@
       <c r="AL161">
         <v>1</v>
       </c>
+      <c r="AM161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -20692,6 +21177,9 @@
       <c r="AL162">
         <v>81</v>
       </c>
+      <c r="AM162">
+        <v>81</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -20816,6 +21304,9 @@
       <c r="AL163">
         <v>37</v>
       </c>
+      <c r="AM163">
+        <v>37</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -20940,6 +21431,9 @@
       <c r="AL164">
         <v>19</v>
       </c>
+      <c r="AM164">
+        <v>20</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -21064,6 +21558,9 @@
       <c r="AL165">
         <v>61</v>
       </c>
+      <c r="AM165">
+        <v>61</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -21188,6 +21685,9 @@
       <c r="AL166">
         <v>11</v>
       </c>
+      <c r="AM166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -21312,6 +21812,9 @@
       <c r="AL167">
         <v>33</v>
       </c>
+      <c r="AM167">
+        <v>33</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -21436,6 +21939,9 @@
       <c r="AL168">
         <v>0</v>
       </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -21560,6 +22066,9 @@
       <c r="AL169">
         <v>19</v>
       </c>
+      <c r="AM169">
+        <v>19</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -21684,6 +22193,9 @@
       <c r="AL170">
         <v>4</v>
       </c>
+      <c r="AM170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21808,6 +22320,9 @@
       <c r="AL171">
         <v>5</v>
       </c>
+      <c r="AM171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21932,6 +22447,9 @@
       <c r="AL172">
         <v>3</v>
       </c>
+      <c r="AM172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -22056,6 +22574,9 @@
       <c r="AL173">
         <v>3</v>
       </c>
+      <c r="AM173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -22180,6 +22701,9 @@
       <c r="AL174">
         <v>13</v>
       </c>
+      <c r="AM174">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -22304,6 +22828,9 @@
       <c r="AL175">
         <v>2</v>
       </c>
+      <c r="AM175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -22428,6 +22955,9 @@
       <c r="AL176">
         <v>4</v>
       </c>
+      <c r="AM176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -22552,6 +23082,9 @@
       <c r="AL177">
         <v>0</v>
       </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -22676,6 +23209,9 @@
       <c r="AL178">
         <v>0</v>
       </c>
+      <c r="AM178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22800,6 +23336,9 @@
       <c r="AL179">
         <v>2</v>
       </c>
+      <c r="AM179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22924,6 +23463,9 @@
       <c r="AL180">
         <v>0</v>
       </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -23048,6 +23590,9 @@
       <c r="AL181">
         <v>0</v>
       </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -23172,6 +23717,9 @@
       <c r="AL182">
         <v>1</v>
       </c>
+      <c r="AM182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -23296,6 +23844,9 @@
       <c r="AL183">
         <v>0</v>
       </c>
+      <c r="AM183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -23420,6 +23971,9 @@
       <c r="AL184">
         <v>1</v>
       </c>
+      <c r="AM184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -23544,6 +24098,9 @@
       <c r="AL185">
         <v>5</v>
       </c>
+      <c r="AM185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -23668,6 +24225,9 @@
       <c r="AL186">
         <v>2</v>
       </c>
+      <c r="AM186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -23792,6 +24352,9 @@
       <c r="AL187">
         <v>1</v>
       </c>
+      <c r="AM187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -23916,6 +24479,9 @@
       <c r="AL188">
         <v>3</v>
       </c>
+      <c r="AM188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -24040,6 +24606,9 @@
       <c r="AL189">
         <v>2</v>
       </c>
+      <c r="AM189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -24164,6 +24733,9 @@
       <c r="AL190">
         <v>13</v>
       </c>
+      <c r="AM190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -24288,6 +24860,9 @@
       <c r="AL191">
         <v>36</v>
       </c>
+      <c r="AM191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -24412,6 +24987,9 @@
       <c r="AL192">
         <v>1</v>
       </c>
+      <c r="AM192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -24536,6 +25114,9 @@
       <c r="AL193">
         <v>8</v>
       </c>
+      <c r="AM193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -24660,6 +25241,9 @@
       <c r="AL194">
         <v>2</v>
       </c>
+      <c r="AM194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -24784,6 +25368,9 @@
       <c r="AL195">
         <v>6</v>
       </c>
+      <c r="AM195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -24908,6 +25495,9 @@
       <c r="AL196">
         <v>4</v>
       </c>
+      <c r="AM196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -25032,6 +25622,9 @@
       <c r="AL197">
         <v>12</v>
       </c>
+      <c r="AM197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -25156,6 +25749,9 @@
       <c r="AL198">
         <v>10</v>
       </c>
+      <c r="AM198">
+        <v>10</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -25280,6 +25876,9 @@
       <c r="AL199">
         <v>2</v>
       </c>
+      <c r="AM199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -25404,6 +26003,9 @@
       <c r="AL200">
         <v>1</v>
       </c>
+      <c r="AM200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -25528,6 +26130,9 @@
       <c r="AL201">
         <v>0</v>
       </c>
+      <c r="AM201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -25652,6 +26257,9 @@
       <c r="AL202">
         <v>1</v>
       </c>
+      <c r="AM202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -25776,6 +26384,9 @@
       <c r="AL203">
         <v>9</v>
       </c>
+      <c r="AM203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -25900,6 +26511,9 @@
       <c r="AL204">
         <v>0</v>
       </c>
+      <c r="AM204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -26024,6 +26638,9 @@
       <c r="AL205">
         <v>0</v>
       </c>
+      <c r="AM205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -26148,6 +26765,9 @@
       <c r="AL206">
         <v>0</v>
       </c>
+      <c r="AM206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -26272,6 +26892,9 @@
       <c r="AL207">
         <v>25</v>
       </c>
+      <c r="AM207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -26396,6 +27019,9 @@
       <c r="AL208">
         <v>18</v>
       </c>
+      <c r="AM208">
+        <v>19</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -26520,6 +27146,9 @@
       <c r="AL209">
         <v>56</v>
       </c>
+      <c r="AM209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -26644,6 +27273,9 @@
       <c r="AL210">
         <v>38</v>
       </c>
+      <c r="AM210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -26768,6 +27400,9 @@
       <c r="AL211">
         <v>36</v>
       </c>
+      <c r="AM211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -26892,6 +27527,9 @@
       <c r="AL212">
         <v>10</v>
       </c>
+      <c r="AM212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -27016,6 +27654,9 @@
       <c r="AL213">
         <v>39</v>
       </c>
+      <c r="AM213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -27140,6 +27781,9 @@
       <c r="AL214">
         <v>4</v>
       </c>
+      <c r="AM214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -27264,6 +27908,9 @@
       <c r="AL215">
         <v>21</v>
       </c>
+      <c r="AM215">
+        <v>21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -27388,6 +28035,9 @@
       <c r="AL216">
         <v>2</v>
       </c>
+      <c r="AM216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -27512,6 +28162,9 @@
       <c r="AL217">
         <v>5</v>
       </c>
+      <c r="AM217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -27636,6 +28289,9 @@
       <c r="AL218">
         <v>2</v>
       </c>
+      <c r="AM218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -27760,6 +28416,9 @@
       <c r="AL219">
         <v>1</v>
       </c>
+      <c r="AM219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -27884,6 +28543,9 @@
       <c r="AL220">
         <v>3</v>
       </c>
+      <c r="AM220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -28008,6 +28670,9 @@
       <c r="AL221">
         <v>0</v>
       </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -28132,6 +28797,9 @@
       <c r="AL222">
         <v>1</v>
       </c>
+      <c r="AM222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -28256,6 +28924,9 @@
       <c r="AL223">
         <v>0</v>
       </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -28380,6 +29051,9 @@
       <c r="AL224">
         <v>0</v>
       </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -28504,6 +29178,9 @@
       <c r="AL225">
         <v>0</v>
       </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -28628,6 +29305,9 @@
       <c r="AL226">
         <v>0</v>
       </c>
+      <c r="AM226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -28752,6 +29432,9 @@
       <c r="AL227">
         <v>0</v>
       </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -28876,6 +29559,9 @@
       <c r="AL228">
         <v>0</v>
       </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -29000,6 +29686,9 @@
       <c r="AL229">
         <v>2</v>
       </c>
+      <c r="AM229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -29124,6 +29813,9 @@
       <c r="AL230">
         <v>0</v>
       </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -29248,6 +29940,9 @@
       <c r="AL231">
         <v>2</v>
       </c>
+      <c r="AM231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -29372,6 +30067,9 @@
       <c r="AL232">
         <v>29</v>
       </c>
+      <c r="AM232">
+        <v>30</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -29496,6 +30194,9 @@
       <c r="AL233">
         <v>204</v>
       </c>
+      <c r="AM233">
+        <v>209</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -29620,6 +30321,9 @@
       <c r="AL234">
         <v>9</v>
       </c>
+      <c r="AM234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -29744,6 +30448,9 @@
       <c r="AL235">
         <v>11</v>
       </c>
+      <c r="AM235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -29868,6 +30575,9 @@
       <c r="AL236">
         <v>0</v>
       </c>
+      <c r="AM236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -29992,6 +30702,9 @@
       <c r="AL237">
         <v>2</v>
       </c>
+      <c r="AM237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -30116,6 +30829,9 @@
       <c r="AL238">
         <v>0</v>
       </c>
+      <c r="AM238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -30240,6 +30956,9 @@
       <c r="AL239">
         <v>1</v>
       </c>
+      <c r="AM239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -30364,6 +31083,9 @@
       <c r="AL240">
         <v>2</v>
       </c>
+      <c r="AM240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -30488,6 +31210,9 @@
       <c r="AL241">
         <v>8</v>
       </c>
+      <c r="AM241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -30612,6 +31337,9 @@
       <c r="AL242">
         <v>3</v>
       </c>
+      <c r="AM242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -30736,6 +31464,9 @@
       <c r="AL243">
         <v>1</v>
       </c>
+      <c r="AM243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -30860,6 +31591,9 @@
       <c r="AL244">
         <v>2</v>
       </c>
+      <c r="AM244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -30984,6 +31718,9 @@
       <c r="AL245">
         <v>2</v>
       </c>
+      <c r="AM245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -31108,6 +31845,9 @@
       <c r="AL246">
         <v>2</v>
       </c>
+      <c r="AM246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -31232,6 +31972,9 @@
       <c r="AL247">
         <v>0</v>
       </c>
+      <c r="AM247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -31356,6 +32099,9 @@
       <c r="AL248">
         <v>3</v>
       </c>
+      <c r="AM248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -31480,6 +32226,9 @@
       <c r="AL249">
         <v>15</v>
       </c>
+      <c r="AM249">
+        <v>18</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -31604,6 +32353,9 @@
       <c r="AL250">
         <v>0</v>
       </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -31728,6 +32480,9 @@
       <c r="AL251">
         <v>4</v>
       </c>
+      <c r="AM251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -31852,6 +32607,9 @@
       <c r="AL252">
         <v>1</v>
       </c>
+      <c r="AM252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -31976,6 +32734,9 @@
       <c r="AL253">
         <v>1</v>
       </c>
+      <c r="AM253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -32100,6 +32861,9 @@
       <c r="AL254">
         <v>1</v>
       </c>
+      <c r="AM254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -32234,6 +32998,9 @@
       <c r="AL255">
         <v>13</v>
       </c>
+      <c r="AM255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -32368,6 +33135,9 @@
       <c r="AL256">
         <v>80</v>
       </c>
+      <c r="AM256">
+        <v>81</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -32502,6 +33272,9 @@
       <c r="AL257">
         <v>54</v>
       </c>
+      <c r="AM257">
+        <v>54</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -32636,6 +33409,9 @@
       <c r="AL258">
         <v>63</v>
       </c>
+      <c r="AM258">
+        <v>65</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -32770,6 +33546,9 @@
       <c r="AL259">
         <v>60</v>
       </c>
+      <c r="AM259">
+        <v>63</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -32904,6 +33683,9 @@
       <c r="AL260">
         <v>39</v>
       </c>
+      <c r="AM260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -33038,6 +33820,9 @@
       <c r="AL261">
         <v>93</v>
       </c>
+      <c r="AM261">
+        <v>94</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -33172,6 +33957,9 @@
       <c r="AL262">
         <v>51</v>
       </c>
+      <c r="AM262">
+        <v>51</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -33306,6 +34094,9 @@
       <c r="AL263">
         <v>59</v>
       </c>
+      <c r="AM263">
+        <v>59</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -33430,6 +34221,9 @@
       <c r="AL264">
         <v>9</v>
       </c>
+      <c r="AM264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -33554,6 +34348,9 @@
       <c r="AL265">
         <v>4</v>
       </c>
+      <c r="AM265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -33678,6 +34475,9 @@
       <c r="AL266">
         <v>4</v>
       </c>
+      <c r="AM266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -33802,6 +34602,9 @@
       <c r="AL267">
         <v>4</v>
       </c>
+      <c r="AM267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -33926,6 +34729,9 @@
       <c r="AL268">
         <v>6</v>
       </c>
+      <c r="AM268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -34050,6 +34856,9 @@
       <c r="AL269">
         <v>8</v>
       </c>
+      <c r="AM269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -34174,6 +34983,9 @@
       <c r="AL270">
         <v>0</v>
       </c>
+      <c r="AM270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -34298,6 +35110,9 @@
       <c r="AL271">
         <v>4</v>
       </c>
+      <c r="AM271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -34422,6 +35237,9 @@
       <c r="AL272">
         <v>0</v>
       </c>
+      <c r="AM272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -34546,6 +35364,9 @@
       <c r="AL273">
         <v>0</v>
       </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -34670,6 +35491,9 @@
       <c r="AL274">
         <v>2</v>
       </c>
+      <c r="AM274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -34794,6 +35618,9 @@
       <c r="AL275">
         <v>24</v>
       </c>
+      <c r="AM275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -34918,6 +35745,9 @@
       <c r="AL276">
         <v>9</v>
       </c>
+      <c r="AM276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -35042,6 +35872,9 @@
       <c r="AL277">
         <v>0</v>
       </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -35166,6 +35999,9 @@
       <c r="AL278">
         <v>17</v>
       </c>
+      <c r="AM278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -35290,6 +36126,9 @@
       <c r="AL279">
         <v>5</v>
       </c>
+      <c r="AM279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -35414,6 +36253,9 @@
       <c r="AL280">
         <v>53</v>
       </c>
+      <c r="AM280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -35538,6 +36380,9 @@
       <c r="AL281">
         <v>34</v>
       </c>
+      <c r="AM281">
+        <v>34</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -35662,6 +36507,9 @@
       <c r="AL282">
         <v>1</v>
       </c>
+      <c r="AM282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -35786,6 +36634,9 @@
       <c r="AL283">
         <v>0</v>
       </c>
+      <c r="AM283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -35910,6 +36761,9 @@
       <c r="AL284">
         <v>39</v>
       </c>
+      <c r="AM284">
+        <v>39</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -36034,6 +36888,9 @@
       <c r="AL285">
         <v>25</v>
       </c>
+      <c r="AM285">
+        <v>25</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -36158,6 +37015,9 @@
       <c r="AL286">
         <v>0</v>
       </c>
+      <c r="AM286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -36282,6 +37142,9 @@
       <c r="AL287">
         <v>0</v>
       </c>
+      <c r="AM287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -36406,6 +37269,9 @@
       <c r="AL288">
         <v>0</v>
       </c>
+      <c r="AM288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -36530,6 +37396,9 @@
       <c r="AL289">
         <v>1</v>
       </c>
+      <c r="AM289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -36654,6 +37523,9 @@
       <c r="AL290">
         <v>3</v>
       </c>
+      <c r="AM290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -36778,6 +37650,9 @@
       <c r="AL291">
         <v>0</v>
       </c>
+      <c r="AM291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -36902,6 +37777,9 @@
       <c r="AL292">
         <v>3</v>
       </c>
+      <c r="AM292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -37026,6 +37904,9 @@
       <c r="AL293">
         <v>0</v>
       </c>
+      <c r="AM293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -37150,6 +38031,9 @@
       <c r="AL294">
         <v>7</v>
       </c>
+      <c r="AM294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -37274,6 +38158,9 @@
       <c r="AL295">
         <v>0</v>
       </c>
+      <c r="AM295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -37398,6 +38285,9 @@
       <c r="AL296">
         <v>0</v>
       </c>
+      <c r="AM296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -37522,6 +38412,9 @@
       <c r="AL297">
         <v>1</v>
       </c>
+      <c r="AM297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -37646,6 +38539,9 @@
       <c r="AL298">
         <v>4</v>
       </c>
+      <c r="AM298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -37770,6 +38666,9 @@
       <c r="AL299">
         <v>0</v>
       </c>
+      <c r="AM299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -37894,6 +38793,9 @@
       <c r="AL300">
         <v>0</v>
       </c>
+      <c r="AM300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -38018,6 +38920,9 @@
       <c r="AL301">
         <v>17</v>
       </c>
+      <c r="AM301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -38142,6 +39047,9 @@
       <c r="AL302">
         <v>0</v>
       </c>
+      <c r="AM302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -38266,6 +39174,9 @@
       <c r="AL303">
         <v>0</v>
       </c>
+      <c r="AM303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -38390,6 +39301,9 @@
       <c r="AL304">
         <v>4</v>
       </c>
+      <c r="AM304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -38514,6 +39428,9 @@
       <c r="AL305">
         <v>12</v>
       </c>
+      <c r="AM305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -38638,6 +39555,9 @@
       <c r="AL306">
         <v>233</v>
       </c>
+      <c r="AM306">
+        <v>241</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -38762,6 +39682,9 @@
       <c r="AL307">
         <v>16</v>
       </c>
+      <c r="AM307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -38886,6 +39809,9 @@
       <c r="AL308">
         <v>5</v>
       </c>
+      <c r="AM308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -39010,6 +39936,9 @@
       <c r="AL309">
         <v>0</v>
       </c>
+      <c r="AM309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -39134,6 +40063,9 @@
       <c r="AL310">
         <v>0</v>
       </c>
+      <c r="AM310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -39258,6 +40190,9 @@
       <c r="AL311">
         <v>8</v>
       </c>
+      <c r="AM311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -39382,6 +40317,9 @@
       <c r="AL312">
         <v>5</v>
       </c>
+      <c r="AM312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -39506,6 +40444,9 @@
       <c r="AL313">
         <v>0</v>
       </c>
+      <c r="AM313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -39630,6 +40571,9 @@
       <c r="AL314">
         <v>1</v>
       </c>
+      <c r="AM314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -39754,6 +40698,9 @@
       <c r="AL315">
         <v>7</v>
       </c>
+      <c r="AM315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -39878,6 +40825,9 @@
       <c r="AL316">
         <v>3</v>
       </c>
+      <c r="AM316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -40002,6 +40952,9 @@
       <c r="AL317">
         <v>5</v>
       </c>
+      <c r="AM317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -40126,6 +41079,9 @@
       <c r="AL318">
         <v>11</v>
       </c>
+      <c r="AM318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -40250,6 +41206,9 @@
       <c r="AL319">
         <v>6</v>
       </c>
+      <c r="AM319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -40374,6 +41333,9 @@
       <c r="AL320">
         <v>0</v>
       </c>
+      <c r="AM320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -40498,6 +41460,9 @@
       <c r="AL321">
         <v>1</v>
       </c>
+      <c r="AM321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -40622,6 +41587,9 @@
       <c r="AL322">
         <v>8</v>
       </c>
+      <c r="AM322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -40746,6 +41714,9 @@
       <c r="AL323">
         <v>28</v>
       </c>
+      <c r="AM323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -40870,6 +41841,9 @@
       <c r="AL324">
         <v>21</v>
       </c>
+      <c r="AM324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -40994,6 +41968,9 @@
       <c r="AL325">
         <v>15</v>
       </c>
+      <c r="AM325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -41118,6 +42095,9 @@
       <c r="AL326">
         <v>0</v>
       </c>
+      <c r="AM326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -41242,6 +42222,9 @@
       <c r="AL327">
         <v>0</v>
       </c>
+      <c r="AM327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -41366,6 +42349,9 @@
       <c r="AL328">
         <v>0</v>
       </c>
+      <c r="AM328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -41490,6 +42476,9 @@
       <c r="AL329">
         <v>0</v>
       </c>
+      <c r="AM329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -41614,6 +42603,9 @@
       <c r="AL330">
         <v>3</v>
       </c>
+      <c r="AM330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -41738,6 +42730,9 @@
       <c r="AL331">
         <v>1</v>
       </c>
+      <c r="AM331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -41862,6 +42857,9 @@
       <c r="AL332">
         <v>4</v>
       </c>
+      <c r="AM332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -41986,6 +42984,9 @@
       <c r="AL333">
         <v>0</v>
       </c>
+      <c r="AM333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -42110,6 +43111,9 @@
       <c r="AL334">
         <v>0</v>
       </c>
+      <c r="AM334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -42234,6 +43238,9 @@
       <c r="AL335">
         <v>7</v>
       </c>
+      <c r="AM335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -42358,6 +43365,9 @@
       <c r="AL336">
         <v>2</v>
       </c>
+      <c r="AM336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -42482,6 +43492,9 @@
       <c r="AL337">
         <v>2</v>
       </c>
+      <c r="AM337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -42606,6 +43619,9 @@
       <c r="AL338">
         <v>2</v>
       </c>
+      <c r="AM338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -42730,6 +43746,9 @@
       <c r="AL339">
         <v>10</v>
       </c>
+      <c r="AM339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -42854,6 +43873,9 @@
       <c r="AL340">
         <v>1</v>
       </c>
+      <c r="AM340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -42978,6 +44000,9 @@
       <c r="AL341">
         <v>17</v>
       </c>
+      <c r="AM341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -43102,6 +44127,9 @@
       <c r="AL342">
         <v>0</v>
       </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -43226,6 +44254,9 @@
       <c r="AL343">
         <v>0</v>
       </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -43350,6 +44381,9 @@
       <c r="AL344">
         <v>146</v>
       </c>
+      <c r="AM344">
+        <v>149</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -43474,6 +44508,9 @@
       <c r="AL345">
         <v>6</v>
       </c>
+      <c r="AM345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -43598,6 +44635,9 @@
       <c r="AL346">
         <v>5</v>
       </c>
+      <c r="AM346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -43722,6 +44762,9 @@
       <c r="AL347">
         <v>1</v>
       </c>
+      <c r="AM347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -43846,6 +44889,9 @@
       <c r="AL348">
         <v>3</v>
       </c>
+      <c r="AM348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -43970,6 +45016,9 @@
       <c r="AL349">
         <v>15</v>
       </c>
+      <c r="AM349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -44094,6 +45143,9 @@
       <c r="AL350">
         <v>1</v>
       </c>
+      <c r="AM350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -44218,6 +45270,9 @@
       <c r="AL351">
         <v>1</v>
       </c>
+      <c r="AM351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -44342,6 +45397,9 @@
       <c r="AL352">
         <v>0</v>
       </c>
+      <c r="AM352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -44466,6 +45524,9 @@
       <c r="AL353">
         <v>0</v>
       </c>
+      <c r="AM353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -44590,6 +45651,9 @@
       <c r="AL354">
         <v>3</v>
       </c>
+      <c r="AM354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -44714,6 +45778,9 @@
       <c r="AL355">
         <v>1</v>
       </c>
+      <c r="AM355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -44838,6 +45905,9 @@
       <c r="AL356">
         <v>2</v>
       </c>
+      <c r="AM356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -44962,6 +46032,9 @@
       <c r="AL357">
         <v>0</v>
       </c>
+      <c r="AM357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -45086,6 +46159,9 @@
       <c r="AL358">
         <v>0</v>
       </c>
+      <c r="AM358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -45210,6 +46286,9 @@
       <c r="AL359">
         <v>0</v>
       </c>
+      <c r="AM359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -45334,6 +46413,9 @@
       <c r="AL360">
         <v>16</v>
       </c>
+      <c r="AM360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -45458,6 +46540,9 @@
       <c r="AL361">
         <v>2</v>
       </c>
+      <c r="AM361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -45582,6 +46667,9 @@
       <c r="AL362">
         <v>1</v>
       </c>
+      <c r="AM362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -45706,6 +46794,9 @@
       <c r="AL363">
         <v>2</v>
       </c>
+      <c r="AM363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -45830,6 +46921,9 @@
       <c r="AL364">
         <v>0</v>
       </c>
+      <c r="AM364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -45954,6 +47048,9 @@
       <c r="AL365">
         <v>0</v>
       </c>
+      <c r="AM365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -46078,6 +47175,9 @@
       <c r="AL366">
         <v>1</v>
       </c>
+      <c r="AM366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -46202,6 +47302,9 @@
       <c r="AL367">
         <v>2</v>
       </c>
+      <c r="AM367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -46326,6 +47429,9 @@
       <c r="AL368">
         <v>0</v>
       </c>
+      <c r="AM368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -46450,6 +47556,9 @@
       <c r="AL369">
         <v>1</v>
       </c>
+      <c r="AM369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -46574,6 +47683,9 @@
       <c r="AL370">
         <v>0</v>
       </c>
+      <c r="AM370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -46698,6 +47810,9 @@
       <c r="AL371">
         <v>0</v>
       </c>
+      <c r="AM371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -46822,6 +47937,9 @@
       <c r="AL372">
         <v>3</v>
       </c>
+      <c r="AM372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -46946,6 +48064,9 @@
       <c r="AL373">
         <v>2</v>
       </c>
+      <c r="AM373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -47070,6 +48191,9 @@
       <c r="AL374">
         <v>4</v>
       </c>
+      <c r="AM374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -47194,6 +48318,9 @@
       <c r="AL375">
         <v>1</v>
       </c>
+      <c r="AM375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -47318,6 +48445,9 @@
       <c r="AL376">
         <v>0</v>
       </c>
+      <c r="AM376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -47442,6 +48572,9 @@
       <c r="AL377">
         <v>0</v>
       </c>
+      <c r="AM377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -47566,6 +48699,9 @@
       <c r="AL378">
         <v>0</v>
       </c>
+      <c r="AM378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -47690,6 +48826,9 @@
       <c r="AL379">
         <v>1</v>
       </c>
+      <c r="AM379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -47814,6 +48953,9 @@
       <c r="AL380">
         <v>1</v>
       </c>
+      <c r="AM380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -47938,6 +49080,9 @@
       <c r="AL381">
         <v>0</v>
       </c>
+      <c r="AM381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -48062,6 +49207,9 @@
       <c r="AL382">
         <v>4</v>
       </c>
+      <c r="AM382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -48186,6 +49334,9 @@
       <c r="AL383">
         <v>0</v>
       </c>
+      <c r="AM383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -48309,6 +49460,9 @@
       </c>
       <c r="AL384">
         <v>2</v>
+      </c>
+      <c r="AM384">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM384"/>
+  <dimension ref="A1:AN384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +553,11 @@
           <t>2020-04-23</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -690,6 +695,9 @@
       <c r="AM2">
         <v>230</v>
       </c>
+      <c r="AN2">
+        <v>233</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -827,6 +835,9 @@
       <c r="AM3">
         <v>163</v>
       </c>
+      <c r="AN3">
+        <v>164</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -964,6 +975,9 @@
       <c r="AM4">
         <v>133</v>
       </c>
+      <c r="AN4">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1101,6 +1115,9 @@
       <c r="AM5">
         <v>93</v>
       </c>
+      <c r="AN5">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1238,6 +1255,9 @@
       <c r="AM6">
         <v>161</v>
       </c>
+      <c r="AN6">
+        <v>163</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1375,6 +1395,9 @@
       <c r="AM7">
         <v>108</v>
       </c>
+      <c r="AN7">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1512,6 +1535,9 @@
       <c r="AM8">
         <v>146</v>
       </c>
+      <c r="AN8">
+        <v>146</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1649,6 +1675,9 @@
       <c r="AM9">
         <v>129</v>
       </c>
+      <c r="AN9">
+        <v>130</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1786,6 +1815,9 @@
       <c r="AM10">
         <v>100</v>
       </c>
+      <c r="AN10">
+        <v>102</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1923,6 +1955,9 @@
       <c r="AM11">
         <v>97</v>
       </c>
+      <c r="AN11">
+        <v>97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2060,6 +2095,9 @@
       <c r="AM12">
         <v>181</v>
       </c>
+      <c r="AN12">
+        <v>181</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2197,6 +2235,9 @@
       <c r="AM13">
         <v>212</v>
       </c>
+      <c r="AN13">
+        <v>215</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2334,6 +2375,9 @@
       <c r="AM14">
         <v>165</v>
       </c>
+      <c r="AN14">
+        <v>167</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2471,6 +2515,9 @@
       <c r="AM15">
         <v>153</v>
       </c>
+      <c r="AN15">
+        <v>156</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2608,6 +2655,9 @@
       <c r="AM16">
         <v>128</v>
       </c>
+      <c r="AN16">
+        <v>129</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2745,6 +2795,9 @@
       <c r="AM17">
         <v>4</v>
       </c>
+      <c r="AN17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2882,6 +2935,9 @@
       <c r="AM18">
         <v>2</v>
       </c>
+      <c r="AN18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3019,6 +3075,9 @@
       <c r="AM19">
         <v>46</v>
       </c>
+      <c r="AN19">
+        <v>46</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3146,6 +3205,9 @@
       <c r="AM20">
         <v>14</v>
       </c>
+      <c r="AN20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3273,6 +3335,9 @@
       <c r="AM21">
         <v>132</v>
       </c>
+      <c r="AN21">
+        <v>132</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3400,6 +3465,9 @@
       <c r="AM22">
         <v>50</v>
       </c>
+      <c r="AN22">
+        <v>50</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3527,6 +3595,9 @@
       <c r="AM23">
         <v>46</v>
       </c>
+      <c r="AN23">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3654,6 +3725,9 @@
       <c r="AM24">
         <v>5</v>
       </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3781,6 +3855,9 @@
       <c r="AM25">
         <v>1</v>
       </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3908,6 +3985,9 @@
       <c r="AM26">
         <v>0</v>
       </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4035,6 +4115,9 @@
       <c r="AM27">
         <v>7</v>
       </c>
+      <c r="AN27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4162,6 +4245,9 @@
       <c r="AM28">
         <v>6</v>
       </c>
+      <c r="AN28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4289,6 +4375,9 @@
       <c r="AM29">
         <v>12</v>
       </c>
+      <c r="AN29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4416,6 +4505,9 @@
       <c r="AM30">
         <v>13</v>
       </c>
+      <c r="AN30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4543,6 +4635,9 @@
       <c r="AM31">
         <v>15</v>
       </c>
+      <c r="AN31">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4670,6 +4765,9 @@
       <c r="AM32">
         <v>11</v>
       </c>
+      <c r="AN32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4797,6 +4895,9 @@
       <c r="AM33">
         <v>13</v>
       </c>
+      <c r="AN33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4924,6 +5025,9 @@
       <c r="AM34">
         <v>0</v>
       </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5051,6 +5155,9 @@
       <c r="AM35">
         <v>0</v>
       </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5178,6 +5285,9 @@
       <c r="AM36">
         <v>3</v>
       </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5305,6 +5415,9 @@
       <c r="AM37">
         <v>0</v>
       </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5432,6 +5545,9 @@
       <c r="AM38">
         <v>1</v>
       </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5559,6 +5675,9 @@
       <c r="AM39">
         <v>20</v>
       </c>
+      <c r="AN39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5686,6 +5805,9 @@
       <c r="AM40">
         <v>37</v>
       </c>
+      <c r="AN40">
+        <v>37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5813,6 +5935,9 @@
       <c r="AM41">
         <v>0</v>
       </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5940,6 +6065,9 @@
       <c r="AM42">
         <v>11</v>
       </c>
+      <c r="AN42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6067,6 +6195,9 @@
       <c r="AM43">
         <v>18</v>
       </c>
+      <c r="AN43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6194,6 +6325,9 @@
       <c r="AM44">
         <v>14</v>
       </c>
+      <c r="AN44">
+        <v>14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6321,6 +6455,9 @@
       <c r="AM45">
         <v>26</v>
       </c>
+      <c r="AN45">
+        <v>26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6448,6 +6585,9 @@
       <c r="AM46">
         <v>1</v>
       </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6575,6 +6715,9 @@
       <c r="AM47">
         <v>3</v>
       </c>
+      <c r="AN47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6702,6 +6845,9 @@
       <c r="AM48">
         <v>3</v>
       </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6829,6 +6975,9 @@
       <c r="AM49">
         <v>8</v>
       </c>
+      <c r="AN49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6956,6 +7105,9 @@
       <c r="AM50">
         <v>2</v>
       </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7083,6 +7235,9 @@
       <c r="AM51">
         <v>6</v>
       </c>
+      <c r="AN51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7210,6 +7365,9 @@
       <c r="AM52">
         <v>0</v>
       </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7337,6 +7495,9 @@
       <c r="AM53">
         <v>1</v>
       </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7464,6 +7625,9 @@
       <c r="AM54">
         <v>6</v>
       </c>
+      <c r="AN54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7591,6 +7755,9 @@
       <c r="AM55">
         <v>5</v>
       </c>
+      <c r="AN55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7718,6 +7885,9 @@
       <c r="AM56">
         <v>0</v>
       </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7845,6 +8015,9 @@
       <c r="AM57">
         <v>10</v>
       </c>
+      <c r="AN57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7972,6 +8145,9 @@
       <c r="AM58">
         <v>0</v>
       </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8099,6 +8275,9 @@
       <c r="AM59">
         <v>0</v>
       </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8226,6 +8405,9 @@
       <c r="AM60">
         <v>0</v>
       </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8353,6 +8535,9 @@
       <c r="AM61">
         <v>1</v>
       </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8480,6 +8665,9 @@
       <c r="AM62">
         <v>2</v>
       </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8607,6 +8795,9 @@
       <c r="AM63">
         <v>2</v>
       </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8734,6 +8925,9 @@
       <c r="AM64">
         <v>0</v>
       </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8861,6 +9055,9 @@
       <c r="AM65">
         <v>3</v>
       </c>
+      <c r="AN65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8988,6 +9185,9 @@
       <c r="AM66">
         <v>4</v>
       </c>
+      <c r="AN66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9115,6 +9315,9 @@
       <c r="AM67">
         <v>1</v>
       </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9242,6 +9445,9 @@
       <c r="AM68">
         <v>3</v>
       </c>
+      <c r="AN68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9369,6 +9575,9 @@
       <c r="AM69">
         <v>38</v>
       </c>
+      <c r="AN69">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9496,6 +9705,9 @@
       <c r="AM70">
         <v>5</v>
       </c>
+      <c r="AN70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9623,6 +9835,9 @@
       <c r="AM71">
         <v>0</v>
       </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9750,6 +9965,9 @@
       <c r="AM72">
         <v>2</v>
       </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9877,6 +10095,9 @@
       <c r="AM73">
         <v>5</v>
       </c>
+      <c r="AN73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10004,6 +10225,9 @@
       <c r="AM74">
         <v>3</v>
       </c>
+      <c r="AN74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10131,6 +10355,9 @@
       <c r="AM75">
         <v>0</v>
       </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10258,6 +10485,9 @@
       <c r="AM76">
         <v>0</v>
       </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10385,6 +10615,9 @@
       <c r="AM77">
         <v>2</v>
       </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10512,6 +10745,9 @@
       <c r="AM78">
         <v>4</v>
       </c>
+      <c r="AN78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10639,6 +10875,9 @@
       <c r="AM79">
         <v>1</v>
       </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10766,6 +11005,9 @@
       <c r="AM80">
         <v>1</v>
       </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10893,6 +11135,9 @@
       <c r="AM81">
         <v>0</v>
       </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11020,6 +11265,9 @@
       <c r="AM82">
         <v>5</v>
       </c>
+      <c r="AN82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11147,6 +11395,9 @@
       <c r="AM83">
         <v>0</v>
       </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11274,6 +11525,9 @@
       <c r="AM84">
         <v>0</v>
       </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11401,6 +11655,9 @@
       <c r="AM85">
         <v>4</v>
       </c>
+      <c r="AN85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11528,6 +11785,9 @@
       <c r="AM86">
         <v>0</v>
       </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11655,6 +11915,9 @@
       <c r="AM87">
         <v>0</v>
       </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11782,6 +12045,9 @@
       <c r="AM88">
         <v>0</v>
       </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11909,6 +12175,9 @@
       <c r="AM89">
         <v>5</v>
       </c>
+      <c r="AN89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12036,6 +12305,9 @@
       <c r="AM90">
         <v>0</v>
       </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12163,6 +12435,9 @@
       <c r="AM91">
         <v>0</v>
       </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12290,6 +12565,9 @@
       <c r="AM92">
         <v>0</v>
       </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12417,6 +12695,9 @@
       <c r="AM93">
         <v>1</v>
       </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12544,6 +12825,9 @@
       <c r="AM94">
         <v>0</v>
       </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12671,6 +12955,9 @@
       <c r="AM95">
         <v>1</v>
       </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12798,6 +13085,9 @@
       <c r="AM96">
         <v>0</v>
       </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12925,6 +13215,9 @@
       <c r="AM97">
         <v>0</v>
       </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13052,6 +13345,9 @@
       <c r="AM98">
         <v>0</v>
       </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13179,6 +13475,9 @@
       <c r="AM99">
         <v>0</v>
       </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13306,6 +13605,9 @@
       <c r="AM100">
         <v>5</v>
       </c>
+      <c r="AN100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13433,6 +13735,9 @@
       <c r="AM101">
         <v>13</v>
       </c>
+      <c r="AN101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13560,6 +13865,9 @@
       <c r="AM102">
         <v>3</v>
       </c>
+      <c r="AN102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13687,6 +13995,9 @@
       <c r="AM103">
         <v>5</v>
       </c>
+      <c r="AN103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13814,6 +14125,9 @@
       <c r="AM104">
         <v>0</v>
       </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13941,6 +14255,9 @@
       <c r="AM105">
         <v>0</v>
       </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14068,6 +14385,9 @@
       <c r="AM106">
         <v>6</v>
       </c>
+      <c r="AN106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14195,6 +14515,9 @@
       <c r="AM107">
         <v>0</v>
       </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14322,6 +14645,9 @@
       <c r="AM108">
         <v>1</v>
       </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14449,6 +14775,9 @@
       <c r="AM109">
         <v>0</v>
       </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14576,6 +14905,9 @@
       <c r="AM110">
         <v>33</v>
       </c>
+      <c r="AN110">
+        <v>33</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14703,6 +15035,9 @@
       <c r="AM111">
         <v>95</v>
       </c>
+      <c r="AN111">
+        <v>95</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14830,6 +15165,9 @@
       <c r="AM112">
         <v>56</v>
       </c>
+      <c r="AN112">
+        <v>58</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14957,6 +15295,9 @@
       <c r="AM113">
         <v>85</v>
       </c>
+      <c r="AN113">
+        <v>86</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15084,6 +15425,9 @@
       <c r="AM114">
         <v>170</v>
       </c>
+      <c r="AN114">
+        <v>171</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15211,6 +15555,9 @@
       <c r="AM115">
         <v>21</v>
       </c>
+      <c r="AN115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15338,6 +15685,9 @@
       <c r="AM116">
         <v>10</v>
       </c>
+      <c r="AN116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15465,6 +15815,9 @@
       <c r="AM117">
         <v>2</v>
       </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15592,6 +15945,9 @@
       <c r="AM118">
         <v>2</v>
       </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15719,6 +16075,9 @@
       <c r="AM119">
         <v>3</v>
       </c>
+      <c r="AN119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15846,6 +16205,9 @@
       <c r="AM120">
         <v>47</v>
       </c>
+      <c r="AN120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15973,6 +16335,9 @@
       <c r="AM121">
         <v>2</v>
       </c>
+      <c r="AN121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16100,6 +16465,9 @@
       <c r="AM122">
         <v>1</v>
       </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16227,6 +16595,9 @@
       <c r="AM123">
         <v>2</v>
       </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16354,6 +16725,9 @@
       <c r="AM124">
         <v>6</v>
       </c>
+      <c r="AN124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16481,6 +16855,9 @@
       <c r="AM125">
         <v>22</v>
       </c>
+      <c r="AN125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16608,6 +16985,9 @@
       <c r="AM126">
         <v>98</v>
       </c>
+      <c r="AN126">
+        <v>98</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16735,6 +17115,9 @@
       <c r="AM127">
         <v>18</v>
       </c>
+      <c r="AN127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16862,6 +17245,9 @@
       <c r="AM128">
         <v>20</v>
       </c>
+      <c r="AN128">
+        <v>20</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16989,6 +17375,9 @@
       <c r="AM129">
         <v>46</v>
       </c>
+      <c r="AN129">
+        <v>46</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17116,6 +17505,9 @@
       <c r="AM130">
         <v>403</v>
       </c>
+      <c r="AN130">
+        <v>405</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17243,6 +17635,9 @@
       <c r="AM131">
         <v>173</v>
       </c>
+      <c r="AN131">
+        <v>173</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17370,6 +17765,9 @@
       <c r="AM132">
         <v>8</v>
       </c>
+      <c r="AN132">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17497,6 +17895,9 @@
       <c r="AM133">
         <v>25</v>
       </c>
+      <c r="AN133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17624,6 +18025,9 @@
       <c r="AM134">
         <v>48</v>
       </c>
+      <c r="AN134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17751,6 +18155,9 @@
       <c r="AM135">
         <v>86</v>
       </c>
+      <c r="AN135">
+        <v>87</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17878,6 +18285,9 @@
       <c r="AM136">
         <v>150</v>
       </c>
+      <c r="AN136">
+        <v>152</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18005,6 +18415,9 @@
       <c r="AM137">
         <v>45</v>
       </c>
+      <c r="AN137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18132,6 +18545,9 @@
       <c r="AM138">
         <v>8</v>
       </c>
+      <c r="AN138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18259,6 +18675,9 @@
       <c r="AM139">
         <v>58</v>
       </c>
+      <c r="AN139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18386,6 +18805,9 @@
       <c r="AM140">
         <v>14</v>
       </c>
+      <c r="AN140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18513,6 +18935,9 @@
       <c r="AM141">
         <v>39</v>
       </c>
+      <c r="AN141">
+        <v>39</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -18640,6 +19065,9 @@
       <c r="AM142">
         <v>17</v>
       </c>
+      <c r="AN142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18767,6 +19195,9 @@
       <c r="AM143">
         <v>2</v>
       </c>
+      <c r="AN143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -18894,6 +19325,9 @@
       <c r="AM144">
         <v>10</v>
       </c>
+      <c r="AN144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -19021,6 +19455,9 @@
       <c r="AM145">
         <v>1</v>
       </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -19148,6 +19585,9 @@
       <c r="AM146">
         <v>7</v>
       </c>
+      <c r="AN146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -19275,6 +19715,9 @@
       <c r="AM147">
         <v>10</v>
       </c>
+      <c r="AN147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19402,6 +19845,9 @@
       <c r="AM148">
         <v>8</v>
       </c>
+      <c r="AN148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19529,6 +19975,9 @@
       <c r="AM149">
         <v>13</v>
       </c>
+      <c r="AN149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -19656,6 +20105,9 @@
       <c r="AM150">
         <v>44</v>
       </c>
+      <c r="AN150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -19783,6 +20235,9 @@
       <c r="AM151">
         <v>0</v>
       </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -19910,6 +20365,9 @@
       <c r="AM152">
         <v>0</v>
       </c>
+      <c r="AN152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -20037,6 +20495,9 @@
       <c r="AM153">
         <v>10</v>
       </c>
+      <c r="AN153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -20164,6 +20625,9 @@
       <c r="AM154">
         <v>5</v>
       </c>
+      <c r="AN154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -20291,6 +20755,9 @@
       <c r="AM155">
         <v>39</v>
       </c>
+      <c r="AN155">
+        <v>41</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -20418,6 +20885,9 @@
       <c r="AM156">
         <v>4</v>
       </c>
+      <c r="AN156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -20545,6 +21015,9 @@
       <c r="AM157">
         <v>1</v>
       </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -20672,6 +21145,9 @@
       <c r="AM158">
         <v>3</v>
       </c>
+      <c r="AN158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -20799,6 +21275,9 @@
       <c r="AM159">
         <v>6</v>
       </c>
+      <c r="AN159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -20926,6 +21405,9 @@
       <c r="AM160">
         <v>11</v>
       </c>
+      <c r="AN160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -21053,6 +21535,9 @@
       <c r="AM161">
         <v>1</v>
       </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -21180,6 +21665,9 @@
       <c r="AM162">
         <v>81</v>
       </c>
+      <c r="AN162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -21307,6 +21795,9 @@
       <c r="AM163">
         <v>37</v>
       </c>
+      <c r="AN163">
+        <v>38</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -21434,6 +21925,9 @@
       <c r="AM164">
         <v>20</v>
       </c>
+      <c r="AN164">
+        <v>20</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -21561,6 +22055,9 @@
       <c r="AM165">
         <v>61</v>
       </c>
+      <c r="AN165">
+        <v>61</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -21688,6 +22185,9 @@
       <c r="AM166">
         <v>11</v>
       </c>
+      <c r="AN166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -21815,6 +22315,9 @@
       <c r="AM167">
         <v>33</v>
       </c>
+      <c r="AN167">
+        <v>34</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -21942,6 +22445,9 @@
       <c r="AM168">
         <v>0</v>
       </c>
+      <c r="AN168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -22069,6 +22575,9 @@
       <c r="AM169">
         <v>19</v>
       </c>
+      <c r="AN169">
+        <v>19</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -22196,6 +22705,9 @@
       <c r="AM170">
         <v>4</v>
       </c>
+      <c r="AN170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -22323,6 +22835,9 @@
       <c r="AM171">
         <v>5</v>
       </c>
+      <c r="AN171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -22450,6 +22965,9 @@
       <c r="AM172">
         <v>3</v>
       </c>
+      <c r="AN172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -22577,6 +23095,9 @@
       <c r="AM173">
         <v>3</v>
       </c>
+      <c r="AN173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -22704,6 +23225,9 @@
       <c r="AM174">
         <v>13</v>
       </c>
+      <c r="AN174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -22831,6 +23355,9 @@
       <c r="AM175">
         <v>2</v>
       </c>
+      <c r="AN175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -22958,6 +23485,9 @@
       <c r="AM176">
         <v>4</v>
       </c>
+      <c r="AN176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -23085,6 +23615,9 @@
       <c r="AM177">
         <v>0</v>
       </c>
+      <c r="AN177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -23212,6 +23745,9 @@
       <c r="AM178">
         <v>0</v>
       </c>
+      <c r="AN178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -23339,6 +23875,9 @@
       <c r="AM179">
         <v>2</v>
       </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -23466,6 +24005,9 @@
       <c r="AM180">
         <v>0</v>
       </c>
+      <c r="AN180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -23593,6 +24135,9 @@
       <c r="AM181">
         <v>0</v>
       </c>
+      <c r="AN181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -23720,6 +24265,9 @@
       <c r="AM182">
         <v>1</v>
       </c>
+      <c r="AN182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -23847,6 +24395,9 @@
       <c r="AM183">
         <v>0</v>
       </c>
+      <c r="AN183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -23974,6 +24525,9 @@
       <c r="AM184">
         <v>1</v>
       </c>
+      <c r="AN184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -24101,6 +24655,9 @@
       <c r="AM185">
         <v>5</v>
       </c>
+      <c r="AN185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -24228,6 +24785,9 @@
       <c r="AM186">
         <v>2</v>
       </c>
+      <c r="AN186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -24355,6 +24915,9 @@
       <c r="AM187">
         <v>1</v>
       </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -24482,6 +25045,9 @@
       <c r="AM188">
         <v>3</v>
       </c>
+      <c r="AN188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -24609,6 +25175,9 @@
       <c r="AM189">
         <v>2</v>
       </c>
+      <c r="AN189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -24736,6 +25305,9 @@
       <c r="AM190">
         <v>13</v>
       </c>
+      <c r="AN190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -24863,6 +25435,9 @@
       <c r="AM191">
         <v>36</v>
       </c>
+      <c r="AN191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -24990,6 +25565,9 @@
       <c r="AM192">
         <v>1</v>
       </c>
+      <c r="AN192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -25117,6 +25695,9 @@
       <c r="AM193">
         <v>8</v>
       </c>
+      <c r="AN193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -25244,6 +25825,9 @@
       <c r="AM194">
         <v>2</v>
       </c>
+      <c r="AN194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -25371,6 +25955,9 @@
       <c r="AM195">
         <v>6</v>
       </c>
+      <c r="AN195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -25498,6 +26085,9 @@
       <c r="AM196">
         <v>4</v>
       </c>
+      <c r="AN196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -25625,6 +26215,9 @@
       <c r="AM197">
         <v>12</v>
       </c>
+      <c r="AN197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -25752,6 +26345,9 @@
       <c r="AM198">
         <v>10</v>
       </c>
+      <c r="AN198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -25879,6 +26475,9 @@
       <c r="AM199">
         <v>2</v>
       </c>
+      <c r="AN199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -26006,6 +26605,9 @@
       <c r="AM200">
         <v>1</v>
       </c>
+      <c r="AN200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -26133,6 +26735,9 @@
       <c r="AM201">
         <v>0</v>
       </c>
+      <c r="AN201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -26260,6 +26865,9 @@
       <c r="AM202">
         <v>1</v>
       </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -26387,6 +26995,9 @@
       <c r="AM203">
         <v>9</v>
       </c>
+      <c r="AN203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -26514,6 +27125,9 @@
       <c r="AM204">
         <v>0</v>
       </c>
+      <c r="AN204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -26641,6 +27255,9 @@
       <c r="AM205">
         <v>0</v>
       </c>
+      <c r="AN205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -26768,6 +27385,9 @@
       <c r="AM206">
         <v>0</v>
       </c>
+      <c r="AN206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -26895,6 +27515,9 @@
       <c r="AM207">
         <v>25</v>
       </c>
+      <c r="AN207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -27022,6 +27645,9 @@
       <c r="AM208">
         <v>19</v>
       </c>
+      <c r="AN208">
+        <v>19</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -27149,6 +27775,9 @@
       <c r="AM209">
         <v>57</v>
       </c>
+      <c r="AN209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -27276,6 +27905,9 @@
       <c r="AM210">
         <v>38</v>
       </c>
+      <c r="AN210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -27403,6 +28035,9 @@
       <c r="AM211">
         <v>36</v>
       </c>
+      <c r="AN211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -27530,6 +28165,9 @@
       <c r="AM212">
         <v>10</v>
       </c>
+      <c r="AN212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -27657,6 +28295,9 @@
       <c r="AM213">
         <v>39</v>
       </c>
+      <c r="AN213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -27784,6 +28425,9 @@
       <c r="AM214">
         <v>4</v>
       </c>
+      <c r="AN214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -27911,6 +28555,9 @@
       <c r="AM215">
         <v>21</v>
       </c>
+      <c r="AN215">
+        <v>22</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -28038,6 +28685,9 @@
       <c r="AM216">
         <v>2</v>
       </c>
+      <c r="AN216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -28165,6 +28815,9 @@
       <c r="AM217">
         <v>5</v>
       </c>
+      <c r="AN217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -28292,6 +28945,9 @@
       <c r="AM218">
         <v>2</v>
       </c>
+      <c r="AN218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -28419,6 +29075,9 @@
       <c r="AM219">
         <v>1</v>
       </c>
+      <c r="AN219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -28546,6 +29205,9 @@
       <c r="AM220">
         <v>3</v>
       </c>
+      <c r="AN220">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -28673,6 +29335,9 @@
       <c r="AM221">
         <v>0</v>
       </c>
+      <c r="AN221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -28800,6 +29465,9 @@
       <c r="AM222">
         <v>1</v>
       </c>
+      <c r="AN222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -28927,6 +29595,9 @@
       <c r="AM223">
         <v>0</v>
       </c>
+      <c r="AN223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -29054,6 +29725,9 @@
       <c r="AM224">
         <v>0</v>
       </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -29181,6 +29855,9 @@
       <c r="AM225">
         <v>0</v>
       </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -29308,6 +29985,9 @@
       <c r="AM226">
         <v>0</v>
       </c>
+      <c r="AN226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -29435,6 +30115,9 @@
       <c r="AM227">
         <v>0</v>
       </c>
+      <c r="AN227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -29562,6 +30245,9 @@
       <c r="AM228">
         <v>0</v>
       </c>
+      <c r="AN228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -29689,6 +30375,9 @@
       <c r="AM229">
         <v>2</v>
       </c>
+      <c r="AN229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -29816,6 +30505,9 @@
       <c r="AM230">
         <v>0</v>
       </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -29943,6 +30635,9 @@
       <c r="AM231">
         <v>2</v>
       </c>
+      <c r="AN231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -30070,6 +30765,9 @@
       <c r="AM232">
         <v>30</v>
       </c>
+      <c r="AN232">
+        <v>30</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -30197,6 +30895,9 @@
       <c r="AM233">
         <v>209</v>
       </c>
+      <c r="AN233">
+        <v>211</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -30324,6 +31025,9 @@
       <c r="AM234">
         <v>9</v>
       </c>
+      <c r="AN234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -30451,6 +31155,9 @@
       <c r="AM235">
         <v>11</v>
       </c>
+      <c r="AN235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -30578,6 +31285,9 @@
       <c r="AM236">
         <v>0</v>
       </c>
+      <c r="AN236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -30705,6 +31415,9 @@
       <c r="AM237">
         <v>2</v>
       </c>
+      <c r="AN237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -30832,6 +31545,9 @@
       <c r="AM238">
         <v>0</v>
       </c>
+      <c r="AN238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -30959,6 +31675,9 @@
       <c r="AM239">
         <v>1</v>
       </c>
+      <c r="AN239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -31086,6 +31805,9 @@
       <c r="AM240">
         <v>2</v>
       </c>
+      <c r="AN240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -31213,6 +31935,9 @@
       <c r="AM241">
         <v>8</v>
       </c>
+      <c r="AN241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -31340,6 +32065,9 @@
       <c r="AM242">
         <v>3</v>
       </c>
+      <c r="AN242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -31467,6 +32195,9 @@
       <c r="AM243">
         <v>1</v>
       </c>
+      <c r="AN243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -31594,6 +32325,9 @@
       <c r="AM244">
         <v>2</v>
       </c>
+      <c r="AN244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -31721,6 +32455,9 @@
       <c r="AM245">
         <v>2</v>
       </c>
+      <c r="AN245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -31848,6 +32585,9 @@
       <c r="AM246">
         <v>2</v>
       </c>
+      <c r="AN246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -31975,6 +32715,9 @@
       <c r="AM247">
         <v>0</v>
       </c>
+      <c r="AN247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -32102,6 +32845,9 @@
       <c r="AM248">
         <v>3</v>
       </c>
+      <c r="AN248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -32229,6 +32975,9 @@
       <c r="AM249">
         <v>18</v>
       </c>
+      <c r="AN249">
+        <v>20</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -32356,6 +33105,9 @@
       <c r="AM250">
         <v>0</v>
       </c>
+      <c r="AN250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -32483,6 +33235,9 @@
       <c r="AM251">
         <v>4</v>
       </c>
+      <c r="AN251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -32610,6 +33365,9 @@
       <c r="AM252">
         <v>1</v>
       </c>
+      <c r="AN252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -32737,6 +33495,9 @@
       <c r="AM253">
         <v>1</v>
       </c>
+      <c r="AN253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -32864,6 +33625,9 @@
       <c r="AM254">
         <v>1</v>
       </c>
+      <c r="AN254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -33001,6 +33765,9 @@
       <c r="AM255">
         <v>13</v>
       </c>
+      <c r="AN255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -33138,6 +33905,9 @@
       <c r="AM256">
         <v>81</v>
       </c>
+      <c r="AN256">
+        <v>81</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -33275,6 +34045,9 @@
       <c r="AM257">
         <v>54</v>
       </c>
+      <c r="AN257">
+        <v>55</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -33412,6 +34185,9 @@
       <c r="AM258">
         <v>65</v>
       </c>
+      <c r="AN258">
+        <v>66</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -33549,6 +34325,9 @@
       <c r="AM259">
         <v>63</v>
       </c>
+      <c r="AN259">
+        <v>64</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -33686,6 +34465,9 @@
       <c r="AM260">
         <v>39</v>
       </c>
+      <c r="AN260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -33823,6 +34605,9 @@
       <c r="AM261">
         <v>94</v>
       </c>
+      <c r="AN261">
+        <v>97</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -33960,6 +34745,9 @@
       <c r="AM262">
         <v>51</v>
       </c>
+      <c r="AN262">
+        <v>52</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -34097,6 +34885,9 @@
       <c r="AM263">
         <v>59</v>
       </c>
+      <c r="AN263">
+        <v>59</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -34224,6 +35015,9 @@
       <c r="AM264">
         <v>9</v>
       </c>
+      <c r="AN264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -34351,6 +35145,9 @@
       <c r="AM265">
         <v>4</v>
       </c>
+      <c r="AN265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -34478,6 +35275,9 @@
       <c r="AM266">
         <v>4</v>
       </c>
+      <c r="AN266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -34605,6 +35405,9 @@
       <c r="AM267">
         <v>4</v>
       </c>
+      <c r="AN267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -34732,6 +35535,9 @@
       <c r="AM268">
         <v>6</v>
       </c>
+      <c r="AN268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -34859,6 +35665,9 @@
       <c r="AM269">
         <v>8</v>
       </c>
+      <c r="AN269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -34986,6 +35795,9 @@
       <c r="AM270">
         <v>0</v>
       </c>
+      <c r="AN270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -35113,6 +35925,9 @@
       <c r="AM271">
         <v>4</v>
       </c>
+      <c r="AN271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -35240,6 +36055,9 @@
       <c r="AM272">
         <v>0</v>
       </c>
+      <c r="AN272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -35367,6 +36185,9 @@
       <c r="AM273">
         <v>0</v>
       </c>
+      <c r="AN273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -35494,6 +36315,9 @@
       <c r="AM274">
         <v>2</v>
       </c>
+      <c r="AN274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -35621,6 +36445,9 @@
       <c r="AM275">
         <v>24</v>
       </c>
+      <c r="AN275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -35748,6 +36575,9 @@
       <c r="AM276">
         <v>9</v>
       </c>
+      <c r="AN276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -35875,6 +36705,9 @@
       <c r="AM277">
         <v>0</v>
       </c>
+      <c r="AN277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -36002,6 +36835,9 @@
       <c r="AM278">
         <v>17</v>
       </c>
+      <c r="AN278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -36129,6 +36965,9 @@
       <c r="AM279">
         <v>5</v>
       </c>
+      <c r="AN279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -36256,6 +37095,9 @@
       <c r="AM280">
         <v>53</v>
       </c>
+      <c r="AN280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -36383,6 +37225,9 @@
       <c r="AM281">
         <v>34</v>
       </c>
+      <c r="AN281">
+        <v>35</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -36510,6 +37355,9 @@
       <c r="AM282">
         <v>1</v>
       </c>
+      <c r="AN282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -36637,6 +37485,9 @@
       <c r="AM283">
         <v>0</v>
       </c>
+      <c r="AN283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -36764,6 +37615,9 @@
       <c r="AM284">
         <v>39</v>
       </c>
+      <c r="AN284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -36891,6 +37745,9 @@
       <c r="AM285">
         <v>25</v>
       </c>
+      <c r="AN285">
+        <v>26</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -37018,6 +37875,9 @@
       <c r="AM286">
         <v>0</v>
       </c>
+      <c r="AN286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -37145,6 +38005,9 @@
       <c r="AM287">
         <v>0</v>
       </c>
+      <c r="AN287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -37272,6 +38135,9 @@
       <c r="AM288">
         <v>0</v>
       </c>
+      <c r="AN288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -37399,6 +38265,9 @@
       <c r="AM289">
         <v>1</v>
       </c>
+      <c r="AN289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -37526,6 +38395,9 @@
       <c r="AM290">
         <v>3</v>
       </c>
+      <c r="AN290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -37653,6 +38525,9 @@
       <c r="AM291">
         <v>0</v>
       </c>
+      <c r="AN291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -37780,6 +38655,9 @@
       <c r="AM292">
         <v>3</v>
       </c>
+      <c r="AN292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -37907,6 +38785,9 @@
       <c r="AM293">
         <v>0</v>
       </c>
+      <c r="AN293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -38034,6 +38915,9 @@
       <c r="AM294">
         <v>7</v>
       </c>
+      <c r="AN294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -38161,6 +39045,9 @@
       <c r="AM295">
         <v>0</v>
       </c>
+      <c r="AN295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -38288,6 +39175,9 @@
       <c r="AM296">
         <v>0</v>
       </c>
+      <c r="AN296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -38415,6 +39305,9 @@
       <c r="AM297">
         <v>1</v>
       </c>
+      <c r="AN297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -38542,6 +39435,9 @@
       <c r="AM298">
         <v>4</v>
       </c>
+      <c r="AN298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -38669,6 +39565,9 @@
       <c r="AM299">
         <v>0</v>
       </c>
+      <c r="AN299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -38796,6 +39695,9 @@
       <c r="AM300">
         <v>0</v>
       </c>
+      <c r="AN300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -38923,6 +39825,9 @@
       <c r="AM301">
         <v>17</v>
       </c>
+      <c r="AN301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -39050,6 +39955,9 @@
       <c r="AM302">
         <v>0</v>
       </c>
+      <c r="AN302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -39177,6 +40085,9 @@
       <c r="AM303">
         <v>0</v>
       </c>
+      <c r="AN303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -39304,6 +40215,9 @@
       <c r="AM304">
         <v>4</v>
       </c>
+      <c r="AN304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -39431,6 +40345,9 @@
       <c r="AM305">
         <v>12</v>
       </c>
+      <c r="AN305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -39558,6 +40475,9 @@
       <c r="AM306">
         <v>241</v>
       </c>
+      <c r="AN306">
+        <v>244</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -39685,6 +40605,9 @@
       <c r="AM307">
         <v>16</v>
       </c>
+      <c r="AN307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -39812,6 +40735,9 @@
       <c r="AM308">
         <v>5</v>
       </c>
+      <c r="AN308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -39939,6 +40865,9 @@
       <c r="AM309">
         <v>0</v>
       </c>
+      <c r="AN309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -40066,6 +40995,9 @@
       <c r="AM310">
         <v>0</v>
       </c>
+      <c r="AN310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -40193,6 +41125,9 @@
       <c r="AM311">
         <v>8</v>
       </c>
+      <c r="AN311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -40320,6 +41255,9 @@
       <c r="AM312">
         <v>5</v>
       </c>
+      <c r="AN312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -40447,6 +41385,9 @@
       <c r="AM313">
         <v>0</v>
       </c>
+      <c r="AN313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -40574,6 +41515,9 @@
       <c r="AM314">
         <v>1</v>
       </c>
+      <c r="AN314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -40701,6 +41645,9 @@
       <c r="AM315">
         <v>7</v>
       </c>
+      <c r="AN315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -40828,6 +41775,9 @@
       <c r="AM316">
         <v>3</v>
       </c>
+      <c r="AN316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -40955,6 +41905,9 @@
       <c r="AM317">
         <v>5</v>
       </c>
+      <c r="AN317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -41082,6 +42035,9 @@
       <c r="AM318">
         <v>11</v>
       </c>
+      <c r="AN318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -41209,6 +42165,9 @@
       <c r="AM319">
         <v>6</v>
       </c>
+      <c r="AN319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -41336,6 +42295,9 @@
       <c r="AM320">
         <v>0</v>
       </c>
+      <c r="AN320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -41463,6 +42425,9 @@
       <c r="AM321">
         <v>1</v>
       </c>
+      <c r="AN321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -41590,6 +42555,9 @@
       <c r="AM322">
         <v>8</v>
       </c>
+      <c r="AN322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -41717,6 +42685,9 @@
       <c r="AM323">
         <v>28</v>
       </c>
+      <c r="AN323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -41844,6 +42815,9 @@
       <c r="AM324">
         <v>21</v>
       </c>
+      <c r="AN324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -41971,6 +42945,9 @@
       <c r="AM325">
         <v>15</v>
       </c>
+      <c r="AN325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -42098,6 +43075,9 @@
       <c r="AM326">
         <v>0</v>
       </c>
+      <c r="AN326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -42225,6 +43205,9 @@
       <c r="AM327">
         <v>0</v>
       </c>
+      <c r="AN327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -42352,6 +43335,9 @@
       <c r="AM328">
         <v>0</v>
       </c>
+      <c r="AN328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -42479,6 +43465,9 @@
       <c r="AM329">
         <v>0</v>
       </c>
+      <c r="AN329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -42606,6 +43595,9 @@
       <c r="AM330">
         <v>3</v>
       </c>
+      <c r="AN330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -42733,6 +43725,9 @@
       <c r="AM331">
         <v>1</v>
       </c>
+      <c r="AN331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -42860,6 +43855,9 @@
       <c r="AM332">
         <v>4</v>
       </c>
+      <c r="AN332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -42987,6 +43985,9 @@
       <c r="AM333">
         <v>0</v>
       </c>
+      <c r="AN333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -43114,6 +44115,9 @@
       <c r="AM334">
         <v>0</v>
       </c>
+      <c r="AN334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -43241,6 +44245,9 @@
       <c r="AM335">
         <v>7</v>
       </c>
+      <c r="AN335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -43368,6 +44375,9 @@
       <c r="AM336">
         <v>2</v>
       </c>
+      <c r="AN336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -43495,6 +44505,9 @@
       <c r="AM337">
         <v>2</v>
       </c>
+      <c r="AN337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -43622,6 +44635,9 @@
       <c r="AM338">
         <v>2</v>
       </c>
+      <c r="AN338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -43749,6 +44765,9 @@
       <c r="AM339">
         <v>10</v>
       </c>
+      <c r="AN339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -43876,6 +44895,9 @@
       <c r="AM340">
         <v>1</v>
       </c>
+      <c r="AN340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -44003,6 +45025,9 @@
       <c r="AM341">
         <v>17</v>
       </c>
+      <c r="AN341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -44130,6 +45155,9 @@
       <c r="AM342">
         <v>0</v>
       </c>
+      <c r="AN342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -44257,6 +45285,9 @@
       <c r="AM343">
         <v>0</v>
       </c>
+      <c r="AN343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -44384,6 +45415,9 @@
       <c r="AM344">
         <v>149</v>
       </c>
+      <c r="AN344">
+        <v>149</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -44511,6 +45545,9 @@
       <c r="AM345">
         <v>6</v>
       </c>
+      <c r="AN345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -44638,6 +45675,9 @@
       <c r="AM346">
         <v>5</v>
       </c>
+      <c r="AN346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -44765,6 +45805,9 @@
       <c r="AM347">
         <v>1</v>
       </c>
+      <c r="AN347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -44892,6 +45935,9 @@
       <c r="AM348">
         <v>3</v>
       </c>
+      <c r="AN348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -45019,6 +46065,9 @@
       <c r="AM349">
         <v>15</v>
       </c>
+      <c r="AN349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -45146,6 +46195,9 @@
       <c r="AM350">
         <v>1</v>
       </c>
+      <c r="AN350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -45273,6 +46325,9 @@
       <c r="AM351">
         <v>1</v>
       </c>
+      <c r="AN351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -45400,6 +46455,9 @@
       <c r="AM352">
         <v>0</v>
       </c>
+      <c r="AN352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -45527,6 +46585,9 @@
       <c r="AM353">
         <v>0</v>
       </c>
+      <c r="AN353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -45654,6 +46715,9 @@
       <c r="AM354">
         <v>3</v>
       </c>
+      <c r="AN354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -45781,6 +46845,9 @@
       <c r="AM355">
         <v>1</v>
       </c>
+      <c r="AN355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -45908,6 +46975,9 @@
       <c r="AM356">
         <v>2</v>
       </c>
+      <c r="AN356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -46035,6 +47105,9 @@
       <c r="AM357">
         <v>0</v>
       </c>
+      <c r="AN357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -46162,6 +47235,9 @@
       <c r="AM358">
         <v>0</v>
       </c>
+      <c r="AN358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -46289,6 +47365,9 @@
       <c r="AM359">
         <v>0</v>
       </c>
+      <c r="AN359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -46416,6 +47495,9 @@
       <c r="AM360">
         <v>16</v>
       </c>
+      <c r="AN360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -46543,6 +47625,9 @@
       <c r="AM361">
         <v>2</v>
       </c>
+      <c r="AN361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -46670,6 +47755,9 @@
       <c r="AM362">
         <v>1</v>
       </c>
+      <c r="AN362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -46797,6 +47885,9 @@
       <c r="AM363">
         <v>2</v>
       </c>
+      <c r="AN363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -46924,6 +48015,9 @@
       <c r="AM364">
         <v>0</v>
       </c>
+      <c r="AN364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -47051,6 +48145,9 @@
       <c r="AM365">
         <v>0</v>
       </c>
+      <c r="AN365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -47178,6 +48275,9 @@
       <c r="AM366">
         <v>1</v>
       </c>
+      <c r="AN366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -47305,6 +48405,9 @@
       <c r="AM367">
         <v>2</v>
       </c>
+      <c r="AN367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -47432,6 +48535,9 @@
       <c r="AM368">
         <v>0</v>
       </c>
+      <c r="AN368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -47559,6 +48665,9 @@
       <c r="AM369">
         <v>1</v>
       </c>
+      <c r="AN369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -47686,6 +48795,9 @@
       <c r="AM370">
         <v>0</v>
       </c>
+      <c r="AN370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -47813,6 +48925,9 @@
       <c r="AM371">
         <v>0</v>
       </c>
+      <c r="AN371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -47940,6 +49055,9 @@
       <c r="AM372">
         <v>3</v>
       </c>
+      <c r="AN372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -48067,6 +49185,9 @@
       <c r="AM373">
         <v>2</v>
       </c>
+      <c r="AN373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -48194,6 +49315,9 @@
       <c r="AM374">
         <v>4</v>
       </c>
+      <c r="AN374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -48321,6 +49445,9 @@
       <c r="AM375">
         <v>1</v>
       </c>
+      <c r="AN375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -48448,6 +49575,9 @@
       <c r="AM376">
         <v>0</v>
       </c>
+      <c r="AN376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -48575,6 +49705,9 @@
       <c r="AM377">
         <v>0</v>
       </c>
+      <c r="AN377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -48702,6 +49835,9 @@
       <c r="AM378">
         <v>0</v>
       </c>
+      <c r="AN378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -48829,6 +49965,9 @@
       <c r="AM379">
         <v>1</v>
       </c>
+      <c r="AN379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -48956,6 +50095,9 @@
       <c r="AM380">
         <v>1</v>
       </c>
+      <c r="AN380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -49083,6 +50225,9 @@
       <c r="AM381">
         <v>0</v>
       </c>
+      <c r="AN381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -49210,6 +50355,9 @@
       <c r="AM382">
         <v>4</v>
       </c>
+      <c r="AN382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -49337,6 +50485,9 @@
       <c r="AM383">
         <v>0</v>
       </c>
+      <c r="AN383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -49462,6 +50613,9 @@
         <v>2</v>
       </c>
       <c r="AM384">
+        <v>0</v>
+      </c>
+      <c r="AN384">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN384"/>
+  <dimension ref="A1:AO384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,6 +558,11 @@
           <t>2020-04-24</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -698,6 +703,9 @@
       <c r="AN2">
         <v>233</v>
       </c>
+      <c r="AO2">
+        <v>236</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -838,6 +846,9 @@
       <c r="AN3">
         <v>164</v>
       </c>
+      <c r="AO3">
+        <v>164</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -978,6 +989,9 @@
       <c r="AN4">
         <v>133</v>
       </c>
+      <c r="AO4">
+        <v>134</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1118,6 +1132,9 @@
       <c r="AN5">
         <v>95</v>
       </c>
+      <c r="AO5">
+        <v>97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1258,6 +1275,9 @@
       <c r="AN6">
         <v>163</v>
       </c>
+      <c r="AO6">
+        <v>164</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1398,6 +1418,9 @@
       <c r="AN7">
         <v>108</v>
       </c>
+      <c r="AO7">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1538,6 +1561,9 @@
       <c r="AN8">
         <v>146</v>
       </c>
+      <c r="AO8">
+        <v>147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1678,6 +1704,9 @@
       <c r="AN9">
         <v>130</v>
       </c>
+      <c r="AO9">
+        <v>130</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1818,6 +1847,9 @@
       <c r="AN10">
         <v>102</v>
       </c>
+      <c r="AO10">
+        <v>104</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1958,6 +1990,9 @@
       <c r="AN11">
         <v>97</v>
       </c>
+      <c r="AO11">
+        <v>99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2098,6 +2133,9 @@
       <c r="AN12">
         <v>181</v>
       </c>
+      <c r="AO12">
+        <v>186</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2238,6 +2276,9 @@
       <c r="AN13">
         <v>215</v>
       </c>
+      <c r="AO13">
+        <v>222</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2378,6 +2419,9 @@
       <c r="AN14">
         <v>167</v>
       </c>
+      <c r="AO14">
+        <v>167</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2518,6 +2562,9 @@
       <c r="AN15">
         <v>156</v>
       </c>
+      <c r="AO15">
+        <v>156</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2658,6 +2705,9 @@
       <c r="AN16">
         <v>129</v>
       </c>
+      <c r="AO16">
+        <v>130</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2798,6 +2848,9 @@
       <c r="AN17">
         <v>5</v>
       </c>
+      <c r="AO17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2938,6 +2991,9 @@
       <c r="AN18">
         <v>2</v>
       </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3078,6 +3134,9 @@
       <c r="AN19">
         <v>46</v>
       </c>
+      <c r="AO19">
+        <v>47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3208,6 +3267,9 @@
       <c r="AN20">
         <v>14</v>
       </c>
+      <c r="AO20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3338,6 +3400,9 @@
       <c r="AN21">
         <v>132</v>
       </c>
+      <c r="AO21">
+        <v>132</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3468,6 +3533,9 @@
       <c r="AN22">
         <v>50</v>
       </c>
+      <c r="AO22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3598,6 +3666,9 @@
       <c r="AN23">
         <v>46</v>
       </c>
+      <c r="AO23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3728,6 +3799,9 @@
       <c r="AN24">
         <v>5</v>
       </c>
+      <c r="AO24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3858,6 +3932,9 @@
       <c r="AN25">
         <v>1</v>
       </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3988,6 +4065,9 @@
       <c r="AN26">
         <v>0</v>
       </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4118,6 +4198,9 @@
       <c r="AN27">
         <v>7</v>
       </c>
+      <c r="AO27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4248,6 +4331,9 @@
       <c r="AN28">
         <v>6</v>
       </c>
+      <c r="AO28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4378,6 +4464,9 @@
       <c r="AN29">
         <v>12</v>
       </c>
+      <c r="AO29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4508,6 +4597,9 @@
       <c r="AN30">
         <v>13</v>
       </c>
+      <c r="AO30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4638,6 +4730,9 @@
       <c r="AN31">
         <v>15</v>
       </c>
+      <c r="AO31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4768,6 +4863,9 @@
       <c r="AN32">
         <v>11</v>
       </c>
+      <c r="AO32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4898,6 +4996,9 @@
       <c r="AN33">
         <v>13</v>
       </c>
+      <c r="AO33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5028,6 +5129,9 @@
       <c r="AN34">
         <v>0</v>
       </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5158,6 +5262,9 @@
       <c r="AN35">
         <v>0</v>
       </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5288,6 +5395,9 @@
       <c r="AN36">
         <v>3</v>
       </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5418,6 +5528,9 @@
       <c r="AN37">
         <v>0</v>
       </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5548,6 +5661,9 @@
       <c r="AN38">
         <v>1</v>
       </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5678,6 +5794,9 @@
       <c r="AN39">
         <v>20</v>
       </c>
+      <c r="AO39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5808,6 +5927,9 @@
       <c r="AN40">
         <v>37</v>
       </c>
+      <c r="AO40">
+        <v>37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5938,6 +6060,9 @@
       <c r="AN41">
         <v>0</v>
       </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6068,6 +6193,9 @@
       <c r="AN42">
         <v>11</v>
       </c>
+      <c r="AO42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6198,6 +6326,9 @@
       <c r="AN43">
         <v>18</v>
       </c>
+      <c r="AO43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6328,6 +6459,9 @@
       <c r="AN44">
         <v>14</v>
       </c>
+      <c r="AO44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6458,6 +6592,9 @@
       <c r="AN45">
         <v>26</v>
       </c>
+      <c r="AO45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6588,6 +6725,9 @@
       <c r="AN46">
         <v>1</v>
       </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6718,6 +6858,9 @@
       <c r="AN47">
         <v>4</v>
       </c>
+      <c r="AO47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6848,6 +6991,9 @@
       <c r="AN48">
         <v>3</v>
       </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6978,6 +7124,9 @@
       <c r="AN49">
         <v>8</v>
       </c>
+      <c r="AO49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7108,6 +7257,9 @@
       <c r="AN50">
         <v>2</v>
       </c>
+      <c r="AO50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7238,6 +7390,9 @@
       <c r="AN51">
         <v>6</v>
       </c>
+      <c r="AO51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7368,6 +7523,9 @@
       <c r="AN52">
         <v>0</v>
       </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7498,6 +7656,9 @@
       <c r="AN53">
         <v>1</v>
       </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7628,6 +7789,9 @@
       <c r="AN54">
         <v>6</v>
       </c>
+      <c r="AO54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7758,6 +7922,9 @@
       <c r="AN55">
         <v>5</v>
       </c>
+      <c r="AO55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7888,6 +8055,9 @@
       <c r="AN56">
         <v>0</v>
       </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8018,6 +8188,9 @@
       <c r="AN57">
         <v>10</v>
       </c>
+      <c r="AO57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8148,6 +8321,9 @@
       <c r="AN58">
         <v>0</v>
       </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8278,6 +8454,9 @@
       <c r="AN59">
         <v>0</v>
       </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8408,6 +8587,9 @@
       <c r="AN60">
         <v>0</v>
       </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8538,6 +8720,9 @@
       <c r="AN61">
         <v>1</v>
       </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8668,6 +8853,9 @@
       <c r="AN62">
         <v>2</v>
       </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8798,6 +8986,9 @@
       <c r="AN63">
         <v>2</v>
       </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8928,6 +9119,9 @@
       <c r="AN64">
         <v>0</v>
       </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9058,6 +9252,9 @@
       <c r="AN65">
         <v>3</v>
       </c>
+      <c r="AO65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9188,6 +9385,9 @@
       <c r="AN66">
         <v>4</v>
       </c>
+      <c r="AO66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9318,6 +9518,9 @@
       <c r="AN67">
         <v>1</v>
       </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9448,6 +9651,9 @@
       <c r="AN68">
         <v>3</v>
       </c>
+      <c r="AO68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9578,6 +9784,9 @@
       <c r="AN69">
         <v>38</v>
       </c>
+      <c r="AO69">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9708,6 +9917,9 @@
       <c r="AN70">
         <v>6</v>
       </c>
+      <c r="AO70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9838,6 +10050,9 @@
       <c r="AN71">
         <v>0</v>
       </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9968,6 +10183,9 @@
       <c r="AN72">
         <v>2</v>
       </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10098,6 +10316,9 @@
       <c r="AN73">
         <v>5</v>
       </c>
+      <c r="AO73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10228,6 +10449,9 @@
       <c r="AN74">
         <v>3</v>
       </c>
+      <c r="AO74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10358,6 +10582,9 @@
       <c r="AN75">
         <v>0</v>
       </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10488,6 +10715,9 @@
       <c r="AN76">
         <v>0</v>
       </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10618,6 +10848,9 @@
       <c r="AN77">
         <v>2</v>
       </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10748,6 +10981,9 @@
       <c r="AN78">
         <v>4</v>
       </c>
+      <c r="AO78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10878,6 +11114,9 @@
       <c r="AN79">
         <v>1</v>
       </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11008,6 +11247,9 @@
       <c r="AN80">
         <v>1</v>
       </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11138,6 +11380,9 @@
       <c r="AN81">
         <v>0</v>
       </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11268,6 +11513,9 @@
       <c r="AN82">
         <v>5</v>
       </c>
+      <c r="AO82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11398,6 +11646,9 @@
       <c r="AN83">
         <v>0</v>
       </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11528,6 +11779,9 @@
       <c r="AN84">
         <v>0</v>
       </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11658,6 +11912,9 @@
       <c r="AN85">
         <v>4</v>
       </c>
+      <c r="AO85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11788,6 +12045,9 @@
       <c r="AN86">
         <v>0</v>
       </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11918,6 +12178,9 @@
       <c r="AN87">
         <v>0</v>
       </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12048,6 +12311,9 @@
       <c r="AN88">
         <v>0</v>
       </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12178,6 +12444,9 @@
       <c r="AN89">
         <v>5</v>
       </c>
+      <c r="AO89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12308,6 +12577,9 @@
       <c r="AN90">
         <v>0</v>
       </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12438,6 +12710,9 @@
       <c r="AN91">
         <v>0</v>
       </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12568,6 +12843,9 @@
       <c r="AN92">
         <v>0</v>
       </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12698,6 +12976,9 @@
       <c r="AN93">
         <v>2</v>
       </c>
+      <c r="AO93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12828,6 +13109,9 @@
       <c r="AN94">
         <v>0</v>
       </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12958,6 +13242,9 @@
       <c r="AN95">
         <v>1</v>
       </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13088,6 +13375,9 @@
       <c r="AN96">
         <v>0</v>
       </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13218,6 +13508,9 @@
       <c r="AN97">
         <v>0</v>
       </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13348,6 +13641,9 @@
       <c r="AN98">
         <v>0</v>
       </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13478,6 +13774,9 @@
       <c r="AN99">
         <v>0</v>
       </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13608,6 +13907,9 @@
       <c r="AN100">
         <v>6</v>
       </c>
+      <c r="AO100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13738,6 +14040,9 @@
       <c r="AN101">
         <v>13</v>
       </c>
+      <c r="AO101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13868,6 +14173,9 @@
       <c r="AN102">
         <v>3</v>
       </c>
+      <c r="AO102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13998,6 +14306,9 @@
       <c r="AN103">
         <v>5</v>
       </c>
+      <c r="AO103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14128,6 +14439,9 @@
       <c r="AN104">
         <v>0</v>
       </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14258,6 +14572,9 @@
       <c r="AN105">
         <v>0</v>
       </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14388,6 +14705,9 @@
       <c r="AN106">
         <v>6</v>
       </c>
+      <c r="AO106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14518,6 +14838,9 @@
       <c r="AN107">
         <v>0</v>
       </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14648,6 +14971,9 @@
       <c r="AN108">
         <v>1</v>
       </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14778,6 +15104,9 @@
       <c r="AN109">
         <v>0</v>
       </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14908,6 +15237,9 @@
       <c r="AN110">
         <v>33</v>
       </c>
+      <c r="AO110">
+        <v>35</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15038,6 +15370,9 @@
       <c r="AN111">
         <v>95</v>
       </c>
+      <c r="AO111">
+        <v>93</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15168,6 +15503,9 @@
       <c r="AN112">
         <v>58</v>
       </c>
+      <c r="AO112">
+        <v>59</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15298,6 +15636,9 @@
       <c r="AN113">
         <v>86</v>
       </c>
+      <c r="AO113">
+        <v>86</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15428,6 +15769,9 @@
       <c r="AN114">
         <v>171</v>
       </c>
+      <c r="AO114">
+        <v>171</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15558,6 +15902,9 @@
       <c r="AN115">
         <v>21</v>
       </c>
+      <c r="AO115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15688,6 +16035,9 @@
       <c r="AN116">
         <v>10</v>
       </c>
+      <c r="AO116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15818,6 +16168,9 @@
       <c r="AN117">
         <v>2</v>
       </c>
+      <c r="AO117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15948,6 +16301,9 @@
       <c r="AN118">
         <v>2</v>
       </c>
+      <c r="AO118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16078,6 +16434,9 @@
       <c r="AN119">
         <v>3</v>
       </c>
+      <c r="AO119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16208,6 +16567,9 @@
       <c r="AN120">
         <v>47</v>
       </c>
+      <c r="AO120">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16338,6 +16700,9 @@
       <c r="AN121">
         <v>2</v>
       </c>
+      <c r="AO121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16468,6 +16833,9 @@
       <c r="AN122">
         <v>1</v>
       </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16598,6 +16966,9 @@
       <c r="AN123">
         <v>2</v>
       </c>
+      <c r="AO123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16728,6 +17099,9 @@
       <c r="AN124">
         <v>6</v>
       </c>
+      <c r="AO124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16858,6 +17232,9 @@
       <c r="AN125">
         <v>23</v>
       </c>
+      <c r="AO125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16988,6 +17365,9 @@
       <c r="AN126">
         <v>98</v>
       </c>
+      <c r="AO126">
+        <v>98</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17118,6 +17498,9 @@
       <c r="AN127">
         <v>18</v>
       </c>
+      <c r="AO127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17248,6 +17631,9 @@
       <c r="AN128">
         <v>20</v>
       </c>
+      <c r="AO128">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17378,6 +17764,9 @@
       <c r="AN129">
         <v>46</v>
       </c>
+      <c r="AO129">
+        <v>46</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17508,6 +17897,9 @@
       <c r="AN130">
         <v>405</v>
       </c>
+      <c r="AO130">
+        <v>406</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17638,6 +18030,9 @@
       <c r="AN131">
         <v>173</v>
       </c>
+      <c r="AO131">
+        <v>176</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17768,6 +18163,9 @@
       <c r="AN132">
         <v>8</v>
       </c>
+      <c r="AO132">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17898,6 +18296,9 @@
       <c r="AN133">
         <v>25</v>
       </c>
+      <c r="AO133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18028,6 +18429,9 @@
       <c r="AN134">
         <v>49</v>
       </c>
+      <c r="AO134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -18158,6 +18562,9 @@
       <c r="AN135">
         <v>87</v>
       </c>
+      <c r="AO135">
+        <v>90</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -18288,6 +18695,9 @@
       <c r="AN136">
         <v>152</v>
       </c>
+      <c r="AO136">
+        <v>152</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18418,6 +18828,9 @@
       <c r="AN137">
         <v>45</v>
       </c>
+      <c r="AO137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18548,6 +18961,9 @@
       <c r="AN138">
         <v>8</v>
       </c>
+      <c r="AO138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18678,6 +19094,9 @@
       <c r="AN139">
         <v>58</v>
       </c>
+      <c r="AO139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18808,6 +19227,9 @@
       <c r="AN140">
         <v>14</v>
       </c>
+      <c r="AO140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18938,6 +19360,9 @@
       <c r="AN141">
         <v>39</v>
       </c>
+      <c r="AO141">
+        <v>39</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -19068,6 +19493,9 @@
       <c r="AN142">
         <v>17</v>
       </c>
+      <c r="AO142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -19198,6 +19626,9 @@
       <c r="AN143">
         <v>2</v>
       </c>
+      <c r="AO143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -19328,6 +19759,9 @@
       <c r="AN144">
         <v>10</v>
       </c>
+      <c r="AO144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -19458,6 +19892,9 @@
       <c r="AN145">
         <v>1</v>
       </c>
+      <c r="AO145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -19588,6 +20025,9 @@
       <c r="AN146">
         <v>7</v>
       </c>
+      <c r="AO146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -19718,6 +20158,9 @@
       <c r="AN147">
         <v>10</v>
       </c>
+      <c r="AO147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19848,6 +20291,9 @@
       <c r="AN148">
         <v>8</v>
       </c>
+      <c r="AO148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19978,6 +20424,9 @@
       <c r="AN149">
         <v>13</v>
       </c>
+      <c r="AO149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -20108,6 +20557,9 @@
       <c r="AN150">
         <v>44</v>
       </c>
+      <c r="AO150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -20238,6 +20690,9 @@
       <c r="AN151">
         <v>0</v>
       </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -20368,6 +20823,9 @@
       <c r="AN152">
         <v>0</v>
       </c>
+      <c r="AO152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -20498,6 +20956,9 @@
       <c r="AN153">
         <v>10</v>
       </c>
+      <c r="AO153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -20628,6 +21089,9 @@
       <c r="AN154">
         <v>5</v>
       </c>
+      <c r="AO154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -20758,6 +21222,9 @@
       <c r="AN155">
         <v>41</v>
       </c>
+      <c r="AO155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -20888,6 +21355,9 @@
       <c r="AN156">
         <v>4</v>
       </c>
+      <c r="AO156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -21018,6 +21488,9 @@
       <c r="AN157">
         <v>1</v>
       </c>
+      <c r="AO157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -21148,6 +21621,9 @@
       <c r="AN158">
         <v>3</v>
       </c>
+      <c r="AO158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -21278,6 +21754,9 @@
       <c r="AN159">
         <v>6</v>
       </c>
+      <c r="AO159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -21408,6 +21887,9 @@
       <c r="AN160">
         <v>11</v>
       </c>
+      <c r="AO160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -21538,6 +22020,9 @@
       <c r="AN161">
         <v>1</v>
       </c>
+      <c r="AO161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -21668,6 +22153,9 @@
       <c r="AN162">
         <v>82</v>
       </c>
+      <c r="AO162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -21798,6 +22286,9 @@
       <c r="AN163">
         <v>38</v>
       </c>
+      <c r="AO163">
+        <v>38</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -21928,6 +22419,9 @@
       <c r="AN164">
         <v>20</v>
       </c>
+      <c r="AO164">
+        <v>21</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -22058,6 +22552,9 @@
       <c r="AN165">
         <v>61</v>
       </c>
+      <c r="AO165">
+        <v>61</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -22188,6 +22685,9 @@
       <c r="AN166">
         <v>11</v>
       </c>
+      <c r="AO166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -22318,6 +22818,9 @@
       <c r="AN167">
         <v>34</v>
       </c>
+      <c r="AO167">
+        <v>34</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -22448,6 +22951,9 @@
       <c r="AN168">
         <v>0</v>
       </c>
+      <c r="AO168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -22578,6 +23084,9 @@
       <c r="AN169">
         <v>19</v>
       </c>
+      <c r="AO169">
+        <v>19</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -22708,6 +23217,9 @@
       <c r="AN170">
         <v>4</v>
       </c>
+      <c r="AO170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -22838,6 +23350,9 @@
       <c r="AN171">
         <v>5</v>
       </c>
+      <c r="AO171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -22968,6 +23483,9 @@
       <c r="AN172">
         <v>3</v>
       </c>
+      <c r="AO172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -23098,6 +23616,9 @@
       <c r="AN173">
         <v>3</v>
       </c>
+      <c r="AO173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -23228,6 +23749,9 @@
       <c r="AN174">
         <v>14</v>
       </c>
+      <c r="AO174">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -23358,6 +23882,9 @@
       <c r="AN175">
         <v>2</v>
       </c>
+      <c r="AO175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -23488,6 +24015,9 @@
       <c r="AN176">
         <v>4</v>
       </c>
+      <c r="AO176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -23618,6 +24148,9 @@
       <c r="AN177">
         <v>0</v>
       </c>
+      <c r="AO177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -23748,6 +24281,9 @@
       <c r="AN178">
         <v>0</v>
       </c>
+      <c r="AO178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -23878,6 +24414,9 @@
       <c r="AN179">
         <v>2</v>
       </c>
+      <c r="AO179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -24008,6 +24547,9 @@
       <c r="AN180">
         <v>0</v>
       </c>
+      <c r="AO180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -24138,6 +24680,9 @@
       <c r="AN181">
         <v>0</v>
       </c>
+      <c r="AO181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -24268,6 +24813,9 @@
       <c r="AN182">
         <v>1</v>
       </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -24398,6 +24946,9 @@
       <c r="AN183">
         <v>0</v>
       </c>
+      <c r="AO183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -24528,6 +25079,9 @@
       <c r="AN184">
         <v>1</v>
       </c>
+      <c r="AO184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -24658,6 +25212,9 @@
       <c r="AN185">
         <v>5</v>
       </c>
+      <c r="AO185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -24788,6 +25345,9 @@
       <c r="AN186">
         <v>2</v>
       </c>
+      <c r="AO186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -24918,6 +25478,9 @@
       <c r="AN187">
         <v>1</v>
       </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -25048,6 +25611,9 @@
       <c r="AN188">
         <v>3</v>
       </c>
+      <c r="AO188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -25178,6 +25744,9 @@
       <c r="AN189">
         <v>2</v>
       </c>
+      <c r="AO189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -25308,6 +25877,9 @@
       <c r="AN190">
         <v>13</v>
       </c>
+      <c r="AO190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -25438,6 +26010,9 @@
       <c r="AN191">
         <v>36</v>
       </c>
+      <c r="AO191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -25568,6 +26143,9 @@
       <c r="AN192">
         <v>1</v>
       </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -25698,6 +26276,9 @@
       <c r="AN193">
         <v>8</v>
       </c>
+      <c r="AO193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -25828,6 +26409,9 @@
       <c r="AN194">
         <v>2</v>
       </c>
+      <c r="AO194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -25958,6 +26542,9 @@
       <c r="AN195">
         <v>6</v>
       </c>
+      <c r="AO195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -26088,6 +26675,9 @@
       <c r="AN196">
         <v>4</v>
       </c>
+      <c r="AO196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -26218,6 +26808,9 @@
       <c r="AN197">
         <v>12</v>
       </c>
+      <c r="AO197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -26348,6 +26941,9 @@
       <c r="AN198">
         <v>11</v>
       </c>
+      <c r="AO198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -26478,6 +27074,9 @@
       <c r="AN199">
         <v>2</v>
       </c>
+      <c r="AO199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -26608,6 +27207,9 @@
       <c r="AN200">
         <v>1</v>
       </c>
+      <c r="AO200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -26738,6 +27340,9 @@
       <c r="AN201">
         <v>0</v>
       </c>
+      <c r="AO201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -26868,6 +27473,9 @@
       <c r="AN202">
         <v>1</v>
       </c>
+      <c r="AO202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -26998,6 +27606,9 @@
       <c r="AN203">
         <v>9</v>
       </c>
+      <c r="AO203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -27128,6 +27739,9 @@
       <c r="AN204">
         <v>0</v>
       </c>
+      <c r="AO204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -27258,6 +27872,9 @@
       <c r="AN205">
         <v>0</v>
       </c>
+      <c r="AO205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -27388,6 +28005,9 @@
       <c r="AN206">
         <v>0</v>
       </c>
+      <c r="AO206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -27518,6 +28138,9 @@
       <c r="AN207">
         <v>25</v>
       </c>
+      <c r="AO207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -27648,6 +28271,9 @@
       <c r="AN208">
         <v>19</v>
       </c>
+      <c r="AO208">
+        <v>20</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -27778,6 +28404,9 @@
       <c r="AN209">
         <v>57</v>
       </c>
+      <c r="AO209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -27908,6 +28537,9 @@
       <c r="AN210">
         <v>38</v>
       </c>
+      <c r="AO210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -28038,6 +28670,9 @@
       <c r="AN211">
         <v>36</v>
       </c>
+      <c r="AO211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -28168,6 +28803,9 @@
       <c r="AN212">
         <v>10</v>
       </c>
+      <c r="AO212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -28298,6 +28936,9 @@
       <c r="AN213">
         <v>39</v>
       </c>
+      <c r="AO213">
+        <v>39</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -28428,6 +29069,9 @@
       <c r="AN214">
         <v>4</v>
       </c>
+      <c r="AO214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -28558,6 +29202,9 @@
       <c r="AN215">
         <v>22</v>
       </c>
+      <c r="AO215">
+        <v>22</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -28688,6 +29335,9 @@
       <c r="AN216">
         <v>2</v>
       </c>
+      <c r="AO216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -28818,6 +29468,9 @@
       <c r="AN217">
         <v>5</v>
       </c>
+      <c r="AO217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -28948,6 +29601,9 @@
       <c r="AN218">
         <v>2</v>
       </c>
+      <c r="AO218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -29078,6 +29734,9 @@
       <c r="AN219">
         <v>1</v>
       </c>
+      <c r="AO219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -29208,6 +29867,9 @@
       <c r="AN220">
         <v>5</v>
       </c>
+      <c r="AO220">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -29338,6 +30000,9 @@
       <c r="AN221">
         <v>0</v>
       </c>
+      <c r="AO221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -29468,6 +30133,9 @@
       <c r="AN222">
         <v>1</v>
       </c>
+      <c r="AO222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -29598,6 +30266,9 @@
       <c r="AN223">
         <v>0</v>
       </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -29728,6 +30399,9 @@
       <c r="AN224">
         <v>0</v>
       </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -29858,6 +30532,9 @@
       <c r="AN225">
         <v>0</v>
       </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -29988,6 +30665,9 @@
       <c r="AN226">
         <v>0</v>
       </c>
+      <c r="AO226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -30118,6 +30798,9 @@
       <c r="AN227">
         <v>0</v>
       </c>
+      <c r="AO227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -30248,6 +30931,9 @@
       <c r="AN228">
         <v>0</v>
       </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -30378,6 +31064,9 @@
       <c r="AN229">
         <v>2</v>
       </c>
+      <c r="AO229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -30508,6 +31197,9 @@
       <c r="AN230">
         <v>0</v>
       </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -30638,6 +31330,9 @@
       <c r="AN231">
         <v>2</v>
       </c>
+      <c r="AO231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -30768,6 +31463,9 @@
       <c r="AN232">
         <v>30</v>
       </c>
+      <c r="AO232">
+        <v>30</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -30898,6 +31596,9 @@
       <c r="AN233">
         <v>211</v>
       </c>
+      <c r="AO233">
+        <v>212</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -31028,6 +31729,9 @@
       <c r="AN234">
         <v>9</v>
       </c>
+      <c r="AO234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -31158,6 +31862,9 @@
       <c r="AN235">
         <v>11</v>
       </c>
+      <c r="AO235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -31288,6 +31995,9 @@
       <c r="AN236">
         <v>0</v>
       </c>
+      <c r="AO236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -31418,6 +32128,9 @@
       <c r="AN237">
         <v>2</v>
       </c>
+      <c r="AO237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -31548,6 +32261,9 @@
       <c r="AN238">
         <v>0</v>
       </c>
+      <c r="AO238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -31678,6 +32394,9 @@
       <c r="AN239">
         <v>1</v>
       </c>
+      <c r="AO239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -31808,6 +32527,9 @@
       <c r="AN240">
         <v>2</v>
       </c>
+      <c r="AO240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -31938,6 +32660,9 @@
       <c r="AN241">
         <v>8</v>
       </c>
+      <c r="AO241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -32068,6 +32793,9 @@
       <c r="AN242">
         <v>3</v>
       </c>
+      <c r="AO242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -32198,6 +32926,9 @@
       <c r="AN243">
         <v>1</v>
       </c>
+      <c r="AO243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -32328,6 +33059,9 @@
       <c r="AN244">
         <v>2</v>
       </c>
+      <c r="AO244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -32458,6 +33192,9 @@
       <c r="AN245">
         <v>2</v>
       </c>
+      <c r="AO245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -32588,6 +33325,9 @@
       <c r="AN246">
         <v>2</v>
       </c>
+      <c r="AO246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -32718,6 +33458,9 @@
       <c r="AN247">
         <v>0</v>
       </c>
+      <c r="AO247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -32848,6 +33591,9 @@
       <c r="AN248">
         <v>3</v>
       </c>
+      <c r="AO248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -32978,6 +33724,9 @@
       <c r="AN249">
         <v>20</v>
       </c>
+      <c r="AO249">
+        <v>20</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -33108,6 +33857,9 @@
       <c r="AN250">
         <v>0</v>
       </c>
+      <c r="AO250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -33238,6 +33990,9 @@
       <c r="AN251">
         <v>4</v>
       </c>
+      <c r="AO251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -33368,6 +34123,9 @@
       <c r="AN252">
         <v>1</v>
       </c>
+      <c r="AO252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -33498,6 +34256,9 @@
       <c r="AN253">
         <v>1</v>
       </c>
+      <c r="AO253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -33628,6 +34389,9 @@
       <c r="AN254">
         <v>1</v>
       </c>
+      <c r="AO254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -33768,6 +34532,9 @@
       <c r="AN255">
         <v>13</v>
       </c>
+      <c r="AO255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -33908,6 +34675,9 @@
       <c r="AN256">
         <v>81</v>
       </c>
+      <c r="AO256">
+        <v>82</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -34048,6 +34818,9 @@
       <c r="AN257">
         <v>55</v>
       </c>
+      <c r="AO257">
+        <v>55</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -34188,6 +34961,9 @@
       <c r="AN258">
         <v>66</v>
       </c>
+      <c r="AO258">
+        <v>66</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -34328,6 +35104,9 @@
       <c r="AN259">
         <v>64</v>
       </c>
+      <c r="AO259">
+        <v>65</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -34468,6 +35247,9 @@
       <c r="AN260">
         <v>39</v>
       </c>
+      <c r="AO260">
+        <v>39</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -34608,6 +35390,9 @@
       <c r="AN261">
         <v>97</v>
       </c>
+      <c r="AO261">
+        <v>97</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -34748,6 +35533,9 @@
       <c r="AN262">
         <v>52</v>
       </c>
+      <c r="AO262">
+        <v>52</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -34888,6 +35676,9 @@
       <c r="AN263">
         <v>59</v>
       </c>
+      <c r="AO263">
+        <v>60</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -35018,6 +35809,9 @@
       <c r="AN264">
         <v>9</v>
       </c>
+      <c r="AO264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -35148,6 +35942,9 @@
       <c r="AN265">
         <v>4</v>
       </c>
+      <c r="AO265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -35278,6 +36075,9 @@
       <c r="AN266">
         <v>4</v>
       </c>
+      <c r="AO266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -35408,6 +36208,9 @@
       <c r="AN267">
         <v>4</v>
       </c>
+      <c r="AO267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -35538,6 +36341,9 @@
       <c r="AN268">
         <v>6</v>
       </c>
+      <c r="AO268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -35668,6 +36474,9 @@
       <c r="AN269">
         <v>8</v>
       </c>
+      <c r="AO269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -35798,6 +36607,9 @@
       <c r="AN270">
         <v>0</v>
       </c>
+      <c r="AO270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -35928,6 +36740,9 @@
       <c r="AN271">
         <v>4</v>
       </c>
+      <c r="AO271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -36058,6 +36873,9 @@
       <c r="AN272">
         <v>0</v>
       </c>
+      <c r="AO272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -36188,6 +37006,9 @@
       <c r="AN273">
         <v>0</v>
       </c>
+      <c r="AO273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -36318,6 +37139,9 @@
       <c r="AN274">
         <v>2</v>
       </c>
+      <c r="AO274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -36448,6 +37272,9 @@
       <c r="AN275">
         <v>24</v>
       </c>
+      <c r="AO275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -36578,6 +37405,9 @@
       <c r="AN276">
         <v>9</v>
       </c>
+      <c r="AO276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -36708,6 +37538,9 @@
       <c r="AN277">
         <v>0</v>
       </c>
+      <c r="AO277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -36838,6 +37671,9 @@
       <c r="AN278">
         <v>17</v>
       </c>
+      <c r="AO278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -36968,6 +37804,9 @@
       <c r="AN279">
         <v>5</v>
       </c>
+      <c r="AO279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -37098,6 +37937,9 @@
       <c r="AN280">
         <v>53</v>
       </c>
+      <c r="AO280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -37228,6 +38070,9 @@
       <c r="AN281">
         <v>35</v>
       </c>
+      <c r="AO281">
+        <v>35</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -37358,6 +38203,9 @@
       <c r="AN282">
         <v>1</v>
       </c>
+      <c r="AO282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -37488,6 +38336,9 @@
       <c r="AN283">
         <v>0</v>
       </c>
+      <c r="AO283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -37618,6 +38469,9 @@
       <c r="AN284">
         <v>40</v>
       </c>
+      <c r="AO284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -37748,6 +38602,9 @@
       <c r="AN285">
         <v>26</v>
       </c>
+      <c r="AO285">
+        <v>26</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -37878,6 +38735,9 @@
       <c r="AN286">
         <v>0</v>
       </c>
+      <c r="AO286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -38008,6 +38868,9 @@
       <c r="AN287">
         <v>0</v>
       </c>
+      <c r="AO287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -38138,6 +39001,9 @@
       <c r="AN288">
         <v>0</v>
       </c>
+      <c r="AO288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -38268,6 +39134,9 @@
       <c r="AN289">
         <v>1</v>
       </c>
+      <c r="AO289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -38398,6 +39267,9 @@
       <c r="AN290">
         <v>3</v>
       </c>
+      <c r="AO290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -38528,6 +39400,9 @@
       <c r="AN291">
         <v>0</v>
       </c>
+      <c r="AO291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -38658,6 +39533,9 @@
       <c r="AN292">
         <v>3</v>
       </c>
+      <c r="AO292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -38788,6 +39666,9 @@
       <c r="AN293">
         <v>0</v>
       </c>
+      <c r="AO293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -38918,6 +39799,9 @@
       <c r="AN294">
         <v>7</v>
       </c>
+      <c r="AO294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -39048,6 +39932,9 @@
       <c r="AN295">
         <v>0</v>
       </c>
+      <c r="AO295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -39178,6 +40065,9 @@
       <c r="AN296">
         <v>0</v>
       </c>
+      <c r="AO296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -39308,6 +40198,9 @@
       <c r="AN297">
         <v>1</v>
       </c>
+      <c r="AO297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -39438,6 +40331,9 @@
       <c r="AN298">
         <v>4</v>
       </c>
+      <c r="AO298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -39568,6 +40464,9 @@
       <c r="AN299">
         <v>0</v>
       </c>
+      <c r="AO299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -39698,6 +40597,9 @@
       <c r="AN300">
         <v>0</v>
       </c>
+      <c r="AO300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -39828,6 +40730,9 @@
       <c r="AN301">
         <v>17</v>
       </c>
+      <c r="AO301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -39958,6 +40863,9 @@
       <c r="AN302">
         <v>0</v>
       </c>
+      <c r="AO302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -40088,6 +40996,9 @@
       <c r="AN303">
         <v>0</v>
       </c>
+      <c r="AO303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -40218,6 +41129,9 @@
       <c r="AN304">
         <v>4</v>
       </c>
+      <c r="AO304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -40348,6 +41262,9 @@
       <c r="AN305">
         <v>12</v>
       </c>
+      <c r="AO305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -40478,6 +41395,9 @@
       <c r="AN306">
         <v>244</v>
       </c>
+      <c r="AO306">
+        <v>253</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -40608,6 +41528,9 @@
       <c r="AN307">
         <v>16</v>
       </c>
+      <c r="AO307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -40738,6 +41661,9 @@
       <c r="AN308">
         <v>5</v>
       </c>
+      <c r="AO308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -40868,6 +41794,9 @@
       <c r="AN309">
         <v>0</v>
       </c>
+      <c r="AO309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -40998,6 +41927,9 @@
       <c r="AN310">
         <v>0</v>
       </c>
+      <c r="AO310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -41128,6 +42060,9 @@
       <c r="AN311">
         <v>8</v>
       </c>
+      <c r="AO311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -41258,6 +42193,9 @@
       <c r="AN312">
         <v>5</v>
       </c>
+      <c r="AO312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -41388,6 +42326,9 @@
       <c r="AN313">
         <v>0</v>
       </c>
+      <c r="AO313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -41518,6 +42459,9 @@
       <c r="AN314">
         <v>1</v>
       </c>
+      <c r="AO314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -41648,6 +42592,9 @@
       <c r="AN315">
         <v>7</v>
       </c>
+      <c r="AO315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -41778,6 +42725,9 @@
       <c r="AN316">
         <v>3</v>
       </c>
+      <c r="AO316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -41908,6 +42858,9 @@
       <c r="AN317">
         <v>5</v>
       </c>
+      <c r="AO317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -42038,6 +42991,9 @@
       <c r="AN318">
         <v>11</v>
       </c>
+      <c r="AO318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -42168,6 +43124,9 @@
       <c r="AN319">
         <v>6</v>
       </c>
+      <c r="AO319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -42298,6 +43257,9 @@
       <c r="AN320">
         <v>0</v>
       </c>
+      <c r="AO320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -42428,6 +43390,9 @@
       <c r="AN321">
         <v>1</v>
       </c>
+      <c r="AO321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -42558,6 +43523,9 @@
       <c r="AN322">
         <v>8</v>
       </c>
+      <c r="AO322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -42688,6 +43656,9 @@
       <c r="AN323">
         <v>28</v>
       </c>
+      <c r="AO323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -42818,6 +43789,9 @@
       <c r="AN324">
         <v>21</v>
       </c>
+      <c r="AO324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -42948,6 +43922,9 @@
       <c r="AN325">
         <v>15</v>
       </c>
+      <c r="AO325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -43078,6 +44055,9 @@
       <c r="AN326">
         <v>0</v>
       </c>
+      <c r="AO326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -43208,6 +44188,9 @@
       <c r="AN327">
         <v>0</v>
       </c>
+      <c r="AO327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -43338,6 +44321,9 @@
       <c r="AN328">
         <v>0</v>
       </c>
+      <c r="AO328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -43468,6 +44454,9 @@
       <c r="AN329">
         <v>0</v>
       </c>
+      <c r="AO329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -43598,6 +44587,9 @@
       <c r="AN330">
         <v>3</v>
       </c>
+      <c r="AO330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -43728,6 +44720,9 @@
       <c r="AN331">
         <v>1</v>
       </c>
+      <c r="AO331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -43858,6 +44853,9 @@
       <c r="AN332">
         <v>4</v>
       </c>
+      <c r="AO332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -43988,6 +44986,9 @@
       <c r="AN333">
         <v>0</v>
       </c>
+      <c r="AO333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -44118,6 +45119,9 @@
       <c r="AN334">
         <v>0</v>
       </c>
+      <c r="AO334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -44248,6 +45252,9 @@
       <c r="AN335">
         <v>7</v>
       </c>
+      <c r="AO335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -44378,6 +45385,9 @@
       <c r="AN336">
         <v>2</v>
       </c>
+      <c r="AO336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -44508,6 +45518,9 @@
       <c r="AN337">
         <v>2</v>
       </c>
+      <c r="AO337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -44638,6 +45651,9 @@
       <c r="AN338">
         <v>2</v>
       </c>
+      <c r="AO338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -44768,6 +45784,9 @@
       <c r="AN339">
         <v>10</v>
       </c>
+      <c r="AO339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -44898,6 +45917,9 @@
       <c r="AN340">
         <v>1</v>
       </c>
+      <c r="AO340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -45028,6 +46050,9 @@
       <c r="AN341">
         <v>17</v>
       </c>
+      <c r="AO341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -45158,6 +46183,9 @@
       <c r="AN342">
         <v>0</v>
       </c>
+      <c r="AO342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -45288,6 +46316,9 @@
       <c r="AN343">
         <v>0</v>
       </c>
+      <c r="AO343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -45418,6 +46449,9 @@
       <c r="AN344">
         <v>149</v>
       </c>
+      <c r="AO344">
+        <v>151</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -45548,6 +46582,9 @@
       <c r="AN345">
         <v>6</v>
       </c>
+      <c r="AO345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -45678,6 +46715,9 @@
       <c r="AN346">
         <v>5</v>
       </c>
+      <c r="AO346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -45808,6 +46848,9 @@
       <c r="AN347">
         <v>1</v>
       </c>
+      <c r="AO347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -45938,6 +46981,9 @@
       <c r="AN348">
         <v>3</v>
       </c>
+      <c r="AO348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -46068,6 +47114,9 @@
       <c r="AN349">
         <v>15</v>
       </c>
+      <c r="AO349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -46198,6 +47247,9 @@
       <c r="AN350">
         <v>1</v>
       </c>
+      <c r="AO350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -46328,6 +47380,9 @@
       <c r="AN351">
         <v>1</v>
       </c>
+      <c r="AO351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -46458,6 +47513,9 @@
       <c r="AN352">
         <v>0</v>
       </c>
+      <c r="AO352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -46588,6 +47646,9 @@
       <c r="AN353">
         <v>0</v>
       </c>
+      <c r="AO353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -46718,6 +47779,9 @@
       <c r="AN354">
         <v>3</v>
       </c>
+      <c r="AO354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -46848,6 +47912,9 @@
       <c r="AN355">
         <v>1</v>
       </c>
+      <c r="AO355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -46978,6 +48045,9 @@
       <c r="AN356">
         <v>2</v>
       </c>
+      <c r="AO356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -47108,6 +48178,9 @@
       <c r="AN357">
         <v>0</v>
       </c>
+      <c r="AO357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -47238,6 +48311,9 @@
       <c r="AN358">
         <v>0</v>
       </c>
+      <c r="AO358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -47368,6 +48444,9 @@
       <c r="AN359">
         <v>0</v>
       </c>
+      <c r="AO359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -47498,6 +48577,9 @@
       <c r="AN360">
         <v>16</v>
       </c>
+      <c r="AO360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -47628,6 +48710,9 @@
       <c r="AN361">
         <v>2</v>
       </c>
+      <c r="AO361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -47758,6 +48843,9 @@
       <c r="AN362">
         <v>1</v>
       </c>
+      <c r="AO362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -47888,6 +48976,9 @@
       <c r="AN363">
         <v>2</v>
       </c>
+      <c r="AO363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -48018,6 +49109,9 @@
       <c r="AN364">
         <v>0</v>
       </c>
+      <c r="AO364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -48148,6 +49242,9 @@
       <c r="AN365">
         <v>0</v>
       </c>
+      <c r="AO365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -48278,6 +49375,9 @@
       <c r="AN366">
         <v>1</v>
       </c>
+      <c r="AO366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -48408,6 +49508,9 @@
       <c r="AN367">
         <v>2</v>
       </c>
+      <c r="AO367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -48538,6 +49641,9 @@
       <c r="AN368">
         <v>0</v>
       </c>
+      <c r="AO368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -48668,6 +49774,9 @@
       <c r="AN369">
         <v>1</v>
       </c>
+      <c r="AO369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -48798,6 +49907,9 @@
       <c r="AN370">
         <v>0</v>
       </c>
+      <c r="AO370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -48928,6 +50040,9 @@
       <c r="AN371">
         <v>0</v>
       </c>
+      <c r="AO371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -49058,6 +50173,9 @@
       <c r="AN372">
         <v>3</v>
       </c>
+      <c r="AO372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -49188,6 +50306,9 @@
       <c r="AN373">
         <v>2</v>
       </c>
+      <c r="AO373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -49318,6 +50439,9 @@
       <c r="AN374">
         <v>4</v>
       </c>
+      <c r="AO374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -49448,6 +50572,9 @@
       <c r="AN375">
         <v>1</v>
       </c>
+      <c r="AO375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -49578,6 +50705,9 @@
       <c r="AN376">
         <v>0</v>
       </c>
+      <c r="AO376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -49708,6 +50838,9 @@
       <c r="AN377">
         <v>0</v>
       </c>
+      <c r="AO377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -49838,6 +50971,9 @@
       <c r="AN378">
         <v>0</v>
       </c>
+      <c r="AO378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -49968,6 +51104,9 @@
       <c r="AN379">
         <v>1</v>
       </c>
+      <c r="AO379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -50098,6 +51237,9 @@
       <c r="AN380">
         <v>1</v>
       </c>
+      <c r="AO380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -50228,6 +51370,9 @@
       <c r="AN381">
         <v>0</v>
       </c>
+      <c r="AO381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -50358,6 +51503,9 @@
       <c r="AN382">
         <v>4</v>
       </c>
+      <c r="AO382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -50488,6 +51636,9 @@
       <c r="AN383">
         <v>0</v>
       </c>
+      <c r="AO383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -50616,6 +51767,9 @@
         <v>0</v>
       </c>
       <c r="AN384">
+        <v>0</v>
+      </c>
+      <c r="AO384">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP384"/>
+  <dimension ref="A1:AQ384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +568,11 @@
           <t>2020-04-26</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -714,6 +719,9 @@
       <c r="AP2">
         <v>238</v>
       </c>
+      <c r="AQ2">
+        <v>239</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -860,6 +868,9 @@
       <c r="AP3">
         <v>165</v>
       </c>
+      <c r="AQ3">
+        <v>166</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1006,6 +1017,9 @@
       <c r="AP4">
         <v>135</v>
       </c>
+      <c r="AQ4">
+        <v>135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1152,6 +1166,9 @@
       <c r="AP5">
         <v>97</v>
       </c>
+      <c r="AQ5">
+        <v>97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1298,6 +1315,9 @@
       <c r="AP6">
         <v>166</v>
       </c>
+      <c r="AQ6">
+        <v>169</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1444,6 +1464,9 @@
       <c r="AP7">
         <v>108</v>
       </c>
+      <c r="AQ7">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1590,6 +1613,9 @@
       <c r="AP8">
         <v>147</v>
       </c>
+      <c r="AQ8">
+        <v>147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1736,6 +1762,9 @@
       <c r="AP9">
         <v>130</v>
       </c>
+      <c r="AQ9">
+        <v>130</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1882,6 +1911,9 @@
       <c r="AP10">
         <v>105</v>
       </c>
+      <c r="AQ10">
+        <v>106</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2028,6 +2060,9 @@
       <c r="AP11">
         <v>100</v>
       </c>
+      <c r="AQ11">
+        <v>105</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2174,6 +2209,9 @@
       <c r="AP12">
         <v>187</v>
       </c>
+      <c r="AQ12">
+        <v>189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2320,6 +2358,9 @@
       <c r="AP13">
         <v>222</v>
       </c>
+      <c r="AQ13">
+        <v>225</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2466,6 +2507,9 @@
       <c r="AP14">
         <v>167</v>
       </c>
+      <c r="AQ14">
+        <v>167</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2612,6 +2656,9 @@
       <c r="AP15">
         <v>156</v>
       </c>
+      <c r="AQ15">
+        <v>156</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2758,6 +2805,9 @@
       <c r="AP16">
         <v>130</v>
       </c>
+      <c r="AQ16">
+        <v>130</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2904,6 +2954,9 @@
       <c r="AP17">
         <v>5</v>
       </c>
+      <c r="AQ17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3050,6 +3103,9 @@
       <c r="AP18">
         <v>2</v>
       </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3196,6 +3252,9 @@
       <c r="AP19">
         <v>47</v>
       </c>
+      <c r="AQ19">
+        <v>47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3332,6 +3391,9 @@
       <c r="AP20">
         <v>14</v>
       </c>
+      <c r="AQ20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3468,6 +3530,9 @@
       <c r="AP21">
         <v>132</v>
       </c>
+      <c r="AQ21">
+        <v>132</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3604,6 +3669,9 @@
       <c r="AP22">
         <v>51</v>
       </c>
+      <c r="AQ22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3740,6 +3808,9 @@
       <c r="AP23">
         <v>47</v>
       </c>
+      <c r="AQ23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3876,6 +3947,9 @@
       <c r="AP24">
         <v>5</v>
       </c>
+      <c r="AQ24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4012,6 +4086,9 @@
       <c r="AP25">
         <v>1</v>
       </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4148,6 +4225,9 @@
       <c r="AP26">
         <v>0</v>
       </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4284,6 +4364,9 @@
       <c r="AP27">
         <v>7</v>
       </c>
+      <c r="AQ27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4420,6 +4503,9 @@
       <c r="AP28">
         <v>6</v>
       </c>
+      <c r="AQ28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4556,6 +4642,9 @@
       <c r="AP29">
         <v>12</v>
       </c>
+      <c r="AQ29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4692,6 +4781,9 @@
       <c r="AP30">
         <v>13</v>
       </c>
+      <c r="AQ30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4828,6 +4920,9 @@
       <c r="AP31">
         <v>16</v>
       </c>
+      <c r="AQ31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4964,6 +5059,9 @@
       <c r="AP32">
         <v>11</v>
       </c>
+      <c r="AQ32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5100,6 +5198,9 @@
       <c r="AP33">
         <v>13</v>
       </c>
+      <c r="AQ33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5236,6 +5337,9 @@
       <c r="AP34">
         <v>0</v>
       </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5372,6 +5476,9 @@
       <c r="AP35">
         <v>0</v>
       </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5508,6 +5615,9 @@
       <c r="AP36">
         <v>3</v>
       </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5644,6 +5754,9 @@
       <c r="AP37">
         <v>0</v>
       </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5780,6 +5893,9 @@
       <c r="AP38">
         <v>1</v>
       </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5916,6 +6032,9 @@
       <c r="AP39">
         <v>20</v>
       </c>
+      <c r="AQ39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6052,6 +6171,9 @@
       <c r="AP40">
         <v>37</v>
       </c>
+      <c r="AQ40">
+        <v>37</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6188,6 +6310,9 @@
       <c r="AP41">
         <v>0</v>
       </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6324,6 +6449,9 @@
       <c r="AP42">
         <v>11</v>
       </c>
+      <c r="AQ42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6460,6 +6588,9 @@
       <c r="AP43">
         <v>18</v>
       </c>
+      <c r="AQ43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6596,6 +6727,9 @@
       <c r="AP44">
         <v>13</v>
       </c>
+      <c r="AQ44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6732,6 +6866,9 @@
       <c r="AP45">
         <v>27</v>
       </c>
+      <c r="AQ45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6868,6 +7005,9 @@
       <c r="AP46">
         <v>1</v>
       </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7004,6 +7144,9 @@
       <c r="AP47">
         <v>4</v>
       </c>
+      <c r="AQ47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7140,6 +7283,9 @@
       <c r="AP48">
         <v>3</v>
       </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7276,6 +7422,9 @@
       <c r="AP49">
         <v>8</v>
       </c>
+      <c r="AQ49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7412,6 +7561,9 @@
       <c r="AP50">
         <v>2</v>
       </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7548,6 +7700,9 @@
       <c r="AP51">
         <v>6</v>
       </c>
+      <c r="AQ51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7684,6 +7839,9 @@
       <c r="AP52">
         <v>0</v>
       </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7820,6 +7978,9 @@
       <c r="AP53">
         <v>1</v>
       </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7956,6 +8117,9 @@
       <c r="AP54">
         <v>6</v>
       </c>
+      <c r="AQ54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8092,6 +8256,9 @@
       <c r="AP55">
         <v>5</v>
       </c>
+      <c r="AQ55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8228,6 +8395,9 @@
       <c r="AP56">
         <v>1</v>
       </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8364,6 +8534,9 @@
       <c r="AP57">
         <v>10</v>
       </c>
+      <c r="AQ57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8500,6 +8673,9 @@
       <c r="AP58">
         <v>0</v>
       </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8636,6 +8812,9 @@
       <c r="AP59">
         <v>0</v>
       </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8772,6 +8951,9 @@
       <c r="AP60">
         <v>0</v>
       </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8908,6 +9090,9 @@
       <c r="AP61">
         <v>1</v>
       </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9044,6 +9229,9 @@
       <c r="AP62">
         <v>2</v>
       </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9180,6 +9368,9 @@
       <c r="AP63">
         <v>2</v>
       </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9316,6 +9507,9 @@
       <c r="AP64">
         <v>0</v>
       </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9452,6 +9646,9 @@
       <c r="AP65">
         <v>3</v>
       </c>
+      <c r="AQ65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9588,6 +9785,9 @@
       <c r="AP66">
         <v>4</v>
       </c>
+      <c r="AQ66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9724,6 +9924,9 @@
       <c r="AP67">
         <v>1</v>
       </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9860,6 +10063,9 @@
       <c r="AP68">
         <v>3</v>
       </c>
+      <c r="AQ68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9996,6 +10202,9 @@
       <c r="AP69">
         <v>38</v>
       </c>
+      <c r="AQ69">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10132,6 +10341,9 @@
       <c r="AP70">
         <v>6</v>
       </c>
+      <c r="AQ70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10268,6 +10480,9 @@
       <c r="AP71">
         <v>0</v>
       </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10404,6 +10619,9 @@
       <c r="AP72">
         <v>2</v>
       </c>
+      <c r="AQ72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10540,6 +10758,9 @@
       <c r="AP73">
         <v>5</v>
       </c>
+      <c r="AQ73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10676,6 +10897,9 @@
       <c r="AP74">
         <v>3</v>
       </c>
+      <c r="AQ74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10812,6 +11036,9 @@
       <c r="AP75">
         <v>0</v>
       </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10948,6 +11175,9 @@
       <c r="AP76">
         <v>0</v>
       </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11084,6 +11314,9 @@
       <c r="AP77">
         <v>2</v>
       </c>
+      <c r="AQ77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11220,6 +11453,9 @@
       <c r="AP78">
         <v>4</v>
       </c>
+      <c r="AQ78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11356,6 +11592,9 @@
       <c r="AP79">
         <v>1</v>
       </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11492,6 +11731,9 @@
       <c r="AP80">
         <v>1</v>
       </c>
+      <c r="AQ80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11628,6 +11870,9 @@
       <c r="AP81">
         <v>0</v>
       </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11764,6 +12009,9 @@
       <c r="AP82">
         <v>5</v>
       </c>
+      <c r="AQ82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11900,6 +12148,9 @@
       <c r="AP83">
         <v>0</v>
       </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12036,6 +12287,9 @@
       <c r="AP84">
         <v>0</v>
       </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12172,6 +12426,9 @@
       <c r="AP85">
         <v>4</v>
       </c>
+      <c r="AQ85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12308,6 +12565,9 @@
       <c r="AP86">
         <v>0</v>
       </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12444,6 +12704,9 @@
       <c r="AP87">
         <v>0</v>
       </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12580,6 +12843,9 @@
       <c r="AP88">
         <v>0</v>
       </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12716,6 +12982,9 @@
       <c r="AP89">
         <v>5</v>
       </c>
+      <c r="AQ89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12852,6 +13121,9 @@
       <c r="AP90">
         <v>0</v>
       </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12988,6 +13260,9 @@
       <c r="AP91">
         <v>0</v>
       </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13124,6 +13399,9 @@
       <c r="AP92">
         <v>0</v>
       </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13260,6 +13538,9 @@
       <c r="AP93">
         <v>2</v>
       </c>
+      <c r="AQ93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13396,6 +13677,9 @@
       <c r="AP94">
         <v>0</v>
       </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13532,6 +13816,9 @@
       <c r="AP95">
         <v>1</v>
       </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13668,6 +13955,9 @@
       <c r="AP96">
         <v>0</v>
       </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13804,6 +14094,9 @@
       <c r="AP97">
         <v>0</v>
       </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13940,6 +14233,9 @@
       <c r="AP98">
         <v>0</v>
       </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14076,6 +14372,9 @@
       <c r="AP99">
         <v>0</v>
       </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14212,6 +14511,9 @@
       <c r="AP100">
         <v>6</v>
       </c>
+      <c r="AQ100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14348,6 +14650,9 @@
       <c r="AP101">
         <v>13</v>
       </c>
+      <c r="AQ101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14484,6 +14789,9 @@
       <c r="AP102">
         <v>3</v>
       </c>
+      <c r="AQ102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14620,6 +14928,9 @@
       <c r="AP103">
         <v>5</v>
       </c>
+      <c r="AQ103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14756,6 +15067,9 @@
       <c r="AP104">
         <v>0</v>
       </c>
+      <c r="AQ104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14892,6 +15206,9 @@
       <c r="AP105">
         <v>0</v>
       </c>
+      <c r="AQ105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15028,6 +15345,9 @@
       <c r="AP106">
         <v>6</v>
       </c>
+      <c r="AQ106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15164,6 +15484,9 @@
       <c r="AP107">
         <v>0</v>
       </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15300,6 +15623,9 @@
       <c r="AP108">
         <v>1</v>
       </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15436,6 +15762,9 @@
       <c r="AP109">
         <v>0</v>
       </c>
+      <c r="AQ109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15572,6 +15901,9 @@
       <c r="AP110">
         <v>35</v>
       </c>
+      <c r="AQ110">
+        <v>35</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15708,6 +16040,9 @@
       <c r="AP111">
         <v>95</v>
       </c>
+      <c r="AQ111">
+        <v>95</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15844,6 +16179,9 @@
       <c r="AP112">
         <v>63</v>
       </c>
+      <c r="AQ112">
+        <v>63</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15980,6 +16318,9 @@
       <c r="AP113">
         <v>87</v>
       </c>
+      <c r="AQ113">
+        <v>87</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16116,6 +16457,9 @@
       <c r="AP114">
         <v>172</v>
       </c>
+      <c r="AQ114">
+        <v>172</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16252,6 +16596,9 @@
       <c r="AP115">
         <v>21</v>
       </c>
+      <c r="AQ115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16388,6 +16735,9 @@
       <c r="AP116">
         <v>10</v>
       </c>
+      <c r="AQ116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16524,6 +16874,9 @@
       <c r="AP117">
         <v>2</v>
       </c>
+      <c r="AQ117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16660,6 +17013,9 @@
       <c r="AP118">
         <v>2</v>
       </c>
+      <c r="AQ118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16796,6 +17152,9 @@
       <c r="AP119">
         <v>3</v>
       </c>
+      <c r="AQ119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16932,6 +17291,9 @@
       <c r="AP120">
         <v>47</v>
       </c>
+      <c r="AQ120">
+        <v>48</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17068,6 +17430,9 @@
       <c r="AP121">
         <v>2</v>
       </c>
+      <c r="AQ121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17204,6 +17569,9 @@
       <c r="AP122">
         <v>1</v>
       </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17340,6 +17708,9 @@
       <c r="AP123">
         <v>2</v>
       </c>
+      <c r="AQ123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17476,6 +17847,9 @@
       <c r="AP124">
         <v>6</v>
       </c>
+      <c r="AQ124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17612,6 +17986,9 @@
       <c r="AP125">
         <v>23</v>
       </c>
+      <c r="AQ125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17748,6 +18125,9 @@
       <c r="AP126">
         <v>98</v>
       </c>
+      <c r="AQ126">
+        <v>98</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17884,6 +18264,9 @@
       <c r="AP127">
         <v>18</v>
       </c>
+      <c r="AQ127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18020,6 +18403,9 @@
       <c r="AP128">
         <v>21</v>
       </c>
+      <c r="AQ128">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18156,6 +18542,9 @@
       <c r="AP129">
         <v>47</v>
       </c>
+      <c r="AQ129">
+        <v>47</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18292,6 +18681,9 @@
       <c r="AP130">
         <v>406</v>
       </c>
+      <c r="AQ130">
+        <v>406</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18428,6 +18820,9 @@
       <c r="AP131">
         <v>176</v>
       </c>
+      <c r="AQ131">
+        <v>176</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18564,6 +18959,9 @@
       <c r="AP132">
         <v>9</v>
       </c>
+      <c r="AQ132">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18700,6 +19098,9 @@
       <c r="AP133">
         <v>25</v>
       </c>
+      <c r="AQ133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18836,6 +19237,9 @@
       <c r="AP134">
         <v>49</v>
       </c>
+      <c r="AQ134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -18972,6 +19376,9 @@
       <c r="AP135">
         <v>91</v>
       </c>
+      <c r="AQ135">
+        <v>92</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19108,6 +19515,9 @@
       <c r="AP136">
         <v>153</v>
       </c>
+      <c r="AQ136">
+        <v>153</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19244,6 +19654,9 @@
       <c r="AP137">
         <v>45</v>
       </c>
+      <c r="AQ137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19380,6 +19793,9 @@
       <c r="AP138">
         <v>8</v>
       </c>
+      <c r="AQ138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19516,6 +19932,9 @@
       <c r="AP139">
         <v>58</v>
       </c>
+      <c r="AQ139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19652,6 +20071,9 @@
       <c r="AP140">
         <v>14</v>
       </c>
+      <c r="AQ140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19788,6 +20210,9 @@
       <c r="AP141">
         <v>39</v>
       </c>
+      <c r="AQ141">
+        <v>39</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -19924,6 +20349,9 @@
       <c r="AP142">
         <v>17</v>
       </c>
+      <c r="AQ142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20060,6 +20488,9 @@
       <c r="AP143">
         <v>2</v>
       </c>
+      <c r="AQ143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20196,6 +20627,9 @@
       <c r="AP144">
         <v>10</v>
       </c>
+      <c r="AQ144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20332,6 +20766,9 @@
       <c r="AP145">
         <v>1</v>
       </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20468,6 +20905,9 @@
       <c r="AP146">
         <v>7</v>
       </c>
+      <c r="AQ146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20604,6 +21044,9 @@
       <c r="AP147">
         <v>10</v>
       </c>
+      <c r="AQ147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20740,6 +21183,9 @@
       <c r="AP148">
         <v>8</v>
       </c>
+      <c r="AQ148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -20876,6 +21322,9 @@
       <c r="AP149">
         <v>13</v>
       </c>
+      <c r="AQ149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21012,6 +21461,9 @@
       <c r="AP150">
         <v>44</v>
       </c>
+      <c r="AQ150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21148,6 +21600,9 @@
       <c r="AP151">
         <v>0</v>
       </c>
+      <c r="AQ151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21284,6 +21739,9 @@
       <c r="AP152">
         <v>0</v>
       </c>
+      <c r="AQ152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21420,6 +21878,9 @@
       <c r="AP153">
         <v>10</v>
       </c>
+      <c r="AQ153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21556,6 +22017,9 @@
       <c r="AP154">
         <v>5</v>
       </c>
+      <c r="AQ154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -21692,6 +22156,9 @@
       <c r="AP155">
         <v>42</v>
       </c>
+      <c r="AQ155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21828,6 +22295,9 @@
       <c r="AP156">
         <v>4</v>
       </c>
+      <c r="AQ156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -21964,6 +22434,9 @@
       <c r="AP157">
         <v>1</v>
       </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22100,6 +22573,9 @@
       <c r="AP158">
         <v>3</v>
       </c>
+      <c r="AQ158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22236,6 +22712,9 @@
       <c r="AP159">
         <v>6</v>
       </c>
+      <c r="AQ159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22372,6 +22851,9 @@
       <c r="AP160">
         <v>11</v>
       </c>
+      <c r="AQ160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22508,6 +22990,9 @@
       <c r="AP161">
         <v>1</v>
       </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -22644,6 +23129,9 @@
       <c r="AP162">
         <v>82</v>
       </c>
+      <c r="AQ162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -22780,6 +23268,9 @@
       <c r="AP163">
         <v>38</v>
       </c>
+      <c r="AQ163">
+        <v>38</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -22916,6 +23407,9 @@
       <c r="AP164">
         <v>22</v>
       </c>
+      <c r="AQ164">
+        <v>22</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23052,6 +23546,9 @@
       <c r="AP165">
         <v>61</v>
       </c>
+      <c r="AQ165">
+        <v>61</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23188,6 +23685,9 @@
       <c r="AP166">
         <v>11</v>
       </c>
+      <c r="AQ166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23324,6 +23824,9 @@
       <c r="AP167">
         <v>35</v>
       </c>
+      <c r="AQ167">
+        <v>35</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23460,6 +23963,9 @@
       <c r="AP168">
         <v>0</v>
       </c>
+      <c r="AQ168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23596,6 +24102,9 @@
       <c r="AP169">
         <v>20</v>
       </c>
+      <c r="AQ169">
+        <v>20</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23732,6 +24241,9 @@
       <c r="AP170">
         <v>4</v>
       </c>
+      <c r="AQ170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -23868,6 +24380,9 @@
       <c r="AP171">
         <v>5</v>
       </c>
+      <c r="AQ171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24004,6 +24519,9 @@
       <c r="AP172">
         <v>3</v>
       </c>
+      <c r="AQ172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24140,6 +24658,9 @@
       <c r="AP173">
         <v>3</v>
       </c>
+      <c r="AQ173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24276,6 +24797,9 @@
       <c r="AP174">
         <v>16</v>
       </c>
+      <c r="AQ174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24412,6 +24936,9 @@
       <c r="AP175">
         <v>2</v>
       </c>
+      <c r="AQ175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24548,6 +25075,9 @@
       <c r="AP176">
         <v>4</v>
       </c>
+      <c r="AQ176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24684,6 +25214,9 @@
       <c r="AP177">
         <v>0</v>
       </c>
+      <c r="AQ177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -24820,6 +25353,9 @@
       <c r="AP178">
         <v>0</v>
       </c>
+      <c r="AQ178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -24956,6 +25492,9 @@
       <c r="AP179">
         <v>2</v>
       </c>
+      <c r="AQ179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25092,6 +25631,9 @@
       <c r="AP180">
         <v>0</v>
       </c>
+      <c r="AQ180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25228,6 +25770,9 @@
       <c r="AP181">
         <v>0</v>
       </c>
+      <c r="AQ181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25364,6 +25909,9 @@
       <c r="AP182">
         <v>1</v>
       </c>
+      <c r="AQ182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25500,6 +26048,9 @@
       <c r="AP183">
         <v>0</v>
       </c>
+      <c r="AQ183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25636,6 +26187,9 @@
       <c r="AP184">
         <v>1</v>
       </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -25772,6 +26326,9 @@
       <c r="AP185">
         <v>5</v>
       </c>
+      <c r="AQ185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -25908,6 +26465,9 @@
       <c r="AP186">
         <v>2</v>
       </c>
+      <c r="AQ186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26044,6 +26604,9 @@
       <c r="AP187">
         <v>1</v>
       </c>
+      <c r="AQ187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26180,6 +26743,9 @@
       <c r="AP188">
         <v>3</v>
       </c>
+      <c r="AQ188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -26316,6 +26882,9 @@
       <c r="AP189">
         <v>2</v>
       </c>
+      <c r="AQ189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26452,6 +27021,9 @@
       <c r="AP190">
         <v>13</v>
       </c>
+      <c r="AQ190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -26588,6 +27160,9 @@
       <c r="AP191">
         <v>36</v>
       </c>
+      <c r="AQ191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -26724,6 +27299,9 @@
       <c r="AP192">
         <v>1</v>
       </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -26860,6 +27438,9 @@
       <c r="AP193">
         <v>8</v>
       </c>
+      <c r="AQ193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -26996,6 +27577,9 @@
       <c r="AP194">
         <v>2</v>
       </c>
+      <c r="AQ194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27132,6 +27716,9 @@
       <c r="AP195">
         <v>6</v>
       </c>
+      <c r="AQ195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27268,6 +27855,9 @@
       <c r="AP196">
         <v>4</v>
       </c>
+      <c r="AQ196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27404,6 +27994,9 @@
       <c r="AP197">
         <v>12</v>
       </c>
+      <c r="AQ197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -27540,6 +28133,9 @@
       <c r="AP198">
         <v>11</v>
       </c>
+      <c r="AQ198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -27676,6 +28272,9 @@
       <c r="AP199">
         <v>2</v>
       </c>
+      <c r="AQ199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -27812,6 +28411,9 @@
       <c r="AP200">
         <v>1</v>
       </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -27948,6 +28550,9 @@
       <c r="AP201">
         <v>0</v>
       </c>
+      <c r="AQ201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28084,6 +28689,9 @@
       <c r="AP202">
         <v>1</v>
       </c>
+      <c r="AQ202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28220,6 +28828,9 @@
       <c r="AP203">
         <v>9</v>
       </c>
+      <c r="AQ203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -28356,6 +28967,9 @@
       <c r="AP204">
         <v>0</v>
       </c>
+      <c r="AQ204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28492,6 +29106,9 @@
       <c r="AP205">
         <v>0</v>
       </c>
+      <c r="AQ205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -28628,6 +29245,9 @@
       <c r="AP206">
         <v>0</v>
       </c>
+      <c r="AQ206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -28764,6 +29384,9 @@
       <c r="AP207">
         <v>25</v>
       </c>
+      <c r="AQ207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -28900,6 +29523,9 @@
       <c r="AP208">
         <v>20</v>
       </c>
+      <c r="AQ208">
+        <v>20</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29036,6 +29662,9 @@
       <c r="AP209">
         <v>57</v>
       </c>
+      <c r="AQ209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29172,6 +29801,9 @@
       <c r="AP210">
         <v>38</v>
       </c>
+      <c r="AQ210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29308,6 +29940,9 @@
       <c r="AP211">
         <v>36</v>
       </c>
+      <c r="AQ211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29444,6 +30079,9 @@
       <c r="AP212">
         <v>10</v>
       </c>
+      <c r="AQ212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -29580,6 +30218,9 @@
       <c r="AP213">
         <v>40</v>
       </c>
+      <c r="AQ213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -29716,6 +30357,9 @@
       <c r="AP214">
         <v>4</v>
       </c>
+      <c r="AQ214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -29852,6 +30496,9 @@
       <c r="AP215">
         <v>22</v>
       </c>
+      <c r="AQ215">
+        <v>22</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -29988,6 +30635,9 @@
       <c r="AP216">
         <v>2</v>
       </c>
+      <c r="AQ216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30124,6 +30774,9 @@
       <c r="AP217">
         <v>5</v>
       </c>
+      <c r="AQ217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30260,6 +30913,9 @@
       <c r="AP218">
         <v>2</v>
       </c>
+      <c r="AQ218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -30396,6 +31052,9 @@
       <c r="AP219">
         <v>1</v>
       </c>
+      <c r="AQ219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -30532,6 +31191,9 @@
       <c r="AP220">
         <v>5</v>
       </c>
+      <c r="AQ220">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -30668,6 +31330,9 @@
       <c r="AP221">
         <v>0</v>
       </c>
+      <c r="AQ221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -30804,6 +31469,9 @@
       <c r="AP222">
         <v>1</v>
       </c>
+      <c r="AQ222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -30940,6 +31608,9 @@
       <c r="AP223">
         <v>1</v>
       </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31076,6 +31747,9 @@
       <c r="AP224">
         <v>0</v>
       </c>
+      <c r="AQ224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31212,6 +31886,9 @@
       <c r="AP225">
         <v>0</v>
       </c>
+      <c r="AQ225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31348,6 +32025,9 @@
       <c r="AP226">
         <v>0</v>
       </c>
+      <c r="AQ226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -31484,6 +32164,9 @@
       <c r="AP227">
         <v>0</v>
       </c>
+      <c r="AQ227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -31620,6 +32303,9 @@
       <c r="AP228">
         <v>0</v>
       </c>
+      <c r="AQ228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -31756,6 +32442,9 @@
       <c r="AP229">
         <v>2</v>
       </c>
+      <c r="AQ229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -31892,6 +32581,9 @@
       <c r="AP230">
         <v>0</v>
       </c>
+      <c r="AQ230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32028,6 +32720,9 @@
       <c r="AP231">
         <v>2</v>
       </c>
+      <c r="AQ231">
+        <v>2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32164,6 +32859,9 @@
       <c r="AP232">
         <v>30</v>
       </c>
+      <c r="AQ232">
+        <v>30</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32300,6 +32998,9 @@
       <c r="AP233">
         <v>212</v>
       </c>
+      <c r="AQ233">
+        <v>213</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -32436,6 +33137,9 @@
       <c r="AP234">
         <v>9</v>
       </c>
+      <c r="AQ234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32572,6 +33276,9 @@
       <c r="AP235">
         <v>11</v>
       </c>
+      <c r="AQ235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -32708,6 +33415,9 @@
       <c r="AP236">
         <v>0</v>
       </c>
+      <c r="AQ236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -32844,6 +33554,9 @@
       <c r="AP237">
         <v>2</v>
       </c>
+      <c r="AQ237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -32980,6 +33693,9 @@
       <c r="AP238">
         <v>0</v>
       </c>
+      <c r="AQ238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33116,6 +33832,9 @@
       <c r="AP239">
         <v>1</v>
       </c>
+      <c r="AQ239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33252,6 +33971,9 @@
       <c r="AP240">
         <v>2</v>
       </c>
+      <c r="AQ240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -33388,6 +34110,9 @@
       <c r="AP241">
         <v>8</v>
       </c>
+      <c r="AQ241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33524,6 +34249,9 @@
       <c r="AP242">
         <v>3</v>
       </c>
+      <c r="AQ242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33660,6 +34388,9 @@
       <c r="AP243">
         <v>1</v>
       </c>
+      <c r="AQ243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -33796,6 +34527,9 @@
       <c r="AP244">
         <v>2</v>
       </c>
+      <c r="AQ244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -33932,6 +34666,9 @@
       <c r="AP245">
         <v>2</v>
       </c>
+      <c r="AQ245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34068,6 +34805,9 @@
       <c r="AP246">
         <v>2</v>
       </c>
+      <c r="AQ246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34204,6 +34944,9 @@
       <c r="AP247">
         <v>0</v>
       </c>
+      <c r="AQ247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -34340,6 +35083,9 @@
       <c r="AP248">
         <v>3</v>
       </c>
+      <c r="AQ248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34476,6 +35222,9 @@
       <c r="AP249">
         <v>20</v>
       </c>
+      <c r="AQ249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -34612,6 +35361,9 @@
       <c r="AP250">
         <v>0</v>
       </c>
+      <c r="AQ250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -34748,6 +35500,9 @@
       <c r="AP251">
         <v>4</v>
       </c>
+      <c r="AQ251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -34884,6 +35639,9 @@
       <c r="AP252">
         <v>1</v>
       </c>
+      <c r="AQ252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35020,6 +35778,9 @@
       <c r="AP253">
         <v>1</v>
       </c>
+      <c r="AQ253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35156,6 +35917,9 @@
       <c r="AP254">
         <v>1</v>
       </c>
+      <c r="AQ254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -35302,6 +36066,9 @@
       <c r="AP255">
         <v>13</v>
       </c>
+      <c r="AQ255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -35448,6 +36215,9 @@
       <c r="AP256">
         <v>82</v>
       </c>
+      <c r="AQ256">
+        <v>82</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35594,6 +36364,9 @@
       <c r="AP257">
         <v>55</v>
       </c>
+      <c r="AQ257">
+        <v>56</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -35740,6 +36513,9 @@
       <c r="AP258">
         <v>66</v>
       </c>
+      <c r="AQ258">
+        <v>66</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -35886,6 +36662,9 @@
       <c r="AP259">
         <v>65</v>
       </c>
+      <c r="AQ259">
+        <v>65</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -36032,6 +36811,9 @@
       <c r="AP260">
         <v>39</v>
       </c>
+      <c r="AQ260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36178,6 +36960,9 @@
       <c r="AP261">
         <v>97</v>
       </c>
+      <c r="AQ261">
+        <v>97</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -36324,6 +37109,9 @@
       <c r="AP262">
         <v>52</v>
       </c>
+      <c r="AQ262">
+        <v>52</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -36470,6 +37258,9 @@
       <c r="AP263">
         <v>60</v>
       </c>
+      <c r="AQ263">
+        <v>60</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -36606,6 +37397,9 @@
       <c r="AP264">
         <v>9</v>
       </c>
+      <c r="AQ264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -36742,6 +37536,9 @@
       <c r="AP265">
         <v>4</v>
       </c>
+      <c r="AQ265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -36878,6 +37675,9 @@
       <c r="AP266">
         <v>4</v>
       </c>
+      <c r="AQ266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37014,6 +37814,9 @@
       <c r="AP267">
         <v>4</v>
       </c>
+      <c r="AQ267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37150,6 +37953,9 @@
       <c r="AP268">
         <v>6</v>
       </c>
+      <c r="AQ268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -37286,6 +38092,9 @@
       <c r="AP269">
         <v>8</v>
       </c>
+      <c r="AQ269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -37422,6 +38231,9 @@
       <c r="AP270">
         <v>0</v>
       </c>
+      <c r="AQ270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -37558,6 +38370,9 @@
       <c r="AP271">
         <v>4</v>
       </c>
+      <c r="AQ271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -37694,6 +38509,9 @@
       <c r="AP272">
         <v>0</v>
       </c>
+      <c r="AQ272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -37830,6 +38648,9 @@
       <c r="AP273">
         <v>0</v>
       </c>
+      <c r="AQ273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -37966,6 +38787,9 @@
       <c r="AP274">
         <v>2</v>
       </c>
+      <c r="AQ274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38102,6 +38926,9 @@
       <c r="AP275">
         <v>24</v>
       </c>
+      <c r="AQ275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -38238,6 +39065,9 @@
       <c r="AP276">
         <v>9</v>
       </c>
+      <c r="AQ276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -38374,6 +39204,9 @@
       <c r="AP277">
         <v>0</v>
       </c>
+      <c r="AQ277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -38510,6 +39343,9 @@
       <c r="AP278">
         <v>17</v>
       </c>
+      <c r="AQ278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -38646,6 +39482,9 @@
       <c r="AP279">
         <v>5</v>
       </c>
+      <c r="AQ279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -38782,6 +39621,9 @@
       <c r="AP280">
         <v>53</v>
       </c>
+      <c r="AQ280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -38918,6 +39760,9 @@
       <c r="AP281">
         <v>35</v>
       </c>
+      <c r="AQ281">
+        <v>36</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39054,6 +39899,9 @@
       <c r="AP282">
         <v>1</v>
       </c>
+      <c r="AQ282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -39190,6 +40038,9 @@
       <c r="AP283">
         <v>0</v>
       </c>
+      <c r="AQ283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -39326,6 +40177,9 @@
       <c r="AP284">
         <v>40</v>
       </c>
+      <c r="AQ284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -39462,6 +40316,9 @@
       <c r="AP285">
         <v>26</v>
       </c>
+      <c r="AQ285">
+        <v>26</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -39598,6 +40455,9 @@
       <c r="AP286">
         <v>0</v>
       </c>
+      <c r="AQ286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -39734,6 +40594,9 @@
       <c r="AP287">
         <v>0</v>
       </c>
+      <c r="AQ287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -39870,6 +40733,9 @@
       <c r="AP288">
         <v>0</v>
       </c>
+      <c r="AQ288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40006,6 +40872,9 @@
       <c r="AP289">
         <v>1</v>
       </c>
+      <c r="AQ289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -40142,6 +41011,9 @@
       <c r="AP290">
         <v>3</v>
       </c>
+      <c r="AQ290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -40278,6 +41150,9 @@
       <c r="AP291">
         <v>0</v>
       </c>
+      <c r="AQ291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -40414,6 +41289,9 @@
       <c r="AP292">
         <v>3</v>
       </c>
+      <c r="AQ292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -40550,6 +41428,9 @@
       <c r="AP293">
         <v>0</v>
       </c>
+      <c r="AQ293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -40686,6 +41567,9 @@
       <c r="AP294">
         <v>7</v>
       </c>
+      <c r="AQ294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -40822,6 +41706,9 @@
       <c r="AP295">
         <v>0</v>
       </c>
+      <c r="AQ295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -40958,6 +41845,9 @@
       <c r="AP296">
         <v>0</v>
       </c>
+      <c r="AQ296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -41094,6 +41984,9 @@
       <c r="AP297">
         <v>1</v>
       </c>
+      <c r="AQ297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -41230,6 +42123,9 @@
       <c r="AP298">
         <v>4</v>
       </c>
+      <c r="AQ298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -41366,6 +42262,9 @@
       <c r="AP299">
         <v>0</v>
       </c>
+      <c r="AQ299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -41502,6 +42401,9 @@
       <c r="AP300">
         <v>0</v>
       </c>
+      <c r="AQ300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -41638,6 +42540,9 @@
       <c r="AP301">
         <v>17</v>
       </c>
+      <c r="AQ301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -41774,6 +42679,9 @@
       <c r="AP302">
         <v>0</v>
       </c>
+      <c r="AQ302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -41910,6 +42818,9 @@
       <c r="AP303">
         <v>0</v>
       </c>
+      <c r="AQ303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42046,6 +42957,9 @@
       <c r="AP304">
         <v>4</v>
       </c>
+      <c r="AQ304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -42182,6 +43096,9 @@
       <c r="AP305">
         <v>12</v>
       </c>
+      <c r="AQ305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -42318,6 +43235,9 @@
       <c r="AP306">
         <v>264</v>
       </c>
+      <c r="AQ306">
+        <v>268</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -42454,6 +43374,9 @@
       <c r="AP307">
         <v>16</v>
       </c>
+      <c r="AQ307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -42590,6 +43513,9 @@
       <c r="AP308">
         <v>5</v>
       </c>
+      <c r="AQ308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -42726,6 +43652,9 @@
       <c r="AP309">
         <v>0</v>
       </c>
+      <c r="AQ309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -42862,6 +43791,9 @@
       <c r="AP310">
         <v>0</v>
       </c>
+      <c r="AQ310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -42998,6 +43930,9 @@
       <c r="AP311">
         <v>8</v>
       </c>
+      <c r="AQ311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -43134,6 +44069,9 @@
       <c r="AP312">
         <v>5</v>
       </c>
+      <c r="AQ312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -43270,6 +44208,9 @@
       <c r="AP313">
         <v>0</v>
       </c>
+      <c r="AQ313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -43406,6 +44347,9 @@
       <c r="AP314">
         <v>1</v>
       </c>
+      <c r="AQ314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -43542,6 +44486,9 @@
       <c r="AP315">
         <v>7</v>
       </c>
+      <c r="AQ315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -43678,6 +44625,9 @@
       <c r="AP316">
         <v>3</v>
       </c>
+      <c r="AQ316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -43814,6 +44764,9 @@
       <c r="AP317">
         <v>5</v>
       </c>
+      <c r="AQ317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -43950,6 +44903,9 @@
       <c r="AP318">
         <v>11</v>
       </c>
+      <c r="AQ318">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -44086,6 +45042,9 @@
       <c r="AP319">
         <v>6</v>
       </c>
+      <c r="AQ319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -44222,6 +45181,9 @@
       <c r="AP320">
         <v>0</v>
       </c>
+      <c r="AQ320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -44358,6 +45320,9 @@
       <c r="AP321">
         <v>1</v>
       </c>
+      <c r="AQ321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -44494,6 +45459,9 @@
       <c r="AP322">
         <v>8</v>
       </c>
+      <c r="AQ322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -44630,6 +45598,9 @@
       <c r="AP323">
         <v>28</v>
       </c>
+      <c r="AQ323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -44766,6 +45737,9 @@
       <c r="AP324">
         <v>21</v>
       </c>
+      <c r="AQ324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -44902,6 +45876,9 @@
       <c r="AP325">
         <v>15</v>
       </c>
+      <c r="AQ325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -45038,6 +46015,9 @@
       <c r="AP326">
         <v>0</v>
       </c>
+      <c r="AQ326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -45174,6 +46154,9 @@
       <c r="AP327">
         <v>0</v>
       </c>
+      <c r="AQ327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -45310,6 +46293,9 @@
       <c r="AP328">
         <v>0</v>
       </c>
+      <c r="AQ328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -45446,6 +46432,9 @@
       <c r="AP329">
         <v>0</v>
       </c>
+      <c r="AQ329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -45582,6 +46571,9 @@
       <c r="AP330">
         <v>3</v>
       </c>
+      <c r="AQ330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -45718,6 +46710,9 @@
       <c r="AP331">
         <v>1</v>
       </c>
+      <c r="AQ331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -45854,6 +46849,9 @@
       <c r="AP332">
         <v>4</v>
       </c>
+      <c r="AQ332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -45990,6 +46988,9 @@
       <c r="AP333">
         <v>0</v>
       </c>
+      <c r="AQ333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -46126,6 +47127,9 @@
       <c r="AP334">
         <v>0</v>
       </c>
+      <c r="AQ334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -46262,6 +47266,9 @@
       <c r="AP335">
         <v>7</v>
       </c>
+      <c r="AQ335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -46398,6 +47405,9 @@
       <c r="AP336">
         <v>2</v>
       </c>
+      <c r="AQ336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -46534,6 +47544,9 @@
       <c r="AP337">
         <v>2</v>
       </c>
+      <c r="AQ337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -46670,6 +47683,9 @@
       <c r="AP338">
         <v>2</v>
       </c>
+      <c r="AQ338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -46806,6 +47822,9 @@
       <c r="AP339">
         <v>10</v>
       </c>
+      <c r="AQ339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -46942,6 +47961,9 @@
       <c r="AP340">
         <v>1</v>
       </c>
+      <c r="AQ340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -47078,6 +48100,9 @@
       <c r="AP341">
         <v>17</v>
       </c>
+      <c r="AQ341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -47214,6 +48239,9 @@
       <c r="AP342">
         <v>0</v>
       </c>
+      <c r="AQ342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -47350,6 +48378,9 @@
       <c r="AP343">
         <v>0</v>
       </c>
+      <c r="AQ343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -47486,6 +48517,9 @@
       <c r="AP344">
         <v>151</v>
       </c>
+      <c r="AQ344">
+        <v>151</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -47622,6 +48656,9 @@
       <c r="AP345">
         <v>6</v>
       </c>
+      <c r="AQ345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -47758,6 +48795,9 @@
       <c r="AP346">
         <v>5</v>
       </c>
+      <c r="AQ346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -47894,6 +48934,9 @@
       <c r="AP347">
         <v>1</v>
       </c>
+      <c r="AQ347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -48030,6 +49073,9 @@
       <c r="AP348">
         <v>3</v>
       </c>
+      <c r="AQ348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -48166,6 +49212,9 @@
       <c r="AP349">
         <v>15</v>
       </c>
+      <c r="AQ349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -48302,6 +49351,9 @@
       <c r="AP350">
         <v>1</v>
       </c>
+      <c r="AQ350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -48438,6 +49490,9 @@
       <c r="AP351">
         <v>1</v>
       </c>
+      <c r="AQ351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -48574,6 +49629,9 @@
       <c r="AP352">
         <v>0</v>
       </c>
+      <c r="AQ352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -48710,6 +49768,9 @@
       <c r="AP353">
         <v>0</v>
       </c>
+      <c r="AQ353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -48846,6 +49907,9 @@
       <c r="AP354">
         <v>3</v>
       </c>
+      <c r="AQ354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -48982,6 +50046,9 @@
       <c r="AP355">
         <v>1</v>
       </c>
+      <c r="AQ355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -49118,6 +50185,9 @@
       <c r="AP356">
         <v>2</v>
       </c>
+      <c r="AQ356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -49254,6 +50324,9 @@
       <c r="AP357">
         <v>0</v>
       </c>
+      <c r="AQ357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -49390,6 +50463,9 @@
       <c r="AP358">
         <v>0</v>
       </c>
+      <c r="AQ358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -49526,6 +50602,9 @@
       <c r="AP359">
         <v>0</v>
       </c>
+      <c r="AQ359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -49662,6 +50741,9 @@
       <c r="AP360">
         <v>16</v>
       </c>
+      <c r="AQ360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -49798,6 +50880,9 @@
       <c r="AP361">
         <v>2</v>
       </c>
+      <c r="AQ361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -49934,6 +51019,9 @@
       <c r="AP362">
         <v>1</v>
       </c>
+      <c r="AQ362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -50070,6 +51158,9 @@
       <c r="AP363">
         <v>2</v>
       </c>
+      <c r="AQ363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -50206,6 +51297,9 @@
       <c r="AP364">
         <v>0</v>
       </c>
+      <c r="AQ364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -50342,6 +51436,9 @@
       <c r="AP365">
         <v>0</v>
       </c>
+      <c r="AQ365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -50478,6 +51575,9 @@
       <c r="AP366">
         <v>1</v>
       </c>
+      <c r="AQ366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -50614,6 +51714,9 @@
       <c r="AP367">
         <v>2</v>
       </c>
+      <c r="AQ367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -50750,6 +51853,9 @@
       <c r="AP368">
         <v>0</v>
       </c>
+      <c r="AQ368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -50886,6 +51992,9 @@
       <c r="AP369">
         <v>1</v>
       </c>
+      <c r="AQ369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -51022,6 +52131,9 @@
       <c r="AP370">
         <v>0</v>
       </c>
+      <c r="AQ370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -51158,6 +52270,9 @@
       <c r="AP371">
         <v>0</v>
       </c>
+      <c r="AQ371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -51294,6 +52409,9 @@
       <c r="AP372">
         <v>3</v>
       </c>
+      <c r="AQ372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -51430,6 +52548,9 @@
       <c r="AP373">
         <v>2</v>
       </c>
+      <c r="AQ373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -51566,6 +52687,9 @@
       <c r="AP374">
         <v>4</v>
       </c>
+      <c r="AQ374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -51702,6 +52826,9 @@
       <c r="AP375">
         <v>1</v>
       </c>
+      <c r="AQ375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -51838,6 +52965,9 @@
       <c r="AP376">
         <v>0</v>
       </c>
+      <c r="AQ376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -51974,6 +53104,9 @@
       <c r="AP377">
         <v>0</v>
       </c>
+      <c r="AQ377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -52110,6 +53243,9 @@
       <c r="AP378">
         <v>0</v>
       </c>
+      <c r="AQ378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -52246,6 +53382,9 @@
       <c r="AP379">
         <v>1</v>
       </c>
+      <c r="AQ379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -52382,6 +53521,9 @@
       <c r="AP380">
         <v>1</v>
       </c>
+      <c r="AQ380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -52518,6 +53660,9 @@
       <c r="AP381">
         <v>0</v>
       </c>
+      <c r="AQ381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -52654,6 +53799,9 @@
       <c r="AP382">
         <v>4</v>
       </c>
+      <c r="AQ382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -52790,6 +53938,9 @@
       <c r="AP383">
         <v>0</v>
       </c>
+      <c r="AQ383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -52924,6 +54075,9 @@
         <v>0</v>
       </c>
       <c r="AP384">
+        <v>0</v>
+      </c>
+      <c r="AQ384">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ384"/>
+  <dimension ref="A1:AR384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,6 +573,11 @@
           <t>2020-04-27</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -722,6 +727,9 @@
       <c r="AQ2">
         <v>239</v>
       </c>
+      <c r="AR2">
+        <v>240</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -871,6 +879,9 @@
       <c r="AQ3">
         <v>166</v>
       </c>
+      <c r="AR3">
+        <v>168</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1020,6 +1031,9 @@
       <c r="AQ4">
         <v>135</v>
       </c>
+      <c r="AR4">
+        <v>135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1169,6 +1183,9 @@
       <c r="AQ5">
         <v>97</v>
       </c>
+      <c r="AR5">
+        <v>97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1318,6 +1335,9 @@
       <c r="AQ6">
         <v>169</v>
       </c>
+      <c r="AR6">
+        <v>170</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1467,6 +1487,9 @@
       <c r="AQ7">
         <v>108</v>
       </c>
+      <c r="AR7">
+        <v>109</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1616,6 +1639,9 @@
       <c r="AQ8">
         <v>147</v>
       </c>
+      <c r="AR8">
+        <v>148</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1765,6 +1791,9 @@
       <c r="AQ9">
         <v>130</v>
       </c>
+      <c r="AR9">
+        <v>133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1914,6 +1943,9 @@
       <c r="AQ10">
         <v>106</v>
       </c>
+      <c r="AR10">
+        <v>108</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2063,6 +2095,9 @@
       <c r="AQ11">
         <v>105</v>
       </c>
+      <c r="AR11">
+        <v>108</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2212,6 +2247,9 @@
       <c r="AQ12">
         <v>189</v>
       </c>
+      <c r="AR12">
+        <v>189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2361,6 +2399,9 @@
       <c r="AQ13">
         <v>225</v>
       </c>
+      <c r="AR13">
+        <v>225</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2510,6 +2551,9 @@
       <c r="AQ14">
         <v>167</v>
       </c>
+      <c r="AR14">
+        <v>167</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2659,6 +2703,9 @@
       <c r="AQ15">
         <v>156</v>
       </c>
+      <c r="AR15">
+        <v>156</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2808,6 +2855,9 @@
       <c r="AQ16">
         <v>130</v>
       </c>
+      <c r="AR16">
+        <v>131</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2957,6 +3007,9 @@
       <c r="AQ17">
         <v>5</v>
       </c>
+      <c r="AR17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3106,6 +3159,9 @@
       <c r="AQ18">
         <v>2</v>
       </c>
+      <c r="AR18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3255,6 +3311,9 @@
       <c r="AQ19">
         <v>47</v>
       </c>
+      <c r="AR19">
+        <v>47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3394,6 +3453,9 @@
       <c r="AQ20">
         <v>14</v>
       </c>
+      <c r="AR20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3533,6 +3595,9 @@
       <c r="AQ21">
         <v>132</v>
       </c>
+      <c r="AR21">
+        <v>132</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3672,6 +3737,9 @@
       <c r="AQ22">
         <v>51</v>
       </c>
+      <c r="AR22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3811,6 +3879,9 @@
       <c r="AQ23">
         <v>47</v>
       </c>
+      <c r="AR23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3950,6 +4021,9 @@
       <c r="AQ24">
         <v>5</v>
       </c>
+      <c r="AR24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4089,6 +4163,9 @@
       <c r="AQ25">
         <v>1</v>
       </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4228,6 +4305,9 @@
       <c r="AQ26">
         <v>0</v>
       </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4367,6 +4447,9 @@
       <c r="AQ27">
         <v>7</v>
       </c>
+      <c r="AR27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4506,6 +4589,9 @@
       <c r="AQ28">
         <v>6</v>
       </c>
+      <c r="AR28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4645,6 +4731,9 @@
       <c r="AQ29">
         <v>12</v>
       </c>
+      <c r="AR29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4784,6 +4873,9 @@
       <c r="AQ30">
         <v>13</v>
       </c>
+      <c r="AR30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4923,6 +5015,9 @@
       <c r="AQ31">
         <v>16</v>
       </c>
+      <c r="AR31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5062,6 +5157,9 @@
       <c r="AQ32">
         <v>11</v>
       </c>
+      <c r="AR32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5201,6 +5299,9 @@
       <c r="AQ33">
         <v>13</v>
       </c>
+      <c r="AR33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5340,6 +5441,9 @@
       <c r="AQ34">
         <v>0</v>
       </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5479,6 +5583,9 @@
       <c r="AQ35">
         <v>0</v>
       </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5618,6 +5725,9 @@
       <c r="AQ36">
         <v>3</v>
       </c>
+      <c r="AR36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5757,6 +5867,9 @@
       <c r="AQ37">
         <v>0</v>
       </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5896,6 +6009,9 @@
       <c r="AQ38">
         <v>1</v>
       </c>
+      <c r="AR38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6035,6 +6151,9 @@
       <c r="AQ39">
         <v>20</v>
       </c>
+      <c r="AR39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6174,6 +6293,9 @@
       <c r="AQ40">
         <v>37</v>
       </c>
+      <c r="AR40">
+        <v>59</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6313,6 +6435,9 @@
       <c r="AQ41">
         <v>0</v>
       </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6452,6 +6577,9 @@
       <c r="AQ42">
         <v>11</v>
       </c>
+      <c r="AR42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6591,6 +6719,9 @@
       <c r="AQ43">
         <v>18</v>
       </c>
+      <c r="AR43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6730,6 +6861,9 @@
       <c r="AQ44">
         <v>13</v>
       </c>
+      <c r="AR44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6869,6 +7003,9 @@
       <c r="AQ45">
         <v>27</v>
       </c>
+      <c r="AR45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7008,6 +7145,9 @@
       <c r="AQ46">
         <v>1</v>
       </c>
+      <c r="AR46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7147,6 +7287,9 @@
       <c r="AQ47">
         <v>4</v>
       </c>
+      <c r="AR47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7286,6 +7429,9 @@
       <c r="AQ48">
         <v>3</v>
       </c>
+      <c r="AR48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7425,6 +7571,9 @@
       <c r="AQ49">
         <v>8</v>
       </c>
+      <c r="AR49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7564,6 +7713,9 @@
       <c r="AQ50">
         <v>2</v>
       </c>
+      <c r="AR50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7703,6 +7855,9 @@
       <c r="AQ51">
         <v>6</v>
       </c>
+      <c r="AR51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7842,6 +7997,9 @@
       <c r="AQ52">
         <v>0</v>
       </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7981,6 +8139,9 @@
       <c r="AQ53">
         <v>1</v>
       </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8120,6 +8281,9 @@
       <c r="AQ54">
         <v>6</v>
       </c>
+      <c r="AR54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8259,6 +8423,9 @@
       <c r="AQ55">
         <v>5</v>
       </c>
+      <c r="AR55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8398,6 +8565,9 @@
       <c r="AQ56">
         <v>1</v>
       </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8537,6 +8707,9 @@
       <c r="AQ57">
         <v>10</v>
       </c>
+      <c r="AR57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8676,6 +8849,9 @@
       <c r="AQ58">
         <v>0</v>
       </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8815,6 +8991,9 @@
       <c r="AQ59">
         <v>0</v>
       </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8954,6 +9133,9 @@
       <c r="AQ60">
         <v>0</v>
       </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9093,6 +9275,9 @@
       <c r="AQ61">
         <v>1</v>
       </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9232,6 +9417,9 @@
       <c r="AQ62">
         <v>2</v>
       </c>
+      <c r="AR62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9371,6 +9559,9 @@
       <c r="AQ63">
         <v>2</v>
       </c>
+      <c r="AR63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9510,6 +9701,9 @@
       <c r="AQ64">
         <v>0</v>
       </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9649,6 +9843,9 @@
       <c r="AQ65">
         <v>3</v>
       </c>
+      <c r="AR65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9788,6 +9985,9 @@
       <c r="AQ66">
         <v>4</v>
       </c>
+      <c r="AR66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9927,6 +10127,9 @@
       <c r="AQ67">
         <v>1</v>
       </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10066,6 +10269,9 @@
       <c r="AQ68">
         <v>3</v>
       </c>
+      <c r="AR68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10205,6 +10411,9 @@
       <c r="AQ69">
         <v>38</v>
       </c>
+      <c r="AR69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10344,6 +10553,9 @@
       <c r="AQ70">
         <v>6</v>
       </c>
+      <c r="AR70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10483,6 +10695,9 @@
       <c r="AQ71">
         <v>0</v>
       </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10622,6 +10837,9 @@
       <c r="AQ72">
         <v>2</v>
       </c>
+      <c r="AR72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10761,6 +10979,9 @@
       <c r="AQ73">
         <v>5</v>
       </c>
+      <c r="AR73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10900,6 +11121,9 @@
       <c r="AQ74">
         <v>3</v>
       </c>
+      <c r="AR74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11039,6 +11263,9 @@
       <c r="AQ75">
         <v>0</v>
       </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11178,6 +11405,9 @@
       <c r="AQ76">
         <v>0</v>
       </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11317,6 +11547,9 @@
       <c r="AQ77">
         <v>2</v>
       </c>
+      <c r="AR77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11456,6 +11689,9 @@
       <c r="AQ78">
         <v>4</v>
       </c>
+      <c r="AR78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11595,6 +11831,9 @@
       <c r="AQ79">
         <v>1</v>
       </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11734,6 +11973,9 @@
       <c r="AQ80">
         <v>1</v>
       </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11873,6 +12115,9 @@
       <c r="AQ81">
         <v>0</v>
       </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12012,6 +12257,9 @@
       <c r="AQ82">
         <v>5</v>
       </c>
+      <c r="AR82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12151,6 +12399,9 @@
       <c r="AQ83">
         <v>0</v>
       </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12290,6 +12541,9 @@
       <c r="AQ84">
         <v>0</v>
       </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12429,6 +12683,9 @@
       <c r="AQ85">
         <v>4</v>
       </c>
+      <c r="AR85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12568,6 +12825,9 @@
       <c r="AQ86">
         <v>0</v>
       </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12707,6 +12967,9 @@
       <c r="AQ87">
         <v>0</v>
       </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12846,6 +13109,9 @@
       <c r="AQ88">
         <v>0</v>
       </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12985,6 +13251,9 @@
       <c r="AQ89">
         <v>5</v>
       </c>
+      <c r="AR89">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13124,6 +13393,9 @@
       <c r="AQ90">
         <v>0</v>
       </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13263,6 +13535,9 @@
       <c r="AQ91">
         <v>0</v>
       </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13402,6 +13677,9 @@
       <c r="AQ92">
         <v>0</v>
       </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13541,6 +13819,9 @@
       <c r="AQ93">
         <v>2</v>
       </c>
+      <c r="AR93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13680,6 +13961,9 @@
       <c r="AQ94">
         <v>0</v>
       </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13819,6 +14103,9 @@
       <c r="AQ95">
         <v>1</v>
       </c>
+      <c r="AR95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13958,6 +14245,9 @@
       <c r="AQ96">
         <v>0</v>
       </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14097,6 +14387,9 @@
       <c r="AQ97">
         <v>0</v>
       </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14236,6 +14529,9 @@
       <c r="AQ98">
         <v>0</v>
       </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14375,6 +14671,9 @@
       <c r="AQ99">
         <v>0</v>
       </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14514,6 +14813,9 @@
       <c r="AQ100">
         <v>6</v>
       </c>
+      <c r="AR100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14653,6 +14955,9 @@
       <c r="AQ101">
         <v>13</v>
       </c>
+      <c r="AR101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14792,6 +15097,9 @@
       <c r="AQ102">
         <v>3</v>
       </c>
+      <c r="AR102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14931,6 +15239,9 @@
       <c r="AQ103">
         <v>5</v>
       </c>
+      <c r="AR103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15070,6 +15381,9 @@
       <c r="AQ104">
         <v>0</v>
       </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15209,6 +15523,9 @@
       <c r="AQ105">
         <v>0</v>
       </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15348,6 +15665,9 @@
       <c r="AQ106">
         <v>6</v>
       </c>
+      <c r="AR106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15487,6 +15807,9 @@
       <c r="AQ107">
         <v>0</v>
       </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15626,6 +15949,9 @@
       <c r="AQ108">
         <v>1</v>
       </c>
+      <c r="AR108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15765,6 +16091,9 @@
       <c r="AQ109">
         <v>0</v>
       </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15904,6 +16233,9 @@
       <c r="AQ110">
         <v>35</v>
       </c>
+      <c r="AR110">
+        <v>35</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16043,6 +16375,9 @@
       <c r="AQ111">
         <v>95</v>
       </c>
+      <c r="AR111">
+        <v>95</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16182,6 +16517,9 @@
       <c r="AQ112">
         <v>63</v>
       </c>
+      <c r="AR112">
+        <v>64</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16321,6 +16659,9 @@
       <c r="AQ113">
         <v>87</v>
       </c>
+      <c r="AR113">
+        <v>87</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16460,6 +16801,9 @@
       <c r="AQ114">
         <v>172</v>
       </c>
+      <c r="AR114">
+        <v>172</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16599,6 +16943,9 @@
       <c r="AQ115">
         <v>21</v>
       </c>
+      <c r="AR115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16738,6 +17085,9 @@
       <c r="AQ116">
         <v>10</v>
       </c>
+      <c r="AR116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16877,6 +17227,9 @@
       <c r="AQ117">
         <v>2</v>
       </c>
+      <c r="AR117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17016,6 +17369,9 @@
       <c r="AQ118">
         <v>2</v>
       </c>
+      <c r="AR118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17155,6 +17511,9 @@
       <c r="AQ119">
         <v>3</v>
       </c>
+      <c r="AR119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17294,6 +17653,9 @@
       <c r="AQ120">
         <v>48</v>
       </c>
+      <c r="AR120">
+        <v>48</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17433,6 +17795,9 @@
       <c r="AQ121">
         <v>2</v>
       </c>
+      <c r="AR121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17572,6 +17937,9 @@
       <c r="AQ122">
         <v>1</v>
       </c>
+      <c r="AR122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17711,6 +18079,9 @@
       <c r="AQ123">
         <v>2</v>
       </c>
+      <c r="AR123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17850,6 +18221,9 @@
       <c r="AQ124">
         <v>6</v>
       </c>
+      <c r="AR124">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17989,6 +18363,9 @@
       <c r="AQ125">
         <v>23</v>
       </c>
+      <c r="AR125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18128,6 +18505,9 @@
       <c r="AQ126">
         <v>98</v>
       </c>
+      <c r="AR126">
+        <v>98</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -18267,6 +18647,9 @@
       <c r="AQ127">
         <v>18</v>
       </c>
+      <c r="AR127">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18406,6 +18789,9 @@
       <c r="AQ128">
         <v>21</v>
       </c>
+      <c r="AR128">
+        <v>22</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18545,6 +18931,9 @@
       <c r="AQ129">
         <v>47</v>
       </c>
+      <c r="AR129">
+        <v>47</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18684,6 +19073,9 @@
       <c r="AQ130">
         <v>406</v>
       </c>
+      <c r="AR130">
+        <v>407</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18823,6 +19215,9 @@
       <c r="AQ131">
         <v>176</v>
       </c>
+      <c r="AR131">
+        <v>176</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18962,6 +19357,9 @@
       <c r="AQ132">
         <v>9</v>
       </c>
+      <c r="AR132">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19101,6 +19499,9 @@
       <c r="AQ133">
         <v>25</v>
       </c>
+      <c r="AR133">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -19240,6 +19641,9 @@
       <c r="AQ134">
         <v>49</v>
       </c>
+      <c r="AR134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19379,6 +19783,9 @@
       <c r="AQ135">
         <v>92</v>
       </c>
+      <c r="AR135">
+        <v>92</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19518,6 +19925,9 @@
       <c r="AQ136">
         <v>153</v>
       </c>
+      <c r="AR136">
+        <v>156</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19657,6 +20067,9 @@
       <c r="AQ137">
         <v>45</v>
       </c>
+      <c r="AR137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19796,6 +20209,9 @@
       <c r="AQ138">
         <v>8</v>
       </c>
+      <c r="AR138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19935,6 +20351,9 @@
       <c r="AQ139">
         <v>58</v>
       </c>
+      <c r="AR139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -20074,6 +20493,9 @@
       <c r="AQ140">
         <v>14</v>
       </c>
+      <c r="AR140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -20213,6 +20635,9 @@
       <c r="AQ141">
         <v>39</v>
       </c>
+      <c r="AR141">
+        <v>39</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20352,6 +20777,9 @@
       <c r="AQ142">
         <v>17</v>
       </c>
+      <c r="AR142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20491,6 +20919,9 @@
       <c r="AQ143">
         <v>2</v>
       </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20630,6 +21061,9 @@
       <c r="AQ144">
         <v>10</v>
       </c>
+      <c r="AR144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20769,6 +21203,9 @@
       <c r="AQ145">
         <v>1</v>
       </c>
+      <c r="AR145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20908,6 +21345,9 @@
       <c r="AQ146">
         <v>7</v>
       </c>
+      <c r="AR146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21047,6 +21487,9 @@
       <c r="AQ147">
         <v>10</v>
       </c>
+      <c r="AR147">
+        <v>10</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21186,6 +21629,9 @@
       <c r="AQ148">
         <v>8</v>
       </c>
+      <c r="AR148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21325,6 +21771,9 @@
       <c r="AQ149">
         <v>13</v>
       </c>
+      <c r="AR149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21464,6 +21913,9 @@
       <c r="AQ150">
         <v>44</v>
       </c>
+      <c r="AR150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21603,6 +22055,9 @@
       <c r="AQ151">
         <v>0</v>
       </c>
+      <c r="AR151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21742,6 +22197,9 @@
       <c r="AQ152">
         <v>0</v>
       </c>
+      <c r="AR152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21881,6 +22339,9 @@
       <c r="AQ153">
         <v>10</v>
       </c>
+      <c r="AR153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22020,6 +22481,9 @@
       <c r="AQ154">
         <v>5</v>
       </c>
+      <c r="AR154">
+        <v>5</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22159,6 +22623,9 @@
       <c r="AQ155">
         <v>42</v>
       </c>
+      <c r="AR155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -22298,6 +22765,9 @@
       <c r="AQ156">
         <v>4</v>
       </c>
+      <c r="AR156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22437,6 +22907,9 @@
       <c r="AQ157">
         <v>1</v>
       </c>
+      <c r="AR157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22576,6 +23049,9 @@
       <c r="AQ158">
         <v>3</v>
       </c>
+      <c r="AR158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22715,6 +23191,9 @@
       <c r="AQ159">
         <v>6</v>
       </c>
+      <c r="AR159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22854,6 +23333,9 @@
       <c r="AQ160">
         <v>11</v>
       </c>
+      <c r="AR160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22993,6 +23475,9 @@
       <c r="AQ161">
         <v>1</v>
       </c>
+      <c r="AR161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23132,6 +23617,9 @@
       <c r="AQ162">
         <v>82</v>
       </c>
+      <c r="AR162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -23271,6 +23759,9 @@
       <c r="AQ163">
         <v>38</v>
       </c>
+      <c r="AR163">
+        <v>38</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23410,6 +23901,9 @@
       <c r="AQ164">
         <v>22</v>
       </c>
+      <c r="AR164">
+        <v>22</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23549,6 +24043,9 @@
       <c r="AQ165">
         <v>61</v>
       </c>
+      <c r="AR165">
+        <v>62</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23688,6 +24185,9 @@
       <c r="AQ166">
         <v>11</v>
       </c>
+      <c r="AR166">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23827,6 +24327,9 @@
       <c r="AQ167">
         <v>35</v>
       </c>
+      <c r="AR167">
+        <v>35</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23966,6 +24469,9 @@
       <c r="AQ168">
         <v>0</v>
       </c>
+      <c r="AR168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -24105,6 +24611,9 @@
       <c r="AQ169">
         <v>20</v>
       </c>
+      <c r="AR169">
+        <v>20</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -24244,6 +24753,9 @@
       <c r="AQ170">
         <v>4</v>
       </c>
+      <c r="AR170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24383,6 +24895,9 @@
       <c r="AQ171">
         <v>5</v>
       </c>
+      <c r="AR171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24522,6 +25037,9 @@
       <c r="AQ172">
         <v>3</v>
       </c>
+      <c r="AR172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24661,6 +25179,9 @@
       <c r="AQ173">
         <v>3</v>
       </c>
+      <c r="AR173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24800,6 +25321,9 @@
       <c r="AQ174">
         <v>16</v>
       </c>
+      <c r="AR174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24939,6 +25463,9 @@
       <c r="AQ175">
         <v>2</v>
       </c>
+      <c r="AR175">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -25078,6 +25605,9 @@
       <c r="AQ176">
         <v>4</v>
       </c>
+      <c r="AR176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -25217,6 +25747,9 @@
       <c r="AQ177">
         <v>0</v>
       </c>
+      <c r="AR177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -25356,6 +25889,9 @@
       <c r="AQ178">
         <v>0</v>
       </c>
+      <c r="AR178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25495,6 +26031,9 @@
       <c r="AQ179">
         <v>2</v>
       </c>
+      <c r="AR179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25634,6 +26173,9 @@
       <c r="AQ180">
         <v>0</v>
       </c>
+      <c r="AR180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25773,6 +26315,9 @@
       <c r="AQ181">
         <v>0</v>
       </c>
+      <c r="AR181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25912,6 +26457,9 @@
       <c r="AQ182">
         <v>1</v>
       </c>
+      <c r="AR182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -26051,6 +26599,9 @@
       <c r="AQ183">
         <v>0</v>
       </c>
+      <c r="AR183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -26190,6 +26741,9 @@
       <c r="AQ184">
         <v>1</v>
       </c>
+      <c r="AR184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -26329,6 +26883,9 @@
       <c r="AQ185">
         <v>5</v>
       </c>
+      <c r="AR185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26468,6 +27025,9 @@
       <c r="AQ186">
         <v>2</v>
       </c>
+      <c r="AR186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26607,6 +27167,9 @@
       <c r="AQ187">
         <v>1</v>
       </c>
+      <c r="AR187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26746,6 +27309,9 @@
       <c r="AQ188">
         <v>3</v>
       </c>
+      <c r="AR188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -26885,6 +27451,9 @@
       <c r="AQ189">
         <v>2</v>
       </c>
+      <c r="AR189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -27024,6 +27593,9 @@
       <c r="AQ190">
         <v>13</v>
       </c>
+      <c r="AR190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27163,6 +27735,9 @@
       <c r="AQ191">
         <v>36</v>
       </c>
+      <c r="AR191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -27302,6 +27877,9 @@
       <c r="AQ192">
         <v>1</v>
       </c>
+      <c r="AR192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27441,6 +28019,9 @@
       <c r="AQ193">
         <v>8</v>
       </c>
+      <c r="AR193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27580,6 +28161,9 @@
       <c r="AQ194">
         <v>2</v>
       </c>
+      <c r="AR194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27719,6 +28303,9 @@
       <c r="AQ195">
         <v>6</v>
       </c>
+      <c r="AR195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27858,6 +28445,9 @@
       <c r="AQ196">
         <v>4</v>
       </c>
+      <c r="AR196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27997,6 +28587,9 @@
       <c r="AQ197">
         <v>12</v>
       </c>
+      <c r="AR197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -28136,6 +28729,9 @@
       <c r="AQ198">
         <v>11</v>
       </c>
+      <c r="AR198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -28275,6 +28871,9 @@
       <c r="AQ199">
         <v>2</v>
       </c>
+      <c r="AR199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28414,6 +29013,9 @@
       <c r="AQ200">
         <v>1</v>
       </c>
+      <c r="AR200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28553,6 +29155,9 @@
       <c r="AQ201">
         <v>0</v>
       </c>
+      <c r="AR201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28692,6 +29297,9 @@
       <c r="AQ202">
         <v>1</v>
       </c>
+      <c r="AR202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28831,6 +29439,9 @@
       <c r="AQ203">
         <v>9</v>
       </c>
+      <c r="AR203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -28970,6 +29581,9 @@
       <c r="AQ204">
         <v>0</v>
       </c>
+      <c r="AR204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -29109,6 +29723,9 @@
       <c r="AQ205">
         <v>0</v>
       </c>
+      <c r="AR205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -29248,6 +29865,9 @@
       <c r="AQ206">
         <v>0</v>
       </c>
+      <c r="AR206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -29387,6 +30007,9 @@
       <c r="AQ207">
         <v>25</v>
       </c>
+      <c r="AR207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29526,6 +30149,9 @@
       <c r="AQ208">
         <v>20</v>
       </c>
+      <c r="AR208">
+        <v>20</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29665,6 +30291,9 @@
       <c r="AQ209">
         <v>57</v>
       </c>
+      <c r="AR209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29804,6 +30433,9 @@
       <c r="AQ210">
         <v>38</v>
       </c>
+      <c r="AR210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29943,6 +30575,9 @@
       <c r="AQ211">
         <v>36</v>
       </c>
+      <c r="AR211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -30082,6 +30717,9 @@
       <c r="AQ212">
         <v>10</v>
       </c>
+      <c r="AR212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -30221,6 +30859,9 @@
       <c r="AQ213">
         <v>40</v>
       </c>
+      <c r="AR213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -30360,6 +31001,9 @@
       <c r="AQ214">
         <v>4</v>
       </c>
+      <c r="AR214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30499,6 +31143,9 @@
       <c r="AQ215">
         <v>22</v>
       </c>
+      <c r="AR215">
+        <v>22</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30638,6 +31285,9 @@
       <c r="AQ216">
         <v>2</v>
       </c>
+      <c r="AR216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30777,6 +31427,9 @@
       <c r="AQ217">
         <v>5</v>
       </c>
+      <c r="AR217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30916,6 +31569,9 @@
       <c r="AQ218">
         <v>2</v>
       </c>
+      <c r="AR218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -31055,6 +31711,9 @@
       <c r="AQ219">
         <v>1</v>
       </c>
+      <c r="AR219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -31194,6 +31853,9 @@
       <c r="AQ220">
         <v>5</v>
       </c>
+      <c r="AR220">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -31333,6 +31995,9 @@
       <c r="AQ221">
         <v>0</v>
       </c>
+      <c r="AR221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31472,6 +32137,9 @@
       <c r="AQ222">
         <v>1</v>
       </c>
+      <c r="AR222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31611,6 +32279,9 @@
       <c r="AQ223">
         <v>1</v>
       </c>
+      <c r="AR223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31750,6 +32421,9 @@
       <c r="AQ224">
         <v>0</v>
       </c>
+      <c r="AR224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31889,6 +32563,9 @@
       <c r="AQ225">
         <v>0</v>
       </c>
+      <c r="AR225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -32028,6 +32705,9 @@
       <c r="AQ226">
         <v>0</v>
       </c>
+      <c r="AR226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -32167,6 +32847,9 @@
       <c r="AQ227">
         <v>0</v>
       </c>
+      <c r="AR227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -32306,6 +32989,9 @@
       <c r="AQ228">
         <v>0</v>
       </c>
+      <c r="AR228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32445,6 +33131,9 @@
       <c r="AQ229">
         <v>2</v>
       </c>
+      <c r="AR229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32584,6 +33273,9 @@
       <c r="AQ230">
         <v>0</v>
       </c>
+      <c r="AR230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32723,6 +33415,9 @@
       <c r="AQ231">
         <v>2</v>
       </c>
+      <c r="AR231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32862,6 +33557,9 @@
       <c r="AQ232">
         <v>30</v>
       </c>
+      <c r="AR232">
+        <v>30</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -33001,6 +33699,9 @@
       <c r="AQ233">
         <v>213</v>
       </c>
+      <c r="AR233">
+        <v>216</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -33140,6 +33841,9 @@
       <c r="AQ234">
         <v>9</v>
       </c>
+      <c r="AR234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -33279,6 +33983,9 @@
       <c r="AQ235">
         <v>11</v>
       </c>
+      <c r="AR235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33418,6 +34125,9 @@
       <c r="AQ236">
         <v>0</v>
       </c>
+      <c r="AR236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33557,6 +34267,9 @@
       <c r="AQ237">
         <v>2</v>
       </c>
+      <c r="AR237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33696,6 +34409,9 @@
       <c r="AQ238">
         <v>0</v>
       </c>
+      <c r="AR238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33835,6 +34551,9 @@
       <c r="AQ239">
         <v>1</v>
       </c>
+      <c r="AR239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33974,6 +34693,9 @@
       <c r="AQ240">
         <v>2</v>
       </c>
+      <c r="AR240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -34113,6 +34835,9 @@
       <c r="AQ241">
         <v>8</v>
       </c>
+      <c r="AR241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -34252,6 +34977,9 @@
       <c r="AQ242">
         <v>3</v>
       </c>
+      <c r="AR242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -34391,6 +35119,9 @@
       <c r="AQ243">
         <v>1</v>
       </c>
+      <c r="AR243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34530,6 +35261,9 @@
       <c r="AQ244">
         <v>2</v>
       </c>
+      <c r="AR244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34669,6 +35403,9 @@
       <c r="AQ245">
         <v>2</v>
       </c>
+      <c r="AR245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34808,6 +35545,9 @@
       <c r="AQ246">
         <v>2</v>
       </c>
+      <c r="AR246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34947,6 +35687,9 @@
       <c r="AQ247">
         <v>0</v>
       </c>
+      <c r="AR247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -35086,6 +35829,9 @@
       <c r="AQ248">
         <v>3</v>
       </c>
+      <c r="AR248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -35225,6 +35971,9 @@
       <c r="AQ249">
         <v>21</v>
       </c>
+      <c r="AR249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -35364,6 +36113,9 @@
       <c r="AQ250">
         <v>0</v>
       </c>
+      <c r="AR250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35503,6 +36255,9 @@
       <c r="AQ251">
         <v>4</v>
       </c>
+      <c r="AR251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35642,6 +36397,9 @@
       <c r="AQ252">
         <v>1</v>
       </c>
+      <c r="AR252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35781,6 +36539,9 @@
       <c r="AQ253">
         <v>1</v>
       </c>
+      <c r="AR253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35920,6 +36681,9 @@
       <c r="AQ254">
         <v>1</v>
       </c>
+      <c r="AR254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -36069,6 +36833,9 @@
       <c r="AQ255">
         <v>13</v>
       </c>
+      <c r="AR255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -36218,6 +36985,9 @@
       <c r="AQ256">
         <v>82</v>
       </c>
+      <c r="AR256">
+        <v>82</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -36367,6 +37137,9 @@
       <c r="AQ257">
         <v>56</v>
       </c>
+      <c r="AR257">
+        <v>56</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36516,6 +37289,9 @@
       <c r="AQ258">
         <v>66</v>
       </c>
+      <c r="AR258">
+        <v>67</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36665,6 +37441,9 @@
       <c r="AQ259">
         <v>65</v>
       </c>
+      <c r="AR259">
+        <v>65</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -36814,6 +37593,9 @@
       <c r="AQ260">
         <v>40</v>
       </c>
+      <c r="AR260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36963,6 +37745,9 @@
       <c r="AQ261">
         <v>97</v>
       </c>
+      <c r="AR261">
+        <v>97</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -37112,6 +37897,9 @@
       <c r="AQ262">
         <v>52</v>
       </c>
+      <c r="AR262">
+        <v>53</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -37261,6 +38049,9 @@
       <c r="AQ263">
         <v>60</v>
       </c>
+      <c r="AR263">
+        <v>60</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -37400,6 +38191,9 @@
       <c r="AQ264">
         <v>9</v>
       </c>
+      <c r="AR264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37539,6 +38333,9 @@
       <c r="AQ265">
         <v>4</v>
       </c>
+      <c r="AR265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37678,6 +38475,9 @@
       <c r="AQ266">
         <v>4</v>
       </c>
+      <c r="AR266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37817,6 +38617,9 @@
       <c r="AQ267">
         <v>4</v>
       </c>
+      <c r="AR267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37956,6 +38759,9 @@
       <c r="AQ268">
         <v>6</v>
       </c>
+      <c r="AR268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -38095,6 +38901,9 @@
       <c r="AQ269">
         <v>8</v>
       </c>
+      <c r="AR269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -38234,6 +39043,9 @@
       <c r="AQ270">
         <v>0</v>
       </c>
+      <c r="AR270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -38373,6 +39185,9 @@
       <c r="AQ271">
         <v>4</v>
       </c>
+      <c r="AR271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -38512,6 +39327,9 @@
       <c r="AQ272">
         <v>0</v>
       </c>
+      <c r="AR272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38651,6 +39469,9 @@
       <c r="AQ273">
         <v>0</v>
       </c>
+      <c r="AR273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -38790,6 +39611,9 @@
       <c r="AQ274">
         <v>2</v>
       </c>
+      <c r="AR274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38929,6 +39753,9 @@
       <c r="AQ275">
         <v>24</v>
       </c>
+      <c r="AR275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -39068,6 +39895,9 @@
       <c r="AQ276">
         <v>9</v>
       </c>
+      <c r="AR276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -39207,6 +40037,9 @@
       <c r="AQ277">
         <v>0</v>
       </c>
+      <c r="AR277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -39346,6 +40179,9 @@
       <c r="AQ278">
         <v>17</v>
       </c>
+      <c r="AR278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -39485,6 +40321,9 @@
       <c r="AQ279">
         <v>5</v>
       </c>
+      <c r="AR279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39624,6 +40463,9 @@
       <c r="AQ280">
         <v>53</v>
       </c>
+      <c r="AR280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -39763,6 +40605,9 @@
       <c r="AQ281">
         <v>36</v>
       </c>
+      <c r="AR281">
+        <v>40</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39902,6 +40747,9 @@
       <c r="AQ282">
         <v>1</v>
       </c>
+      <c r="AR282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -40041,6 +40889,9 @@
       <c r="AQ283">
         <v>0</v>
       </c>
+      <c r="AR283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -40180,6 +41031,9 @@
       <c r="AQ284">
         <v>40</v>
       </c>
+      <c r="AR284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -40319,6 +41173,9 @@
       <c r="AQ285">
         <v>26</v>
       </c>
+      <c r="AR285">
+        <v>26</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -40458,6 +41315,9 @@
       <c r="AQ286">
         <v>0</v>
       </c>
+      <c r="AR286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40597,6 +41457,9 @@
       <c r="AQ287">
         <v>0</v>
       </c>
+      <c r="AR287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -40736,6 +41599,9 @@
       <c r="AQ288">
         <v>0</v>
       </c>
+      <c r="AR288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40875,6 +41741,9 @@
       <c r="AQ289">
         <v>1</v>
       </c>
+      <c r="AR289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -41014,6 +41883,9 @@
       <c r="AQ290">
         <v>3</v>
       </c>
+      <c r="AR290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -41153,6 +42025,9 @@
       <c r="AQ291">
         <v>0</v>
       </c>
+      <c r="AR291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -41292,6 +42167,9 @@
       <c r="AQ292">
         <v>3</v>
       </c>
+      <c r="AR292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -41431,6 +42309,9 @@
       <c r="AQ293">
         <v>0</v>
       </c>
+      <c r="AR293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41570,6 +42451,9 @@
       <c r="AQ294">
         <v>7</v>
       </c>
+      <c r="AR294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -41709,6 +42593,9 @@
       <c r="AQ295">
         <v>0</v>
       </c>
+      <c r="AR295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -41848,6 +42735,9 @@
       <c r="AQ296">
         <v>0</v>
       </c>
+      <c r="AR296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -41987,6 +42877,9 @@
       <c r="AQ297">
         <v>1</v>
       </c>
+      <c r="AR297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -42126,6 +43019,9 @@
       <c r="AQ298">
         <v>4</v>
       </c>
+      <c r="AR298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -42265,6 +43161,9 @@
       <c r="AQ299">
         <v>0</v>
       </c>
+      <c r="AR299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -42404,6 +43303,9 @@
       <c r="AQ300">
         <v>0</v>
       </c>
+      <c r="AR300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -42543,6 +43445,9 @@
       <c r="AQ301">
         <v>17</v>
       </c>
+      <c r="AR301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -42682,6 +43587,9 @@
       <c r="AQ302">
         <v>0</v>
       </c>
+      <c r="AR302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -42821,6 +43729,9 @@
       <c r="AQ303">
         <v>0</v>
       </c>
+      <c r="AR303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42960,6 +43871,9 @@
       <c r="AQ304">
         <v>4</v>
       </c>
+      <c r="AR304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -43099,6 +44013,9 @@
       <c r="AQ305">
         <v>12</v>
       </c>
+      <c r="AR305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -43238,6 +44155,9 @@
       <c r="AQ306">
         <v>268</v>
       </c>
+      <c r="AR306">
+        <v>279</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -43377,6 +44297,9 @@
       <c r="AQ307">
         <v>16</v>
       </c>
+      <c r="AR307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -43516,6 +44439,9 @@
       <c r="AQ308">
         <v>5</v>
       </c>
+      <c r="AR308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -43655,6 +44581,9 @@
       <c r="AQ309">
         <v>0</v>
       </c>
+      <c r="AR309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -43794,6 +44723,9 @@
       <c r="AQ310">
         <v>0</v>
       </c>
+      <c r="AR310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -43933,6 +44865,9 @@
       <c r="AQ311">
         <v>8</v>
       </c>
+      <c r="AR311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -44072,6 +45007,9 @@
       <c r="AQ312">
         <v>5</v>
       </c>
+      <c r="AR312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -44211,6 +45149,9 @@
       <c r="AQ313">
         <v>0</v>
       </c>
+      <c r="AR313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -44350,6 +45291,9 @@
       <c r="AQ314">
         <v>1</v>
       </c>
+      <c r="AR314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -44489,6 +45433,9 @@
       <c r="AQ315">
         <v>7</v>
       </c>
+      <c r="AR315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -44628,6 +45575,9 @@
       <c r="AQ316">
         <v>3</v>
       </c>
+      <c r="AR316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -44767,6 +45717,9 @@
       <c r="AQ317">
         <v>5</v>
       </c>
+      <c r="AR317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -44906,6 +45859,9 @@
       <c r="AQ318">
         <v>11</v>
       </c>
+      <c r="AR318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -45045,6 +46001,9 @@
       <c r="AQ319">
         <v>6</v>
       </c>
+      <c r="AR319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -45184,6 +46143,9 @@
       <c r="AQ320">
         <v>0</v>
       </c>
+      <c r="AR320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -45323,6 +46285,9 @@
       <c r="AQ321">
         <v>1</v>
       </c>
+      <c r="AR321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -45462,6 +46427,9 @@
       <c r="AQ322">
         <v>8</v>
       </c>
+      <c r="AR322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45601,6 +46569,9 @@
       <c r="AQ323">
         <v>28</v>
       </c>
+      <c r="AR323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -45740,6 +46711,9 @@
       <c r="AQ324">
         <v>21</v>
       </c>
+      <c r="AR324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -45879,6 +46853,9 @@
       <c r="AQ325">
         <v>15</v>
       </c>
+      <c r="AR325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -46018,6 +46995,9 @@
       <c r="AQ326">
         <v>1</v>
       </c>
+      <c r="AR326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -46157,6 +47137,9 @@
       <c r="AQ327">
         <v>0</v>
       </c>
+      <c r="AR327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -46296,6 +47279,9 @@
       <c r="AQ328">
         <v>0</v>
       </c>
+      <c r="AR328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -46435,6 +47421,9 @@
       <c r="AQ329">
         <v>0</v>
       </c>
+      <c r="AR329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -46574,6 +47563,9 @@
       <c r="AQ330">
         <v>3</v>
       </c>
+      <c r="AR330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -46713,6 +47705,9 @@
       <c r="AQ331">
         <v>1</v>
       </c>
+      <c r="AR331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -46852,6 +47847,9 @@
       <c r="AQ332">
         <v>4</v>
       </c>
+      <c r="AR332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -46991,6 +47989,9 @@
       <c r="AQ333">
         <v>0</v>
       </c>
+      <c r="AR333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -47130,6 +48131,9 @@
       <c r="AQ334">
         <v>0</v>
       </c>
+      <c r="AR334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -47269,6 +48273,9 @@
       <c r="AQ335">
         <v>7</v>
       </c>
+      <c r="AR335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -47408,6 +48415,9 @@
       <c r="AQ336">
         <v>2</v>
       </c>
+      <c r="AR336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -47547,6 +48557,9 @@
       <c r="AQ337">
         <v>2</v>
       </c>
+      <c r="AR337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -47686,6 +48699,9 @@
       <c r="AQ338">
         <v>2</v>
       </c>
+      <c r="AR338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -47825,6 +48841,9 @@
       <c r="AQ339">
         <v>10</v>
       </c>
+      <c r="AR339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -47964,6 +48983,9 @@
       <c r="AQ340">
         <v>1</v>
       </c>
+      <c r="AR340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -48103,6 +49125,9 @@
       <c r="AQ341">
         <v>17</v>
       </c>
+      <c r="AR341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -48242,6 +49267,9 @@
       <c r="AQ342">
         <v>0</v>
       </c>
+      <c r="AR342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -48381,6 +49409,9 @@
       <c r="AQ343">
         <v>0</v>
       </c>
+      <c r="AR343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -48520,6 +49551,9 @@
       <c r="AQ344">
         <v>151</v>
       </c>
+      <c r="AR344">
+        <v>152</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -48659,6 +49693,9 @@
       <c r="AQ345">
         <v>6</v>
       </c>
+      <c r="AR345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -48798,6 +49835,9 @@
       <c r="AQ346">
         <v>5</v>
       </c>
+      <c r="AR346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -48937,6 +49977,9 @@
       <c r="AQ347">
         <v>1</v>
       </c>
+      <c r="AR347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -49076,6 +50119,9 @@
       <c r="AQ348">
         <v>3</v>
       </c>
+      <c r="AR348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -49215,6 +50261,9 @@
       <c r="AQ349">
         <v>15</v>
       </c>
+      <c r="AR349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -49354,6 +50403,9 @@
       <c r="AQ350">
         <v>1</v>
       </c>
+      <c r="AR350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -49493,6 +50545,9 @@
       <c r="AQ351">
         <v>1</v>
       </c>
+      <c r="AR351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -49632,6 +50687,9 @@
       <c r="AQ352">
         <v>0</v>
       </c>
+      <c r="AR352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -49771,6 +50829,9 @@
       <c r="AQ353">
         <v>0</v>
       </c>
+      <c r="AR353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -49910,6 +50971,9 @@
       <c r="AQ354">
         <v>3</v>
       </c>
+      <c r="AR354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -50049,6 +51113,9 @@
       <c r="AQ355">
         <v>1</v>
       </c>
+      <c r="AR355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -50188,6 +51255,9 @@
       <c r="AQ356">
         <v>2</v>
       </c>
+      <c r="AR356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -50327,6 +51397,9 @@
       <c r="AQ357">
         <v>0</v>
       </c>
+      <c r="AR357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -50466,6 +51539,9 @@
       <c r="AQ358">
         <v>0</v>
       </c>
+      <c r="AR358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -50605,6 +51681,9 @@
       <c r="AQ359">
         <v>0</v>
       </c>
+      <c r="AR359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -50744,6 +51823,9 @@
       <c r="AQ360">
         <v>16</v>
       </c>
+      <c r="AR360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -50883,6 +51965,9 @@
       <c r="AQ361">
         <v>2</v>
       </c>
+      <c r="AR361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -51022,6 +52107,9 @@
       <c r="AQ362">
         <v>1</v>
       </c>
+      <c r="AR362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -51161,6 +52249,9 @@
       <c r="AQ363">
         <v>2</v>
       </c>
+      <c r="AR363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -51300,6 +52391,9 @@
       <c r="AQ364">
         <v>0</v>
       </c>
+      <c r="AR364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -51439,6 +52533,9 @@
       <c r="AQ365">
         <v>0</v>
       </c>
+      <c r="AR365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -51578,6 +52675,9 @@
       <c r="AQ366">
         <v>1</v>
       </c>
+      <c r="AR366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -51717,6 +52817,9 @@
       <c r="AQ367">
         <v>2</v>
       </c>
+      <c r="AR367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -51856,6 +52959,9 @@
       <c r="AQ368">
         <v>0</v>
       </c>
+      <c r="AR368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -51995,6 +53101,9 @@
       <c r="AQ369">
         <v>1</v>
       </c>
+      <c r="AR369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -52134,6 +53243,9 @@
       <c r="AQ370">
         <v>0</v>
       </c>
+      <c r="AR370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -52273,6 +53385,9 @@
       <c r="AQ371">
         <v>0</v>
       </c>
+      <c r="AR371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -52412,6 +53527,9 @@
       <c r="AQ372">
         <v>3</v>
       </c>
+      <c r="AR372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -52551,6 +53669,9 @@
       <c r="AQ373">
         <v>2</v>
       </c>
+      <c r="AR373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -52690,6 +53811,9 @@
       <c r="AQ374">
         <v>4</v>
       </c>
+      <c r="AR374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -52829,6 +53953,9 @@
       <c r="AQ375">
         <v>1</v>
       </c>
+      <c r="AR375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -52968,6 +54095,9 @@
       <c r="AQ376">
         <v>0</v>
       </c>
+      <c r="AR376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -53107,6 +54237,9 @@
       <c r="AQ377">
         <v>0</v>
       </c>
+      <c r="AR377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -53246,6 +54379,9 @@
       <c r="AQ378">
         <v>0</v>
       </c>
+      <c r="AR378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -53385,6 +54521,9 @@
       <c r="AQ379">
         <v>1</v>
       </c>
+      <c r="AR379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -53524,6 +54663,9 @@
       <c r="AQ380">
         <v>1</v>
       </c>
+      <c r="AR380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -53663,6 +54805,9 @@
       <c r="AQ381">
         <v>0</v>
       </c>
+      <c r="AR381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -53802,6 +54947,9 @@
       <c r="AQ382">
         <v>4</v>
       </c>
+      <c r="AR382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -53941,6 +55089,9 @@
       <c r="AQ383">
         <v>0</v>
       </c>
+      <c r="AR383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -54078,6 +55229,9 @@
         <v>0</v>
       </c>
       <c r="AQ384">
+        <v>0</v>
+      </c>
+      <c r="AR384">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT384"/>
+  <dimension ref="A1:AU384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +588,11 @@
           <t>2020-04-30</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -746,6 +751,9 @@
       <c r="AT2">
         <v>240</v>
       </c>
+      <c r="AU2">
+        <v>240</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -904,6 +912,9 @@
       <c r="AT3">
         <v>172</v>
       </c>
+      <c r="AU3">
+        <v>173</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1062,6 +1073,9 @@
       <c r="AT4">
         <v>135</v>
       </c>
+      <c r="AU4">
+        <v>136</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1220,6 +1234,9 @@
       <c r="AT5">
         <v>99</v>
       </c>
+      <c r="AU5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1378,6 +1395,9 @@
       <c r="AT6">
         <v>170</v>
       </c>
+      <c r="AU6">
+        <v>172</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1536,6 +1556,9 @@
       <c r="AT7">
         <v>110</v>
       </c>
+      <c r="AU7">
+        <v>110</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1694,6 +1717,9 @@
       <c r="AT8">
         <v>148</v>
       </c>
+      <c r="AU8">
+        <v>148</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1852,6 +1878,9 @@
       <c r="AT9">
         <v>133</v>
       </c>
+      <c r="AU9">
+        <v>133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2010,6 +2039,9 @@
       <c r="AT10">
         <v>107</v>
       </c>
+      <c r="AU10">
+        <v>107</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2168,6 +2200,9 @@
       <c r="AT11">
         <v>114</v>
       </c>
+      <c r="AU11">
+        <v>116</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2326,6 +2361,9 @@
       <c r="AT12">
         <v>191</v>
       </c>
+      <c r="AU12">
+        <v>193</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2484,6 +2522,9 @@
       <c r="AT13">
         <v>228</v>
       </c>
+      <c r="AU13">
+        <v>229</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2642,6 +2683,9 @@
       <c r="AT14">
         <v>169</v>
       </c>
+      <c r="AU14">
+        <v>175</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2800,6 +2844,9 @@
       <c r="AT15">
         <v>158</v>
       </c>
+      <c r="AU15">
+        <v>160</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2958,6 +3005,9 @@
       <c r="AT16">
         <v>132</v>
       </c>
+      <c r="AU16">
+        <v>132</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3116,6 +3166,9 @@
       <c r="AT17">
         <v>5</v>
       </c>
+      <c r="AU17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3274,6 +3327,9 @@
       <c r="AT18">
         <v>2</v>
       </c>
+      <c r="AU18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3432,6 +3488,9 @@
       <c r="AT19">
         <v>50</v>
       </c>
+      <c r="AU19">
+        <v>50</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3580,6 +3639,9 @@
       <c r="AT20">
         <v>14</v>
       </c>
+      <c r="AU20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3728,6 +3790,9 @@
       <c r="AT21">
         <v>133</v>
       </c>
+      <c r="AU21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3876,6 +3941,9 @@
       <c r="AT22">
         <v>51</v>
       </c>
+      <c r="AU22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4024,6 +4092,9 @@
       <c r="AT23">
         <v>47</v>
       </c>
+      <c r="AU23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4172,6 +4243,9 @@
       <c r="AT24">
         <v>5</v>
       </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4320,6 +4394,9 @@
       <c r="AT25">
         <v>1</v>
       </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4468,6 +4545,9 @@
       <c r="AT26">
         <v>0</v>
       </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4616,6 +4696,9 @@
       <c r="AT27">
         <v>7</v>
       </c>
+      <c r="AU27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4764,6 +4847,9 @@
       <c r="AT28">
         <v>6</v>
       </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4912,6 +4998,9 @@
       <c r="AT29">
         <v>12</v>
       </c>
+      <c r="AU29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5060,6 +5149,9 @@
       <c r="AT30">
         <v>13</v>
       </c>
+      <c r="AU30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5208,6 +5300,9 @@
       <c r="AT31">
         <v>16</v>
       </c>
+      <c r="AU31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5356,6 +5451,9 @@
       <c r="AT32">
         <v>11</v>
       </c>
+      <c r="AU32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5504,6 +5602,9 @@
       <c r="AT33">
         <v>13</v>
       </c>
+      <c r="AU33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5652,6 +5753,9 @@
       <c r="AT34">
         <v>0</v>
       </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5800,6 +5904,9 @@
       <c r="AT35">
         <v>0</v>
       </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5948,6 +6055,9 @@
       <c r="AT36">
         <v>3</v>
       </c>
+      <c r="AU36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6096,6 +6206,9 @@
       <c r="AT37">
         <v>0</v>
       </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6244,6 +6357,9 @@
       <c r="AT38">
         <v>1</v>
       </c>
+      <c r="AU38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6392,6 +6508,9 @@
       <c r="AT39">
         <v>20</v>
       </c>
+      <c r="AU39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6540,6 +6659,9 @@
       <c r="AT40">
         <v>67</v>
       </c>
+      <c r="AU40">
+        <v>67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6688,6 +6810,9 @@
       <c r="AT41">
         <v>0</v>
       </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6836,6 +6961,9 @@
       <c r="AT42">
         <v>11</v>
       </c>
+      <c r="AU42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6984,6 +7112,9 @@
       <c r="AT43">
         <v>18</v>
       </c>
+      <c r="AU43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7132,6 +7263,9 @@
       <c r="AT44">
         <v>13</v>
       </c>
+      <c r="AU44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7280,6 +7414,9 @@
       <c r="AT45">
         <v>27</v>
       </c>
+      <c r="AU45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7428,6 +7565,9 @@
       <c r="AT46">
         <v>1</v>
       </c>
+      <c r="AU46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7576,6 +7716,9 @@
       <c r="AT47">
         <v>5</v>
       </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7724,6 +7867,9 @@
       <c r="AT48">
         <v>3</v>
       </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7872,6 +8018,9 @@
       <c r="AT49">
         <v>8</v>
       </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8020,6 +8169,9 @@
       <c r="AT50">
         <v>2</v>
       </c>
+      <c r="AU50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8168,6 +8320,9 @@
       <c r="AT51">
         <v>6</v>
       </c>
+      <c r="AU51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8316,6 +8471,9 @@
       <c r="AT52">
         <v>0</v>
       </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8464,6 +8622,9 @@
       <c r="AT53">
         <v>1</v>
       </c>
+      <c r="AU53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8612,6 +8773,9 @@
       <c r="AT54">
         <v>6</v>
       </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8760,6 +8924,9 @@
       <c r="AT55">
         <v>5</v>
       </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8908,6 +9075,9 @@
       <c r="AT56">
         <v>1</v>
       </c>
+      <c r="AU56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9056,6 +9226,9 @@
       <c r="AT57">
         <v>10</v>
       </c>
+      <c r="AU57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9204,6 +9377,9 @@
       <c r="AT58">
         <v>0</v>
       </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9352,6 +9528,9 @@
       <c r="AT59">
         <v>0</v>
       </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9500,6 +9679,9 @@
       <c r="AT60">
         <v>1</v>
       </c>
+      <c r="AU60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9648,6 +9830,9 @@
       <c r="AT61">
         <v>1</v>
       </c>
+      <c r="AU61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9796,6 +9981,9 @@
       <c r="AT62">
         <v>2</v>
       </c>
+      <c r="AU62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9944,6 +10132,9 @@
       <c r="AT63">
         <v>2</v>
       </c>
+      <c r="AU63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10092,6 +10283,9 @@
       <c r="AT64">
         <v>0</v>
       </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10240,6 +10434,9 @@
       <c r="AT65">
         <v>3</v>
       </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10388,6 +10585,9 @@
       <c r="AT66">
         <v>4</v>
       </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10536,6 +10736,9 @@
       <c r="AT67">
         <v>1</v>
       </c>
+      <c r="AU67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10684,6 +10887,9 @@
       <c r="AT68">
         <v>3</v>
       </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10832,6 +11038,9 @@
       <c r="AT69">
         <v>39</v>
       </c>
+      <c r="AU69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10980,6 +11189,9 @@
       <c r="AT70">
         <v>6</v>
       </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11128,6 +11340,9 @@
       <c r="AT71">
         <v>0</v>
       </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11276,6 +11491,9 @@
       <c r="AT72">
         <v>2</v>
       </c>
+      <c r="AU72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11424,6 +11642,9 @@
       <c r="AT73">
         <v>5</v>
       </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11572,6 +11793,9 @@
       <c r="AT74">
         <v>3</v>
       </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11720,6 +11944,9 @@
       <c r="AT75">
         <v>0</v>
       </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11868,6 +12095,9 @@
       <c r="AT76">
         <v>0</v>
       </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12016,6 +12246,9 @@
       <c r="AT77">
         <v>2</v>
       </c>
+      <c r="AU77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12164,6 +12397,9 @@
       <c r="AT78">
         <v>4</v>
       </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12312,6 +12548,9 @@
       <c r="AT79">
         <v>1</v>
       </c>
+      <c r="AU79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12460,6 +12699,9 @@
       <c r="AT80">
         <v>1</v>
       </c>
+      <c r="AU80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12608,6 +12850,9 @@
       <c r="AT81">
         <v>0</v>
       </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12756,6 +13001,9 @@
       <c r="AT82">
         <v>5</v>
       </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12904,6 +13152,9 @@
       <c r="AT83">
         <v>0</v>
       </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13052,6 +13303,9 @@
       <c r="AT84">
         <v>0</v>
       </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13200,6 +13454,9 @@
       <c r="AT85">
         <v>4</v>
       </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13348,6 +13605,9 @@
       <c r="AT86">
         <v>0</v>
       </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13496,6 +13756,9 @@
       <c r="AT87">
         <v>0</v>
       </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13644,6 +13907,9 @@
       <c r="AT88">
         <v>0</v>
       </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13792,6 +14058,9 @@
       <c r="AT89">
         <v>5</v>
       </c>
+      <c r="AU89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13940,6 +14209,9 @@
       <c r="AT90">
         <v>0</v>
       </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14088,6 +14360,9 @@
       <c r="AT91">
         <v>0</v>
       </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14236,6 +14511,9 @@
       <c r="AT92">
         <v>0</v>
       </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14384,6 +14662,9 @@
       <c r="AT93">
         <v>2</v>
       </c>
+      <c r="AU93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14532,6 +14813,9 @@
       <c r="AT94">
         <v>0</v>
       </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14680,6 +14964,9 @@
       <c r="AT95">
         <v>1</v>
       </c>
+      <c r="AU95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -14828,6 +15115,9 @@
       <c r="AT96">
         <v>0</v>
       </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14976,6 +15266,9 @@
       <c r="AT97">
         <v>0</v>
       </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15124,6 +15417,9 @@
       <c r="AT98">
         <v>0</v>
       </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15272,6 +15568,9 @@
       <c r="AT99">
         <v>0</v>
       </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15420,6 +15719,9 @@
       <c r="AT100">
         <v>6</v>
       </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15568,6 +15870,9 @@
       <c r="AT101">
         <v>13</v>
       </c>
+      <c r="AU101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15716,6 +16021,9 @@
       <c r="AT102">
         <v>3</v>
       </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15864,6 +16172,9 @@
       <c r="AT103">
         <v>5</v>
       </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16012,6 +16323,9 @@
       <c r="AT104">
         <v>0</v>
       </c>
+      <c r="AU104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16160,6 +16474,9 @@
       <c r="AT105">
         <v>0</v>
       </c>
+      <c r="AU105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16308,6 +16625,9 @@
       <c r="AT106">
         <v>6</v>
       </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16456,6 +16776,9 @@
       <c r="AT107">
         <v>0</v>
       </c>
+      <c r="AU107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16604,6 +16927,9 @@
       <c r="AT108">
         <v>1</v>
       </c>
+      <c r="AU108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -16752,6 +17078,9 @@
       <c r="AT109">
         <v>0</v>
       </c>
+      <c r="AU109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -16900,6 +17229,9 @@
       <c r="AT110">
         <v>36</v>
       </c>
+      <c r="AU110">
+        <v>36</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17048,6 +17380,9 @@
       <c r="AT111">
         <v>97</v>
       </c>
+      <c r="AU111">
+        <v>97</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -17196,6 +17531,9 @@
       <c r="AT112">
         <v>66</v>
       </c>
+      <c r="AU112">
+        <v>66</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -17344,6 +17682,9 @@
       <c r="AT113">
         <v>93</v>
       </c>
+      <c r="AU113">
+        <v>94</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -17492,6 +17833,9 @@
       <c r="AT114">
         <v>172</v>
       </c>
+      <c r="AU114">
+        <v>172</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -17640,6 +17984,9 @@
       <c r="AT115">
         <v>21</v>
       </c>
+      <c r="AU115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -17788,6 +18135,9 @@
       <c r="AT116">
         <v>10</v>
       </c>
+      <c r="AU116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -17936,6 +18286,9 @@
       <c r="AT117">
         <v>2</v>
       </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18084,6 +18437,9 @@
       <c r="AT118">
         <v>2</v>
       </c>
+      <c r="AU118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -18232,6 +18588,9 @@
       <c r="AT119">
         <v>3</v>
       </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -18380,6 +18739,9 @@
       <c r="AT120">
         <v>49</v>
       </c>
+      <c r="AU120">
+        <v>49</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -18528,6 +18890,9 @@
       <c r="AT121">
         <v>2</v>
       </c>
+      <c r="AU121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -18676,6 +19041,9 @@
       <c r="AT122">
         <v>1</v>
       </c>
+      <c r="AU122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -18824,6 +19192,9 @@
       <c r="AT123">
         <v>2</v>
       </c>
+      <c r="AU123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -18972,6 +19343,9 @@
       <c r="AT124">
         <v>7</v>
       </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -19120,6 +19494,9 @@
       <c r="AT125">
         <v>23</v>
       </c>
+      <c r="AU125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -19268,6 +19645,9 @@
       <c r="AT126">
         <v>100</v>
       </c>
+      <c r="AU126">
+        <v>101</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -19416,6 +19796,9 @@
       <c r="AT127">
         <v>19</v>
       </c>
+      <c r="AU127">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -19564,6 +19947,9 @@
       <c r="AT128">
         <v>27</v>
       </c>
+      <c r="AU128">
+        <v>28</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -19712,6 +20098,9 @@
       <c r="AT129">
         <v>48</v>
       </c>
+      <c r="AU129">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -19860,6 +20249,9 @@
       <c r="AT130">
         <v>409</v>
       </c>
+      <c r="AU130">
+        <v>411</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20008,6 +20400,9 @@
       <c r="AT131">
         <v>179</v>
       </c>
+      <c r="AU131">
+        <v>182</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -20156,6 +20551,9 @@
       <c r="AT132">
         <v>10</v>
       </c>
+      <c r="AU132">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -20304,6 +20702,9 @@
       <c r="AT133">
         <v>26</v>
       </c>
+      <c r="AU133">
+        <v>26</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -20452,6 +20853,9 @@
       <c r="AT134">
         <v>49</v>
       </c>
+      <c r="AU134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -20600,6 +21004,9 @@
       <c r="AT135">
         <v>92</v>
       </c>
+      <c r="AU135">
+        <v>92</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -20748,6 +21155,9 @@
       <c r="AT136">
         <v>157</v>
       </c>
+      <c r="AU136">
+        <v>158</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -20896,6 +21306,9 @@
       <c r="AT137">
         <v>45</v>
       </c>
+      <c r="AU137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21044,6 +21457,9 @@
       <c r="AT138">
         <v>8</v>
       </c>
+      <c r="AU138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21192,6 +21608,9 @@
       <c r="AT139">
         <v>58</v>
       </c>
+      <c r="AU139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21340,6 +21759,9 @@
       <c r="AT140">
         <v>14</v>
       </c>
+      <c r="AU140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21488,6 +21910,9 @@
       <c r="AT141">
         <v>39</v>
       </c>
+      <c r="AU141">
+        <v>40</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -21636,6 +22061,9 @@
       <c r="AT142">
         <v>17</v>
       </c>
+      <c r="AU142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -21784,6 +22212,9 @@
       <c r="AT143">
         <v>2</v>
       </c>
+      <c r="AU143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -21932,6 +22363,9 @@
       <c r="AT144">
         <v>10</v>
       </c>
+      <c r="AU144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22080,6 +22514,9 @@
       <c r="AT145">
         <v>1</v>
       </c>
+      <c r="AU145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -22228,6 +22665,9 @@
       <c r="AT146">
         <v>7</v>
       </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22376,6 +22816,9 @@
       <c r="AT147">
         <v>11</v>
       </c>
+      <c r="AU147">
+        <v>11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -22524,6 +22967,9 @@
       <c r="AT148">
         <v>8</v>
       </c>
+      <c r="AU148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -22672,6 +23118,9 @@
       <c r="AT149">
         <v>13</v>
       </c>
+      <c r="AU149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -22820,6 +23269,9 @@
       <c r="AT150">
         <v>44</v>
       </c>
+      <c r="AU150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -22968,6 +23420,9 @@
       <c r="AT151">
         <v>0</v>
       </c>
+      <c r="AU151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -23116,6 +23571,9 @@
       <c r="AT152">
         <v>0</v>
       </c>
+      <c r="AU152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -23264,6 +23722,9 @@
       <c r="AT153">
         <v>10</v>
       </c>
+      <c r="AU153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -23412,6 +23873,9 @@
       <c r="AT154">
         <v>9</v>
       </c>
+      <c r="AU154">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -23560,6 +24024,9 @@
       <c r="AT155">
         <v>42</v>
       </c>
+      <c r="AU155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -23708,6 +24175,9 @@
       <c r="AT156">
         <v>4</v>
       </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -23856,6 +24326,9 @@
       <c r="AT157">
         <v>1</v>
       </c>
+      <c r="AU157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -24004,6 +24477,9 @@
       <c r="AT158">
         <v>3</v>
       </c>
+      <c r="AU158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -24152,6 +24628,9 @@
       <c r="AT159">
         <v>6</v>
       </c>
+      <c r="AU159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -24300,6 +24779,9 @@
       <c r="AT160">
         <v>12</v>
       </c>
+      <c r="AU160">
+        <v>12</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -24448,6 +24930,9 @@
       <c r="AT161">
         <v>2</v>
       </c>
+      <c r="AU161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -24596,6 +25081,9 @@
       <c r="AT162">
         <v>82</v>
       </c>
+      <c r="AU162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -24744,6 +25232,9 @@
       <c r="AT163">
         <v>38</v>
       </c>
+      <c r="AU163">
+        <v>39</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -24892,6 +25383,9 @@
       <c r="AT164">
         <v>23</v>
       </c>
+      <c r="AU164">
+        <v>24</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -25040,6 +25534,9 @@
       <c r="AT165">
         <v>62</v>
       </c>
+      <c r="AU165">
+        <v>63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -25188,6 +25685,9 @@
       <c r="AT166">
         <v>12</v>
       </c>
+      <c r="AU166">
+        <v>12</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -25336,6 +25836,9 @@
       <c r="AT167">
         <v>36</v>
       </c>
+      <c r="AU167">
+        <v>36</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -25484,6 +25987,9 @@
       <c r="AT168">
         <v>0</v>
       </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -25632,6 +26138,9 @@
       <c r="AT169">
         <v>21</v>
       </c>
+      <c r="AU169">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -25780,6 +26289,9 @@
       <c r="AT170">
         <v>4</v>
       </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -25928,6 +26440,9 @@
       <c r="AT171">
         <v>5</v>
       </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -26076,6 +26591,9 @@
       <c r="AT172">
         <v>3</v>
       </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -26224,6 +26742,9 @@
       <c r="AT173">
         <v>3</v>
       </c>
+      <c r="AU173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -26372,6 +26893,9 @@
       <c r="AT174">
         <v>16</v>
       </c>
+      <c r="AU174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -26520,6 +27044,9 @@
       <c r="AT175">
         <v>3</v>
       </c>
+      <c r="AU175">
+        <v>3</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -26668,6 +27195,9 @@
       <c r="AT176">
         <v>4</v>
       </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -26816,6 +27346,9 @@
       <c r="AT177">
         <v>0</v>
       </c>
+      <c r="AU177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -26964,6 +27497,9 @@
       <c r="AT178">
         <v>0</v>
       </c>
+      <c r="AU178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -27112,6 +27648,9 @@
       <c r="AT179">
         <v>2</v>
       </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -27260,6 +27799,9 @@
       <c r="AT180">
         <v>0</v>
       </c>
+      <c r="AU180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -27408,6 +27950,9 @@
       <c r="AT181">
         <v>0</v>
       </c>
+      <c r="AU181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -27556,6 +28101,9 @@
       <c r="AT182">
         <v>1</v>
       </c>
+      <c r="AU182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -27704,6 +28252,9 @@
       <c r="AT183">
         <v>0</v>
       </c>
+      <c r="AU183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -27852,6 +28403,9 @@
       <c r="AT184">
         <v>1</v>
       </c>
+      <c r="AU184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -28000,6 +28554,9 @@
       <c r="AT185">
         <v>5</v>
       </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -28148,6 +28705,9 @@
       <c r="AT186">
         <v>2</v>
       </c>
+      <c r="AU186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -28296,6 +28856,9 @@
       <c r="AT187">
         <v>1</v>
       </c>
+      <c r="AU187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -28444,6 +29007,9 @@
       <c r="AT188">
         <v>3</v>
       </c>
+      <c r="AU188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -28592,6 +29158,9 @@
       <c r="AT189">
         <v>2</v>
       </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -28740,6 +29309,9 @@
       <c r="AT190">
         <v>13</v>
       </c>
+      <c r="AU190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -28888,6 +29460,9 @@
       <c r="AT191">
         <v>36</v>
       </c>
+      <c r="AU191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -29036,6 +29611,9 @@
       <c r="AT192">
         <v>1</v>
       </c>
+      <c r="AU192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -29184,6 +29762,9 @@
       <c r="AT193">
         <v>8</v>
       </c>
+      <c r="AU193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -29332,6 +29913,9 @@
       <c r="AT194">
         <v>2</v>
       </c>
+      <c r="AU194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -29480,6 +30064,9 @@
       <c r="AT195">
         <v>6</v>
       </c>
+      <c r="AU195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -29628,6 +30215,9 @@
       <c r="AT196">
         <v>4</v>
       </c>
+      <c r="AU196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -29776,6 +30366,9 @@
       <c r="AT197">
         <v>12</v>
       </c>
+      <c r="AU197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -29924,6 +30517,9 @@
       <c r="AT198">
         <v>11</v>
       </c>
+      <c r="AU198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -30072,6 +30668,9 @@
       <c r="AT199">
         <v>2</v>
       </c>
+      <c r="AU199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -30220,6 +30819,9 @@
       <c r="AT200">
         <v>1</v>
       </c>
+      <c r="AU200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -30368,6 +30970,9 @@
       <c r="AT201">
         <v>0</v>
       </c>
+      <c r="AU201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -30516,6 +31121,9 @@
       <c r="AT202">
         <v>1</v>
       </c>
+      <c r="AU202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -30664,6 +31272,9 @@
       <c r="AT203">
         <v>9</v>
       </c>
+      <c r="AU203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -30812,6 +31423,9 @@
       <c r="AT204">
         <v>0</v>
       </c>
+      <c r="AU204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -30960,6 +31574,9 @@
       <c r="AT205">
         <v>0</v>
       </c>
+      <c r="AU205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -31108,6 +31725,9 @@
       <c r="AT206">
         <v>0</v>
       </c>
+      <c r="AU206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -31256,6 +31876,9 @@
       <c r="AT207">
         <v>25</v>
       </c>
+      <c r="AU207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -31404,6 +32027,9 @@
       <c r="AT208">
         <v>20</v>
       </c>
+      <c r="AU208">
+        <v>20</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -31552,6 +32178,9 @@
       <c r="AT209">
         <v>57</v>
       </c>
+      <c r="AU209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -31700,6 +32329,9 @@
       <c r="AT210">
         <v>38</v>
       </c>
+      <c r="AU210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -31848,6 +32480,9 @@
       <c r="AT211">
         <v>36</v>
       </c>
+      <c r="AU211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -31996,6 +32631,9 @@
       <c r="AT212">
         <v>10</v>
       </c>
+      <c r="AU212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -32144,6 +32782,9 @@
       <c r="AT213">
         <v>40</v>
       </c>
+      <c r="AU213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -32292,6 +32933,9 @@
       <c r="AT214">
         <v>4</v>
       </c>
+      <c r="AU214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -32440,6 +33084,9 @@
       <c r="AT215">
         <v>23</v>
       </c>
+      <c r="AU215">
+        <v>23</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -32588,6 +33235,9 @@
       <c r="AT216">
         <v>2</v>
       </c>
+      <c r="AU216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -32736,6 +33386,9 @@
       <c r="AT217">
         <v>5</v>
       </c>
+      <c r="AU217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -32884,6 +33537,9 @@
       <c r="AT218">
         <v>2</v>
       </c>
+      <c r="AU218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -33032,6 +33688,9 @@
       <c r="AT219">
         <v>1</v>
       </c>
+      <c r="AU219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -33180,6 +33839,9 @@
       <c r="AT220">
         <v>5</v>
       </c>
+      <c r="AU220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -33328,6 +33990,9 @@
       <c r="AT221">
         <v>0</v>
       </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -33476,6 +34141,9 @@
       <c r="AT222">
         <v>1</v>
       </c>
+      <c r="AU222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -33624,6 +34292,9 @@
       <c r="AT223">
         <v>1</v>
       </c>
+      <c r="AU223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -33772,6 +34443,9 @@
       <c r="AT224">
         <v>0</v>
       </c>
+      <c r="AU224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -33920,6 +34594,9 @@
       <c r="AT225">
         <v>0</v>
       </c>
+      <c r="AU225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -34068,6 +34745,9 @@
       <c r="AT226">
         <v>0</v>
       </c>
+      <c r="AU226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -34216,6 +34896,9 @@
       <c r="AT227">
         <v>0</v>
       </c>
+      <c r="AU227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -34364,6 +35047,9 @@
       <c r="AT228">
         <v>0</v>
       </c>
+      <c r="AU228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -34512,6 +35198,9 @@
       <c r="AT229">
         <v>2</v>
       </c>
+      <c r="AU229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -34660,6 +35349,9 @@
       <c r="AT230">
         <v>0</v>
       </c>
+      <c r="AU230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -34808,6 +35500,9 @@
       <c r="AT231">
         <v>3</v>
       </c>
+      <c r="AU231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -34956,6 +35651,9 @@
       <c r="AT232">
         <v>30</v>
       </c>
+      <c r="AU232">
+        <v>30</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -35104,6 +35802,9 @@
       <c r="AT233">
         <v>218</v>
       </c>
+      <c r="AU233">
+        <v>219</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -35252,6 +35953,9 @@
       <c r="AT234">
         <v>9</v>
       </c>
+      <c r="AU234">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -35400,6 +36104,9 @@
       <c r="AT235">
         <v>11</v>
       </c>
+      <c r="AU235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -35548,6 +36255,9 @@
       <c r="AT236">
         <v>0</v>
       </c>
+      <c r="AU236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -35696,6 +36406,9 @@
       <c r="AT237">
         <v>2</v>
       </c>
+      <c r="AU237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -35844,6 +36557,9 @@
       <c r="AT238">
         <v>0</v>
       </c>
+      <c r="AU238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -35992,6 +36708,9 @@
       <c r="AT239">
         <v>1</v>
       </c>
+      <c r="AU239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -36140,6 +36859,9 @@
       <c r="AT240">
         <v>2</v>
       </c>
+      <c r="AU240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -36288,6 +37010,9 @@
       <c r="AT241">
         <v>8</v>
       </c>
+      <c r="AU241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -36436,6 +37161,9 @@
       <c r="AT242">
         <v>3</v>
       </c>
+      <c r="AU242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -36584,6 +37312,9 @@
       <c r="AT243">
         <v>1</v>
       </c>
+      <c r="AU243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -36732,6 +37463,9 @@
       <c r="AT244">
         <v>2</v>
       </c>
+      <c r="AU244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -36880,6 +37614,9 @@
       <c r="AT245">
         <v>2</v>
       </c>
+      <c r="AU245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -37028,6 +37765,9 @@
       <c r="AT246">
         <v>2</v>
       </c>
+      <c r="AU246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -37176,6 +37916,9 @@
       <c r="AT247">
         <v>0</v>
       </c>
+      <c r="AU247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -37324,6 +38067,9 @@
       <c r="AT248">
         <v>3</v>
       </c>
+      <c r="AU248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -37472,6 +38218,9 @@
       <c r="AT249">
         <v>21</v>
       </c>
+      <c r="AU249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -37620,6 +38369,9 @@
       <c r="AT250">
         <v>0</v>
       </c>
+      <c r="AU250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -37768,6 +38520,9 @@
       <c r="AT251">
         <v>4</v>
       </c>
+      <c r="AU251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -37916,6 +38671,9 @@
       <c r="AT252">
         <v>1</v>
       </c>
+      <c r="AU252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -38064,6 +38822,9 @@
       <c r="AT253">
         <v>1</v>
       </c>
+      <c r="AU253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -38212,6 +38973,9 @@
       <c r="AT254">
         <v>1</v>
       </c>
+      <c r="AU254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -38370,6 +39134,9 @@
       <c r="AT255">
         <v>13</v>
       </c>
+      <c r="AU255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -38528,6 +39295,9 @@
       <c r="AT256">
         <v>84</v>
       </c>
+      <c r="AU256">
+        <v>84</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -38686,6 +39456,9 @@
       <c r="AT257">
         <v>56</v>
       </c>
+      <c r="AU257">
+        <v>57</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -38844,6 +39617,9 @@
       <c r="AT258">
         <v>70</v>
       </c>
+      <c r="AU258">
+        <v>70</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -39002,6 +39778,9 @@
       <c r="AT259">
         <v>67</v>
       </c>
+      <c r="AU259">
+        <v>69</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -39160,6 +39939,9 @@
       <c r="AT260">
         <v>40</v>
       </c>
+      <c r="AU260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -39318,6 +40100,9 @@
       <c r="AT261">
         <v>99</v>
       </c>
+      <c r="AU261">
+        <v>99</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -39476,6 +40261,9 @@
       <c r="AT262">
         <v>54</v>
       </c>
+      <c r="AU262">
+        <v>57</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -39634,6 +40422,9 @@
       <c r="AT263">
         <v>63</v>
       </c>
+      <c r="AU263">
+        <v>63</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -39782,6 +40573,9 @@
       <c r="AT264">
         <v>9</v>
       </c>
+      <c r="AU264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -39930,6 +40724,9 @@
       <c r="AT265">
         <v>4</v>
       </c>
+      <c r="AU265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -40078,6 +40875,9 @@
       <c r="AT266">
         <v>4</v>
       </c>
+      <c r="AU266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -40226,6 +41026,9 @@
       <c r="AT267">
         <v>4</v>
       </c>
+      <c r="AU267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -40374,6 +41177,9 @@
       <c r="AT268">
         <v>6</v>
       </c>
+      <c r="AU268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -40522,6 +41328,9 @@
       <c r="AT269">
         <v>8</v>
       </c>
+      <c r="AU269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -40670,6 +41479,9 @@
       <c r="AT270">
         <v>0</v>
       </c>
+      <c r="AU270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -40818,6 +41630,9 @@
       <c r="AT271">
         <v>4</v>
       </c>
+      <c r="AU271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -40966,6 +41781,9 @@
       <c r="AT272">
         <v>0</v>
       </c>
+      <c r="AU272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -41114,6 +41932,9 @@
       <c r="AT273">
         <v>0</v>
       </c>
+      <c r="AU273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -41262,6 +42083,9 @@
       <c r="AT274">
         <v>2</v>
       </c>
+      <c r="AU274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -41410,6 +42234,9 @@
       <c r="AT275">
         <v>24</v>
       </c>
+      <c r="AU275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -41558,6 +42385,9 @@
       <c r="AT276">
         <v>9</v>
       </c>
+      <c r="AU276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -41706,6 +42536,9 @@
       <c r="AT277">
         <v>0</v>
       </c>
+      <c r="AU277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -41854,6 +42687,9 @@
       <c r="AT278">
         <v>17</v>
       </c>
+      <c r="AU278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -42002,6 +42838,9 @@
       <c r="AT279">
         <v>5</v>
       </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -42150,6 +42989,9 @@
       <c r="AT280">
         <v>53</v>
       </c>
+      <c r="AU280">
+        <v>53</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -42298,6 +43140,9 @@
       <c r="AT281">
         <v>41</v>
       </c>
+      <c r="AU281">
+        <v>41</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -42446,6 +43291,9 @@
       <c r="AT282">
         <v>1</v>
       </c>
+      <c r="AU282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -42594,6 +43442,9 @@
       <c r="AT283">
         <v>0</v>
       </c>
+      <c r="AU283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -42742,6 +43593,9 @@
       <c r="AT284">
         <v>40</v>
       </c>
+      <c r="AU284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -42890,6 +43744,9 @@
       <c r="AT285">
         <v>27</v>
       </c>
+      <c r="AU285">
+        <v>27</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -43038,6 +43895,9 @@
       <c r="AT286">
         <v>0</v>
       </c>
+      <c r="AU286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -43186,6 +44046,9 @@
       <c r="AT287">
         <v>0</v>
       </c>
+      <c r="AU287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -43334,6 +44197,9 @@
       <c r="AT288">
         <v>0</v>
       </c>
+      <c r="AU288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -43482,6 +44348,9 @@
       <c r="AT289">
         <v>1</v>
       </c>
+      <c r="AU289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -43630,6 +44499,9 @@
       <c r="AT290">
         <v>3</v>
       </c>
+      <c r="AU290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -43778,6 +44650,9 @@
       <c r="AT291">
         <v>0</v>
       </c>
+      <c r="AU291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -43926,6 +44801,9 @@
       <c r="AT292">
         <v>3</v>
       </c>
+      <c r="AU292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -44074,6 +44952,9 @@
       <c r="AT293">
         <v>0</v>
       </c>
+      <c r="AU293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -44222,6 +45103,9 @@
       <c r="AT294">
         <v>7</v>
       </c>
+      <c r="AU294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -44370,6 +45254,9 @@
       <c r="AT295">
         <v>0</v>
       </c>
+      <c r="AU295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -44518,6 +45405,9 @@
       <c r="AT296">
         <v>0</v>
       </c>
+      <c r="AU296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -44666,6 +45556,9 @@
       <c r="AT297">
         <v>1</v>
       </c>
+      <c r="AU297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -44814,6 +45707,9 @@
       <c r="AT298">
         <v>4</v>
       </c>
+      <c r="AU298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -44962,6 +45858,9 @@
       <c r="AT299">
         <v>0</v>
       </c>
+      <c r="AU299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -45110,6 +46009,9 @@
       <c r="AT300">
         <v>0</v>
       </c>
+      <c r="AU300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -45258,6 +46160,9 @@
       <c r="AT301">
         <v>17</v>
       </c>
+      <c r="AU301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -45406,6 +46311,9 @@
       <c r="AT302">
         <v>0</v>
       </c>
+      <c r="AU302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -45554,6 +46462,9 @@
       <c r="AT303">
         <v>0</v>
       </c>
+      <c r="AU303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -45702,6 +46613,9 @@
       <c r="AT304">
         <v>4</v>
       </c>
+      <c r="AU304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -45850,6 +46764,9 @@
       <c r="AT305">
         <v>12</v>
       </c>
+      <c r="AU305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -45998,6 +46915,9 @@
       <c r="AT306">
         <v>285</v>
       </c>
+      <c r="AU306">
+        <v>289</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -46146,6 +47066,9 @@
       <c r="AT307">
         <v>16</v>
       </c>
+      <c r="AU307">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -46294,6 +47217,9 @@
       <c r="AT308">
         <v>5</v>
       </c>
+      <c r="AU308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -46442,6 +47368,9 @@
       <c r="AT309">
         <v>0</v>
       </c>
+      <c r="AU309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -46590,6 +47519,9 @@
       <c r="AT310">
         <v>0</v>
       </c>
+      <c r="AU310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -46738,6 +47670,9 @@
       <c r="AT311">
         <v>8</v>
       </c>
+      <c r="AU311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -46886,6 +47821,9 @@
       <c r="AT312">
         <v>5</v>
       </c>
+      <c r="AU312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -47034,6 +47972,9 @@
       <c r="AT313">
         <v>0</v>
       </c>
+      <c r="AU313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -47182,6 +48123,9 @@
       <c r="AT314">
         <v>1</v>
       </c>
+      <c r="AU314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -47330,6 +48274,9 @@
       <c r="AT315">
         <v>7</v>
       </c>
+      <c r="AU315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -47478,6 +48425,9 @@
       <c r="AT316">
         <v>3</v>
       </c>
+      <c r="AU316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -47626,6 +48576,9 @@
       <c r="AT317">
         <v>5</v>
       </c>
+      <c r="AU317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -47774,6 +48727,9 @@
       <c r="AT318">
         <v>12</v>
       </c>
+      <c r="AU318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -47922,6 +48878,9 @@
       <c r="AT319">
         <v>6</v>
       </c>
+      <c r="AU319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -48070,6 +49029,9 @@
       <c r="AT320">
         <v>0</v>
       </c>
+      <c r="AU320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -48218,6 +49180,9 @@
       <c r="AT321">
         <v>1</v>
       </c>
+      <c r="AU321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -48366,6 +49331,9 @@
       <c r="AT322">
         <v>8</v>
       </c>
+      <c r="AU322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -48514,6 +49482,9 @@
       <c r="AT323">
         <v>28</v>
       </c>
+      <c r="AU323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -48662,6 +49633,9 @@
       <c r="AT324">
         <v>21</v>
       </c>
+      <c r="AU324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -48810,6 +49784,9 @@
       <c r="AT325">
         <v>15</v>
       </c>
+      <c r="AU325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -48958,6 +49935,9 @@
       <c r="AT326">
         <v>1</v>
       </c>
+      <c r="AU326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -49106,6 +50086,9 @@
       <c r="AT327">
         <v>0</v>
       </c>
+      <c r="AU327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -49254,6 +50237,9 @@
       <c r="AT328">
         <v>0</v>
       </c>
+      <c r="AU328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -49402,6 +50388,9 @@
       <c r="AT329">
         <v>0</v>
       </c>
+      <c r="AU329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -49550,6 +50539,9 @@
       <c r="AT330">
         <v>3</v>
       </c>
+      <c r="AU330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -49698,6 +50690,9 @@
       <c r="AT331">
         <v>1</v>
       </c>
+      <c r="AU331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -49846,6 +50841,9 @@
       <c r="AT332">
         <v>4</v>
       </c>
+      <c r="AU332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -49994,6 +50992,9 @@
       <c r="AT333">
         <v>0</v>
       </c>
+      <c r="AU333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -50142,6 +51143,9 @@
       <c r="AT334">
         <v>0</v>
       </c>
+      <c r="AU334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -50290,6 +51294,9 @@
       <c r="AT335">
         <v>7</v>
       </c>
+      <c r="AU335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -50438,6 +51445,9 @@
       <c r="AT336">
         <v>2</v>
       </c>
+      <c r="AU336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -50586,6 +51596,9 @@
       <c r="AT337">
         <v>2</v>
       </c>
+      <c r="AU337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -50734,6 +51747,9 @@
       <c r="AT338">
         <v>2</v>
       </c>
+      <c r="AU338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -50882,6 +51898,9 @@
       <c r="AT339">
         <v>10</v>
       </c>
+      <c r="AU339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -51030,6 +52049,9 @@
       <c r="AT340">
         <v>1</v>
       </c>
+      <c r="AU340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -51178,6 +52200,9 @@
       <c r="AT341">
         <v>17</v>
       </c>
+      <c r="AU341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -51326,6 +52351,9 @@
       <c r="AT342">
         <v>0</v>
       </c>
+      <c r="AU342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -51474,6 +52502,9 @@
       <c r="AT343">
         <v>0</v>
       </c>
+      <c r="AU343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -51622,6 +52653,9 @@
       <c r="AT344">
         <v>158</v>
       </c>
+      <c r="AU344">
+        <v>158</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -51770,6 +52804,9 @@
       <c r="AT345">
         <v>6</v>
       </c>
+      <c r="AU345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -51918,6 +52955,9 @@
       <c r="AT346">
         <v>5</v>
       </c>
+      <c r="AU346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -52066,6 +53106,9 @@
       <c r="AT347">
         <v>1</v>
       </c>
+      <c r="AU347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -52214,6 +53257,9 @@
       <c r="AT348">
         <v>3</v>
       </c>
+      <c r="AU348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -52362,6 +53408,9 @@
       <c r="AT349">
         <v>15</v>
       </c>
+      <c r="AU349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -52510,6 +53559,9 @@
       <c r="AT350">
         <v>1</v>
       </c>
+      <c r="AU350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -52658,6 +53710,9 @@
       <c r="AT351">
         <v>1</v>
       </c>
+      <c r="AU351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -52806,6 +53861,9 @@
       <c r="AT352">
         <v>0</v>
       </c>
+      <c r="AU352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -52954,6 +54012,9 @@
       <c r="AT353">
         <v>0</v>
       </c>
+      <c r="AU353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -53102,6 +54163,9 @@
       <c r="AT354">
         <v>3</v>
       </c>
+      <c r="AU354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -53250,6 +54314,9 @@
       <c r="AT355">
         <v>1</v>
       </c>
+      <c r="AU355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -53398,6 +54465,9 @@
       <c r="AT356">
         <v>2</v>
       </c>
+      <c r="AU356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -53546,6 +54616,9 @@
       <c r="AT357">
         <v>1</v>
       </c>
+      <c r="AU357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -53694,6 +54767,9 @@
       <c r="AT358">
         <v>0</v>
       </c>
+      <c r="AU358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -53842,6 +54918,9 @@
       <c r="AT359">
         <v>0</v>
       </c>
+      <c r="AU359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -53990,6 +55069,9 @@
       <c r="AT360">
         <v>16</v>
       </c>
+      <c r="AU360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -54138,6 +55220,9 @@
       <c r="AT361">
         <v>2</v>
       </c>
+      <c r="AU361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -54286,6 +55371,9 @@
       <c r="AT362">
         <v>1</v>
       </c>
+      <c r="AU362">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -54434,6 +55522,9 @@
       <c r="AT363">
         <v>2</v>
       </c>
+      <c r="AU363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -54582,6 +55673,9 @@
       <c r="AT364">
         <v>0</v>
       </c>
+      <c r="AU364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -54730,6 +55824,9 @@
       <c r="AT365">
         <v>0</v>
       </c>
+      <c r="AU365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -54878,6 +55975,9 @@
       <c r="AT366">
         <v>1</v>
       </c>
+      <c r="AU366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -55026,6 +56126,9 @@
       <c r="AT367">
         <v>2</v>
       </c>
+      <c r="AU367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -55174,6 +56277,9 @@
       <c r="AT368">
         <v>0</v>
       </c>
+      <c r="AU368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -55322,6 +56428,9 @@
       <c r="AT369">
         <v>1</v>
       </c>
+      <c r="AU369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -55470,6 +56579,9 @@
       <c r="AT370">
         <v>0</v>
       </c>
+      <c r="AU370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -55618,6 +56730,9 @@
       <c r="AT371">
         <v>0</v>
       </c>
+      <c r="AU371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -55766,6 +56881,9 @@
       <c r="AT372">
         <v>3</v>
       </c>
+      <c r="AU372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -55914,6 +57032,9 @@
       <c r="AT373">
         <v>2</v>
       </c>
+      <c r="AU373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -56062,6 +57183,9 @@
       <c r="AT374">
         <v>4</v>
       </c>
+      <c r="AU374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -56210,6 +57334,9 @@
       <c r="AT375">
         <v>1</v>
       </c>
+      <c r="AU375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -56358,6 +57485,9 @@
       <c r="AT376">
         <v>0</v>
       </c>
+      <c r="AU376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -56506,6 +57636,9 @@
       <c r="AT377">
         <v>0</v>
       </c>
+      <c r="AU377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -56654,6 +57787,9 @@
       <c r="AT378">
         <v>0</v>
       </c>
+      <c r="AU378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -56802,6 +57938,9 @@
       <c r="AT379">
         <v>1</v>
       </c>
+      <c r="AU379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -56950,6 +58089,9 @@
       <c r="AT380">
         <v>1</v>
       </c>
+      <c r="AU380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -57098,6 +58240,9 @@
       <c r="AT381">
         <v>0</v>
       </c>
+      <c r="AU381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -57246,6 +58391,9 @@
       <c r="AT382">
         <v>4</v>
       </c>
+      <c r="AU382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -57394,6 +58542,9 @@
       <c r="AT383">
         <v>0</v>
       </c>
+      <c r="AU383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -57541,6 +58692,9 @@
       </c>
       <c r="AT384">
         <v>0</v>
+      </c>
+      <c r="AU384">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV384"/>
+  <dimension ref="A1:AW384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,6 +598,11 @@
           <t>2020-05-02</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -762,6 +767,9 @@
       <c r="AV2">
         <v>240</v>
       </c>
+      <c r="AW2">
+        <v>240</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -926,6 +934,9 @@
       <c r="AV3">
         <v>173</v>
       </c>
+      <c r="AW3">
+        <v>174</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1090,6 +1101,9 @@
       <c r="AV4">
         <v>139</v>
       </c>
+      <c r="AW4">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1254,6 +1268,9 @@
       <c r="AV5">
         <v>100</v>
       </c>
+      <c r="AW5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1418,6 +1435,9 @@
       <c r="AV6">
         <v>172</v>
       </c>
+      <c r="AW6">
+        <v>173</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1582,6 +1602,9 @@
       <c r="AV7">
         <v>110</v>
       </c>
+      <c r="AW7">
+        <v>110</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1746,6 +1769,9 @@
       <c r="AV8">
         <v>148</v>
       </c>
+      <c r="AW8">
+        <v>149</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1910,6 +1936,9 @@
       <c r="AV9">
         <v>133</v>
       </c>
+      <c r="AW9">
+        <v>133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2074,6 +2103,9 @@
       <c r="AV10">
         <v>107</v>
       </c>
+      <c r="AW10">
+        <v>109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2238,6 +2270,9 @@
       <c r="AV11">
         <v>116</v>
       </c>
+      <c r="AW11">
+        <v>116</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2402,6 +2437,9 @@
       <c r="AV12">
         <v>194</v>
       </c>
+      <c r="AW12">
+        <v>195</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2566,6 +2604,9 @@
       <c r="AV13">
         <v>229</v>
       </c>
+      <c r="AW13">
+        <v>231</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2730,6 +2771,9 @@
       <c r="AV14">
         <v>175</v>
       </c>
+      <c r="AW14">
+        <v>179</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2894,6 +2938,9 @@
       <c r="AV15">
         <v>160</v>
       </c>
+      <c r="AW15">
+        <v>161</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3058,6 +3105,9 @@
       <c r="AV16">
         <v>132</v>
       </c>
+      <c r="AW16">
+        <v>132</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3222,6 +3272,9 @@
       <c r="AV17">
         <v>5</v>
       </c>
+      <c r="AW17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3386,6 +3439,9 @@
       <c r="AV18">
         <v>2</v>
       </c>
+      <c r="AW18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3550,6 +3606,9 @@
       <c r="AV19">
         <v>50</v>
       </c>
+      <c r="AW19">
+        <v>50</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3704,6 +3763,9 @@
       <c r="AV20">
         <v>14</v>
       </c>
+      <c r="AW20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3858,6 +3920,9 @@
       <c r="AV21">
         <v>133</v>
       </c>
+      <c r="AW21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4012,6 +4077,9 @@
       <c r="AV22">
         <v>51</v>
       </c>
+      <c r="AW22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4166,6 +4234,9 @@
       <c r="AV23">
         <v>47</v>
       </c>
+      <c r="AW23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4320,6 +4391,9 @@
       <c r="AV24">
         <v>5</v>
       </c>
+      <c r="AW24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4474,6 +4548,9 @@
       <c r="AV25">
         <v>1</v>
       </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4628,6 +4705,9 @@
       <c r="AV26">
         <v>0</v>
       </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4782,6 +4862,9 @@
       <c r="AV27">
         <v>7</v>
       </c>
+      <c r="AW27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4936,6 +5019,9 @@
       <c r="AV28">
         <v>6</v>
       </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5090,6 +5176,9 @@
       <c r="AV29">
         <v>12</v>
       </c>
+      <c r="AW29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5244,6 +5333,9 @@
       <c r="AV30">
         <v>13</v>
       </c>
+      <c r="AW30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5398,6 +5490,9 @@
       <c r="AV31">
         <v>16</v>
       </c>
+      <c r="AW31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5552,6 +5647,9 @@
       <c r="AV32">
         <v>11</v>
       </c>
+      <c r="AW32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5706,6 +5804,9 @@
       <c r="AV33">
         <v>13</v>
       </c>
+      <c r="AW33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5860,6 +5961,9 @@
       <c r="AV34">
         <v>0</v>
       </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6014,6 +6118,9 @@
       <c r="AV35">
         <v>0</v>
       </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6168,6 +6275,9 @@
       <c r="AV36">
         <v>3</v>
       </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6322,6 +6432,9 @@
       <c r="AV37">
         <v>0</v>
       </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6476,6 +6589,9 @@
       <c r="AV38">
         <v>1</v>
       </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6630,6 +6746,9 @@
       <c r="AV39">
         <v>20</v>
       </c>
+      <c r="AW39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6784,6 +6903,9 @@
       <c r="AV40">
         <v>67</v>
       </c>
+      <c r="AW40">
+        <v>67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6938,6 +7060,9 @@
       <c r="AV41">
         <v>0</v>
       </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7092,6 +7217,9 @@
       <c r="AV42">
         <v>11</v>
       </c>
+      <c r="AW42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7246,6 +7374,9 @@
       <c r="AV43">
         <v>18</v>
       </c>
+      <c r="AW43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7400,6 +7531,9 @@
       <c r="AV44">
         <v>13</v>
       </c>
+      <c r="AW44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7554,6 +7688,9 @@
       <c r="AV45">
         <v>27</v>
       </c>
+      <c r="AW45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7708,6 +7845,9 @@
       <c r="AV46">
         <v>1</v>
       </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7862,6 +8002,9 @@
       <c r="AV47">
         <v>5</v>
       </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8016,6 +8159,9 @@
       <c r="AV48">
         <v>3</v>
       </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8170,6 +8316,9 @@
       <c r="AV49">
         <v>8</v>
       </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8324,6 +8473,9 @@
       <c r="AV50">
         <v>2</v>
       </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8478,6 +8630,9 @@
       <c r="AV51">
         <v>6</v>
       </c>
+      <c r="AW51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8632,6 +8787,9 @@
       <c r="AV52">
         <v>0</v>
       </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8786,6 +8944,9 @@
       <c r="AV53">
         <v>1</v>
       </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8940,6 +9101,9 @@
       <c r="AV54">
         <v>6</v>
       </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9094,6 +9258,9 @@
       <c r="AV55">
         <v>5</v>
       </c>
+      <c r="AW55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9248,6 +9415,9 @@
       <c r="AV56">
         <v>1</v>
       </c>
+      <c r="AW56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9402,6 +9572,9 @@
       <c r="AV57">
         <v>10</v>
       </c>
+      <c r="AW57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9556,6 +9729,9 @@
       <c r="AV58">
         <v>0</v>
       </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9710,6 +9886,9 @@
       <c r="AV59">
         <v>0</v>
       </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9864,6 +10043,9 @@
       <c r="AV60">
         <v>1</v>
       </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10018,6 +10200,9 @@
       <c r="AV61">
         <v>1</v>
       </c>
+      <c r="AW61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10172,6 +10357,9 @@
       <c r="AV62">
         <v>2</v>
       </c>
+      <c r="AW62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10326,6 +10514,9 @@
       <c r="AV63">
         <v>2</v>
       </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10480,6 +10671,9 @@
       <c r="AV64">
         <v>0</v>
       </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10634,6 +10828,9 @@
       <c r="AV65">
         <v>3</v>
       </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10788,6 +10985,9 @@
       <c r="AV66">
         <v>4</v>
       </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10942,6 +11142,9 @@
       <c r="AV67">
         <v>1</v>
       </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11096,6 +11299,9 @@
       <c r="AV68">
         <v>3</v>
       </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11250,6 +11456,9 @@
       <c r="AV69">
         <v>39</v>
       </c>
+      <c r="AW69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11404,6 +11613,9 @@
       <c r="AV70">
         <v>6</v>
       </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11558,6 +11770,9 @@
       <c r="AV71">
         <v>0</v>
       </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11712,6 +11927,9 @@
       <c r="AV72">
         <v>2</v>
       </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11866,6 +12084,9 @@
       <c r="AV73">
         <v>5</v>
       </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12020,6 +12241,9 @@
       <c r="AV74">
         <v>3</v>
       </c>
+      <c r="AW74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12174,6 +12398,9 @@
       <c r="AV75">
         <v>0</v>
       </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12328,6 +12555,9 @@
       <c r="AV76">
         <v>0</v>
       </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12482,6 +12712,9 @@
       <c r="AV77">
         <v>2</v>
       </c>
+      <c r="AW77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12636,6 +12869,9 @@
       <c r="AV78">
         <v>4</v>
       </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12790,6 +13026,9 @@
       <c r="AV79">
         <v>1</v>
       </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12944,6 +13183,9 @@
       <c r="AV80">
         <v>1</v>
       </c>
+      <c r="AW80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13098,6 +13340,9 @@
       <c r="AV81">
         <v>0</v>
       </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13252,6 +13497,9 @@
       <c r="AV82">
         <v>5</v>
       </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13406,6 +13654,9 @@
       <c r="AV83">
         <v>0</v>
       </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13560,6 +13811,9 @@
       <c r="AV84">
         <v>0</v>
       </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13714,6 +13968,9 @@
       <c r="AV85">
         <v>4</v>
       </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13868,6 +14125,9 @@
       <c r="AV86">
         <v>0</v>
       </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14022,6 +14282,9 @@
       <c r="AV87">
         <v>0</v>
       </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -14176,6 +14439,9 @@
       <c r="AV88">
         <v>0</v>
       </c>
+      <c r="AW88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14330,6 +14596,9 @@
       <c r="AV89">
         <v>6</v>
       </c>
+      <c r="AW89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -14484,6 +14753,9 @@
       <c r="AV90">
         <v>0</v>
       </c>
+      <c r="AW90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14638,6 +14910,9 @@
       <c r="AV91">
         <v>0</v>
       </c>
+      <c r="AW91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14792,6 +15067,9 @@
       <c r="AV92">
         <v>0</v>
       </c>
+      <c r="AW92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14946,6 +15224,9 @@
       <c r="AV93">
         <v>2</v>
       </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15100,6 +15381,9 @@
       <c r="AV94">
         <v>0</v>
       </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15254,6 +15538,9 @@
       <c r="AV95">
         <v>1</v>
       </c>
+      <c r="AW95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15408,6 +15695,9 @@
       <c r="AV96">
         <v>0</v>
       </c>
+      <c r="AW96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15562,6 +15852,9 @@
       <c r="AV97">
         <v>0</v>
       </c>
+      <c r="AW97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15716,6 +16009,9 @@
       <c r="AV98">
         <v>0</v>
       </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15870,6 +16166,9 @@
       <c r="AV99">
         <v>0</v>
       </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -16024,6 +16323,9 @@
       <c r="AV100">
         <v>6</v>
       </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -16178,6 +16480,9 @@
       <c r="AV101">
         <v>13</v>
       </c>
+      <c r="AW101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -16332,6 +16637,9 @@
       <c r="AV102">
         <v>3</v>
       </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16486,6 +16794,9 @@
       <c r="AV103">
         <v>5</v>
       </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16640,6 +16951,9 @@
       <c r="AV104">
         <v>0</v>
       </c>
+      <c r="AW104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16794,6 +17108,9 @@
       <c r="AV105">
         <v>0</v>
       </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16948,6 +17265,9 @@
       <c r="AV106">
         <v>6</v>
       </c>
+      <c r="AW106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -17102,6 +17422,9 @@
       <c r="AV107">
         <v>0</v>
       </c>
+      <c r="AW107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -17256,6 +17579,9 @@
       <c r="AV108">
         <v>1</v>
       </c>
+      <c r="AW108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -17410,6 +17736,9 @@
       <c r="AV109">
         <v>0</v>
       </c>
+      <c r="AW109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -17564,6 +17893,9 @@
       <c r="AV110">
         <v>36</v>
       </c>
+      <c r="AW110">
+        <v>36</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17718,6 +18050,9 @@
       <c r="AV111">
         <v>97</v>
       </c>
+      <c r="AW111">
+        <v>97</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -17872,6 +18207,9 @@
       <c r="AV112">
         <v>66</v>
       </c>
+      <c r="AW112">
+        <v>67</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -18026,6 +18364,9 @@
       <c r="AV113">
         <v>94</v>
       </c>
+      <c r="AW113">
+        <v>95</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -18180,6 +18521,9 @@
       <c r="AV114">
         <v>172</v>
       </c>
+      <c r="AW114">
+        <v>174</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -18334,6 +18678,9 @@
       <c r="AV115">
         <v>21</v>
       </c>
+      <c r="AW115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -18488,6 +18835,9 @@
       <c r="AV116">
         <v>10</v>
       </c>
+      <c r="AW116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -18642,6 +18992,9 @@
       <c r="AV117">
         <v>2</v>
       </c>
+      <c r="AW117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18796,6 +19149,9 @@
       <c r="AV118">
         <v>2</v>
       </c>
+      <c r="AW118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -18950,6 +19306,9 @@
       <c r="AV119">
         <v>3</v>
       </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -19104,6 +19463,9 @@
       <c r="AV120">
         <v>50</v>
       </c>
+      <c r="AW120">
+        <v>50</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -19258,6 +19620,9 @@
       <c r="AV121">
         <v>2</v>
       </c>
+      <c r="AW121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -19412,6 +19777,9 @@
       <c r="AV122">
         <v>1</v>
       </c>
+      <c r="AW122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -19566,6 +19934,9 @@
       <c r="AV123">
         <v>2</v>
       </c>
+      <c r="AW123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -19720,6 +20091,9 @@
       <c r="AV124">
         <v>7</v>
       </c>
+      <c r="AW124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -19874,6 +20248,9 @@
       <c r="AV125">
         <v>23</v>
       </c>
+      <c r="AW125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -20028,6 +20405,9 @@
       <c r="AV126">
         <v>102</v>
       </c>
+      <c r="AW126">
+        <v>102</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -20182,6 +20562,9 @@
       <c r="AV127">
         <v>20</v>
       </c>
+      <c r="AW127">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -20336,6 +20719,9 @@
       <c r="AV128">
         <v>29</v>
       </c>
+      <c r="AW128">
+        <v>29</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -20490,6 +20876,9 @@
       <c r="AV129">
         <v>49</v>
       </c>
+      <c r="AW129">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -20644,6 +21033,9 @@
       <c r="AV130">
         <v>411</v>
       </c>
+      <c r="AW130">
+        <v>411</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20798,6 +21190,9 @@
       <c r="AV131">
         <v>183</v>
       </c>
+      <c r="AW131">
+        <v>183</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -20952,6 +21347,9 @@
       <c r="AV132">
         <v>10</v>
       </c>
+      <c r="AW132">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -21106,6 +21504,9 @@
       <c r="AV133">
         <v>26</v>
       </c>
+      <c r="AW133">
+        <v>26</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -21260,6 +21661,9 @@
       <c r="AV134">
         <v>49</v>
       </c>
+      <c r="AW134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21414,6 +21818,9 @@
       <c r="AV135">
         <v>92</v>
       </c>
+      <c r="AW135">
+        <v>92</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -21568,6 +21975,9 @@
       <c r="AV136">
         <v>158</v>
       </c>
+      <c r="AW136">
+        <v>158</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -21722,6 +22132,9 @@
       <c r="AV137">
         <v>45</v>
       </c>
+      <c r="AW137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21876,6 +22289,9 @@
       <c r="AV138">
         <v>8</v>
       </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -22030,6 +22446,9 @@
       <c r="AV139">
         <v>58</v>
       </c>
+      <c r="AW139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -22184,6 +22603,9 @@
       <c r="AV140">
         <v>14</v>
       </c>
+      <c r="AW140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -22338,6 +22760,9 @@
       <c r="AV141">
         <v>41</v>
       </c>
+      <c r="AW141">
+        <v>41</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -22492,6 +22917,9 @@
       <c r="AV142">
         <v>17</v>
       </c>
+      <c r="AW142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -22646,6 +23074,9 @@
       <c r="AV143">
         <v>2</v>
       </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -22800,6 +23231,9 @@
       <c r="AV144">
         <v>10</v>
       </c>
+      <c r="AW144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22954,6 +23388,9 @@
       <c r="AV145">
         <v>1</v>
       </c>
+      <c r="AW145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -23108,6 +23545,9 @@
       <c r="AV146">
         <v>7</v>
       </c>
+      <c r="AW146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -23262,6 +23702,9 @@
       <c r="AV147">
         <v>11</v>
       </c>
+      <c r="AW147">
+        <v>11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -23416,6 +23859,9 @@
       <c r="AV148">
         <v>8</v>
       </c>
+      <c r="AW148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -23570,6 +24016,9 @@
       <c r="AV149">
         <v>13</v>
       </c>
+      <c r="AW149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -23724,6 +24173,9 @@
       <c r="AV150">
         <v>44</v>
       </c>
+      <c r="AW150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -23878,6 +24330,9 @@
       <c r="AV151">
         <v>0</v>
       </c>
+      <c r="AW151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -24032,6 +24487,9 @@
       <c r="AV152">
         <v>0</v>
       </c>
+      <c r="AW152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -24186,6 +24644,9 @@
       <c r="AV153">
         <v>10</v>
       </c>
+      <c r="AW153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -24340,6 +24801,9 @@
       <c r="AV154">
         <v>9</v>
       </c>
+      <c r="AW154">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -24494,6 +24958,9 @@
       <c r="AV155">
         <v>42</v>
       </c>
+      <c r="AW155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -24648,6 +25115,9 @@
       <c r="AV156">
         <v>4</v>
       </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -24802,6 +25272,9 @@
       <c r="AV157">
         <v>1</v>
       </c>
+      <c r="AW157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -24956,6 +25429,9 @@
       <c r="AV158">
         <v>3</v>
       </c>
+      <c r="AW158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -25110,6 +25586,9 @@
       <c r="AV159">
         <v>6</v>
       </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -25264,6 +25743,9 @@
       <c r="AV160">
         <v>12</v>
       </c>
+      <c r="AW160">
+        <v>12</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -25418,6 +25900,9 @@
       <c r="AV161">
         <v>2</v>
       </c>
+      <c r="AW161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -25572,6 +26057,9 @@
       <c r="AV162">
         <v>82</v>
       </c>
+      <c r="AW162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -25726,6 +26214,9 @@
       <c r="AV163">
         <v>39</v>
       </c>
+      <c r="AW163">
+        <v>39</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -25880,6 +26371,9 @@
       <c r="AV164">
         <v>24</v>
       </c>
+      <c r="AW164">
+        <v>24</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -26034,6 +26528,9 @@
       <c r="AV165">
         <v>63</v>
       </c>
+      <c r="AW165">
+        <v>63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -26188,6 +26685,9 @@
       <c r="AV166">
         <v>12</v>
       </c>
+      <c r="AW166">
+        <v>13</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -26342,6 +26842,9 @@
       <c r="AV167">
         <v>0</v>
       </c>
+      <c r="AW167">
+        <v>36</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -26496,6 +26999,9 @@
       <c r="AV168">
         <v>0</v>
       </c>
+      <c r="AW168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -26650,6 +27156,9 @@
       <c r="AV169">
         <v>21</v>
       </c>
+      <c r="AW169">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -26804,6 +27313,9 @@
       <c r="AV170">
         <v>4</v>
       </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -26958,6 +27470,9 @@
       <c r="AV171">
         <v>5</v>
       </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -27112,6 +27627,9 @@
       <c r="AV172">
         <v>3</v>
       </c>
+      <c r="AW172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -27266,6 +27784,9 @@
       <c r="AV173">
         <v>3</v>
       </c>
+      <c r="AW173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -27420,6 +27941,9 @@
       <c r="AV174">
         <v>16</v>
       </c>
+      <c r="AW174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -27574,6 +28098,9 @@
       <c r="AV175">
         <v>6</v>
       </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -27728,6 +28255,9 @@
       <c r="AV176">
         <v>4</v>
       </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -27882,6 +28412,9 @@
       <c r="AV177">
         <v>0</v>
       </c>
+      <c r="AW177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -28036,6 +28569,9 @@
       <c r="AV178">
         <v>0</v>
       </c>
+      <c r="AW178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -28190,6 +28726,9 @@
       <c r="AV179">
         <v>2</v>
       </c>
+      <c r="AW179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -28344,6 +28883,9 @@
       <c r="AV180">
         <v>0</v>
       </c>
+      <c r="AW180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -28498,6 +29040,9 @@
       <c r="AV181">
         <v>0</v>
       </c>
+      <c r="AW181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -28652,6 +29197,9 @@
       <c r="AV182">
         <v>1</v>
       </c>
+      <c r="AW182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -28806,6 +29354,9 @@
       <c r="AV183">
         <v>0</v>
       </c>
+      <c r="AW183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -28960,6 +29511,9 @@
       <c r="AV184">
         <v>1</v>
       </c>
+      <c r="AW184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -29114,6 +29668,9 @@
       <c r="AV185">
         <v>5</v>
       </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -29268,6 +29825,9 @@
       <c r="AV186">
         <v>2</v>
       </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -29422,6 +29982,9 @@
       <c r="AV187">
         <v>2</v>
       </c>
+      <c r="AW187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -29576,6 +30139,9 @@
       <c r="AV188">
         <v>3</v>
       </c>
+      <c r="AW188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -29730,6 +30296,9 @@
       <c r="AV189">
         <v>2</v>
       </c>
+      <c r="AW189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -29884,6 +30453,9 @@
       <c r="AV190">
         <v>13</v>
       </c>
+      <c r="AW190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -30038,6 +30610,9 @@
       <c r="AV191">
         <v>36</v>
       </c>
+      <c r="AW191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -30192,6 +30767,9 @@
       <c r="AV192">
         <v>1</v>
       </c>
+      <c r="AW192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -30346,6 +30924,9 @@
       <c r="AV193">
         <v>8</v>
       </c>
+      <c r="AW193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -30500,6 +31081,9 @@
       <c r="AV194">
         <v>2</v>
       </c>
+      <c r="AW194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -30654,6 +31238,9 @@
       <c r="AV195">
         <v>6</v>
       </c>
+      <c r="AW195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -30808,6 +31395,9 @@
       <c r="AV196">
         <v>4</v>
       </c>
+      <c r="AW196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -30962,6 +31552,9 @@
       <c r="AV197">
         <v>12</v>
       </c>
+      <c r="AW197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -31116,6 +31709,9 @@
       <c r="AV198">
         <v>11</v>
       </c>
+      <c r="AW198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -31270,6 +31866,9 @@
       <c r="AV199">
         <v>2</v>
       </c>
+      <c r="AW199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -31424,6 +32023,9 @@
       <c r="AV200">
         <v>1</v>
       </c>
+      <c r="AW200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -31578,6 +32180,9 @@
       <c r="AV201">
         <v>0</v>
       </c>
+      <c r="AW201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -31732,6 +32337,9 @@
       <c r="AV202">
         <v>1</v>
       </c>
+      <c r="AW202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -31886,6 +32494,9 @@
       <c r="AV203">
         <v>9</v>
       </c>
+      <c r="AW203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -32040,6 +32651,9 @@
       <c r="AV204">
         <v>0</v>
       </c>
+      <c r="AW204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -32194,6 +32808,9 @@
       <c r="AV205">
         <v>0</v>
       </c>
+      <c r="AW205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -32348,6 +32965,9 @@
       <c r="AV206">
         <v>0</v>
       </c>
+      <c r="AW206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -32502,6 +33122,9 @@
       <c r="AV207">
         <v>25</v>
       </c>
+      <c r="AW207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -32656,6 +33279,9 @@
       <c r="AV208">
         <v>21</v>
       </c>
+      <c r="AW208">
+        <v>21</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -32810,6 +33436,9 @@
       <c r="AV209">
         <v>57</v>
       </c>
+      <c r="AW209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -32964,6 +33593,9 @@
       <c r="AV210">
         <v>38</v>
       </c>
+      <c r="AW210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -33118,6 +33750,9 @@
       <c r="AV211">
         <v>36</v>
       </c>
+      <c r="AW211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -33272,6 +33907,9 @@
       <c r="AV212">
         <v>10</v>
       </c>
+      <c r="AW212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -33426,6 +34064,9 @@
       <c r="AV213">
         <v>40</v>
       </c>
+      <c r="AW213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -33580,6 +34221,9 @@
       <c r="AV214">
         <v>4</v>
       </c>
+      <c r="AW214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -33734,6 +34378,9 @@
       <c r="AV215">
         <v>23</v>
       </c>
+      <c r="AW215">
+        <v>23</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -33888,6 +34535,9 @@
       <c r="AV216">
         <v>2</v>
       </c>
+      <c r="AW216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -34042,6 +34692,9 @@
       <c r="AV217">
         <v>5</v>
       </c>
+      <c r="AW217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -34196,6 +34849,9 @@
       <c r="AV218">
         <v>2</v>
       </c>
+      <c r="AW218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -34350,6 +35006,9 @@
       <c r="AV219">
         <v>1</v>
       </c>
+      <c r="AW219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -34504,6 +35163,9 @@
       <c r="AV220">
         <v>7</v>
       </c>
+      <c r="AW220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -34658,6 +35320,9 @@
       <c r="AV221">
         <v>0</v>
       </c>
+      <c r="AW221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -34812,6 +35477,9 @@
       <c r="AV222">
         <v>1</v>
       </c>
+      <c r="AW222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -34966,6 +35634,9 @@
       <c r="AV223">
         <v>1</v>
       </c>
+      <c r="AW223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -35120,6 +35791,9 @@
       <c r="AV224">
         <v>1</v>
       </c>
+      <c r="AW224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -35274,6 +35948,9 @@
       <c r="AV225">
         <v>0</v>
       </c>
+      <c r="AW225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -35428,6 +36105,9 @@
       <c r="AV226">
         <v>0</v>
       </c>
+      <c r="AW226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -35582,6 +36262,9 @@
       <c r="AV227">
         <v>0</v>
       </c>
+      <c r="AW227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -35736,6 +36419,9 @@
       <c r="AV228">
         <v>0</v>
       </c>
+      <c r="AW228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -35890,6 +36576,9 @@
       <c r="AV229">
         <v>2</v>
       </c>
+      <c r="AW229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -36044,6 +36733,9 @@
       <c r="AV230">
         <v>0</v>
       </c>
+      <c r="AW230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -36198,6 +36890,9 @@
       <c r="AV231">
         <v>3</v>
       </c>
+      <c r="AW231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -36352,6 +37047,9 @@
       <c r="AV232">
         <v>31</v>
       </c>
+      <c r="AW232">
+        <v>31</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -36506,6 +37204,9 @@
       <c r="AV233">
         <v>220</v>
       </c>
+      <c r="AW233">
+        <v>220</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -36660,6 +37361,9 @@
       <c r="AV234">
         <v>9</v>
       </c>
+      <c r="AW234">
+        <v>10</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -36814,6 +37518,9 @@
       <c r="AV235">
         <v>11</v>
       </c>
+      <c r="AW235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -36968,6 +37675,9 @@
       <c r="AV236">
         <v>0</v>
       </c>
+      <c r="AW236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -37122,6 +37832,9 @@
       <c r="AV237">
         <v>2</v>
       </c>
+      <c r="AW237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -37276,6 +37989,9 @@
       <c r="AV238">
         <v>0</v>
       </c>
+      <c r="AW238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -37430,6 +38146,9 @@
       <c r="AV239">
         <v>1</v>
       </c>
+      <c r="AW239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -37584,6 +38303,9 @@
       <c r="AV240">
         <v>2</v>
       </c>
+      <c r="AW240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -37738,6 +38460,9 @@
       <c r="AV241">
         <v>8</v>
       </c>
+      <c r="AW241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -37892,6 +38617,9 @@
       <c r="AV242">
         <v>3</v>
       </c>
+      <c r="AW242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -38046,6 +38774,9 @@
       <c r="AV243">
         <v>1</v>
       </c>
+      <c r="AW243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -38200,6 +38931,9 @@
       <c r="AV244">
         <v>2</v>
       </c>
+      <c r="AW244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -38354,6 +39088,9 @@
       <c r="AV245">
         <v>2</v>
       </c>
+      <c r="AW245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -38508,6 +39245,9 @@
       <c r="AV246">
         <v>2</v>
       </c>
+      <c r="AW246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -38662,6 +39402,9 @@
       <c r="AV247">
         <v>0</v>
       </c>
+      <c r="AW247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -38816,6 +39559,9 @@
       <c r="AV248">
         <v>3</v>
       </c>
+      <c r="AW248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -38970,6 +39716,9 @@
       <c r="AV249">
         <v>21</v>
       </c>
+      <c r="AW249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -39124,6 +39873,9 @@
       <c r="AV250">
         <v>0</v>
       </c>
+      <c r="AW250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -39278,6 +40030,9 @@
       <c r="AV251">
         <v>4</v>
       </c>
+      <c r="AW251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -39432,6 +40187,9 @@
       <c r="AV252">
         <v>1</v>
       </c>
+      <c r="AW252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -39586,6 +40344,9 @@
       <c r="AV253">
         <v>1</v>
       </c>
+      <c r="AW253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -39740,6 +40501,9 @@
       <c r="AV254">
         <v>1</v>
       </c>
+      <c r="AW254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -39904,6 +40668,9 @@
       <c r="AV255">
         <v>13</v>
       </c>
+      <c r="AW255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -40068,6 +40835,9 @@
       <c r="AV256">
         <v>84</v>
       </c>
+      <c r="AW256">
+        <v>84</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -40232,6 +41002,9 @@
       <c r="AV257">
         <v>57</v>
       </c>
+      <c r="AW257">
+        <v>57</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -40396,6 +41169,9 @@
       <c r="AV258">
         <v>71</v>
       </c>
+      <c r="AW258">
+        <v>71</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -40560,6 +41336,9 @@
       <c r="AV259">
         <v>69</v>
       </c>
+      <c r="AW259">
+        <v>69</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -40724,6 +41503,9 @@
       <c r="AV260">
         <v>40</v>
       </c>
+      <c r="AW260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -40888,6 +41670,9 @@
       <c r="AV261">
         <v>99</v>
       </c>
+      <c r="AW261">
+        <v>99</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -41052,6 +41837,9 @@
       <c r="AV262">
         <v>57</v>
       </c>
+      <c r="AW262">
+        <v>57</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -41216,6 +42004,9 @@
       <c r="AV263">
         <v>63</v>
       </c>
+      <c r="AW263">
+        <v>63</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -41370,6 +42161,9 @@
       <c r="AV264">
         <v>9</v>
       </c>
+      <c r="AW264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -41524,6 +42318,9 @@
       <c r="AV265">
         <v>4</v>
       </c>
+      <c r="AW265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -41678,6 +42475,9 @@
       <c r="AV266">
         <v>4</v>
       </c>
+      <c r="AW266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -41832,6 +42632,9 @@
       <c r="AV267">
         <v>4</v>
       </c>
+      <c r="AW267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -41986,6 +42789,9 @@
       <c r="AV268">
         <v>6</v>
       </c>
+      <c r="AW268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -42140,6 +42946,9 @@
       <c r="AV269">
         <v>8</v>
       </c>
+      <c r="AW269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -42294,6 +43103,9 @@
       <c r="AV270">
         <v>0</v>
       </c>
+      <c r="AW270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -42448,6 +43260,9 @@
       <c r="AV271">
         <v>4</v>
       </c>
+      <c r="AW271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -42602,6 +43417,9 @@
       <c r="AV272">
         <v>0</v>
       </c>
+      <c r="AW272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -42756,6 +43574,9 @@
       <c r="AV273">
         <v>0</v>
       </c>
+      <c r="AW273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -42910,6 +43731,9 @@
       <c r="AV274">
         <v>2</v>
       </c>
+      <c r="AW274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -43064,6 +43888,9 @@
       <c r="AV275">
         <v>24</v>
       </c>
+      <c r="AW275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -43218,6 +44045,9 @@
       <c r="AV276">
         <v>9</v>
       </c>
+      <c r="AW276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -43372,6 +44202,9 @@
       <c r="AV277">
         <v>0</v>
       </c>
+      <c r="AW277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -43526,6 +44359,9 @@
       <c r="AV278">
         <v>17</v>
       </c>
+      <c r="AW278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -43680,6 +44516,9 @@
       <c r="AV279">
         <v>5</v>
       </c>
+      <c r="AW279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -43834,6 +44673,9 @@
       <c r="AV280">
         <v>53</v>
       </c>
+      <c r="AW280">
+        <v>54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -43988,6 +44830,9 @@
       <c r="AV281">
         <v>41</v>
       </c>
+      <c r="AW281">
+        <v>41</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -44142,6 +44987,9 @@
       <c r="AV282">
         <v>1</v>
       </c>
+      <c r="AW282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -44296,6 +45144,9 @@
       <c r="AV283">
         <v>0</v>
       </c>
+      <c r="AW283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -44450,6 +45301,9 @@
       <c r="AV284">
         <v>40</v>
       </c>
+      <c r="AW284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -44604,6 +45458,9 @@
       <c r="AV285">
         <v>27</v>
       </c>
+      <c r="AW285">
+        <v>27</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -44758,6 +45615,9 @@
       <c r="AV286">
         <v>0</v>
       </c>
+      <c r="AW286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -44912,6 +45772,9 @@
       <c r="AV287">
         <v>0</v>
       </c>
+      <c r="AW287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -45066,6 +45929,9 @@
       <c r="AV288">
         <v>0</v>
       </c>
+      <c r="AW288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -45220,6 +46086,9 @@
       <c r="AV289">
         <v>1</v>
       </c>
+      <c r="AW289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -45374,6 +46243,9 @@
       <c r="AV290">
         <v>3</v>
       </c>
+      <c r="AW290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -45528,6 +46400,9 @@
       <c r="AV291">
         <v>0</v>
       </c>
+      <c r="AW291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -45682,6 +46557,9 @@
       <c r="AV292">
         <v>3</v>
       </c>
+      <c r="AW292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -45836,6 +46714,9 @@
       <c r="AV293">
         <v>0</v>
       </c>
+      <c r="AW293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -45990,6 +46871,9 @@
       <c r="AV294">
         <v>7</v>
       </c>
+      <c r="AW294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -46144,6 +47028,9 @@
       <c r="AV295">
         <v>0</v>
       </c>
+      <c r="AW295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -46298,6 +47185,9 @@
       <c r="AV296">
         <v>0</v>
       </c>
+      <c r="AW296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -46452,6 +47342,9 @@
       <c r="AV297">
         <v>1</v>
       </c>
+      <c r="AW297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -46606,6 +47499,9 @@
       <c r="AV298">
         <v>4</v>
       </c>
+      <c r="AW298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -46760,6 +47656,9 @@
       <c r="AV299">
         <v>0</v>
       </c>
+      <c r="AW299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -46914,6 +47813,9 @@
       <c r="AV300">
         <v>0</v>
       </c>
+      <c r="AW300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -47068,6 +47970,9 @@
       <c r="AV301">
         <v>17</v>
       </c>
+      <c r="AW301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -47222,6 +48127,9 @@
       <c r="AV302">
         <v>0</v>
       </c>
+      <c r="AW302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -47376,6 +48284,9 @@
       <c r="AV303">
         <v>0</v>
       </c>
+      <c r="AW303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -47530,6 +48441,9 @@
       <c r="AV304">
         <v>4</v>
       </c>
+      <c r="AW304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -47684,6 +48598,9 @@
       <c r="AV305">
         <v>12</v>
       </c>
+      <c r="AW305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -47838,6 +48755,9 @@
       <c r="AV306">
         <v>293</v>
       </c>
+      <c r="AW306">
+        <v>295</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -47992,6 +48912,9 @@
       <c r="AV307">
         <v>17</v>
       </c>
+      <c r="AW307">
+        <v>17</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -48146,6 +49069,9 @@
       <c r="AV308">
         <v>5</v>
       </c>
+      <c r="AW308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -48300,6 +49226,9 @@
       <c r="AV309">
         <v>0</v>
       </c>
+      <c r="AW309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -48454,6 +49383,9 @@
       <c r="AV310">
         <v>0</v>
       </c>
+      <c r="AW310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -48608,6 +49540,9 @@
       <c r="AV311">
         <v>8</v>
       </c>
+      <c r="AW311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -48762,6 +49697,9 @@
       <c r="AV312">
         <v>5</v>
       </c>
+      <c r="AW312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -48916,6 +49854,9 @@
       <c r="AV313">
         <v>0</v>
       </c>
+      <c r="AW313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -49070,6 +50011,9 @@
       <c r="AV314">
         <v>1</v>
       </c>
+      <c r="AW314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -49224,6 +50168,9 @@
       <c r="AV315">
         <v>7</v>
       </c>
+      <c r="AW315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -49378,6 +50325,9 @@
       <c r="AV316">
         <v>3</v>
       </c>
+      <c r="AW316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -49532,6 +50482,9 @@
       <c r="AV317">
         <v>5</v>
       </c>
+      <c r="AW317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -49686,6 +50639,9 @@
       <c r="AV318">
         <v>12</v>
       </c>
+      <c r="AW318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -49840,6 +50796,9 @@
       <c r="AV319">
         <v>6</v>
       </c>
+      <c r="AW319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -49994,6 +50953,9 @@
       <c r="AV320">
         <v>0</v>
       </c>
+      <c r="AW320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -50148,6 +51110,9 @@
       <c r="AV321">
         <v>1</v>
       </c>
+      <c r="AW321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -50302,6 +51267,9 @@
       <c r="AV322">
         <v>8</v>
       </c>
+      <c r="AW322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -50456,6 +51424,9 @@
       <c r="AV323">
         <v>28</v>
       </c>
+      <c r="AW323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -50610,6 +51581,9 @@
       <c r="AV324">
         <v>21</v>
       </c>
+      <c r="AW324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -50764,6 +51738,9 @@
       <c r="AV325">
         <v>15</v>
       </c>
+      <c r="AW325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -50918,6 +51895,9 @@
       <c r="AV326">
         <v>1</v>
       </c>
+      <c r="AW326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -51072,6 +52052,9 @@
       <c r="AV327">
         <v>0</v>
       </c>
+      <c r="AW327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -51226,6 +52209,9 @@
       <c r="AV328">
         <v>0</v>
       </c>
+      <c r="AW328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -51380,6 +52366,9 @@
       <c r="AV329">
         <v>0</v>
       </c>
+      <c r="AW329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -51534,6 +52523,9 @@
       <c r="AV330">
         <v>3</v>
       </c>
+      <c r="AW330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -51688,6 +52680,9 @@
       <c r="AV331">
         <v>1</v>
       </c>
+      <c r="AW331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -51842,6 +52837,9 @@
       <c r="AV332">
         <v>4</v>
       </c>
+      <c r="AW332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -51996,6 +52994,9 @@
       <c r="AV333">
         <v>0</v>
       </c>
+      <c r="AW333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -52150,6 +53151,9 @@
       <c r="AV334">
         <v>0</v>
       </c>
+      <c r="AW334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -52304,6 +53308,9 @@
       <c r="AV335">
         <v>7</v>
       </c>
+      <c r="AW335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -52458,6 +53465,9 @@
       <c r="AV336">
         <v>2</v>
       </c>
+      <c r="AW336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -52612,6 +53622,9 @@
       <c r="AV337">
         <v>2</v>
       </c>
+      <c r="AW337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -52766,6 +53779,9 @@
       <c r="AV338">
         <v>2</v>
       </c>
+      <c r="AW338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -52920,6 +53936,9 @@
       <c r="AV339">
         <v>10</v>
       </c>
+      <c r="AW339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -53074,6 +54093,9 @@
       <c r="AV340">
         <v>1</v>
       </c>
+      <c r="AW340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -53228,6 +54250,9 @@
       <c r="AV341">
         <v>17</v>
       </c>
+      <c r="AW341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -53382,6 +54407,9 @@
       <c r="AV342">
         <v>0</v>
       </c>
+      <c r="AW342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -53536,6 +54564,9 @@
       <c r="AV343">
         <v>0</v>
       </c>
+      <c r="AW343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -53690,6 +54721,9 @@
       <c r="AV344">
         <v>159</v>
       </c>
+      <c r="AW344">
+        <v>161</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -53844,6 +54878,9 @@
       <c r="AV345">
         <v>6</v>
       </c>
+      <c r="AW345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -53998,6 +55035,9 @@
       <c r="AV346">
         <v>5</v>
       </c>
+      <c r="AW346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -54152,6 +55192,9 @@
       <c r="AV347">
         <v>1</v>
       </c>
+      <c r="AW347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -54306,6 +55349,9 @@
       <c r="AV348">
         <v>3</v>
       </c>
+      <c r="AW348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -54460,6 +55506,9 @@
       <c r="AV349">
         <v>15</v>
       </c>
+      <c r="AW349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -54614,6 +55663,9 @@
       <c r="AV350">
         <v>1</v>
       </c>
+      <c r="AW350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -54768,6 +55820,9 @@
       <c r="AV351">
         <v>1</v>
       </c>
+      <c r="AW351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -54922,6 +55977,9 @@
       <c r="AV352">
         <v>0</v>
       </c>
+      <c r="AW352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -55076,6 +56134,9 @@
       <c r="AV353">
         <v>0</v>
       </c>
+      <c r="AW353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -55230,6 +56291,9 @@
       <c r="AV354">
         <v>3</v>
       </c>
+      <c r="AW354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -55384,6 +56448,9 @@
       <c r="AV355">
         <v>1</v>
       </c>
+      <c r="AW355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -55538,6 +56605,9 @@
       <c r="AV356">
         <v>2</v>
       </c>
+      <c r="AW356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -55692,6 +56762,9 @@
       <c r="AV357">
         <v>1</v>
       </c>
+      <c r="AW357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -55846,6 +56919,9 @@
       <c r="AV358">
         <v>0</v>
       </c>
+      <c r="AW358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -56000,6 +57076,9 @@
       <c r="AV359">
         <v>0</v>
       </c>
+      <c r="AW359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -56154,6 +57233,9 @@
       <c r="AV360">
         <v>16</v>
       </c>
+      <c r="AW360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -56308,6 +57390,9 @@
       <c r="AV361">
         <v>2</v>
       </c>
+      <c r="AW361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -56462,6 +57547,9 @@
       <c r="AV362">
         <v>2</v>
       </c>
+      <c r="AW362">
+        <v>2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -56616,6 +57704,9 @@
       <c r="AV363">
         <v>2</v>
       </c>
+      <c r="AW363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -56770,6 +57861,9 @@
       <c r="AV364">
         <v>0</v>
       </c>
+      <c r="AW364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -56924,6 +58018,9 @@
       <c r="AV365">
         <v>0</v>
       </c>
+      <c r="AW365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -57078,6 +58175,9 @@
       <c r="AV366">
         <v>1</v>
       </c>
+      <c r="AW366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -57232,6 +58332,9 @@
       <c r="AV367">
         <v>2</v>
       </c>
+      <c r="AW367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -57386,6 +58489,9 @@
       <c r="AV368">
         <v>0</v>
       </c>
+      <c r="AW368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -57540,6 +58646,9 @@
       <c r="AV369">
         <v>1</v>
       </c>
+      <c r="AW369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -57694,6 +58803,9 @@
       <c r="AV370">
         <v>0</v>
       </c>
+      <c r="AW370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -57848,6 +58960,9 @@
       <c r="AV371">
         <v>0</v>
       </c>
+      <c r="AW371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -58002,6 +59117,9 @@
       <c r="AV372">
         <v>3</v>
       </c>
+      <c r="AW372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -58156,6 +59274,9 @@
       <c r="AV373">
         <v>2</v>
       </c>
+      <c r="AW373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -58310,6 +59431,9 @@
       <c r="AV374">
         <v>4</v>
       </c>
+      <c r="AW374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -58464,6 +59588,9 @@
       <c r="AV375">
         <v>1</v>
       </c>
+      <c r="AW375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -58618,6 +59745,9 @@
       <c r="AV376">
         <v>0</v>
       </c>
+      <c r="AW376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -58772,6 +59902,9 @@
       <c r="AV377">
         <v>0</v>
       </c>
+      <c r="AW377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -58926,6 +60059,9 @@
       <c r="AV378">
         <v>0</v>
       </c>
+      <c r="AW378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -59080,6 +60216,9 @@
       <c r="AV379">
         <v>1</v>
       </c>
+      <c r="AW379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -59234,6 +60373,9 @@
       <c r="AV380">
         <v>1</v>
       </c>
+      <c r="AW380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -59388,6 +60530,9 @@
       <c r="AV381">
         <v>0</v>
       </c>
+      <c r="AW381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -59542,6 +60687,9 @@
       <c r="AV382">
         <v>4</v>
       </c>
+      <c r="AW382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -59696,6 +60844,9 @@
       <c r="AV383">
         <v>0</v>
       </c>
+      <c r="AW383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -59848,6 +60999,9 @@
         <v>1</v>
       </c>
       <c r="AV384">
+        <v>1</v>
+      </c>
+      <c r="AW384">
         <v>1</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW384"/>
+  <dimension ref="A1:AX384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,6 +603,11 @@
           <t>2020-05-03</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -770,6 +775,9 @@
       <c r="AW2">
         <v>240</v>
       </c>
+      <c r="AX2">
+        <v>247</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -937,6 +945,9 @@
       <c r="AW3">
         <v>174</v>
       </c>
+      <c r="AX3">
+        <v>174</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1104,6 +1115,9 @@
       <c r="AW4">
         <v>140</v>
       </c>
+      <c r="AX4">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1271,6 +1285,9 @@
       <c r="AW5">
         <v>100</v>
       </c>
+      <c r="AX5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1438,6 +1455,9 @@
       <c r="AW6">
         <v>173</v>
       </c>
+      <c r="AX6">
+        <v>174</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1605,6 +1625,9 @@
       <c r="AW7">
         <v>110</v>
       </c>
+      <c r="AX7">
+        <v>111</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1772,6 +1795,9 @@
       <c r="AW8">
         <v>149</v>
       </c>
+      <c r="AX8">
+        <v>150</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1939,6 +1965,9 @@
       <c r="AW9">
         <v>133</v>
       </c>
+      <c r="AX9">
+        <v>133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2106,6 +2135,9 @@
       <c r="AW10">
         <v>109</v>
       </c>
+      <c r="AX10">
+        <v>109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2273,6 +2305,9 @@
       <c r="AW11">
         <v>116</v>
       </c>
+      <c r="AX11">
+        <v>116</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2440,6 +2475,9 @@
       <c r="AW12">
         <v>195</v>
       </c>
+      <c r="AX12">
+        <v>196</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2607,6 +2645,9 @@
       <c r="AW13">
         <v>231</v>
       </c>
+      <c r="AX13">
+        <v>232</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2774,6 +2815,9 @@
       <c r="AW14">
         <v>179</v>
       </c>
+      <c r="AX14">
+        <v>180</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2941,6 +2985,9 @@
       <c r="AW15">
         <v>161</v>
       </c>
+      <c r="AX15">
+        <v>162</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3108,6 +3155,9 @@
       <c r="AW16">
         <v>132</v>
       </c>
+      <c r="AX16">
+        <v>134</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3275,6 +3325,9 @@
       <c r="AW17">
         <v>5</v>
       </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3442,6 +3495,9 @@
       <c r="AW18">
         <v>2</v>
       </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3609,6 +3665,9 @@
       <c r="AW19">
         <v>50</v>
       </c>
+      <c r="AX19">
+        <v>50</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3766,6 +3825,9 @@
       <c r="AW20">
         <v>14</v>
       </c>
+      <c r="AX20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3923,6 +3985,9 @@
       <c r="AW21">
         <v>133</v>
       </c>
+      <c r="AX21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4080,6 +4145,9 @@
       <c r="AW22">
         <v>51</v>
       </c>
+      <c r="AX22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4237,6 +4305,9 @@
       <c r="AW23">
         <v>47</v>
       </c>
+      <c r="AX23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4394,6 +4465,9 @@
       <c r="AW24">
         <v>5</v>
       </c>
+      <c r="AX24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4551,6 +4625,9 @@
       <c r="AW25">
         <v>1</v>
       </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4708,6 +4785,9 @@
       <c r="AW26">
         <v>0</v>
       </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4865,6 +4945,9 @@
       <c r="AW27">
         <v>7</v>
       </c>
+      <c r="AX27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5022,6 +5105,9 @@
       <c r="AW28">
         <v>6</v>
       </c>
+      <c r="AX28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5179,6 +5265,9 @@
       <c r="AW29">
         <v>12</v>
       </c>
+      <c r="AX29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5336,6 +5425,9 @@
       <c r="AW30">
         <v>13</v>
       </c>
+      <c r="AX30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5493,6 +5585,9 @@
       <c r="AW31">
         <v>16</v>
       </c>
+      <c r="AX31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5650,6 +5745,9 @@
       <c r="AW32">
         <v>11</v>
       </c>
+      <c r="AX32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5807,6 +5905,9 @@
       <c r="AW33">
         <v>13</v>
       </c>
+      <c r="AX33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5964,6 +6065,9 @@
       <c r="AW34">
         <v>0</v>
       </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6121,6 +6225,9 @@
       <c r="AW35">
         <v>0</v>
       </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6278,6 +6385,9 @@
       <c r="AW36">
         <v>3</v>
       </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6435,6 +6545,9 @@
       <c r="AW37">
         <v>0</v>
       </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6592,6 +6705,9 @@
       <c r="AW38">
         <v>1</v>
       </c>
+      <c r="AX38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6749,6 +6865,9 @@
       <c r="AW39">
         <v>20</v>
       </c>
+      <c r="AX39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6906,6 +7025,9 @@
       <c r="AW40">
         <v>67</v>
       </c>
+      <c r="AX40">
+        <v>67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7063,6 +7185,9 @@
       <c r="AW41">
         <v>0</v>
       </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7220,6 +7345,9 @@
       <c r="AW42">
         <v>11</v>
       </c>
+      <c r="AX42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7377,6 +7505,9 @@
       <c r="AW43">
         <v>18</v>
       </c>
+      <c r="AX43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7534,6 +7665,9 @@
       <c r="AW44">
         <v>13</v>
       </c>
+      <c r="AX44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7691,6 +7825,9 @@
       <c r="AW45">
         <v>27</v>
       </c>
+      <c r="AX45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7848,6 +7985,9 @@
       <c r="AW46">
         <v>1</v>
       </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8005,6 +8145,9 @@
       <c r="AW47">
         <v>5</v>
       </c>
+      <c r="AX47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8162,6 +8305,9 @@
       <c r="AW48">
         <v>3</v>
       </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8319,6 +8465,9 @@
       <c r="AW49">
         <v>8</v>
       </c>
+      <c r="AX49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8476,6 +8625,9 @@
       <c r="AW50">
         <v>2</v>
       </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8633,6 +8785,9 @@
       <c r="AW51">
         <v>6</v>
       </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8790,6 +8945,9 @@
       <c r="AW52">
         <v>0</v>
       </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8947,6 +9105,9 @@
       <c r="AW53">
         <v>1</v>
       </c>
+      <c r="AX53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9104,6 +9265,9 @@
       <c r="AW54">
         <v>6</v>
       </c>
+      <c r="AX54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9261,6 +9425,9 @@
       <c r="AW55">
         <v>5</v>
       </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9418,6 +9585,9 @@
       <c r="AW56">
         <v>1</v>
       </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9575,6 +9745,9 @@
       <c r="AW57">
         <v>10</v>
       </c>
+      <c r="AX57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9732,6 +9905,9 @@
       <c r="AW58">
         <v>0</v>
       </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9889,6 +10065,9 @@
       <c r="AW59">
         <v>0</v>
       </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10046,6 +10225,9 @@
       <c r="AW60">
         <v>1</v>
       </c>
+      <c r="AX60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10203,6 +10385,9 @@
       <c r="AW61">
         <v>1</v>
       </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10360,6 +10545,9 @@
       <c r="AW62">
         <v>2</v>
       </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10517,6 +10705,9 @@
       <c r="AW63">
         <v>2</v>
       </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10674,6 +10865,9 @@
       <c r="AW64">
         <v>0</v>
       </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10831,6 +11025,9 @@
       <c r="AW65">
         <v>3</v>
       </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10988,6 +11185,9 @@
       <c r="AW66">
         <v>4</v>
       </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11145,6 +11345,9 @@
       <c r="AW67">
         <v>1</v>
       </c>
+      <c r="AX67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11302,6 +11505,9 @@
       <c r="AW68">
         <v>3</v>
       </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11459,6 +11665,9 @@
       <c r="AW69">
         <v>39</v>
       </c>
+      <c r="AX69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11616,6 +11825,9 @@
       <c r="AW70">
         <v>6</v>
       </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11773,6 +11985,9 @@
       <c r="AW71">
         <v>0</v>
       </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11930,6 +12145,9 @@
       <c r="AW72">
         <v>2</v>
       </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12087,6 +12305,9 @@
       <c r="AW73">
         <v>5</v>
       </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12244,6 +12465,9 @@
       <c r="AW74">
         <v>3</v>
       </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12401,6 +12625,9 @@
       <c r="AW75">
         <v>0</v>
       </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12558,6 +12785,9 @@
       <c r="AW76">
         <v>0</v>
       </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12715,6 +12945,9 @@
       <c r="AW77">
         <v>2</v>
       </c>
+      <c r="AX77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12872,6 +13105,9 @@
       <c r="AW78">
         <v>4</v>
       </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13029,6 +13265,9 @@
       <c r="AW79">
         <v>1</v>
       </c>
+      <c r="AX79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13186,6 +13425,9 @@
       <c r="AW80">
         <v>1</v>
       </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13343,6 +13585,9 @@
       <c r="AW81">
         <v>0</v>
       </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13500,6 +13745,9 @@
       <c r="AW82">
         <v>5</v>
       </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13657,6 +13905,9 @@
       <c r="AW83">
         <v>0</v>
       </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13814,6 +14065,9 @@
       <c r="AW84">
         <v>0</v>
       </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13971,6 +14225,9 @@
       <c r="AW85">
         <v>4</v>
       </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14128,6 +14385,9 @@
       <c r="AW86">
         <v>0</v>
       </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14285,6 +14545,9 @@
       <c r="AW87">
         <v>0</v>
       </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -14442,6 +14705,9 @@
       <c r="AW88">
         <v>0</v>
       </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14599,6 +14865,9 @@
       <c r="AW89">
         <v>6</v>
       </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -14756,6 +15025,9 @@
       <c r="AW90">
         <v>0</v>
       </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14913,6 +15185,9 @@
       <c r="AW91">
         <v>0</v>
       </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15070,6 +15345,9 @@
       <c r="AW92">
         <v>0</v>
       </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15227,6 +15505,9 @@
       <c r="AW93">
         <v>2</v>
       </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15384,6 +15665,9 @@
       <c r="AW94">
         <v>0</v>
       </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15541,6 +15825,9 @@
       <c r="AW95">
         <v>1</v>
       </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15698,6 +15985,9 @@
       <c r="AW96">
         <v>0</v>
       </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15855,6 +16145,9 @@
       <c r="AW97">
         <v>0</v>
       </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16012,6 +16305,9 @@
       <c r="AW98">
         <v>0</v>
       </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -16169,6 +16465,9 @@
       <c r="AW99">
         <v>0</v>
       </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -16326,6 +16625,9 @@
       <c r="AW100">
         <v>6</v>
       </c>
+      <c r="AX100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -16483,6 +16785,9 @@
       <c r="AW101">
         <v>13</v>
       </c>
+      <c r="AX101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -16640,6 +16945,9 @@
       <c r="AW102">
         <v>3</v>
       </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16797,6 +17105,9 @@
       <c r="AW103">
         <v>5</v>
       </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16954,6 +17265,9 @@
       <c r="AW104">
         <v>0</v>
       </c>
+      <c r="AX104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -17111,6 +17425,9 @@
       <c r="AW105">
         <v>0</v>
       </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -17268,6 +17585,9 @@
       <c r="AW106">
         <v>6</v>
       </c>
+      <c r="AX106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -17425,6 +17745,9 @@
       <c r="AW107">
         <v>0</v>
       </c>
+      <c r="AX107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -17582,6 +17905,9 @@
       <c r="AW108">
         <v>1</v>
       </c>
+      <c r="AX108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -17739,6 +18065,9 @@
       <c r="AW109">
         <v>0</v>
       </c>
+      <c r="AX109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -17896,6 +18225,9 @@
       <c r="AW110">
         <v>36</v>
       </c>
+      <c r="AX110">
+        <v>36</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -18053,6 +18385,9 @@
       <c r="AW111">
         <v>97</v>
       </c>
+      <c r="AX111">
+        <v>97</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -18210,6 +18545,9 @@
       <c r="AW112">
         <v>67</v>
       </c>
+      <c r="AX112">
+        <v>70</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -18367,6 +18705,9 @@
       <c r="AW113">
         <v>95</v>
       </c>
+      <c r="AX113">
+        <v>96</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -18524,6 +18865,9 @@
       <c r="AW114">
         <v>174</v>
       </c>
+      <c r="AX114">
+        <v>174</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -18681,6 +19025,9 @@
       <c r="AW115">
         <v>21</v>
       </c>
+      <c r="AX115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -18838,6 +19185,9 @@
       <c r="AW116">
         <v>10</v>
       </c>
+      <c r="AX116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -18995,6 +19345,9 @@
       <c r="AW117">
         <v>2</v>
       </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -19152,6 +19505,9 @@
       <c r="AW118">
         <v>2</v>
       </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -19309,6 +19665,9 @@
       <c r="AW119">
         <v>3</v>
       </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -19466,6 +19825,9 @@
       <c r="AW120">
         <v>50</v>
       </c>
+      <c r="AX120">
+        <v>50</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -19623,6 +19985,9 @@
       <c r="AW121">
         <v>2</v>
       </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -19780,6 +20145,9 @@
       <c r="AW122">
         <v>1</v>
       </c>
+      <c r="AX122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -19937,6 +20305,9 @@
       <c r="AW123">
         <v>2</v>
       </c>
+      <c r="AX123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -20094,6 +20465,9 @@
       <c r="AW124">
         <v>7</v>
       </c>
+      <c r="AX124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -20251,6 +20625,9 @@
       <c r="AW125">
         <v>23</v>
       </c>
+      <c r="AX125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -20408,6 +20785,9 @@
       <c r="AW126">
         <v>102</v>
       </c>
+      <c r="AX126">
+        <v>102</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -20565,6 +20945,9 @@
       <c r="AW127">
         <v>20</v>
       </c>
+      <c r="AX127">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -20722,6 +21105,9 @@
       <c r="AW128">
         <v>29</v>
       </c>
+      <c r="AX128">
+        <v>29</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -20879,6 +21265,9 @@
       <c r="AW129">
         <v>49</v>
       </c>
+      <c r="AX129">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -21036,6 +21425,9 @@
       <c r="AW130">
         <v>411</v>
       </c>
+      <c r="AX130">
+        <v>411</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -21193,6 +21585,9 @@
       <c r="AW131">
         <v>183</v>
       </c>
+      <c r="AX131">
+        <v>183</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -21350,6 +21745,9 @@
       <c r="AW132">
         <v>10</v>
       </c>
+      <c r="AX132">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -21507,6 +21905,9 @@
       <c r="AW133">
         <v>26</v>
       </c>
+      <c r="AX133">
+        <v>26</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -21664,6 +22065,9 @@
       <c r="AW134">
         <v>49</v>
       </c>
+      <c r="AX134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21821,6 +22225,9 @@
       <c r="AW135">
         <v>92</v>
       </c>
+      <c r="AX135">
+        <v>93</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -21978,6 +22385,9 @@
       <c r="AW136">
         <v>158</v>
       </c>
+      <c r="AX136">
+        <v>160</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -22135,6 +22545,9 @@
       <c r="AW137">
         <v>45</v>
       </c>
+      <c r="AX137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -22292,6 +22705,9 @@
       <c r="AW138">
         <v>8</v>
       </c>
+      <c r="AX138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -22449,6 +22865,9 @@
       <c r="AW139">
         <v>58</v>
       </c>
+      <c r="AX139">
+        <v>58</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -22606,6 +23025,9 @@
       <c r="AW140">
         <v>14</v>
       </c>
+      <c r="AX140">
+        <v>14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -22763,6 +23185,9 @@
       <c r="AW141">
         <v>41</v>
       </c>
+      <c r="AX141">
+        <v>41</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -22920,6 +23345,9 @@
       <c r="AW142">
         <v>17</v>
       </c>
+      <c r="AX142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -23077,6 +23505,9 @@
       <c r="AW143">
         <v>2</v>
       </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -23234,6 +23665,9 @@
       <c r="AW144">
         <v>10</v>
       </c>
+      <c r="AX144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -23391,6 +23825,9 @@
       <c r="AW145">
         <v>1</v>
       </c>
+      <c r="AX145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -23548,6 +23985,9 @@
       <c r="AW146">
         <v>7</v>
       </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -23705,6 +24145,9 @@
       <c r="AW147">
         <v>11</v>
       </c>
+      <c r="AX147">
+        <v>11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -23862,6 +24305,9 @@
       <c r="AW148">
         <v>8</v>
       </c>
+      <c r="AX148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -24019,6 +24465,9 @@
       <c r="AW149">
         <v>13</v>
       </c>
+      <c r="AX149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -24176,6 +24625,9 @@
       <c r="AW150">
         <v>44</v>
       </c>
+      <c r="AX150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -24333,6 +24785,9 @@
       <c r="AW151">
         <v>0</v>
       </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -24490,6 +24945,9 @@
       <c r="AW152">
         <v>0</v>
       </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -24647,6 +25105,9 @@
       <c r="AW153">
         <v>10</v>
       </c>
+      <c r="AX153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -24804,6 +25265,9 @@
       <c r="AW154">
         <v>9</v>
       </c>
+      <c r="AX154">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -24961,6 +25425,9 @@
       <c r="AW155">
         <v>42</v>
       </c>
+      <c r="AX155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -25118,6 +25585,9 @@
       <c r="AW156">
         <v>4</v>
       </c>
+      <c r="AX156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -25275,6 +25745,9 @@
       <c r="AW157">
         <v>1</v>
       </c>
+      <c r="AX157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -25432,6 +25905,9 @@
       <c r="AW158">
         <v>3</v>
       </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -25589,6 +26065,9 @@
       <c r="AW159">
         <v>6</v>
       </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -25746,6 +26225,9 @@
       <c r="AW160">
         <v>12</v>
       </c>
+      <c r="AX160">
+        <v>12</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -25903,6 +26385,9 @@
       <c r="AW161">
         <v>2</v>
       </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -26060,6 +26545,9 @@
       <c r="AW162">
         <v>82</v>
       </c>
+      <c r="AX162">
+        <v>82</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -26217,6 +26705,9 @@
       <c r="AW163">
         <v>39</v>
       </c>
+      <c r="AX163">
+        <v>39</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -26374,6 +26865,9 @@
       <c r="AW164">
         <v>24</v>
       </c>
+      <c r="AX164">
+        <v>24</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -26531,6 +27025,9 @@
       <c r="AW165">
         <v>63</v>
       </c>
+      <c r="AX165">
+        <v>63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -26688,6 +27185,9 @@
       <c r="AW166">
         <v>13</v>
       </c>
+      <c r="AX166">
+        <v>13</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -26845,6 +27345,9 @@
       <c r="AW167">
         <v>36</v>
       </c>
+      <c r="AX167">
+        <v>36</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -27002,6 +27505,9 @@
       <c r="AW168">
         <v>0</v>
       </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -27159,6 +27665,9 @@
       <c r="AW169">
         <v>21</v>
       </c>
+      <c r="AX169">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -27316,6 +27825,9 @@
       <c r="AW170">
         <v>4</v>
       </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -27473,6 +27985,9 @@
       <c r="AW171">
         <v>5</v>
       </c>
+      <c r="AX171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -27630,6 +28145,9 @@
       <c r="AW172">
         <v>3</v>
       </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -27787,6 +28305,9 @@
       <c r="AW173">
         <v>3</v>
       </c>
+      <c r="AX173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -27944,6 +28465,9 @@
       <c r="AW174">
         <v>16</v>
       </c>
+      <c r="AX174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -28101,6 +28625,9 @@
       <c r="AW175">
         <v>7</v>
       </c>
+      <c r="AX175">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -28258,6 +28785,9 @@
       <c r="AW176">
         <v>4</v>
       </c>
+      <c r="AX176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -28415,6 +28945,9 @@
       <c r="AW177">
         <v>0</v>
       </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -28572,6 +29105,9 @@
       <c r="AW178">
         <v>0</v>
       </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -28729,6 +29265,9 @@
       <c r="AW179">
         <v>2</v>
       </c>
+      <c r="AX179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -28886,6 +29425,9 @@
       <c r="AW180">
         <v>0</v>
       </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -29043,6 +29585,9 @@
       <c r="AW181">
         <v>0</v>
       </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -29200,6 +29745,9 @@
       <c r="AW182">
         <v>1</v>
       </c>
+      <c r="AX182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -29357,6 +29905,9 @@
       <c r="AW183">
         <v>0</v>
       </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -29514,6 +30065,9 @@
       <c r="AW184">
         <v>1</v>
       </c>
+      <c r="AX184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -29671,6 +30225,9 @@
       <c r="AW185">
         <v>5</v>
       </c>
+      <c r="AX185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -29828,6 +30385,9 @@
       <c r="AW186">
         <v>2</v>
       </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -29985,6 +30545,9 @@
       <c r="AW187">
         <v>2</v>
       </c>
+      <c r="AX187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -30142,6 +30705,9 @@
       <c r="AW188">
         <v>3</v>
       </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -30299,6 +30865,9 @@
       <c r="AW189">
         <v>2</v>
       </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -30456,6 +31025,9 @@
       <c r="AW190">
         <v>13</v>
       </c>
+      <c r="AX190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -30613,6 +31185,9 @@
       <c r="AW191">
         <v>36</v>
       </c>
+      <c r="AX191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -30770,6 +31345,9 @@
       <c r="AW192">
         <v>1</v>
       </c>
+      <c r="AX192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -30927,6 +31505,9 @@
       <c r="AW193">
         <v>8</v>
       </c>
+      <c r="AX193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -31084,6 +31665,9 @@
       <c r="AW194">
         <v>2</v>
       </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -31241,6 +31825,9 @@
       <c r="AW195">
         <v>6</v>
       </c>
+      <c r="AX195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -31398,6 +31985,9 @@
       <c r="AW196">
         <v>4</v>
       </c>
+      <c r="AX196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -31555,6 +32145,9 @@
       <c r="AW197">
         <v>12</v>
       </c>
+      <c r="AX197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -31712,6 +32305,9 @@
       <c r="AW198">
         <v>11</v>
       </c>
+      <c r="AX198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -31869,6 +32465,9 @@
       <c r="AW199">
         <v>2</v>
       </c>
+      <c r="AX199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -32026,6 +32625,9 @@
       <c r="AW200">
         <v>1</v>
       </c>
+      <c r="AX200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -32183,6 +32785,9 @@
       <c r="AW201">
         <v>0</v>
       </c>
+      <c r="AX201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -32340,6 +32945,9 @@
       <c r="AW202">
         <v>1</v>
       </c>
+      <c r="AX202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -32497,6 +33105,9 @@
       <c r="AW203">
         <v>9</v>
       </c>
+      <c r="AX203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -32654,6 +33265,9 @@
       <c r="AW204">
         <v>0</v>
       </c>
+      <c r="AX204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -32811,6 +33425,9 @@
       <c r="AW205">
         <v>0</v>
       </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -32968,6 +33585,9 @@
       <c r="AW206">
         <v>0</v>
       </c>
+      <c r="AX206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -33125,6 +33745,9 @@
       <c r="AW207">
         <v>25</v>
       </c>
+      <c r="AX207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -33282,6 +33905,9 @@
       <c r="AW208">
         <v>21</v>
       </c>
+      <c r="AX208">
+        <v>21</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -33439,6 +34065,9 @@
       <c r="AW209">
         <v>57</v>
       </c>
+      <c r="AX209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -33596,6 +34225,9 @@
       <c r="AW210">
         <v>38</v>
       </c>
+      <c r="AX210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -33753,6 +34385,9 @@
       <c r="AW211">
         <v>36</v>
       </c>
+      <c r="AX211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -33910,6 +34545,9 @@
       <c r="AW212">
         <v>10</v>
       </c>
+      <c r="AX212">
+        <v>10</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -34067,6 +34705,9 @@
       <c r="AW213">
         <v>40</v>
       </c>
+      <c r="AX213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -34224,6 +34865,9 @@
       <c r="AW214">
         <v>4</v>
       </c>
+      <c r="AX214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -34381,6 +35025,9 @@
       <c r="AW215">
         <v>23</v>
       </c>
+      <c r="AX215">
+        <v>23</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -34538,6 +35185,9 @@
       <c r="AW216">
         <v>2</v>
       </c>
+      <c r="AX216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -34695,6 +35345,9 @@
       <c r="AW217">
         <v>5</v>
       </c>
+      <c r="AX217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -34852,6 +35505,9 @@
       <c r="AW218">
         <v>2</v>
       </c>
+      <c r="AX218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -35009,6 +35665,9 @@
       <c r="AW219">
         <v>1</v>
       </c>
+      <c r="AX219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -35166,6 +35825,9 @@
       <c r="AW220">
         <v>7</v>
       </c>
+      <c r="AX220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -35323,6 +35985,9 @@
       <c r="AW221">
         <v>0</v>
       </c>
+      <c r="AX221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -35480,6 +36145,9 @@
       <c r="AW222">
         <v>1</v>
       </c>
+      <c r="AX222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -35637,6 +36305,9 @@
       <c r="AW223">
         <v>1</v>
       </c>
+      <c r="AX223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -35794,6 +36465,9 @@
       <c r="AW224">
         <v>1</v>
       </c>
+      <c r="AX224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -35951,6 +36625,9 @@
       <c r="AW225">
         <v>0</v>
       </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -36108,6 +36785,9 @@
       <c r="AW226">
         <v>0</v>
       </c>
+      <c r="AX226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -36265,6 +36945,9 @@
       <c r="AW227">
         <v>0</v>
       </c>
+      <c r="AX227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -36422,6 +37105,9 @@
       <c r="AW228">
         <v>0</v>
       </c>
+      <c r="AX228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -36579,6 +37265,9 @@
       <c r="AW229">
         <v>2</v>
       </c>
+      <c r="AX229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -36736,6 +37425,9 @@
       <c r="AW230">
         <v>0</v>
       </c>
+      <c r="AX230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -36893,6 +37585,9 @@
       <c r="AW231">
         <v>3</v>
       </c>
+      <c r="AX231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -37050,6 +37745,9 @@
       <c r="AW232">
         <v>31</v>
       </c>
+      <c r="AX232">
+        <v>31</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -37207,6 +37905,9 @@
       <c r="AW233">
         <v>220</v>
       </c>
+      <c r="AX233">
+        <v>220</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -37364,6 +38065,9 @@
       <c r="AW234">
         <v>10</v>
       </c>
+      <c r="AX234">
+        <v>11</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -37521,6 +38225,9 @@
       <c r="AW235">
         <v>11</v>
       </c>
+      <c r="AX235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -37678,6 +38385,9 @@
       <c r="AW236">
         <v>0</v>
       </c>
+      <c r="AX236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -37835,6 +38545,9 @@
       <c r="AW237">
         <v>2</v>
       </c>
+      <c r="AX237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -37992,6 +38705,9 @@
       <c r="AW238">
         <v>0</v>
       </c>
+      <c r="AX238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -38149,6 +38865,9 @@
       <c r="AW239">
         <v>1</v>
       </c>
+      <c r="AX239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -38306,6 +39025,9 @@
       <c r="AW240">
         <v>2</v>
       </c>
+      <c r="AX240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -38463,6 +39185,9 @@
       <c r="AW241">
         <v>8</v>
       </c>
+      <c r="AX241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -38620,6 +39345,9 @@
       <c r="AW242">
         <v>3</v>
       </c>
+      <c r="AX242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -38777,6 +39505,9 @@
       <c r="AW243">
         <v>1</v>
       </c>
+      <c r="AX243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -38934,6 +39665,9 @@
       <c r="AW244">
         <v>2</v>
       </c>
+      <c r="AX244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -39091,6 +39825,9 @@
       <c r="AW245">
         <v>2</v>
       </c>
+      <c r="AX245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -39248,6 +39985,9 @@
       <c r="AW246">
         <v>2</v>
       </c>
+      <c r="AX246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -39405,6 +40145,9 @@
       <c r="AW247">
         <v>0</v>
       </c>
+      <c r="AX247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -39562,6 +40305,9 @@
       <c r="AW248">
         <v>3</v>
       </c>
+      <c r="AX248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -39719,6 +40465,9 @@
       <c r="AW249">
         <v>21</v>
       </c>
+      <c r="AX249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -39876,6 +40625,9 @@
       <c r="AW250">
         <v>0</v>
       </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -40033,6 +40785,9 @@
       <c r="AW251">
         <v>4</v>
       </c>
+      <c r="AX251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -40190,6 +40945,9 @@
       <c r="AW252">
         <v>1</v>
       </c>
+      <c r="AX252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -40347,6 +41105,9 @@
       <c r="AW253">
         <v>1</v>
       </c>
+      <c r="AX253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -40504,6 +41265,9 @@
       <c r="AW254">
         <v>1</v>
       </c>
+      <c r="AX254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -40671,6 +41435,9 @@
       <c r="AW255">
         <v>13</v>
       </c>
+      <c r="AX255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -40838,6 +41605,9 @@
       <c r="AW256">
         <v>84</v>
       </c>
+      <c r="AX256">
+        <v>84</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -41005,6 +41775,9 @@
       <c r="AW257">
         <v>57</v>
       </c>
+      <c r="AX257">
+        <v>57</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -41172,6 +41945,9 @@
       <c r="AW258">
         <v>71</v>
       </c>
+      <c r="AX258">
+        <v>71</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -41339,6 +42115,9 @@
       <c r="AW259">
         <v>69</v>
       </c>
+      <c r="AX259">
+        <v>71</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -41506,6 +42285,9 @@
       <c r="AW260">
         <v>40</v>
       </c>
+      <c r="AX260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -41673,6 +42455,9 @@
       <c r="AW261">
         <v>99</v>
       </c>
+      <c r="AX261">
+        <v>99</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -41840,6 +42625,9 @@
       <c r="AW262">
         <v>57</v>
       </c>
+      <c r="AX262">
+        <v>57</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -42007,6 +42795,9 @@
       <c r="AW263">
         <v>63</v>
       </c>
+      <c r="AX263">
+        <v>63</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -42164,6 +42955,9 @@
       <c r="AW264">
         <v>9</v>
       </c>
+      <c r="AX264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -42321,6 +43115,9 @@
       <c r="AW265">
         <v>4</v>
       </c>
+      <c r="AX265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -42478,6 +43275,9 @@
       <c r="AW266">
         <v>4</v>
       </c>
+      <c r="AX266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -42635,6 +43435,9 @@
       <c r="AW267">
         <v>4</v>
       </c>
+      <c r="AX267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -42792,6 +43595,9 @@
       <c r="AW268">
         <v>6</v>
       </c>
+      <c r="AX268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -42949,6 +43755,9 @@
       <c r="AW269">
         <v>8</v>
       </c>
+      <c r="AX269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -43106,6 +43915,9 @@
       <c r="AW270">
         <v>0</v>
       </c>
+      <c r="AX270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -43263,6 +44075,9 @@
       <c r="AW271">
         <v>4</v>
       </c>
+      <c r="AX271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -43420,6 +44235,9 @@
       <c r="AW272">
         <v>0</v>
       </c>
+      <c r="AX272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -43577,6 +44395,9 @@
       <c r="AW273">
         <v>0</v>
       </c>
+      <c r="AX273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -43734,6 +44555,9 @@
       <c r="AW274">
         <v>2</v>
       </c>
+      <c r="AX274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -43891,6 +44715,9 @@
       <c r="AW275">
         <v>24</v>
       </c>
+      <c r="AX275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -44048,6 +44875,9 @@
       <c r="AW276">
         <v>9</v>
       </c>
+      <c r="AX276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -44205,6 +45035,9 @@
       <c r="AW277">
         <v>0</v>
       </c>
+      <c r="AX277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -44362,6 +45195,9 @@
       <c r="AW278">
         <v>17</v>
       </c>
+      <c r="AX278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -44519,6 +45355,9 @@
       <c r="AW279">
         <v>5</v>
       </c>
+      <c r="AX279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -44676,6 +45515,9 @@
       <c r="AW280">
         <v>54</v>
       </c>
+      <c r="AX280">
+        <v>54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -44833,6 +45675,9 @@
       <c r="AW281">
         <v>41</v>
       </c>
+      <c r="AX281">
+        <v>41</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -44990,6 +45835,9 @@
       <c r="AW282">
         <v>1</v>
       </c>
+      <c r="AX282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -45147,6 +45995,9 @@
       <c r="AW283">
         <v>0</v>
       </c>
+      <c r="AX283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -45304,6 +46155,9 @@
       <c r="AW284">
         <v>40</v>
       </c>
+      <c r="AX284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -45461,6 +46315,9 @@
       <c r="AW285">
         <v>27</v>
       </c>
+      <c r="AX285">
+        <v>27</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -45618,6 +46475,9 @@
       <c r="AW286">
         <v>0</v>
       </c>
+      <c r="AX286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -45775,6 +46635,9 @@
       <c r="AW287">
         <v>0</v>
       </c>
+      <c r="AX287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -45932,6 +46795,9 @@
       <c r="AW288">
         <v>0</v>
       </c>
+      <c r="AX288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -46089,6 +46955,9 @@
       <c r="AW289">
         <v>1</v>
       </c>
+      <c r="AX289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -46246,6 +47115,9 @@
       <c r="AW290">
         <v>3</v>
       </c>
+      <c r="AX290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -46403,6 +47275,9 @@
       <c r="AW291">
         <v>0</v>
       </c>
+      <c r="AX291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -46560,6 +47435,9 @@
       <c r="AW292">
         <v>3</v>
       </c>
+      <c r="AX292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -46717,6 +47595,9 @@
       <c r="AW293">
         <v>0</v>
       </c>
+      <c r="AX293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -46874,6 +47755,9 @@
       <c r="AW294">
         <v>7</v>
       </c>
+      <c r="AX294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -47031,6 +47915,9 @@
       <c r="AW295">
         <v>0</v>
       </c>
+      <c r="AX295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -47188,6 +48075,9 @@
       <c r="AW296">
         <v>0</v>
       </c>
+      <c r="AX296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -47345,6 +48235,9 @@
       <c r="AW297">
         <v>1</v>
       </c>
+      <c r="AX297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -47502,6 +48395,9 @@
       <c r="AW298">
         <v>4</v>
       </c>
+      <c r="AX298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -47659,6 +48555,9 @@
       <c r="AW299">
         <v>0</v>
       </c>
+      <c r="AX299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -47816,6 +48715,9 @@
       <c r="AW300">
         <v>0</v>
       </c>
+      <c r="AX300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -47973,6 +48875,9 @@
       <c r="AW301">
         <v>17</v>
       </c>
+      <c r="AX301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -48130,6 +49035,9 @@
       <c r="AW302">
         <v>0</v>
       </c>
+      <c r="AX302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -48287,6 +49195,9 @@
       <c r="AW303">
         <v>0</v>
       </c>
+      <c r="AX303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -48444,6 +49355,9 @@
       <c r="AW304">
         <v>4</v>
       </c>
+      <c r="AX304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -48601,6 +49515,9 @@
       <c r="AW305">
         <v>12</v>
       </c>
+      <c r="AX305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -48758,6 +49675,9 @@
       <c r="AW306">
         <v>295</v>
       </c>
+      <c r="AX306">
+        <v>305</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -48915,6 +49835,9 @@
       <c r="AW307">
         <v>17</v>
       </c>
+      <c r="AX307">
+        <v>17</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -49072,6 +49995,9 @@
       <c r="AW308">
         <v>5</v>
       </c>
+      <c r="AX308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -49229,6 +50155,9 @@
       <c r="AW309">
         <v>0</v>
       </c>
+      <c r="AX309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -49386,6 +50315,9 @@
       <c r="AW310">
         <v>0</v>
       </c>
+      <c r="AX310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -49543,6 +50475,9 @@
       <c r="AW311">
         <v>8</v>
       </c>
+      <c r="AX311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -49700,6 +50635,9 @@
       <c r="AW312">
         <v>5</v>
       </c>
+      <c r="AX312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -49857,6 +50795,9 @@
       <c r="AW313">
         <v>0</v>
       </c>
+      <c r="AX313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -50014,6 +50955,9 @@
       <c r="AW314">
         <v>1</v>
       </c>
+      <c r="AX314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -50171,6 +51115,9 @@
       <c r="AW315">
         <v>7</v>
       </c>
+      <c r="AX315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -50328,6 +51275,9 @@
       <c r="AW316">
         <v>3</v>
       </c>
+      <c r="AX316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -50485,6 +51435,9 @@
       <c r="AW317">
         <v>5</v>
       </c>
+      <c r="AX317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -50642,6 +51595,9 @@
       <c r="AW318">
         <v>12</v>
       </c>
+      <c r="AX318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -50799,6 +51755,9 @@
       <c r="AW319">
         <v>6</v>
       </c>
+      <c r="AX319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -50956,6 +51915,9 @@
       <c r="AW320">
         <v>0</v>
       </c>
+      <c r="AX320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -51113,6 +52075,9 @@
       <c r="AW321">
         <v>1</v>
       </c>
+      <c r="AX321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -51270,6 +52235,9 @@
       <c r="AW322">
         <v>8</v>
       </c>
+      <c r="AX322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -51427,6 +52395,9 @@
       <c r="AW323">
         <v>28</v>
       </c>
+      <c r="AX323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -51584,6 +52555,9 @@
       <c r="AW324">
         <v>21</v>
       </c>
+      <c r="AX324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -51741,6 +52715,9 @@
       <c r="AW325">
         <v>15</v>
       </c>
+      <c r="AX325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -51898,6 +52875,9 @@
       <c r="AW326">
         <v>1</v>
       </c>
+      <c r="AX326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -52055,6 +53035,9 @@
       <c r="AW327">
         <v>0</v>
       </c>
+      <c r="AX327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -52212,6 +53195,9 @@
       <c r="AW328">
         <v>0</v>
       </c>
+      <c r="AX328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -52369,6 +53355,9 @@
       <c r="AW329">
         <v>0</v>
       </c>
+      <c r="AX329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -52526,6 +53515,9 @@
       <c r="AW330">
         <v>3</v>
       </c>
+      <c r="AX330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -52683,6 +53675,9 @@
       <c r="AW331">
         <v>1</v>
       </c>
+      <c r="AX331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -52840,6 +53835,9 @@
       <c r="AW332">
         <v>4</v>
       </c>
+      <c r="AX332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -52997,6 +53995,9 @@
       <c r="AW333">
         <v>0</v>
       </c>
+      <c r="AX333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -53154,6 +54155,9 @@
       <c r="AW334">
         <v>0</v>
       </c>
+      <c r="AX334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -53311,6 +54315,9 @@
       <c r="AW335">
         <v>7</v>
       </c>
+      <c r="AX335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -53468,6 +54475,9 @@
       <c r="AW336">
         <v>2</v>
       </c>
+      <c r="AX336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -53625,6 +54635,9 @@
       <c r="AW337">
         <v>2</v>
       </c>
+      <c r="AX337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -53782,6 +54795,9 @@
       <c r="AW338">
         <v>2</v>
       </c>
+      <c r="AX338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -53939,6 +54955,9 @@
       <c r="AW339">
         <v>10</v>
       </c>
+      <c r="AX339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -54096,6 +55115,9 @@
       <c r="AW340">
         <v>1</v>
       </c>
+      <c r="AX340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -54253,6 +55275,9 @@
       <c r="AW341">
         <v>17</v>
       </c>
+      <c r="AX341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -54410,6 +55435,9 @@
       <c r="AW342">
         <v>0</v>
       </c>
+      <c r="AX342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -54567,6 +55595,9 @@
       <c r="AW343">
         <v>0</v>
       </c>
+      <c r="AX343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -54724,6 +55755,9 @@
       <c r="AW344">
         <v>161</v>
       </c>
+      <c r="AX344">
+        <v>161</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -54881,6 +55915,9 @@
       <c r="AW345">
         <v>6</v>
       </c>
+      <c r="AX345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -55038,6 +56075,9 @@
       <c r="AW346">
         <v>5</v>
       </c>
+      <c r="AX346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -55195,6 +56235,9 @@
       <c r="AW347">
         <v>1</v>
       </c>
+      <c r="AX347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -55352,6 +56395,9 @@
       <c r="AW348">
         <v>3</v>
       </c>
+      <c r="AX348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -55509,6 +56555,9 @@
       <c r="AW349">
         <v>15</v>
       </c>
+      <c r="AX349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -55666,6 +56715,9 @@
       <c r="AW350">
         <v>1</v>
       </c>
+      <c r="AX350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -55823,6 +56875,9 @@
       <c r="AW351">
         <v>1</v>
       </c>
+      <c r="AX351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -55980,6 +57035,9 @@
       <c r="AW352">
         <v>0</v>
       </c>
+      <c r="AX352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -56137,6 +57195,9 @@
       <c r="AW353">
         <v>0</v>
       </c>
+      <c r="AX353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -56294,6 +57355,9 @@
       <c r="AW354">
         <v>3</v>
       </c>
+      <c r="AX354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -56451,6 +57515,9 @@
       <c r="AW355">
         <v>1</v>
       </c>
+      <c r="AX355">
+        <v>2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -56608,6 +57675,9 @@
       <c r="AW356">
         <v>2</v>
       </c>
+      <c r="AX356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -56765,6 +57835,9 @@
       <c r="AW357">
         <v>1</v>
       </c>
+      <c r="AX357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -56922,6 +57995,9 @@
       <c r="AW358">
         <v>0</v>
       </c>
+      <c r="AX358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -57079,6 +58155,9 @@
       <c r="AW359">
         <v>0</v>
       </c>
+      <c r="AX359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -57236,6 +58315,9 @@
       <c r="AW360">
         <v>16</v>
       </c>
+      <c r="AX360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -57393,6 +58475,9 @@
       <c r="AW361">
         <v>2</v>
       </c>
+      <c r="AX361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -57550,6 +58635,9 @@
       <c r="AW362">
         <v>2</v>
       </c>
+      <c r="AX362">
+        <v>2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -57707,6 +58795,9 @@
       <c r="AW363">
         <v>2</v>
       </c>
+      <c r="AX363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -57864,6 +58955,9 @@
       <c r="AW364">
         <v>0</v>
       </c>
+      <c r="AX364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -58021,6 +59115,9 @@
       <c r="AW365">
         <v>0</v>
       </c>
+      <c r="AX365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -58178,6 +59275,9 @@
       <c r="AW366">
         <v>1</v>
       </c>
+      <c r="AX366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -58335,6 +59435,9 @@
       <c r="AW367">
         <v>2</v>
       </c>
+      <c r="AX367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -58492,6 +59595,9 @@
       <c r="AW368">
         <v>0</v>
       </c>
+      <c r="AX368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -58649,6 +59755,9 @@
       <c r="AW369">
         <v>1</v>
       </c>
+      <c r="AX369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -58806,6 +59915,9 @@
       <c r="AW370">
         <v>0</v>
       </c>
+      <c r="AX370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -58963,6 +60075,9 @@
       <c r="AW371">
         <v>0</v>
       </c>
+      <c r="AX371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -59120,6 +60235,9 @@
       <c r="AW372">
         <v>3</v>
       </c>
+      <c r="AX372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -59277,6 +60395,9 @@
       <c r="AW373">
         <v>2</v>
       </c>
+      <c r="AX373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -59434,6 +60555,9 @@
       <c r="AW374">
         <v>4</v>
       </c>
+      <c r="AX374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -59591,6 +60715,9 @@
       <c r="AW375">
         <v>1</v>
       </c>
+      <c r="AX375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -59748,6 +60875,9 @@
       <c r="AW376">
         <v>0</v>
       </c>
+      <c r="AX376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -59905,6 +61035,9 @@
       <c r="AW377">
         <v>0</v>
       </c>
+      <c r="AX377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -60062,6 +61195,9 @@
       <c r="AW378">
         <v>0</v>
       </c>
+      <c r="AX378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -60219,6 +61355,9 @@
       <c r="AW379">
         <v>1</v>
       </c>
+      <c r="AX379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -60376,6 +61515,9 @@
       <c r="AW380">
         <v>1</v>
       </c>
+      <c r="AX380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -60533,6 +61675,9 @@
       <c r="AW381">
         <v>0</v>
       </c>
+      <c r="AX381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -60690,6 +61835,9 @@
       <c r="AW382">
         <v>4</v>
       </c>
+      <c r="AX382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -60847,6 +61995,9 @@
       <c r="AW383">
         <v>0</v>
       </c>
+      <c r="AX383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -61003,6 +62154,9 @@
       </c>
       <c r="AW384">
         <v>1</v>
+      </c>
+      <c r="AX384">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX384"/>
+  <dimension ref="A1:AY384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,6 +608,11 @@
           <t>2020-05-04</t>
         </is>
       </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -778,6 +783,9 @@
       <c r="AX2">
         <v>247</v>
       </c>
+      <c r="AY2">
+        <v>248</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -948,6 +956,9 @@
       <c r="AX3">
         <v>174</v>
       </c>
+      <c r="AY3">
+        <v>174</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1118,6 +1129,9 @@
       <c r="AX4">
         <v>140</v>
       </c>
+      <c r="AY4">
+        <v>143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1288,6 +1302,9 @@
       <c r="AX5">
         <v>100</v>
       </c>
+      <c r="AY5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1458,6 +1475,9 @@
       <c r="AX6">
         <v>174</v>
       </c>
+      <c r="AY6">
+        <v>174</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1628,6 +1648,9 @@
       <c r="AX7">
         <v>111</v>
       </c>
+      <c r="AY7">
+        <v>111</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1798,6 +1821,9 @@
       <c r="AX8">
         <v>150</v>
       </c>
+      <c r="AY8">
+        <v>150</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1968,6 +1994,9 @@
       <c r="AX9">
         <v>133</v>
       </c>
+      <c r="AY9">
+        <v>133</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2138,6 +2167,9 @@
       <c r="AX10">
         <v>109</v>
       </c>
+      <c r="AY10">
+        <v>109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2308,6 +2340,9 @@
       <c r="AX11">
         <v>116</v>
       </c>
+      <c r="AY11">
+        <v>117</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2478,6 +2513,9 @@
       <c r="AX12">
         <v>196</v>
       </c>
+      <c r="AY12">
+        <v>196</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2648,6 +2686,9 @@
       <c r="AX13">
         <v>232</v>
       </c>
+      <c r="AY13">
+        <v>241</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2818,6 +2859,9 @@
       <c r="AX14">
         <v>180</v>
       </c>
+      <c r="AY14">
+        <v>183</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2988,6 +3032,9 @@
       <c r="AX15">
         <v>162</v>
       </c>
+      <c r="AY15">
+        <v>164</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3158,6 +3205,9 @@
       <c r="AX16">
         <v>134</v>
       </c>
+      <c r="AY16">
+        <v>137</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3328,6 +3378,9 @@
       <c r="AX17">
         <v>5</v>
       </c>
+      <c r="AY17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3498,6 +3551,9 @@
       <c r="AX18">
         <v>2</v>
       </c>
+      <c r="AY18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3668,6 +3724,9 @@
       <c r="AX19">
         <v>50</v>
       </c>
+      <c r="AY19">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3828,6 +3887,9 @@
       <c r="AX20">
         <v>14</v>
       </c>
+      <c r="AY20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3988,6 +4050,9 @@
       <c r="AX21">
         <v>133</v>
       </c>
+      <c r="AY21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4148,6 +4213,9 @@
       <c r="AX22">
         <v>51</v>
       </c>
+      <c r="AY22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4308,6 +4376,9 @@
       <c r="AX23">
         <v>47</v>
       </c>
+      <c r="AY23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4468,6 +4539,9 @@
       <c r="AX24">
         <v>5</v>
       </c>
+      <c r="AY24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4628,6 +4702,9 @@
       <c r="AX25">
         <v>1</v>
       </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4788,6 +4865,9 @@
       <c r="AX26">
         <v>0</v>
       </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4948,6 +5028,9 @@
       <c r="AX27">
         <v>7</v>
       </c>
+      <c r="AY27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5108,6 +5191,9 @@
       <c r="AX28">
         <v>6</v>
       </c>
+      <c r="AY28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5268,6 +5354,9 @@
       <c r="AX29">
         <v>12</v>
       </c>
+      <c r="AY29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5428,6 +5517,9 @@
       <c r="AX30">
         <v>13</v>
       </c>
+      <c r="AY30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5588,6 +5680,9 @@
       <c r="AX31">
         <v>16</v>
       </c>
+      <c r="AY31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5748,6 +5843,9 @@
       <c r="AX32">
         <v>11</v>
       </c>
+      <c r="AY32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5908,6 +6006,9 @@
       <c r="AX33">
         <v>13</v>
       </c>
+      <c r="AY33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6068,6 +6169,9 @@
       <c r="AX34">
         <v>0</v>
       </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6228,6 +6332,9 @@
       <c r="AX35">
         <v>0</v>
       </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6388,6 +6495,9 @@
       <c r="AX36">
         <v>3</v>
       </c>
+      <c r="AY36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6548,6 +6658,9 @@
       <c r="AX37">
         <v>0</v>
       </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6708,6 +6821,9 @@
       <c r="AX38">
         <v>1</v>
       </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6868,6 +6984,9 @@
       <c r="AX39">
         <v>20</v>
       </c>
+      <c r="AY39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7028,6 +7147,9 @@
       <c r="AX40">
         <v>67</v>
       </c>
+      <c r="AY40">
+        <v>71</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7188,6 +7310,9 @@
       <c r="AX41">
         <v>0</v>
       </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7348,6 +7473,9 @@
       <c r="AX42">
         <v>11</v>
       </c>
+      <c r="AY42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7508,6 +7636,9 @@
       <c r="AX43">
         <v>18</v>
       </c>
+      <c r="AY43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7668,6 +7799,9 @@
       <c r="AX44">
         <v>13</v>
       </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7828,6 +7962,9 @@
       <c r="AX45">
         <v>27</v>
       </c>
+      <c r="AY45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7988,6 +8125,9 @@
       <c r="AX46">
         <v>1</v>
       </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8148,6 +8288,9 @@
       <c r="AX47">
         <v>5</v>
       </c>
+      <c r="AY47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8308,6 +8451,9 @@
       <c r="AX48">
         <v>3</v>
       </c>
+      <c r="AY48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8468,6 +8614,9 @@
       <c r="AX49">
         <v>8</v>
       </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8628,6 +8777,9 @@
       <c r="AX50">
         <v>2</v>
       </c>
+      <c r="AY50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8788,6 +8940,9 @@
       <c r="AX51">
         <v>6</v>
       </c>
+      <c r="AY51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8948,6 +9103,9 @@
       <c r="AX52">
         <v>0</v>
       </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9108,6 +9266,9 @@
       <c r="AX53">
         <v>1</v>
       </c>
+      <c r="AY53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9268,6 +9429,9 @@
       <c r="AX54">
         <v>6</v>
       </c>
+      <c r="AY54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9428,6 +9592,9 @@
       <c r="AX55">
         <v>5</v>
       </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9588,6 +9755,9 @@
       <c r="AX56">
         <v>1</v>
       </c>
+      <c r="AY56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9748,6 +9918,9 @@
       <c r="AX57">
         <v>10</v>
       </c>
+      <c r="AY57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9908,6 +10081,9 @@
       <c r="AX58">
         <v>0</v>
       </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10068,6 +10244,9 @@
       <c r="AX59">
         <v>0</v>
       </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10228,6 +10407,9 @@
       <c r="AX60">
         <v>1</v>
       </c>
+      <c r="AY60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10388,6 +10570,9 @@
       <c r="AX61">
         <v>1</v>
       </c>
+      <c r="AY61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10548,6 +10733,9 @@
       <c r="AX62">
         <v>2</v>
       </c>
+      <c r="AY62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10708,6 +10896,9 @@
       <c r="AX63">
         <v>2</v>
       </c>
+      <c r="AY63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10868,6 +11059,9 @@
       <c r="AX64">
         <v>0</v>
       </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11028,6 +11222,9 @@
       <c r="AX65">
         <v>3</v>
       </c>
+      <c r="AY65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11188,6 +11385,9 @@
       <c r="AX66">
         <v>4</v>
       </c>
+      <c r="AY66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11348,6 +11548,9 @@
       <c r="AX67">
         <v>1</v>
       </c>
+      <c r="AY67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11508,6 +11711,9 @@
       <c r="AX68">
         <v>3</v>
       </c>
+      <c r="AY68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11668,6 +11874,9 @@
       <c r="AX69">
         <v>39</v>
       </c>
+      <c r="AY69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11828,6 +12037,9 @@
       <c r="AX70">
         <v>6</v>
       </c>
+      <c r="AY70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11988,6 +12200,9 @@
       <c r="AX71">
         <v>0</v>
       </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12148,6 +12363,9 @@
       <c r="AX72">
         <v>2</v>
       </c>
+      <c r="AY72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12308,6 +12526,9 @@
       <c r="AX73">
         <v>5</v>
       </c>
+      <c r="AY73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12468,6 +12689,9 @@
       <c r="AX74">
         <v>3</v>
       </c>
+      <c r="AY74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12628,6 +12852,9 @@
       <c r="AX75">
         <v>0</v>
       </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12788,6 +13015,9 @@
       <c r="AX76">
         <v>0</v>
       </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12948,6 +13178,9 @@
       <c r="AX77">
         <v>2</v>
       </c>
+      <c r="AY77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13108,6 +13341,9 @@
       <c r="AX78">
         <v>4</v>
       </c>
+      <c r="AY78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13268,6 +13504,9 @@
       <c r="AX79">
         <v>1</v>
       </c>
+      <c r="AY79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13428,6 +13667,9 @@
       <c r="AX80">
         <v>1</v>
       </c>
+      <c r="AY80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13588,6 +13830,9 @@
       <c r="AX81">
         <v>0</v>
       </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13748,6 +13993,9 @@
       <c r="AX82">
         <v>5</v>
       </c>
+      <c r="AY82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13908,6 +14156,9 @@
       <c r="AX83">
         <v>0</v>
       </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14068,6 +14319,9 @@
       <c r="AX84">
         <v>0</v>
       </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14228,6 +14482,9 @@
       <c r="AX85">
         <v>4</v>
       </c>
+      <c r="AY85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14388,6 +14645,9 @@
       <c r="AX86">
         <v>0</v>
       </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14548,6 +14808,9 @@
       <c r="AX87">
         <v>0</v>
       </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -14708,6 +14971,9 @@
       <c r="AX88">
         <v>0</v>
       </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14868,6 +15134,9 @@
       <c r="AX89">
         <v>6</v>
       </c>
+      <c r="AY89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15028,6 +15297,9 @@
       <c r="AX90">
         <v>0</v>
       </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15188,6 +15460,9 @@
       <c r="AX91">
         <v>0</v>
       </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15348,6 +15623,9 @@
       <c r="AX92">
         <v>0</v>
       </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15508,6 +15786,9 @@
       <c r="AX93">
         <v>2</v>
       </c>
+      <c r="AY93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15668,6 +15949,9 @@
       <c r="AX94">
         <v>0</v>
       </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15828,6 +16112,9 @@
       <c r="AX95">
         <v>1</v>
       </c>
+      <c r="AY95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15988,6 +16275,9 @@
       <c r="AX96">
         <v>0</v>
       </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16148,6 +16438,9 @@
       <c r="AX97">
         <v>0</v>
       </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16308,6 +16601,9 @@
       <c r="AX98">
         <v>0</v>
       </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -16468,6 +16764,9 @@
       <c r="AX99">
         <v>0</v>
       </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -16628,6 +16927,9 @@
       <c r="AX100">
         <v>6</v>
       </c>
+      <c r="AY100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -16788,6 +17090,9 @@
       <c r="AX101">
         <v>13</v>
       </c>
+      <c r="AY101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -16948,6 +17253,9 @@
       <c r="AX102">
         <v>3</v>
       </c>
+      <c r="AY102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -17108,6 +17416,9 @@
       <c r="AX103">
         <v>5</v>
       </c>
+      <c r="AY103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -17268,6 +17579,9 @@
       <c r="AX104">
         <v>0</v>
       </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -17428,6 +17742,9 @@
       <c r="AX105">
         <v>0</v>
       </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -17588,6 +17905,9 @@
       <c r="AX106">
         <v>6</v>
       </c>
+      <c r="AY106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -17748,6 +18068,9 @@
       <c r="AX107">
         <v>0</v>
       </c>
+      <c r="AY107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -17908,6 +18231,9 @@
       <c r="AX108">
         <v>1</v>
       </c>
+      <c r="AY108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -18068,6 +18394,9 @@
       <c r="AX109">
         <v>0</v>
       </c>
+      <c r="AY109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -18228,6 +18557,9 @@
       <c r="AX110">
         <v>36</v>
       </c>
+      <c r="AY110">
+        <v>37</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -18388,6 +18720,9 @@
       <c r="AX111">
         <v>97</v>
       </c>
+      <c r="AY111">
+        <v>98</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -18548,6 +18883,9 @@
       <c r="AX112">
         <v>70</v>
       </c>
+      <c r="AY112">
+        <v>71</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -18708,6 +19046,9 @@
       <c r="AX113">
         <v>96</v>
       </c>
+      <c r="AY113">
+        <v>99</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -18868,6 +19209,9 @@
       <c r="AX114">
         <v>174</v>
       </c>
+      <c r="AY114">
+        <v>174</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -19028,6 +19372,9 @@
       <c r="AX115">
         <v>21</v>
       </c>
+      <c r="AY115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -19188,6 +19535,9 @@
       <c r="AX116">
         <v>10</v>
       </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -19348,6 +19698,9 @@
       <c r="AX117">
         <v>2</v>
       </c>
+      <c r="AY117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -19508,6 +19861,9 @@
       <c r="AX118">
         <v>2</v>
       </c>
+      <c r="AY118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -19668,6 +20024,9 @@
       <c r="AX119">
         <v>3</v>
       </c>
+      <c r="AY119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -19828,6 +20187,9 @@
       <c r="AX120">
         <v>50</v>
       </c>
+      <c r="AY120">
+        <v>50</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -19988,6 +20350,9 @@
       <c r="AX121">
         <v>2</v>
       </c>
+      <c r="AY121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -20148,6 +20513,9 @@
       <c r="AX122">
         <v>1</v>
       </c>
+      <c r="AY122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -20308,6 +20676,9 @@
       <c r="AX123">
         <v>2</v>
       </c>
+      <c r="AY123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -20468,6 +20839,9 @@
       <c r="AX124">
         <v>7</v>
       </c>
+      <c r="AY124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -20628,6 +21002,9 @@
       <c r="AX125">
         <v>23</v>
       </c>
+      <c r="AY125">
+        <v>23</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -20788,6 +21165,9 @@
       <c r="AX126">
         <v>102</v>
       </c>
+      <c r="AY126">
+        <v>102</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -20948,6 +21328,9 @@
       <c r="AX127">
         <v>20</v>
       </c>
+      <c r="AY127">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -21108,6 +21491,9 @@
       <c r="AX128">
         <v>29</v>
       </c>
+      <c r="AY128">
+        <v>29</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -21268,6 +21654,9 @@
       <c r="AX129">
         <v>49</v>
       </c>
+      <c r="AY129">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -21428,6 +21817,9 @@
       <c r="AX130">
         <v>411</v>
       </c>
+      <c r="AY130">
+        <v>412</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -21588,6 +21980,9 @@
       <c r="AX131">
         <v>183</v>
       </c>
+      <c r="AY131">
+        <v>184</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -21748,6 +22143,9 @@
       <c r="AX132">
         <v>10</v>
       </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -21908,6 +22306,9 @@
       <c r="AX133">
         <v>26</v>
       </c>
+      <c r="AY133">
+        <v>27</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -22068,6 +22469,9 @@
       <c r="AX134">
         <v>49</v>
       </c>
+      <c r="AY134">
+        <v>49</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -22228,6 +22632,9 @@
       <c r="AX135">
         <v>93</v>
       </c>
+      <c r="AY135">
+        <v>93</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -22388,6 +22795,9 @@
       <c r="AX136">
         <v>160</v>
       </c>
+      <c r="AY136">
+        <v>160</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -22548,6 +22958,9 @@
       <c r="AX137">
         <v>45</v>
       </c>
+      <c r="AY137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -22708,6 +23121,9 @@
       <c r="AX138">
         <v>8</v>
       </c>
+      <c r="AY138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -22868,6 +23284,9 @@
       <c r="AX139">
         <v>58</v>
       </c>
+      <c r="AY139">
+        <v>59</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -23028,6 +23447,9 @@
       <c r="AX140">
         <v>14</v>
       </c>
+      <c r="AY140">
+        <v>15</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -23188,6 +23610,9 @@
       <c r="AX141">
         <v>41</v>
       </c>
+      <c r="AY141">
+        <v>41</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -23348,6 +23773,9 @@
       <c r="AX142">
         <v>17</v>
       </c>
+      <c r="AY142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -23508,6 +23936,9 @@
       <c r="AX143">
         <v>2</v>
       </c>
+      <c r="AY143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -23668,6 +24099,9 @@
       <c r="AX144">
         <v>10</v>
       </c>
+      <c r="AY144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -23828,6 +24262,9 @@
       <c r="AX145">
         <v>1</v>
       </c>
+      <c r="AY145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -23988,6 +24425,9 @@
       <c r="AX146">
         <v>7</v>
       </c>
+      <c r="AY146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -24148,6 +24588,9 @@
       <c r="AX147">
         <v>11</v>
       </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -24308,6 +24751,9 @@
       <c r="AX148">
         <v>8</v>
       </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -24468,6 +24914,9 @@
       <c r="AX149">
         <v>13</v>
       </c>
+      <c r="AY149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -24628,6 +25077,9 @@
       <c r="AX150">
         <v>44</v>
       </c>
+      <c r="AY150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -24788,6 +25240,9 @@
       <c r="AX151">
         <v>0</v>
       </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -24948,6 +25403,9 @@
       <c r="AX152">
         <v>0</v>
       </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -25108,6 +25566,9 @@
       <c r="AX153">
         <v>10</v>
       </c>
+      <c r="AY153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -25268,6 +25729,9 @@
       <c r="AX154">
         <v>9</v>
       </c>
+      <c r="AY154">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -25428,6 +25892,9 @@
       <c r="AX155">
         <v>42</v>
       </c>
+      <c r="AY155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -25588,6 +26055,9 @@
       <c r="AX156">
         <v>4</v>
       </c>
+      <c r="AY156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -25748,6 +26218,9 @@
       <c r="AX157">
         <v>1</v>
       </c>
+      <c r="AY157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -25908,6 +26381,9 @@
       <c r="AX158">
         <v>3</v>
       </c>
+      <c r="AY158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -26068,6 +26544,9 @@
       <c r="AX159">
         <v>6</v>
       </c>
+      <c r="AY159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -26228,6 +26707,9 @@
       <c r="AX160">
         <v>12</v>
       </c>
+      <c r="AY160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -26388,6 +26870,9 @@
       <c r="AX161">
         <v>2</v>
       </c>
+      <c r="AY161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -26548,6 +27033,9 @@
       <c r="AX162">
         <v>82</v>
       </c>
+      <c r="AY162">
+        <v>83</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -26708,6 +27196,9 @@
       <c r="AX163">
         <v>39</v>
       </c>
+      <c r="AY163">
+        <v>39</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -26868,6 +27359,9 @@
       <c r="AX164">
         <v>24</v>
       </c>
+      <c r="AY164">
+        <v>24</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -27028,6 +27522,9 @@
       <c r="AX165">
         <v>63</v>
       </c>
+      <c r="AY165">
+        <v>63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -27188,6 +27685,9 @@
       <c r="AX166">
         <v>13</v>
       </c>
+      <c r="AY166">
+        <v>13</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -27348,6 +27848,9 @@
       <c r="AX167">
         <v>36</v>
       </c>
+      <c r="AY167">
+        <v>36</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -27508,6 +28011,9 @@
       <c r="AX168">
         <v>0</v>
       </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -27668,6 +28174,9 @@
       <c r="AX169">
         <v>21</v>
       </c>
+      <c r="AY169">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -27828,6 +28337,9 @@
       <c r="AX170">
         <v>4</v>
       </c>
+      <c r="AY170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -27988,6 +28500,9 @@
       <c r="AX171">
         <v>5</v>
       </c>
+      <c r="AY171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -28148,6 +28663,9 @@
       <c r="AX172">
         <v>3</v>
       </c>
+      <c r="AY172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -28308,6 +28826,9 @@
       <c r="AX173">
         <v>3</v>
       </c>
+      <c r="AY173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -28468,6 +28989,9 @@
       <c r="AX174">
         <v>16</v>
       </c>
+      <c r="AY174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -28628,6 +29152,9 @@
       <c r="AX175">
         <v>7</v>
       </c>
+      <c r="AY175">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -28788,6 +29315,9 @@
       <c r="AX176">
         <v>4</v>
       </c>
+      <c r="AY176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -28948,6 +29478,9 @@
       <c r="AX177">
         <v>0</v>
       </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -29108,6 +29641,9 @@
       <c r="AX178">
         <v>0</v>
       </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -29268,6 +29804,9 @@
       <c r="AX179">
         <v>2</v>
       </c>
+      <c r="AY179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -29428,6 +29967,9 @@
       <c r="AX180">
         <v>0</v>
       </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -29588,6 +30130,9 @@
       <c r="AX181">
         <v>0</v>
       </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -29748,6 +30293,9 @@
       <c r="AX182">
         <v>1</v>
       </c>
+      <c r="AY182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -29908,6 +30456,9 @@
       <c r="AX183">
         <v>0</v>
       </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -30068,6 +30619,9 @@
       <c r="AX184">
         <v>1</v>
       </c>
+      <c r="AY184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -30228,6 +30782,9 @@
       <c r="AX185">
         <v>5</v>
       </c>
+      <c r="AY185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -30388,6 +30945,9 @@
       <c r="AX186">
         <v>2</v>
       </c>
+      <c r="AY186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -30548,6 +31108,9 @@
       <c r="AX187">
         <v>2</v>
       </c>
+      <c r="AY187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -30708,6 +31271,9 @@
       <c r="AX188">
         <v>3</v>
       </c>
+      <c r="AY188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -30868,6 +31434,9 @@
       <c r="AX189">
         <v>2</v>
       </c>
+      <c r="AY189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -31028,6 +31597,9 @@
       <c r="AX190">
         <v>13</v>
       </c>
+      <c r="AY190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -31188,6 +31760,9 @@
       <c r="AX191">
         <v>36</v>
       </c>
+      <c r="AY191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -31348,6 +31923,9 @@
       <c r="AX192">
         <v>1</v>
       </c>
+      <c r="AY192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -31508,6 +32086,9 @@
       <c r="AX193">
         <v>8</v>
       </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -31668,6 +32249,9 @@
       <c r="AX194">
         <v>2</v>
       </c>
+      <c r="AY194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -31828,6 +32412,9 @@
       <c r="AX195">
         <v>6</v>
       </c>
+      <c r="AY195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -31988,6 +32575,9 @@
       <c r="AX196">
         <v>4</v>
       </c>
+      <c r="AY196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -32148,6 +32738,9 @@
       <c r="AX197">
         <v>12</v>
       </c>
+      <c r="AY197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -32308,6 +32901,9 @@
       <c r="AX198">
         <v>11</v>
       </c>
+      <c r="AY198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -32468,6 +33064,9 @@
       <c r="AX199">
         <v>2</v>
       </c>
+      <c r="AY199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -32628,6 +33227,9 @@
       <c r="AX200">
         <v>1</v>
       </c>
+      <c r="AY200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -32788,6 +33390,9 @@
       <c r="AX201">
         <v>0</v>
       </c>
+      <c r="AY201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -32948,6 +33553,9 @@
       <c r="AX202">
         <v>1</v>
       </c>
+      <c r="AY202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -33108,6 +33716,9 @@
       <c r="AX203">
         <v>9</v>
       </c>
+      <c r="AY203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -33268,6 +33879,9 @@
       <c r="AX204">
         <v>0</v>
       </c>
+      <c r="AY204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -33428,6 +34042,9 @@
       <c r="AX205">
         <v>0</v>
       </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -33588,6 +34205,9 @@
       <c r="AX206">
         <v>0</v>
       </c>
+      <c r="AY206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -33748,6 +34368,9 @@
       <c r="AX207">
         <v>25</v>
       </c>
+      <c r="AY207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -33908,6 +34531,9 @@
       <c r="AX208">
         <v>21</v>
       </c>
+      <c r="AY208">
+        <v>21</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -34068,6 +34694,9 @@
       <c r="AX209">
         <v>57</v>
       </c>
+      <c r="AY209">
+        <v>57</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -34228,6 +34857,9 @@
       <c r="AX210">
         <v>38</v>
       </c>
+      <c r="AY210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -34388,6 +35020,9 @@
       <c r="AX211">
         <v>36</v>
       </c>
+      <c r="AY211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -34548,6 +35183,9 @@
       <c r="AX212">
         <v>10</v>
       </c>
+      <c r="AY212">
+        <v>11</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -34708,6 +35346,9 @@
       <c r="AX213">
         <v>40</v>
       </c>
+      <c r="AY213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -34868,6 +35509,9 @@
       <c r="AX214">
         <v>4</v>
       </c>
+      <c r="AY214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -35028,6 +35672,9 @@
       <c r="AX215">
         <v>23</v>
       </c>
+      <c r="AY215">
+        <v>23</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -35188,6 +35835,9 @@
       <c r="AX216">
         <v>2</v>
       </c>
+      <c r="AY216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -35348,6 +35998,9 @@
       <c r="AX217">
         <v>5</v>
       </c>
+      <c r="AY217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -35508,6 +36161,9 @@
       <c r="AX218">
         <v>2</v>
       </c>
+      <c r="AY218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -35668,6 +36324,9 @@
       <c r="AX219">
         <v>1</v>
       </c>
+      <c r="AY219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -35828,6 +36487,9 @@
       <c r="AX220">
         <v>7</v>
       </c>
+      <c r="AY220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -35988,6 +36650,9 @@
       <c r="AX221">
         <v>0</v>
       </c>
+      <c r="AY221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -36148,6 +36813,9 @@
       <c r="AX222">
         <v>1</v>
       </c>
+      <c r="AY222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -36308,6 +36976,9 @@
       <c r="AX223">
         <v>1</v>
       </c>
+      <c r="AY223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -36468,6 +37139,9 @@
       <c r="AX224">
         <v>1</v>
       </c>
+      <c r="AY224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -36628,6 +37302,9 @@
       <c r="AX225">
         <v>0</v>
       </c>
+      <c r="AY225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -36788,6 +37465,9 @@
       <c r="AX226">
         <v>0</v>
       </c>
+      <c r="AY226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -36948,6 +37628,9 @@
       <c r="AX227">
         <v>0</v>
       </c>
+      <c r="AY227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -37108,6 +37791,9 @@
       <c r="AX228">
         <v>0</v>
       </c>
+      <c r="AY228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -37268,6 +37954,9 @@
       <c r="AX229">
         <v>2</v>
       </c>
+      <c r="AY229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -37428,6 +38117,9 @@
       <c r="AX230">
         <v>0</v>
       </c>
+      <c r="AY230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -37588,6 +38280,9 @@
       <c r="AX231">
         <v>3</v>
       </c>
+      <c r="AY231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -37748,6 +38443,9 @@
       <c r="AX232">
         <v>31</v>
       </c>
+      <c r="AY232">
+        <v>31</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -37908,6 +38606,9 @@
       <c r="AX233">
         <v>220</v>
       </c>
+      <c r="AY233">
+        <v>222</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -38068,6 +38769,9 @@
       <c r="AX234">
         <v>11</v>
       </c>
+      <c r="AY234">
+        <v>11</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -38228,6 +38932,9 @@
       <c r="AX235">
         <v>11</v>
       </c>
+      <c r="AY235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -38388,6 +39095,9 @@
       <c r="AX236">
         <v>0</v>
       </c>
+      <c r="AY236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -38548,6 +39258,9 @@
       <c r="AX237">
         <v>2</v>
       </c>
+      <c r="AY237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -38708,6 +39421,9 @@
       <c r="AX238">
         <v>0</v>
       </c>
+      <c r="AY238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -38868,6 +39584,9 @@
       <c r="AX239">
         <v>1</v>
       </c>
+      <c r="AY239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -39028,6 +39747,9 @@
       <c r="AX240">
         <v>2</v>
       </c>
+      <c r="AY240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -39188,6 +39910,9 @@
       <c r="AX241">
         <v>8</v>
       </c>
+      <c r="AY241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -39348,6 +40073,9 @@
       <c r="AX242">
         <v>3</v>
       </c>
+      <c r="AY242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -39508,6 +40236,9 @@
       <c r="AX243">
         <v>1</v>
       </c>
+      <c r="AY243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -39668,6 +40399,9 @@
       <c r="AX244">
         <v>2</v>
       </c>
+      <c r="AY244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -39828,6 +40562,9 @@
       <c r="AX245">
         <v>2</v>
       </c>
+      <c r="AY245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -39988,6 +40725,9 @@
       <c r="AX246">
         <v>2</v>
       </c>
+      <c r="AY246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -40148,6 +40888,9 @@
       <c r="AX247">
         <v>0</v>
       </c>
+      <c r="AY247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -40308,6 +41051,9 @@
       <c r="AX248">
         <v>3</v>
       </c>
+      <c r="AY248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -40468,6 +41214,9 @@
       <c r="AX249">
         <v>21</v>
       </c>
+      <c r="AY249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -40628,6 +41377,9 @@
       <c r="AX250">
         <v>0</v>
       </c>
+      <c r="AY250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -40788,6 +41540,9 @@
       <c r="AX251">
         <v>4</v>
       </c>
+      <c r="AY251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -40948,6 +41703,9 @@
       <c r="AX252">
         <v>1</v>
       </c>
+      <c r="AY252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -41108,6 +41866,9 @@
       <c r="AX253">
         <v>1</v>
       </c>
+      <c r="AY253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -41268,6 +42029,9 @@
       <c r="AX254">
         <v>1</v>
       </c>
+      <c r="AY254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -41438,6 +42202,9 @@
       <c r="AX255">
         <v>13</v>
       </c>
+      <c r="AY255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -41608,6 +42375,9 @@
       <c r="AX256">
         <v>84</v>
       </c>
+      <c r="AY256">
+        <v>84</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -41778,6 +42548,9 @@
       <c r="AX257">
         <v>57</v>
       </c>
+      <c r="AY257">
+        <v>57</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -41948,6 +42721,9 @@
       <c r="AX258">
         <v>71</v>
       </c>
+      <c r="AY258">
+        <v>71</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -42118,6 +42894,9 @@
       <c r="AX259">
         <v>71</v>
       </c>
+      <c r="AY259">
+        <v>71</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -42288,6 +43067,9 @@
       <c r="AX260">
         <v>40</v>
       </c>
+      <c r="AY260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -42458,6 +43240,9 @@
       <c r="AX261">
         <v>99</v>
       </c>
+      <c r="AY261">
+        <v>100</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -42628,6 +43413,9 @@
       <c r="AX262">
         <v>57</v>
       </c>
+      <c r="AY262">
+        <v>58</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -42798,6 +43586,9 @@
       <c r="AX263">
         <v>63</v>
       </c>
+      <c r="AY263">
+        <v>66</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -42958,6 +43749,9 @@
       <c r="AX264">
         <v>9</v>
       </c>
+      <c r="AY264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -43118,6 +43912,9 @@
       <c r="AX265">
         <v>4</v>
       </c>
+      <c r="AY265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -43278,6 +44075,9 @@
       <c r="AX266">
         <v>4</v>
       </c>
+      <c r="AY266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -43438,6 +44238,9 @@
       <c r="AX267">
         <v>4</v>
       </c>
+      <c r="AY267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -43598,6 +44401,9 @@
       <c r="AX268">
         <v>6</v>
       </c>
+      <c r="AY268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -43758,6 +44564,9 @@
       <c r="AX269">
         <v>8</v>
       </c>
+      <c r="AY269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -43918,6 +44727,9 @@
       <c r="AX270">
         <v>0</v>
       </c>
+      <c r="AY270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -44078,6 +44890,9 @@
       <c r="AX271">
         <v>4</v>
       </c>
+      <c r="AY271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -44238,6 +45053,9 @@
       <c r="AX272">
         <v>0</v>
       </c>
+      <c r="AY272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -44398,6 +45216,9 @@
       <c r="AX273">
         <v>0</v>
       </c>
+      <c r="AY273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -44558,6 +45379,9 @@
       <c r="AX274">
         <v>2</v>
       </c>
+      <c r="AY274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -44718,6 +45542,9 @@
       <c r="AX275">
         <v>24</v>
       </c>
+      <c r="AY275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -44878,6 +45705,9 @@
       <c r="AX276">
         <v>9</v>
       </c>
+      <c r="AY276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -45038,6 +45868,9 @@
       <c r="AX277">
         <v>0</v>
       </c>
+      <c r="AY277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -45198,6 +46031,9 @@
       <c r="AX278">
         <v>17</v>
       </c>
+      <c r="AY278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -45358,6 +46194,9 @@
       <c r="AX279">
         <v>5</v>
       </c>
+      <c r="AY279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -45518,6 +46357,9 @@
       <c r="AX280">
         <v>54</v>
       </c>
+      <c r="AY280">
+        <v>54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -45678,6 +46520,9 @@
       <c r="AX281">
         <v>41</v>
       </c>
+      <c r="AY281">
+        <v>41</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -45838,6 +46683,9 @@
       <c r="AX282">
         <v>1</v>
       </c>
+      <c r="AY282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -45998,6 +46846,9 @@
       <c r="AX283">
         <v>0</v>
       </c>
+      <c r="AY283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -46158,6 +47009,9 @@
       <c r="AX284">
         <v>40</v>
       </c>
+      <c r="AY284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -46318,6 +47172,9 @@
       <c r="AX285">
         <v>27</v>
       </c>
+      <c r="AY285">
+        <v>27</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -46478,6 +47335,9 @@
       <c r="AX286">
         <v>0</v>
       </c>
+      <c r="AY286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -46638,6 +47498,9 @@
       <c r="AX287">
         <v>0</v>
       </c>
+      <c r="AY287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -46798,6 +47661,9 @@
       <c r="AX288">
         <v>0</v>
       </c>
+      <c r="AY288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -46958,6 +47824,9 @@
       <c r="AX289">
         <v>1</v>
       </c>
+      <c r="AY289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -47118,6 +47987,9 @@
       <c r="AX290">
         <v>3</v>
       </c>
+      <c r="AY290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -47278,6 +48150,9 @@
       <c r="AX291">
         <v>0</v>
       </c>
+      <c r="AY291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -47438,6 +48313,9 @@
       <c r="AX292">
         <v>3</v>
       </c>
+      <c r="AY292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -47598,6 +48476,9 @@
       <c r="AX293">
         <v>0</v>
       </c>
+      <c r="AY293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -47758,6 +48639,9 @@
       <c r="AX294">
         <v>7</v>
       </c>
+      <c r="AY294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -47918,6 +48802,9 @@
       <c r="AX295">
         <v>0</v>
       </c>
+      <c r="AY295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -48078,6 +48965,9 @@
       <c r="AX296">
         <v>0</v>
       </c>
+      <c r="AY296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -48238,6 +49128,9 @@
       <c r="AX297">
         <v>1</v>
       </c>
+      <c r="AY297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -48398,6 +49291,9 @@
       <c r="AX298">
         <v>4</v>
       </c>
+      <c r="AY298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -48558,6 +49454,9 @@
       <c r="AX299">
         <v>0</v>
       </c>
+      <c r="AY299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -48718,6 +49617,9 @@
       <c r="AX300">
         <v>0</v>
       </c>
+      <c r="AY300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -48878,6 +49780,9 @@
       <c r="AX301">
         <v>17</v>
       </c>
+      <c r="AY301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -49038,6 +49943,9 @@
       <c r="AX302">
         <v>0</v>
       </c>
+      <c r="AY302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -49198,6 +50106,9 @@
       <c r="AX303">
         <v>0</v>
       </c>
+      <c r="AY303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -49358,6 +50269,9 @@
       <c r="AX304">
         <v>4</v>
       </c>
+      <c r="AY304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -49518,6 +50432,9 @@
       <c r="AX305">
         <v>12</v>
       </c>
+      <c r="AY305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -49678,6 +50595,9 @@
       <c r="AX306">
         <v>305</v>
       </c>
+      <c r="AY306">
+        <v>307</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -49838,6 +50758,9 @@
       <c r="AX307">
         <v>17</v>
       </c>
+      <c r="AY307">
+        <v>17</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -49998,6 +50921,9 @@
       <c r="AX308">
         <v>5</v>
       </c>
+      <c r="AY308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -50158,6 +51084,9 @@
       <c r="AX309">
         <v>0</v>
       </c>
+      <c r="AY309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -50318,6 +51247,9 @@
       <c r="AX310">
         <v>0</v>
       </c>
+      <c r="AY310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -50478,6 +51410,9 @@
       <c r="AX311">
         <v>8</v>
       </c>
+      <c r="AY311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -50638,6 +51573,9 @@
       <c r="AX312">
         <v>5</v>
       </c>
+      <c r="AY312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -50798,6 +51736,9 @@
       <c r="AX313">
         <v>0</v>
       </c>
+      <c r="AY313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -50958,6 +51899,9 @@
       <c r="AX314">
         <v>1</v>
       </c>
+      <c r="AY314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -51118,6 +52062,9 @@
       <c r="AX315">
         <v>7</v>
       </c>
+      <c r="AY315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -51278,6 +52225,9 @@
       <c r="AX316">
         <v>3</v>
       </c>
+      <c r="AY316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -51438,6 +52388,9 @@
       <c r="AX317">
         <v>5</v>
       </c>
+      <c r="AY317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -51598,6 +52551,9 @@
       <c r="AX318">
         <v>12</v>
       </c>
+      <c r="AY318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -51758,6 +52714,9 @@
       <c r="AX319">
         <v>6</v>
       </c>
+      <c r="AY319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -51918,6 +52877,9 @@
       <c r="AX320">
         <v>0</v>
       </c>
+      <c r="AY320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -52078,6 +53040,9 @@
       <c r="AX321">
         <v>1</v>
       </c>
+      <c r="AY321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -52238,6 +53203,9 @@
       <c r="AX322">
         <v>8</v>
       </c>
+      <c r="AY322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -52398,6 +53366,9 @@
       <c r="AX323">
         <v>28</v>
       </c>
+      <c r="AY323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -52558,6 +53529,9 @@
       <c r="AX324">
         <v>21</v>
       </c>
+      <c r="AY324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -52718,6 +53692,9 @@
       <c r="AX325">
         <v>15</v>
       </c>
+      <c r="AY325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -52878,6 +53855,9 @@
       <c r="AX326">
         <v>1</v>
       </c>
+      <c r="AY326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -53038,6 +54018,9 @@
       <c r="AX327">
         <v>0</v>
       </c>
+      <c r="AY327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -53198,6 +54181,9 @@
       <c r="AX328">
         <v>0</v>
       </c>
+      <c r="AY328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -53358,6 +54344,9 @@
       <c r="AX329">
         <v>0</v>
       </c>
+      <c r="AY329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -53518,6 +54507,9 @@
       <c r="AX330">
         <v>3</v>
       </c>
+      <c r="AY330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -53678,6 +54670,9 @@
       <c r="AX331">
         <v>1</v>
       </c>
+      <c r="AY331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -53838,6 +54833,9 @@
       <c r="AX332">
         <v>4</v>
       </c>
+      <c r="AY332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -53998,6 +54996,9 @@
       <c r="AX333">
         <v>0</v>
       </c>
+      <c r="AY333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -54158,6 +55159,9 @@
       <c r="AX334">
         <v>0</v>
       </c>
+      <c r="AY334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -54318,6 +55322,9 @@
       <c r="AX335">
         <v>7</v>
       </c>
+      <c r="AY335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -54478,6 +55485,9 @@
       <c r="AX336">
         <v>2</v>
       </c>
+      <c r="AY336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -54638,6 +55648,9 @@
       <c r="AX337">
         <v>2</v>
       </c>
+      <c r="AY337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -54798,6 +55811,9 @@
       <c r="AX338">
         <v>2</v>
       </c>
+      <c r="AY338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -54958,6 +55974,9 @@
       <c r="AX339">
         <v>10</v>
       </c>
+      <c r="AY339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -55118,6 +56137,9 @@
       <c r="AX340">
         <v>1</v>
       </c>
+      <c r="AY340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -55278,6 +56300,9 @@
       <c r="AX341">
         <v>17</v>
       </c>
+      <c r="AY341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -55438,6 +56463,9 @@
       <c r="AX342">
         <v>0</v>
       </c>
+      <c r="AY342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -55598,6 +56626,9 @@
       <c r="AX343">
         <v>0</v>
       </c>
+      <c r="AY343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -55758,6 +56789,9 @@
       <c r="AX344">
         <v>161</v>
       </c>
+      <c r="AY344">
+        <v>162</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -55918,6 +56952,9 @@
       <c r="AX345">
         <v>6</v>
       </c>
+      <c r="AY345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -56078,6 +57115,9 @@
       <c r="AX346">
         <v>5</v>
       </c>
+      <c r="AY346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -56238,6 +57278,9 @@
       <c r="AX347">
         <v>1</v>
       </c>
+      <c r="AY347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -56398,6 +57441,9 @@
       <c r="AX348">
         <v>3</v>
       </c>
+      <c r="AY348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -56558,6 +57604,9 @@
       <c r="AX349">
         <v>15</v>
       </c>
+      <c r="AY349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -56718,6 +57767,9 @@
       <c r="AX350">
         <v>1</v>
       </c>
+      <c r="AY350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -56878,6 +57930,9 @@
       <c r="AX351">
         <v>1</v>
       </c>
+      <c r="AY351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -57038,6 +58093,9 @@
       <c r="AX352">
         <v>0</v>
       </c>
+      <c r="AY352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -57198,6 +58256,9 @@
       <c r="AX353">
         <v>0</v>
       </c>
+      <c r="AY353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -57358,6 +58419,9 @@
       <c r="AX354">
         <v>3</v>
       </c>
+      <c r="AY354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -57518,6 +58582,9 @@
       <c r="AX355">
         <v>2</v>
       </c>
+      <c r="AY355">
+        <v>2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -57678,6 +58745,9 @@
       <c r="AX356">
         <v>2</v>
       </c>
+      <c r="AY356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -57838,6 +58908,9 @@
       <c r="AX357">
         <v>1</v>
       </c>
+      <c r="AY357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -57998,6 +59071,9 @@
       <c r="AX358">
         <v>0</v>
       </c>
+      <c r="AY358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -58158,6 +59234,9 @@
       <c r="AX359">
         <v>0</v>
       </c>
+      <c r="AY359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -58318,6 +59397,9 @@
       <c r="AX360">
         <v>16</v>
       </c>
+      <c r="AY360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -58478,6 +59560,9 @@
       <c r="AX361">
         <v>2</v>
       </c>
+      <c r="AY361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -58638,6 +59723,9 @@
       <c r="AX362">
         <v>2</v>
       </c>
+      <c r="AY362">
+        <v>2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -58798,6 +59886,9 @@
       <c r="AX363">
         <v>2</v>
       </c>
+      <c r="AY363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -58958,6 +60049,9 @@
       <c r="AX364">
         <v>0</v>
       </c>
+      <c r="AY364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -59118,6 +60212,9 @@
       <c r="AX365">
         <v>0</v>
       </c>
+      <c r="AY365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -59278,6 +60375,9 @@
       <c r="AX366">
         <v>1</v>
       </c>
+      <c r="AY366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -59438,6 +60538,9 @@
       <c r="AX367">
         <v>2</v>
       </c>
+      <c r="AY367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -59598,6 +60701,9 @@
       <c r="AX368">
         <v>0</v>
       </c>
+      <c r="AY368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -59758,6 +60864,9 @@
       <c r="AX369">
         <v>1</v>
       </c>
+      <c r="AY369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -59918,6 +61027,9 @@
       <c r="AX370">
         <v>0</v>
       </c>
+      <c r="AY370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -60078,6 +61190,9 @@
       <c r="AX371">
         <v>0</v>
       </c>
+      <c r="AY371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -60238,6 +61353,9 @@
       <c r="AX372">
         <v>3</v>
       </c>
+      <c r="AY372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -60398,6 +61516,9 @@
       <c r="AX373">
         <v>2</v>
       </c>
+      <c r="AY373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -60558,6 +61679,9 @@
       <c r="AX374">
         <v>4</v>
       </c>
+      <c r="AY374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -60718,6 +61842,9 @@
       <c r="AX375">
         <v>1</v>
       </c>
+      <c r="AY375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -60878,6 +62005,9 @@
       <c r="AX376">
         <v>0</v>
       </c>
+      <c r="AY376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -61038,6 +62168,9 @@
       <c r="AX377">
         <v>0</v>
       </c>
+      <c r="AY377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -61198,6 +62331,9 @@
       <c r="AX378">
         <v>0</v>
       </c>
+      <c r="AY378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -61358,6 +62494,9 @@
       <c r="AX379">
         <v>1</v>
       </c>
+      <c r="AY379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -61518,6 +62657,9 @@
       <c r="AX380">
         <v>1</v>
       </c>
+      <c r="AY380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -61678,6 +62820,9 @@
       <c r="AX381">
         <v>0</v>
       </c>
+      <c r="AY381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -61838,6 +62983,9 @@
       <c r="AX382">
         <v>4</v>
       </c>
+      <c r="AY382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -61998,6 +63146,9 @@
       <c r="AX383">
         <v>0</v>
       </c>
+      <c r="AY383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -62157,6 +63308,9 @@
       </c>
       <c r="AX384">
         <v>2</v>
+      </c>
+      <c r="AY384">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY384"/>
+  <dimension ref="A1:AZ384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,6 +613,11 @@
           <t>2020-05-05</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -786,6 +791,9 @@
       <c r="AY2">
         <v>248</v>
       </c>
+      <c r="AZ2">
+        <v>248</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -959,6 +967,9 @@
       <c r="AY3">
         <v>174</v>
       </c>
+      <c r="AZ3">
+        <v>176</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1132,6 +1143,9 @@
       <c r="AY4">
         <v>143</v>
       </c>
+      <c r="AZ4">
+        <v>143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1305,6 +1319,9 @@
       <c r="AY5">
         <v>100</v>
       </c>
+      <c r="AZ5">
+        <v>101</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1478,6 +1495,9 @@
       <c r="AY6">
         <v>174</v>
       </c>
+      <c r="AZ6">
+        <v>175</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1651,6 +1671,9 @@
       <c r="AY7">
         <v>111</v>
       </c>
+      <c r="AZ7">
+        <v>115</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1824,6 +1847,9 @@
       <c r="AY8">
         <v>150</v>
       </c>
+      <c r="AZ8">
+        <v>151</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1997,6 +2023,9 @@
       <c r="AY9">
         <v>133</v>
       </c>
+      <c r="AZ9">
+        <v>134</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2170,6 +2199,9 @@
       <c r="AY10">
         <v>109</v>
       </c>
+      <c r="AZ10">
+        <v>111</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2343,6 +2375,9 @@
       <c r="AY11">
         <v>117</v>
       </c>
+      <c r="AZ11">
+        <v>120</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2516,6 +2551,9 @@
       <c r="AY12">
         <v>196</v>
       </c>
+      <c r="AZ12">
+        <v>197</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2689,6 +2727,9 @@
       <c r="AY13">
         <v>241</v>
       </c>
+      <c r="AZ13">
+        <v>243</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2862,6 +2903,9 @@
       <c r="AY14">
         <v>183</v>
       </c>
+      <c r="AZ14">
+        <v>184</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3035,6 +3079,9 @@
       <c r="AY15">
         <v>164</v>
       </c>
+      <c r="AZ15">
+        <v>166</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3208,6 +3255,9 @@
       <c r="AY16">
         <v>137</v>
       </c>
+      <c r="AZ16">
+        <v>137</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3381,6 +3431,9 @@
       <c r="AY17">
         <v>5</v>
       </c>
+      <c r="AZ17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3554,6 +3607,9 @@
       <c r="AY18">
         <v>2</v>
       </c>
+      <c r="AZ18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3727,6 +3783,9 @@
       <c r="AY19">
         <v>58</v>
       </c>
+      <c r="AZ19">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3890,6 +3949,9 @@
       <c r="AY20">
         <v>14</v>
       </c>
+      <c r="AZ20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4053,6 +4115,9 @@
       <c r="AY21">
         <v>133</v>
       </c>
+      <c r="AZ21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4216,6 +4281,9 @@
       <c r="AY22">
         <v>51</v>
       </c>
+      <c r="AZ22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4379,6 +4447,9 @@
       <c r="AY23">
         <v>47</v>
       </c>
+      <c r="AZ23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4542,6 +4613,9 @@
       <c r="AY24">
         <v>5</v>
       </c>
+      <c r="AZ24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4705,6 +4779,9 @@
       <c r="AY25">
         <v>1</v>
       </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4868,6 +4945,9 @@
       <c r="AY26">
         <v>0</v>
       </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5031,6 +5111,9 @@
       <c r="AY27">
         <v>7</v>
       </c>
+      <c r="AZ27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5194,6 +5277,9 @@
       <c r="AY28">
         <v>6</v>
       </c>
+      <c r="AZ28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5357,6 +5443,9 @@
       <c r="AY29">
         <v>12</v>
       </c>
+      <c r="AZ29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5520,6 +5609,9 @@
       <c r="AY30">
         <v>13</v>
       </c>
+      <c r="AZ30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5683,6 +5775,9 @@
       <c r="AY31">
         <v>16</v>
       </c>
+      <c r="AZ31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5846,6 +5941,9 @@
       <c r="AY32">
         <v>11</v>
       </c>
+      <c r="AZ32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6009,6 +6107,9 @@
       <c r="AY33">
         <v>13</v>
       </c>
+      <c r="AZ33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6172,6 +6273,9 @@
       <c r="AY34">
         <v>0</v>
       </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6335,6 +6439,9 @@
       <c r="AY35">
         <v>0</v>
       </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6498,6 +6605,9 @@
       <c r="AY36">
         <v>3</v>
       </c>
+      <c r="AZ36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6661,6 +6771,9 @@
       <c r="AY37">
         <v>0</v>
       </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6824,6 +6937,9 @@
       <c r="AY38">
         <v>1</v>
       </c>
+      <c r="AZ38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6987,6 +7103,9 @@
       <c r="AY39">
         <v>20</v>
       </c>
+      <c r="AZ39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7150,6 +7269,9 @@
       <c r="AY40">
         <v>71</v>
       </c>
+      <c r="AZ40">
+        <v>71</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7313,6 +7435,9 @@
       <c r="AY41">
         <v>0</v>
       </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7476,6 +7601,9 @@
       <c r="AY42">
         <v>11</v>
       </c>
+      <c r="AZ42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7639,6 +7767,9 @@
       <c r="AY43">
         <v>18</v>
       </c>
+      <c r="AZ43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7802,6 +7933,9 @@
       <c r="AY44">
         <v>13</v>
       </c>
+      <c r="AZ44">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7965,6 +8099,9 @@
       <c r="AY45">
         <v>27</v>
       </c>
+      <c r="AZ45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8128,6 +8265,9 @@
       <c r="AY46">
         <v>1</v>
       </c>
+      <c r="AZ46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8291,6 +8431,9 @@
       <c r="AY47">
         <v>5</v>
       </c>
+      <c r="AZ47">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8454,6 +8597,9 @@
       <c r="AY48">
         <v>3</v>
       </c>
+      <c r="AZ48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8617,6 +8763,9 @@
       <c r="AY49">
         <v>8</v>
       </c>
+      <c r="AZ49">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8780,6 +8929,9 @@
       <c r="AY50">
         <v>2</v>
       </c>
+      <c r="AZ50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8943,6 +9095,9 @@
       <c r="AY51">
         <v>6</v>
       </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9106,6 +9261,9 @@
       <c r="AY52">
         <v>0</v>
       </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9269,6 +9427,9 @@
       <c r="AY53">
         <v>1</v>
       </c>
+      <c r="AZ53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9432,6 +9593,9 @@
       <c r="AY54">
         <v>6</v>
       </c>
+      <c r="AZ54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9595,6 +9759,9 @@
       <c r="AY55">
         <v>5</v>
       </c>
+      <c r="AZ55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9758,6 +9925,9 @@
       <c r="AY56">
         <v>1</v>
       </c>
+      <c r="AZ56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9921,6 +10091,9 @@
       <c r="AY57">
         <v>10</v>
       </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10084,6 +10257,9 @@
       <c r="AY58">
         <v>0</v>
       </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10247,6 +10423,9 @@
       <c r="AY59">
         <v>0</v>
       </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10410,6 +10589,9 @@
       <c r="AY60">
         <v>1</v>
       </c>
+      <c r="AZ60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10573,6 +10755,9 @@
       <c r="AY61">
         <v>1</v>
       </c>
+      <c r="AZ61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10736,6 +10921,9 @@
       <c r="AY62">
         <v>2</v>
       </c>
+      <c r="AZ62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10899,6 +11087,9 @@
       <c r="AY63">
         <v>2</v>
       </c>
+      <c r="AZ63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11062,6 +11253,9 @@
       <c r="AY64">
         <v>0</v>
       </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11225,6 +11419,9 @@
       <c r="AY65">
         <v>3</v>
       </c>
+      <c r="AZ65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11388,6 +11585,9 @@
       <c r="AY66">
         <v>4</v>
       </c>
+      <c r="AZ66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11551,6 +11751,9 @@
       <c r="AY67">
         <v>1</v>
       </c>
+      <c r="AZ67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11714,6 +11917,9 @@
       <c r="AY68">
         <v>3</v>
       </c>
+      <c r="AZ68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11877,6 +12083,9 @@
       <c r="AY69">
         <v>39</v>
       </c>
+      <c r="AZ69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12040,6 +12249,9 @@
       <c r="AY70">
         <v>6</v>
       </c>
+      <c r="AZ70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12203,6 +12415,9 @@
       <c r="AY71">
         <v>0</v>
       </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12366,6 +12581,9 @@
       <c r="AY72">
         <v>2</v>
       </c>
+      <c r="AZ72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12529,6 +12747,9 @@
       <c r="AY73">
         <v>5</v>
       </c>
+      <c r="AZ73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12692,6 +12913,9 @@
       <c r="AY74">
         <v>3</v>
       </c>
+      <c r="AZ74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12855,6 +13079,9 @@
       <c r="AY75">
         <v>0</v>
       </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13018,6 +13245,9 @@
       <c r="AY76">
         <v>0</v>
       </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13181,6 +13411,9 @@
       <c r="AY77">
         <v>2</v>
       </c>
+      <c r="AZ77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13344,6 +13577,9 @@
       <c r="AY78">
         <v>4</v>
       </c>
+      <c r="AZ78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13507,6 +13743,9 @@
       <c r="AY79">
         <v>1</v>
       </c>
+      <c r="AZ79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13670,6 +13909,9 @@
       <c r="AY80">
         <v>1</v>
       </c>
+      <c r="AZ80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13833,6 +14075,9 @@
       <c r="AY81">
         <v>0</v>
       </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13996,6 +14241,9 @@
       <c r="AY82">
         <v>5</v>
       </c>
+      <c r="AZ82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14159,6 +14407,9 @@
       <c r="AY83">
         <v>0</v>
       </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14322,6 +14573,9 @@
       <c r="AY84">
         <v>0</v>
       </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14485,6 +14739,9 @@
       <c r="AY85">
         <v>4</v>
       </c>
+      <c r="AZ85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14648,6 +14905,9 @@
       <c r="AY86">
         <v>0</v>
       </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14811,6 +15071,9 @@
       <c r="AY87">
         <v>0</v>
       </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -14974,6 +15237,9 @@
       <c r="AY88">
         <v>0</v>
       </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15137,6 +15403,9 @@
       <c r="AY89">
         <v>6</v>
       </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15300,6 +15569,9 @@
       <c r="AY90">
         <v>0</v>
       </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15463,6 +15735,9 @@
       <c r="AY91">
         <v>0</v>
       </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15626,6 +15901,9 @@
       <c r="AY92">
         <v>0</v>
       </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15789,6 +16067,9 @@
       <c r="AY93">
         <v>2</v>
       </c>
+      <c r="AZ93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15952,6 +16233,9 @@
       <c r="AY94">
         <v>0</v>
       </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -16115,6 +16399,9 @@
       <c r="AY95">
         <v>1</v>
       </c>
+      <c r="AZ95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -16278,6 +16565,9 @@
       <c r="AY96">
         <v>0</v>
       </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16441,6 +16731,9 @@
       <c r="AY97">
         <v>0</v>
       </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16604,6 +16897,9 @@
       <c r="AY98">
         <v>0</v>
       </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -16767,6 +17063,9 @@
       <c r="AY99">
         <v>0</v>
       </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -16930,6 +17229,9 @@
       <c r="AY100">
         <v>6</v>
       </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -17093,6 +17395,9 @@
       <c r="AY101">
         <v>13</v>
       </c>
+      <c r="AZ101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -17256,6 +17561,9 @@
       <c r="AY102">
         <v>3</v>
       </c>
+      <c r="AZ102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -17419,6 +17727,9 @@
       <c r="AY103">
         <v>5</v>
       </c>
+      <c r="AZ103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -17582,6 +17893,9 @@
       <c r="AY104">
         <v>0</v>
       </c>
+      <c r="AZ104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -17745,6 +18059,9 @@
       <c r="AY105">
         <v>0</v>
       </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -17908,6 +18225,9 @@
       <c r="AY106">
         <v>6</v>
       </c>
+      <c r="AZ106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -18071,6 +18391,9 @@
       <c r="AY107">
         <v>0</v>
       </c>
+      <c r="AZ107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -18234,6 +18557,9 @@
       <c r="AY108">
         <v>1</v>
       </c>
+      <c r="AZ108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -18397,6 +18723,9 @@
       <c r="AY109">
         <v>0</v>
       </c>
+      <c r="AZ109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -18560,6 +18889,9 @@
       <c r="AY110">
         <v>37</v>
       </c>
+      <c r="AZ110">
+        <v>38</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -18723,6 +19055,9 @@
       <c r="AY111">
         <v>98</v>
       </c>
+      <c r="AZ111">
+        <v>98</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -18886,6 +19221,9 @@
       <c r="AY112">
         <v>71</v>
       </c>
+      <c r="AZ112">
+        <v>72</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -19049,6 +19387,9 @@
       <c r="AY113">
         <v>99</v>
       </c>
+      <c r="AZ113">
+        <v>99</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -19212,6 +19553,9 @@
       <c r="AY114">
         <v>174</v>
       </c>
+      <c r="AZ114">
+        <v>175</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -19375,6 +19719,9 @@
       <c r="AY115">
         <v>21</v>
       </c>
+      <c r="AZ115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -19538,6 +19885,9 @@
       <c r="AY116">
         <v>10</v>
       </c>
+      <c r="AZ116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -19701,6 +20051,9 @@
       <c r="AY117">
         <v>2</v>
       </c>
+      <c r="AZ117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -19864,6 +20217,9 @@
       <c r="AY118">
         <v>2</v>
       </c>
+      <c r="AZ118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -20027,6 +20383,9 @@
       <c r="AY119">
         <v>3</v>
       </c>
+      <c r="AZ119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -20190,6 +20549,9 @@
       <c r="AY120">
         <v>50</v>
       </c>
+      <c r="AZ120">
+        <v>51</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -20353,6 +20715,9 @@
       <c r="AY121">
         <v>2</v>
       </c>
+      <c r="AZ121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -20516,6 +20881,9 @@
       <c r="AY122">
         <v>1</v>
       </c>
+      <c r="AZ122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -20679,6 +21047,9 @@
       <c r="AY123">
         <v>2</v>
       </c>
+      <c r="AZ123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -20842,6 +21213,9 @@
       <c r="AY124">
         <v>7</v>
       </c>
+      <c r="AZ124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -21005,6 +21379,9 @@
       <c r="AY125">
         <v>23</v>
       </c>
+      <c r="AZ125">
+        <v>24</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -21168,6 +21545,9 @@
       <c r="AY126">
         <v>102</v>
       </c>
+      <c r="AZ126">
+        <v>102</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -21331,6 +21711,9 @@
       <c r="AY127">
         <v>20</v>
       </c>
+      <c r="AZ127">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -21494,6 +21877,9 @@
       <c r="AY128">
         <v>29</v>
       </c>
+      <c r="AZ128">
+        <v>29</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -21657,6 +22043,9 @@
       <c r="AY129">
         <v>49</v>
       </c>
+      <c r="AZ129">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -21820,6 +22209,9 @@
       <c r="AY130">
         <v>412</v>
       </c>
+      <c r="AZ130">
+        <v>413</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -21983,6 +22375,9 @@
       <c r="AY131">
         <v>184</v>
       </c>
+      <c r="AZ131">
+        <v>186</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -22146,6 +22541,9 @@
       <c r="AY132">
         <v>10</v>
       </c>
+      <c r="AZ132">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -22309,6 +22707,9 @@
       <c r="AY133">
         <v>27</v>
       </c>
+      <c r="AZ133">
+        <v>29</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -22472,6 +22873,9 @@
       <c r="AY134">
         <v>49</v>
       </c>
+      <c r="AZ134">
+        <v>50</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -22635,6 +23039,9 @@
       <c r="AY135">
         <v>93</v>
       </c>
+      <c r="AZ135">
+        <v>94</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -22798,6 +23205,9 @@
       <c r="AY136">
         <v>160</v>
       </c>
+      <c r="AZ136">
+        <v>160</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -22961,6 +23371,9 @@
       <c r="AY137">
         <v>45</v>
       </c>
+      <c r="AZ137">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -23124,6 +23537,9 @@
       <c r="AY138">
         <v>8</v>
       </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -23287,6 +23703,9 @@
       <c r="AY139">
         <v>59</v>
       </c>
+      <c r="AZ139">
+        <v>59</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -23450,6 +23869,9 @@
       <c r="AY140">
         <v>15</v>
       </c>
+      <c r="AZ140">
+        <v>15</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -23613,6 +24035,9 @@
       <c r="AY141">
         <v>41</v>
       </c>
+      <c r="AZ141">
+        <v>41</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -23776,6 +24201,9 @@
       <c r="AY142">
         <v>17</v>
       </c>
+      <c r="AZ142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -23939,6 +24367,9 @@
       <c r="AY143">
         <v>2</v>
       </c>
+      <c r="AZ143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -24102,6 +24533,9 @@
       <c r="AY144">
         <v>10</v>
       </c>
+      <c r="AZ144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -24265,6 +24699,9 @@
       <c r="AY145">
         <v>1</v>
       </c>
+      <c r="AZ145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -24428,6 +24865,9 @@
       <c r="AY146">
         <v>7</v>
       </c>
+      <c r="AZ146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -24591,6 +25031,9 @@
       <c r="AY147">
         <v>11</v>
       </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -24754,6 +25197,9 @@
       <c r="AY148">
         <v>8</v>
       </c>
+      <c r="AZ148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -24917,6 +25363,9 @@
       <c r="AY149">
         <v>13</v>
       </c>
+      <c r="AZ149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -25080,6 +25529,9 @@
       <c r="AY150">
         <v>44</v>
       </c>
+      <c r="AZ150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -25243,6 +25695,9 @@
       <c r="AY151">
         <v>0</v>
       </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -25406,6 +25861,9 @@
       <c r="AY152">
         <v>0</v>
       </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -25569,6 +26027,9 @@
       <c r="AY153">
         <v>10</v>
       </c>
+      <c r="AZ153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -25732,6 +26193,9 @@
       <c r="AY154">
         <v>9</v>
       </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -25895,6 +26359,9 @@
       <c r="AY155">
         <v>42</v>
       </c>
+      <c r="AZ155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -26058,6 +26525,9 @@
       <c r="AY156">
         <v>4</v>
       </c>
+      <c r="AZ156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -26221,6 +26691,9 @@
       <c r="AY157">
         <v>1</v>
       </c>
+      <c r="AZ157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -26384,6 +26857,9 @@
       <c r="AY158">
         <v>3</v>
       </c>
+      <c r="AZ158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -26547,6 +27023,9 @@
       <c r="AY159">
         <v>6</v>
       </c>
+      <c r="AZ159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -26710,6 +27189,9 @@
       <c r="AY160">
         <v>11</v>
       </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -26873,6 +27355,9 @@
       <c r="AY161">
         <v>2</v>
       </c>
+      <c r="AZ161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -27036,6 +27521,9 @@
       <c r="AY162">
         <v>83</v>
       </c>
+      <c r="AZ162">
+        <v>84</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -27199,6 +27687,9 @@
       <c r="AY163">
         <v>39</v>
       </c>
+      <c r="AZ163">
+        <v>39</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -27362,6 +27853,9 @@
       <c r="AY164">
         <v>24</v>
       </c>
+      <c r="AZ164">
+        <v>25</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -27525,6 +28019,9 @@
       <c r="AY165">
         <v>63</v>
       </c>
+      <c r="AZ165">
+        <v>63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -27688,6 +28185,9 @@
       <c r="AY166">
         <v>13</v>
       </c>
+      <c r="AZ166">
+        <v>13</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -27851,6 +28351,9 @@
       <c r="AY167">
         <v>36</v>
       </c>
+      <c r="AZ167">
+        <v>36</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -28014,6 +28517,9 @@
       <c r="AY168">
         <v>0</v>
       </c>
+      <c r="AZ168">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -28177,6 +28683,9 @@
       <c r="AY169">
         <v>21</v>
       </c>
+      <c r="AZ169">
+        <v>24</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -28340,6 +28849,9 @@
       <c r="AY170">
         <v>4</v>
       </c>
+      <c r="AZ170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -28503,6 +29015,9 @@
       <c r="AY171">
         <v>5</v>
       </c>
+      <c r="AZ171">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -28666,6 +29181,9 @@
       <c r="AY172">
         <v>3</v>
       </c>
+      <c r="AZ172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -28829,6 +29347,9 @@
       <c r="AY173">
         <v>3</v>
       </c>
+      <c r="AZ173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -28992,6 +29513,9 @@
       <c r="AY174">
         <v>16</v>
       </c>
+      <c r="AZ174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -29155,6 +29679,9 @@
       <c r="AY175">
         <v>7</v>
       </c>
+      <c r="AZ175">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -29318,6 +29845,9 @@
       <c r="AY176">
         <v>4</v>
       </c>
+      <c r="AZ176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -29481,6 +30011,9 @@
       <c r="AY177">
         <v>0</v>
       </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -29644,6 +30177,9 @@
       <c r="AY178">
         <v>0</v>
       </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -29807,6 +30343,9 @@
       <c r="AY179">
         <v>2</v>
       </c>
+      <c r="AZ179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -29970,6 +30509,9 @@
       <c r="AY180">
         <v>0</v>
       </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -30133,6 +30675,9 @@
       <c r="AY181">
         <v>0</v>
       </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -30296,6 +30841,9 @@
       <c r="AY182">
         <v>1</v>
       </c>
+      <c r="AZ182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -30459,6 +31007,9 @@
       <c r="AY183">
         <v>0</v>
       </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -30622,6 +31173,9 @@
       <c r="AY184">
         <v>1</v>
       </c>
+      <c r="AZ184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -30785,6 +31339,9 @@
       <c r="AY185">
         <v>5</v>
       </c>
+      <c r="AZ185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -30948,6 +31505,9 @@
       <c r="AY186">
         <v>2</v>
       </c>
+      <c r="AZ186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -31111,6 +31671,9 @@
       <c r="AY187">
         <v>2</v>
       </c>
+      <c r="AZ187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -31274,6 +31837,9 @@
       <c r="AY188">
         <v>3</v>
       </c>
+      <c r="AZ188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -31437,6 +32003,9 @@
       <c r="AY189">
         <v>2</v>
       </c>
+      <c r="AZ189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -31600,6 +32169,9 @@
       <c r="AY190">
         <v>13</v>
       </c>
+      <c r="AZ190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -31763,6 +32335,9 @@
       <c r="AY191">
         <v>36</v>
       </c>
+      <c r="AZ191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -31926,6 +32501,9 @@
       <c r="AY192">
         <v>1</v>
       </c>
+      <c r="AZ192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -32089,6 +32667,9 @@
       <c r="AY193">
         <v>8</v>
       </c>
+      <c r="AZ193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -32252,6 +32833,9 @@
       <c r="AY194">
         <v>2</v>
       </c>
+      <c r="AZ194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -32415,6 +32999,9 @@
       <c r="AY195">
         <v>6</v>
       </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -32578,6 +33165,9 @@
       <c r="AY196">
         <v>4</v>
       </c>
+      <c r="AZ196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -32741,6 +33331,9 @@
       <c r="AY197">
         <v>12</v>
       </c>
+      <c r="AZ197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -32904,6 +33497,9 @@
       <c r="AY198">
         <v>11</v>
       </c>
+      <c r="AZ198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -33067,6 +33663,9 @@
       <c r="AY199">
         <v>2</v>
       </c>
+      <c r="AZ199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -33230,6 +33829,9 @@
       <c r="AY200">
         <v>1</v>
       </c>
+      <c r="AZ200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -33393,6 +33995,9 @@
       <c r="AY201">
         <v>0</v>
       </c>
+      <c r="AZ201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -33556,6 +34161,9 @@
       <c r="AY202">
         <v>1</v>
       </c>
+      <c r="AZ202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -33719,6 +34327,9 @@
       <c r="AY203">
         <v>9</v>
       </c>
+      <c r="AZ203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -33882,6 +34493,9 @@
       <c r="AY204">
         <v>0</v>
       </c>
+      <c r="AZ204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -34045,6 +34659,9 @@
       <c r="AY205">
         <v>0</v>
       </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -34208,6 +34825,9 @@
       <c r="AY206">
         <v>0</v>
       </c>
+      <c r="AZ206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -34371,6 +34991,9 @@
       <c r="AY207">
         <v>25</v>
       </c>
+      <c r="AZ207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -34534,6 +35157,9 @@
       <c r="AY208">
         <v>21</v>
       </c>
+      <c r="AZ208">
+        <v>21</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -34697,6 +35323,9 @@
       <c r="AY209">
         <v>57</v>
       </c>
+      <c r="AZ209">
+        <v>58</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -34860,6 +35489,9 @@
       <c r="AY210">
         <v>38</v>
       </c>
+      <c r="AZ210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -35023,6 +35655,9 @@
       <c r="AY211">
         <v>36</v>
       </c>
+      <c r="AZ211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -35186,6 +35821,9 @@
       <c r="AY212">
         <v>11</v>
       </c>
+      <c r="AZ212">
+        <v>11</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -35349,6 +35987,9 @@
       <c r="AY213">
         <v>40</v>
       </c>
+      <c r="AZ213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -35512,6 +36153,9 @@
       <c r="AY214">
         <v>4</v>
       </c>
+      <c r="AZ214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -35675,6 +36319,9 @@
       <c r="AY215">
         <v>23</v>
       </c>
+      <c r="AZ215">
+        <v>23</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -35838,6 +36485,9 @@
       <c r="AY216">
         <v>2</v>
       </c>
+      <c r="AZ216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -36001,6 +36651,9 @@
       <c r="AY217">
         <v>5</v>
       </c>
+      <c r="AZ217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -36164,6 +36817,9 @@
       <c r="AY218">
         <v>2</v>
       </c>
+      <c r="AZ218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -36327,6 +36983,9 @@
       <c r="AY219">
         <v>1</v>
       </c>
+      <c r="AZ219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -36490,6 +37149,9 @@
       <c r="AY220">
         <v>7</v>
       </c>
+      <c r="AZ220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -36653,6 +37315,9 @@
       <c r="AY221">
         <v>0</v>
       </c>
+      <c r="AZ221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -36816,6 +37481,9 @@
       <c r="AY222">
         <v>1</v>
       </c>
+      <c r="AZ222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -36979,6 +37647,9 @@
       <c r="AY223">
         <v>1</v>
       </c>
+      <c r="AZ223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -37142,6 +37813,9 @@
       <c r="AY224">
         <v>1</v>
       </c>
+      <c r="AZ224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -37305,6 +37979,9 @@
       <c r="AY225">
         <v>0</v>
       </c>
+      <c r="AZ225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -37468,6 +38145,9 @@
       <c r="AY226">
         <v>0</v>
       </c>
+      <c r="AZ226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -37631,6 +38311,9 @@
       <c r="AY227">
         <v>0</v>
       </c>
+      <c r="AZ227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -37794,6 +38477,9 @@
       <c r="AY228">
         <v>0</v>
       </c>
+      <c r="AZ228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -37957,6 +38643,9 @@
       <c r="AY229">
         <v>2</v>
       </c>
+      <c r="AZ229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -38120,6 +38809,9 @@
       <c r="AY230">
         <v>0</v>
       </c>
+      <c r="AZ230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -38283,6 +38975,9 @@
       <c r="AY231">
         <v>3</v>
       </c>
+      <c r="AZ231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -38446,6 +39141,9 @@
       <c r="AY232">
         <v>31</v>
       </c>
+      <c r="AZ232">
+        <v>32</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -38609,6 +39307,9 @@
       <c r="AY233">
         <v>222</v>
       </c>
+      <c r="AZ233">
+        <v>222</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -38772,6 +39473,9 @@
       <c r="AY234">
         <v>11</v>
       </c>
+      <c r="AZ234">
+        <v>11</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -38935,6 +39639,9 @@
       <c r="AY235">
         <v>11</v>
       </c>
+      <c r="AZ235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -39098,6 +39805,9 @@
       <c r="AY236">
         <v>0</v>
       </c>
+      <c r="AZ236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -39261,6 +39971,9 @@
       <c r="AY237">
         <v>2</v>
       </c>
+      <c r="AZ237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -39424,6 +40137,9 @@
       <c r="AY238">
         <v>0</v>
       </c>
+      <c r="AZ238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -39587,6 +40303,9 @@
       <c r="AY239">
         <v>1</v>
       </c>
+      <c r="AZ239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -39750,6 +40469,9 @@
       <c r="AY240">
         <v>2</v>
       </c>
+      <c r="AZ240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -39913,6 +40635,9 @@
       <c r="AY241">
         <v>8</v>
       </c>
+      <c r="AZ241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -40076,6 +40801,9 @@
       <c r="AY242">
         <v>3</v>
       </c>
+      <c r="AZ242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -40239,6 +40967,9 @@
       <c r="AY243">
         <v>1</v>
       </c>
+      <c r="AZ243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -40402,6 +41133,9 @@
       <c r="AY244">
         <v>2</v>
       </c>
+      <c r="AZ244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -40565,6 +41299,9 @@
       <c r="AY245">
         <v>2</v>
       </c>
+      <c r="AZ245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -40728,6 +41465,9 @@
       <c r="AY246">
         <v>2</v>
       </c>
+      <c r="AZ246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -40891,6 +41631,9 @@
       <c r="AY247">
         <v>0</v>
       </c>
+      <c r="AZ247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -41054,6 +41797,9 @@
       <c r="AY248">
         <v>3</v>
       </c>
+      <c r="AZ248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -41217,6 +41963,9 @@
       <c r="AY249">
         <v>21</v>
       </c>
+      <c r="AZ249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -41380,6 +42129,9 @@
       <c r="AY250">
         <v>0</v>
       </c>
+      <c r="AZ250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -41543,6 +42295,9 @@
       <c r="AY251">
         <v>4</v>
       </c>
+      <c r="AZ251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -41706,6 +42461,9 @@
       <c r="AY252">
         <v>1</v>
       </c>
+      <c r="AZ252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -41869,6 +42627,9 @@
       <c r="AY253">
         <v>1</v>
       </c>
+      <c r="AZ253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -42032,6 +42793,9 @@
       <c r="AY254">
         <v>1</v>
       </c>
+      <c r="AZ254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -42205,6 +42969,9 @@
       <c r="AY255">
         <v>13</v>
       </c>
+      <c r="AZ255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -42378,6 +43145,9 @@
       <c r="AY256">
         <v>84</v>
       </c>
+      <c r="AZ256">
+        <v>84</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -42551,6 +43321,9 @@
       <c r="AY257">
         <v>57</v>
       </c>
+      <c r="AZ257">
+        <v>57</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -42724,6 +43497,9 @@
       <c r="AY258">
         <v>71</v>
       </c>
+      <c r="AZ258">
+        <v>71</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -42897,6 +43673,9 @@
       <c r="AY259">
         <v>71</v>
       </c>
+      <c r="AZ259">
+        <v>71</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -43070,6 +43849,9 @@
       <c r="AY260">
         <v>40</v>
       </c>
+      <c r="AZ260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -43243,6 +44025,9 @@
       <c r="AY261">
         <v>100</v>
       </c>
+      <c r="AZ261">
+        <v>100</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -43416,6 +44201,9 @@
       <c r="AY262">
         <v>58</v>
       </c>
+      <c r="AZ262">
+        <v>58</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -43589,6 +44377,9 @@
       <c r="AY263">
         <v>66</v>
       </c>
+      <c r="AZ263">
+        <v>66</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -43752,6 +44543,9 @@
       <c r="AY264">
         <v>9</v>
       </c>
+      <c r="AZ264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -43915,6 +44709,9 @@
       <c r="AY265">
         <v>4</v>
       </c>
+      <c r="AZ265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -44078,6 +44875,9 @@
       <c r="AY266">
         <v>4</v>
       </c>
+      <c r="AZ266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -44241,6 +45041,9 @@
       <c r="AY267">
         <v>4</v>
       </c>
+      <c r="AZ267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -44404,6 +45207,9 @@
       <c r="AY268">
         <v>6</v>
       </c>
+      <c r="AZ268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -44567,6 +45373,9 @@
       <c r="AY269">
         <v>8</v>
       </c>
+      <c r="AZ269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -44730,6 +45539,9 @@
       <c r="AY270">
         <v>0</v>
       </c>
+      <c r="AZ270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -44893,6 +45705,9 @@
       <c r="AY271">
         <v>4</v>
       </c>
+      <c r="AZ271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -45056,6 +45871,9 @@
       <c r="AY272">
         <v>0</v>
       </c>
+      <c r="AZ272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -45219,6 +46037,9 @@
       <c r="AY273">
         <v>0</v>
       </c>
+      <c r="AZ273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -45382,6 +46203,9 @@
       <c r="AY274">
         <v>2</v>
       </c>
+      <c r="AZ274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -45545,6 +46369,9 @@
       <c r="AY275">
         <v>24</v>
       </c>
+      <c r="AZ275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -45708,6 +46535,9 @@
       <c r="AY276">
         <v>9</v>
       </c>
+      <c r="AZ276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -45871,6 +46701,9 @@
       <c r="AY277">
         <v>0</v>
       </c>
+      <c r="AZ277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -46034,6 +46867,9 @@
       <c r="AY278">
         <v>17</v>
       </c>
+      <c r="AZ278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -46197,6 +47033,9 @@
       <c r="AY279">
         <v>5</v>
       </c>
+      <c r="AZ279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -46360,6 +47199,9 @@
       <c r="AY280">
         <v>54</v>
       </c>
+      <c r="AZ280">
+        <v>54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -46523,6 +47365,9 @@
       <c r="AY281">
         <v>41</v>
       </c>
+      <c r="AZ281">
+        <v>41</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -46686,6 +47531,9 @@
       <c r="AY282">
         <v>1</v>
       </c>
+      <c r="AZ282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -46849,6 +47697,9 @@
       <c r="AY283">
         <v>0</v>
       </c>
+      <c r="AZ283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -47012,6 +47863,9 @@
       <c r="AY284">
         <v>40</v>
       </c>
+      <c r="AZ284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -47175,6 +48029,9 @@
       <c r="AY285">
         <v>27</v>
       </c>
+      <c r="AZ285">
+        <v>27</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -47338,6 +48195,9 @@
       <c r="AY286">
         <v>0</v>
       </c>
+      <c r="AZ286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -47501,6 +48361,9 @@
       <c r="AY287">
         <v>0</v>
       </c>
+      <c r="AZ287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -47664,6 +48527,9 @@
       <c r="AY288">
         <v>0</v>
       </c>
+      <c r="AZ288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -47827,6 +48693,9 @@
       <c r="AY289">
         <v>1</v>
       </c>
+      <c r="AZ289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -47990,6 +48859,9 @@
       <c r="AY290">
         <v>3</v>
       </c>
+      <c r="AZ290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -48153,6 +49025,9 @@
       <c r="AY291">
         <v>0</v>
       </c>
+      <c r="AZ291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -48316,6 +49191,9 @@
       <c r="AY292">
         <v>3</v>
       </c>
+      <c r="AZ292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -48479,6 +49357,9 @@
       <c r="AY293">
         <v>0</v>
       </c>
+      <c r="AZ293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -48642,6 +49523,9 @@
       <c r="AY294">
         <v>7</v>
       </c>
+      <c r="AZ294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -48805,6 +49689,9 @@
       <c r="AY295">
         <v>0</v>
       </c>
+      <c r="AZ295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -48968,6 +49855,9 @@
       <c r="AY296">
         <v>0</v>
       </c>
+      <c r="AZ296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -49131,6 +50021,9 @@
       <c r="AY297">
         <v>1</v>
       </c>
+      <c r="AZ297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -49294,6 +50187,9 @@
       <c r="AY298">
         <v>4</v>
       </c>
+      <c r="AZ298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -49457,6 +50353,9 @@
       <c r="AY299">
         <v>0</v>
       </c>
+      <c r="AZ299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -49620,6 +50519,9 @@
       <c r="AY300">
         <v>0</v>
       </c>
+      <c r="AZ300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -49783,6 +50685,9 @@
       <c r="AY301">
         <v>17</v>
       </c>
+      <c r="AZ301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -49946,6 +50851,9 @@
       <c r="AY302">
         <v>0</v>
       </c>
+      <c r="AZ302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -50109,6 +51017,9 @@
       <c r="AY303">
         <v>0</v>
       </c>
+      <c r="AZ303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -50272,6 +51183,9 @@
       <c r="AY304">
         <v>4</v>
       </c>
+      <c r="AZ304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -50435,6 +51349,9 @@
       <c r="AY305">
         <v>12</v>
       </c>
+      <c r="AZ305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -50598,6 +51515,9 @@
       <c r="AY306">
         <v>307</v>
       </c>
+      <c r="AZ306">
+        <v>312</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -50761,6 +51681,9 @@
       <c r="AY307">
         <v>17</v>
       </c>
+      <c r="AZ307">
+        <v>17</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -50924,6 +51847,9 @@
       <c r="AY308">
         <v>5</v>
       </c>
+      <c r="AZ308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -51087,6 +52013,9 @@
       <c r="AY309">
         <v>0</v>
       </c>
+      <c r="AZ309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -51250,6 +52179,9 @@
       <c r="AY310">
         <v>0</v>
       </c>
+      <c r="AZ310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -51413,6 +52345,9 @@
       <c r="AY311">
         <v>8</v>
       </c>
+      <c r="AZ311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -51576,6 +52511,9 @@
       <c r="AY312">
         <v>5</v>
       </c>
+      <c r="AZ312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -51739,6 +52677,9 @@
       <c r="AY313">
         <v>0</v>
       </c>
+      <c r="AZ313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -51902,6 +52843,9 @@
       <c r="AY314">
         <v>1</v>
       </c>
+      <c r="AZ314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -52065,6 +53009,9 @@
       <c r="AY315">
         <v>7</v>
       </c>
+      <c r="AZ315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -52228,6 +53175,9 @@
       <c r="AY316">
         <v>3</v>
       </c>
+      <c r="AZ316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -52391,6 +53341,9 @@
       <c r="AY317">
         <v>5</v>
       </c>
+      <c r="AZ317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -52554,6 +53507,9 @@
       <c r="AY318">
         <v>12</v>
       </c>
+      <c r="AZ318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -52717,6 +53673,9 @@
       <c r="AY319">
         <v>6</v>
       </c>
+      <c r="AZ319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -52880,6 +53839,9 @@
       <c r="AY320">
         <v>0</v>
       </c>
+      <c r="AZ320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -53043,6 +54005,9 @@
       <c r="AY321">
         <v>1</v>
       </c>
+      <c r="AZ321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -53206,6 +54171,9 @@
       <c r="AY322">
         <v>8</v>
       </c>
+      <c r="AZ322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -53369,6 +54337,9 @@
       <c r="AY323">
         <v>28</v>
       </c>
+      <c r="AZ323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -53532,6 +54503,9 @@
       <c r="AY324">
         <v>21</v>
       </c>
+      <c r="AZ324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -53695,6 +54669,9 @@
       <c r="AY325">
         <v>15</v>
       </c>
+      <c r="AZ325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -53858,6 +54835,9 @@
       <c r="AY326">
         <v>1</v>
       </c>
+      <c r="AZ326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -54021,6 +55001,9 @@
       <c r="AY327">
         <v>0</v>
       </c>
+      <c r="AZ327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -54184,6 +55167,9 @@
       <c r="AY328">
         <v>0</v>
       </c>
+      <c r="AZ328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -54347,6 +55333,9 @@
       <c r="AY329">
         <v>0</v>
       </c>
+      <c r="AZ329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -54510,6 +55499,9 @@
       <c r="AY330">
         <v>3</v>
       </c>
+      <c r="AZ330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -54673,6 +55665,9 @@
       <c r="AY331">
         <v>1</v>
       </c>
+      <c r="AZ331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -54836,6 +55831,9 @@
       <c r="AY332">
         <v>4</v>
       </c>
+      <c r="AZ332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -54999,6 +55997,9 @@
       <c r="AY333">
         <v>0</v>
       </c>
+      <c r="AZ333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -55162,6 +56163,9 @@
       <c r="AY334">
         <v>0</v>
       </c>
+      <c r="AZ334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -55325,6 +56329,9 @@
       <c r="AY335">
         <v>7</v>
       </c>
+      <c r="AZ335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -55488,6 +56495,9 @@
       <c r="AY336">
         <v>2</v>
       </c>
+      <c r="AZ336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -55651,6 +56661,9 @@
       <c r="AY337">
         <v>2</v>
       </c>
+      <c r="AZ337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -55814,6 +56827,9 @@
       <c r="AY338">
         <v>2</v>
       </c>
+      <c r="AZ338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -55977,6 +56993,9 @@
       <c r="AY339">
         <v>10</v>
       </c>
+      <c r="AZ339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -56140,6 +57159,9 @@
       <c r="AY340">
         <v>1</v>
       </c>
+      <c r="AZ340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -56303,6 +57325,9 @@
       <c r="AY341">
         <v>17</v>
       </c>
+      <c r="AZ341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -56466,6 +57491,9 @@
       <c r="AY342">
         <v>0</v>
       </c>
+      <c r="AZ342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -56629,6 +57657,9 @@
       <c r="AY343">
         <v>0</v>
       </c>
+      <c r="AZ343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -56792,6 +57823,9 @@
       <c r="AY344">
         <v>162</v>
       </c>
+      <c r="AZ344">
+        <v>163</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -56955,6 +57989,9 @@
       <c r="AY345">
         <v>6</v>
       </c>
+      <c r="AZ345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -57118,6 +58155,9 @@
       <c r="AY346">
         <v>5</v>
       </c>
+      <c r="AZ346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -57281,6 +58321,9 @@
       <c r="AY347">
         <v>1</v>
       </c>
+      <c r="AZ347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -57444,6 +58487,9 @@
       <c r="AY348">
         <v>3</v>
       </c>
+      <c r="AZ348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -57607,6 +58653,9 @@
       <c r="AY349">
         <v>15</v>
       </c>
+      <c r="AZ349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -57770,6 +58819,9 @@
       <c r="AY350">
         <v>1</v>
       </c>
+      <c r="AZ350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -57933,6 +58985,9 @@
       <c r="AY351">
         <v>1</v>
       </c>
+      <c r="AZ351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -58096,6 +59151,9 @@
       <c r="AY352">
         <v>0</v>
       </c>
+      <c r="AZ352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -58259,6 +59317,9 @@
       <c r="AY353">
         <v>0</v>
       </c>
+      <c r="AZ353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -58422,6 +59483,9 @@
       <c r="AY354">
         <v>3</v>
       </c>
+      <c r="AZ354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -58585,6 +59649,9 @@
       <c r="AY355">
         <v>2</v>
       </c>
+      <c r="AZ355">
+        <v>2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -58748,6 +59815,9 @@
       <c r="AY356">
         <v>2</v>
       </c>
+      <c r="AZ356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -58911,6 +59981,9 @@
       <c r="AY357">
         <v>1</v>
       </c>
+      <c r="AZ357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -59074,6 +60147,9 @@
       <c r="AY358">
         <v>0</v>
       </c>
+      <c r="AZ358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -59237,6 +60313,9 @@
       <c r="AY359">
         <v>0</v>
       </c>
+      <c r="AZ359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -59400,6 +60479,9 @@
       <c r="AY360">
         <v>16</v>
       </c>
+      <c r="AZ360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -59563,6 +60645,9 @@
       <c r="AY361">
         <v>2</v>
       </c>
+      <c r="AZ361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -59726,6 +60811,9 @@
       <c r="AY362">
         <v>2</v>
       </c>
+      <c r="AZ362">
+        <v>2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -59889,6 +60977,9 @@
       <c r="AY363">
         <v>2</v>
       </c>
+      <c r="AZ363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -60052,6 +61143,9 @@
       <c r="AY364">
         <v>0</v>
       </c>
+      <c r="AZ364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -60215,6 +61309,9 @@
       <c r="AY365">
         <v>0</v>
       </c>
+      <c r="AZ365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -60378,6 +61475,9 @@
       <c r="AY366">
         <v>1</v>
       </c>
+      <c r="AZ366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -60541,6 +61641,9 @@
       <c r="AY367">
         <v>2</v>
       </c>
+      <c r="AZ367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -60704,6 +61807,9 @@
       <c r="AY368">
         <v>0</v>
       </c>
+      <c r="AZ368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -60867,6 +61973,9 @@
       <c r="AY369">
         <v>1</v>
       </c>
+      <c r="AZ369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -61030,6 +62139,9 @@
       <c r="AY370">
         <v>0</v>
       </c>
+      <c r="AZ370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -61193,6 +62305,9 @@
       <c r="AY371">
         <v>0</v>
       </c>
+      <c r="AZ371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -61356,6 +62471,9 @@
       <c r="AY372">
         <v>3</v>
       </c>
+      <c r="AZ372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -61519,6 +62637,9 @@
       <c r="AY373">
         <v>2</v>
       </c>
+      <c r="AZ373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -61682,6 +62803,9 @@
       <c r="AY374">
         <v>4</v>
       </c>
+      <c r="AZ374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -61845,6 +62969,9 @@
       <c r="AY375">
         <v>1</v>
       </c>
+      <c r="AZ375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -62008,6 +63135,9 @@
       <c r="AY376">
         <v>0</v>
       </c>
+      <c r="AZ376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -62171,6 +63301,9 @@
       <c r="AY377">
         <v>0</v>
       </c>
+      <c r="AZ377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -62334,6 +63467,9 @@
       <c r="AY378">
         <v>0</v>
       </c>
+      <c r="AZ378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -62497,6 +63633,9 @@
       <c r="AY379">
         <v>1</v>
       </c>
+      <c r="AZ379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -62660,6 +63799,9 @@
       <c r="AY380">
         <v>1</v>
       </c>
+      <c r="AZ380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -62823,6 +63965,9 @@
       <c r="AY381">
         <v>0</v>
       </c>
+      <c r="AZ381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -62986,6 +64131,9 @@
       <c r="AY382">
         <v>4</v>
       </c>
+      <c r="AZ382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -63149,6 +64297,9 @@
       <c r="AY383">
         <v>0</v>
       </c>
+      <c r="AZ383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -63310,6 +64461,9 @@
         <v>2</v>
       </c>
       <c r="AY384">
+        <v>0</v>
+      </c>
+      <c r="AZ384">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ384"/>
+  <dimension ref="A1:BA384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +618,11 @@
           <t>2020-05-06</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -794,6 +799,9 @@
       <c r="AZ2">
         <v>248</v>
       </c>
+      <c r="BA2">
+        <v>248</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -970,6 +978,9 @@
       <c r="AZ3">
         <v>176</v>
       </c>
+      <c r="BA3">
+        <v>178</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1146,6 +1157,9 @@
       <c r="AZ4">
         <v>143</v>
       </c>
+      <c r="BA4">
+        <v>143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1322,6 +1336,9 @@
       <c r="AZ5">
         <v>101</v>
       </c>
+      <c r="BA5">
+        <v>101</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1498,6 +1515,9 @@
       <c r="AZ6">
         <v>175</v>
       </c>
+      <c r="BA6">
+        <v>177</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1674,6 +1694,9 @@
       <c r="AZ7">
         <v>115</v>
       </c>
+      <c r="BA7">
+        <v>116</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1850,6 +1873,9 @@
       <c r="AZ8">
         <v>151</v>
       </c>
+      <c r="BA8">
+        <v>151</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2026,6 +2052,9 @@
       <c r="AZ9">
         <v>134</v>
       </c>
+      <c r="BA9">
+        <v>134</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2202,6 +2231,9 @@
       <c r="AZ10">
         <v>111</v>
       </c>
+      <c r="BA10">
+        <v>112</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2378,6 +2410,9 @@
       <c r="AZ11">
         <v>120</v>
       </c>
+      <c r="BA11">
+        <v>120</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2554,6 +2589,9 @@
       <c r="AZ12">
         <v>197</v>
       </c>
+      <c r="BA12">
+        <v>199</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2730,6 +2768,9 @@
       <c r="AZ13">
         <v>243</v>
       </c>
+      <c r="BA13">
+        <v>246</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2906,6 +2947,9 @@
       <c r="AZ14">
         <v>184</v>
       </c>
+      <c r="BA14">
+        <v>186</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3082,6 +3126,9 @@
       <c r="AZ15">
         <v>166</v>
       </c>
+      <c r="BA15">
+        <v>166</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3258,6 +3305,9 @@
       <c r="AZ16">
         <v>137</v>
       </c>
+      <c r="BA16">
+        <v>137</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3434,6 +3484,9 @@
       <c r="AZ17">
         <v>5</v>
       </c>
+      <c r="BA17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3610,6 +3663,9 @@
       <c r="AZ18">
         <v>2</v>
       </c>
+      <c r="BA18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3786,6 +3842,9 @@
       <c r="AZ19">
         <v>60</v>
       </c>
+      <c r="BA19">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3952,6 +4011,9 @@
       <c r="AZ20">
         <v>14</v>
       </c>
+      <c r="BA20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4118,6 +4180,9 @@
       <c r="AZ21">
         <v>133</v>
       </c>
+      <c r="BA21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4284,6 +4349,9 @@
       <c r="AZ22">
         <v>51</v>
       </c>
+      <c r="BA22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4450,6 +4518,9 @@
       <c r="AZ23">
         <v>47</v>
       </c>
+      <c r="BA23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4616,6 +4687,9 @@
       <c r="AZ24">
         <v>5</v>
       </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4782,6 +4856,9 @@
       <c r="AZ25">
         <v>1</v>
       </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4948,6 +5025,9 @@
       <c r="AZ26">
         <v>0</v>
       </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5114,6 +5194,9 @@
       <c r="AZ27">
         <v>7</v>
       </c>
+      <c r="BA27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5280,6 +5363,9 @@
       <c r="AZ28">
         <v>6</v>
       </c>
+      <c r="BA28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5446,6 +5532,9 @@
       <c r="AZ29">
         <v>12</v>
       </c>
+      <c r="BA29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5612,6 +5701,9 @@
       <c r="AZ30">
         <v>13</v>
       </c>
+      <c r="BA30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5778,6 +5870,9 @@
       <c r="AZ31">
         <v>16</v>
       </c>
+      <c r="BA31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5944,6 +6039,9 @@
       <c r="AZ32">
         <v>11</v>
       </c>
+      <c r="BA32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6110,6 +6208,9 @@
       <c r="AZ33">
         <v>13</v>
       </c>
+      <c r="BA33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6276,6 +6377,9 @@
       <c r="AZ34">
         <v>0</v>
       </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6442,6 +6546,9 @@
       <c r="AZ35">
         <v>0</v>
       </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6608,6 +6715,9 @@
       <c r="AZ36">
         <v>3</v>
       </c>
+      <c r="BA36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6774,6 +6884,9 @@
       <c r="AZ37">
         <v>0</v>
       </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6940,6 +7053,9 @@
       <c r="AZ38">
         <v>1</v>
       </c>
+      <c r="BA38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7106,6 +7222,9 @@
       <c r="AZ39">
         <v>20</v>
       </c>
+      <c r="BA39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7272,6 +7391,9 @@
       <c r="AZ40">
         <v>71</v>
       </c>
+      <c r="BA40">
+        <v>72</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7438,6 +7560,9 @@
       <c r="AZ41">
         <v>0</v>
       </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7604,6 +7729,9 @@
       <c r="AZ42">
         <v>11</v>
       </c>
+      <c r="BA42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7770,6 +7898,9 @@
       <c r="AZ43">
         <v>18</v>
       </c>
+      <c r="BA43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7936,6 +8067,9 @@
       <c r="AZ44">
         <v>13</v>
       </c>
+      <c r="BA44">
+        <v>15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8102,6 +8236,9 @@
       <c r="AZ45">
         <v>27</v>
       </c>
+      <c r="BA45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8268,6 +8405,9 @@
       <c r="AZ46">
         <v>1</v>
       </c>
+      <c r="BA46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8434,6 +8574,9 @@
       <c r="AZ47">
         <v>5</v>
       </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8600,6 +8743,9 @@
       <c r="AZ48">
         <v>3</v>
       </c>
+      <c r="BA48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8766,6 +8912,9 @@
       <c r="AZ49">
         <v>8</v>
       </c>
+      <c r="BA49">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8932,6 +9081,9 @@
       <c r="AZ50">
         <v>2</v>
       </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9098,6 +9250,9 @@
       <c r="AZ51">
         <v>6</v>
       </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9264,6 +9419,9 @@
       <c r="AZ52">
         <v>0</v>
       </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9430,6 +9588,9 @@
       <c r="AZ53">
         <v>1</v>
       </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9596,6 +9757,9 @@
       <c r="AZ54">
         <v>6</v>
       </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9762,6 +9926,9 @@
       <c r="AZ55">
         <v>5</v>
       </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9928,6 +10095,9 @@
       <c r="AZ56">
         <v>1</v>
       </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10094,6 +10264,9 @@
       <c r="AZ57">
         <v>10</v>
       </c>
+      <c r="BA57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10260,6 +10433,9 @@
       <c r="AZ58">
         <v>0</v>
       </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10426,6 +10602,9 @@
       <c r="AZ59">
         <v>0</v>
       </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10592,6 +10771,9 @@
       <c r="AZ60">
         <v>1</v>
       </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10758,6 +10940,9 @@
       <c r="AZ61">
         <v>1</v>
       </c>
+      <c r="BA61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10924,6 +11109,9 @@
       <c r="AZ62">
         <v>2</v>
       </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11090,6 +11278,9 @@
       <c r="AZ63">
         <v>2</v>
       </c>
+      <c r="BA63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11256,6 +11447,9 @@
       <c r="AZ64">
         <v>0</v>
       </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11422,6 +11616,9 @@
       <c r="AZ65">
         <v>3</v>
       </c>
+      <c r="BA65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11588,6 +11785,9 @@
       <c r="AZ66">
         <v>4</v>
       </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11754,6 +11954,9 @@
       <c r="AZ67">
         <v>1</v>
       </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11920,6 +12123,9 @@
       <c r="AZ68">
         <v>3</v>
       </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12086,6 +12292,9 @@
       <c r="AZ69">
         <v>39</v>
       </c>
+      <c r="BA69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12252,6 +12461,9 @@
       <c r="AZ70">
         <v>6</v>
       </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12418,6 +12630,9 @@
       <c r="AZ71">
         <v>0</v>
       </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12584,6 +12799,9 @@
       <c r="AZ72">
         <v>2</v>
       </c>
+      <c r="BA72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12750,6 +12968,9 @@
       <c r="AZ73">
         <v>5</v>
       </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12916,6 +13137,9 @@
       <c r="AZ74">
         <v>3</v>
       </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13082,6 +13306,9 @@
       <c r="AZ75">
         <v>0</v>
       </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13248,6 +13475,9 @@
       <c r="AZ76">
         <v>0</v>
       </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13414,6 +13644,9 @@
       <c r="AZ77">
         <v>2</v>
       </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13580,6 +13813,9 @@
       <c r="AZ78">
         <v>4</v>
       </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13746,6 +13982,9 @@
       <c r="AZ79">
         <v>1</v>
       </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13912,6 +14151,9 @@
       <c r="AZ80">
         <v>1</v>
       </c>
+      <c r="BA80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14078,6 +14320,9 @@
       <c r="AZ81">
         <v>0</v>
       </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14244,6 +14489,9 @@
       <c r="AZ82">
         <v>5</v>
       </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14410,6 +14658,9 @@
       <c r="AZ83">
         <v>0</v>
       </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14576,6 +14827,9 @@
       <c r="AZ84">
         <v>0</v>
       </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14742,6 +14996,9 @@
       <c r="AZ85">
         <v>4</v>
       </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14908,6 +15165,9 @@
       <c r="AZ86">
         <v>0</v>
       </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15074,6 +15334,9 @@
       <c r="AZ87">
         <v>0</v>
       </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15240,6 +15503,9 @@
       <c r="AZ88">
         <v>0</v>
       </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15406,6 +15672,9 @@
       <c r="AZ89">
         <v>6</v>
       </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15572,6 +15841,9 @@
       <c r="AZ90">
         <v>0</v>
       </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15738,6 +16010,9 @@
       <c r="AZ91">
         <v>0</v>
       </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15904,6 +16179,9 @@
       <c r="AZ92">
         <v>0</v>
       </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16070,6 +16348,9 @@
       <c r="AZ93">
         <v>2</v>
       </c>
+      <c r="BA93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -16236,6 +16517,9 @@
       <c r="AZ94">
         <v>0</v>
       </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -16402,6 +16686,9 @@
       <c r="AZ95">
         <v>1</v>
       </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -16568,6 +16855,9 @@
       <c r="AZ96">
         <v>0</v>
       </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16734,6 +17024,9 @@
       <c r="AZ97">
         <v>0</v>
       </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16900,6 +17193,9 @@
       <c r="AZ98">
         <v>0</v>
       </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -17066,6 +17362,9 @@
       <c r="AZ99">
         <v>0</v>
       </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -17232,6 +17531,9 @@
       <c r="AZ100">
         <v>6</v>
       </c>
+      <c r="BA100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -17398,6 +17700,9 @@
       <c r="AZ101">
         <v>13</v>
       </c>
+      <c r="BA101">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -17564,6 +17869,9 @@
       <c r="AZ102">
         <v>3</v>
       </c>
+      <c r="BA102">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -17730,6 +18038,9 @@
       <c r="AZ103">
         <v>5</v>
       </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -17896,6 +18207,9 @@
       <c r="AZ104">
         <v>0</v>
       </c>
+      <c r="BA104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -18062,6 +18376,9 @@
       <c r="AZ105">
         <v>0</v>
       </c>
+      <c r="BA105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -18228,6 +18545,9 @@
       <c r="AZ106">
         <v>6</v>
       </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -18394,6 +18714,9 @@
       <c r="AZ107">
         <v>0</v>
       </c>
+      <c r="BA107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -18560,6 +18883,9 @@
       <c r="AZ108">
         <v>1</v>
       </c>
+      <c r="BA108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -18726,6 +19052,9 @@
       <c r="AZ109">
         <v>0</v>
       </c>
+      <c r="BA109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -18892,6 +19221,9 @@
       <c r="AZ110">
         <v>38</v>
       </c>
+      <c r="BA110">
+        <v>38</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -19058,6 +19390,9 @@
       <c r="AZ111">
         <v>98</v>
       </c>
+      <c r="BA111">
+        <v>98</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -19224,6 +19559,9 @@
       <c r="AZ112">
         <v>72</v>
       </c>
+      <c r="BA112">
+        <v>72</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -19390,6 +19728,9 @@
       <c r="AZ113">
         <v>99</v>
       </c>
+      <c r="BA113">
+        <v>105</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -19556,6 +19897,9 @@
       <c r="AZ114">
         <v>175</v>
       </c>
+      <c r="BA114">
+        <v>175</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -19722,6 +20066,9 @@
       <c r="AZ115">
         <v>21</v>
       </c>
+      <c r="BA115">
+        <v>21</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -19888,6 +20235,9 @@
       <c r="AZ116">
         <v>10</v>
       </c>
+      <c r="BA116">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -20054,6 +20404,9 @@
       <c r="AZ117">
         <v>2</v>
       </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -20220,6 +20573,9 @@
       <c r="AZ118">
         <v>2</v>
       </c>
+      <c r="BA118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -20386,6 +20742,9 @@
       <c r="AZ119">
         <v>3</v>
       </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -20552,6 +20911,9 @@
       <c r="AZ120">
         <v>51</v>
       </c>
+      <c r="BA120">
+        <v>51</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -20718,6 +21080,9 @@
       <c r="AZ121">
         <v>2</v>
       </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -20884,6 +21249,9 @@
       <c r="AZ122">
         <v>1</v>
       </c>
+      <c r="BA122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -21050,6 +21418,9 @@
       <c r="AZ123">
         <v>2</v>
       </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -21216,6 +21587,9 @@
       <c r="AZ124">
         <v>7</v>
       </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -21382,6 +21756,9 @@
       <c r="AZ125">
         <v>24</v>
       </c>
+      <c r="BA125">
+        <v>25</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -21548,6 +21925,9 @@
       <c r="AZ126">
         <v>102</v>
       </c>
+      <c r="BA126">
+        <v>102</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -21714,6 +22094,9 @@
       <c r="AZ127">
         <v>20</v>
       </c>
+      <c r="BA127">
+        <v>20</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -21880,6 +22263,9 @@
       <c r="AZ128">
         <v>29</v>
       </c>
+      <c r="BA128">
+        <v>29</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -22046,6 +22432,9 @@
       <c r="AZ129">
         <v>49</v>
       </c>
+      <c r="BA129">
+        <v>49</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -22212,6 +22601,9 @@
       <c r="AZ130">
         <v>413</v>
       </c>
+      <c r="BA130">
+        <v>414</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -22378,6 +22770,9 @@
       <c r="AZ131">
         <v>186</v>
       </c>
+      <c r="BA131">
+        <v>187</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -22544,6 +22939,9 @@
       <c r="AZ132">
         <v>11</v>
       </c>
+      <c r="BA132">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -22710,6 +23108,9 @@
       <c r="AZ133">
         <v>29</v>
       </c>
+      <c r="BA133">
+        <v>29</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -22876,6 +23277,9 @@
       <c r="AZ134">
         <v>50</v>
       </c>
+      <c r="BA134">
+        <v>50</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -23042,6 +23446,9 @@
       <c r="AZ135">
         <v>94</v>
       </c>
+      <c r="BA135">
+        <v>95</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -23208,6 +23615,9 @@
       <c r="AZ136">
         <v>160</v>
       </c>
+      <c r="BA136">
+        <v>162</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -23374,6 +23784,9 @@
       <c r="AZ137">
         <v>45</v>
       </c>
+      <c r="BA137">
+        <v>47</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -23540,6 +23953,9 @@
       <c r="AZ138">
         <v>8</v>
       </c>
+      <c r="BA138">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -23706,6 +24122,9 @@
       <c r="AZ139">
         <v>59</v>
       </c>
+      <c r="BA139">
+        <v>59</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -23872,6 +24291,9 @@
       <c r="AZ140">
         <v>15</v>
       </c>
+      <c r="BA140">
+        <v>15</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -24038,6 +24460,9 @@
       <c r="AZ141">
         <v>41</v>
       </c>
+      <c r="BA141">
+        <v>41</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -24204,6 +24629,9 @@
       <c r="AZ142">
         <v>17</v>
       </c>
+      <c r="BA142">
+        <v>17</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -24370,6 +24798,9 @@
       <c r="AZ143">
         <v>2</v>
       </c>
+      <c r="BA143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -24536,6 +24967,9 @@
       <c r="AZ144">
         <v>10</v>
       </c>
+      <c r="BA144">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -24702,6 +25136,9 @@
       <c r="AZ145">
         <v>1</v>
       </c>
+      <c r="BA145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -24868,6 +25305,9 @@
       <c r="AZ146">
         <v>7</v>
       </c>
+      <c r="BA146">
+        <v>7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -25034,6 +25474,9 @@
       <c r="AZ147">
         <v>11</v>
       </c>
+      <c r="BA147">
+        <v>11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -25200,6 +25643,9 @@
       <c r="AZ148">
         <v>8</v>
       </c>
+      <c r="BA148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -25366,6 +25812,9 @@
       <c r="AZ149">
         <v>13</v>
       </c>
+      <c r="BA149">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -25532,6 +25981,9 @@
       <c r="AZ150">
         <v>44</v>
       </c>
+      <c r="BA150">
+        <v>44</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -25698,6 +26150,9 @@
       <c r="AZ151">
         <v>0</v>
       </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -25864,6 +26319,9 @@
       <c r="AZ152">
         <v>0</v>
       </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -26030,6 +26488,9 @@
       <c r="AZ153">
         <v>10</v>
       </c>
+      <c r="BA153">
+        <v>10</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -26196,6 +26657,9 @@
       <c r="AZ154">
         <v>9</v>
       </c>
+      <c r="BA154">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -26362,6 +26826,9 @@
       <c r="AZ155">
         <v>42</v>
       </c>
+      <c r="BA155">
+        <v>42</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -26528,6 +26995,9 @@
       <c r="AZ156">
         <v>4</v>
       </c>
+      <c r="BA156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -26694,6 +27164,9 @@
       <c r="AZ157">
         <v>1</v>
       </c>
+      <c r="BA157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -26860,6 +27333,9 @@
       <c r="AZ158">
         <v>3</v>
       </c>
+      <c r="BA158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -27026,6 +27502,9 @@
       <c r="AZ159">
         <v>6</v>
       </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -27192,6 +27671,9 @@
       <c r="AZ160">
         <v>11</v>
       </c>
+      <c r="BA160">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -27358,6 +27840,9 @@
       <c r="AZ161">
         <v>2</v>
       </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -27524,6 +28009,9 @@
       <c r="AZ162">
         <v>84</v>
       </c>
+      <c r="BA162">
+        <v>84</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -27690,6 +28178,9 @@
       <c r="AZ163">
         <v>39</v>
       </c>
+      <c r="BA163">
+        <v>39</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -27856,6 +28347,9 @@
       <c r="AZ164">
         <v>25</v>
       </c>
+      <c r="BA164">
+        <v>24</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -28022,6 +28516,9 @@
       <c r="AZ165">
         <v>63</v>
       </c>
+      <c r="BA165">
+        <v>63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -28188,6 +28685,9 @@
       <c r="AZ166">
         <v>13</v>
       </c>
+      <c r="BA166">
+        <v>13</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -28354,6 +28854,9 @@
       <c r="AZ167">
         <v>36</v>
       </c>
+      <c r="BA167">
+        <v>36</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -28520,6 +29023,9 @@
       <c r="AZ168">
         <v>1</v>
       </c>
+      <c r="BA168">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -28686,6 +29192,9 @@
       <c r="AZ169">
         <v>24</v>
       </c>
+      <c r="BA169">
+        <v>24</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -28852,6 +29361,9 @@
       <c r="AZ170">
         <v>4</v>
       </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -29018,6 +29530,9 @@
       <c r="AZ171">
         <v>5</v>
       </c>
+      <c r="BA171">
+        <v>6</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -29184,6 +29699,9 @@
       <c r="AZ172">
         <v>3</v>
       </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -29350,6 +29868,9 @@
       <c r="AZ173">
         <v>3</v>
       </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -29516,6 +30037,9 @@
       <c r="AZ174">
         <v>16</v>
       </c>
+      <c r="BA174">
+        <v>16</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -29682,6 +30206,9 @@
       <c r="AZ175">
         <v>7</v>
       </c>
+      <c r="BA175">
+        <v>7</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -29848,6 +30375,9 @@
       <c r="AZ176">
         <v>4</v>
       </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -30014,6 +30544,9 @@
       <c r="AZ177">
         <v>0</v>
       </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -30180,6 +30713,9 @@
       <c r="AZ178">
         <v>0</v>
       </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -30346,6 +30882,9 @@
       <c r="AZ179">
         <v>2</v>
       </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -30512,6 +31051,9 @@
       <c r="AZ180">
         <v>0</v>
       </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -30678,6 +31220,9 @@
       <c r="AZ181">
         <v>0</v>
       </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -30844,6 +31389,9 @@
       <c r="AZ182">
         <v>1</v>
       </c>
+      <c r="BA182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -31010,6 +31558,9 @@
       <c r="AZ183">
         <v>0</v>
       </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -31176,6 +31727,9 @@
       <c r="AZ184">
         <v>1</v>
       </c>
+      <c r="BA184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -31342,6 +31896,9 @@
       <c r="AZ185">
         <v>5</v>
       </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -31508,6 +32065,9 @@
       <c r="AZ186">
         <v>2</v>
       </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -31674,6 +32234,9 @@
       <c r="AZ187">
         <v>2</v>
       </c>
+      <c r="BA187">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -31840,6 +32403,9 @@
       <c r="AZ188">
         <v>3</v>
       </c>
+      <c r="BA188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -32006,6 +32572,9 @@
       <c r="AZ189">
         <v>2</v>
       </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -32172,6 +32741,9 @@
       <c r="AZ190">
         <v>13</v>
       </c>
+      <c r="BA190">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -32338,6 +32910,9 @@
       <c r="AZ191">
         <v>36</v>
       </c>
+      <c r="BA191">
+        <v>36</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -32504,6 +33079,9 @@
       <c r="AZ192">
         <v>1</v>
       </c>
+      <c r="BA192">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -32670,6 +33248,9 @@
       <c r="AZ193">
         <v>8</v>
       </c>
+      <c r="BA193">
+        <v>8</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -32836,6 +33417,9 @@
       <c r="AZ194">
         <v>2</v>
       </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -33002,6 +33586,9 @@
       <c r="AZ195">
         <v>6</v>
       </c>
+      <c r="BA195">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -33168,6 +33755,9 @@
       <c r="AZ196">
         <v>4</v>
       </c>
+      <c r="BA196">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -33334,6 +33924,9 @@
       <c r="AZ197">
         <v>12</v>
       </c>
+      <c r="BA197">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -33500,6 +34093,9 @@
       <c r="AZ198">
         <v>11</v>
       </c>
+      <c r="BA198">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -33666,6 +34262,9 @@
       <c r="AZ199">
         <v>2</v>
       </c>
+      <c r="BA199">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -33832,6 +34431,9 @@
       <c r="AZ200">
         <v>1</v>
       </c>
+      <c r="BA200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -33998,6 +34600,9 @@
       <c r="AZ201">
         <v>0</v>
       </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -34164,6 +34769,9 @@
       <c r="AZ202">
         <v>1</v>
       </c>
+      <c r="BA202">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -34330,6 +34938,9 @@
       <c r="AZ203">
         <v>9</v>
       </c>
+      <c r="BA203">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -34496,6 +35107,9 @@
       <c r="AZ204">
         <v>1</v>
       </c>
+      <c r="BA204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -34662,6 +35276,9 @@
       <c r="AZ205">
         <v>0</v>
       </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -34828,6 +35445,9 @@
       <c r="AZ206">
         <v>0</v>
       </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -34994,6 +35614,9 @@
       <c r="AZ207">
         <v>25</v>
       </c>
+      <c r="BA207">
+        <v>25</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -35160,6 +35783,9 @@
       <c r="AZ208">
         <v>21</v>
       </c>
+      <c r="BA208">
+        <v>21</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -35326,6 +35952,9 @@
       <c r="AZ209">
         <v>58</v>
       </c>
+      <c r="BA209">
+        <v>58</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -35492,6 +36121,9 @@
       <c r="AZ210">
         <v>38</v>
       </c>
+      <c r="BA210">
+        <v>38</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -35658,6 +36290,9 @@
       <c r="AZ211">
         <v>36</v>
       </c>
+      <c r="BA211">
+        <v>36</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -35824,6 +36459,9 @@
       <c r="AZ212">
         <v>11</v>
       </c>
+      <c r="BA212">
+        <v>11</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -35990,6 +36628,9 @@
       <c r="AZ213">
         <v>40</v>
       </c>
+      <c r="BA213">
+        <v>40</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -36156,6 +36797,9 @@
       <c r="AZ214">
         <v>4</v>
       </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -36322,6 +36966,9 @@
       <c r="AZ215">
         <v>23</v>
       </c>
+      <c r="BA215">
+        <v>22</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -36488,6 +37135,9 @@
       <c r="AZ216">
         <v>2</v>
       </c>
+      <c r="BA216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -36654,6 +37304,9 @@
       <c r="AZ217">
         <v>5</v>
       </c>
+      <c r="BA217">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -36820,6 +37473,9 @@
       <c r="AZ218">
         <v>2</v>
       </c>
+      <c r="BA218">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -36986,6 +37642,9 @@
       <c r="AZ219">
         <v>1</v>
       </c>
+      <c r="BA219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -37152,6 +37811,9 @@
       <c r="AZ220">
         <v>7</v>
       </c>
+      <c r="BA220">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -37318,6 +37980,9 @@
       <c r="AZ221">
         <v>0</v>
       </c>
+      <c r="BA221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -37484,6 +38149,9 @@
       <c r="AZ222">
         <v>1</v>
       </c>
+      <c r="BA222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -37650,6 +38318,9 @@
       <c r="AZ223">
         <v>1</v>
       </c>
+      <c r="BA223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -37816,6 +38487,9 @@
       <c r="AZ224">
         <v>1</v>
       </c>
+      <c r="BA224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -37982,6 +38656,9 @@
       <c r="AZ225">
         <v>0</v>
       </c>
+      <c r="BA225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -38148,6 +38825,9 @@
       <c r="AZ226">
         <v>0</v>
       </c>
+      <c r="BA226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -38314,6 +38994,9 @@
       <c r="AZ227">
         <v>0</v>
       </c>
+      <c r="BA227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -38480,6 +39163,9 @@
       <c r="AZ228">
         <v>0</v>
       </c>
+      <c r="BA228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -38646,6 +39332,9 @@
       <c r="AZ229">
         <v>2</v>
       </c>
+      <c r="BA229">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -38812,6 +39501,9 @@
       <c r="AZ230">
         <v>0</v>
       </c>
+      <c r="BA230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -38978,6 +39670,9 @@
       <c r="AZ231">
         <v>3</v>
       </c>
+      <c r="BA231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -39144,6 +39839,9 @@
       <c r="AZ232">
         <v>32</v>
       </c>
+      <c r="BA232">
+        <v>32</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -39310,6 +40008,9 @@
       <c r="AZ233">
         <v>222</v>
       </c>
+      <c r="BA233">
+        <v>222</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -39476,6 +40177,9 @@
       <c r="AZ234">
         <v>11</v>
       </c>
+      <c r="BA234">
+        <v>11</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -39642,6 +40346,9 @@
       <c r="AZ235">
         <v>11</v>
       </c>
+      <c r="BA235">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -39808,6 +40515,9 @@
       <c r="AZ236">
         <v>0</v>
       </c>
+      <c r="BA236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -39974,6 +40684,9 @@
       <c r="AZ237">
         <v>2</v>
       </c>
+      <c r="BA237">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -40140,6 +40853,9 @@
       <c r="AZ238">
         <v>0</v>
       </c>
+      <c r="BA238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -40306,6 +41022,9 @@
       <c r="AZ239">
         <v>1</v>
       </c>
+      <c r="BA239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -40472,6 +41191,9 @@
       <c r="AZ240">
         <v>2</v>
       </c>
+      <c r="BA240">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -40638,6 +41360,9 @@
       <c r="AZ241">
         <v>8</v>
       </c>
+      <c r="BA241">
+        <v>8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -40804,6 +41529,9 @@
       <c r="AZ242">
         <v>3</v>
       </c>
+      <c r="BA242">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -40970,6 +41698,9 @@
       <c r="AZ243">
         <v>1</v>
       </c>
+      <c r="BA243">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -41136,6 +41867,9 @@
       <c r="AZ244">
         <v>2</v>
       </c>
+      <c r="BA244">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -41302,6 +42036,9 @@
       <c r="AZ245">
         <v>2</v>
       </c>
+      <c r="BA245">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -41468,6 +42205,9 @@
       <c r="AZ246">
         <v>2</v>
       </c>
+      <c r="BA246">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -41634,6 +42374,9 @@
       <c r="AZ247">
         <v>0</v>
       </c>
+      <c r="BA247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -41800,6 +42543,9 @@
       <c r="AZ248">
         <v>3</v>
       </c>
+      <c r="BA248">
+        <v>3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -41966,6 +42712,9 @@
       <c r="AZ249">
         <v>21</v>
       </c>
+      <c r="BA249">
+        <v>21</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -42132,6 +42881,9 @@
       <c r="AZ250">
         <v>0</v>
       </c>
+      <c r="BA250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -42298,6 +43050,9 @@
       <c r="AZ251">
         <v>4</v>
       </c>
+      <c r="BA251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -42464,6 +43219,9 @@
       <c r="AZ252">
         <v>1</v>
       </c>
+      <c r="BA252">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -42630,6 +43388,9 @@
       <c r="AZ253">
         <v>1</v>
       </c>
+      <c r="BA253">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -42796,6 +43557,9 @@
       <c r="AZ254">
         <v>1</v>
       </c>
+      <c r="BA254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -42972,6 +43736,9 @@
       <c r="AZ255">
         <v>13</v>
       </c>
+      <c r="BA255">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -43148,6 +43915,9 @@
       <c r="AZ256">
         <v>84</v>
       </c>
+      <c r="BA256">
+        <v>84</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -43324,6 +44094,9 @@
       <c r="AZ257">
         <v>57</v>
       </c>
+      <c r="BA257">
+        <v>57</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -43500,6 +44273,9 @@
       <c r="AZ258">
         <v>71</v>
       </c>
+      <c r="BA258">
+        <v>71</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -43676,6 +44452,9 @@
       <c r="AZ259">
         <v>71</v>
       </c>
+      <c r="BA259">
+        <v>71</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -43852,6 +44631,9 @@
       <c r="AZ260">
         <v>40</v>
       </c>
+      <c r="BA260">
+        <v>40</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -44028,6 +44810,9 @@
       <c r="AZ261">
         <v>100</v>
       </c>
+      <c r="BA261">
+        <v>100</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -44204,6 +44989,9 @@
       <c r="AZ262">
         <v>58</v>
       </c>
+      <c r="BA262">
+        <v>58</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -44380,6 +45168,9 @@
       <c r="AZ263">
         <v>66</v>
       </c>
+      <c r="BA263">
+        <v>67</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -44546,6 +45337,9 @@
       <c r="AZ264">
         <v>9</v>
       </c>
+      <c r="BA264">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -44712,6 +45506,9 @@
       <c r="AZ265">
         <v>4</v>
       </c>
+      <c r="BA265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -44878,6 +45675,9 @@
       <c r="AZ266">
         <v>4</v>
       </c>
+      <c r="BA266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -45044,6 +45844,9 @@
       <c r="AZ267">
         <v>4</v>
       </c>
+      <c r="BA267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -45210,6 +46013,9 @@
       <c r="AZ268">
         <v>6</v>
       </c>
+      <c r="BA268">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -45376,6 +46182,9 @@
       <c r="AZ269">
         <v>8</v>
       </c>
+      <c r="BA269">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -45542,6 +46351,9 @@
       <c r="AZ270">
         <v>0</v>
       </c>
+      <c r="BA270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -45708,6 +46520,9 @@
       <c r="AZ271">
         <v>4</v>
       </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -45874,6 +46689,9 @@
       <c r="AZ272">
         <v>0</v>
       </c>
+      <c r="BA272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -46040,6 +46858,9 @@
       <c r="AZ273">
         <v>0</v>
       </c>
+      <c r="BA273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -46206,6 +47027,9 @@
       <c r="AZ274">
         <v>2</v>
       </c>
+      <c r="BA274">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -46372,6 +47196,9 @@
       <c r="AZ275">
         <v>24</v>
       </c>
+      <c r="BA275">
+        <v>24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -46538,6 +47365,9 @@
       <c r="AZ276">
         <v>9</v>
       </c>
+      <c r="BA276">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -46704,6 +47534,9 @@
       <c r="AZ277">
         <v>0</v>
       </c>
+      <c r="BA277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -46870,6 +47703,9 @@
       <c r="AZ278">
         <v>17</v>
       </c>
+      <c r="BA278">
+        <v>17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -47036,6 +47872,9 @@
       <c r="AZ279">
         <v>5</v>
       </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -47202,6 +48041,9 @@
       <c r="AZ280">
         <v>54</v>
       </c>
+      <c r="BA280">
+        <v>54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -47368,6 +48210,9 @@
       <c r="AZ281">
         <v>41</v>
       </c>
+      <c r="BA281">
+        <v>41</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -47534,6 +48379,9 @@
       <c r="AZ282">
         <v>1</v>
       </c>
+      <c r="BA282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -47700,6 +48548,9 @@
       <c r="AZ283">
         <v>0</v>
       </c>
+      <c r="BA283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -47866,6 +48717,9 @@
       <c r="AZ284">
         <v>40</v>
       </c>
+      <c r="BA284">
+        <v>40</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -48032,6 +48886,9 @@
       <c r="AZ285">
         <v>27</v>
       </c>
+      <c r="BA285">
+        <v>27</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -48198,6 +49055,9 @@
       <c r="AZ286">
         <v>0</v>
       </c>
+      <c r="BA286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -48364,6 +49224,9 @@
       <c r="AZ287">
         <v>0</v>
       </c>
+      <c r="BA287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -48530,6 +49393,9 @@
       <c r="AZ288">
         <v>0</v>
       </c>
+      <c r="BA288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -48696,6 +49562,9 @@
       <c r="AZ289">
         <v>1</v>
       </c>
+      <c r="BA289">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -48862,6 +49731,9 @@
       <c r="AZ290">
         <v>3</v>
       </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -49028,6 +49900,9 @@
       <c r="AZ291">
         <v>0</v>
       </c>
+      <c r="BA291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -49194,6 +50069,9 @@
       <c r="AZ292">
         <v>3</v>
       </c>
+      <c r="BA292">
+        <v>3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -49360,6 +50238,9 @@
       <c r="AZ293">
         <v>0</v>
       </c>
+      <c r="BA293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -49526,6 +50407,9 @@
       <c r="AZ294">
         <v>7</v>
       </c>
+      <c r="BA294">
+        <v>7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -49692,6 +50576,9 @@
       <c r="AZ295">
         <v>0</v>
       </c>
+      <c r="BA295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -49858,6 +50745,9 @@
       <c r="AZ296">
         <v>0</v>
       </c>
+      <c r="BA296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -50024,6 +50914,9 @@
       <c r="AZ297">
         <v>1</v>
       </c>
+      <c r="BA297">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -50190,6 +51083,9 @@
       <c r="AZ298">
         <v>4</v>
       </c>
+      <c r="BA298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -50356,6 +51252,9 @@
       <c r="AZ299">
         <v>0</v>
       </c>
+      <c r="BA299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -50522,6 +51421,9 @@
       <c r="AZ300">
         <v>0</v>
       </c>
+      <c r="BA300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -50688,6 +51590,9 @@
       <c r="AZ301">
         <v>17</v>
       </c>
+      <c r="BA301">
+        <v>17</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -50854,6 +51759,9 @@
       <c r="AZ302">
         <v>0</v>
       </c>
+      <c r="BA302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -51020,6 +51928,9 @@
       <c r="AZ303">
         <v>0</v>
       </c>
+      <c r="BA303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -51186,6 +52097,9 @@
       <c r="AZ304">
         <v>4</v>
       </c>
+      <c r="BA304">
+        <v>4</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -51352,6 +52266,9 @@
       <c r="AZ305">
         <v>12</v>
       </c>
+      <c r="BA305">
+        <v>12</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -51518,6 +52435,9 @@
       <c r="AZ306">
         <v>312</v>
       </c>
+      <c r="BA306">
+        <v>314</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -51684,6 +52604,9 @@
       <c r="AZ307">
         <v>17</v>
       </c>
+      <c r="BA307">
+        <v>17</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -51850,6 +52773,9 @@
       <c r="AZ308">
         <v>5</v>
       </c>
+      <c r="BA308">
+        <v>5</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -52016,6 +52942,9 @@
       <c r="AZ309">
         <v>0</v>
       </c>
+      <c r="BA309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -52182,6 +53111,9 @@
       <c r="AZ310">
         <v>0</v>
       </c>
+      <c r="BA310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -52348,6 +53280,9 @@
       <c r="AZ311">
         <v>8</v>
       </c>
+      <c r="BA311">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -52514,6 +53449,9 @@
       <c r="AZ312">
         <v>5</v>
       </c>
+      <c r="BA312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -52680,6 +53618,9 @@
       <c r="AZ313">
         <v>0</v>
       </c>
+      <c r="BA313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -52846,6 +53787,9 @@
       <c r="AZ314">
         <v>1</v>
       </c>
+      <c r="BA314">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -53012,6 +53956,9 @@
       <c r="AZ315">
         <v>7</v>
       </c>
+      <c r="BA315">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -53178,6 +54125,9 @@
       <c r="AZ316">
         <v>3</v>
       </c>
+      <c r="BA316">
+        <v>3</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -53344,6 +54294,9 @@
       <c r="AZ317">
         <v>5</v>
       </c>
+      <c r="BA317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -53510,6 +54463,9 @@
       <c r="AZ318">
         <v>12</v>
       </c>
+      <c r="BA318">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -53676,6 +54632,9 @@
       <c r="AZ319">
         <v>6</v>
       </c>
+      <c r="BA319">
+        <v>6</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -53842,6 +54801,9 @@
       <c r="AZ320">
         <v>0</v>
       </c>
+      <c r="BA320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -54008,6 +54970,9 @@
       <c r="AZ321">
         <v>1</v>
       </c>
+      <c r="BA321">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -54174,6 +55139,9 @@
       <c r="AZ322">
         <v>8</v>
       </c>
+      <c r="BA322">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -54340,6 +55308,9 @@
       <c r="AZ323">
         <v>28</v>
       </c>
+      <c r="BA323">
+        <v>28</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -54506,6 +55477,9 @@
       <c r="AZ324">
         <v>21</v>
       </c>
+      <c r="BA324">
+        <v>21</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -54672,6 +55646,9 @@
       <c r="AZ325">
         <v>15</v>
       </c>
+      <c r="BA325">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -54838,6 +55815,9 @@
       <c r="AZ326">
         <v>1</v>
       </c>
+      <c r="BA326">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -55004,6 +55984,9 @@
       <c r="AZ327">
         <v>0</v>
       </c>
+      <c r="BA327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -55170,6 +56153,9 @@
       <c r="AZ328">
         <v>0</v>
       </c>
+      <c r="BA328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -55336,6 +56322,9 @@
       <c r="AZ329">
         <v>0</v>
       </c>
+      <c r="BA329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -55502,6 +56491,9 @@
       <c r="AZ330">
         <v>3</v>
       </c>
+      <c r="BA330">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -55668,6 +56660,9 @@
       <c r="AZ331">
         <v>1</v>
       </c>
+      <c r="BA331">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -55834,6 +56829,9 @@
       <c r="AZ332">
         <v>4</v>
       </c>
+      <c r="BA332">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -56000,6 +56998,9 @@
       <c r="AZ333">
         <v>0</v>
       </c>
+      <c r="BA333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -56166,6 +57167,9 @@
       <c r="AZ334">
         <v>0</v>
       </c>
+      <c r="BA334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -56332,6 +57336,9 @@
       <c r="AZ335">
         <v>7</v>
       </c>
+      <c r="BA335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -56498,6 +57505,9 @@
       <c r="AZ336">
         <v>2</v>
       </c>
+      <c r="BA336">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -56664,6 +57674,9 @@
       <c r="AZ337">
         <v>2</v>
       </c>
+      <c r="BA337">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -56830,6 +57843,9 @@
       <c r="AZ338">
         <v>2</v>
       </c>
+      <c r="BA338">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -56996,6 +58012,9 @@
       <c r="AZ339">
         <v>10</v>
       </c>
+      <c r="BA339">
+        <v>10</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -57162,6 +58181,9 @@
       <c r="AZ340">
         <v>1</v>
       </c>
+      <c r="BA340">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -57328,6 +58350,9 @@
       <c r="AZ341">
         <v>17</v>
       </c>
+      <c r="BA341">
+        <v>17</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -57494,6 +58519,9 @@
       <c r="AZ342">
         <v>0</v>
       </c>
+      <c r="BA342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -57660,6 +58688,9 @@
       <c r="AZ343">
         <v>0</v>
       </c>
+      <c r="BA343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -57826,6 +58857,9 @@
       <c r="AZ344">
         <v>163</v>
       </c>
+      <c r="BA344">
+        <v>165</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -57992,6 +59026,9 @@
       <c r="AZ345">
         <v>6</v>
       </c>
+      <c r="BA345">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -58158,6 +59195,9 @@
       <c r="AZ346">
         <v>5</v>
       </c>
+      <c r="BA346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -58324,6 +59364,9 @@
       <c r="AZ347">
         <v>1</v>
       </c>
+      <c r="BA347">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -58490,6 +59533,9 @@
       <c r="AZ348">
         <v>3</v>
       </c>
+      <c r="BA348">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -58656,6 +59702,9 @@
       <c r="AZ349">
         <v>15</v>
       </c>
+      <c r="BA349">
+        <v>15</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -58822,6 +59871,9 @@
       <c r="AZ350">
         <v>1</v>
       </c>
+      <c r="BA350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -58988,6 +60040,9 @@
       <c r="AZ351">
         <v>1</v>
       </c>
+      <c r="BA351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -59154,6 +60209,9 @@
       <c r="AZ352">
         <v>0</v>
       </c>
+      <c r="BA352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -59320,6 +60378,9 @@
       <c r="AZ353">
         <v>0</v>
       </c>
+      <c r="BA353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -59486,6 +60547,9 @@
       <c r="AZ354">
         <v>3</v>
       </c>
+      <c r="BA354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -59652,6 +60716,9 @@
       <c r="AZ355">
         <v>2</v>
       </c>
+      <c r="BA355">
+        <v>2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -59818,6 +60885,9 @@
       <c r="AZ356">
         <v>2</v>
       </c>
+      <c r="BA356">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -59984,6 +61054,9 @@
       <c r="AZ357">
         <v>1</v>
       </c>
+      <c r="BA357">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -60150,6 +61223,9 @@
       <c r="AZ358">
         <v>0</v>
       </c>
+      <c r="BA358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -60316,6 +61392,9 @@
       <c r="AZ359">
         <v>0</v>
       </c>
+      <c r="BA359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -60482,6 +61561,9 @@
       <c r="AZ360">
         <v>16</v>
       </c>
+      <c r="BA360">
+        <v>16</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -60648,6 +61730,9 @@
       <c r="AZ361">
         <v>2</v>
       </c>
+      <c r="BA361">
+        <v>2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -60814,6 +61899,9 @@
       <c r="AZ362">
         <v>2</v>
       </c>
+      <c r="BA362">
+        <v>2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -60980,6 +62068,9 @@
       <c r="AZ363">
         <v>2</v>
       </c>
+      <c r="BA363">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -61146,6 +62237,9 @@
       <c r="AZ364">
         <v>0</v>
       </c>
+      <c r="BA364">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -61312,6 +62406,9 @@
       <c r="AZ365">
         <v>0</v>
       </c>
+      <c r="BA365">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -61478,6 +62575,9 @@
       <c r="AZ366">
         <v>1</v>
       </c>
+      <c r="BA366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -61644,6 +62744,9 @@
       <c r="AZ367">
         <v>2</v>
       </c>
+      <c r="BA367">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -61810,6 +62913,9 @@
       <c r="AZ368">
         <v>0</v>
       </c>
+      <c r="BA368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -61976,6 +63082,9 @@
       <c r="AZ369">
         <v>1</v>
       </c>
+      <c r="BA369">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -62142,6 +63251,9 @@
       <c r="AZ370">
         <v>0</v>
       </c>
+      <c r="BA370">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -62308,6 +63420,9 @@
       <c r="AZ371">
         <v>0</v>
       </c>
+      <c r="BA371">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -62474,6 +63589,9 @@
       <c r="AZ372">
         <v>3</v>
       </c>
+      <c r="BA372">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -62640,6 +63758,9 @@
       <c r="AZ373">
         <v>2</v>
       </c>
+      <c r="BA373">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -62806,6 +63927,9 @@
       <c r="AZ374">
         <v>4</v>
       </c>
+      <c r="BA374">
+        <v>4</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -62972,6 +64096,9 @@
       <c r="AZ375">
         <v>1</v>
       </c>
+      <c r="BA375">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -63138,6 +64265,9 @@
       <c r="AZ376">
         <v>0</v>
       </c>
+      <c r="BA376">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -63304,6 +64434,9 @@
       <c r="AZ377">
         <v>0</v>
       </c>
+      <c r="BA377">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -63470,6 +64603,9 @@
       <c r="AZ378">
         <v>0</v>
       </c>
+      <c r="BA378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -63636,6 +64772,9 @@
       <c r="AZ379">
         <v>1</v>
       </c>
+      <c r="BA379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -63802,6 +64941,9 @@
       <c r="AZ380">
         <v>1</v>
       </c>
+      <c r="BA380">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -63968,6 +65110,9 @@
       <c r="AZ381">
         <v>0</v>
       </c>
+      <c r="BA381">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -64134,6 +65279,9 @@
       <c r="AZ382">
         <v>4</v>
       </c>
+      <c r="BA382">
+        <v>4</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -64300,6 +65448,9 @@
       <c r="AZ383">
         <v>0</v>
       </c>
+      <c r="BA383">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -64464,6 +65615,9 @@
         <v>0</v>
       </c>
       <c r="AZ384">
+        <v>0</v>
+      </c>
+      <c r="BA384">
         <v>0</v>
       </c>
     </row>

--- a/data/01_infected/msis/municipality_and_district_wide.xlsx
+++ b/data/01_infected/msis/municipality_and_district_wide.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA384"/>
+  <dimension ref="A1:BB384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,6 +623,11 @@
           <t>2020-05-07</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -802,6 +807,9 @@
       <c r="BA2">
         <v>248</v>
       </c>
+      <c r="BB2">
+        <v>249</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -981,6 +989,9 @@
       <c r="BA3">
         <v>178</v>
       </c>
+      <c r="BB3">
+        <v>179</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1160,6 +1171,9 @@
       <c r="BA4">
         <v>143</v>
       </c>
+      <c r="BB4">
+        <v>145</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1339,6 +1353,9 @@
       <c r="BA5">
         <v>101</v>
       </c>
+      <c r="BB5">
+        <v>101</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1518,6 +1535,9 @@
       <c r="BA6">
         <v>177</v>
       </c>
+      <c r="BB6">
+        <v>177</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1697,6 +1717,9 @@
       <c r="BA7">
         <v>116</v>
       </c>
+      <c r="BB7">
+        <v>116</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1876,6 +1899,9 @@
       <c r="BA8">
         <v>151</v>
       </c>
+      <c r="BB8">
+        <v>151</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2055,6 +2081,9 @@
       <c r="BA9">
         <v>134</v>
       </c>
+      <c r="BB9">
+        <v>134</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2234,6 +2263,9 @@
       <c r="BA10">
         <v>112</v>
       </c>
+      <c r="BB10">
+        <v>113</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2413,6 +2445,9 @@
       <c r="BA11">
         <v>120</v>
       </c>
+      <c r="BB11">
+        <v>120</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2592,6 +2627,9 @@
       <c r="BA12">
         <v>199</v>
       </c>
+      <c r="BB12">
+        <v>203</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2771,6 +2809,9 @@
       <c r="BA13">
         <v>246</v>
       </c>
+      <c r="BB13">
+        <v>250</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2950,6 +2991,9 @@
       <c r="BA14">
         <v>186</v>
       </c>
+      <c r="BB14">
+        <v>186</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3129,6 +3173,9 @@
       <c r="BA15">
         <v>166</v>
       </c>
+      <c r="BB15">
+        <v>166</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3308,6 +3355,9 @@
       <c r="BA16">
         <v>137</v>
       </c>
+      <c r="BB16">
+        <v>137</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3487,6 +3537,9 @@
       <c r="BA17">
         <v>5</v>
       </c>
+      <c r="BB17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3666,6 +3719,9 @@
       <c r="BA18">
         <v>2</v>
       </c>
+      <c r="BB18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3845,6 +3901,9 @@
       <c r="BA19">
         <v>61</v>
       </c>
+      <c r="BB19">
+        <v>62</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4014,6 +4073,9 @@
       <c r="BA20">
         <v>14</v>
       </c>
+      <c r="BB20">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4183,6 +4245,9 @@
       <c r="BA21">
         <v>133</v>
       </c>
+      <c r="BB21">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4352,6 +4417,9 @@
       <c r="BA22">
         <v>51</v>
       </c>
+      <c r="BB22">
+        <v>51</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4521,6 +4589,9 @@
       <c r="BA23">
         <v>47</v>
       </c>
+      <c r="BB23">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4690,6 +4761,9 @@
       <c r="BA24">
         <v>5</v>
       </c>
+      <c r="BB24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4859,6 +4933,9 @@
       <c r="BA25">
         <v>1</v>
       </c>
+      <c r="BB25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5028,6 +5105,9 @@
       <c r="BA26">
         <v>0</v>
       </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5197,6 +5277,9 @@
       <c r="BA27">
         <v>7</v>
       </c>
+      <c r="BB27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5366,6 +5449,9 @@
       <c r="BA28">
         <v>6</v>
       </c>
+      <c r="BB28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5535,6 +5621,9 @@
       <c r="BA29">
         <v>12</v>
       </c>
+      <c r="BB29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5704,6 +5793,9 @@
       <c r="BA30">
         <v>13</v>
       </c>
+      <c r="BB30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5873,6 +5965,9 @@
       <c r="BA31">
         <v>16</v>
       </c>
+      <c r="BB31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6042,6 +6137,9 @@
       <c r="BA32">
         <v>11</v>
       </c>
+      <c r="BB32">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6211,6 +6309,9 @@
       <c r="BA33">
         <v>13</v>
       </c>
+      <c r="BB33">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6380,6 +6481,9 @@
       <c r="BA34">
         <v>0</v>
       </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6549,6 +6653,9 @@
       <c r="BA35">
         <v>0</v>
       </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6718,6 +6825,9 @@
       <c r="BA36">
         <v>3</v>
       </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6887,6 +6997,9 @@
       <c r="BA37">
         <v>0</v>
       </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7056,6 +7169,9 @@
       <c r="BA38">
         <v>1</v>
       </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7225,6 +7341,9 @@
       <c r="BA39">
         <v>20</v>
       </c>
+      <c r="BB39">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7394,6 +7513,9 @@
       <c r="BA40">
         <v>72</v>
       </c>
+      <c r="BB40">
+        <v>72</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7563,6 +7685,9 @@
       <c r="BA41">
         <v>0</v>
       </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7732,6 +7857,9 @@
       <c r="BA42">
         <v>11</v>
       </c>
+      <c r="BB42">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7901,6 +8029,9 @@
       <c r="BA43">
         <v>18</v>
       </c>
+      <c r="BB43">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8070,6 +8201,9 @@
       <c r="BA44">
         <v>15</v>
       </c>
+      <c r="BB44">
+        <v>15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8239,6 +8373,9 @@
       <c r="BA45">
         <v>27</v>
       </c>
+      <c r="BB45">
+        <v>27</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8408,6 +8545,9 @@
       <c r="BA46">
         <v>1</v>
       </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8577,6 +8717,9 @@
       <c r="BA47">
         <v>6</v>
       </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8746,6 +8889,9 @@
       <c r="BA48">
         <v>3</v>
       </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8915,6 +9061,9 @@
       <c r="BA49">
         <v>9</v>
       </c>
+      <c r="BB49">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9084,6 +9233,9 @@
       <c r="BA50">
         <v>2</v>
       </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9253,6 +9405,9 @@
       <c r="BA51">
         <v>6</v>
       </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9422,6 +9577,9 @@
       <c r="BA52">
         <v>0</v>
       </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9591,6 +9749,9 @@
       <c r="BA53">
         <v>1</v>
       </c>
+      <c r="BB53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9760,6 +9921,9 @@
       <c r="BA54">
         <v>6</v>
       </c>
+      <c r="BB54">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9929,6 +10093,9 @@
       <c r="BA55">
         <v>5</v>
       </c>
+      <c r="BB55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10098,6 +10265,9 @@
       <c r="BA56">
         <v>1</v>
       </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10267,6 +10437,9 @@
       <c r="BA57">
         <v>10</v>
       </c>
+      <c r="BB57">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10436,6 +10609,9 @@
       <c r="BA58">
         <v>0</v>
       </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10605,6 +10781,9 @@
       <c r="BA59">
         <v>0</v>
       </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10774,6 +10953,9 @@
       <c r="BA60">
         <v>1</v>
       </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10943,6 +11125,9 @@
       <c r="BA61">
         <v>1</v>
       </c>
+      <c r="BB61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11112,6 +11297,9 @@
       <c r="BA62">
         <v>2</v>
       </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11281,6 +11469,9 @@
       <c r="BA63">
         <v>2</v>
       </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11450,6 +11641,9 @@
       <c r="BA64">
         <v>0</v>
       </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11619,6 +11813,9 @@
       <c r="BA65">
         <v>3</v>
       </c>
+      <c r="BB65">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11788,6 +11985,9 @@
       <c r="BA66">
         <v>4</v>
       </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11957,6 +12157,9 @@
       <c r="BA67">
         <v>1</v>
       </c>
+      <c r="BB67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12126,6 +12329,9 @@
       <c r="BA68">
         <v>3</v>
       </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12295,6 +12501,9 @@
       <c r="BA69">
         <v>39</v>
       </c>
+      <c r="BB69">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12464,6 +12673,9 @@
       <c r="BA70">
         <v>6</v>
       </c>
+      <c r="BB70">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12633,6 +12845,9 @@
       <c r="BA71">
         <v>0</v>
       </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12802,6 +13017,9 @@
       <c r="BA72">
         <v>2</v>
       </c>
+      <c r="BB72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12971,6 +13189,9 @@
       <c r="BA73">
         <v>5</v>
       </c>
+      <c r="BB73">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13140,6 +13361,9 @@
       <c r="BA74">
         <v>3</v>
       </c>
+      <c r="BB74">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13309,6 +13533,9 @@
       <c r="BA75">
         <v>0</v>
       </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13478,6 +13705,9 @@
       <c r="BA76">
         <v>0</v>
       </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13647,6 +13877,9 @@
       <c r="BA77">
         <v>2</v>
       </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13816,6 +14049,9 @@
       <c r="BA78">
         <v>4</v>
       </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13985,6 +14221,9 @@
       <c r="BA79">
         <v>1</v>
       </c>
+      <c r="BB79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14154,6 +14393,9 @@
       <c r="BA80">
         <v>1</v>
       </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14323,6 +14565,9 @@
       <c r="BA81">
         <v>0</v>
       </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14492,6 +14737,9 @